--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73358E28-16D9-4537-B4A4-160CA3D728C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D548D9-014F-4B27-8730-F64480273B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="354">
   <si>
     <t>Doi</t>
   </si>
@@ -73,9 +73,6 @@
     <t>10.1016/S1473-3099(20)30086-4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10.1016/S2213-2600(20)30079-5</t>
-  </si>
-  <si>
     <t>10.1016/j.jinf.2020.02.017</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>10.1093/cid/ciaa199</t>
   </si>
   <si>
-    <t>:10.1007/s00134-020-05987-7</t>
-  </si>
-  <si>
     <t>10.1007/s00134-020-05991-x</t>
   </si>
   <si>
@@ -205,184 +199,22 @@
     <t>Authors</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID Format</t>
+  </si>
+  <si>
+    <t>Date Accepted</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>10.1007/s00134-020-05987-7</t>
+  </si>
+  <si>
     <t>Clinical features of patients infected with 2019 novel coronavirus in Wuhan, China</t>
-  </si>
-  <si>
-    <t>A familial cluster of pneumonia associated with the 2019 novel coronavirus indicating person-to-person transmission: a study of a family cluster</t>
-  </si>
-  <si>
-    <t>Early Transmission Dynamics in Wuhan, China, of Novel Coronavirus–Infected Pneumonia</t>
-  </si>
-  <si>
-    <t>Epidemiological and clinical characteristics of 99 cases of 2019 novel coronavirus pneumonia in Wuhan, China: a descriptive study</t>
-  </si>
-  <si>
-    <t>Emerging 2019 Novel Coronavirus (2019-nCoV) Pneumonia</t>
-  </si>
-  <si>
-    <t>Unknown Title</t>
-  </si>
-  <si>
-    <t>Unknown Abstract</t>
-  </si>
-  <si>
-    <t>Clinical characteristics of novel coronavirus cases in tertiary hospitals in Hubei Province</t>
-  </si>
-  <si>
-    <t>Identification of a novel coronavirus causing severe pneumonia in human: a descriptive study</t>
-  </si>
-  <si>
-    <t>Abnormal coagulation parameters are associated with poor prognosis in patients with novel coronavirus pneumonia</t>
-  </si>
-  <si>
-    <t>Clinical findings in a group of patients infected with the 2019 novel coronavirus (SARS-Cov-2) outside of Wuhan, China: retrospective case series</t>
-  </si>
-  <si>
-    <t>Chest CT Findings in Patients With Coronavirus Disease 2019 and Its Relationship With Clinical Features</t>
-  </si>
-  <si>
-    <t>Novel coronavirus (2019-nCoV) cases in Hong Kong and implications for further spread</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Radiological findings from 81 patients with COVID-19 pneumonia in Wuhan, China: a descriptive study</t>
-  </si>
-  <si>
-    <t>High-resolution computed tomography features of 17 cases of coronavirus disease 2019 in Sichuan province, China</t>
-  </si>
-  <si>
-    <t>Clinical progression of patients with COVID-19 in Shanghai, China</t>
-  </si>
-  <si>
-    <t>A report of clinical diagnosis and treatment of nine cases of coronavirus disease 2019</t>
-  </si>
-  <si>
-    <t>Initial clinical features of suspected coronavirus disease 2019 in two emergency departments outside of Hubei, China</t>
-  </si>
-  <si>
-    <t>Clinical characteristics of refractory COVID-19 pneumonia in Wuhan, China</t>
-  </si>
-  <si>
-    <t>Clinical Outcomes in 55 Patients With Severe Acute Respiratory Syndrome Coronavirus 2 Who Were Asymptomatic at Hospital Admission in Shenzhen, China</t>
-  </si>
-  <si>
-    <t>Epidemiologic and clinical characteristics of 91 hospitalized patients with COVID-19 in Zhejiang, China: a retrospective, multi-centre case series</t>
-  </si>
-  <si>
-    <t>Diagnostic utility of clinical laboratory data determinations for patients with the severe COVID‐19</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ID Format</t>
-  </si>
-  <si>
-    <t>PMC7159299</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>PMC7159286</t>
-  </si>
-  <si>
-    <t>PMC7121484</t>
-  </si>
-  <si>
-    <t>PMC7135076</t>
-  </si>
-  <si>
-    <t>PMC7233366</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>not found</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PMC7147277</t>
-  </si>
-  <si>
-    <t>PMC7147275</t>
-  </si>
-  <si>
-    <t>PMC7166509</t>
-  </si>
-  <si>
-    <t>PMC7224340</t>
-  </si>
-  <si>
-    <t>PMC7147284</t>
-  </si>
-  <si>
-    <t>PMC7126916</t>
-  </si>
-  <si>
-    <t>PMC7159053</t>
-  </si>
-  <si>
-    <t>PMC7080116</t>
-  </si>
-  <si>
-    <t>PMC7130181</t>
-  </si>
-  <si>
-    <t>PMC7098480</t>
-  </si>
-  <si>
-    <t>PMC7068164</t>
-  </si>
-  <si>
-    <t>PMC7098481</t>
-  </si>
-  <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>Date Accepted</t>
-  </si>
-  <si>
-    <t>1970-01-01</t>
-  </si>
-  <si>
-    <t>2020-02-05</t>
-  </si>
-  <si>
-    <t>2020-03-01</t>
-  </si>
-  <si>
-    <t>2020-02-18</t>
-  </si>
-  <si>
-    <t>2020-02-13</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>2020-02-07</t>
-  </si>
-  <si>
-    <t>2020-02-22</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-03-13</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -415,6 +247,24 @@
 </t>
   </si>
   <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%2, Xingwang%Li%NULL%1, Lili%Ren%NULL%0, Jianping%Zhao%NULL%1, Yi%Hu%NULL%3, Li%Zhang%NULL%2, Guohui%Fan%NULL%2, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%2, Zhenshun%Cheng%NULL%2, Ting%Yu%NULL%3, Jiaan%Xia%NULL%1, Yuan%Wei%NULL%3, Wenjuan%Wu%NULL%1, Xuelei%Xie%NULL%1, Wen%Yin%NULL%1, Hui%Li%NULL%3, Min%Liu%NULL%0, Yan%Xiao%NULL%2, Hong%Gao%NULL%2, Li%Guo%NULL%2, Jungang%Xie%NULL%1, Guangfa%Wang%NULL%1, Rongmeng%Jiang%NULL%1, Zhancheng%Gao%NULL%1, Qi%Jin%NULL%2, Jianwei%Wang%wangjw28@163.com%1, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>PMC7159299</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>A familial cluster of pneumonia associated with the 2019 novel coronavirus indicating person-to-person transmission: a study of a family cluster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 An ongoing outbreak of pneumonia associated with a novel coronavirus was reported in Wuhan city, Hubei province, China.
  Affected patients were geographically linked with a local wet market as a potential source.
@@ -439,6 +289,15 @@
 </t>
   </si>
   <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%0, Shuofeng%Yuan%NULL%1, Kin-Hang%Kok%NULL%1, Kelvin Kai-Wang%To%NULL%0, Hin%Chu%NULL%0, Jin%Yang%NULL%1, Fanfan%Xing%NULL%1, Jieling%Liu%NULL%1, Cyril Chik-Yan%Yip%NULL%1, Rosana Wing-Shan%Poon%NULL%1, Hoi-Wah%Tsoi%NULL%1, Simon Kam-Fai%Lo%NULL%1, Kwok-Hung%Chan%NULL%1, Vincent Kwok-Man%Poon%NULL%1, Wan-Mui%Chan%NULL%1, Jonathan Daniel%Ip%NULL%1, Jian-Piao%Cai%NULL%1, Vincent Chi-Chung%Cheng%NULL%0, Honglin%Chen%NULL%1, Christopher Kim-Ming%Hui%NULL%1, Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7159286</t>
+  </si>
+  <si>
+    <t>Early Transmission Dynamics in Wuhan, China, of Novel Coronavirus–Infected Pneumonia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 The initial cases of novel coronavirus (2019-nCoV)–infected pneumonia (NCIP) occurred in Wuhan, Hubei Province, China, in December 2019 and January 2020. We analyzed data on the first 425 confirmed cases in Wuhan to determine the epidemiologic characteristics of NCIP.
 Methods
@@ -456,6 +315,15 @@
  (Funded by the Ministry of Science and Technology of China and others.
 )
 </t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%0, Xuhua%Guan%NULL%1, Peng%Wu%NULL%1, Xiaoye%Wang%NULL%1, Lei%Zhou%NULL%1, Yeqing%Tong%NULL%1, Ruiqi%Ren%NULL%1, Kathy S.M.%Leung%NULL%1, Eric H.Y.%Lau%NULL%1, Jessica Y.%Wong%NULL%1, Xuesen%Xing%NULL%1, Nijuan%Xiang%NULL%1, Yang%Wu%NULL%1, Chao%Li%NULL%1, Qi%Chen%NULL%1, Dan%Li%NULL%1, Tian%Liu%NULL%1, Jing%Zhao%NULL%0, Man%Liu%NULL%1, Wenxiao%Tu%NULL%1, Chuding%Chen%NULL%1, Lianmei%Jin%NULL%1, Rui%Yang%NULL%1, Qi%Wang%NULL%1, Suhua%Zhou%NULL%1, Rui%Wang%NULL%1, Hui%Liu%NULL%1, Yinbo%Luo%NULL%1, Yuan%Liu%NULL%1, Ge%Shao%NULL%1, Huan%Li%NULL%1, Zhongfa%Tao%NULL%1, Yang%Yang%NULL%1, Zhiqiang%Deng%NULL%1, Boxi%Liu%NULL%1, Zhitao%Ma%NULL%1, Yanping%Zhang%NULL%1, Guoqing%Shi%NULL%1, Tommy T.Y.%Lam%NULL%1, Joseph T.%Wu%NULL%1, George F.%Gao%NULL%1, Benjamin J.%Cowling%NULL%1, Bo%Yang%NULL%2, Bo%Yang%NULL%0, Gabriel M.%Leung%NULL%1, Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7121484</t>
+  </si>
+  <si>
+    <t>Epidemiological and clinical characteristics of 99 cases of 2019 novel coronavirus pneumonia in Wuhan, China: a descriptive study</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -479,6 +347,15 @@
 Funding
 National Key R&amp;amp;D Program of China.
 </t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%1, Xuan%Dong%NULL%1, Jieming%Qu%NULL%2, Fengyun%Gong%NULL%1, Yang%Han%NULL%1, Yang%Qiu%NULL%1, Jingli%Wang%NULL%1, Ying%Liu%NULL%2, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%1, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%1, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7135076</t>
+  </si>
+  <si>
+    <t>Emerging 2019 Novel Coronavirus (2019-nCoV) Pneumonia</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -505,6 +382,33 @@
 </t>
   </si>
   <si>
+    <t>[Fengxiang%Song%NULL%0, Nannan%Shi%NULL%2, Nannan%Shi%NULL%0, Fei%Shan%NULL%1, Zhiyong%Zhang%NULL%1, Jie%Shen%NULL%1, Hongzhou%Lu%NULL%2, Yun%Ling%NULL%0, Yebin%Jiang%NULL%2, Yebin%Jiang%NULL%0, Yuxin%Shi%shiyuxin@shphc.org.cn%3, Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>PMC7233366</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>Unknown Title</t>
+  </si>
+  <si>
+    <t>Unknown Abstract</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of novel coronavirus cases in tertiary hospitals in Hubei Province</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 The 2019 novel coronavirus (2019-nCoV) causing an outbreak of pneumonia in Wuhan, Hubei province of China was isolated in January 2020. This study aims to investigate its epidemiologic history, and analyze the clinical characteristics, treatment regimens, and prognosis of patients infected with 2019-nCoV during this outbreak.
 Methods
@@ -523,6 +427,15 @@
 The majority of patients with 2019-nCoV pneumonia present with fever as the first symptom, and most of them still showed typical manifestations of viral pneumonia on chest imaging.
  Middle-aged and elderly patients with underlying comorbidities are susceptible to respiratory failure and may have a poorer prognosis.
 </t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%1, Yan%Deng%NULL%0, Wei%Liu%NULL%0, Mei-Fang%Wang%NULL%1, Jing-Ping%Ma%NULL%1, Wei%Xiao%NULL%1, Ying-Nan%Wang%NULL%1, Min-Hua%Zhong%NULL%1, Cheng-Hong%Li%NULL%1, Guang-Cai%Li%NULL%1, Hui-Guo%Liu%NULL%2, Xiu-Yuan%Hao%NULL%4, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>PMC7147277</t>
+  </si>
+  <si>
+    <t>Identification of a novel coronavirus causing severe pneumonia in human: a descriptive study</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -546,6 +459,15 @@
 </t>
   </si>
   <si>
+    <t>[Li-Li%Ren%NULL%0, Ye-Ming%Wang%NULL%1, Zhi-Qiang%Wu%NULL%1, Zi-Chun%Xiang%NULL%1, Li%Guo%NULL%0, Teng%Xu%NULL%1, Yong-Zhong%Jiang%NULL%1, Yan%Xiong%NULL%1, Yong-Jun%Li%NULL%1, Xing-Wang%Li%NULL%1, Hui%Li%NULL%0, Guo-Hui%Fan%NULL%1, Xiao-Ying%Gu%NULL%1, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Jiu-Yang%Xu%NULL%1, Fan%Yang%NULL%0, Xin-Ming%Wang%NULL%1, Chao%Wu%NULL%1, Lan%Chen%NULL%1, Yi-Wei%Liu%NULL%1, Bo%Liu%NULL%1, Jian%Yang%NULL%1, Xiao-Rui%Wang%NULL%1, Jie%Dong%NULL%1, Li%Li%NULL%0, Chao-Lin%Huang%NULL%1, Jian-Ping%Zhao%NULL%1, Yi%Hu%NULL%0, Zhen-Shun%Cheng%NULL%1, Lin-Lin%Liu%NULL%1, Zhao-Hui%Qian%NULL%1, Chuan%Qin%NULL%0, Qi%Jin%NULL%0, Bin%Cao%NULL%0, Jian-Wei%Wang%NULL%1, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7147275</t>
+  </si>
+  <si>
+    <t>Abnormal coagulation parameters are associated with poor prognosis in patients with novel coronavirus pneumonia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 In the recent outbreak of novel coronavirus infection in Wuhan, China, significantly abnormal coagulation parameters in severe novel coronavirus pneumonia (NCP) cases were a concern.
 Objectives
@@ -558,6 +480,18 @@
 Conclusions
 The present study shows that abnormal coagulation results, especially markedly elevated D‐dimer and FDP are common in deaths with NCP.
 </t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0, Dengju%Li%NULL%1, Xiong%Wang%NULL%1, Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>PMC7166509</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>Clinical findings in a group of patients infected with the 2019 novel coronavirus (SARS-Cov-2) outside of Wuhan, China: retrospective case series</t>
   </si>
   <si>
     <t xml:space="preserve">Objective
@@ -583,6 +517,18 @@
 </t>
   </si>
   <si>
+    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%1, Xian-Gao%Jiang%NULL%1, Kai-Jin%Xu%NULL%1, Ling-Jun%Ying%NULL%1, Chun-Lian%Ma%NULL%1, Shi-Bo%Li%NULL%1, Hua-Ying%Wang%NULL%1, Sheng%Zhang%NULL%1, Hai-Nv%Gao%NULL%1, Ji-Fang%Sheng%NULL%1, Hong-Liu%Cai%NULL%1, Yun-Qing%Qiu%NULL%1, Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7224340</t>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>Chest CT Findings in Patients With Coronavirus Disease 2019 and Its Relationship With Clinical Features</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objectives
 The aim of this study was to investigate the chest computed tomography (CT) findings in patients with confirmed coronavirus disease 2019 (COVID-19) and to evaluate its relationship with clinical features.
 Materials and Methods
@@ -600,6 +546,30 @@
  There are significant correlations between the degree of pulmonary inflammation and the main clinical symptoms and laboratory results.
  Computed tomography plays an important role in the diagnosis and evaluation of this emerging global health emergency.
 </t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%2, Xiaojia%Wu%NULL%1, Wenbing%Zeng%NULL%1, Dajing%Guo%NULL%2, Zheng%Fang%NULL%2, Linli%Chen%NULL%2, Huizhe%Huang%NULL%1, Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>PMC7147284</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>Novel coronavirus (2019-nCoV) cases in Hong Kong and implications for further spread</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%0, Valerie%Wong%NULL%1, Vivian Wan In%Wei%NULL%1, Samuel Yeung Shan%Wong%NULL%1, Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>PMC7126916</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>Radiological findings from 81 patients with COVID-19 pneumonia in Wuhan, China: a descriptive study</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -624,6 +594,436 @@
 </t>
   </si>
   <si>
+    <t>[Heshui%Shi%NULL%0, Xiaoyu%Han%NULL%1, Nanchuan%Jiang%NULL%1, Yukun%Cao%NULL%1, Osamah%Alwalid%NULL%1, Jin%Gu%NULL%1, Yanqing%Fan%1024932023@qq.com%2, Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7159053</t>
+  </si>
+  <si>
+    <t>Clinical and computed tomographic imaging features of novel coronavirus pneumonia caused by SARS-CoV-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To investigate the clinical and imaging characteristics of computed tomography (CT) in novel coronavirus pneumonia (NCP) caused by SARS-CoV-2.
+Materials and methods
+A retrospective analysis was performed on the imaging findings of patients confirmed with COVID-19 pneumonia who had chest CT scanning and treatment after disease onset.
+ The clinical and imaging data were analyzed.
+Results
+Fifty patients were enrolled, including mild type in nine, common in 28, severe in 10 and critically severe in the rest three.
+ Mild patients (29 years) were significantly (P&amp;lt;0.03) younger than either common (44.5 years) or severe (54.7) and critically severe (65.7 years) patients, and common patients were also significantly (P&amp;lt;0.03) younger than severe and critically severe patients.
+ Mild patients had low to moderate fever (&amp;lt;39.1 °C), 49 (98%) patients had normal or slightly reduced leukocyte count, 14 (28%) had decreased counts of lymphocytes, and 26 (52%) patients had increased C-reactive protein.
+ Nine mild patients were negative in CT imaging.
+ For all the other types of NCP, the lesion was in the right upper lobe in 30 cases, right middle lobe in 22, right lower lobe in 39, left upper lobe in 33 and left lower lobe in 36. The lesion was primarily located in the peripheral area under the pleura with possible extension towards the pulmonary hilum.
+ Symmetrical lesions were seen in 26 cases and asymmetrical in 15. The density of lesion was mostly uneven with ground glass opacity as the primary presentation accompanied by partial consolidation and fibrosis.
+Conclusion
+CT imaging presentations of NCP are mostly patchy ground glass opacities in the peripheral areas under the pleura with partial consolidation which will be absorbed with formation of fibrotic stripes if improved.
+ CT scanning provides important bases for early diagnosis and treatment of NCP.
+</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0, Jing-Hui%Dong%NULL%1, Wei-Min%An%NULL%1, Xiao-Yan%Lv%15001008285@139.com%1, Xiao-Ping%Yin%yinxiaoping78@sina.com%1, Jian-Zeng%Zhang%NULL%1, Li%Dong%NULL%1, Xi%Ma%NULL%1, Hong-Jie%Zhang%NULL%1, Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7102535</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>Correlation of Chest CT and RT-PCR Testing in Coronavirus Disease 2019 (COVID-19) in China: A Report of 1014 Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Chest CT is used for diagnosis of 2019 novel coronavirus disease (COVID-19), as an important complement to the reverse-transcription polymerase chain reaction (RT-PCR) tests.
+Purpose
+To investigate the diagnostic value and consistency of chest CT as compared with comparison to RT-PCR assay in COVID-19.
+Methods
+From January 6 to February 6, 2020, 1014 patients in Wuhan, China who underwent both chest CT and RT-PCR tests were included.
+ With RT-PCR as reference standard, the performance of chest CT in diagnosing COVID-19 was assessed.
+ Besides, for patients with multiple RT-PCR assays, the dynamic conversion of RT-PCR results (negative to positive, positive to negative, respectively) was analyzed as compared with serial chest CT scans for those with time-interval of 4 days or more.
+Results
+Of 1014 patients, 59% (601/1014) had positive RT-PCR results, and 88% (888/1014) had positive chest CT scans.
+ The sensitivity of chest CT in suggesting COVID-19 was 97% (95%CI, 95-98%, 580/601 patients) based on positive RT-PCR results.
+ In patients with negative RT-PCR results, 75% (308/413) had positive chest CT findings; of 308, 48% were considered as highly likely cases, with 33% as probable cases.
+ By analysis of serial RT-PCR assays and CT scans, the mean interval time between the initial negative to positive RT-PCR results was 5.1 ± 1.5 days; the initial positive to subsequent negative RT-PCR result was 6.9 ± 2.3 days).
+ 60% to 93% of cases had initial positive CT consistent with COVID-19 prior (or parallel) to the initial positive RT-PCR results.
+ 42% (24/57) cases showed improvement in follow-up chest CT scans before the RT-PCR results turning negative.
+Conclusion
+Chest CT has a high sensitivity for diagnosis of COVID-19. Chest CT may be considered as a primary tool for the current COVID-19 detection in epidemic areas.
+</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0, Zhenlu%Yang%NULL%2, Zhenlu%Yang%NULL%0, Hongyan%Hou%NULL%2, Hongyan%Hou%NULL%0, Chenao%Zhan%NULL%1, Chong%Chen%NULL%1, Wenzhi%Lv%NULL%2, Wenzhi%Lv%NULL%0, Qian%Tao%NULL%2, Qian%Tao%NULL%0, Ziyong%Sun%NULL%0, Ziyong%Sun%NULL%0, Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7233399</t>
+  </si>
+  <si>
+    <t>Clinical characteristics and imaging manifestations of the 2019 novel coronavirus disease (COVID-19):A multi-center study in Wenzhou city, Zhejiang, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Little is known about COVID-19 outside Hubei.
+ The aim of this paper was to describe the clinical characteristics and imaging manifestations of hospitalized patients with confirmed COVID-19 infection in Wenzhou, Zhejiang, China.
+Methods
+In this retrospective cohort study, 149 RT-PCR confirmed positive patients were consecutively enrolled from January 17th to February 10th, 2020 in three tertiary hospitals of Wenzhou.
+ Outcomes were followed up until Feb 15th, 2020.
+Findings
+A total of 85 patients had Hubei travel/residence history, while another 49 had contact with people from Hubei and 15 had no traceable exposure history to Hubei.
+ Fever, cough and expectoration were the most common symptoms, 14 patients had decreased oxygen saturation, 33 had leukopenia, 53 had lymphopenia, and 82 had elevated C-reactive protein.
+ On chest computed tomography (CT), lung segments 6 and 10 were mostly involved.
+ A total of 287 segments presented ground glass opacity, 637 presented mixed opacity and 170 presented consolidation.
+ Lesions were more localized in the peripheral lung with a patchy form.
+ No significant difference was found between patients with or without Hubei exposure history.
+ Seventeen patients had normal CT on admission of these, 12 had negative findings even10 days later.
+Interpretation
+Most patients presented with a mild infection in our study.
+ The imaging pattern of multifocal peripheral ground glass or mixed opacity with predominance in the lower lung is highly suspicious of COVID-19 in the first week of disease onset.
+ Nevetheless, some patients can present with a normal chest finding despite testing positive for COVID-19. Funding: We did not receive any fundings.
+</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0, Qiqi%Cao%NULL%1, Le%Qin%NULL%1, Xiaoyang%Wang%NULL%1, Zenghui%Cheng%NULL%1, Ashan%Pan%NULL%1, Jianyi%Dai%NULL%1, Qingfeng%Sun%NULL%1, Fengquan%Zhao%NULL%1, Jieming%Qu%NULL%0, Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7102539</t>
+  </si>
+  <si>
+    <t>Characteristics of COVID-19 infection in Beijing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since the first case of a novel coronavirus (COVID-19) infection pneumonia was detected in Wuhan, China, a series of confirmed cases of the COVID-19 were found in Beijing.
+ We analyzed the data of 262 confirmed cases to determine the clinical and epidemiological characteristics of COVID-19 in Beijing.
+Methods
+We collected patients who were transferred by Beijing Emergency Medical Service to the designated hospitals.
+ The information on demographic, epidemiological, clinical, laboratory test for the COVID-19 virus, diagnostic classification, cluster case and outcome were obtained.
+ Furthermore we compared the characteristics between severe and common confirmed cases which including mild cases, no-pneumonia cases and asymptomatic cases, and we also compared the features between COVID-19 and 2003 SARS.
+Findings
+By Feb 10, 2020, 262 patients were transferred from the hospitals across Beijing to the designated hospitals for special treatment of the COVID-19 infected by Beijing emergency medical service.
+ Among of 262 patients, 46 (17.6%) were severe cases, 216 (82.4%) were common cases, which including 192 (73.3%) mild cases, 11(4.2%) non-pneumonia cases and 13 (5.0%) asymptomatic cases respectively.
+ The median age of patients was 47.5 years old and 48.5% were male.
+ 192 (73.3%) patients were residents of Beijing, 50 (26.0%) of which had been to Wuhan, 116 (60.4%) had close contact with confirmed cases, 21 (10.9%) had no contact history.
+ The most common symptoms at the onset of illness were fever (82.1%), cough (45.8%), fatigue (26.3%), dyspnea (6.9%) and headache (6.5%).
+ The median incubation period was 6.7 days, the interval time from between illness onset and seeing a doctor was 4.5 days.
+ As of Feb 10, 17.2% patients have discharged and 81.7% patients remain in hospital in our study, the fatality of COVID-19 infection in Beijing was 0.9%.
+Interpretation
+On the basis of this study, we provided the ratio of the COVID-19 infection on the severe cases to the mild, asymptomatic and non-pneumonia cases in Beijing.
+ Population was generally susceptible, and with a relatively low fatality rate.
+ The measures to prevent transmission was very successful at early stage, the next steps on the COVID-19 infection should be focused on early isolation of patients and quarantine for close contacts in families and communities in Beijing.
+Funding
+Beijing Municipal Science and Technology Commission and Ministry of Science and Technology.
+</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0, Nan%Hu%NULL%1, Jing%Lou%NULL%1, Kun%Chen%NULL%1, Xuqin%Kang%NULL%1, Zhenjun%Xiang%NULL%1, Hui%Chen%NULL%0, Dali%Wang%NULL%1, Ning%Liu%NULL%1, Dong%Liu%NULL%0, Gang%Chen%NULL%1, Yongliang%Zhang%NULL%1, Dou%Li%NULL%1, Jianren%Li%NULL%1, Huixin%Lian%NULL%1, Shengmei%Niu%NULL%1, Luxi%Zhang%NULL%1, Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7102527</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of laboratory confirmed positive cases of SARS-CoV-2 infection in Wuhan, China: A retrospective single center analysis</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0, Mengqi%Tu%NULL%1, Shipei%Wang%NULL%1, Sichao%Chen%NULL%1, Wei%Zhou%NULL%0, Danyang%Chen%NULL%1, Lin%Zhou%NULL%1, Min%Wang%NULL%1, Yan%Zhao%NULL%1, Wen%Zeng%NULL%1, Qi%Huang%NULL%1, Hai'bo%Xu%NULL%1, Zeming%Liu%NULL%1, Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7102650</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>Imaging and clinical features of patients with 2019 novel coronavirus SARS-CoV-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+id="Par1"&gt;The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
+ We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
+Methods
+id="Par2"&gt;All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
+ This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
+ All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
+ We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
+ In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
+Findings
+id="Par3"&gt;The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
+ More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
+ Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
+ Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
+ In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
+Conclusion
+id="Par4"&gt;SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
+ Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
+ Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0, Chengcheng%Yu%NULL%1, Jing%Qu%NULL%1, Lieguang%Zhang%NULL%1, Songfeng%Jiang%NULL%1, Deyang%Huang%NULL%1, Bihua%Chen%NULL%1, Zhiping%Zhang%NULL%1, Wanhua%Guan%NULL%1, Zhoukun%Ling%NULL%1, Rui%Jiang%NULL%1, Tianli%Hu%NULL%1, Yan%Ding%NULL%1, Lin%Lin%NULL%1, Qingxin%Gan%NULL%1, Liangping%Luo%tluolp@jnu.edu.cn%1, Xiaoping%Tang%xtang@21cn.com%1, Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7080117</t>
+  </si>
+  <si>
+    <t>Analysis of factors associated with disease outcomes in hospitalized patients with 2019 novel coronavirus disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since early December 2019, the 2019 novel coronavirus disease (COVID-19) has caused pneumonia epidemic in Wuhan, Hubei province of China.
+ This study aimed to investigate the factors affecting the progression of pneumonia in COVID-19 patients.
+ Associated results will be used to evaluate the prognosis and to find the optimal treatment regimens for COVID-19 pneumonia.
+Methods
+Patients tested positive for the COVID-19 based on nucleic acid detection were included in this study.
+ Patients were admitted to 3 tertiary hospitals in Wuhan between December 30, 2019, and January 15, 2020. Individual data, laboratory indices, imaging characteristics, and clinical data were collected, and statistical analysis was performed.
+ Based on clinical typing results, the patients were divided into a progression group or an improvement/stabilization group.
+ Continuous variables were analyzed using independent samples t-test or Mann-Whitney U test.
+ Categorical variables were analyzed using Chi-squared test or Fisher's exact test.
+ Logistic regression analysis was performed to explore the risk factors for disease progression.
+Results
+Seventy-eight patients with COVID-19-induced pneumonia met the inclusion criteria and were included in this study.
+ Efficacy evaluation at 2 weeks after hospitalization indicated that 11 patients (14.1%) had deteriorated, and 67 patients (85.9%) had improved/stabilized.
+ The patients in the progression group were significantly older than those in the disease improvement/stabilization group (66 [51, 70] vs.
+ 37 [32, 41] years, U = 4.932, P = 0.001).
+ The progression group had a significantly higher proportion of patients with a history of smoking than the improvement/stabilization group (27.3% vs.
+ 3.0%, χ2 = 9.291, P = 0.018).
+ For all the 78 patients, fever was the most common initial symptom, and the maximum body temperature at admission was significantly higher in the progression group than in the improvement/stabilization group (38.2 [37.8, 38.6] vs.
+ 37.5 [37.0, 38.4]°C, U = 2.057, P = 0.027).
+ Moreover, the proportion of patients with respiratory failure (54.5% vs.
+ 20.9%, χ2 = 5.611, P = 0.028) and respiratory rate (34 [18, 48] vs.
+ 24 [16, 60] breaths/min, U = 4.030, P = 0.004) were significantly higher in the progression group than in the improvement/stabilization group.
+ C-reactive protein was significantly elevated in the progression group compared to the improvement/stabilization group (38.9 [14.3, 64.8] vs.
+ 10.6 [1.9, 33.1] mg/L, U = 1.315, P = 0.024).
+ Albumin was significantly lower in the progression group than in the improvement/stabilization group (36.62 ± 6.60 vs.
+ 41.27 ± 4.55 g/L, U = 2.843, P = 0.006).
+ Patients in the progression group were more likely to receive high-level respiratory support than in the improvement/stabilization group (χ2 = 16.01, P = 0.001).
+ Multivariate logistic analysis indicated that age (odds ratio [OR], 8.546; 95% confidence interval [CI]: 1.628–44.864; P = 0.011), history of smoking (OR, 14.285; 95% CI: 1.577–25.000; P = 0.018), maximum body temperature at admission (OR, 8.999; 95% CI: 1.036–78.147, P = 0.046), respiratory failure (OR, 8.772, 95% CI: 1.942–40.000; P = 0.016), albumin (OR, 7.353, 95% CI: 1.098–50.000; P = 0.003), and C-reactive protein (OR, 10.530; 95% CI: 1.224−34.701, P = 0.028) were risk factors for disease progression.
+Conclusions
+Several factors that led to the progression of COVID-19 pneumonia were identified, including age, history of smoking, maximum body temperature at admission, respiratory failure, albumin, and C-reactive protein.
+ These results can be used to further enhance the ability of management of COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Zhao-Wu%Tao%NULL%1, Lei%Wang%NULL%2, Ming-Li%Yuan%NULL%1, Kui%Liu%NULL%0, Ling%Zhou%NULL%1, Shuang%Wei%NULL%1, Yan%Deng%NULL%0, Jing%Liu%NULL%0, Hui-Guo%Liu%NULL%0, Ming%Yang%NULL%1, Yi%Hu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7147279</t>
+  </si>
+  <si>
+    <t>The Clinical and Chest CT Features Associated With Severe and Critical COVID-19 Pneumonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical and computed tomography (CT) features associated with severe and critical coronavirus disease 2019 (COVID-19) pneumonia.
+Materials and Methods
+Eighty-three patients with COVID-19 pneumonia including 25 severe/critical cases and 58 ordinary cases were enrolled.
+ The chest CT images and clinical data of them were reviewed and compared.
+ The risk factors associated with disease severity were analyzed.
+Results
+Compared with the ordinary patients, the severe/critical patients had older ages, higher incidence of comorbidities, cough, expectoration, chest pain, and dyspnea.
+ The incidences of consolidation, linear opacities, crazy-paving pattern, and bronchial wall thickening in severe/critical patients were significantly higher than those of the ordinary patients.
+ Besides, severe/critical patients showed higher incidences of lymph node enlargement, pericardial effusion, and pleural effusion than the ordinary patients.
+ The CT scores of severe/critical patients were significantly higher than those of the ordinary patients (P &amp;lt; 0.001).
+ Receiver operating characteristic curve showed that the sensitivity and specificity of CT score were 80.0% and 82.8%, respectively, for the discrimination of the 2 types.
+ The clinical factors of age older than 50 years, comorbidities, dyspnea, chest pain, cough, expectoration, decreased lymphocytes, and increased inflammation indicators were risk factors for severe/critical COVID-19 pneumonia.
+ Computed tomography findings of consolidation, linear opacities, crazy-paving pattern, bronchial wall thickening, high CT scores, and extrapulmonary lesions were features of severe/critical COVID-19 pneumonia.
+Conclusions
+There are significant differences in clinical symptoms, laboratory examinations, and CT manifestations between the ordinary patients and the severe/critical patients.
+ Many factors are related to the severity of the disease, which can help clinicians to judge the severity of the patient and evaluate the prognosis.
+</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0, Jiong%Wu%NULL%0, Faqi%Wu%NULL%1, Dajing%Guo%NULL%0, Linli%Chen%NULL%0, Zheng%Fang%NULL%0, Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7147273</t>
+  </si>
+  <si>
+    <t>Clinical Characteristics of Imported Cases of COVID-19 in Jiangsu Province: A Multicenter Descriptive Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+We aimed to report the clinical characteristics of imported coronavirus disease-19 (COVID-19) in Jiangsu Province.
+Methods
+We retrospectively investigated the clinical, imaging, and laboratory characteristics of confirmed cases of COVID-19 with WHO interim guidance in three Grade ⅢA hospitals of Jiangsu from Jan 22 to Feb 14, 2020. Real time RT-PCR was used to detect the new coronavirus in respiratory samples.
+Results
+Of the 80 patients infected with COVID-19, 41 patients were female, with a median age of 46.1 years.
+ Except for 3 severe patients, the rest of the 77 patients exhibited mild or moderate symptoms.
+ 9 patients were unconfirmed until a third-time nucleic acid test.
+ 38 cases had a history of chronic diseases.
+ The main clinical manifestations of the patients were fever and cough, which accounted for 63 cases (78.75%) and 51 cases (-63.75%) respectively.
+ Only 3 patients (3.75%) showed liver dysfunction.
+ Imaging examination showed that 55 patients (-68.75%) showed abnormal, 25 cases (31.25%) had no abnormal density shadow in the parenchyma of both lungs.
+ Up to now, 21 cases were discharged from the hospital, and no patient died.
+ The average length of stay for discharged patients was 8 days.
+Conclusions
+Compared with the cases in Wuhan, the cases in Jiangsu exhibited mild or moderate symptoms and no obvious gender susceptivity.
+ The proportion of patients having liver dysfunction and abnormal CT imaging was relatively lower than that of Wuhan.
+ Notably, infected patients may be falsely excluded based on two consecutively negative respiratory pathogenic nucleic acid test results.
+</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0, Jun%Liu%NULL%1, Xinguo%Zhao%NULL%1, Chengyuan%Liu%NULL%1, Wei%Wang%NULL%1, Dawei%Wang%NULL%0, Wei%Xu%NULL%1, Chunyu%Zhang%NULL%1, Jiong%Yu%NULL%1, Bin%Jiang%NULL%1, Hongcui%Cao%hccao@zju.edu.cn%1, Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7108195</t>
+  </si>
+  <si>
+    <t>Clinical features and short-term outcomes of 18 patients with corona virus disease 2019 in intensive care unit</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Xiaorong%Hu%NULL%1, Wenlin%Cheng%NULL%1, Lei%Yu%NULL%1, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1, Qiang%Liu%liuqiang@irm-cams.ac.cn%2, Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>PMC7079866</t>
+  </si>
+  <si>
+    <t>Clinical predictors of mortality due to COVID-19 based on an analysis of data of 150 patients from Wuhan, China</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0, Kun%Yang%NULL%2, Kun%Yang%NULL%0, Wenxia%Wang%NULL%2, Wenxia%Wang%NULL%0, Lingyu%Jiang%NULL%2, Lingyu%Jiang%NULL%0, Jianxin%Song%songsingsjx@sina.com%2, Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>PMC7080116</t>
+  </si>
+  <si>
+    <t>Evidence for Gastrointestinal Infection of SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1, Meiwen%Tang%NULL%1, Xiaobin%Zheng%NULL%1, Ye%Liu%ly77219@163.com%1, Xiaofeng%Li%zdwylxf@163.com%1, Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>PMC7130181</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>Clinical and High-Resolution CT Features of the COVID-19 Infection: Comparison of the Initial and Follow-up Changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+In late December 2019, an outbreak of coronavirus disease (COVID-19) in Wuhan, China was caused by a novel coronavirus, newly named severe acute respiratory syndrome coronavirus 2. We aimed to quantify the severity of COVID-19 infection on high-resolution chest computed tomography (CT) and to determine its relationship with clinical parameters.
+Materials and Methods
+From January 11, 2020, to February 5, 2020, the clinical, laboratory, and high-resolution CT features of 42 patients (26–75 years, 25 males) with COVID-19 were analyzed.
+ The initial and follow-up CT, obtained a mean of 4.5 days and 11.6 days from the illness onset were retrospectively assessed for the severity and progression of pneumonia.
+ Correlations among clinical parameters, initial CT features, and progression of opacifications were evaluated with Spearman correlation and linear regression analysis.
+Results
+Thirty-five patients (83%) exhibited a progressive process according to CT features during the early stage from onset.
+ Follow-up CT findings showed progressive opacifications, consolidation, interstitial thickening, fibrous strips, and air bronchograms, compared with initial CT (all P &amp;lt; 0.05).
+ Before regular treatments, there was a moderate correlation between the days from onset and sum score of opacifications (R = 0.68, P &amp;lt; 0.01).
+ The C-reactive protein, erythrocyte sedimentation rate, and lactate dehydrogenase showed significantly positive correlation with the severity of pneumonia assessed on initial CT (Rrange, 0.36–0.75; P &amp;lt; 0.05).
+ The highest temperature and the severity of opacifications assessed on initial CT were significantly related to the progression of opacifications on follow-up CT (P = 0.001–0.04).
+Conclusions
+Patients with the COVID-19 infection usually presented with typical ground glass opacities and other CT features, which showed significant correlations with some clinical and laboratory measurements.
+ Follow-up CT images often demonstrated progressions during the early stage from illness onset.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1, Dong%Sun%NULL%1, Yao%Liu%NULL%1, Yanqing%Fan%NULL%0, Lingyun%Zhao%NULL%1, Xiaoming%Li%NULL%1, Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7147282</t>
+  </si>
+  <si>
+    <t>Fecal specimen diagnosis 2019 novel coronavirus–infected pneumonia</t>
+  </si>
+  <si>
+    <t>The emergence and spread of 2019 novel coronavirus–infected pneumonia (COVID‐19) from Wuhan, China, it has spread globally.
+ We extracted the data on 14 patients with laboratory‐confirmed COVID‐19 from Jinhua Municipal Central hospital through 27 January 2020. We found that compared to pharyngeal swab specimens, nucleic acid detection of COVID‐19 in fecal specimens was equally accurate.
+ And we found that patients with a positive stool test did not experience gastrointestinal symptoms and had nothing to do with the severity of the lung infection.
+ These results may help to understand the clinical diagnosis and the changes in clinical parameters of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1, SaiBin%Wang%NULL%2, SaiBin%Wang%NULL%0, YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7228355</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of 24 asymptomatic infections with COVID-19 screened among close contacts in Nanjing, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronic Supplementary Material
+Supplementary material is available for this article at 10.1007/s11427-020-1661-4 and is accessible for authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0, Ci%Song%NULL%1, Chuanjun%Xu%NULL%1, Guangfu%Jin%NULL%1, Yaling%Chen%NULL%1, Xin%Xu%NULL%1, Hongxia%Ma%NULL%1, Wei%Chen%NULL%1, Yuan%Lin%NULL%1, Yishan%Zheng%NULL%1, Jianming%Wang%NULL%1, Zhibin%Hu%zhibin_hu@njmu.edu.cn%1, Yongxiang%Yi%ian0126@126.com%1, Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7088568</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>Epidemiological characteristics of 2019-ncoV infections in Shaanxi, China by February 8, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December, 2019, a new coronavirus named 2019-nCoV causing severe acute respiratory disease has emerged in the region of Wuhan, China [1, 2].
+ The National Health Commission of People's Republic of China named pneumonia infected with 2019-nCoV as Novel Coronavirus Pneumonia (NCP).
+Evidence have pointing to the person-to-person transmission [3–5].
+ As of February 8, 2020, China has reported 34 673 confirmed and more than 27 657 suspected cases of NCP across 34 Chinese provinces or municipalities, with 106 fatalities.
+ Most of the studies focused on the epidemic situation in Wuhan, but few on provinces outside Wuhan.
+ Shaanxi is located in the northwest of Hubei Province and adjacent to it, with a population of 38.64 million.
+ Since the first case of NCP was confirmed in Shannxi by on January 23, 2020, 195 cases have been confirmed, but there is no relevant epidemiological study.
+ In order to better understand the epidemic law of new coronavirus in Shaanxi Province, and provide the basis for the future development of control measures.
+This article aims to report the epidemiological outcomes of 195 confirmed case infected with 2019-nCoV in Shaanxi, and to compare the clinical features between patients with or without a history of exposure in Wuhan.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1, Yao%Tian%NULL%2, Yao%Tian%NULL%0, Jing%Zhou%NULL%1, Xuan%Ma%NULL%1, Min%Yang%NULL%1, ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7098480</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>First cases of coronavirus disease 2019 (COVID-19) in the WHO European Region, 24 January to 21 February 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the WHO European Region, COVID-19 surveillance was implemented 27 January 2020. We detail the first European cases.
+ As at 21 February, nine European countries reported 47 cases.
+ Among 38 cases studied, 21 were linked to two clusters in Germany and France, 14 were infected in China.
+ Median case age was 42 years; 25 were male.
+ Late detection of the clusters’ index cases delayed isolation of further local cases.
+ As at 5 March, there were 4,250 cases.
+ </t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1, James%Fielding%NULL%1, Michaela%Diercke%NULL%1, Christine%Campese%NULL%1, Vincent%Enouf%NULL%1, Alexandre%Gaymard%NULL%1, Antonino%Bella%NULL%1, Paola%Sognamiglio%NULL%1, Maria José%Sierra Moros%NULL%1, Antonio Nicolau%Riutort%NULL%1, Yulia V.%Demina%NULL%1, Romain%Mahieu%NULL%1, Markku%Broas%NULL%1, Malin%Bengnér%NULL%1, Silke%Buda%NULL%1, Julia%Schilling%NULL%1, Laurent%Filleul%NULL%1, Agnès%Lepoutre%NULL%1, Christine%Saura%NULL%1, Alexandra%Mailles%NULL%1, Daniel%Levy-Bruhl%NULL%1, Bruno%Coignard%NULL%1, Sibylle%Bernard-Stoecklin%NULL%1, Sylvie%Behillil%NULL%1, Sylvie%van der Werf%NULL%1, Martine%Valette%NULL%1, Bruno%Lina%NULL%1, Flavia%Riccardo%NULL%1, Emanuele%Nicastri%NULL%1, Inmaculada%Casas%NULL%1, Amparo%Larrauri%NULL%1, Magdalena%Salom Castell%NULL%1, Francisco%Pozo%NULL%1, Rinat A.%Maksyutov%NULL%1, Charlotte%Martin%NULL%1, Marc%Van Ranst%NULL%1, Nathalie%Bossuyt%NULL%1, Lotta%Siira%NULL%1, Jussi%Sane%NULL%1, Karin%Tegmark-Wisell%NULL%1, Maria%Palmérus%NULL%1, Eeva K.%Broberg%NULL%1, Julien%Beauté%NULL%1, Pernille%Jorgensen%NULL%1, Nick%Bundle%NULL%1, Dmitriy%Pereyaslov%NULL%1, Cornelia%Adlhoch%NULL%1, Jukka%Pukkila%NULL%1, Richard%Pebody%NULL%1, Sonja%Olsen%NULL%1, Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7068164</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>The clinical dynamics of 18 cases of COVID-19 outside of Wuhan, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since an outbreak of 2019 novel coronavirus (COVID-19) in Wuhan and related regions in Hubei province, an increasing number of exported cases have been confirmed in other provinces in China and in multiple countries around the world with substantial morbidity and mortality [1–4].
+ The WHO has declared a public health emergency of international concern considering rapid increases in numbers of confirmed cases in China and additional countries.
+ As of February 22, 2020, a total of 12 938 patients had been confirmed outside of Wuhan and related regions in Hubei province of China [1].
+ However, there is limited information about COVID-19 outside of Wuhan [5], and no study has reported the time to RT-PCR conversion and radiological changes after treatment.
+</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%0, Yong-hua%Gao%NULL%1, Li-Li%lou%NULL%1, Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7098482</t>
+  </si>
+  <si>
+    <t>High-resolution computed tomography features of 17 cases of coronavirus disease 2019 in Sichuan province, China</t>
+  </si>
+  <si>
     <t xml:space="preserve">The city of Wuhan, in Hubei province, China is the focus of global attention due to the coronavirus disease 2019 (COVID-19) outbreak [1].
  Sichuan, as a province near Hubei, also has been involved.
  As of February 12, 2020, 59 741 confirmed cases of COVID-19 have been reported in China, of which 451 cases have been identified in Sichuan province.
@@ -633,10 +1033,123 @@
 </t>
   </si>
   <si>
+    <t>[Simin%Zhang%NULL%1, Huaqiao%Li%NULL%1, Songtao%Huang%NULL%1, Wei%You%NULL%1, Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7098481</t>
+  </si>
+  <si>
+    <t>Clinical course and risk factors for mortality of adult inpatients with COVID-19 in Wuhan, China: a retrospective cohort study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December, 2019, Wuhan, China, has experienced an outbreak of coronavirus disease 2019 (COVID-19), caused by the severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2).
+ Epidemiological and clinical characteristics of patients with COVID-19 have been reported but risk factors for mortality and a detailed clinical course of illness, including viral shedding, have not been well described.
+Methods
+In this retrospective, multicentre cohort study, we included all adult inpatients (≥18 years old) with laboratory-confirmed COVID-19 from Jinyintan Hospital and Wuhan Pulmonary Hospital (Wuhan, China) who had been discharged or had died by Jan 31, 2020. Demographic, clinical, treatment, and laboratory data, including serial samples for viral RNA detection, were extracted from electronic medical records and compared between survivors and non-survivors.
+ We used univariable and multivariable logistic regression methods to explore the risk factors associated with in-hospital death.
+Findings
+191 patients (135 from Jinyintan Hospital and 56 from Wuhan Pulmonary Hospital) were included in this study, of whom 137 were discharged and 54 died in hospital.
+ 91 (48%) patients had a comorbidity, with hypertension being the most common (58 [30%] patients), followed by diabetes (36 [19%] patients) and coronary heart disease (15 [8%] patients).
+ Multivariable regression showed increasing odds of in-hospital death associated with older age (odds ratio 1·10, 95% CI 1·03–1·17, per year increase; p=0·0043), higher Sequential Organ Failure Assessment (SOFA) score (5·65, 2·61–12·23; p&amp;lt;0·0001), and d-dimer greater than 1 μg/mL (18·42, 2·64–128·55; p=0·0033) on admission.
+ Median duration of viral shedding was 20·0 days (IQR 17·0–24·0) in survivors, but SARS-CoV-2 was detectable until death in non-survivors.
+ The longest observed duration of viral shedding in survivors was 37 days.
+Interpretation
+The potential risk factors of older age, high SOFA score, and d-dimer greater than 1 μg/mL could help clinicians to identify patients with poor prognosis at an early stage.
+ Prolonged viral shedding provides the rationale for a strategy of isolation of infected patients and optimal antiviral interventions in the future.
+Funding
+Chinese Academy of Medical Sciences Innovation Fund for Medical Sciences; National Science Grant for Distinguished Young Scholars; National Key Research and Development Program of China; The Beijing Science and Technology Project; and Major Projects of National Science and Technology on New Drug Creation and Development.
+</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%1, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%1, Jie%Xiang%NULL%1, Yeming%Wang%NULL%0, Bin%Song%NULL%1, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%1, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%1, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%1, Yi%Zhang%NULL%1, Hua%Chen%NULL%1, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7270627</t>
+  </si>
+  <si>
+    <t>Clinical features of COVID-19 in elderly patients: A comparison with young and middle-aged patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Due to the general susceptibility of new coronaviruses, the clinical characteristics and outcomes of elderly and young patients may be different.
+Objective
+To analyze the clinical characteristics of elderly patients with 2019 new-type coronavirus pneumonia (COVID-19).
+Methods
+This is a retrospective study of patients with new coronavirus pneumonia (COVID-19) who were hospitalized in Hainan Provincial People's Hospital from January 15, 2020 to February 18, 2020. Compare the clinical characteristics of elderly with Young and Middle-aged patients.
+Results
+A total of 56 patients were enrolled 18 elderly patients (32.14%), and 38 young and middle-aged patients (67.86%).
+ The most common symptoms in both groups were fever, followed by cough and sputum.
+ Four patients in the elderly group received negative pressure ICU for mechanical ventilation, and five patients in the young and middle-aged group.
+ One patient died in the elderly group (5.56%), and two patients died in the young and middle-aged group (5.26%).
+ The PSI score of the elderly group was higher than that of the young and middle-aged group (P &amp;lt; 0.001).
+ The proportion of patients with PSI grades IV and V was significantly higher in the elderly group than in the young and middle-aged group (P &amp;lt; 0.05).
+ The proportion of multiple lobe involvement in the elderly group was higher than that in the young and middle-aged group (P &amp;lt; 0.001), and there was no difference in single lobe lesions between the two groups.
+ The proportion of lymphocytes in the elderly group was significantly lower than that in the young and middle-aged group (P &amp;lt; 0.001), and the C-reactive protein was significantly higher in the young group (P &amp;lt; 0.001).
+ The Lopinavir and Ritonavir Tablets, Chinese medicine, oxygen therapy, and mechanical ventilation were statistically different in the elderly group and the young and middle-aged group, and the P values were all &amp;lt;0.05.
+Interpretation
+The mortality of elderly patients with COVID-19 is higher than that of young and middle-aged patients, and the proportion of patients with PSI grade IV and V is significantly higher than that of young and middle-aged patients.
+ Elderly patients with COVID-19 are more likely to progress to severe disease.
+</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0, Ying%Chen%NULL%1, Ruzheng%Lin%NULL%1, Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7102640</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>Clinical progression of patients with COVID-19 in Shanghai, China</t>
+  </si>
+  <si>
     <t xml:space="preserve">
               •
               Most of the COVID-19 cases are mild.
 </t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0, Tangkai%Qi%NULL%1, Li%Liu%NULL%1, Yun%Ling%NULL%0, Zhiping%Qian%NULL%1, Tao%Li%NULL%0, Feng%Li%NULL%1, Qingnian%Xu%NULL%1, Yuyi%Zhang%NULL%1, Shuibao%Xu%NULL%1, Zhigang%Song%NULL%1, Yigang%Zeng%NULL%1, Yinzhong%Shen%NULL%0, Yuxin%Shi%NULL%0, Tongyu%Zhu%NULL%1, Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>PMC7102530</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>A comparative study on the clinical features of COVID-19 pneumonia to other pneumonias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A novel coronavirus (2019-nCoV) has raised world concern since it emerged in Wuhan Hubei China in December, 2019. The infection may result into severe pneumonia with clusters illness onsets.
+ Its impacts on public health make it paramount to clarify the clinical features with other pneumonias.
+Methods
+Nineteen 2019-nCoV pneumonia (NCOVID-19) and fifteen other pneumonia patients (NON-NCOVID-19) in out of Hubei places were involved in this study.
+ Both NCOVID-19 and NON-NCOVID-19 patients were confirmed to be infected in throat swabs or/and sputa with or without 2019-nCoV by real-time RT-PCR.
+ We analyzed the demographic, epidemiological, clinical, and radiological features from those patients, and compared the difference between NCOVID-19 and NON-NCOVID-19.
+Results
+All patients had a history of exposure to confirmed case of 2019-nCoV or travel to Hubei before illness.
+ The median duration, respectively, was 8 (IQR:6~11) and 5 (IQR:4~11) days from exposure to onset in NCOVID-19 and NON-NCOVID-19. The clinical symptoms were similar between NCOVID-19 and NON-NCOVID-19. The most common symptoms were fever and cough.
+ Fifteen (78.95%) NCOVID-19 but 4 (26.67%) NON-NCOVID-19 patients had bilateral involvement while 17 (89.47%) NCOVID-19 but 1 (6.67%) NON-NCOVID-19 patients had multiple mottling and ground-glass opacity of chest CT images.
+ Compared to NON-NCOVID-19, NCOVID-19 present remarkably more abnormal laboratory tests including AST, ALT, γ-GT, LDH and α-HBDH.
+Conclusion
+The 2019-nCoV infection caused similar onsets to other pneumonias.
+ CT scan may be a reliable test for screening NCOVID-19 cases.
+ Liver function damage is more frequent in NCOVID-19 than NON-NCOVID-19 patients.
+ LDH and α-HBDH may be considerable markers for evaluation of NCOVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0, Feifei%Yao%NULL%1, Lijie%Wang%NULL%1, Ling%Zheng%NULL%1, Yongjun%Gao%NULL%1, Jun%Ye%NULL%1, Feng%Guo%NULL%1, Hui%Zhao%NULL%1, Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7108162</t>
+  </si>
+  <si>
+    <t>A report of clinical diagnosis and treatment of nine cases of coronavirus disease 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Coronavirus disease 2019 (COVID‐19) caused by the severe acute respiratory syndrome coronavirus 2 has become an important public health issue in the world.
@@ -644,6 +1157,18 @@
  The main clinical manifestations were respiratory symptoms and occasional gastrointestinal symptoms.
  However, there is no unified standard for the diagnosis and treatment of COVID‐19. In the retrospective analysis, we report nine cases of COVID‐19, describe the history of contact, clinical manifestations, the course of diagnosis and clinical treatment before, during and after treatment.
 </t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1, Bin%Quan%NULL%1, Xiaoning%Li%NULL%1, Guangjian%Gao%NULL%1, Wenqiang%Zheng%NULL%1, Jun%Zhang%NULL%0, Zhiyun%Zhang%NULL%1, Chunsheng%Liu%NULL%1, Li%Li%NULL%0, Chenglin%Wang%NULL%1, Guihua%Zhang%NULL%1, Jiajia%Li%NULL%1, Yunhai%Dai%NULL%1, Jianghua%Yang%yjhpath@163.com%1, Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>PMC7228316</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>Initial clinical features of suspected coronavirus disease 2019 in two emergency departments outside of Hubei, China</t>
   </si>
   <si>
     <t xml:space="preserve">With an increasing number of Coronavirus Disease 2019 (COVID‐19) cases outside of Hubei, emergency departments (EDs) and fever clinics are facing challenges posed by the large number of admissions of patients suspected to have COVID‐19. Therefore, it is of crucial importance to study the initial clinical features of patients, to better differentiate between infected and uninfected patients outside Hubei.
@@ -668,6 +1193,18 @@
 </t>
   </si>
   <si>
+    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%2, Kai%Xie%NULL%0, Hui%Lu%NULL%1, Lei%Xu%bayinhexl@126.com%1, Shusheng%Zhou%zhouss108@163.com%1, Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7228360</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of refractory COVID-19 pneumonia in Wuhan, China</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Since December 2019, novel coronavirus (SARS-CoV-2)-infected pneumonia (COVID-19) occurred in Wuhan, and rapidly spread throughout China.
  This study aimed to clarify the characteristics of patients with refractory COVID-19.
@@ -684,11 +1221,61 @@
 </t>
   </si>
   <si>
+    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%1, Liping%Deng%NULL%1, Qiu%Zhao%NULL%1, Hongling%Wang%NULL%1, Yong%Xiong%NULL%1, Zhenshun%Cheng%NULL%0, Shicheng%Gao%NULL%1, Ke%Liang%NULL%1, Mingqi%Luo%NULL%1, Tielong%Chen%NULL%1, Shihui%Song%NULL%1, Zhiyong%Ma%NULL%1, Xiaoping%Chen%NULL%1, Ruiying%Zheng%NULL%1, Qian%Cao%NULL%1, Fan%Wang%fanndywang@foxmail.com%1, Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7184444</t>
+  </si>
+  <si>
+    <t>Clinical Features of 69 Cases with Coronavirus Disease 2019 in Wuhan, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+From December 2019 to February 2020, 2019 severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has caused a serious outbreak of coronavirus disease 2019 (COVID-19) in Wuhan, China.
+ Related clinical features are needed.
+Methods
+We reviewed 69 patients who were hospitalized in Union hospital in Wuhan between January 16 to January 29, 2020. All patients were confirmed to be infected with SARS-CoV-2 and the final date of follow-up was February 4, 2020.
+Results
+The median age of 69 enrolled patients was 42.0 years (IQR 35.0-62.0), and 32 patients (46%) were men.
+ The most common symptoms were fever (60[87%]), cough (38[55%]), and fatigue (29[42%]).
+ Most patients received antiviral therapy (66 [98.5%] of 67 patients) and antibiotic therapy (66 [98.5%] of 67 patients).
+ As of February 4, 2020, 18 (26.9%) of 67 patients had been discharged, and five patients had died, with a mortality rate of 7.5%.
+ According to the lowest SpO2 during admission, cases were divided into the SpO2≥90% group (n=55) and the SpO2&amp;lt;90% group (n=14).
+ All 5 deaths occurred in the SpO2&amp;lt;90% group.
+ Compared with SpO2≥90% group, patients of the SpO2&amp;lt;90% group were older, and showed more comorbidities and higher plasma levels of IL6, IL10, lactate dehydrogenase, and c reactive protein.
+ Arbidol treatment showed tendency to improve the discharging rate and decrease the mortality rate.
+Conclusions
+COVID-19 appears to show frequent fever, dry cough, and increase of inflammatory cytokines, and induced a mortality rate of 7.5%.
+ Older patients or those with underlying comorbidities are at higher risk of death.
+</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%1, Qianwen%Li%NULL%1, Lu%Wen%NULL%1, Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7184452</t>
+  </si>
+  <si>
+    <t>Clinical Outcomes in 55 Patients With Severe Acute Respiratory Syndrome Coronavirus 2 Who Were Asymptomatic at Hospital Admission in Shenzhen, China</t>
+  </si>
+  <si>
     <t xml:space="preserve">An epidemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has spread unexpectedly in Wuhan, Hubei Province, China, since December 2019. There are few reports about asymptomatic contacts of infected patients identified as positive for SARS-CoV-2 through screening.
  We studied the epidemiological and clinical outcomes in 55 asymptomatic carriers who were laboratory confirmed to be positive for SARS-CoV-2 through nucleic acid testing of pharyngeal swab samples.
  The asymptomatic carriers seldom occurred among young people (aged 18–29 years) who had close contact with infected family members.
  In the majority of patients, the outcome was mild or ordinary 2019 novel coronavirus disease during hospitalization.
 </t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1, Yingxia%Liu%NULL%0, Lei%Liu%NULL%1, Xianfeng%Wang%NULL%1, Nijuan%Luo%NULL%1, Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7184401</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>Epidemiologic and clinical characteristics of 91 hospitalized patients with COVID-19 in Zhejiang, China: a retrospective, multi-centre case series</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -713,6 +1300,15 @@
 </t>
   </si>
   <si>
+    <t>[G -Q%Qian%NULL%0, N -B%Yang%NULL%1, F%Ding%NULL%1, A H Y%Ma%NULL%1, Z -Y%Wang%NULL%2, Y -F%Shen%NULL%1, C -W%Shi%NULL%1, X%Lian%NULL%1, J -G%Chu%NULL%1, L%Chen%chxmin@hotmail.com%1, Z -Y%Wang%NULL%0, D -W%Ren%NULL%1, G -X%Li%NULL%1, X -Q%Chen%chxmin@hotmail.com%1, H -J%Shen%NULL%1, X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7184349</t>
+  </si>
+  <si>
+    <t>Diagnostic utility of clinical laboratory data determinations for patients with the severe COVID‐19</t>
+  </si>
+  <si>
     <t xml:space="preserve">The role of clinical laboratory data in the differential diagnosis of the severe forms of COVID‐19 has not been definitely established.
  The aim of this study was to look for the warning index in severe COVID‐19 patients.
  We investigated 43 adult patients with COVID‐19. The patients were classified into mild group (28 patients) and severe group (15 patients).
@@ -724,662 +1320,313 @@
 </t>
   </si>
   <si>
-    <t>Clinical and biochemical indexes from 2019-nCoV infected patients linked to viral loads and lung injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The outbreak of the 2019-nCoV infection began in December 2019 in Wuhan, Hubei province, and rapidly spread to many provinces in China as well as other countries.
- Here we report the epidemiological, clinical, laboratory, and radiological characteristics, as well as potential biomarkers for predicting disease severity in 2019-nCoV-infected patients in Shenzhen, China.
- All 12 cases of the 2019-nCoV-infected patients developed pneumonia and half of them developed acute respiratory distress syndrome (ARDS).
- The most common laboratory abnormalities were hypoalbuminemia, lymphopenia, decreased percentage of lymphocytes (LYM) and neutrophils (NEU), elevated C-reactive protein (CRP) and lactate dehydrogenase (LDH), and decreased CD8 count.
- The viral load of 2019-nCoV detected from patient respiratory tracts was positively linked to lung disease severity.
- ALB, LYM, LYM (%), LDH, NEU (%), and CRP were highly correlated to the acute lung injury.
- Age, viral load, lung injury score, and blood biochemistry indexes, albumin (ALB), CRP, LDH, LYM (%), LYM, and NEU (%), may be predictors of disease severity.
- Moreover, the Angiotensin II level in the plasma sample from 2019-nCoV infected patients was markedly elevated and linearly associated to viral load and lung injury.
- Our results suggest a number of potential diagnosis biomarkers and angiotensin receptor blocker (ARB) drugs for potential repurposing treatment of 2019-nCoV infection.
-</t>
-  </si>
-  <si>
-    <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
-  </si>
-  <si>
-    <t>Introduction: the mechanisms that are suggested as determinant in the vulnerability of patients with heart failure to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and which cause the respiratory syndrome labeled COVID-19 (Coronavirus Infectious Disease-19), has revealed controversial.
- Objective: to gather information on the pathophysiological features of acute heart failure in the context of COVID-19. Method: concerning this topic, from September to November 2020 at the Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d in Santiago de Cuba, a narrative review was carried out.
- The search was conducted checking the databases Pubmed, Infomed and SciELO, without date restriction, and in Spanish and English language.
- Development: the mechanisms involved on the pathophysiological features of heart failure in patients with this infectious disease revealed uncertainty.
- Myocardial damage is achievement of two aspects, the direct effect of viral respiratory infection on the myocyte, which is expressed as a local inflammatory response, and the heart participation as a target organ to the systemic and inappropriate inflammatory response, generated by a marked cytokines release.
- The last aspect referred also causes endothelial damage that triggers thromboembolic and ischemic complications, systolic and diastolic dysfunction of the heart, and ultimately leads to multiorgan system failure.
-Conclusions: despite the advances in understanding the etiopathogenesis of this disease, the pathophysiological mechanisms that determine on the heart failure still require to be precisely clarified, although the influence of the inappropriate inflammatory response, induced by cytokines, it is recognized in the onset myocardial damage.
-Introducci\u00f3n: se revelan controversias respecto a los mecanismos que determinan la vulnerabilidad de los pacientes con insuficiencia cardiaca a la infecci\u00f3n por el virus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), que produce el s\u00edndrome respiratorio llamado Coronavirus Infectious Disease-19 (COVID-19).
- Objetivo: recopilar informaci\u00f3n sobre la fisiopatolog\u00eda de la insuficiencia cardiaca aguda en el contexto de la COVID-19.M\u00e9todo: en el Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d de Santiago de Cuba, entre septiembre y noviembre del 2020, se realiz\u00f3 una revisi\u00f3n narrativa sobre este tema.
- La b\u00fasqueda se efectu\u00f3 consultando las bases de datos Pubmed, Infomed y SciELO, sin restricci\u00f3n de fecha, en los idiomas espa\u00f1ol e ingl\u00e9s.
- Desarrollo: se manifiestan incertidumbre en los mecanismos implicados en la fisiopatolog\u00eda de la insuficiencia cardiaca de los pacientes con esta enfermedad infecciosa.
- El da\u00f1o mioc\u00e1rdico se debe a los efectos directos de la infecci\u00f3n viral sobre el miocito, que se expresa como una respuesta inflamatoria local y a la participaci\u00f3n del coraz\u00f3n como \u00f3rgano diana de respuesta inflamatoria sist\u00e9mica e inapropiada generada por la marcada liberaci\u00f3n de citocinas.
- Esta \u00faltima, adem\u00e1s, genera un da\u00f1o endotelial que desencadena complicaciones tromboemb\u00f3licas e isqu\u00e9micas, disfunci\u00f3n sistodiast\u00f3lica del coraz\u00f3n, y finalmente la falla multiorg\u00e1nica.
- Conclusiones: a pesar de los avances en el conocimiento de la etiopatogenia de esta enfermedad, a\u00fan se requiere que se esclarezcan con precisi\u00f3n los mecanismos fisiopatol\u00f3gicos que determinan la presentaci\u00f3n de la insuficiencia cardiaca, si bien se reconoce la influencia de la respuesta inflamatoria inapropiada, inducida por citoquinas, en la presentaci\u00f3n del da\u00f1o mioc\u00e1rdico.
-Introdu\u00e7\u00e3o: revelam-se controv\u00e9rsias a respeito dos mecanismos que determinam a vulnerabilidade dos pacientes com insufici\u00eancia card\u00edaca \u00e0 infec\u00e7\u00e3o pelo v\u00edrus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), gerador da s\u00edndrome respirat\u00f3ria denominada Coronavirus Infectious Disease-19 (COVID-19).
- Objetivo: coletar informa\u00e7\u00f5es sobre a fisiopatologia da insufici\u00eancia card\u00edaca aguda no contexto da COVID-19.M\u00e9todo: na Policl\u00ednica Comunit\u00e1ria \u0022Ram\u00f3n L\u00f3pez Pe\u00f1a\u0022 de Santiago de Cuba, entre setembro e novembro de 2020, foi realizada uma revis\u00e3o narrativa sobre o tema.
- A busca foi realizada por meio de consulta \u00e0s bases de dados Pubmed, Infomed e SciELO, sem restri\u00e7\u00e3o de datas, nos idiomas espanhol e ingl\u00eas.
- Desenvolvimento: a incerteza se manifesta nos mecanismos envolvidos na fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com essa doen\u00e7a infecciosa.
- O dano mioc\u00e1rdico se deve aos efeitos diretos da infec\u00e7\u00e3o viral no mi\u00f3cito, que se expressa como resposta inflamat\u00f3ria local, e ao envolvimento do cora\u00e7\u00e3o como \u00f3rg\u00e3o alvo da resposta inflamat\u00f3ria sist\u00eamica e inadequada gerada pela libera\u00e7\u00e3o acentuada de citocinas.
- Esta \u00faltima tamb\u00e9m gera dano endotelial que desencadeia complica\u00e7\u00f5es tromboemb\u00f3licas e isqu\u00eamicas, disfun\u00e7\u00e3o card\u00edaca sistodiast\u00f3lica e, finalmente, fal\u00eancia de m\u00faltiplos \u00f3rg\u00e3os.
- Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
-  </si>
-  <si>
-    <t>Clinical characteristics of 140 patients infected with SARS\u2010CoV\u20102 in Wuhan, China</t>
-  </si>
-  <si>
-    <t>Background\n\n\n\nCoronavirus disease 2019 (COVID\u201019) caused by severe acute respiratory syndrome coronavirus 2 (SARS\u2010CoV\u20102) infection has been widely spread.
- We aim to investigate the clinical characteristic and allergy status of patients infected with SARS\u2010CoV\u20102.\n\nMethods\n\n\n\nElectronic medical records including demographics, clinical manifestation, comorbidities, laboratory data, and radiological materials of 140 hospitalized COVID\u201019 patients, with confirmed result of SARS\u2010CoV\u20102 viral infection, were extracted and analyzed.
-\n\nResults\n\n\n\nAn approximately 1:1 ratio of male (50.7%) and female COVID\u201019 patients was found, with an overall median age of 57.0 years.
- All patients were community\u2010acquired cases.
- Fever (91.7%), cough (75.0%), fatigue (75.0%), and gastrointestinal symptoms (39.6%) were the most common clinical manifestations, whereas hypertension (30.0%) and diabetes mellitus (12.1%) were the most common comorbidities.
- Drug hypersensitivity (11.4%) and urticaria (1.4%) were self\u2010reported by several patients.
- Asthma or other allergic diseases were not reported by any of the patients.
- Chronic obstructive pulmonary disease (COPD, 1.4%) patients and current smokers (1.4%) were rare.
- Bilateral ground\u2010glass or patchy opacity (89.6%) was the most common sign of radiological finding.
- Lymphopenia (75.4%) and eosinopenia (52.9%) were observed in most patients.
- Blood eosinophil counts correlate positively with lymphocyte counts in severe (r = .
-486, P \u003C .
-001) and nonsevere (r = .
-469, P \u003C .
-001) patients after hospital admission.
- Significantly higher levels of D\u2010dimer, C\u2010reactive protein, and procalcitonin were associated with severe patients compared to nonsevere patients (all P \u003C .
-001).
-\n\nConclusion\n\n\n\nDetailed clinical investigation of 140 hospitalized COVID\u201019 cases suggests eosinopenia together with lymphopenia may be a potential indicator for diagnosis.
- Allergic diseases, asthma, and COPD are not risk factors for SARS\u2010CoV\u20102 infection.
- Older age, high number of comorbidities, and more prominent laboratory abnormalities were associated with severe patients</t>
-  </si>
-  <si>
-    <t>Diagnostic utility of clinical laboratory data determinations for patients with the severe COVID\u201019</t>
-  </si>
-  <si>
-    <t>[Wan%SYQ%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>Other found locations</t>
-  </si>
-  <si>
-    <t>_PMC_elsevier</t>
-  </si>
-  <si>
-    <t>PMC7102535</t>
-  </si>
-  <si>
-    <t>PMC7233399</t>
-  </si>
-  <si>
-    <t>PMC7102539</t>
-  </si>
-  <si>
-    <t>PMC7102527</t>
-  </si>
-  <si>
-    <t>PMC7102650</t>
-  </si>
-  <si>
-    <t>PMC7080117</t>
-  </si>
-  <si>
-    <t>PMC7147279</t>
-  </si>
-  <si>
-    <t>PMC7147273</t>
-  </si>
-  <si>
-    <t>PMC7108195</t>
-  </si>
-  <si>
-    <t>PMC7147282</t>
-  </si>
-  <si>
-    <t>PMC7228355</t>
-  </si>
-  <si>
-    <t>PMC7088568</t>
-  </si>
-  <si>
-    <t>PMC7098482</t>
-  </si>
-  <si>
-    <t>PMC7270627</t>
+    <t>[Yong%Gao%NULL%0, Tuantuan%Li%NULL%1, Mingfeng%Han%NULL%1, Xiuyong%Li%NULL%1, Dong%Wu%NULL%1, Yuanhong%Xu%NULL%1, Yulin%Zhu%NULL%1, Yan%Liu%NULL%1, Xiaowu%Wang%wangxiaowu19880218@126.com%1, Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>PMC7228247</t>
+  </si>
+  <si>
+    <t>10.1016/S2213-2600(20)30079-5</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,  Yeming%Wang%NULL%8,  Xingwang%Li%NULL%7,  Lili%Ren%NULL%5,  Jianping%Zhao%NULL%10,  Yi%Hu%NULL%10,  Li%Zhang%NULL%9,  Guohui%Fan%NULL%8,  Jiuyang%Xu%NULL%8,  Xiaoying%Gu%NULL%8,  Zhenshun%Cheng%NULL%6,  Ting%Yu%NULL%16,  Jiaan%Xia%NULL%5,  Yuan%Wei%NULL%13,  Wenjuan%Wu%NULL%5,  Xuelei%Xie%NULL%5,  Wen%Yin%NULL%7,  Hui%Li%NULL%10,  Min%Liu%NULL%5,  Yan%Xiao%NULL%7,  Hong%Gao%NULL%8,  Li%Guo%NULL%7,  Jungang%Xie%NULL%6,  Guangfa%Wang%NULL%5,  Rongmeng%Jiang%NULL%5,  Zhancheng%Gao%NULL%6,  Qi%Jin%NULL%7,  Jianwei%Wang%wangjw28@163.com%5,  Bin%Cao%caobin_ben@163.com%10]</t>
   </si>
   <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>_PMC_Springer</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%14,               Yeming%Wang%NULL%1,               Xingwang%Li%NULL%1,               Lili%Ren%NULL%1,               Jianping%Zhao%NULL%1,               Yi%Hu%NULL%2,               Li%Zhang%NULL%2,               Guohui%Fan%NULL%1,               Jiuyang%Xu%NULL%1,               Xiaoying%Gu%NULL%1,               Zhenshun%Cheng%NULL%2,               Ting%Yu%NULL%2,               Jiaan%Xia%NULL%1,               Yuan%Wei%NULL%2,               Wenjuan%Wu%NULL%1,               Xuelei%Xie%NULL%1,               Wen%Yin%NULL%1,               Hui%Li%NULL%2,               Min%Liu%NULL%1,               Yan%Xiao%NULL%2,               Hong%Gao%NULL%2,               Li%Guo%NULL%2,               Jungang%Xie%NULL%1,               Guangfa%Wang%NULL%1,               Rongmeng%Jiang%NULL%1,               Zhancheng%Gao%NULL%1,               Qi%Jin%NULL%2,               Jianwei%Wang%wangjw28@163.com%1,               Bin%Cao%caobin_ben@163.com%2,              Chaolin%Huang%NULL%1,              Yeming%Wang%NULL%1,              Xingwang%Li%NULL%1,              Lili%Ren%NULL%1,              Jianping%Zhao%NULL%1,              Yi%Hu%NULL%2,              Li%Zhang%NULL%2,              Guohui%Fan%NULL%1,              Jiuyang%Xu%NULL%1,              Xiaoying%Gu%NULL%1,              Zhenshun%Cheng%NULL%2,              Ting%Yu%NULL%2,              Jiaan%Xia%NULL%1,              Yuan%Wei%NULL%2,              Wenjuan%Wu%NULL%1,              Xuelei%Xie%NULL%1,              Wen%Yin%NULL%1,              Hui%Li%NULL%2,              Min%Liu%NULL%1,              Yan%Xiao%NULL%2,              Hong%Gao%NULL%2,              Li%Guo%NULL%2,              Jungang%Xie%NULL%1,              Guangfa%Wang%NULL%1,              Rongmeng%Jiang%NULL%1,              Zhancheng%Gao%NULL%1,              Qi%Jin%NULL%2,              Jianwei%Wang%wangjw28@163.com%1,              Bin%Cao%caobin_ben@163.com%2]</t>
-  </si>
-  <si>
-    <t>[Jasper Fuk-Woo%Chan%NULL%3,               Shuofeng%Yuan%NULL%1,               Kin-Hang%Kok%NULL%1,               Kelvin Kai-Wang%To%NULL%1,               Hin%Chu%NULL%1,               Jin%Yang%NULL%1,               Fanfan%Xing%NULL%1,               Jieling%Liu%NULL%1,               Cyril Chik-Yan%Yip%NULL%1,               Rosana Wing-Shan%Poon%NULL%1,               Hoi-Wah%Tsoi%NULL%1,               Simon Kam-Fai%Lo%NULL%1,               Kwok-Hung%Chan%NULL%1,               Vincent Kwok-Man%Poon%NULL%1,               Wan-Mui%Chan%NULL%1,               Jonathan Daniel%Ip%NULL%1,               Jian-Piao%Cai%NULL%1,               Vincent Chi-Chung%Cheng%NULL%1,               Honglin%Chen%NULL%1,               Christopher Kim-Ming%Hui%NULL%1,               Kwok-Yung%Yuen%NULL%1,              Jasper Fuk-Woo%Chan%NULL%1,              Shuofeng%Yuan%NULL%1,              Kin-Hang%Kok%NULL%1,              Kelvin Kai-Wang%To%NULL%1,              Hin%Chu%NULL%1,              Jin%Yang%NULL%1,              Fanfan%Xing%NULL%1,              Jieling%Liu%NULL%1,              Cyril Chik-Yan%Yip%NULL%1,              Rosana Wing-Shan%Poon%NULL%1,              Hoi-Wah%Tsoi%NULL%1,              Simon Kam-Fai%Lo%NULL%1,              Kwok-Hung%Chan%NULL%1,              Vincent Kwok-Man%Poon%NULL%1,              Wan-Mui%Chan%NULL%1,              Jonathan Daniel%Ip%NULL%1,              Jian-Piao%Cai%NULL%1,              Vincent Chi-Chung%Cheng%NULL%1,              Honglin%Chen%NULL%1,              Christopher Kim-Ming%Hui%NULL%1,              Kwok-Yung%Yuen%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Qun%Li%NULL%2,               Xuhua%Guan%NULL%1,               Peng%Wu%NULL%1,               Xiaoye%Wang%NULL%1,               Lei%Zhou%NULL%1,               Yeqing%Tong%NULL%1,               Ruiqi%Ren%NULL%1,               Kathy S.M.%Leung%NULL%1,               Eric H.Y.%Lau%NULL%1,               Jessica Y.%Wong%NULL%1,               Xuesen%Xing%NULL%1,               Nijuan%Xiang%NULL%1,               Yang%Wu%NULL%1,               Chao%Li%NULL%1,               Qi%Chen%NULL%1,               Dan%Li%NULL%1,               Tian%Liu%NULL%1,               Jing%Zhao%NULL%1,               Man%Liu%NULL%1,               Wenxiao%Tu%NULL%1,               Chuding%Chen%NULL%1,               Lianmei%Jin%NULL%1,               Rui%Yang%NULL%1,               Qi%Wang%NULL%1,               Suhua%Zhou%NULL%1,               Rui%Wang%NULL%1,               Hui%Liu%NULL%1,               Yinbo%Luo%NULL%1,               Yuan%Liu%NULL%1,               Ge%Shao%NULL%1,               Huan%Li%NULL%1,               Zhongfa%Tao%NULL%1,               Yang%Yang%NULL%1,               Zhiqiang%Deng%NULL%1,               Boxi%Liu%NULL%1,               Zhitao%Ma%NULL%1,               Yanping%Zhang%NULL%1,               Guoqing%Shi%NULL%1,               Tommy T.Y.%Lam%NULL%1,               Joseph T.%Wu%NULL%1,               George F.%Gao%NULL%1,               Benjamin J.%Cowling%NULL%1,               Bo%Yang%NULL%1,               Gabriel M.%Leung%NULL%1,               Zijian%Feng%NULL%1,              Qun%Li%NULL%1,              Xuhua%Guan%NULL%1,              Peng%Wu%NULL%1,              Xiaoye%Wang%NULL%1,              Lei%Zhou%NULL%1,              Yeqing%Tong%NULL%1,              Ruiqi%Ren%NULL%1,              Kathy S.M.%Leung%NULL%1,              Eric H.Y.%Lau%NULL%1,              Jessica Y.%Wong%NULL%1,              Xuesen%Xing%NULL%1,              Nijuan%Xiang%NULL%1,              Yang%Wu%NULL%1,              Chao%Li%NULL%1,              Qi%Chen%NULL%1,              Dan%Li%NULL%1,              Tian%Liu%NULL%1,              Jing%Zhao%NULL%1,              Man%Liu%NULL%1,              Wenxiao%Tu%NULL%1,              Chuding%Chen%NULL%1,              Lianmei%Jin%NULL%1,              Rui%Yang%NULL%1,              Qi%Wang%NULL%1,              Suhua%Zhou%NULL%1,              Rui%Wang%NULL%1,              Hui%Liu%NULL%1,              Yinbo%Luo%NULL%1,              Yuan%Liu%NULL%1,              Ge%Shao%NULL%1,              Huan%Li%NULL%1,              Zhongfa%Tao%NULL%1,              Yang%Yang%NULL%1,              Zhiqiang%Deng%NULL%1,              Boxi%Liu%NULL%1,              Zhitao%Ma%NULL%1,              Yanping%Zhang%NULL%1,              Guoqing%Shi%NULL%1,              Tommy T.Y.%Lam%NULL%1,              Joseph T.%Wu%NULL%1,              George F.%Gao%NULL%1,              Benjamin J.%Cowling%NULL%1,              Bo%Yang%NULL%1,              Gabriel M.%Leung%NULL%1,              Zijian%Feng%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Nanshan%Chen%NULL%9,               Min%Zhou%NULL%1,               Xuan%Dong%NULL%1,               Jieming%Qu%NULL%1,               Fengyun%Gong%NULL%1,               Yang%Han%NULL%1,               Yang%Qiu%NULL%1,               Jingli%Wang%NULL%1,               Ying%Liu%NULL%1,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%1,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%1,               Li%Zhang%NULL%0,              Nanshan%Chen%NULL%1,              Min%Zhou%NULL%1,              Xuan%Dong%NULL%1,              Jieming%Qu%NULL%1,              Fengyun%Gong%NULL%1,              Yang%Han%NULL%1,              Yang%Qiu%NULL%1,              Jingli%Wang%NULL%1,              Ying%Liu%NULL%1,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%1,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%1,              Li%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fengxiang%Song%NULL%2,               Nannan%Shi%NULL%1,               Fei%Shan%NULL%1,               Zhiyong%Zhang%NULL%1,               Jie%Shen%NULL%1,               Hongzhou%Lu%NULL%2,               Yun%Ling%NULL%2,               Yebin%Jiang%NULL%1,               Yuxin%Shi%shiyuxin@shphc.org.cn%2,              Fengxiang%Song%NULL%1,              Nannan%Shi%NULL%1,              Fei%Shan%NULL%1,              Zhiyong%Zhang%NULL%1,              Jie%Shen%NULL%1,              Hongzhou%Lu%NULL%2,              Yun%Ling%NULL%2,              Yebin%Jiang%NULL%1,              Yuxin%Shi%shiyuxin@shphc.org.cn%2]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%7,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,           Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Kui%Liu%NULL%6,               Yuan-Yuan%Fang%NULL%1,               Yan%Deng%NULL%1,               Wei%Liu%NULL%1,               Mei-Fang%Wang%NULL%1,               Jing-Ping%Ma%NULL%1,               Wei%Xiao%NULL%1,               Ying-Nan%Wang%NULL%1,               Min-Hua%Zhong%NULL%1,               Cheng-Hong%Li%NULL%1,               Guang-Cai%Li%NULL%1,               Hui-Guo%Liu%NULL%1,               Xiu-Yuan%Hao%NULL%2,               Pei-Fang%Wei%NULL%2,              Kui%Liu%NULL%1,              Yuan-Yuan%Fang%NULL%1,              Yan%Deng%NULL%1,              Wei%Liu%NULL%1,              Mei-Fang%Wang%NULL%1,              Jing-Ping%Ma%NULL%1,              Wei%Xiao%NULL%1,              Ying-Nan%Wang%NULL%1,              Min-Hua%Zhong%NULL%1,              Cheng-Hong%Li%NULL%1,              Guang-Cai%Li%NULL%1,              Hui-Guo%Liu%NULL%1,              Xiu-Yuan%Hao%NULL%2,              Pei-Fang%Wei%NULL%2]</t>
-  </si>
-  <si>
-    <t>[ Yingxia%Liu%null%3,             Yang%Yang%null%1,             Cong%Zhang%null%1,             Fengming%Huang%null%1,             Fuxiang%Wang%null%1,             Jing%Yuan%null%1,             Zhaoqin%Wang%null%1,             Jinxiu%Li%null%1,             Jianming%Li%null%1,             Cheng%Feng%null%1,             Zheng%Zhang%null%1,             Lifei%Wang%null%1,             Ling%Peng%null%1,             Li%Chen%null%1,             Yuhao%Qin%null%1,             Dandan%Zhao%null%1,             Shuguang%Tan%null%1,             Lu%Yin%null%1,             Jun%Xu%null%1,             Congzhao%Zhou%null%1,             Chengyu%Jiang%null%1,             Lei%Liu%null%1,       Yingxia%Liu%null%1,       Yang%Yang%null%1,       Cong%Zhang%null%1,       Fengming%Huang%null%1,       Fuxiang%Wang%null%1,       Jing%Yuan%null%1,       Zhaoqin%Wang%null%2,       Jinxiu%Li%null%1,       Jianming%Li%null%1,       Cheng%Feng%null%1,       Zheng%Zhang%null%1,       Lifei%Wang%null%1,       Ling%Peng%null%1,       Li%Chen%null%1,       Yuhao%Qin%null%1,       Dandan%Zhao%null%1,       Shuguang%Tan%null%1,       Lu%Yin%null%1,       Jun%Xu%null%1,       Congzhao%Zhou%null%1,       Chengyu%Jiang%null%1,       Lei%Liu%null%2,      Yingxia%Liu%null%1,      Yang%Yang%null%1,      Cong%Zhang%null%1,      Fengming%Huang%null%1,      Fuxiang%Wang%null%1,      Jing%Yuan%null%1,      Zhaoqin%Wang%null%1,      Jinxiu%Li%null%1,      Jianming%Li%null%1,      Cheng%Feng%null%1,      Zheng%Zhang%null%1,      Lifei%Wang%null%1,      Ling%Peng%null%1,      Li%Chen%null%1,      Yuhao%Qin%null%1,      Dandan%Zhao%null%1,      Shuguang%Tan%null%1,      Lu%Yin%null%1,      Jun%Xu%null%1,      Congzhao%Zhou%null%1,      Chengyu%Jiang%null%1,      Lei%Liu%null%1,     Yingxia%Liu%null%1,     Yang%Yang%null%2,     Cong%Zhang%null%2,     Fengming%Huang%null%2,     Fuxiang%Wang%null%2,     Jing%Yuan%null%2,     Zhaoqin%Wang%null%2,     Jinxiu%Li%null%2,     Jianming%Li%null%2,     Cheng%Feng%null%2,     Zheng%Zhang%null%2,     Lifei%Wang%null%2,     Ling%Peng%null%2,     Li%Chen%null%2,     Yuhao%Qin%null%2,     Dandan%Zhao%null%2,     Shuguang%Tan%null%2,     Lu%Yin%null%3,     Jun%Xu%null%2,     Congzhao%Zhou%null%2,     Chengyu%Jiang%null%2,     Lei%Liu%null%8,    Yingxia%Liu%null%1,    Yang%Yang%null%2,    Cong%Zhang%null%2,    Fengming%Huang%null%1,    Fuxiang%Wang%null%1,    Jing%Yuan%null%2,    Zhaoqin%Wang%null%2,    Jinxiu%Li%null%1,    Jianming%Li%null%1,    Cheng%Feng%null%1,    Zheng%Zhang%null%2,    Lifei%Wang%null%1,    Ling%Peng%null%1,    Li%Chen%null%1,    Yuhao%Qin%null%1,    Dandan%Zhao%null%1,    Shuguang%Tan%null%1,    Lu%Yin%null%1,    Jun%Xu%null%1,    Congzhao%Zhou%null%1,    Chengyu%Jiang%null%1,    Lei%Liu%null%4,   Yingxia%Liu%null%2,   Yang%Yang%null%3,   Cong%Zhang%null%4,   Fengming%Huang%null%2,   Fuxiang%Wang%null%2,   Jing%Yuan%null%3,   Zhaoqin%Wang%null%2,   Jinxiu%Li%null%2,   Jianming%Li%null%2,   Cheng%Feng%null%3,   Zheng%Zhang%null%3,   Lifei%Wang%null%3,   Ling%Peng%null%2,   Li%Chen%null%2,   Yuhao%Qin%null%2,   Dandan%Zhao%null%2,   Shuguang%Tan%null%2,   Lu%Yin%null%3,   Jun%Xu%null%2,   Congzhao%Zhou%null%2,   Chengyu%Jiang%null%2,   Lei%Liu%null%17,  Yingxia%Liu%null%0,  Yang%Yang%null%0,  Cong%Zhang%null%0,  Fengming%Huang%null%0,  Fuxiang%Wang%null%0,  Jing%Yuan%null%0,  Zhaoqin%Wang%null%0,  Jinxiu%Li%null%0,  Jianming%Li%null%0,  Cheng%Feng%null%0,  Zheng%Zhang%null%0,  Lifei%Wang%null%0,  Ling%Peng%null%0,  Li%Chen%null%0,  Yuhao%Qin%null%0,  Dandan%Zhao%null%0,  Shuguang%Tan%null%0,  Lu%Yin%null%0,  Jun%Xu%null%0,  Congzhao%Zhou%null%0,  Chengyu%Jiang%null%0,  Lei%Liu%null%0]</t>
-  </si>
-  <si>
-    <t>[Li-Li%Ren%NULL%3,               Ye-Ming%Wang%NULL%1,               Zhi-Qiang%Wu%NULL%1,               Zi-Chun%Xiang%NULL%1,               Li%Guo%NULL%0,               Teng%Xu%NULL%1,               Yong-Zhong%Jiang%NULL%1,               Yan%Xiong%NULL%1,               Yong-Jun%Li%NULL%1,               Xing-Wang%Li%NULL%1,               Hui%Li%NULL%0,               Guo-Hui%Fan%NULL%1,               Xiao-Ying%Gu%NULL%1,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Jiu-Yang%Xu%NULL%1,               Fan%Yang%NULL%1,               Xin-Ming%Wang%NULL%1,               Chao%Wu%NULL%1,               Lan%Chen%NULL%1,               Yi-Wei%Liu%NULL%1,               Bo%Liu%NULL%1,               Jian%Yang%NULL%1,               Xiao-Rui%Wang%NULL%1,               Jie%Dong%NULL%1,               Li%Li%NULL%2,               Chao-Lin%Huang%NULL%1,               Jian-Ping%Zhao%NULL%1,               Yi%Hu%NULL%0,               Zhen-Shun%Cheng%NULL%1,               Lin-Lin%Liu%NULL%1,               Zhao-Hui%Qian%NULL%1,               Chuan%Qin%NULL%1,               Qi%Jin%NULL%0,               Bin%Cao%NULL%0,               Jian-Wei%Wang%NULL%1,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0,              Li-Li%Ren%NULL%1,              Ye-Ming%Wang%NULL%1,              Zhi-Qiang%Wu%NULL%1,              Zi-Chun%Xiang%NULL%1,              Li%Guo%NULL%0,              Teng%Xu%NULL%1,              Yong-Zhong%Jiang%NULL%1,              Yan%Xiong%NULL%1,              Yong-Jun%Li%NULL%1,              Xing-Wang%Li%NULL%1,              Hui%Li%NULL%0,              Guo-Hui%Fan%NULL%1,              Xiao-Ying%Gu%NULL%1,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Jiu-Yang%Xu%NULL%1,              Fan%Yang%NULL%1,              Xin-Ming%Wang%NULL%1,              Chao%Wu%NULL%1,              Lan%Chen%NULL%1,              Yi-Wei%Liu%NULL%1,              Bo%Liu%NULL%1,              Jian%Yang%NULL%1,              Xiao-Rui%Wang%NULL%1,              Jie%Dong%NULL%1,              Li%Li%NULL%2,              Chao-Lin%Huang%NULL%1,              Jian-Ping%Zhao%NULL%1,              Yi%Hu%NULL%0,              Zhen-Shun%Cheng%NULL%1,              Lin-Lin%Liu%NULL%1,              Zhao-Hui%Qian%NULL%1,              Chuan%Qin%NULL%1,              Qi%Jin%NULL%0,              Bin%Cao%NULL%0,              Jian-Wei%Wang%NULL%1,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ning%Tang%NULL%4,               Dengju%Li%NULL%1,               Xiong%Wang%NULL%1,               Ziyong%Sun%NULL%1,              Ning%Tang%NULL%1,              Dengju%Li%NULL%1,              Xiong%Wang%NULL%1,              Ziyong%Sun%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%6,           Cao%Yi-yuan%coreGivesNoEmail%1,           Dong%Xiang%coreGivesNoEmail%1,           Gao%Ya-dong%coreGivesNoEmail%1,           Yan%You-qin%coreGivesNoEmail%1,           Yang%Yi-bin%coreGivesNoEmail%1,           Yuan%Ya-dong%coreGivesNoEmail%1,           Zhang%Jin-jin%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xiao-Wei%Xu%NULL%7,               Xiao-Xin%Wu%NULL%1,               Xian-Gao%Jiang%NULL%1,               Kai-Jin%Xu%NULL%1,               Ling-Jun%Ying%NULL%1,               Chun-Lian%Ma%NULL%1,               Shi-Bo%Li%NULL%1,               Hua-Ying%Wang%NULL%1,               Sheng%Zhang%NULL%1,               Hai-Nv%Gao%NULL%1,               Ji-Fang%Sheng%NULL%1,               Hong-Liu%Cai%NULL%1,               Yun-Qing%Qiu%NULL%1,               Lan-Juan%Li%NULL%1,              Xiao-Wei%Xu%NULL%1,              Xiao-Xin%Wu%NULL%1,              Xian-Gao%Jiang%NULL%1,              Kai-Jin%Xu%NULL%1,              Ling-Jun%Ying%NULL%1,              Chun-Lian%Ma%NULL%1,              Shi-Bo%Li%NULL%1,              Hua-Ying%Wang%NULL%1,              Sheng%Zhang%NULL%1,              Hai-Nv%Gao%NULL%1,              Ji-Fang%Sheng%NULL%1,              Hong-Liu%Cai%NULL%1,              Yun-Qing%Qiu%NULL%1,              Lan-Juan%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jiong%Wu%NULL%1,               Xiaojia%Wu%NULL%1,               Wenbing%Zeng%NULL%1,               Dajing%Guo%NULL%1,               Zheng%Fang%NULL%1,               Linli%Chen%NULL%1,               Huizhe%Huang%NULL%1,               Chuanming%Li%NULL%1,              Jiong%Wu%NULL%1,              Xiaojia%Wu%NULL%1,              Wenbing%Zeng%NULL%1,              Dajing%Guo%NULL%1,              Zheng%Fang%NULL%1,              Linli%Chen%NULL%1,              Huizhe%Huang%NULL%1,              Chuanming%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,               Valerie%Wong%NULL%1,               Vivian Wan In%Wei%NULL%1,               Samuel Yeung Shan%Wong%NULL%1,               Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1,              Kin On%Kwok%kkokwok@cuhk.edu.hk%1,              Valerie%Wong%NULL%1,              Vivian Wan In%Wei%NULL%1,              Samuel Yeung Shan%Wong%NULL%1,              Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
-  </si>
-  <si>
-    <t>[Heshui%Shi%NULL%2,               Xiaoyu%Han%NULL%1,               Nanchuan%Jiang%NULL%1,               Yukun%Cao%NULL%1,               Osamah%Alwalid%NULL%1,               Jin%Gu%NULL%1,               Yanqing%Fan%1024932023@qq.com%1,               Chuansheng%Zheng%hqzcsxh@sina.com%1,              Heshui%Shi%NULL%1,              Xiaoyu%Han%NULL%1,              Nanchuan%Jiang%NULL%1,              Yukun%Cao%NULL%1,              Osamah%Alwalid%NULL%1,              Jin%Gu%NULL%1,              Yanqing%Fan%1024932023@qq.com%1,              Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
-  </si>
-  <si>
-    <t>[Simin%Zhang%NULL%2,               Huaqiao%Li%NULL%2,               Songtao%Huang%NULL%2,               Wei%You%NULL%2,               Huaiqiang%Sun%NULL%2,              Simin%Zhang%NULL%2,              Huaqiao%Li%NULL%2,              Songtao%Huang%NULL%2,              Wei%You%NULL%2,              Huaiqiang%Sun%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Simin%Zhang%NULL%0,               Huaqiao%Li%NULL%0,               Songtao%Huang%NULL%0,               Wei%You%NULL%0,               Huaiqiang%Sun%NULL%0,              Simin%Zhang%NULL%0,              Huaqiao%Li%NULL%0,              Songtao%Huang%NULL%0,              Wei%You%NULL%0,              Huaiqiang%Sun%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Chen%NULL%4,               Tangkai%Qi%NULL%1,               Li%Liu%NULL%1,               Yun%Ling%NULL%0,               Zhiping%Qian%NULL%1,               Tao%Li%NULL%1,               Feng%Li%NULL%1,               Qingnian%Xu%NULL%1,               Yuyi%Zhang%NULL%1,               Shuibao%Xu%NULL%1,               Zhigang%Song%NULL%1,               Yigang%Zeng%NULL%1,               Yinzhong%Shen%NULL%1,               Yuxin%Shi%NULL%0,               Tongyu%Zhu%NULL%1,               Hongzhou%Lu%NULL%0,              Jun%Chen%NULL%1,              Tangkai%Qi%NULL%1,              Li%Liu%NULL%1,              Yun%Ling%NULL%0,              Zhiping%Qian%NULL%1,              Tao%Li%NULL%1,              Feng%Li%NULL%1,              Qingnian%Xu%NULL%1,              Yuyi%Zhang%NULL%1,              Shuibao%Xu%NULL%1,              Zhigang%Song%NULL%1,              Yigang%Zeng%NULL%1,              Yinzhong%Shen%NULL%1,              Yuxin%Shi%NULL%0,              Tongyu%Zhu%NULL%1,              Hongzhou%Lu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Qing%Chen%NULL%1,               Bin%Quan%NULL%1,               Xiaoning%Li%NULL%1,               Guangjian%Gao%NULL%1,               Wenqiang%Zheng%NULL%1,               Jun%Zhang%NULL%1,               Zhiyun%Zhang%NULL%1,               Chunsheng%Liu%NULL%1,               Li%Li%NULL%0,               Chenglin%Wang%NULL%1,               Guihua%Zhang%NULL%1,               Jiajia%Li%NULL%1,               Yunhai%Dai%NULL%1,               Jianghua%Yang%yjhpath@163.com%1,               Wenzheng%Han%11418166@zju.edu.cn%1,              Qing%Chen%NULL%1,              Bin%Quan%NULL%1,              Xiaoning%Li%NULL%1,              Guangjian%Gao%NULL%1,              Wenqiang%Zheng%NULL%1,              Jun%Zhang%NULL%1,              Zhiyun%Zhang%NULL%1,              Chunsheng%Liu%NULL%1,              Li%Li%NULL%0,              Chenglin%Wang%NULL%1,              Guihua%Zhang%NULL%1,              Jiajia%Li%NULL%1,              Yunhai%Dai%NULL%1,              Jianghua%Yang%yjhpath@163.com%1,              Wenzheng%Han%11418166@zju.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%4,               Kai%Xie%NULL%1,               Hui%Lu%NULL%1,               Lei%Xu%bayinhexl@126.com%1,               Shusheng%Zhou%zhouss108@163.com%1,               Shiyuan%Fang%fangshiyuan2008@126.com%1,              Wanbo%Zhu%NULL%1,              Kai%Xie%NULL%1,              Hui%Lu%NULL%1,              Lei%Xu%bayinhexl@126.com%1,              Shusheng%Zhou%zhouss108@163.com%1,              Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%5,               Yuanyuan%Xing%NULL%1,               Yu%Xiao%NULL%1,               Liping%Deng%NULL%1,               Qiu%Zhao%NULL%1,               Hongling%Wang%NULL%1,               Yong%Xiong%NULL%1,               Zhenshun%Cheng%NULL%0,               Shicheng%Gao%NULL%1,               Ke%Liang%NULL%1,               Mingqi%Luo%NULL%1,               Tielong%Chen%NULL%1,               Shihui%Song%NULL%1,               Zhiyong%Ma%NULL%1,               Xiaoping%Chen%NULL%1,               Ruiying%Zheng%NULL%1,               Qian%Cao%NULL%1,               Fan%Wang%fanndywang@foxmail.com%1,               Yongxi%Zhang%znact1936@126.com%1,              Pingzheng%Mo%NULL%1,              Yuanyuan%Xing%NULL%1,              Yu%Xiao%NULL%1,              Liping%Deng%NULL%1,              Qiu%Zhao%NULL%1,              Hongling%Wang%NULL%1,              Yong%Xiong%NULL%1,              Zhenshun%Cheng%NULL%0,              Shicheng%Gao%NULL%1,              Ke%Liang%NULL%1,              Mingqi%Luo%NULL%1,              Tielong%Chen%NULL%1,              Shihui%Song%NULL%1,              Zhiyong%Ma%NULL%1,              Xiaoping%Chen%NULL%1,              Ruiying%Zheng%NULL%1,              Qian%Cao%NULL%1,              Fan%Wang%fanndywang@foxmail.com%1,              Yongxi%Zhang%znact1936@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Yanrong%Wang%123rong@sohu.com%2,               Yingxia%Liu%NULL%1,               Lei%Liu%NULL%1,               Xianfeng%Wang%NULL%1,               Nijuan%Luo%NULL%1,               Ling%Li%NULL%1,              Yanrong%Wang%123rong@sohu.com%1,              Yingxia%Liu%NULL%1,              Lei%Liu%NULL%1,              Xianfeng%Wang%NULL%1,              Nijuan%Luo%NULL%1,              Ling%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%5,               N -B%Yang%NULL%2,               F%Ding%NULL%2,               A H Y%Ma%NULL%2,               Z -Y%Wang%NULL%4,               Y -F%Shen%NULL%2,               C -W%Shi%NULL%2,               X%Lian%NULL%2,               J -G%Chu%NULL%2,               L%Chen%chxmin@hotmail.com%2,               Z -Y%Wang%NULL%0,               D -W%Ren%NULL%2,               G -X%Li%NULL%2,               X -Q%Chen%chxmin@hotmail.com%2,               H -J%Shen%NULL%2,               X -M%Chen%chxmin@hotmail.com%2,              G -Q%Qian%NULL%2,              N -B%Yang%NULL%3,              F%Ding%NULL%3,              A H Y%Ma%NULL%3,              Z -Y%Wang%NULL%6,              Y -F%Shen%NULL%3,              C -W%Shi%NULL%3,              X%Lian%NULL%3,              J -G%Chu%NULL%3,              L%Chen%chxmin@hotmail.com%3,              Z -Y%Wang%NULL%0,              D -W%Ren%NULL%3,              G -X%Li%NULL%3,              X -Q%Chen%chxmin@hotmail.com%3,              H -J%Shen%NULL%3,              X -M%Chen%chxmin@hotmail.com%3]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,               N -B%Yang%NULL%0,               F%Ding%NULL%0,               A H Y%Ma%NULL%0,               Z -Y%Wang%NULL%0,               Y -F%Shen%NULL%0,               C -W%Shi%NULL%0,               X%Lian%NULL%0,               J -G%Chu%NULL%0,               L%Chen%chxmin@hotmail.com%0,               Z -Y%Wang%NULL%0,               D -W%Ren%NULL%0,               G -X%Li%NULL%0,               X -Q%Chen%chxmin@hotmail.com%0,               H -J%Shen%NULL%0,               X -M%Chen%chxmin@hotmail.com%0,              G -Q%Qian%NULL%0,              N -B%Yang%NULL%0,              F%Ding%NULL%0,              A H Y%Ma%NULL%0,              Z -Y%Wang%NULL%0,              Y -F%Shen%NULL%0,              C -W%Shi%NULL%0,              X%Lian%NULL%0,              J -G%Chu%NULL%0,              L%Chen%chxmin@hotmail.com%0,              Z -Y%Wang%NULL%0,              D -W%Ren%NULL%0,              G -X%Li%NULL%0,              X -Q%Chen%chxmin@hotmail.com%0,              H -J%Shen%NULL%0,              X -M%Chen%chxmin@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,              N -B%Yang%NULL%0,              F%Ding%NULL%0,              A H Y%Ma%NULL%0,              Z -Y%Wang%NULL%0,              Y -F%Shen%NULL%0,              C -W%Shi%NULL%0,              X%Lian%NULL%0,              J -G%Chu%NULL%0,              L%Chen%chxmin@hotmail.com%0,              Z -Y%Wang%NULL%0,              D -W%Ren%NULL%0,              G -X%Li%NULL%0,              X -Q%Chen%chxmin@hotmail.com%0,              H -J%Shen%NULL%0,              X -M%Chen%chxmin@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t>[Yong%Gao%NULL%0,              Tuantuan%Li%NULL%0,              Mingfeng%Han%NULL%0,              Xiuyong%Li%NULL%0,              Dong%Wu%NULL%0,              Yuanhong%Xu%NULL%0,              Yulin%Zhu%NULL%0,              Yan%Liu%NULL%0,              Xiaowu%Wang%wangxiaowu19880218@126.com%0,              Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Yanrong%Wang%123rong@sohu.com%0,            Yingxia%Liu%NULL%1,            Lei%Liu%NULL%1,            Xianfeng%Wang%NULL%1,            Nijuan%Luo%NULL%1,            Ling%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,            N -B%Yang%NULL%1,            F%Ding%NULL%1,            A H Y%Ma%NULL%1,            Z -Y%Wang%NULL%2,            Y -F%Shen%NULL%1,            C -W%Shi%NULL%1,            X%Lian%NULL%1,            J -G%Chu%NULL%1,            L%Chen%chxmin@hotmail.com%1,            Z -Y%Wang%NULL%0,            D -W%Ren%NULL%1,            G -X%Li%NULL%1,            X -Q%Chen%chxmin@hotmail.com%1,            H -J%Shen%NULL%1,            X -M%Chen%chxmin@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yong%Gao%NULL%0,            Tuantuan%Li%NULL%1,            Mingfeng%Han%NULL%1,            Xiuyong%Li%NULL%1,            Dong%Wu%NULL%1,            Yuanhong%Xu%NULL%1,            Yulin%Zhu%NULL%1,            Yan%Liu%NULL%1,            Xiaowu%Wang%wangxiaowu19880218@126.com%1,            Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%14,                Yeming%Wang%NULL%1,                Xingwang%Li%NULL%1,                Lili%Ren%NULL%1,                Jianping%Zhao%NULL%1,                Yi%Hu%NULL%2,                Li%Zhang%NULL%2,                Guohui%Fan%NULL%1,                Jiuyang%Xu%NULL%1,                Xiaoying%Gu%NULL%1,                Zhenshun%Cheng%NULL%2,                Ting%Yu%NULL%2,                Jiaan%Xia%NULL%1,                Yuan%Wei%NULL%2,                Wenjuan%Wu%NULL%1,                Xuelei%Xie%NULL%1,                Wen%Yin%NULL%1,                Hui%Li%NULL%2,                Min%Liu%NULL%1,                Yan%Xiao%NULL%2,                Hong%Gao%NULL%2,                Li%Guo%NULL%2,                Jungang%Xie%NULL%1,                Guangfa%Wang%NULL%1,                Rongmeng%Jiang%NULL%1,                Zhancheng%Gao%NULL%1,                Qi%Jin%NULL%2,                Jianwei%Wang%wangjw28@163.com%1,                Bin%Cao%caobin_ben@163.com%2,               Chaolin%Huang%NULL%1,               Yeming%Wang%NULL%1,               Xingwang%Li%NULL%1,               Lili%Ren%NULL%1,               Jianping%Zhao%NULL%1,               Yi%Hu%NULL%2,               Li%Zhang%NULL%2,               Guohui%Fan%NULL%1,               Jiuyang%Xu%NULL%1,               Xiaoying%Gu%NULL%1,               Zhenshun%Cheng%NULL%2,               Ting%Yu%NULL%2,               Jiaan%Xia%NULL%1,               Yuan%Wei%NULL%2,               Wenjuan%Wu%NULL%1,               Xuelei%Xie%NULL%1,               Wen%Yin%NULL%1,               Hui%Li%NULL%2,               Min%Liu%NULL%1,               Yan%Xiao%NULL%2,               Hong%Gao%NULL%2,               Li%Guo%NULL%2,               Jungang%Xie%NULL%1,               Guangfa%Wang%NULL%1,               Rongmeng%Jiang%NULL%1,               Zhancheng%Gao%NULL%1,               Qi%Jin%NULL%2,               Jianwei%Wang%wangjw28@163.com%1,               Bin%Cao%caobin_ben@163.com%2]</t>
-  </si>
-  <si>
-    <t>[Jasper Fuk-Woo%Chan%NULL%3,                Shuofeng%Yuan%NULL%1,                Kin-Hang%Kok%NULL%1,                Kelvin Kai-Wang%To%NULL%1,                Hin%Chu%NULL%1,                Jin%Yang%NULL%1,                Fanfan%Xing%NULL%1,                Jieling%Liu%NULL%1,                Cyril Chik-Yan%Yip%NULL%1,                Rosana Wing-Shan%Poon%NULL%1,                Hoi-Wah%Tsoi%NULL%1,                Simon Kam-Fai%Lo%NULL%1,                Kwok-Hung%Chan%NULL%1,                Vincent Kwok-Man%Poon%NULL%1,                Wan-Mui%Chan%NULL%1,                Jonathan Daniel%Ip%NULL%1,                Jian-Piao%Cai%NULL%1,                Vincent Chi-Chung%Cheng%NULL%1,                Honglin%Chen%NULL%1,                Christopher Kim-Ming%Hui%NULL%1,                Kwok-Yung%Yuen%NULL%1,               Jasper Fuk-Woo%Chan%NULL%1,               Shuofeng%Yuan%NULL%1,               Kin-Hang%Kok%NULL%1,               Kelvin Kai-Wang%To%NULL%1,               Hin%Chu%NULL%1,               Jin%Yang%NULL%1,               Fanfan%Xing%NULL%1,               Jieling%Liu%NULL%1,               Cyril Chik-Yan%Yip%NULL%1,               Rosana Wing-Shan%Poon%NULL%1,               Hoi-Wah%Tsoi%NULL%1,               Simon Kam-Fai%Lo%NULL%1,               Kwok-Hung%Chan%NULL%1,               Vincent Kwok-Man%Poon%NULL%1,               Wan-Mui%Chan%NULL%1,               Jonathan Daniel%Ip%NULL%1,               Jian-Piao%Cai%NULL%1,               Vincent Chi-Chung%Cheng%NULL%1,               Honglin%Chen%NULL%1,               Christopher Kim-Ming%Hui%NULL%1,               Kwok-Yung%Yuen%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Qun%Li%NULL%2,                Xuhua%Guan%NULL%1,                Peng%Wu%NULL%1,                Xiaoye%Wang%NULL%1,                Lei%Zhou%NULL%1,                Yeqing%Tong%NULL%1,                Ruiqi%Ren%NULL%1,                Kathy S.M.%Leung%NULL%1,                Eric H.Y.%Lau%NULL%1,                Jessica Y.%Wong%NULL%1,                Xuesen%Xing%NULL%1,                Nijuan%Xiang%NULL%1,                Yang%Wu%NULL%1,                Chao%Li%NULL%1,                Qi%Chen%NULL%1,                Dan%Li%NULL%1,                Tian%Liu%NULL%1,                Jing%Zhao%NULL%1,                Man%Liu%NULL%1,                Wenxiao%Tu%NULL%1,                Chuding%Chen%NULL%1,                Lianmei%Jin%NULL%1,                Rui%Yang%NULL%1,                Qi%Wang%NULL%1,                Suhua%Zhou%NULL%1,                Rui%Wang%NULL%1,                Hui%Liu%NULL%1,                Yinbo%Luo%NULL%1,                Yuan%Liu%NULL%1,                Ge%Shao%NULL%1,                Huan%Li%NULL%1,                Zhongfa%Tao%NULL%1,                Yang%Yang%NULL%1,                Zhiqiang%Deng%NULL%1,                Boxi%Liu%NULL%1,                Zhitao%Ma%NULL%1,                Yanping%Zhang%NULL%1,                Guoqing%Shi%NULL%1,                Tommy T.Y.%Lam%NULL%1,                Joseph T.%Wu%NULL%1,                George F.%Gao%NULL%1,                Benjamin J.%Cowling%NULL%1,                Bo%Yang%NULL%1,                Gabriel M.%Leung%NULL%1,                Zijian%Feng%NULL%1,               Qun%Li%NULL%1,               Xuhua%Guan%NULL%1,               Peng%Wu%NULL%1,               Xiaoye%Wang%NULL%1,               Lei%Zhou%NULL%1,               Yeqing%Tong%NULL%1,               Ruiqi%Ren%NULL%1,               Kathy S.M.%Leung%NULL%1,               Eric H.Y.%Lau%NULL%1,               Jessica Y.%Wong%NULL%1,               Xuesen%Xing%NULL%1,               Nijuan%Xiang%NULL%1,               Yang%Wu%NULL%1,               Chao%Li%NULL%1,               Qi%Chen%NULL%1,               Dan%Li%NULL%1,               Tian%Liu%NULL%1,               Jing%Zhao%NULL%1,               Man%Liu%NULL%1,               Wenxiao%Tu%NULL%1,               Chuding%Chen%NULL%1,               Lianmei%Jin%NULL%1,               Rui%Yang%NULL%1,               Qi%Wang%NULL%1,               Suhua%Zhou%NULL%1,               Rui%Wang%NULL%1,               Hui%Liu%NULL%1,               Yinbo%Luo%NULL%1,               Yuan%Liu%NULL%1,               Ge%Shao%NULL%1,               Huan%Li%NULL%1,               Zhongfa%Tao%NULL%1,               Yang%Yang%NULL%1,               Zhiqiang%Deng%NULL%1,               Boxi%Liu%NULL%1,               Zhitao%Ma%NULL%1,               Yanping%Zhang%NULL%1,               Guoqing%Shi%NULL%1,               Tommy T.Y.%Lam%NULL%1,               Joseph T.%Wu%NULL%1,               George F.%Gao%NULL%1,               Benjamin J.%Cowling%NULL%1,               Bo%Yang%NULL%1,               Gabriel M.%Leung%NULL%1,               Zijian%Feng%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Nanshan%Chen%NULL%9,                Min%Zhou%NULL%1,                Xuan%Dong%NULL%1,                Jieming%Qu%NULL%1,                Fengyun%Gong%NULL%1,                Yang%Han%NULL%1,                Yang%Qiu%NULL%1,                Jingli%Wang%NULL%1,                Ying%Liu%NULL%1,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%1,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%1,                Li%Zhang%NULL%0,               Nanshan%Chen%NULL%1,               Min%Zhou%NULL%1,               Xuan%Dong%NULL%1,               Jieming%Qu%NULL%1,               Fengyun%Gong%NULL%1,               Yang%Han%NULL%1,               Yang%Qiu%NULL%1,               Jingli%Wang%NULL%1,               Ying%Liu%NULL%1,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%1,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%1,               Li%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fengxiang%Song%NULL%2,                Nannan%Shi%NULL%1,                Fei%Shan%NULL%1,                Zhiyong%Zhang%NULL%1,                Jie%Shen%NULL%1,                Hongzhou%Lu%NULL%2,                Yun%Ling%NULL%2,                Yebin%Jiang%NULL%1,                Yuxin%Shi%shiyuxin@shphc.org.cn%2,               Fengxiang%Song%NULL%1,               Nannan%Shi%NULL%1,               Fei%Shan%NULL%1,               Zhiyong%Zhang%NULL%1,               Jie%Shen%NULL%1,               Hongzhou%Lu%NULL%2,               Yun%Ling%NULL%2,               Yebin%Jiang%NULL%1,               Yuxin%Shi%shiyuxin@shphc.org.cn%2]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%7,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,            Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Kui%Liu%NULL%6,                Yuan-Yuan%Fang%NULL%1,                Yan%Deng%NULL%1,                Wei%Liu%NULL%1,                Mei-Fang%Wang%NULL%1,                Jing-Ping%Ma%NULL%1,                Wei%Xiao%NULL%1,                Ying-Nan%Wang%NULL%1,                Min-Hua%Zhong%NULL%1,                Cheng-Hong%Li%NULL%1,                Guang-Cai%Li%NULL%1,                Hui-Guo%Liu%NULL%1,                Xiu-Yuan%Hao%NULL%2,                Pei-Fang%Wei%NULL%2,               Kui%Liu%NULL%1,               Yuan-Yuan%Fang%NULL%1,               Yan%Deng%NULL%1,               Wei%Liu%NULL%1,               Mei-Fang%Wang%NULL%1,               Jing-Ping%Ma%NULL%1,               Wei%Xiao%NULL%1,               Ying-Nan%Wang%NULL%1,               Min-Hua%Zhong%NULL%1,               Cheng-Hong%Li%NULL%1,               Guang-Cai%Li%NULL%1,               Hui-Guo%Liu%NULL%1,               Xiu-Yuan%Hao%NULL%2,               Pei-Fang%Wei%NULL%2]</t>
-  </si>
-  <si>
-    <t>[ Yingxia%Liu%null%3,              Yang%Yang%null%1,              Cong%Zhang%null%1,              Fengming%Huang%null%1,              Fuxiang%Wang%null%1,              Jing%Yuan%null%1,              Zhaoqin%Wang%null%1,              Jinxiu%Li%null%1,              Jianming%Li%null%1,              Cheng%Feng%null%1,              Zheng%Zhang%null%1,              Lifei%Wang%null%1,              Ling%Peng%null%1,              Li%Chen%null%1,              Yuhao%Qin%null%1,              Dandan%Zhao%null%1,              Shuguang%Tan%null%1,              Lu%Yin%null%1,              Jun%Xu%null%1,              Congzhao%Zhou%null%1,              Chengyu%Jiang%null%1,              Lei%Liu%null%1,        Yingxia%Liu%null%1,        Yang%Yang%null%1,        Cong%Zhang%null%1,        Fengming%Huang%null%1,        Fuxiang%Wang%null%1,        Jing%Yuan%null%1,        Zhaoqin%Wang%null%1,        Jinxiu%Li%null%1,        Jianming%Li%null%1,        Cheng%Feng%null%1,        Zheng%Zhang%null%1,        Lifei%Wang%null%1,        Ling%Peng%null%1,        Li%Chen%null%1,        Yuhao%Qin%null%1,        Dandan%Zhao%null%1,        Shuguang%Tan%null%1,        Lu%Yin%null%1,        Jun%Xu%null%1,        Congzhao%Zhou%null%1,        Chengyu%Jiang%null%1,        Lei%Liu%null%1,       Yingxia%Liu%null%1,       Yang%Yang%null%1,       Cong%Zhang%null%1,       Fengming%Huang%null%1,       Fuxiang%Wang%null%1,       Jing%Yuan%null%1,       Zhaoqin%Wang%null%2,       Jinxiu%Li%null%1,       Jianming%Li%null%1,       Cheng%Feng%null%1,       Zheng%Zhang%null%1,       Lifei%Wang%null%1,       Ling%Peng%null%1,       Li%Chen%null%1,       Yuhao%Qin%null%1,       Dandan%Zhao%null%1,       Shuguang%Tan%null%1,       Lu%Yin%null%1,       Jun%Xu%null%1,       Congzhao%Zhou%null%1,       Chengyu%Jiang%null%1,       Lei%Liu%null%2,      Yingxia%Liu%null%1,      Yang%Yang%null%1,      Cong%Zhang%null%1,      Fengming%Huang%null%1,      Fuxiang%Wang%null%1,      Jing%Yuan%null%1,      Zhaoqin%Wang%null%1,      Jinxiu%Li%null%1,      Jianming%Li%null%1,      Cheng%Feng%null%1,      Zheng%Zhang%null%1,      Lifei%Wang%null%1,      Ling%Peng%null%1,      Li%Chen%null%1,      Yuhao%Qin%null%1,      Dandan%Zhao%null%1,      Shuguang%Tan%null%1,      Lu%Yin%null%1,      Jun%Xu%null%1,      Congzhao%Zhou%null%1,      Chengyu%Jiang%null%1,      Lei%Liu%null%1,     Yingxia%Liu%null%1,     Yang%Yang%null%2,     Cong%Zhang%null%2,     Fengming%Huang%null%2,     Fuxiang%Wang%null%2,     Jing%Yuan%null%2,     Zhaoqin%Wang%null%2,     Jinxiu%Li%null%2,     Jianming%Li%null%2,     Cheng%Feng%null%2,     Zheng%Zhang%null%2,     Lifei%Wang%null%2,     Ling%Peng%null%2,     Li%Chen%null%2,     Yuhao%Qin%null%2,     Dandan%Zhao%null%2,     Shuguang%Tan%null%2,     Lu%Yin%null%3,     Jun%Xu%null%2,     Congzhao%Zhou%null%2,     Chengyu%Jiang%null%2,     Lei%Liu%null%8,    Yingxia%Liu%null%1,    Yang%Yang%null%2,    Cong%Zhang%null%2,    Fengming%Huang%null%1,    Fuxiang%Wang%null%1,    Jing%Yuan%null%2,    Zhaoqin%Wang%null%2,    Jinxiu%Li%null%1,    Jianming%Li%null%1,    Cheng%Feng%null%1,    Zheng%Zhang%null%2,    Lifei%Wang%null%1,    Ling%Peng%null%1,    Li%Chen%null%1,    Yuhao%Qin%null%1,    Dandan%Zhao%null%1,    Shuguang%Tan%null%1,    Lu%Yin%null%1,    Jun%Xu%null%1,    Congzhao%Zhou%null%1,    Chengyu%Jiang%null%1,    Lei%Liu%null%4,   Yingxia%Liu%null%2,   Yang%Yang%null%3,   Cong%Zhang%null%4,   Fengming%Huang%null%2,   Fuxiang%Wang%null%2,   Jing%Yuan%null%3,   Zhaoqin%Wang%null%2,   Jinxiu%Li%null%2,   Jianming%Li%null%2,   Cheng%Feng%null%3,   Zheng%Zhang%null%3,   Lifei%Wang%null%3,   Ling%Peng%null%2,   Li%Chen%null%2,   Yuhao%Qin%null%2,   Dandan%Zhao%null%2,   Shuguang%Tan%null%2,   Lu%Yin%null%3,   Jun%Xu%null%2,   Congzhao%Zhou%null%2,   Chengyu%Jiang%null%2,   Lei%Liu%null%17,  Yingxia%Liu%null%0,  Yang%Yang%null%0,  Cong%Zhang%null%0,  Fengming%Huang%null%0,  Fuxiang%Wang%null%0,  Jing%Yuan%null%0,  Zhaoqin%Wang%null%0,  Jinxiu%Li%null%0,  Jianming%Li%null%0,  Cheng%Feng%null%0,  Zheng%Zhang%null%0,  Lifei%Wang%null%0,  Ling%Peng%null%0,  Li%Chen%null%0,  Yuhao%Qin%null%0,  Dandan%Zhao%null%0,  Shuguang%Tan%null%0,  Lu%Yin%null%0,  Jun%Xu%null%0,  Congzhao%Zhou%null%0,  Chengyu%Jiang%null%0,  Lei%Liu%null%0]</t>
-  </si>
-  <si>
-    <t>[Li-Li%Ren%NULL%3,                Ye-Ming%Wang%NULL%1,                Zhi-Qiang%Wu%NULL%1,                Zi-Chun%Xiang%NULL%1,                Li%Guo%NULL%0,                Teng%Xu%NULL%1,                Yong-Zhong%Jiang%NULL%1,                Yan%Xiong%NULL%1,                Yong-Jun%Li%NULL%1,                Xing-Wang%Li%NULL%1,                Hui%Li%NULL%0,                Guo-Hui%Fan%NULL%1,                Xiao-Ying%Gu%NULL%1,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Jiu-Yang%Xu%NULL%1,                Fan%Yang%NULL%1,                Xin-Ming%Wang%NULL%1,                Chao%Wu%NULL%1,                Lan%Chen%NULL%1,                Yi-Wei%Liu%NULL%1,                Bo%Liu%NULL%1,                Jian%Yang%NULL%1,                Xiao-Rui%Wang%NULL%1,                Jie%Dong%NULL%1,                Li%Li%NULL%2,                Chao-Lin%Huang%NULL%1,                Jian-Ping%Zhao%NULL%1,                Yi%Hu%NULL%0,                Zhen-Shun%Cheng%NULL%1,                Lin-Lin%Liu%NULL%1,                Zhao-Hui%Qian%NULL%1,                Chuan%Qin%NULL%1,                Qi%Jin%NULL%0,                Bin%Cao%NULL%0,                Jian-Wei%Wang%NULL%1,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0,               Li-Li%Ren%NULL%1,               Ye-Ming%Wang%NULL%1,               Zhi-Qiang%Wu%NULL%1,               Zi-Chun%Xiang%NULL%1,               Li%Guo%NULL%0,               Teng%Xu%NULL%1,               Yong-Zhong%Jiang%NULL%1,               Yan%Xiong%NULL%1,               Yong-Jun%Li%NULL%1,               Xing-Wang%Li%NULL%1,               Hui%Li%NULL%0,               Guo-Hui%Fan%NULL%1,               Xiao-Ying%Gu%NULL%1,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Jiu-Yang%Xu%NULL%1,               Fan%Yang%NULL%1,               Xin-Ming%Wang%NULL%1,               Chao%Wu%NULL%1,               Lan%Chen%NULL%1,               Yi-Wei%Liu%NULL%1,               Bo%Liu%NULL%1,               Jian%Yang%NULL%1,               Xiao-Rui%Wang%NULL%1,               Jie%Dong%NULL%1,               Li%Li%NULL%2,               Chao-Lin%Huang%NULL%1,               Jian-Ping%Zhao%NULL%1,               Yi%Hu%NULL%0,               Zhen-Shun%Cheng%NULL%1,               Lin-Lin%Liu%NULL%1,               Zhao-Hui%Qian%NULL%1,               Chuan%Qin%NULL%1,               Qi%Jin%NULL%0,               Bin%Cao%NULL%0,               Jian-Wei%Wang%NULL%1,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ning%Tang%NULL%4,                Dengju%Li%NULL%1,                Xiong%Wang%NULL%1,                Ziyong%Sun%NULL%1,               Ning%Tang%NULL%1,               Dengju%Li%NULL%1,               Xiong%Wang%NULL%1,               Ziyong%Sun%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%6,            Cao%Yi-yuan%coreGivesNoEmail%1,            Dong%Xiang%coreGivesNoEmail%1,            Gao%Ya-dong%coreGivesNoEmail%1,            Yan%You-qin%coreGivesNoEmail%1,            Yang%Yi-bin%coreGivesNoEmail%1,            Yuan%Ya-dong%coreGivesNoEmail%1,            Zhang%Jin-jin%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xiao-Wei%Xu%NULL%7,                Xiao-Xin%Wu%NULL%1,                Xian-Gao%Jiang%NULL%1,                Kai-Jin%Xu%NULL%1,                Ling-Jun%Ying%NULL%1,                Chun-Lian%Ma%NULL%1,                Shi-Bo%Li%NULL%1,                Hua-Ying%Wang%NULL%1,                Sheng%Zhang%NULL%1,                Hai-Nv%Gao%NULL%1,                Ji-Fang%Sheng%NULL%1,                Hong-Liu%Cai%NULL%1,                Yun-Qing%Qiu%NULL%1,                Lan-Juan%Li%NULL%1,               Xiao-Wei%Xu%NULL%1,               Xiao-Xin%Wu%NULL%1,               Xian-Gao%Jiang%NULL%1,               Kai-Jin%Xu%NULL%1,               Ling-Jun%Ying%NULL%1,               Chun-Lian%Ma%NULL%1,               Shi-Bo%Li%NULL%1,               Hua-Ying%Wang%NULL%1,               Sheng%Zhang%NULL%1,               Hai-Nv%Gao%NULL%1,               Ji-Fang%Sheng%NULL%1,               Hong-Liu%Cai%NULL%1,               Yun-Qing%Qiu%NULL%1,               Lan-Juan%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jiong%Wu%NULL%1,                Xiaojia%Wu%NULL%1,                Wenbing%Zeng%NULL%1,                Dajing%Guo%NULL%1,                Zheng%Fang%NULL%1,                Linli%Chen%NULL%1,                Huizhe%Huang%NULL%1,                Chuanming%Li%NULL%1,               Jiong%Wu%NULL%1,               Xiaojia%Wu%NULL%1,               Wenbing%Zeng%NULL%1,               Dajing%Guo%NULL%1,               Zheng%Fang%NULL%1,               Linli%Chen%NULL%1,               Huizhe%Huang%NULL%1,               Chuanming%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,                Valerie%Wong%NULL%1,                Vivian Wan In%Wei%NULL%1,                Samuel Yeung Shan%Wong%NULL%1,                Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1,               Kin On%Kwok%kkokwok@cuhk.edu.hk%1,               Valerie%Wong%NULL%1,               Vivian Wan In%Wei%NULL%1,               Samuel Yeung Shan%Wong%NULL%1,               Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
-  </si>
-  <si>
-    <t>[Heshui%Shi%NULL%2,                Xiaoyu%Han%NULL%1,                Nanchuan%Jiang%NULL%1,                Yukun%Cao%NULL%1,                Osamah%Alwalid%NULL%1,                Jin%Gu%NULL%1,                Yanqing%Fan%1024932023@qq.com%1,                Chuansheng%Zheng%hqzcsxh@sina.com%1,               Heshui%Shi%NULL%1,               Xiaoyu%Han%NULL%1,               Nanchuan%Jiang%NULL%1,               Yukun%Cao%NULL%1,               Osamah%Alwalid%NULL%1,               Jin%Gu%NULL%1,               Yanqing%Fan%1024932023@qq.com%1,               Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
-  </si>
-  <si>
-    <t>[Simin%Zhang%NULL%0,                Huaqiao%Li%NULL%0,                Songtao%Huang%NULL%0,                Wei%You%NULL%0,                Huaiqiang%Sun%NULL%0,               Simin%Zhang%NULL%0,               Huaqiao%Li%NULL%0,               Songtao%Huang%NULL%0,               Wei%You%NULL%0,               Huaiqiang%Sun%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Chen%NULL%5,                Tangkai%Qi%NULL%1,                Li%Liu%NULL%1,                Yun%Ling%NULL%0,                Zhiping%Qian%NULL%1,                Tao%Li%NULL%1,                Feng%Li%NULL%1,                Qingnian%Xu%NULL%1,                Yuyi%Zhang%NULL%1,                Shuibao%Xu%NULL%1,                Zhigang%Song%NULL%1,                Yigang%Zeng%NULL%1,                Yinzhong%Shen%NULL%1,                Yuxin%Shi%NULL%0,                Tongyu%Zhu%NULL%1,                Hongzhou%Lu%NULL%0,               Jun%Chen%NULL%1,               Tangkai%Qi%NULL%1,               Li%Liu%NULL%1,               Yun%Ling%NULL%0,               Zhiping%Qian%NULL%1,               Tao%Li%NULL%1,               Feng%Li%NULL%1,               Qingnian%Xu%NULL%1,               Yuyi%Zhang%NULL%1,               Shuibao%Xu%NULL%1,               Zhigang%Song%NULL%1,               Yigang%Zeng%NULL%1,               Yinzhong%Shen%NULL%1,               Yuxin%Shi%NULL%0,               Tongyu%Zhu%NULL%1,               Hongzhou%Lu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Qing%Chen%NULL%2,                Bin%Quan%NULL%1,                Xiaoning%Li%NULL%1,                Guangjian%Gao%NULL%1,                Wenqiang%Zheng%NULL%1,                Jun%Zhang%NULL%1,                Zhiyun%Zhang%NULL%1,                Chunsheng%Liu%NULL%1,                Li%Li%NULL%0,                Chenglin%Wang%NULL%1,                Guihua%Zhang%NULL%1,                Jiajia%Li%NULL%1,                Yunhai%Dai%NULL%1,                Jianghua%Yang%yjhpath@163.com%1,                Wenzheng%Han%11418166@zju.edu.cn%1,               Qing%Chen%NULL%1,               Bin%Quan%NULL%1,               Xiaoning%Li%NULL%1,               Guangjian%Gao%NULL%1,               Wenqiang%Zheng%NULL%1,               Jun%Zhang%NULL%1,               Zhiyun%Zhang%NULL%1,               Chunsheng%Liu%NULL%1,               Li%Li%NULL%0,               Chenglin%Wang%NULL%1,               Guihua%Zhang%NULL%1,               Jiajia%Li%NULL%1,               Yunhai%Dai%NULL%1,               Jianghua%Yang%yjhpath@163.com%1,               Wenzheng%Han%11418166@zju.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%5,                Kai%Xie%NULL%1,                Hui%Lu%NULL%1,                Lei%Xu%bayinhexl@126.com%1,                Shusheng%Zhou%zhouss108@163.com%1,                Shiyuan%Fang%fangshiyuan2008@126.com%1,               Wanbo%Zhu%NULL%1,               Kai%Xie%NULL%1,               Hui%Lu%NULL%1,               Lei%Xu%bayinhexl@126.com%1,               Shusheng%Zhou%zhouss108@163.com%1,               Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%6,                Yuanyuan%Xing%NULL%1,                Yu%Xiao%NULL%1,                Liping%Deng%NULL%1,                Qiu%Zhao%NULL%1,                Hongling%Wang%NULL%1,                Yong%Xiong%NULL%1,                Zhenshun%Cheng%NULL%0,                Shicheng%Gao%NULL%1,                Ke%Liang%NULL%1,                Mingqi%Luo%NULL%1,                Tielong%Chen%NULL%1,                Shihui%Song%NULL%1,                Zhiyong%Ma%NULL%1,                Xiaoping%Chen%NULL%1,                Ruiying%Zheng%NULL%1,                Qian%Cao%NULL%1,                Fan%Wang%fanndywang@foxmail.com%1,                Yongxi%Zhang%znact1936@126.com%1,               Pingzheng%Mo%NULL%1,               Yuanyuan%Xing%NULL%1,               Yu%Xiao%NULL%1,               Liping%Deng%NULL%1,               Qiu%Zhao%NULL%1,               Hongling%Wang%NULL%1,               Yong%Xiong%NULL%1,               Zhenshun%Cheng%NULL%0,               Shicheng%Gao%NULL%1,               Ke%Liang%NULL%1,               Mingqi%Luo%NULL%1,               Tielong%Chen%NULL%1,               Shihui%Song%NULL%1,               Zhiyong%Ma%NULL%1,               Xiaoping%Chen%NULL%1,               Ruiying%Zheng%NULL%1,               Qian%Cao%NULL%1,               Fan%Wang%fanndywang@foxmail.com%1,               Yongxi%Zhang%znact1936@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Yanrong%Wang%123rong@sohu.com%3,                Yingxia%Liu%NULL%1,                Lei%Liu%NULL%1,                Xianfeng%Wang%NULL%1,                Nijuan%Luo%NULL%1,                Ling%Li%NULL%1,               Yanrong%Wang%123rong@sohu.com%1,               Yingxia%Liu%NULL%1,               Lei%Liu%NULL%1,               Xianfeng%Wang%NULL%1,               Nijuan%Luo%NULL%1,               Ling%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%6,                N -B%Yang%NULL%2,                F%Ding%NULL%2,                A H Y%Ma%NULL%2,                Z -Y%Wang%NULL%4,                Y -F%Shen%NULL%2,                C -W%Shi%NULL%2,                X%Lian%NULL%2,                J -G%Chu%NULL%2,                L%Chen%chxmin@hotmail.com%2,                Z -Y%Wang%NULL%0,                D -W%Ren%NULL%2,                G -X%Li%NULL%2,                X -Q%Chen%chxmin@hotmail.com%2,                H -J%Shen%NULL%2,                X -M%Chen%chxmin@hotmail.com%2,               G -Q%Qian%NULL%2,               N -B%Yang%NULL%3,               F%Ding%NULL%3,               A H Y%Ma%NULL%3,               Z -Y%Wang%NULL%6,               Y -F%Shen%NULL%3,               C -W%Shi%NULL%3,               X%Lian%NULL%3,               J -G%Chu%NULL%3,               L%Chen%chxmin@hotmail.com%3,               Z -Y%Wang%NULL%0,               D -W%Ren%NULL%3,               G -X%Li%NULL%3,               X -Q%Chen%chxmin@hotmail.com%3,               H -J%Shen%NULL%3,               X -M%Chen%chxmin@hotmail.com%3]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,                N -B%Yang%NULL%0,                F%Ding%NULL%0,                A H Y%Ma%NULL%0,                Z -Y%Wang%NULL%0,                Y -F%Shen%NULL%0,                C -W%Shi%NULL%0,                X%Lian%NULL%0,                J -G%Chu%NULL%0,                L%Chen%chxmin@hotmail.com%0,                Z -Y%Wang%NULL%0,                D -W%Ren%NULL%0,                G -X%Li%NULL%0,                X -Q%Chen%chxmin@hotmail.com%0,                H -J%Shen%NULL%0,                X -M%Chen%chxmin@hotmail.com%0,               G -Q%Qian%NULL%0,               N -B%Yang%NULL%0,               F%Ding%NULL%0,               A H Y%Ma%NULL%0,               Z -Y%Wang%NULL%0,               Y -F%Shen%NULL%0,               C -W%Shi%NULL%0,               X%Lian%NULL%0,               J -G%Chu%NULL%0,               L%Chen%chxmin@hotmail.com%0,               Z -Y%Wang%NULL%0,               D -W%Ren%NULL%0,               G -X%Li%NULL%0,               X -Q%Chen%chxmin@hotmail.com%0,               H -J%Shen%NULL%0,               X -M%Chen%chxmin@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,               N -B%Yang%NULL%0,               F%Ding%NULL%0,               A H Y%Ma%NULL%0,               Z -Y%Wang%NULL%0,               Y -F%Shen%NULL%0,               C -W%Shi%NULL%0,               X%Lian%NULL%0,               J -G%Chu%NULL%0,               L%Chen%chxmin@hotmail.com%0,               Z -Y%Wang%NULL%0,               D -W%Ren%NULL%0,               G -X%Li%NULL%0,               X -Q%Chen%chxmin@hotmail.com%0,               H -J%Shen%NULL%0,               X -M%Chen%chxmin@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t>[Yanrong%Wang%123rong@sohu.com%0,             Yingxia%Liu%NULL%1,             Lei%Liu%NULL%1,             Xianfeng%Wang%NULL%1,             Nijuan%Luo%NULL%1,             Ling%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,             N -B%Yang%NULL%1,             F%Ding%NULL%1,             A H Y%Ma%NULL%1,             Z -Y%Wang%NULL%2,             Y -F%Shen%NULL%1,             C -W%Shi%NULL%1,             X%Lian%NULL%1,             J -G%Chu%NULL%1,             L%Chen%chxmin@hotmail.com%1,             Z -Y%Wang%NULL%0,             D -W%Ren%NULL%1,             G -X%Li%NULL%1,             X -Q%Chen%chxmin@hotmail.com%1,             H -J%Shen%NULL%1,             X -M%Chen%chxmin@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yong%Gao%NULL%0,             Tuantuan%Li%NULL%1,             Mingfeng%Han%NULL%1,             Xiuyong%Li%NULL%1,             Dong%Wu%NULL%1,             Yuanhong%Xu%NULL%1,             Yulin%Zhu%NULL%1,             Yan%Liu%NULL%1,             Xiaowu%Wang%wangxiaowu19880218@126.com%1,             Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>Clinical characteristics of 24 asymptomatic infections with COVID-19 screened among close contacts in Nanjing, China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronic Supplementary Material
-Supplementary material is available for this article at 10.1007/s11427-020-1661-4 and is accessible for authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Zhiliang%Hu%NULL%0, Ci%Song%NULL%1, Chuanjun%Xu%NULL%1, Guangfu%Jin%NULL%1, Yaling%Chen%NULL%1, Xin%Xu%NULL%1, Hongxia%Ma%NULL%1, Wei%Chen%NULL%1, Yuan%Lin%NULL%1, Yishan%Zheng%NULL%1, Jianming%Wang%NULL%1, Zhibin%Hu%zhibin_hu@njmu.edu.cn%1, Yongxiang%Yi%ian0126@126.com%1, Hongbing%Shen%NULL%1]</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>_Springer</t>
-  </si>
-  <si>
-    <t>Epidemiological characteristics of 2019-ncoV infections in Shaanxi, China by February 8, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In December, 2019, a new coronavirus named 2019-nCoV causing severe acute respiratory disease has emerged in the region of Wuhan, China [1, 2].
- The National Health Commission of People's Republic of China named pneumonia infected with 2019-nCoV as Novel Coronavirus Pneumonia (NCP).
-Evidence have pointing to the person-to-person transmission [3–5].
- As of February 8, 2020, China has reported 34 673 confirmed and more than 27 657 suspected cases of NCP across 34 Chinese provinces or municipalities, with 106 fatalities.
- Most of the studies focused on the epidemic situation in Wuhan, but few on provinces outside Wuhan.
- Shaanxi is located in the northwest of Hubei Province and adjacent to it, with a population of 38.64 million.
- Since the first case of NCP was confirmed in Shannxi by on January 23, 2020, 195 cases have been confirmed, but there is no relevant epidemiological study.
- In order to better understand the epidemic law of new coronavirus in Shaanxi Province, and provide the basis for the future development of control measures.
-This article aims to report the epidemiological outcomes of 195 confirmed case infected with 2019-nCoV in Shaanxi, and to compare the clinical features between patients with or without a history of exposure in Wuhan.
-</t>
-  </si>
-  <si>
-    <t>[Yang%Yao%NULL%1, Yao%Tian%NULL%2, Yao%Tian%NULL%0, Jing%Zhou%NULL%1, Xuan%Ma%NULL%1, Min%Yang%NULL%1, ShengYu%Wang%NULL%1]</t>
-  </si>
-  <si>
-    <t>First cases of coronavirus disease 2019 (COVID-19) in the WHO European Region, 24 January to 21 February 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the WHO European Region, COVID-19 surveillance was implemented 27 January 2020. We detail the first European cases.
- As at 21 February, nine European countries reported 47 cases.
- Among 38 cases studied, 21 were linked to two clusters in Germany and France, 14 were infected in China.
- Median case age was 42 years; 25 were male.
- Late detection of the clusters’ index cases delayed isolation of further local cases.
- As at 5 March, there were 4,250 cases.
- </t>
-  </si>
-  <si>
-    <t>[Gianfranco%Spiteri%NULL%1, James%Fielding%NULL%1, Michaela%Diercke%NULL%1, Christine%Campese%NULL%1, Vincent%Enouf%NULL%1, Alexandre%Gaymard%NULL%1, Antonino%Bella%NULL%1, Paola%Sognamiglio%NULL%1, Maria José%Sierra Moros%NULL%1, Antonio Nicolau%Riutort%NULL%1, Yulia V.%Demina%NULL%1, Romain%Mahieu%NULL%1, Markku%Broas%NULL%1, Malin%Bengnér%NULL%1, Silke%Buda%NULL%1, Julia%Schilling%NULL%1, Laurent%Filleul%NULL%1, Agnès%Lepoutre%NULL%1, Christine%Saura%NULL%1, Alexandra%Mailles%NULL%1, Daniel%Levy-Bruhl%NULL%1, Bruno%Coignard%NULL%1, Sibylle%Bernard-Stoecklin%NULL%1, Sylvie%Behillil%NULL%1, Sylvie%van der Werf%NULL%1, Martine%Valette%NULL%1, Bruno%Lina%NULL%1, Flavia%Riccardo%NULL%1, Emanuele%Nicastri%NULL%1, Inmaculada%Casas%NULL%1, Amparo%Larrauri%NULL%1, Magdalena%Salom Castell%NULL%1, Francisco%Pozo%NULL%1, Rinat A.%Maksyutov%NULL%1, Charlotte%Martin%NULL%1, Marc%Van Ranst%NULL%1, Nathalie%Bossuyt%NULL%1, Lotta%Siira%NULL%1, Jussi%Sane%NULL%1, Karin%Tegmark-Wisell%NULL%1, Maria%Palmérus%NULL%1, Eeva K.%Broberg%NULL%1, Julien%Beauté%NULL%1, Pernille%Jorgensen%NULL%1, Nick%Bundle%NULL%1, Dmitriy%Pereyaslov%NULL%1, Cornelia%Adlhoch%NULL%1, Jukka%Pukkila%NULL%1, Richard%Pebody%NULL%1, Sonja%Olsen%NULL%1, Bruno Christian%Ciancio%NULL%1]</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>The clinical dynamics of 18 cases of COVID-19 outside of Wuhan, China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since an outbreak of 2019 novel coronavirus (COVID-19) in Wuhan and related regions in Hubei province, an increasing number of exported cases have been confirmed in other provinces in China and in multiple countries around the world with substantial morbidity and mortality [1–4].
- The WHO has declared a public health emergency of international concern considering rapid increases in numbers of confirmed cases in China and additional countries.
- As of February 22, 2020, a total of 12 938 patients had been confirmed outside of Wuhan and related regions in Hubei province of China [1].
- However, there is limited information about COVID-19 outside of Wuhan [5], and no study has reported the time to RT-PCR conversion and radiological changes after treatment.
-</t>
-  </si>
-  <si>
-    <t>[Lei%Wang%NULL%1, Yong-hua%Gao%NULL%1, Li-Li%lou%NULL%1, Guo-Jun%Zhang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Simin%Zhang%NULL%0, Huaqiao%Li%NULL%1, Songtao%Huang%NULL%1, Wei%You%NULL%1, Huaiqiang%Sun%NULL%1]</t>
-  </si>
-  <si>
-    <t>Clinical course and risk factors for mortality of adult inpatients with COVID-19 in Wuhan, China: a retrospective cohort study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December, 2019, Wuhan, China, has experienced an outbreak of coronavirus disease 2019 (COVID-19), caused by the severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2).
- Epidemiological and clinical characteristics of patients with COVID-19 have been reported but risk factors for mortality and a detailed clinical course of illness, including viral shedding, have not been well described.
-Methods
-In this retrospective, multicentre cohort study, we included all adult inpatients (≥18 years old) with laboratory-confirmed COVID-19 from Jinyintan Hospital and Wuhan Pulmonary Hospital (Wuhan, China) who had been discharged or had died by Jan 31, 2020. Demographic, clinical, treatment, and laboratory data, including serial samples for viral RNA detection, were extracted from electronic medical records and compared between survivors and non-survivors.
- We used univariable and multivariable logistic regression methods to explore the risk factors associated with in-hospital death.
-Findings
-191 patients (135 from Jinyintan Hospital and 56 from Wuhan Pulmonary Hospital) were included in this study, of whom 137 were discharged and 54 died in hospital.
- 91 (48%) patients had a comorbidity, with hypertension being the most common (58 [30%] patients), followed by diabetes (36 [19%] patients) and coronary heart disease (15 [8%] patients).
- Multivariable regression showed increasing odds of in-hospital death associated with older age (odds ratio 1·10, 95% CI 1·03–1·17, per year increase; p=0·0043), higher Sequential Organ Failure Assessment (SOFA) score (5·65, 2·61–12·23; p&amp;lt;0·0001), and d-dimer greater than 1 μg/mL (18·42, 2·64–128·55; p=0·0033) on admission.
- Median duration of viral shedding was 20·0 days (IQR 17·0–24·0) in survivors, but SARS-CoV-2 was detectable until death in non-survivors.
- The longest observed duration of viral shedding in survivors was 37 days.
-Interpretation
-The potential risk factors of older age, high SOFA score, and d-dimer greater than 1 μg/mL could help clinicians to identify patients with poor prognosis at an early stage.
- Prolonged viral shedding provides the rationale for a strategy of isolation of infected patients and optimal antiviral interventions in the future.
-Funding
-Chinese Academy of Medical Sciences Innovation Fund for Medical Sciences; National Science Grant for Distinguished Young Scholars; National Key Research and Development Program of China; The Beijing Science and Technology Project; and Major Projects of National Science and Technology on New Drug Creation and Development.
-</t>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,  Shuofeng%Yuan%NULL%2,  Kin-Hang%Kok%NULL%2,  Kelvin Kai-Wang%To%NULL%2,  Hin%Chu%NULL%2,  Jin%Yang%NULL%2,  Fanfan%Xing%NULL%2,  Jieling%Liu%NULL%2,  Cyril Chik-Yan%Yip%NULL%2,  Rosana Wing-Shan%Poon%NULL%2,  Hoi-Wah%Tsoi%NULL%2,  Simon Kam-Fai%Lo%NULL%2,  Kwok-Hung%Chan%NULL%3,  Vincent Kwok-Man%Poon%NULL%2,  Wan-Mui%Chan%NULL%2,  Jonathan Daniel%Ip%NULL%2,  Jian-Piao%Cai%NULL%2,  Vincent Chi-Chung%Cheng%NULL%2,  Honglin%Chen%NULL%2,  Christopher Kim-Ming%Hui%NULL%2,  Kwok-Yung%Yuen%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,  Xuhua%Guan%NULL%2,  Peng%Wu%NULL%2,  Xiaoye%Wang%NULL%2,  Lei%Zhou%NULL%3,  Yeqing%Tong%NULL%2,  Ruiqi%Ren%NULL%2,  Kathy S.M.%Leung%NULL%2,  Eric H.Y.%Lau%NULL%2,  Jessica Y.%Wong%NULL%2,  Xuesen%Xing%NULL%2,  Nijuan%Xiang%NULL%3,  Yang%Wu%NULL%2,  Chao%Li%NULL%2,  Qi%Chen%NULL%2,  Dan%Li%NULL%2,  Tian%Liu%NULL%2,  Jing%Zhao%NULL%2,  Man%Liu%NULL%2,  Wenxiao%Tu%NULL%2,  Chuding%Chen%NULL%2,  Lianmei%Jin%NULL%2,  Rui%Yang%NULL%2,  Qi%Wang%NULL%2,  Suhua%Zhou%NULL%2,  Rui%Wang%NULL%3,  Hui%Liu%NULL%3,  Yinbo%Luo%NULL%2,  Yuan%Liu%NULL%2,  Ge%Shao%NULL%2,  Huan%Li%NULL%2,  Zhongfa%Tao%NULL%2,  Yang%Yang%NULL%5,  Zhiqiang%Deng%NULL%2,  Boxi%Liu%NULL%2,  Zhitao%Ma%NULL%2,  Yanping%Zhang%NULL%2,  Guoqing%Shi%NULL%2,  Tommy T.Y.%Lam%NULL%2,  Joseph T.%Wu%NULL%2,  George F.%Gao%NULL%4,  Benjamin J.%Cowling%NULL%3,  Bo%Yang%NULL%6,  Bo%Yang%NULL%0,  Gabriel M.%Leung%NULL%2,  Zijian%Feng%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,  Min%Zhou%NULL%8,  Xuan%Dong%NULL%4,  Jieming%Qu%NULL%9,  Fengyun%Gong%NULL%4,  Yang%Han%NULL%4,  Yang%Qiu%NULL%4,  Jingli%Wang%NULL%4,  Ying%Liu%NULL%8,  Yuan%Wei%NULL%0,  Jia'an%Xia%NULL%5,  Ting%Yu%NULL%0,  Xinxin%Zhang%NULL%6,  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,  Nannan%Shi%NULL%4,  Nannan%Shi%NULL%0,  Fei%Shan%NULL%3,  Zhiyong%Zhang%NULL%2,  Jie%Shen%NULL%2,  Hongzhou%Lu%NULL%8,  Yun%Ling%NULL%8,  Yebin%Jiang%NULL%4,  Yebin%Jiang%NULL%0,  Yuxin%Shi%shiyuxin@shphc.org.cn%8,  Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,  Yuan-Yuan%Fang%NULL%5,  Yan%Deng%NULL%5,  Wei%Liu%NULL%6,  Mei-Fang%Wang%NULL%4,  Jing-Ping%Ma%NULL%4,  Wei%Xiao%NULL%4,  Ying-Nan%Wang%NULL%4,  Min-Hua%Zhong%NULL%4,  Cheng-Hong%Li%NULL%4,  Guang-Cai%Li%NULL%4,  Hui-Guo%Liu%NULL%6,  Xiu-Yuan%Hao%NULL%10,  Xiu-Yuan%Hao%NULL%0,  Pei-Fang%Wei%NULL%12]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,  Ye-Ming%Wang%NULL%2,  Zhi-Qiang%Wu%NULL%2,  Zi-Chun%Xiang%NULL%2,  Li%Guo%NULL%0,  Teng%Xu%NULL%2,  Yong-Zhong%Jiang%NULL%2,  Yan%Xiong%NULL%3,  Yong-Jun%Li%NULL%2,  Xing-Wang%Li%NULL%2,  Hui%Li%NULL%0,  Guo-Hui%Fan%NULL%2,  Xiao-Ying%Gu%NULL%2,  Yan%Xiao%NULL%0,  Hong%Gao%NULL%0,  Jiu-Yang%Xu%NULL%2,  Fan%Yang%NULL%2,  Xin-Ming%Wang%NULL%2,  Chao%Wu%NULL%2,  Lan%Chen%NULL%2,  Yi-Wei%Liu%NULL%2,  Bo%Liu%NULL%4,  Jian%Yang%NULL%2,  Xiao-Rui%Wang%NULL%2,  Jie%Dong%NULL%2,  Li%Li%NULL%11,  Chao-Lin%Huang%NULL%2,  Jian-Ping%Zhao%NULL%2,  Yi%Hu%NULL%0,  Zhen-Shun%Cheng%NULL%2,  Lin-Lin%Liu%NULL%2,  Zhao-Hui%Qian%NULL%2,  Chuan%Qin%NULL%2,  Qi%Jin%NULL%0,  Bin%Cao%NULL%0,  Jian-Wei%Wang%NULL%2,  Xiu-Yuan%Hao%NULL%0,  Xiu-Yuan%Hao%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,  Dengju%Li%NULL%3,  Xiong%Wang%NULL%3,  Ziyong%Sun%NULL%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,  Xiao-Xin%Wu%NULL%5,  Xian-Gao%Jiang%NULL%5,  Kai-Jin%Xu%NULL%5,  Ling-Jun%Ying%NULL%5,  Chun-Lian%Ma%NULL%5,  Shi-Bo%Li%NULL%5,  Hua-Ying%Wang%NULL%5,  Sheng%Zhang%NULL%5,  Hai-Nv%Gao%NULL%5,  Ji-Fang%Sheng%NULL%5,  Hong-Liu%Cai%NULL%5,  Yun-Qing%Qiu%NULL%5,  Lan-Juan%Li%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,  Xiaojia%Wu%NULL%1,  Wenbing%Zeng%NULL%1,  Dajing%Guo%NULL%2,  Zheng%Fang%NULL%2,  Linli%Chen%NULL%2,  Huizhe%Huang%NULL%1,  Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,  Valerie%Wong%NULL%1,  Vivian Wan In%Wei%NULL%1,  Samuel Yeung Shan%Wong%NULL%2,  Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,  Xiaoyu%Han%NULL%3,  Nanchuan%Jiang%NULL%1,  Yukun%Cao%NULL%1,  Osamah%Alwalid%NULL%1,  Jin%Gu%NULL%1,  Yanqing%Fan%1024932023@qq.com%2,  Chuansheng%Zheng%hqzcsxh@sina.com%6]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,  Jing-Hui%Dong%NULL%1,  Wei-Min%An%NULL%1,  Xiao-Yan%Lv%15001008285@139.com%1,  Xiao-Ping%Yin%yinxiaoping78@sina.com%1,  Jian-Zeng%Zhang%NULL%1,  Li%Dong%NULL%1,  Xi%Ma%NULL%1,  Hong-Jie%Zhang%NULL%1,  Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>PMC7102538</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,  Zhenlu%Yang%NULL%4,  Zhenlu%Yang%NULL%0,  Hongyan%Hou%NULL%4,  Hongyan%Hou%NULL%0,  Chenao%Zhan%NULL%2,  Chong%Chen%NULL%2,  Wenzhi%Lv%NULL%4,  Wenzhi%Lv%NULL%0,  Qian%Tao%NULL%4,  Qian%Tao%NULL%0,  Ziyong%Sun%NULL%0,  Ziyong%Sun%NULL%0,  Liming%Xia%xialiming2017@outlook.com%3]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,  Qiqi%Cao%NULL%2,  Le%Qin%NULL%2,  Xiaoyang%Wang%NULL%2,  Zenghui%Cheng%NULL%2,  Ashan%Pan%NULL%2,  Jianyi%Dai%NULL%2,  Qingfeng%Sun%NULL%2,  Fengquan%Zhao%NULL%2,  Jieming%Qu%NULL%0,  Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,  Nan%Hu%NULL%1,  Jing%Lou%NULL%1,  Kun%Chen%NULL%1,  Xuqin%Kang%NULL%1,  Zhenjun%Xiang%NULL%1,  Hui%Chen%NULL%2,  Dali%Wang%NULL%1,  Ning%Liu%NULL%1,  Dong%Liu%NULL%1,  Gang%Chen%NULL%1,  Yongliang%Zhang%NULL%1,  Dou%Li%NULL%1,  Jianren%Li%NULL%1,  Huixin%Lian%NULL%1,  Shengmei%Niu%NULL%1,  Luxi%Zhang%NULL%1,  Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,  Mengqi%Tu%NULL%1,  Shipei%Wang%NULL%1,  Sichao%Chen%NULL%1,  Wei%Zhou%NULL%1,  Danyang%Chen%NULL%1,  Lin%Zhou%NULL%1,  Min%Wang%NULL%1,  Yan%Zhao%NULL%1,  Wen%Zeng%NULL%1,  Qi%Huang%NULL%1,  Hai'bo%Xu%NULL%1,  Zeming%Liu%NULL%1,  Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,  Chengcheng%Yu%NULL%3,  Jing%Qu%NULL%2,  Lieguang%Zhang%NULL%3,  Songfeng%Jiang%NULL%2,  Deyang%Huang%NULL%2,  Bihua%Chen%NULL%2,  Zhiping%Zhang%NULL%2,  Wanhua%Guan%NULL%2,  Zhoukun%Ling%NULL%2,  Rui%Jiang%NULL%2,  Tianli%Hu%NULL%2,  Yan%Ding%NULL%2,  Lin%Lin%NULL%2,  Qingxin%Gan%NULL%2,  Liangping%Luo%tluolp@jnu.edu.cn%3,  Xiaoping%Tang%xtang@21cn.com%2,  Jinxin%Liu%Liujx83710378@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,  Zhao-Wu%Tao%NULL%1,  Lei%Wang%NULL%1,  Ming-Li%Yuan%NULL%3,  Kui%Liu%NULL%3,  Ling%Zhou%NULL%2,  Shuang%Wei%NULL%2,  Yan%Deng%NULL%0,  Jing%Liu%NULL%1,  Hui-Guo%Liu%NULL%0,  Ming%Yang%NULL%1,  Yi%Hu%NULL%0,  Pei-Fang%Wei%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,  Jiong%Wu%NULL%1,  Faqi%Wu%NULL%1,  Dajing%Guo%NULL%0,  Linli%Chen%NULL%0,  Zheng%Fang%NULL%0,  Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,  Jun%Liu%NULL%4,  Xinguo%Zhao%NULL%2,  Chengyuan%Liu%NULL%2,  Wei%Wang%NULL%3,  Dawei%Wang%NULL%2,  Wei%Xu%NULL%3,  Chunyu%Zhang%NULL%2,  Jiong%Yu%NULL%2,  Bin%Jiang%NULL%2,  Hongcui%Cao%hccao@zju.edu.cn%2,  Lanjuan%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,  Xiaorong%Hu%NULL%1,  Wenlin%Cheng%NULL%4,  Lei%Yu%NULL%4,  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,  Qiang%Liu%liuqiang@irm-cams.ac.cn%5,  Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,  Kun%Yang%NULL%2,  Kun%Yang%NULL%0,  Wenxia%Wang%NULL%2,  Wenxia%Wang%NULL%0,  Lingyu%Jiang%NULL%2,  Lingyu%Jiang%NULL%0,  Jianxin%Song%songsingsjx@sina.com%2,  Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,  Meiwen%Tang%NULL%1,  Xiaobin%Zheng%NULL%2,  Ye%Liu%ly77219@163.com%1,  Xiaofeng%Li%zdwylxf@163.com%1,  Hong%Shan%shanhong@mail.sysu.edu.cn%8]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,  Dong%Sun%NULL%1,  Yao%Liu%NULL%1,  Yanqing%Fan%NULL%0,  Lingyun%Zhao%NULL%1,  Xiaoming%Li%NULL%1,  Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0, Dong%Sun%NULL%1, Yao%Liu%NULL%1, Yanqing%Fan%NULL%1, Lingyun%Zhao%NULL%1, Xiaoming%Li%NULL%1, Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,  SaiBin%Wang%NULL%2,  SaiBin%Wang%NULL%0,  YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0, SaiBin%Wang%NULL%2, SaiBin%Wang%NULL%0, YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,  Ci%Song%NULL%2,  Chuanjun%Xu%NULL%2,  Guangfu%Jin%NULL%2,  Yaling%Chen%NULL%2,  Xin%Xu%NULL%2,  Hongxia%Ma%NULL%2,  Wei%Chen%NULL%4,  Yuan%Lin%NULL%2,  Yishan%Zheng%NULL%3,  Jianming%Wang%NULL%2,  Zhibin%Hu%zhibin_hu@njmu.edu.cn%2,  Yongxiang%Yi%ian0126@126.com%2,  Hongbing%Shen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,  Yao%Tian%NULL%2,  Yao%Tian%NULL%0,  Jing%Zhou%NULL%1,  Xuan%Ma%NULL%1,  Min%Yang%NULL%1,  ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0, Yao%Tian%NULL%2, Yao%Tian%NULL%0, Jing%Zhou%NULL%1, Xuan%Ma%NULL%1, Min%Yang%NULL%1, ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,  James%Fielding%NULL%1,  Michaela%Diercke%NULL%1,  Christine%Campese%NULL%1,  Vincent%Enouf%NULL%1,  Alexandre%Gaymard%NULL%1,  Antonino%Bella%NULL%1,  Paola%Sognamiglio%NULL%1,  Maria José%Sierra Moros%NULL%1,  Antonio Nicolau%Riutort%NULL%1,  Yulia V.%Demina%NULL%1,  Romain%Mahieu%NULL%1,  Markku%Broas%NULL%1,  Malin%Bengnér%NULL%1,  Silke%Buda%NULL%1,  Julia%Schilling%NULL%1,  Laurent%Filleul%NULL%1,  Agnès%Lepoutre%NULL%1,  Christine%Saura%NULL%1,  Alexandra%Mailles%NULL%1,  Daniel%Levy-Bruhl%NULL%1,  Bruno%Coignard%NULL%1,  Sibylle%Bernard-Stoecklin%NULL%1,  Sylvie%Behillil%NULL%1,  Sylvie%van der Werf%NULL%1,  Martine%Valette%NULL%1,  Bruno%Lina%NULL%1,  Flavia%Riccardo%NULL%1,  Emanuele%Nicastri%NULL%1,  Inmaculada%Casas%NULL%1,  Amparo%Larrauri%NULL%1,  Magdalena%Salom Castell%NULL%1,  Francisco%Pozo%NULL%1,  Rinat A.%Maksyutov%NULL%1,  Charlotte%Martin%NULL%1,  Marc%Van Ranst%NULL%3,  Nathalie%Bossuyt%NULL%1,  Lotta%Siira%NULL%1,  Jussi%Sane%NULL%1,  Karin%Tegmark-Wisell%NULL%1,  Maria%Palmérus%NULL%1,  Eeva K.%Broberg%NULL%1,  Julien%Beauté%NULL%1,  Pernille%Jorgensen%NULL%1,  Nick%Bundle%NULL%1,  Dmitriy%Pereyaslov%NULL%1,  Cornelia%Adlhoch%NULL%1,  Jukka%Pukkila%NULL%1,  Richard%Pebody%NULL%1,  Sonja%Olsen%NULL%1,  Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,  Yong-hua%Gao%NULL%1,  Li-Li%lou%NULL%1,  Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,  Huaqiao%Li%NULL%1,  Songtao%Huang%NULL%1,  Wei%You%NULL%1,  Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%3,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%3,  Jie%Xiang%NULL%7,  Yeming%Wang%NULL%0,  Bin%Song%NULL%3,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%3,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%3,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%3,  Yi%Zhang%NULL%3,  Hua%Chen%NULL%3,  Bin%Cao%NULL%0]</t>
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%1, Ronghui%Du%NULL%1, Guohui%Fan%NULL%1, Ying%Liu%NULL%1, Zhibo%Liu%NULL%1, Jie%Xiang%NULL%1, Yeming%Wang%NULL%1, Bin%Song%NULL%1, Xiaoying%Gu%NULL%1, Lulu%Guan%NULL%1, Yuan%Wei%NULL%1, Hui%Li%NULL%1, Xudong%Wu%NULL%1, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%1, Yi%Zhang%NULL%1, Hua%Chen%NULL%1, Bin%Cao%NULL%0]</t>
   </si>
   <si>
-    <t>_elsevier</t>
-  </si>
-  <si>
-    <t>Clinical features of COVID-19 in elderly patients: A comparison with young and middle-aged patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Due to the general susceptibility of new coronaviruses, the clinical characteristics and outcomes of elderly and young patients may be different.
-Objective
-To analyze the clinical characteristics of elderly patients with 2019 new-type coronavirus pneumonia (COVID-19).
-Methods
-This is a retrospective study of patients with new coronavirus pneumonia (COVID-19) who were hospitalized in Hainan Provincial People's Hospital from January 15, 2020 to February 18, 2020. Compare the clinical characteristics of elderly with Young and Middle-aged patients.
-Results
-A total of 56 patients were enrolled 18 elderly patients (32.14%), and 38 young and middle-aged patients (67.86%).
- The most common symptoms in both groups were fever, followed by cough and sputum.
- Four patients in the elderly group received negative pressure ICU for mechanical ventilation, and five patients in the young and middle-aged group.
- One patient died in the elderly group (5.56%), and two patients died in the young and middle-aged group (5.26%).
- The PSI score of the elderly group was higher than that of the young and middle-aged group (P &amp;lt; 0.001).
- The proportion of patients with PSI grades IV and V was significantly higher in the elderly group than in the young and middle-aged group (P &amp;lt; 0.05).
- The proportion of multiple lobe involvement in the elderly group was higher than that in the young and middle-aged group (P &amp;lt; 0.001), and there was no difference in single lobe lesions between the two groups.
- The proportion of lymphocytes in the elderly group was significantly lower than that in the young and middle-aged group (P &amp;lt; 0.001), and the C-reactive protein was significantly higher in the young group (P &amp;lt; 0.001).
- The Lopinavir and Ritonavir Tablets, Chinese medicine, oxygen therapy, and mechanical ventilation were statistically different in the elderly group and the young and middle-aged group, and the P values were all &amp;lt;0.05.
-Interpretation
-The mortality of elderly patients with COVID-19 is higher than that of young and middle-aged patients, and the proportion of patients with PSI grade IV and V is significantly higher than that of young and middle-aged patients.
- Elderly patients with COVID-19 are more likely to progress to severe disease.
-</t>
-  </si>
-  <si>
-    <t>[Kai%Liu%hmliukai@126.com%0, Ying%Chen%NULL%1, Ruzheng%Lin%NULL%1, Kunyuan%Han%NULL%1]</t>
-  </si>
-  <si>
-    <t>PMC7102640</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>[Jun%Chen%NULL%0, Tangkai%Qi%NULL%1, Li%Liu%NULL%1, Yun%Ling%NULL%0, Zhiping%Qian%NULL%1, Tao%Li%NULL%0, Feng%Li%NULL%1, Qingnian%Xu%NULL%1, Yuyi%Zhang%NULL%1, Shuibao%Xu%NULL%1, Zhigang%Song%NULL%1, Yigang%Zeng%NULL%1, Yinzhong%Shen%NULL%0, Yuxin%Shi%NULL%1, Tongyu%Zhu%NULL%1, Hongzhou%Lu%NULL%1]</t>
-  </si>
-  <si>
-    <t>PMC7102530</t>
-  </si>
-  <si>
-    <t>A comparative study on the clinical features of COVID-19 pneumonia to other pneumonias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A novel coronavirus (2019-nCoV) has raised world concern since it emerged in Wuhan Hubei China in December, 2019. The infection may result into severe pneumonia with clusters illness onsets.
- Its impacts on public health make it paramount to clarify the clinical features with other pneumonias.
-Methods
-Nineteen 2019-nCoV pneumonia (NCOVID-19) and fifteen other pneumonia patients (NON-NCOVID-19) in out of Hubei places were involved in this study.
- Both NCOVID-19 and NON-NCOVID-19 patients were confirmed to be infected in throat swabs or/and sputa with or without 2019-nCoV by real-time RT-PCR.
- We analyzed the demographic, epidemiological, clinical, and radiological features from those patients, and compared the difference between NCOVID-19 and NON-NCOVID-19.
-Results
-All patients had a history of exposure to confirmed case of 2019-nCoV or travel to Hubei before illness.
- The median duration, respectively, was 8 (IQR:6~11) and 5 (IQR:4~11) days from exposure to onset in NCOVID-19 and NON-NCOVID-19. The clinical symptoms were similar between NCOVID-19 and NON-NCOVID-19. The most common symptoms were fever and cough.
- Fifteen (78.95%) NCOVID-19 but 4 (26.67%) NON-NCOVID-19 patients had bilateral involvement while 17 (89.47%) NCOVID-19 but 1 (6.67%) NON-NCOVID-19 patients had multiple mottling and ground-glass opacity of chest CT images.
- Compared to NON-NCOVID-19, NCOVID-19 present remarkably more abnormal laboratory tests including AST, ALT, γ-GT, LDH and α-HBDH.
-Conclusion
-The 2019-nCoV infection caused similar onsets to other pneumonias.
- CT scan may be a reliable test for screening NCOVID-19 cases.
- Liver function damage is more frequent in NCOVID-19 than NON-NCOVID-19 patients.
- LDH and α-HBDH may be considerable markers for evaluation of NCOVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Dahai%Zhao%NULL%0, Feifei%Yao%NULL%1, Lijie%Wang%NULL%1, Ling%Zheng%NULL%1, Yongjun%Gao%NULL%1, Jun%Ye%NULL%1, Feng%Guo%NULL%1, Hui%Zhao%NULL%1, Rongbao%Gao%rongbaogao@163.com%1]</t>
-  </si>
-  <si>
-    <t>PMC7108162</t>
+    <t>[Kai%Liu%hmliukai@126.com%2,  Ying%Chen%NULL%2,  Ruzheng%Lin%NULL%1,  Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,  Tangkai%Qi%NULL%3,  Li%Liu%NULL%4,  Yun%Ling%NULL%0,  Zhiping%Qian%NULL%4,  Tao%Li%NULL%5,  Feng%Li%NULL%5,  Qingnian%Xu%NULL%4,  Yuyi%Zhang%NULL%4,  Shuibao%Xu%NULL%3,  Zhigang%Song%NULL%4,  Yigang%Zeng%NULL%3,  Yinzhong%Shen%NULL%3,  Yuxin%Shi%NULL%0,  Tongyu%Zhu%NULL%4,  Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,  Feifei%Yao%NULL%2,  Lijie%Wang%NULL%2,  Ling%Zheng%NULL%2,  Yongjun%Gao%NULL%2,  Jun%Ye%NULL%2,  Feng%Guo%NULL%2,  Hui%Zhao%NULL%2,  Rongbao%Gao%rongbaogao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,  Bin%Quan%NULL%1,  Xiaoning%Li%NULL%1,  Guangjian%Gao%NULL%1,  Wenqiang%Zheng%NULL%1,  Jun%Zhang%NULL%1,  Zhiyun%Zhang%NULL%1,  Chunsheng%Liu%NULL%1,  Li%Li%NULL%0,  Chenglin%Wang%NULL%1,  Guihua%Zhang%NULL%1,  Jiajia%Li%NULL%1,  Yunhai%Dai%NULL%1,  Jianghua%Yang%yjhpath@163.com%1,  Wenzheng%Han%11418166@zju.edu.cn%1]</t>
   </si>
   <si>
     <t>[Qing%Chen%NULL%0, Bin%Quan%NULL%1, Xiaoning%Li%NULL%1, Guangjian%Gao%NULL%1, Wenqiang%Zheng%NULL%1, Jun%Zhang%NULL%0, Zhiyun%Zhang%NULL%1, Chunsheng%Liu%NULL%1, Li%Li%NULL%0, Chenglin%Wang%NULL%1, Guihua%Zhang%NULL%1, Jiajia%Li%NULL%1, Yunhai%Dai%NULL%1, Jianghua%Yang%yjhpath@163.com%1, Wenzheng%Han%11418166@zju.edu.cn%1]</t>
   </si>
   <si>
-    <t>PMC7228316</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%2, Kai%Xie%NULL%0, Hui%Lu%NULL%1, Lei%Xu%bayinhexl@126.com%1, Shusheng%Zhou%zhouss108@163.com%1, Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
-  </si>
-  <si>
-    <t>PMC7228360</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%1, Liping%Deng%NULL%1, Qiu%Zhao%NULL%1, Hongling%Wang%NULL%1, Yong%Xiong%NULL%1, Zhenshun%Cheng%NULL%1, Shicheng%Gao%NULL%1, Ke%Liang%NULL%1, Mingqi%Luo%NULL%1, Tielong%Chen%NULL%1, Shihui%Song%NULL%1, Zhiyong%Ma%NULL%1, Xiaoping%Chen%NULL%1, Ruiying%Zheng%NULL%1, Qian%Cao%NULL%1, Fan%Wang%fanndywang@foxmail.com%1, Yongxi%Zhang%znact1936@126.com%1]</t>
-  </si>
-  <si>
-    <t>PMC7184444</t>
-  </si>
-  <si>
-    <t>Clinical Features of 69 Cases with Coronavirus Disease 2019 in Wuhan, China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-From December 2019 to February 2020, 2019 severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has caused a serious outbreak of coronavirus disease 2019 (COVID-19) in Wuhan, China.
- Related clinical features are needed.
-Methods
-We reviewed 69 patients who were hospitalized in Union hospital in Wuhan between January 16 to January 29, 2020. All patients were confirmed to be infected with SARS-CoV-2 and the final date of follow-up was February 4, 2020.
-Results
-The median age of 69 enrolled patients was 42.0 years (IQR 35.0-62.0), and 32 patients (46%) were men.
- The most common symptoms were fever (60[87%]), cough (38[55%]), and fatigue (29[42%]).
- Most patients received antiviral therapy (66 [98.5%] of 67 patients) and antibiotic therapy (66 [98.5%] of 67 patients).
- As of February 4, 2020, 18 (26.9%) of 67 patients had been discharged, and five patients had died, with a mortality rate of 7.5%.
- According to the lowest SpO2 during admission, cases were divided into the SpO2≥90% group (n=55) and the SpO2&amp;lt;90% group (n=14).
- All 5 deaths occurred in the SpO2&amp;lt;90% group.
- Compared with SpO2≥90% group, patients of the SpO2&amp;lt;90% group were older, and showed more comorbidities and higher plasma levels of IL6, IL10, lactate dehydrogenase, and c reactive protein.
- Arbidol treatment showed tendency to improve the discharging rate and decrease the mortality rate.
-Conclusions
-COVID-19 appears to show frequent fever, dry cough, and increase of inflammatory cytokines, and induced a mortality rate of 7.5%.
- Older patients or those with underlying comorbidities are at higher risk of death.
-</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%1, Qianwen%Li%NULL%1, Lu%Wen%NULL%1, Ruiguang%Zhang%zrg27@163.com%1]</t>
-  </si>
-  <si>
-    <t>PMC7184452</t>
+    <t>[Wanbo%Zhu%NULL%5,  Kai%Xie%NULL%5,  Kai%Xie%NULL%0,  Hui%Lu%NULL%3,  Lei%Xu%bayinhexl@126.com%3,  Shusheng%Zhou%zhouss108@163.com%3,  Shiyuan%Fang%fangshiyuan2008@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,  Yuanyuan%Xing%NULL%1,  Yu%Xiao%NULL%1,  Liping%Deng%NULL%2,  Qiu%Zhao%NULL%1,  Hongling%Wang%NULL%1,  Yong%Xiong%NULL%3,  Zhenshun%Cheng%NULL%0,  Shicheng%Gao%NULL%2,  Ke%Liang%NULL%2,  Mingqi%Luo%NULL%2,  Tielong%Chen%NULL%1,  Shihui%Song%NULL%2,  Zhiyong%Ma%NULL%2,  Xiaoping%Chen%NULL%2,  Ruiying%Zheng%NULL%1,  Qian%Cao%NULL%1,  Fan%Wang%fanndywang@foxmail.com%1,  Yongxi%Zhang%znact1936@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,  Bohan%Yang%NULL%2,  Qianwen%Li%NULL%2,  Lu%Wen%NULL%2,  Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,  Yingxia%Liu%NULL%2,  Lei%Liu%NULL%8,  Xianfeng%Wang%NULL%1,  Nijuan%Luo%NULL%1,  Ling%Li%NULL%1]</t>
   </si>
   <si>
     <t>[Yanrong%Wang%123rong@sohu.com%0, Yingxia%Liu%NULL%0, Lei%Liu%NULL%1, Xianfeng%Wang%NULL%1, Nijuan%Luo%NULL%1, Ling%Li%NULL%1]</t>
   </si>
   <si>
-    <t>PMC7184401</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0, N -B%Yang%NULL%1, F%Ding%NULL%1, A H Y%Ma%NULL%1, Z -Y%Wang%NULL%2, Y -F%Shen%NULL%1, C -W%Shi%NULL%1, X%Lian%NULL%1, J -G%Chu%NULL%1, L%Chen%chxmin@hotmail.com%1, Z -Y%Wang%NULL%0, D -W%Ren%NULL%1, G -X%Li%NULL%1, X -Q%Chen%chxmin@hotmail.com%1, H -J%Shen%NULL%1, X -M%Chen%chxmin@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t>PMC7184349</t>
-  </si>
-  <si>
-    <t>[Yong%Gao%NULL%0, Tuantuan%Li%NULL%1, Mingfeng%Han%NULL%1, Xiuyong%Li%NULL%1, Dong%Wu%NULL%1, Yuanhong%Xu%NULL%1, Yulin%Zhu%NULL%1, Yan%Liu%NULL%1, Xiaowu%Wang%wangxiaowu19880218@126.com%1, Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>PMC7228247</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%14,                 Yeming%Wang%NULL%1,                 Xingwang%Li%NULL%1,                 Lili%Ren%NULL%1,                 Jianping%Zhao%NULL%1,                 Yi%Hu%NULL%2,                 Li%Zhang%NULL%2,                 Guohui%Fan%NULL%1,                 Jiuyang%Xu%NULL%1,                 Xiaoying%Gu%NULL%1,                 Zhenshun%Cheng%NULL%2,                 Ting%Yu%NULL%2,                 Jiaan%Xia%NULL%1,                 Yuan%Wei%NULL%2,                 Wenjuan%Wu%NULL%1,                 Xuelei%Xie%NULL%1,                 Wen%Yin%NULL%1,                 Hui%Li%NULL%2,                 Min%Liu%NULL%1,                 Yan%Xiao%NULL%2,                 Hong%Gao%NULL%2,                 Li%Guo%NULL%2,                 Jungang%Xie%NULL%1,                 Guangfa%Wang%NULL%1,                 Rongmeng%Jiang%NULL%1,                 Zhancheng%Gao%NULL%1,                 Qi%Jin%NULL%2,                 Jianwei%Wang%wangjw28@163.com%1,                 Bin%Cao%caobin_ben@163.com%2,                Chaolin%Huang%NULL%1,                Yeming%Wang%NULL%1,                Xingwang%Li%NULL%1,                Lili%Ren%NULL%1,                Jianping%Zhao%NULL%1,                Yi%Hu%NULL%2,                Li%Zhang%NULL%2,                Guohui%Fan%NULL%1,                Jiuyang%Xu%NULL%1,                Xiaoying%Gu%NULL%1,                Zhenshun%Cheng%NULL%2,                Ting%Yu%NULL%2,                Jiaan%Xia%NULL%1,                Yuan%Wei%NULL%2,                Wenjuan%Wu%NULL%1,                Xuelei%Xie%NULL%1,                Wen%Yin%NULL%1,                Hui%Li%NULL%2,                Min%Liu%NULL%1,                Yan%Xiao%NULL%2,                Hong%Gao%NULL%2,                Li%Guo%NULL%2,                Jungang%Xie%NULL%1,                Guangfa%Wang%NULL%1,                Rongmeng%Jiang%NULL%1,                Zhancheng%Gao%NULL%1,                Qi%Jin%NULL%2,                Jianwei%Wang%wangjw28@163.com%1,                Bin%Cao%caobin_ben@163.com%2]</t>
-  </si>
-  <si>
-    <t>[Jasper Fuk-Woo%Chan%NULL%3,                 Shuofeng%Yuan%NULL%1,                 Kin-Hang%Kok%NULL%1,                 Kelvin Kai-Wang%To%NULL%1,                 Hin%Chu%NULL%1,                 Jin%Yang%NULL%1,                 Fanfan%Xing%NULL%1,                 Jieling%Liu%NULL%1,                 Cyril Chik-Yan%Yip%NULL%1,                 Rosana Wing-Shan%Poon%NULL%1,                 Hoi-Wah%Tsoi%NULL%1,                 Simon Kam-Fai%Lo%NULL%1,                 Kwok-Hung%Chan%NULL%1,                 Vincent Kwok-Man%Poon%NULL%1,                 Wan-Mui%Chan%NULL%1,                 Jonathan Daniel%Ip%NULL%1,                 Jian-Piao%Cai%NULL%1,                 Vincent Chi-Chung%Cheng%NULL%1,                 Honglin%Chen%NULL%1,                 Christopher Kim-Ming%Hui%NULL%1,                 Kwok-Yung%Yuen%NULL%1,                Jasper Fuk-Woo%Chan%NULL%1,                Shuofeng%Yuan%NULL%1,                Kin-Hang%Kok%NULL%1,                Kelvin Kai-Wang%To%NULL%1,                Hin%Chu%NULL%1,                Jin%Yang%NULL%1,                Fanfan%Xing%NULL%1,                Jieling%Liu%NULL%1,                Cyril Chik-Yan%Yip%NULL%1,                Rosana Wing-Shan%Poon%NULL%1,                Hoi-Wah%Tsoi%NULL%1,                Simon Kam-Fai%Lo%NULL%1,                Kwok-Hung%Chan%NULL%1,                Vincent Kwok-Man%Poon%NULL%1,                Wan-Mui%Chan%NULL%1,                Jonathan Daniel%Ip%NULL%1,                Jian-Piao%Cai%NULL%1,                Vincent Chi-Chung%Cheng%NULL%1,                Honglin%Chen%NULL%1,                Christopher Kim-Ming%Hui%NULL%1,                Kwok-Yung%Yuen%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Qun%Li%NULL%2,                 Xuhua%Guan%NULL%1,                 Peng%Wu%NULL%1,                 Xiaoye%Wang%NULL%1,                 Lei%Zhou%NULL%1,                 Yeqing%Tong%NULL%1,                 Ruiqi%Ren%NULL%1,                 Kathy S.M.%Leung%NULL%1,                 Eric H.Y.%Lau%NULL%1,                 Jessica Y.%Wong%NULL%1,                 Xuesen%Xing%NULL%1,                 Nijuan%Xiang%NULL%1,                 Yang%Wu%NULL%1,                 Chao%Li%NULL%1,                 Qi%Chen%NULL%1,                 Dan%Li%NULL%1,                 Tian%Liu%NULL%1,                 Jing%Zhao%NULL%1,                 Man%Liu%NULL%1,                 Wenxiao%Tu%NULL%1,                 Chuding%Chen%NULL%1,                 Lianmei%Jin%NULL%1,                 Rui%Yang%NULL%1,                 Qi%Wang%NULL%1,                 Suhua%Zhou%NULL%1,                 Rui%Wang%NULL%1,                 Hui%Liu%NULL%1,                 Yinbo%Luo%NULL%1,                 Yuan%Liu%NULL%1,                 Ge%Shao%NULL%1,                 Huan%Li%NULL%1,                 Zhongfa%Tao%NULL%1,                 Yang%Yang%NULL%1,                 Zhiqiang%Deng%NULL%1,                 Boxi%Liu%NULL%1,                 Zhitao%Ma%NULL%1,                 Yanping%Zhang%NULL%1,                 Guoqing%Shi%NULL%1,                 Tommy T.Y.%Lam%NULL%1,                 Joseph T.%Wu%NULL%1,                 George F.%Gao%NULL%1,                 Benjamin J.%Cowling%NULL%1,                 Bo%Yang%NULL%1,                 Gabriel M.%Leung%NULL%1,                 Zijian%Feng%NULL%1,                Qun%Li%NULL%1,                Xuhua%Guan%NULL%1,                Peng%Wu%NULL%1,                Xiaoye%Wang%NULL%1,                Lei%Zhou%NULL%1,                Yeqing%Tong%NULL%1,                Ruiqi%Ren%NULL%1,                Kathy S.M.%Leung%NULL%1,                Eric H.Y.%Lau%NULL%1,                Jessica Y.%Wong%NULL%1,                Xuesen%Xing%NULL%1,                Nijuan%Xiang%NULL%1,                Yang%Wu%NULL%1,                Chao%Li%NULL%1,                Qi%Chen%NULL%1,                Dan%Li%NULL%1,                Tian%Liu%NULL%1,                Jing%Zhao%NULL%1,                Man%Liu%NULL%1,                Wenxiao%Tu%NULL%1,                Chuding%Chen%NULL%1,                Lianmei%Jin%NULL%1,                Rui%Yang%NULL%1,                Qi%Wang%NULL%1,                Suhua%Zhou%NULL%1,                Rui%Wang%NULL%1,                Hui%Liu%NULL%1,                Yinbo%Luo%NULL%1,                Yuan%Liu%NULL%1,                Ge%Shao%NULL%1,                Huan%Li%NULL%1,                Zhongfa%Tao%NULL%1,                Yang%Yang%NULL%1,                Zhiqiang%Deng%NULL%1,                Boxi%Liu%NULL%1,                Zhitao%Ma%NULL%1,                Yanping%Zhang%NULL%1,                Guoqing%Shi%NULL%1,                Tommy T.Y.%Lam%NULL%1,                Joseph T.%Wu%NULL%1,                George F.%Gao%NULL%1,                Benjamin J.%Cowling%NULL%1,                Bo%Yang%NULL%1,                Gabriel M.%Leung%NULL%1,                Zijian%Feng%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Nanshan%Chen%NULL%9,                 Min%Zhou%NULL%1,                 Xuan%Dong%NULL%1,                 Jieming%Qu%NULL%1,                 Fengyun%Gong%NULL%1,                 Yang%Han%NULL%1,                 Yang%Qiu%NULL%1,                 Jingli%Wang%NULL%1,                 Ying%Liu%NULL%1,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%1,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%1,                 Li%Zhang%NULL%0,                Nanshan%Chen%NULL%1,                Min%Zhou%NULL%1,                Xuan%Dong%NULL%1,                Jieming%Qu%NULL%1,                Fengyun%Gong%NULL%1,                Yang%Han%NULL%1,                Yang%Qiu%NULL%1,                Jingli%Wang%NULL%1,                Ying%Liu%NULL%1,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%1,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%1,                Li%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fengxiang%Song%NULL%2,                 Nannan%Shi%NULL%1,                 Fei%Shan%NULL%1,                 Zhiyong%Zhang%NULL%1,                 Jie%Shen%NULL%1,                 Hongzhou%Lu%NULL%2,                 Yun%Ling%NULL%2,                 Yebin%Jiang%NULL%1,                 Yuxin%Shi%shiyuxin@shphc.org.cn%2,                Fengxiang%Song%NULL%1,                Nannan%Shi%NULL%1,                Fei%Shan%NULL%1,                Zhiyong%Zhang%NULL%1,                Jie%Shen%NULL%1,                Hongzhou%Lu%NULL%2,                Yun%Ling%NULL%2,                Yebin%Jiang%NULL%1,                Yuxin%Shi%shiyuxin@shphc.org.cn%2]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%7,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,             Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Kui%Liu%NULL%6,                 Yuan-Yuan%Fang%NULL%1,                 Yan%Deng%NULL%1,                 Wei%Liu%NULL%1,                 Mei-Fang%Wang%NULL%1,                 Jing-Ping%Ma%NULL%1,                 Wei%Xiao%NULL%1,                 Ying-Nan%Wang%NULL%1,                 Min-Hua%Zhong%NULL%1,                 Cheng-Hong%Li%NULL%1,                 Guang-Cai%Li%NULL%1,                 Hui-Guo%Liu%NULL%1,                 Xiu-Yuan%Hao%NULL%2,                 Pei-Fang%Wei%NULL%2,                Kui%Liu%NULL%1,                Yuan-Yuan%Fang%NULL%1,                Yan%Deng%NULL%1,                Wei%Liu%NULL%1,                Mei-Fang%Wang%NULL%1,                Jing-Ping%Ma%NULL%1,                Wei%Xiao%NULL%1,                Ying-Nan%Wang%NULL%1,                Min-Hua%Zhong%NULL%1,                Cheng-Hong%Li%NULL%1,                Guang-Cai%Li%NULL%1,                Hui-Guo%Liu%NULL%1,                Xiu-Yuan%Hao%NULL%2,                Pei-Fang%Wei%NULL%2]</t>
-  </si>
-  <si>
-    <t>[ Yingxia%Liu%null%4,               Yang%Yang%null%1,               Cong%Zhang%null%1,               Fengming%Huang%null%1,               Fuxiang%Wang%null%1,               Jing%Yuan%null%1,               Zhaoqin%Wang%null%1,               Jinxiu%Li%null%1,               Jianming%Li%null%1,               Cheng%Feng%null%1,               Zheng%Zhang%null%1,               Lifei%Wang%null%1,               Ling%Peng%null%1,               Li%Chen%null%1,               Yuhao%Qin%null%1,               Dandan%Zhao%null%1,               Shuguang%Tan%null%1,               Lu%Yin%null%1,               Jun%Xu%null%1,               Congzhao%Zhou%null%1,               Chengyu%Jiang%null%1,               Lei%Liu%null%1,         Yingxia%Liu%null%1,         Yang%Yang%null%1,         Cong%Zhang%null%1,         Fengming%Huang%null%1,         Fuxiang%Wang%null%1,         Jing%Yuan%null%1,         Zhaoqin%Wang%null%1,         Jinxiu%Li%null%1,         Jianming%Li%null%1,         Cheng%Feng%null%1,         Zheng%Zhang%null%1,         Lifei%Wang%null%1,         Ling%Peng%null%1,         Li%Chen%null%1,         Yuhao%Qin%null%1,         Dandan%Zhao%null%1,         Shuguang%Tan%null%1,         Lu%Yin%null%1,         Jun%Xu%null%1,         Congzhao%Zhou%null%1,         Chengyu%Jiang%null%1,         Lei%Liu%null%1,        Yingxia%Liu%null%1,        Yang%Yang%null%1,        Cong%Zhang%null%1,        Fengming%Huang%null%1,        Fuxiang%Wang%null%1,        Jing%Yuan%null%1,        Zhaoqin%Wang%null%1,        Jinxiu%Li%null%1,        Jianming%Li%null%1,        Cheng%Feng%null%1,        Zheng%Zhang%null%1,        Lifei%Wang%null%1,        Ling%Peng%null%1,        Li%Chen%null%1,        Yuhao%Qin%null%1,        Dandan%Zhao%null%1,        Shuguang%Tan%null%1,        Lu%Yin%null%1,        Jun%Xu%null%1,        Congzhao%Zhou%null%1,        Chengyu%Jiang%null%1,        Lei%Liu%null%1,       Yingxia%Liu%null%1,       Yang%Yang%null%1,       Cong%Zhang%null%1,       Fengming%Huang%null%1,       Fuxiang%Wang%null%1,       Jing%Yuan%null%1,       Zhaoqin%Wang%null%2,       Jinxiu%Li%null%1,       Jianming%Li%null%1,       Cheng%Feng%null%1,       Zheng%Zhang%null%1,       Lifei%Wang%null%1,       Ling%Peng%null%1,       Li%Chen%null%1,       Yuhao%Qin%null%1,       Dandan%Zhao%null%1,       Shuguang%Tan%null%1,       Lu%Yin%null%1,       Jun%Xu%null%1,       Congzhao%Zhou%null%1,       Chengyu%Jiang%null%1,       Lei%Liu%null%2,      Yingxia%Liu%null%1,      Yang%Yang%null%1,      Cong%Zhang%null%1,      Fengming%Huang%null%1,      Fuxiang%Wang%null%1,      Jing%Yuan%null%1,      Zhaoqin%Wang%null%1,      Jinxiu%Li%null%1,      Jianming%Li%null%1,      Cheng%Feng%null%1,      Zheng%Zhang%null%1,      Lifei%Wang%null%1,      Ling%Peng%null%1,      Li%Chen%null%1,      Yuhao%Qin%null%1,      Dandan%Zhao%null%1,      Shuguang%Tan%null%1,      Lu%Yin%null%1,      Jun%Xu%null%1,      Congzhao%Zhou%null%1,      Chengyu%Jiang%null%1,      Lei%Liu%null%1,     Yingxia%Liu%null%1,     Yang%Yang%null%2,     Cong%Zhang%null%2,     Fengming%Huang%null%2,     Fuxiang%Wang%null%2,     Jing%Yuan%null%2,     Zhaoqin%Wang%null%2,     Jinxiu%Li%null%2,     Jianming%Li%null%2,     Cheng%Feng%null%2,     Zheng%Zhang%null%2,     Lifei%Wang%null%2,     Ling%Peng%null%2,     Li%Chen%null%2,     Yuhao%Qin%null%2,     Dandan%Zhao%null%2,     Shuguang%Tan%null%2,     Lu%Yin%null%3,     Jun%Xu%null%2,     Congzhao%Zhou%null%2,     Chengyu%Jiang%null%2,     Lei%Liu%null%8,    Yingxia%Liu%null%1,    Yang%Yang%null%2,    Cong%Zhang%null%2,    Fengming%Huang%null%1,    Fuxiang%Wang%null%1,    Jing%Yuan%null%2,    Zhaoqin%Wang%null%2,    Jinxiu%Li%null%1,    Jianming%Li%null%1,    Cheng%Feng%null%1,    Zheng%Zhang%null%2,    Lifei%Wang%null%1,    Ling%Peng%null%1,    Li%Chen%null%1,    Yuhao%Qin%null%1,    Dandan%Zhao%null%1,    Shuguang%Tan%null%1,    Lu%Yin%null%1,    Jun%Xu%null%1,    Congzhao%Zhou%null%1,    Chengyu%Jiang%null%1,    Lei%Liu%null%4,   Yingxia%Liu%null%2,   Yang%Yang%null%3,   Cong%Zhang%null%4,   Fengming%Huang%null%2,   Fuxiang%Wang%null%2,   Jing%Yuan%null%3,   Zhaoqin%Wang%null%2,   Jinxiu%Li%null%2,   Jianming%Li%null%2,   Cheng%Feng%null%3,   Zheng%Zhang%null%3,   Lifei%Wang%null%3,   Ling%Peng%null%2,   Li%Chen%null%2,   Yuhao%Qin%null%2,   Dandan%Zhao%null%2,   Shuguang%Tan%null%2,   Lu%Yin%null%3,   Jun%Xu%null%2,   Congzhao%Zhou%null%2,   Chengyu%Jiang%null%2,   Lei%Liu%null%17,  Yingxia%Liu%null%0,  Yang%Yang%null%0,  Cong%Zhang%null%0,  Fengming%Huang%null%0,  Fuxiang%Wang%null%0,  Jing%Yuan%null%0,  Zhaoqin%Wang%null%0,  Jinxiu%Li%null%0,  Jianming%Li%null%0,  Cheng%Feng%null%0,  Zheng%Zhang%null%0,  Lifei%Wang%null%0,  Ling%Peng%null%0,  Li%Chen%null%0,  Yuhao%Qin%null%0,  Dandan%Zhao%null%0,  Shuguang%Tan%null%0,  Lu%Yin%null%0,  Jun%Xu%null%0,  Congzhao%Zhou%null%0,  Chengyu%Jiang%null%0,  Lei%Liu%null%0]</t>
-  </si>
-  <si>
-    <t>[Li-Li%Ren%NULL%3,                 Ye-Ming%Wang%NULL%1,                 Zhi-Qiang%Wu%NULL%1,                 Zi-Chun%Xiang%NULL%1,                 Li%Guo%NULL%0,                 Teng%Xu%NULL%1,                 Yong-Zhong%Jiang%NULL%1,                 Yan%Xiong%NULL%1,                 Yong-Jun%Li%NULL%1,                 Xing-Wang%Li%NULL%1,                 Hui%Li%NULL%0,                 Guo-Hui%Fan%NULL%1,                 Xiao-Ying%Gu%NULL%1,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Jiu-Yang%Xu%NULL%1,                 Fan%Yang%NULL%1,                 Xin-Ming%Wang%NULL%1,                 Chao%Wu%NULL%1,                 Lan%Chen%NULL%1,                 Yi-Wei%Liu%NULL%1,                 Bo%Liu%NULL%1,                 Jian%Yang%NULL%1,                 Xiao-Rui%Wang%NULL%1,                 Jie%Dong%NULL%1,                 Li%Li%NULL%2,                 Chao-Lin%Huang%NULL%1,                 Jian-Ping%Zhao%NULL%1,                 Yi%Hu%NULL%0,                 Zhen-Shun%Cheng%NULL%1,                 Lin-Lin%Liu%NULL%1,                 Zhao-Hui%Qian%NULL%1,                 Chuan%Qin%NULL%1,                 Qi%Jin%NULL%0,                 Bin%Cao%NULL%0,                 Jian-Wei%Wang%NULL%1,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0,                Li-Li%Ren%NULL%1,                Ye-Ming%Wang%NULL%1,                Zhi-Qiang%Wu%NULL%1,                Zi-Chun%Xiang%NULL%1,                Li%Guo%NULL%0,                Teng%Xu%NULL%1,                Yong-Zhong%Jiang%NULL%1,                Yan%Xiong%NULL%1,                Yong-Jun%Li%NULL%1,                Xing-Wang%Li%NULL%1,                Hui%Li%NULL%0,                Guo-Hui%Fan%NULL%1,                Xiao-Ying%Gu%NULL%1,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Jiu-Yang%Xu%NULL%1,                Fan%Yang%NULL%1,                Xin-Ming%Wang%NULL%1,                Chao%Wu%NULL%1,                Lan%Chen%NULL%1,                Yi-Wei%Liu%NULL%1,                Bo%Liu%NULL%1,                Jian%Yang%NULL%1,                Xiao-Rui%Wang%NULL%1,                Jie%Dong%NULL%1,                Li%Li%NULL%2,                Chao-Lin%Huang%NULL%1,                Jian-Ping%Zhao%NULL%1,                Yi%Hu%NULL%0,                Zhen-Shun%Cheng%NULL%1,                Lin-Lin%Liu%NULL%1,                Zhao-Hui%Qian%NULL%1,                Chuan%Qin%NULL%1,                Qi%Jin%NULL%0,                Bin%Cao%NULL%0,                Jian-Wei%Wang%NULL%1,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ning%Tang%NULL%4,                 Dengju%Li%NULL%1,                 Xiong%Wang%NULL%1,                 Ziyong%Sun%NULL%1,                Ning%Tang%NULL%1,                Dengju%Li%NULL%1,                Xiong%Wang%NULL%1,                Ziyong%Sun%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%6,             Cao%Yi-yuan%coreGivesNoEmail%1,             Dong%Xiang%coreGivesNoEmail%1,             Gao%Ya-dong%coreGivesNoEmail%1,             Yan%You-qin%coreGivesNoEmail%1,             Yang%Yi-bin%coreGivesNoEmail%1,             Yuan%Ya-dong%coreGivesNoEmail%1,             Zhang%Jin-jin%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xiao-Wei%Xu%NULL%7,                 Xiao-Xin%Wu%NULL%1,                 Xian-Gao%Jiang%NULL%1,                 Kai-Jin%Xu%NULL%1,                 Ling-Jun%Ying%NULL%1,                 Chun-Lian%Ma%NULL%1,                 Shi-Bo%Li%NULL%1,                 Hua-Ying%Wang%NULL%1,                 Sheng%Zhang%NULL%1,                 Hai-Nv%Gao%NULL%1,                 Ji-Fang%Sheng%NULL%1,                 Hong-Liu%Cai%NULL%1,                 Yun-Qing%Qiu%NULL%1,                 Lan-Juan%Li%NULL%1,                Xiao-Wei%Xu%NULL%1,                Xiao-Xin%Wu%NULL%1,                Xian-Gao%Jiang%NULL%1,                Kai-Jin%Xu%NULL%1,                Ling-Jun%Ying%NULL%1,                Chun-Lian%Ma%NULL%1,                Shi-Bo%Li%NULL%1,                Hua-Ying%Wang%NULL%1,                Sheng%Zhang%NULL%1,                Hai-Nv%Gao%NULL%1,                Ji-Fang%Sheng%NULL%1,                Hong-Liu%Cai%NULL%1,                Yun-Qing%Qiu%NULL%1,                Lan-Juan%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jiong%Wu%NULL%1,                 Xiaojia%Wu%NULL%1,                 Wenbing%Zeng%NULL%1,                 Dajing%Guo%NULL%1,                 Zheng%Fang%NULL%1,                 Linli%Chen%NULL%1,                 Huizhe%Huang%NULL%1,                 Chuanming%Li%NULL%1,                Jiong%Wu%NULL%1,                Xiaojia%Wu%NULL%1,                Wenbing%Zeng%NULL%1,                Dajing%Guo%NULL%1,                Zheng%Fang%NULL%1,                Linli%Chen%NULL%1,                Huizhe%Huang%NULL%1,                Chuanming%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,                 Valerie%Wong%NULL%1,                 Vivian Wan In%Wei%NULL%1,                 Samuel Yeung Shan%Wong%NULL%1,                 Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1,                Kin On%Kwok%kkokwok@cuhk.edu.hk%1,                Valerie%Wong%NULL%1,                Vivian Wan In%Wei%NULL%1,                Samuel Yeung Shan%Wong%NULL%1,                Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
-  </si>
-  <si>
-    <t>[Heshui%Shi%NULL%2,                 Xiaoyu%Han%NULL%1,                 Nanchuan%Jiang%NULL%1,                 Yukun%Cao%NULL%1,                 Osamah%Alwalid%NULL%1,                 Jin%Gu%NULL%1,                 Yanqing%Fan%1024932023@qq.com%1,                 Chuansheng%Zheng%hqzcsxh@sina.com%1,                Heshui%Shi%NULL%1,                Xiaoyu%Han%NULL%1,                Nanchuan%Jiang%NULL%1,                Yukun%Cao%NULL%1,                Osamah%Alwalid%NULL%1,                Jin%Gu%NULL%1,                Yanqing%Fan%1024932023@qq.com%1,                Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
-  </si>
-  <si>
-    <t>[Jun%Chen%NULL%5,                 Tangkai%Qi%NULL%1,                 Li%Liu%NULL%1,                 Yun%Ling%NULL%0,                 Zhiping%Qian%NULL%1,                 Tao%Li%NULL%1,                 Feng%Li%NULL%1,                 Qingnian%Xu%NULL%1,                 Yuyi%Zhang%NULL%1,                 Shuibao%Xu%NULL%1,                 Zhigang%Song%NULL%1,                 Yigang%Zeng%NULL%1,                 Yinzhong%Shen%NULL%1,                 Yuxin%Shi%NULL%0,                 Tongyu%Zhu%NULL%1,                 Hongzhou%Lu%NULL%0,                Jun%Chen%NULL%1,                Tangkai%Qi%NULL%1,                Li%Liu%NULL%1,                Yun%Ling%NULL%0,                Zhiping%Qian%NULL%1,                Tao%Li%NULL%1,                Feng%Li%NULL%1,                Qingnian%Xu%NULL%1,                Yuyi%Zhang%NULL%1,                Shuibao%Xu%NULL%1,                Zhigang%Song%NULL%1,                Yigang%Zeng%NULL%1,                Yinzhong%Shen%NULL%1,                Yuxin%Shi%NULL%0,                Tongyu%Zhu%NULL%1,                Hongzhou%Lu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Qing%Chen%NULL%2,                 Bin%Quan%NULL%1,                 Xiaoning%Li%NULL%1,                 Guangjian%Gao%NULL%1,                 Wenqiang%Zheng%NULL%1,                 Jun%Zhang%NULL%1,                 Zhiyun%Zhang%NULL%1,                 Chunsheng%Liu%NULL%1,                 Li%Li%NULL%0,                 Chenglin%Wang%NULL%1,                 Guihua%Zhang%NULL%1,                 Jiajia%Li%NULL%1,                 Yunhai%Dai%NULL%1,                 Jianghua%Yang%yjhpath@163.com%1,                 Wenzheng%Han%11418166@zju.edu.cn%1,                Qing%Chen%NULL%1,                Bin%Quan%NULL%1,                Xiaoning%Li%NULL%1,                Guangjian%Gao%NULL%1,                Wenqiang%Zheng%NULL%1,                Jun%Zhang%NULL%1,                Zhiyun%Zhang%NULL%1,                Chunsheng%Liu%NULL%1,                Li%Li%NULL%0,                Chenglin%Wang%NULL%1,                Guihua%Zhang%NULL%1,                Jiajia%Li%NULL%1,                Yunhai%Dai%NULL%1,                Jianghua%Yang%yjhpath@163.com%1,                Wenzheng%Han%11418166@zju.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wanbo%Zhu%NULL%5,                 Kai%Xie%NULL%1,                 Hui%Lu%NULL%1,                 Lei%Xu%bayinhexl@126.com%1,                 Shusheng%Zhou%zhouss108@163.com%1,                 Shiyuan%Fang%fangshiyuan2008@126.com%1,                Wanbo%Zhu%NULL%1,                Kai%Xie%NULL%1,                Hui%Lu%NULL%1,                Lei%Xu%bayinhexl@126.com%1,                Shusheng%Zhou%zhouss108@163.com%1,                Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%6,                 Yuanyuan%Xing%NULL%1,                 Yu%Xiao%NULL%1,                 Liping%Deng%NULL%1,                 Qiu%Zhao%NULL%1,                 Hongling%Wang%NULL%1,                 Yong%Xiong%NULL%1,                 Zhenshun%Cheng%NULL%0,                 Shicheng%Gao%NULL%1,                 Ke%Liang%NULL%1,                 Mingqi%Luo%NULL%1,                 Tielong%Chen%NULL%1,                 Shihui%Song%NULL%1,                 Zhiyong%Ma%NULL%1,                 Xiaoping%Chen%NULL%1,                 Ruiying%Zheng%NULL%1,                 Qian%Cao%NULL%1,                 Fan%Wang%fanndywang@foxmail.com%1,                 Yongxi%Zhang%znact1936@126.com%1,                Pingzheng%Mo%NULL%1,                Yuanyuan%Xing%NULL%1,                Yu%Xiao%NULL%1,                Liping%Deng%NULL%1,                Qiu%Zhao%NULL%1,                Hongling%Wang%NULL%1,                Yong%Xiong%NULL%1,                Zhenshun%Cheng%NULL%0,                Shicheng%Gao%NULL%1,                Ke%Liang%NULL%1,                Mingqi%Luo%NULL%1,                Tielong%Chen%NULL%1,                Shihui%Song%NULL%1,                Zhiyong%Ma%NULL%1,                Xiaoping%Chen%NULL%1,                Ruiying%Zheng%NULL%1,                Qian%Cao%NULL%1,                Fan%Wang%fanndywang@foxmail.com%1,                Yongxi%Zhang%znact1936@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Yanrong%Wang%123rong@sohu.com%3,                 Yingxia%Liu%NULL%1,                 Lei%Liu%NULL%1,                 Xianfeng%Wang%NULL%1,                 Nijuan%Luo%NULL%1,                 Ling%Li%NULL%1,                Yanrong%Wang%123rong@sohu.com%1,                Yingxia%Liu%NULL%1,                Lei%Liu%NULL%1,                Xianfeng%Wang%NULL%1,                Nijuan%Luo%NULL%1,                Ling%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%7,                 N -B%Yang%NULL%2,                 F%Ding%NULL%2,                 A H Y%Ma%NULL%2,                 Z -Y%Wang%NULL%4,                 Y -F%Shen%NULL%2,                 C -W%Shi%NULL%2,                 X%Lian%NULL%2,                 J -G%Chu%NULL%2,                 L%Chen%chxmin@hotmail.com%2,                 Z -Y%Wang%NULL%0,                 D -W%Ren%NULL%2,                 G -X%Li%NULL%2,                 X -Q%Chen%chxmin@hotmail.com%2,                 H -J%Shen%NULL%2,                 X -M%Chen%chxmin@hotmail.com%2,                G -Q%Qian%NULL%2,                N -B%Yang%NULL%3,                F%Ding%NULL%3,                A H Y%Ma%NULL%3,                Z -Y%Wang%NULL%6,                Y -F%Shen%NULL%3,                C -W%Shi%NULL%3,                X%Lian%NULL%3,                J -G%Chu%NULL%3,                L%Chen%chxmin@hotmail.com%3,                Z -Y%Wang%NULL%0,                D -W%Ren%NULL%3,                G -X%Li%NULL%3,                X -Q%Chen%chxmin@hotmail.com%3,                H -J%Shen%NULL%3,                X -M%Chen%chxmin@hotmail.com%3]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,                 N -B%Yang%NULL%0,                 F%Ding%NULL%0,                 A H Y%Ma%NULL%0,                 Z -Y%Wang%NULL%0,                 Y -F%Shen%NULL%0,                 C -W%Shi%NULL%0,                 X%Lian%NULL%0,                 J -G%Chu%NULL%0,                 L%Chen%chxmin@hotmail.com%0,                 Z -Y%Wang%NULL%0,                 D -W%Ren%NULL%0,                 G -X%Li%NULL%0,                 X -Q%Chen%chxmin@hotmail.com%0,                 H -J%Shen%NULL%0,                 X -M%Chen%chxmin@hotmail.com%0,                G -Q%Qian%NULL%0,                N -B%Yang%NULL%0,                F%Ding%NULL%0,                A H Y%Ma%NULL%0,                Z -Y%Wang%NULL%0,                Y -F%Shen%NULL%0,                C -W%Shi%NULL%0,                X%Lian%NULL%0,                J -G%Chu%NULL%0,                L%Chen%chxmin@hotmail.com%0,                Z -Y%Wang%NULL%0,                D -W%Ren%NULL%0,                G -X%Li%NULL%0,                X -Q%Chen%chxmin@hotmail.com%0,                H -J%Shen%NULL%0,                X -M%Chen%chxmin@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,                N -B%Yang%NULL%0,                F%Ding%NULL%0,                A H Y%Ma%NULL%0,                Z -Y%Wang%NULL%0,                Y -F%Shen%NULL%0,                C -W%Shi%NULL%0,                X%Lian%NULL%0,                J -G%Chu%NULL%0,                L%Chen%chxmin@hotmail.com%0,                Z -Y%Wang%NULL%0,                D -W%Ren%NULL%0,                G -X%Li%NULL%0,                X -Q%Chen%chxmin@hotmail.com%0,                H -J%Shen%NULL%0,                X -M%Chen%chxmin@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t>[Yanrong%Wang%123rong@sohu.com%0,              Yingxia%Liu%NULL%1,              Lei%Liu%NULL%1,              Xianfeng%Wang%NULL%1,              Nijuan%Luo%NULL%1,              Ling%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,              N -B%Yang%NULL%1,              F%Ding%NULL%1,              A H Y%Ma%NULL%1,              Z -Y%Wang%NULL%2,              Y -F%Shen%NULL%1,              C -W%Shi%NULL%1,              X%Lian%NULL%1,              J -G%Chu%NULL%1,              L%Chen%chxmin@hotmail.com%1,              Z -Y%Wang%NULL%0,              D -W%Ren%NULL%1,              G -X%Li%NULL%1,              X -Q%Chen%chxmin@hotmail.com%1,              H -J%Shen%NULL%1,              X -M%Chen%chxmin@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yong%Gao%NULL%5,              Tuantuan%Li%NULL%1,              Mingfeng%Han%NULL%1,              Xiuyong%Li%NULL%1,              Dong%Wu%NULL%1,              Yuanhong%Xu%NULL%1,              Yulin%Zhu%NULL%1,              Yan%Liu%NULL%1,              Xiaowu%Wang%wangxiaowu19880218@126.com%1,              Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>Evidence for Gastrointestinal Infection of SARS-CoV-2</t>
-  </si>
-  <si>
-    <t>[Fei%Xiao%NULL%1, Meiwen%Tang%NULL%1, Xiaobin%Zheng%NULL%1, Ye%Liu%ly77219@163.com%1, Xiaofeng%Li%zdwylxf@163.com%1, Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>[Zhiliang%Hu%NULL%3,  Ci%Song%NULL%2,  Chuanjun%Xu%NULL%2,  Guangfu%Jin%NULL%2,  Yaling%Chen%NULL%2,  Xin%Xu%NULL%2,  Hongxia%Ma%NULL%2,  Wei%Chen%NULL%4,  Yuan%Lin%NULL%2,  Yishan%Zheng%NULL%3,  Jianming%Wang%NULL%2,  Zhibin%Hu%zhibin_hu@njmu.edu.cn%2,  Yongxiang%Yi%ian0126@126.com%2,  Hongbing%Shen%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Yang%Yao%NULL%1,  Yao%Tian%NULL%2,  Yao%Tian%NULL%0,  Jing%Zhou%NULL%1,  Xuan%Ma%NULL%1,  Min%Yang%NULL%1,  ShengYu%Wang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Gianfranco%Spiteri%NULL%1,  James%Fielding%NULL%1,  Michaela%Diercke%NULL%1,  Christine%Campese%NULL%1,  Vincent%Enouf%NULL%1,  Alexandre%Gaymard%NULL%1,  Antonino%Bella%NULL%1,  Paola%Sognamiglio%NULL%1,  Maria José%Sierra Moros%NULL%1,  Antonio Nicolau%Riutort%NULL%1,  Yulia V.%Demina%NULL%1,  Romain%Mahieu%NULL%1,  Markku%Broas%NULL%1,  Malin%Bengnér%NULL%1,  Silke%Buda%NULL%1,  Julia%Schilling%NULL%1,  Laurent%Filleul%NULL%1,  Agnès%Lepoutre%NULL%1,  Christine%Saura%NULL%1,  Alexandra%Mailles%NULL%1,  Daniel%Levy-Bruhl%NULL%1,  Bruno%Coignard%NULL%1,  Sibylle%Bernard-Stoecklin%NULL%1,  Sylvie%Behillil%NULL%1,  Sylvie%van der Werf%NULL%1,  Martine%Valette%NULL%1,  Bruno%Lina%NULL%1,  Flavia%Riccardo%NULL%1,  Emanuele%Nicastri%NULL%1,  Inmaculada%Casas%NULL%1,  Amparo%Larrauri%NULL%1,  Magdalena%Salom Castell%NULL%1,  Francisco%Pozo%NULL%1,  Rinat A.%Maksyutov%NULL%1,  Charlotte%Martin%NULL%1,  Marc%Van Ranst%NULL%3,  Nathalie%Bossuyt%NULL%1,  Lotta%Siira%NULL%1,  Jussi%Sane%NULL%1,  Karin%Tegmark-Wisell%NULL%1,  Maria%Palmérus%NULL%1,  Eeva K.%Broberg%NULL%1,  Julien%Beauté%NULL%1,  Pernille%Jorgensen%NULL%1,  Nick%Bundle%NULL%1,  Dmitriy%Pereyaslov%NULL%1,  Cornelia%Adlhoch%NULL%1,  Jukka%Pukkila%NULL%1,  Richard%Pebody%NULL%1,  Sonja%Olsen%NULL%1,  Bruno Christian%Ciancio%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Lei%Wang%NULL%1,  Yong-hua%Gao%NULL%1,  Li-Li%lou%NULL%1,  Guo-Jun%Zhang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Simin%Zhang%NULL%0,  Huaqiao%Li%NULL%1,  Songtao%Huang%NULL%1,  Wei%You%NULL%1,  Huaiqiang%Sun%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%18,  Ting%Yu%NULL%14,  Ronghui%Du%NULL%3,  Guohui%Fan%NULL%7,  Ying%Liu%NULL%7,  Zhibo%Liu%NULL%3,  Jie%Xiang%NULL%7,  Yeming%Wang%NULL%7,  Bin%Song%NULL%3,  Xiaoying%Gu%NULL%7,  Lulu%Guan%NULL%3,  Yuan%Wei%NULL%11,  Hui%Li%NULL%8,  Xudong%Wu%NULL%3,  Jiuyang%Xu%NULL%7,  Shengjin%Tu%NULL%3,  Yi%Zhang%NULL%3,  Hua%Chen%NULL%3,  Bin%Cao%NULL%8]</t>
-  </si>
-  <si>
-    <t>[Kai%Liu%hmliukai@126.com%2,  Ying%Chen%NULL%2,  Ruzheng%Lin%NULL%1,  Kunyuan%Han%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jun%Chen%NULL%0,  Tangkai%Qi%NULL%3,  Li%Liu%NULL%4,  Yun%Ling%NULL%7,  Zhiping%Qian%NULL%4,  Tao%Li%NULL%5,  Feng%Li%NULL%5,  Qingnian%Xu%NULL%4,  Yuyi%Zhang%NULL%4,  Shuibao%Xu%NULL%3,  Zhigang%Song%NULL%4,  Yigang%Zeng%NULL%3,  Yinzhong%Shen%NULL%3,  Yuxin%Shi%NULL%6,  Tongyu%Zhu%NULL%4,  Hongzhou%Lu%NULL%7]</t>
-  </si>
-  <si>
-    <t>[Dahai%Zhao%NULL%3,  Feifei%Yao%NULL%2,  Lijie%Wang%NULL%2,  Ling%Zheng%NULL%2,  Yongjun%Gao%NULL%2,  Jun%Ye%NULL%2,  Feng%Guo%NULL%2,  Hui%Zhao%NULL%2,  Rongbao%Gao%rongbaogao@163.com%2]</t>
+    <t>[G -Q%Qian%NULL%2,  N -B%Yang%NULL%1,  F%Ding%NULL%1,  A H Y%Ma%NULL%1,  Z -Y%Wang%NULL%2,  Y -F%Shen%NULL%1,  C -W%Shi%NULL%1,  X%Lian%NULL%1,  J -G%Chu%NULL%1,  L%Chen%chxmin@hotmail.com%1,  Z -Y%Wang%NULL%0,  D -W%Ren%NULL%1,  G -X%Li%NULL%1,  X -Q%Chen%chxmin@hotmail.com%1,  H -J%Shen%NULL%1,  X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,  Tuantuan%Li%NULL%1,  Mingfeng%Han%NULL%2,  Xiuyong%Li%NULL%1,  Dong%Wu%NULL%1,  Yuanhong%Xu%NULL%1,  Yulin%Zhu%NULL%1,  Yan%Liu%NULL%1,  Xiaowu%Wang%wangxiaowu19880218@126.com%1,  Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,   Yeming%Wang%NULL%19,   Xingwang%Li%NULL%8,   Lili%Ren%NULL%7,   Jianping%Zhao%NULL%14,   Yi%Hu%NULL%14,   Li%Zhang%NULL%11,   Guohui%Fan%NULL%19,   Jiuyang%Xu%NULL%19,   Xiaoying%Gu%NULL%19,   Zhenshun%Cheng%NULL%11,   Ting%Yu%NULL%31,   Jiaan%Xia%NULL%7,   Yuan%Wei%NULL%23,   Wenjuan%Wu%NULL%7,   Xuelei%Xie%NULL%7,   Wen%Yin%NULL%7,   Hui%Li%NULL%24,   Min%Liu%NULL%7,   Yan%Xiao%NULL%8,   Hong%Gao%NULL%8,   Li%Guo%NULL%8,   Jungang%Xie%NULL%9,   Guangfa%Wang%NULL%7,   Rongmeng%Jiang%NULL%7,   Zhancheng%Gao%NULL%7,   Qi%Jin%NULL%8,   Jianwei%Wang%wangjw28@163.com%7,   Bin%Cao%caobin_ben@163.com%20]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,   Shuofeng%Yuan%NULL%1,   Kin-Hang%Kok%NULL%1,   Kelvin Kai-Wang%To%NULL%2,   Hin%Chu%NULL%1,   Jin%Yang%NULL%1,   Fanfan%Xing%NULL%1,   Jieling%Liu%NULL%1,   Cyril Chik-Yan%Yip%NULL%2,   Rosana Wing-Shan%Poon%NULL%2,   Hoi-Wah%Tsoi%NULL%1,   Simon Kam-Fai%Lo%NULL%1,   Kwok-Hung%Chan%NULL%4,   Vincent Kwok-Man%Poon%NULL%1,   Wan-Mui%Chan%NULL%2,   Jonathan Daniel%Ip%NULL%2,   Jian-Piao%Cai%NULL%3,   Vincent Chi-Chung%Cheng%NULL%2,   Honglin%Chen%NULL%2,   Christopher Kim-Ming%Hui%NULL%1,   Kwok-Yung%Yuen%NULL%10]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,   Xuhua%Guan%NULL%1,   Peng%Wu%NULL%1,   Xiaoye%Wang%NULL%1,   Lei%Zhou%NULL%1,   Yeqing%Tong%NULL%1,   Ruiqi%Ren%NULL%1,   Kathy S.M.%Leung%NULL%1,   Eric H.Y.%Lau%NULL%1,   Jessica Y.%Wong%NULL%1,   Xuesen%Xing%NULL%1,   Nijuan%Xiang%NULL%1,   Yang%Wu%NULL%1,   Chao%Li%NULL%1,   Qi%Chen%NULL%1,   Dan%Li%NULL%1,   Tian%Liu%NULL%1,   Jing%Zhao%NULL%1,   Man%Liu%NULL%1,   Wenxiao%Tu%NULL%1,   Chuding%Chen%NULL%1,   Lianmei%Jin%NULL%1,   Rui%Yang%NULL%1,   Qi%Wang%NULL%3,   Suhua%Zhou%NULL%1,   Rui%Wang%NULL%1,   Hui%Liu%NULL%2,   Yinbo%Luo%NULL%1,   Yuan%Liu%NULL%1,   Ge%Shao%NULL%1,   Huan%Li%NULL%5,   Zhongfa%Tao%NULL%1,   Yang%Yang%NULL%3,   Zhiqiang%Deng%NULL%1,   Boxi%Liu%NULL%1,   Zhitao%Ma%NULL%1,   Yanping%Zhang%NULL%1,   Guoqing%Shi%NULL%1,   Tommy T.Y.%Lam%NULL%1,   Joseph T.%Wu%NULL%1,   George F.%Gao%NULL%3,   Benjamin J.%Cowling%NULL%1,   Bo%Yang%NULL%7,   Bo%Yang%NULL%0,   Gabriel M.%Leung%NULL%3,   Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,   Min%Zhou%NULL%8,   Xuan%Dong%NULL%4,   Jieming%Qu%NULL%9,   Fengyun%Gong%NULL%4,   Yang%Han%NULL%4,   Yang%Qiu%NULL%4,   Jingli%Wang%NULL%4,   Ying%Liu%NULL%16,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%12,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%4,   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,   Nannan%Shi%NULL%2,   Nannan%Shi%NULL%0,   Fei%Shan%NULL%2,   Zhiyong%Zhang%NULL%1,   Jie%Shen%NULL%1,   Hongzhou%Lu%NULL%8,   Yun%Ling%NULL%9,   Yebin%Jiang%NULL%2,   Yebin%Jiang%NULL%0,   Yuxin%Shi%shiyuxin@shphc.org.cn%5,   Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,   Yuan-Yuan%Fang%NULL%5,   Yan%Deng%NULL%6,   Wei%Liu%NULL%8,   Mei-Fang%Wang%NULL%2,   Jing-Ping%Ma%NULL%2,   Wei%Xiao%NULL%2,   Ying-Nan%Wang%NULL%2,   Min-Hua%Zhong%NULL%2,   Cheng-Hong%Li%NULL%2,   Guang-Cai%Li%NULL%2,   Hui-Guo%Liu%NULL%9,   Xiu-Yuan%Hao%NULL%6,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%19]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,   Ye-Ming%Wang%NULL%1,   Zhi-Qiang%Wu%NULL%1,   Zi-Chun%Xiang%NULL%1,   Li%Guo%NULL%0,   Teng%Xu%NULL%1,   Yong-Zhong%Jiang%NULL%1,   Yan%Xiong%NULL%6,   Yong-Jun%Li%NULL%1,   Xing-Wang%Li%NULL%1,   Hui%Li%NULL%0,   Guo-Hui%Fan%NULL%1,   Xiao-Ying%Gu%NULL%1,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Jiu-Yang%Xu%NULL%1,   Fan%Yang%NULL%5,   Xin-Ming%Wang%NULL%1,   Chao%Wu%NULL%1,   Lan%Chen%NULL%1,   Yi-Wei%Liu%NULL%1,   Bo%Liu%NULL%2,   Jian%Yang%NULL%1,   Xiao-Rui%Wang%NULL%1,   Jie%Dong%NULL%1,   Li%Li%NULL%4,   Chao-Lin%Huang%NULL%1,   Jian-Ping%Zhao%NULL%1,   Yi%Hu%NULL%0,   Zhen-Shun%Cheng%NULL%1,   Lin-Lin%Liu%NULL%1,   Zhao-Hui%Qian%NULL%1,   Chuan%Qin%NULL%2,   Qi%Jin%NULL%0,   Bin%Cao%NULL%0,   Jian-Wei%Wang%NULL%1,   Xiu-Yuan%Hao%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,   Dengju%Li%NULL%2,   Xiong%Wang%NULL%4,   Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,   Xiao-Xin%Wu%NULL%2,   Xian-Gao%Jiang%NULL%2,   Kai-Jin%Xu%NULL%2,   Ling-Jun%Ying%NULL%2,   Chun-Lian%Ma%NULL%2,   Shi-Bo%Li%NULL%2,   Hua-Ying%Wang%NULL%2,   Sheng%Zhang%NULL%5,   Hai-Nv%Gao%NULL%3,   Ji-Fang%Sheng%NULL%2,   Hong-Liu%Cai%NULL%2,   Yun-Qing%Qiu%NULL%2,   Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,   Xiaojia%Wu%NULL%1,   Wenbing%Zeng%NULL%1,   Dajing%Guo%NULL%3,   Zheng%Fang%NULL%3,   Linli%Chen%NULL%3,   Huizhe%Huang%NULL%1,   Chuanming%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,   Valerie%Wong%NULL%1,   Vivian Wan In%Wei%NULL%1,   Samuel Yeung Shan%Wong%NULL%1,   Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,   Xiaoyu%Han%NULL%1,   Nanchuan%Jiang%NULL%1,   Yukun%Cao%NULL%1,   Osamah%Alwalid%NULL%1,   Jin%Gu%NULL%1,   Yanqing%Fan%1024932023@qq.com%2,   Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,   Jing-Hui%Dong%NULL%1,   Wei-Min%An%NULL%1,   Xiao-Yan%Lv%15001008285@139.com%1,   Xiao-Ping%Yin%yinxiaoping78@sina.com%1,   Jian-Zeng%Zhang%NULL%1,   Li%Dong%NULL%2,   Xi%Ma%NULL%1,   Hong-Jie%Zhang%NULL%1,   Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,   Zhenlu%Yang%NULL%2,   Zhenlu%Yang%NULL%0,   Hongyan%Hou%NULL%2,   Hongyan%Hou%NULL%0,   Chenao%Zhan%NULL%1,   Chong%Chen%NULL%1,   Wenzhi%Lv%NULL%4,   Wenzhi%Lv%NULL%0,   Qian%Tao%NULL%2,   Qian%Tao%NULL%0,   Ziyong%Sun%NULL%0,   Ziyong%Sun%NULL%0,   Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,   Qiqi%Cao%NULL%1,   Le%Qin%NULL%1,   Xiaoyang%Wang%NULL%1,   Zenghui%Cheng%NULL%1,   Ashan%Pan%NULL%1,   Jianyi%Dai%NULL%1,   Qingfeng%Sun%NULL%1,   Fengquan%Zhao%NULL%1,   Jieming%Qu%NULL%0,   Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,   Nan%Hu%NULL%1,   Jing%Lou%NULL%1,   Kun%Chen%NULL%1,   Xuqin%Kang%NULL%1,   Zhenjun%Xiang%NULL%1,   Hui%Chen%NULL%1,   Dali%Wang%NULL%1,   Ning%Liu%NULL%1,   Dong%Liu%NULL%2,   Gang%Chen%NULL%1,   Yongliang%Zhang%NULL%1,   Dou%Li%NULL%1,   Jianren%Li%NULL%1,   Huixin%Lian%NULL%1,   Shengmei%Niu%NULL%1,   Luxi%Zhang%NULL%1,   Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,   Mengqi%Tu%NULL%2,   Shipei%Wang%NULL%2,   Sichao%Chen%NULL%2,   Wei%Zhou%NULL%5,   Danyang%Chen%NULL%2,   Lin%Zhou%NULL%2,   Min%Wang%NULL%2,   Yan%Zhao%NULL%2,   Wen%Zeng%NULL%2,   Qi%Huang%NULL%3,   Hai'bo%Xu%NULL%2,   Zeming%Liu%NULL%2,   Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,   Chengcheng%Yu%NULL%1,   Jing%Qu%NULL%1,   Lieguang%Zhang%NULL%1,   Songfeng%Jiang%NULL%1,   Deyang%Huang%NULL%1,   Bihua%Chen%NULL%1,   Zhiping%Zhang%NULL%1,   Wanhua%Guan%NULL%1,   Zhoukun%Ling%NULL%1,   Rui%Jiang%NULL%1,   Tianli%Hu%NULL%1,   Yan%Ding%NULL%1,   Lin%Lin%NULL%1,   Qingxin%Gan%NULL%1,   Liangping%Luo%tluolp@jnu.edu.cn%1,   Xiaoping%Tang%xtang@21cn.com%1,   Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,   Zhao-Wu%Tao%NULL%4,   Lei%Wang%NULL%4,   Ming-Li%Yuan%NULL%4,   Kui%Liu%NULL%7,   Ling%Zhou%NULL%7,   Shuang%Wei%NULL%7,   Yan%Deng%NULL%0,   Jing%Liu%NULL%6,   Hui-Guo%Liu%NULL%0,   Ming%Yang%NULL%6,   Yi%Hu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,   Jiong%Wu%NULL%2,   Faqi%Wu%NULL%2,   Dajing%Guo%NULL%0,   Linli%Chen%NULL%0,   Zheng%Fang%NULL%0,   Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,   Jun%Liu%NULL%2,   Xinguo%Zhao%NULL%1,   Chengyuan%Liu%NULL%1,   Wei%Wang%NULL%4,   Dawei%Wang%NULL%1,   Wei%Xu%NULL%1,   Chunyu%Zhang%NULL%1,   Jiong%Yu%NULL%1,   Bin%Jiang%NULL%1,   Hongcui%Cao%hccao@zju.edu.cn%1,   Lanjuan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,   Xiaorong%Hu%NULL%2,   Wenlin%Cheng%NULL%6,   Lei%Yu%NULL%6,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%6,   Qiang%Liu%liuqiang@irm-cams.ac.cn%8,   Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,   Kun%Yang%NULL%10,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%10,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%10,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%10,   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,  Kun%Yang%NULL%2,  Kun%Yang%NULL%0,  Wenxia%Wang%NULL%2,  Wenxia%Wang%NULL%0,  Lingyu%Jiang%NULL%2,  Lingyu%Jiang%NULL%0,  Jianxin%Song%songsingsjx@sina.com%2,  Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,   Meiwen%Tang%NULL%1,   Xiaobin%Zheng%NULL%1,   Ye%Liu%ly77219@163.com%1,   Xiaofeng%Li%zdwylxf@163.com%1,   Hong%Shan%shanhong@mail.sysu.edu.cn%12]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,   Dong%Sun%NULL%1,   Yao%Liu%NULL%1,   Yanqing%Fan%NULL%0,   Lingyun%Zhao%NULL%1,   Xiaoming%Li%NULL%2,   Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,  Dong%Sun%NULL%1,  Yao%Liu%NULL%1,  Yanqing%Fan%NULL%1,  Lingyun%Zhao%NULL%1,  Xiaoming%Li%NULL%1,  Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,   SaiBin%Wang%NULL%2,   SaiBin%Wang%NULL%0,   YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,  SaiBin%Wang%NULL%2,  SaiBin%Wang%NULL%0,  YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,   Ci%Song%NULL%1,   Chuanjun%Xu%NULL%1,   Guangfu%Jin%NULL%1,   Yaling%Chen%NULL%1,   Xin%Xu%NULL%2,   Hongxia%Ma%NULL%1,   Wei%Chen%NULL%2,   Yuan%Lin%NULL%1,   Yishan%Zheng%NULL%2,   Jianming%Wang%NULL%5,   Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,   Yongxiang%Yi%ian0126@126.com%1,   Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,   Yao%Tian%NULL%2,   Yao%Tian%NULL%0,   Jing%Zhou%NULL%2,   Xuan%Ma%NULL%1,   Min%Yang%NULL%1,   ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,  Yao%Tian%NULL%2,  Yao%Tian%NULL%0,  Jing%Zhou%NULL%1,  Xuan%Ma%NULL%1,  Min%Yang%NULL%1,  ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,   James%Fielding%NULL%1,   Michaela%Diercke%NULL%1,   Christine%Campese%NULL%1,   Vincent%Enouf%NULL%1,   Alexandre%Gaymard%NULL%1,   Antonino%Bella%NULL%1,   Paola%Sognamiglio%NULL%1,   Maria José%Sierra Moros%NULL%1,   Antonio Nicolau%Riutort%NULL%1,   Yulia V.%Demina%NULL%1,   Romain%Mahieu%NULL%1,   Markku%Broas%NULL%1,   Malin%Bengnér%NULL%1,   Silke%Buda%NULL%1,   Julia%Schilling%NULL%1,   Laurent%Filleul%NULL%1,   Agnès%Lepoutre%NULL%1,   Christine%Saura%NULL%1,   Alexandra%Mailles%NULL%1,   Daniel%Levy-Bruhl%NULL%1,   Bruno%Coignard%NULL%1,   Sibylle%Bernard-Stoecklin%NULL%1,   Sylvie%Behillil%NULL%1,   Sylvie%van der Werf%NULL%1,   Martine%Valette%NULL%1,   Bruno%Lina%NULL%1,   Flavia%Riccardo%NULL%1,   Emanuele%Nicastri%NULL%2,   Inmaculada%Casas%NULL%1,   Amparo%Larrauri%NULL%1,   Magdalena%Salom Castell%NULL%1,   Francisco%Pozo%NULL%1,   Rinat A.%Maksyutov%NULL%1,   Charlotte%Martin%NULL%1,   Marc%Van Ranst%NULL%1,   Nathalie%Bossuyt%NULL%1,   Lotta%Siira%NULL%1,   Jussi%Sane%NULL%1,   Karin%Tegmark-Wisell%NULL%1,   Maria%Palmérus%NULL%1,   Eeva K.%Broberg%NULL%1,   Julien%Beauté%NULL%2,   Pernille%Jorgensen%NULL%1,   Nick%Bundle%NULL%2,   Dmitriy%Pereyaslov%NULL%1,   Cornelia%Adlhoch%NULL%1,   Jukka%Pukkila%NULL%1,   Richard%Pebody%NULL%1,   Sonja%Olsen%NULL%1,   Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,   Yong-hua%Gao%NULL%1,   Li-Li%lou%NULL%1,   Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,   Huaqiao%Li%NULL%1,   Songtao%Huang%NULL%1,   Wei%You%NULL%1,   Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%12,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%12,   Jie%Xiang%NULL%18,   Yeming%Wang%NULL%0,   Bin%Song%NULL%12,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%12,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%12,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%12,   Yi%Zhang%NULL%12,   Hua%Chen%NULL%12,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%14,  Ronghui%Du%NULL%3,  Guohui%Fan%NULL%7,  Ying%Liu%NULL%7,  Zhibo%Liu%NULL%3,  Jie%Xiang%NULL%7,  Yeming%Wang%NULL%7,  Bin%Song%NULL%3,  Xiaoying%Gu%NULL%7,  Lulu%Guan%NULL%3,  Yuan%Wei%NULL%11,  Hui%Li%NULL%8,  Xudong%Wu%NULL%3,  Jiuyang%Xu%NULL%7,  Shengjin%Tu%NULL%3,  Yi%Zhang%NULL%3,  Hua%Chen%NULL%3,  Bin%Cao%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,   Ying%Chen%NULL%2,   Ruzheng%Lin%NULL%2,   Kunyuan%Han%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,   Tangkai%Qi%NULL%2,   Li%Liu%NULL%4,   Yun%Ling%NULL%0,   Zhiping%Qian%NULL%3,   Tao%Li%NULL%6,   Feng%Li%NULL%4,   Qingnian%Xu%NULL%3,   Yuyi%Zhang%NULL%3,   Shuibao%Xu%NULL%2,   Zhigang%Song%NULL%3,   Yigang%Zeng%NULL%2,   Yinzhong%Shen%NULL%2,   Yuxin%Shi%NULL%0,   Tongyu%Zhu%NULL%3,   Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,   Feifei%Yao%NULL%1,   Lijie%Wang%NULL%1,   Ling%Zheng%NULL%1,   Yongjun%Gao%NULL%1,   Jun%Ye%NULL%1,   Feng%Guo%NULL%1,   Hui%Zhao%NULL%1,   Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,   Bin%Quan%NULL%1,   Xiaoning%Li%NULL%2,   Guangjian%Gao%NULL%1,   Wenqiang%Zheng%NULL%1,   Jun%Zhang%NULL%3,   Zhiyun%Zhang%NULL%1,   Chunsheng%Liu%NULL%1,   Li%Li%NULL%0,   Chenglin%Wang%NULL%1,   Guihua%Zhang%NULL%1,   Jiajia%Li%NULL%1,   Yunhai%Dai%NULL%1,   Jianghua%Yang%yjhpath@163.com%1,   Wenzheng%Han%11418166@zju.edu.cn%1]</t>
   </si>
   <si>
     <t>[Qing%Chen%NULL%0,  Bin%Quan%NULL%1,  Xiaoning%Li%NULL%1,  Guangjian%Gao%NULL%1,  Wenqiang%Zheng%NULL%1,  Jun%Zhang%NULL%1,  Zhiyun%Zhang%NULL%1,  Chunsheng%Liu%NULL%1,  Li%Li%NULL%10,  Chenglin%Wang%NULL%1,  Guihua%Zhang%NULL%1,  Jiajia%Li%NULL%1,  Yunhai%Dai%NULL%1,  Jianghua%Yang%yjhpath@163.com%1,  Wenzheng%Han%11418166@zju.edu.cn%1]</t>
   </si>
   <si>
+    <t>[Wanbo%Zhu%NULL%5,   Kai%Xie%NULL%2,   Kai%Xie%NULL%0,   Hui%Lu%NULL%1,   Lei%Xu%bayinhexl@126.com%1,   Shusheng%Zhou%zhouss108@163.com%1,   Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
     <t>[Wanbo%Zhu%NULL%0,  Kai%Xie%NULL%5,  Kai%Xie%NULL%0,  Hui%Lu%NULL%3,  Lei%Xu%bayinhexl@126.com%3,  Shusheng%Zhou%zhouss108@163.com%3,  Shiyuan%Fang%fangshiyuan2008@126.com%3]</t>
   </si>
   <si>
-    <t>[Pingzheng%Mo%NULL%0,  Yuanyuan%Xing%NULL%1,  Yu%Xiao%NULL%1,  Liping%Deng%NULL%2,  Qiu%Zhao%NULL%1,  Hongling%Wang%NULL%1,  Yong%Xiong%NULL%3,  Zhenshun%Cheng%NULL%5,  Shicheng%Gao%NULL%2,  Ke%Liang%NULL%2,  Mingqi%Luo%NULL%2,  Tielong%Chen%NULL%1,  Shihui%Song%NULL%2,  Zhiyong%Ma%NULL%2,  Xiaoping%Chen%NULL%2,  Ruiying%Zheng%NULL%1,  Qian%Cao%NULL%1,  Fan%Wang%fanndywang@foxmail.com%1,  Yongxi%Zhang%znact1936@126.com%2]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%7,  Bohan%Yang%NULL%2,  Qianwen%Li%NULL%2,  Lu%Wen%NULL%2,  Ruiguang%Zhang%zrg27@163.com%2]</t>
-  </si>
-  <si>
-    <t>[Yanrong%Wang%123rong@sohu.com%0,  Yingxia%Liu%NULL%0,  Lei%Liu%NULL%9,  Xianfeng%Wang%NULL%1,  Nijuan%Luo%NULL%1,  Ling%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,  N -B%Yang%NULL%1,  F%Ding%NULL%1,  A H Y%Ma%NULL%1,  Z -Y%Wang%NULL%2,  Y -F%Shen%NULL%1,  C -W%Shi%NULL%1,  X%Lian%NULL%1,  J -G%Chu%NULL%1,  L%Chen%chxmin@hotmail.com%1,  Z -Y%Wang%NULL%0,  D -W%Ren%NULL%1,  G -X%Li%NULL%1,  X -Q%Chen%chxmin@hotmail.com%1,  H -J%Shen%NULL%1,  X -M%Chen%chxmin@hotmail.com%1]</t>
+    <t>[Pingzheng%Mo%NULL%5,   Yuanyuan%Xing%NULL%4,   Yu%Xiao%NULL%5,   Liping%Deng%NULL%4,   Qiu%Zhao%NULL%4,   Hongling%Wang%NULL%4,   Yong%Xiong%NULL%5,   Zhenshun%Cheng%NULL%0,   Shicheng%Gao%NULL%4,   Ke%Liang%NULL%4,   Mingqi%Luo%NULL%4,   Tielong%Chen%NULL%4,   Shihui%Song%NULL%4,   Zhiyong%Ma%NULL%4,   Xiaoping%Chen%NULL%4,   Ruiying%Zheng%NULL%4,   Qian%Cao%NULL%4,   Fan%Wang%fanndywang@foxmail.com%5,   Yongxi%Zhang%znact1936@126.com%7]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,   Bohan%Yang%NULL%3,   Qianwen%Li%NULL%3,   Lu%Wen%NULL%3,   Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,   Yingxia%Liu%NULL%2,   Lei%Liu%NULL%17,   Xianfeng%Wang%NULL%1,   Nijuan%Luo%NULL%1,   Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,  Yingxia%Liu%NULL%2,  Lei%Liu%NULL%8,  Xianfeng%Wang%NULL%1,  Nijuan%Luo%NULL%1,  Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,   N -B%Yang%NULL%2,   F%Ding%NULL%2,   A H Y%Ma%NULL%2,   Z -Y%Wang%NULL%4,   Y -F%Shen%NULL%2,   C -W%Shi%NULL%2,   X%Lian%NULL%2,   J -G%Chu%NULL%2,   L%Chen%chxmin@hotmail.com%2,   Z -Y%Wang%NULL%0,   D -W%Ren%NULL%2,   G -X%Li%NULL%2,   X -Q%Chen%chxmin@hotmail.com%2,   H -J%Shen%NULL%2,   X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,   Tuantuan%Li%NULL%2,   Mingfeng%Han%NULL%4,   Xiuyong%Li%NULL%2,   Dong%Wu%NULL%2,   Yuanhong%Xu%NULL%2,   Yulin%Zhu%NULL%2,   Yan%Liu%NULL%2,   Xiaowu%Wang%wangxiaowu19880218@126.com%2,   Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,  Tuantuan%Li%NULL%1,  Mingfeng%Han%NULL%2,  Xiuyong%Li%NULL%1,  Dong%Wu%NULL%1,  Yuanhong%Xu%NULL%1,  Yulin%Zhu%NULL%1,  Yan%Liu%NULL%1,  Xiaowu%Wang%wangxiaowu19880218@126.com%1,  Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
@@ -1674,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:I54"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1688,25 +1935,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" t="s">
-        <v>85</v>
-      </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1717,25 +1964,25 @@
         <v>43876</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1746,54 +1993,54 @@
         <v>43876</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4">
         <v>43859</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1804,25 +2051,25 @@
         <v>43876</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1833,25 +2080,25 @@
         <v>43922</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s">
-        <v>110</v>
-      </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1862,25 +2109,25 @@
         <v>43868</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1891,25 +2138,25 @@
         <v>43868</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1920,25 +2167,25 @@
         <v>43868</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" t="s">
-        <v>94</v>
-      </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1949,25 +2196,25 @@
         <v>43891</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1978,25 +2225,25 @@
         <v>43872</v>
       </c>
       <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" t="s">
-        <v>109</v>
-      </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2007,25 +2254,25 @@
         <v>43880</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2036,25 +2283,25 @@
         <v>43880</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2065,25 +2312,25 @@
         <v>43880</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2094,25 +2341,25 @@
         <v>43882</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2123,25 +2370,25 @@
         <v>43883</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2152,1117 +2399,1160 @@
         <v>43885</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="B18" s="3">
         <v>43885</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>43886</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6">
         <v>44044</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>43887</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" t="s">
         <v>136</v>
       </c>
-      <c r="E21" t="s">
-        <v>287</v>
-      </c>
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>43888</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>43889</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>43889</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>43890</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>43890</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B28" s="8">
         <v>43892</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>43893</v>
       </c>
       <c r="C29" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>297</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="9">
         <v>43952</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>43893</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="10">
         <v>43893</v>
       </c>
       <c r="C32" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
         <v>43893</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
         <v>43893</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6">
         <v>43983</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
         <v>43894</v>
       </c>
       <c r="C36" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="9">
         <v>43891</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6">
         <v>43983</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="9">
         <v>43891</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="9">
         <v>43891</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="I40" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="9">
         <v>43891</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9">
         <v>43891</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="9">
         <v>43891</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="F43" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="I43" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="9">
         <v>43891</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="F44" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H44" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9">
         <v>43891</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="F45" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" t="s">
         <v>254</v>
-      </c>
-      <c r="G45" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" t="s">
-        <v>119</v>
-      </c>
-      <c r="I45" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9">
         <v>43891</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>343</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H46" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9">
         <v>43891</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H47" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="I47" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9">
         <v>43891</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="9">
         <v>43891</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6">
         <v>44013</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="9">
         <v>43891</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="F51" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H51" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="9">
         <v>43891</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="9">
         <v>43891</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="F53" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H53" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="6">
         <v>44044</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="9">
         <v>43891</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" t="s">
+        <v>352</v>
+      </c>
+      <c r="F55" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="9">
         <v>43891</v>
       </c>
+      <c r="C56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" t="s">
+        <v>353</v>
+      </c>
+      <c r="F56" t="s">
+        <v>251</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="411">
   <si>
     <t>Doi</t>
   </si>
@@ -1630,6 +1630,186 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,  Tuantuan%Li%NULL%1,  Mingfeng%Han%NULL%2,  Xiuyong%Li%NULL%1,  Dong%Wu%NULL%1,  Yuanhong%Xu%NULL%1,  Yulin%Zhu%NULL%1,  Yan%Liu%NULL%1,  Xiaowu%Wang%wangxiaowu19880218@126.com%1,  Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,    Yeming%Wang%NULL%5,    Xingwang%Li%NULL%2,    Lili%Ren%NULL%2,    Jianping%Zhao%NULL%6,    Yi%Hu%NULL%5,    Li%Zhang%NULL%4,    Guohui%Fan%NULL%5,    Jiuyang%Xu%NULL%5,    Xiaoying%Gu%NULL%5,    Zhenshun%Cheng%NULL%3,    Ting%Yu%NULL%8,    Jiaan%Xia%NULL%2,    Yuan%Wei%NULL%6,    Wenjuan%Wu%NULL%2,    Xuelei%Xie%NULL%2,    Wen%Yin%NULL%2,    Hui%Li%NULL%8,    Min%Liu%NULL%3,    Yan%Xiao%NULL%4,    Hong%Gao%NULL%5,    Li%Guo%NULL%4,    Jungang%Xie%NULL%3,    Guangfa%Wang%NULL%2,    Rongmeng%Jiang%NULL%2,    Zhancheng%Gao%NULL%2,    Qi%Jin%NULL%4,    Jianwei%Wang%wangjw28@163.com%2,    Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,    Shuofeng%Yuan%NULL%1,    Kin-Hang%Kok%NULL%1,    Kelvin Kai-Wang%To%NULL%2,    Hin%Chu%NULL%1,    Jin%Yang%NULL%1,    Fanfan%Xing%NULL%1,    Jieling%Liu%NULL%1,    Cyril Chik-Yan%Yip%NULL%1,    Rosana Wing-Shan%Poon%NULL%1,    Hoi-Wah%Tsoi%NULL%1,    Simon Kam-Fai%Lo%NULL%1,    Kwok-Hung%Chan%NULL%1,    Vincent Kwok-Man%Poon%NULL%1,    Wan-Mui%Chan%NULL%1,    Jonathan Daniel%Ip%NULL%1,    Jian-Piao%Cai%NULL%1,    Vincent Chi-Chung%Cheng%NULL%1,    Honglin%Chen%NULL%1,    Christopher Kim-Ming%Hui%NULL%1,    Kwok-Yung%Yuen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,    Xuhua%Guan%NULL%1,    Peng%Wu%NULL%3,    Xiaoye%Wang%NULL%1,    Lei%Zhou%NULL%1,    Yeqing%Tong%NULL%1,    Ruiqi%Ren%NULL%1,    Kathy S.M.%Leung%NULL%1,    Eric H.Y.%Lau%NULL%1,    Jessica Y.%Wong%NULL%1,    Xuesen%Xing%NULL%1,    Nijuan%Xiang%NULL%1,    Yang%Wu%NULL%1,    Chao%Li%NULL%1,    Qi%Chen%NULL%1,    Dan%Li%NULL%2,    Tian%Liu%NULL%1,    Jing%Zhao%NULL%1,    Man%Liu%NULL%1,    Wenxiao%Tu%NULL%1,    Chuding%Chen%NULL%1,    Lianmei%Jin%NULL%1,    Rui%Yang%NULL%1,    Qi%Wang%NULL%1,    Suhua%Zhou%NULL%1,    Rui%Wang%NULL%1,    Hui%Liu%NULL%1,    Yinbo%Luo%NULL%1,    Yuan%Liu%NULL%1,    Ge%Shao%NULL%1,    Huan%Li%NULL%1,    Zhongfa%Tao%NULL%1,    Yang%Yang%NULL%2,    Zhiqiang%Deng%NULL%1,    Boxi%Liu%NULL%1,    Zhitao%Ma%NULL%1,    Yanping%Zhang%NULL%1,    Guoqing%Shi%NULL%1,    Tommy T.Y.%Lam%NULL%1,    Joseph T.%Wu%NULL%1,    George F.%Gao%NULL%1,    Benjamin J.%Cowling%NULL%1,    Bo%Yang%NULL%3,    Bo%Yang%NULL%0,    Gabriel M.%Leung%NULL%1,    Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,    Min%Zhou%NULL%2,    Xuan%Dong%NULL%1,    Jieming%Qu%NULL%3,    Fengyun%Gong%NULL%1,    Yang%Han%NULL%1,    Yang%Qiu%NULL%1,    Jingli%Wang%NULL%1,    Ying%Liu%NULL%5,    Yuan%Wei%NULL%0,    Jia'an%Xia%NULL%3,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%1,    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,    Nannan%Shi%NULL%2,    Nannan%Shi%NULL%0,    Fei%Shan%NULL%1,    Zhiyong%Zhang%NULL%1,    Jie%Shen%NULL%1,    Hongzhou%Lu%NULL%2,    Yun%Ling%NULL%2,    Yebin%Jiang%NULL%2,    Yebin%Jiang%NULL%0,    Yuxin%Shi%shiyuxin@shphc.org.cn%3,    Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,    Yuan-Yuan%Fang%NULL%2,    Yan%Deng%NULL%2,    Wei%Liu%NULL%2,    Mei-Fang%Wang%NULL%1,    Jing-Ping%Ma%NULL%1,    Wei%Xiao%NULL%2,    Ying-Nan%Wang%NULL%1,    Min-Hua%Zhong%NULL%1,    Cheng-Hong%Li%NULL%1,    Guang-Cai%Li%NULL%1,    Hui-Guo%Liu%NULL%3,    Xiu-Yuan%Hao%NULL%6,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%7]</t>
+  </si>
+  <si>
+    <t>Clinical and biochemical indexes from 2019-nCoV infected patients linked to viral loads and lung injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outbreak of the 2019-nCoV infection began in December 2019 in Wuhan, Hubei province, and rapidly spread to many provinces in China as well as other countries.
+ Here we report the epidemiological, clinical, laboratory, and radiological characteristics, as well as potential biomarkers for predicting disease severity in 2019-nCoV-infected patients in Shenzhen, China.
+ All 12 cases of the 2019-nCoV-infected patients developed pneumonia and half of them developed acute respiratory distress syndrome (ARDS).
+ The most common laboratory abnormalities were hypoalbuminemia, lymphopenia, decreased percentage of lymphocytes (LYM) and neutrophils (NEU), elevated C-reactive protein (CRP) and lactate dehydrogenase (LDH), and decreased CD8 count.
+ The viral load of 2019-nCoV detected from patient respiratory tracts was positively linked to lung disease severity.
+ ALB, LYM, LYM (%), LDH, NEU (%), and CRP were highly correlated to the acute lung injury.
+ Age, viral load, lung injury score, and blood biochemistry indexes, albumin (ALB), CRP, LDH, LYM (%), LYM, and NEU (%), may be predictors of disease severity.
+ Moreover, the Angiotensin II level in the plasma sample from 2019-nCoV infected patients was markedly elevated and linearly associated to viral load and lung injury.
+ Our results suggest a number of potential diagnosis biomarkers and angiotensin receptor blocker (ARB) drugs for potential repurposing treatment of 2019-nCoV infection.
+</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%0,  Yang%Yang%null%0,  Cong%Zhang%null%0,  Fengming%Huang%null%0,  Fuxiang%Wang%null%0,  Jing%Yuan%null%0,  Zhaoqin%Wang%null%0,  Jinxiu%Li%null%0,  Jianming%Li%null%0,  Cheng%Feng%null%0,  Zheng%Zhang%null%0,  Lifei%Wang%null%0,  Ling%Peng%null%0,  Li%Chen%null%0,  Yuhao%Qin%null%0,  Dandan%Zhao%null%0,  Shuguang%Tan%null%0,  Lu%Yin%null%0,  Jun%Xu%null%0,  Congzhao%Zhou%null%0,  Chengyu%Jiang%null%0,  Lei%Liu%null%0]</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,    Ye-Ming%Wang%NULL%2,    Zhi-Qiang%Wu%NULL%2,    Zi-Chun%Xiang%NULL%2,    Li%Guo%NULL%0,    Teng%Xu%NULL%3,    Yong-Zhong%Jiang%NULL%2,    Yan%Xiong%NULL%2,    Yong-Jun%Li%NULL%2,    Xing-Wang%Li%NULL%2,    Hui%Li%NULL%0,    Guo-Hui%Fan%NULL%2,    Xiao-Ying%Gu%NULL%2,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Jiu-Yang%Xu%NULL%2,    Fan%Yang%NULL%2,    Xin-Ming%Wang%NULL%2,    Chao%Wu%NULL%2,    Lan%Chen%NULL%2,    Yi-Wei%Liu%NULL%2,    Bo%Liu%NULL%2,    Jian%Yang%NULL%2,    Xiao-Rui%Wang%NULL%2,    Jie%Dong%NULL%2,    Li%Li%NULL%3,    Chao-Lin%Huang%NULL%2,    Jian-Ping%Zhao%NULL%2,    Yi%Hu%NULL%0,    Zhen-Shun%Cheng%NULL%2,    Lin-Lin%Liu%NULL%2,    Zhao-Hui%Qian%NULL%2,    Chuan%Qin%NULL%2,    Qi%Jin%NULL%0,    Bin%Cao%NULL%0,    Jian-Wei%Wang%NULL%2,    Xiu-Yuan%Hao%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,    Dengju%Li%NULL%1,    Xiong%Wang%NULL%1,    Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,    Xiao-Xin%Wu%NULL%1,    Xian-Gao%Jiang%NULL%1,    Kai-Jin%Xu%NULL%1,    Ling-Jun%Ying%NULL%1,    Chun-Lian%Ma%NULL%1,    Shi-Bo%Li%NULL%1,    Hua-Ying%Wang%NULL%1,    Sheng%Zhang%NULL%1,    Hai-Nv%Gao%NULL%1,    Ji-Fang%Sheng%NULL%1,    Hong-Liu%Cai%NULL%1,    Yun-Qing%Qiu%NULL%1,    Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,    Xiaojia%Wu%NULL%1,    Wenbing%Zeng%NULL%1,    Dajing%Guo%NULL%2,    Zheng%Fang%NULL%2,    Linli%Chen%NULL%2,    Huizhe%Huang%NULL%1,    Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,    Valerie%Wong%NULL%1,    Vivian Wan In%Wei%NULL%1,    Samuel Yeung Shan%Wong%NULL%1,    Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,    Xiaoyu%Han%NULL%1,    Nanchuan%Jiang%NULL%1,    Yukun%Cao%NULL%1,    Osamah%Alwalid%NULL%1,    Jin%Gu%NULL%1,    Yanqing%Fan%1024932023@qq.com%2,    Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,    Jing-Hui%Dong%NULL%1,    Wei-Min%An%NULL%1,    Xiao-Yan%Lv%15001008285@139.com%1,    Xiao-Ping%Yin%yinxiaoping78@sina.com%1,    Jian-Zeng%Zhang%NULL%1,    Li%Dong%NULL%1,    Xi%Ma%NULL%1,    Hong-Jie%Zhang%NULL%1,    Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,    Zhenlu%Yang%NULL%2,    Zhenlu%Yang%NULL%0,    Hongyan%Hou%NULL%2,    Hongyan%Hou%NULL%0,    Chenao%Zhan%NULL%1,    Chong%Chen%NULL%1,    Wenzhi%Lv%NULL%2,    Wenzhi%Lv%NULL%0,    Qian%Tao%NULL%2,    Qian%Tao%NULL%0,    Ziyong%Sun%NULL%0,    Ziyong%Sun%NULL%0,    Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,    Qiqi%Cao%NULL%1,    Le%Qin%NULL%1,    Xiaoyang%Wang%NULL%1,    Zenghui%Cheng%NULL%1,    Ashan%Pan%NULL%1,    Jianyi%Dai%NULL%1,    Qingfeng%Sun%NULL%1,    Fengquan%Zhao%NULL%1,    Jieming%Qu%NULL%0,    Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,    Nan%Hu%NULL%1,    Jing%Lou%NULL%1,    Kun%Chen%NULL%1,    Xuqin%Kang%NULL%1,    Zhenjun%Xiang%NULL%1,    Hui%Chen%NULL%1,    Dali%Wang%NULL%1,    Ning%Liu%NULL%1,    Dong%Liu%NULL%3,    Gang%Chen%NULL%1,    Yongliang%Zhang%NULL%1,    Dou%Li%NULL%1,    Jianren%Li%NULL%1,    Huixin%Lian%NULL%1,    Shengmei%Niu%NULL%1,    Luxi%Zhang%NULL%1,    Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,    Mengqi%Tu%NULL%1,    Shipei%Wang%NULL%1,    Sichao%Chen%NULL%1,    Wei%Zhou%NULL%1,    Danyang%Chen%NULL%1,    Lin%Zhou%NULL%1,    Min%Wang%NULL%1,    Yan%Zhao%NULL%1,    Wen%Zeng%NULL%1,    Qi%Huang%NULL%1,    Hai'bo%Xu%NULL%1,    Zeming%Liu%NULL%1,    Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,    Chengcheng%Yu%NULL%1,    Jing%Qu%NULL%1,    Lieguang%Zhang%NULL%1,    Songfeng%Jiang%NULL%1,    Deyang%Huang%NULL%1,    Bihua%Chen%NULL%1,    Zhiping%Zhang%NULL%1,    Wanhua%Guan%NULL%1,    Zhoukun%Ling%NULL%1,    Rui%Jiang%NULL%1,    Tianli%Hu%NULL%1,    Yan%Ding%NULL%1,    Lin%Lin%NULL%1,    Qingxin%Gan%NULL%1,    Liangping%Luo%tluolp@jnu.edu.cn%1,    Xiaoping%Tang%xtang@21cn.com%1,    Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,    Zhao-Wu%Tao%NULL%1,    Lei%Wang%NULL%1,    Ming-Li%Yuan%NULL%1,    Kui%Liu%NULL%3,    Ling%Zhou%NULL%2,    Shuang%Wei%NULL%2,    Yan%Deng%NULL%0,    Jing%Liu%NULL%1,    Hui-Guo%Liu%NULL%0,    Ming%Yang%NULL%2,    Yi%Hu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,    Jiong%Wu%NULL%1,    Faqi%Wu%NULL%1,    Dajing%Guo%NULL%0,    Linli%Chen%NULL%0,    Zheng%Fang%NULL%0,    Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,    Jun%Liu%NULL%1,    Xinguo%Zhao%NULL%1,    Chengyuan%Liu%NULL%1,    Wei%Wang%NULL%3,    Dawei%Wang%NULL%1,    Wei%Xu%NULL%1,    Chunyu%Zhang%NULL%1,    Jiong%Yu%NULL%1,    Bin%Jiang%NULL%1,    Hongcui%Cao%hccao@zju.edu.cn%1,    Lanjuan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,    Xiaorong%Hu%NULL%1,    Wenlin%Cheng%NULL%1,    Lei%Yu%NULL%1,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,    Qiang%Liu%liuqiang@irm-cams.ac.cn%3,    Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,    Kun%Yang%NULL%3,    Kun%Yang%NULL%0,    Wenxia%Wang%NULL%2,    Wenxia%Wang%NULL%0,    Lingyu%Jiang%NULL%2,    Lingyu%Jiang%NULL%0,    Jianxin%Song%songsingsjx@sina.com%2,    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,   Kun%Yang%NULL%10,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%10,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%10,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%10,   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,    Meiwen%Tang%NULL%1,    Xiaobin%Zheng%NULL%1,    Ye%Liu%ly77219@163.com%1,    Xiaofeng%Li%zdwylxf@163.com%1,    Hong%Shan%shanhong@mail.sysu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,    Dong%Sun%NULL%1,    Yao%Liu%NULL%1,    Yanqing%Fan%NULL%0,    Lingyun%Zhao%NULL%1,    Xiaoming%Li%NULL%1,    Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,   Dong%Sun%NULL%1,   Yao%Liu%NULL%1,   Yanqing%Fan%NULL%1,   Lingyun%Zhao%NULL%1,   Xiaoming%Li%NULL%2,   Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,    SaiBin%Wang%NULL%2,    SaiBin%Wang%NULL%0,    YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,   SaiBin%Wang%NULL%2,   SaiBin%Wang%NULL%0,   YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,    Ci%Song%NULL%1,    Chuanjun%Xu%NULL%1,    Guangfu%Jin%NULL%1,    Yaling%Chen%NULL%1,    Xin%Xu%NULL%1,    Hongxia%Ma%NULL%1,    Wei%Chen%NULL%2,    Yuan%Lin%NULL%1,    Yishan%Zheng%NULL%1,    Jianming%Wang%NULL%1,    Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,    Yongxiang%Yi%ian0126@126.com%1,    Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,    Yao%Tian%NULL%2,    Yao%Tian%NULL%0,    Jing%Zhou%NULL%1,    Xuan%Ma%NULL%1,    Min%Yang%NULL%1,    ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,   Yao%Tian%NULL%2,   Yao%Tian%NULL%0,   Jing%Zhou%NULL%2,   Xuan%Ma%NULL%1,   Min%Yang%NULL%1,   ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,    James%Fielding%NULL%1,    Michaela%Diercke%NULL%1,    Christine%Campese%NULL%1,    Vincent%Enouf%NULL%1,    Alexandre%Gaymard%NULL%1,    Antonino%Bella%NULL%1,    Paola%Sognamiglio%NULL%1,    Maria José%Sierra Moros%NULL%1,    Antonio Nicolau%Riutort%NULL%1,    Yulia V.%Demina%NULL%1,    Romain%Mahieu%NULL%1,    Markku%Broas%NULL%1,    Malin%Bengnér%NULL%1,    Silke%Buda%NULL%1,    Julia%Schilling%NULL%1,    Laurent%Filleul%NULL%1,    Agnès%Lepoutre%NULL%1,    Christine%Saura%NULL%1,    Alexandra%Mailles%NULL%1,    Daniel%Levy-Bruhl%NULL%1,    Bruno%Coignard%NULL%1,    Sibylle%Bernard-Stoecklin%NULL%1,    Sylvie%Behillil%NULL%1,    Sylvie%van der Werf%NULL%1,    Martine%Valette%NULL%1,    Bruno%Lina%NULL%1,    Flavia%Riccardo%NULL%1,    Emanuele%Nicastri%NULL%1,    Inmaculada%Casas%NULL%1,    Amparo%Larrauri%NULL%1,    Magdalena%Salom Castell%NULL%1,    Francisco%Pozo%NULL%1,    Rinat A.%Maksyutov%NULL%1,    Charlotte%Martin%NULL%1,    Marc%Van Ranst%NULL%3,    Nathalie%Bossuyt%NULL%1,    Lotta%Siira%NULL%1,    Jussi%Sane%NULL%1,    Karin%Tegmark-Wisell%NULL%1,    Maria%Palmérus%NULL%1,    Eeva K.%Broberg%NULL%1,    Julien%Beauté%NULL%1,    Pernille%Jorgensen%NULL%1,    Nick%Bundle%NULL%1,    Dmitriy%Pereyaslov%NULL%1,    Cornelia%Adlhoch%NULL%1,    Jukka%Pukkila%NULL%1,    Richard%Pebody%NULL%1,    Sonja%Olsen%NULL%1,    Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,    Yong-hua%Gao%NULL%1,    Li-Li%lou%NULL%1,    Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,    Huaqiao%Li%NULL%1,    Songtao%Huang%NULL%1,    Wei%You%NULL%1,    Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%3,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%3,    Jie%Xiang%NULL%4,    Yeming%Wang%NULL%0,    Bin%Song%NULL%3,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%3,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%3,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%3,    Yi%Zhang%NULL%4,    Hua%Chen%NULL%3,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%29,   Ronghui%Du%NULL%12,   Guohui%Fan%NULL%18,   Ying%Liu%NULL%15,   Zhibo%Liu%NULL%12,   Jie%Xiang%NULL%18,   Yeming%Wang%NULL%18,   Bin%Song%NULL%12,   Xiaoying%Gu%NULL%18,   Lulu%Guan%NULL%12,   Yuan%Wei%NULL%21,   Hui%Li%NULL%22,   Xudong%Wu%NULL%12,   Jiuyang%Xu%NULL%18,   Shengjin%Tu%NULL%12,   Yi%Zhang%NULL%12,   Hua%Chen%NULL%12,   Bin%Cao%NULL%18]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,    Ying%Chen%NULL%1,    Ruzheng%Lin%NULL%1,    Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,    Tangkai%Qi%NULL%1,    Li%Liu%NULL%2,    Yun%Ling%NULL%0,    Zhiping%Qian%NULL%1,    Tao%Li%NULL%1,    Feng%Li%NULL%2,    Qingnian%Xu%NULL%1,    Yuyi%Zhang%NULL%1,    Shuibao%Xu%NULL%1,    Zhigang%Song%NULL%1,    Yigang%Zeng%NULL%1,    Yinzhong%Shen%NULL%1,    Yuxin%Shi%NULL%0,    Tongyu%Zhu%NULL%1,    Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,    Feifei%Yao%NULL%1,    Lijie%Wang%NULL%1,    Ling%Zheng%NULL%1,    Yongjun%Gao%NULL%1,    Jun%Ye%NULL%1,    Feng%Guo%NULL%1,    Hui%Zhao%NULL%1,    Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,    Bin%Quan%NULL%1,    Xiaoning%Li%NULL%1,    Guangjian%Gao%NULL%1,    Wenqiang%Zheng%NULL%1,    Jun%Zhang%NULL%3,    Zhiyun%Zhang%NULL%1,    Chunsheng%Liu%NULL%1,    Li%Li%NULL%0,    Chenglin%Wang%NULL%1,    Guihua%Zhang%NULL%1,    Jiajia%Li%NULL%1,    Yunhai%Dai%NULL%1,    Jianghua%Yang%yjhpath@163.com%1,    Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,   Bin%Quan%NULL%1,   Xiaoning%Li%NULL%2,   Guangjian%Gao%NULL%1,   Wenqiang%Zheng%NULL%1,   Jun%Zhang%NULL%3,   Zhiyun%Zhang%NULL%1,   Chunsheng%Liu%NULL%1,   Li%Li%NULL%3,   Chenglin%Wang%NULL%1,   Guihua%Zhang%NULL%1,   Jiajia%Li%NULL%1,   Yunhai%Dai%NULL%1,   Jianghua%Yang%yjhpath@163.com%1,   Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,    Kai%Xie%NULL%4,    Kai%Xie%NULL%0,    Hui%Lu%NULL%2,    Lei%Xu%bayinhexl@126.com%2,    Shusheng%Zhou%zhouss108@163.com%2,    Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,   Kai%Xie%NULL%2,   Kai%Xie%NULL%0,   Hui%Lu%NULL%1,   Lei%Xu%bayinhexl@126.com%1,   Shusheng%Zhou%zhouss108@163.com%1,   Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,    Yuanyuan%Xing%NULL%1,    Yu%Xiao%NULL%1,    Liping%Deng%NULL%1,    Qiu%Zhao%NULL%1,    Hongling%Wang%NULL%1,    Yong%Xiong%NULL%2,    Zhenshun%Cheng%NULL%0,    Shicheng%Gao%NULL%1,    Ke%Liang%NULL%1,    Mingqi%Luo%NULL%1,    Tielong%Chen%NULL%1,    Shihui%Song%NULL%1,    Zhiyong%Ma%NULL%1,    Xiaoping%Chen%NULL%1,    Ruiying%Zheng%NULL%1,    Qian%Cao%NULL%1,    Fan%Wang%fanndywang@foxmail.com%1,    Yongxi%Zhang%znact1936@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,    Bohan%Yang%NULL%2,    Qianwen%Li%NULL%2,    Lu%Wen%NULL%2,    Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,    Yingxia%Liu%NULL%1,    Lei%Liu%NULL%4,    Xianfeng%Wang%NULL%1,    Nijuan%Luo%NULL%1,    Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,   Yingxia%Liu%NULL%2,   Lei%Liu%NULL%17,   Xianfeng%Wang%NULL%1,   Nijuan%Luo%NULL%1,   Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,    N -B%Yang%NULL%1,    F%Ding%NULL%1,    A H Y%Ma%NULL%1,    Z -Y%Wang%NULL%2,    Y -F%Shen%NULL%1,    C -W%Shi%NULL%1,    X%Lian%NULL%1,    J -G%Chu%NULL%1,    L%Chen%chxmin@hotmail.com%1,    Z -Y%Wang%NULL%0,    D -W%Ren%NULL%1,    G -X%Li%NULL%1,    X -Q%Chen%chxmin@hotmail.com%1,    H -J%Shen%NULL%1,    X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,    Tuantuan%Li%NULL%2,    Mingfeng%Han%NULL%4,    Xiuyong%Li%NULL%2,    Dong%Wu%NULL%2,    Yuanhong%Xu%NULL%2,    Yulin%Zhu%NULL%2,    Yan%Liu%NULL%2,    Xiaowu%Wang%wangxiaowu19880218@126.com%2,    Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,   Tuantuan%Li%NULL%2,   Mingfeng%Han%NULL%4,   Xiuyong%Li%NULL%2,   Dong%Wu%NULL%2,   Yuanhong%Xu%NULL%2,   Yulin%Zhu%NULL%2,   Yan%Liu%NULL%2,   Xiaowu%Wang%wangxiaowu19880218@126.com%2,   Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +2150,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -1982,7 +2162,7 @@
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1999,7 +2179,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -2011,7 +2191,7 @@
         <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2028,7 +2208,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -2057,7 +2237,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -2069,7 +2249,7 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,7 +2266,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -2144,7 +2324,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -2196,22 +2376,22 @@
         <v>43891</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
         <v>70</v>
@@ -2231,7 +2411,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -2260,7 +2440,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -2272,7 +2452,7 @@
         <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2318,7 +2498,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -2347,7 +2527,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -2376,7 +2556,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -2388,7 +2568,7 @@
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2405,7 +2585,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -2417,7 +2597,7 @@
         <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2434,7 +2614,7 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -2446,7 +2626,7 @@
         <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2463,7 +2643,7 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -2475,7 +2655,7 @@
         <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2492,7 +2672,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -2521,7 +2701,7 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -2533,7 +2713,7 @@
         <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2550,7 +2730,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -2562,7 +2742,7 @@
         <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2579,7 +2759,7 @@
         <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -2591,7 +2771,7 @@
         <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2608,7 +2788,7 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -2620,7 +2800,7 @@
         <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2637,7 +2817,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -2666,7 +2846,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -2695,7 +2875,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -2724,7 +2904,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -2736,7 +2916,7 @@
         <v>144</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2753,7 +2933,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -2765,7 +2945,7 @@
         <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2782,7 +2962,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -2811,7 +2991,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -2823,7 +3003,7 @@
         <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2840,7 +3020,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -2852,7 +3032,7 @@
         <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2869,7 +3049,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -2898,7 +3078,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -2910,7 +3090,7 @@
         <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2927,7 +3107,7 @@
         <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -2956,7 +3136,7 @@
         <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -2968,7 +3148,7 @@
         <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>254</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2985,7 +3165,7 @@
         <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -2997,7 +3177,7 @@
         <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3014,7 +3194,7 @@
         <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
@@ -3043,7 +3223,7 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -3072,7 +3252,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -3101,7 +3281,7 @@
         <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -3130,7 +3310,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -3142,7 +3322,7 @@
         <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3159,7 +3339,7 @@
         <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -3188,7 +3368,7 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -3200,7 +3380,7 @@
         <v>216</v>
       </c>
       <c r="I44" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3217,7 +3397,7 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -3229,7 +3409,7 @@
         <v>69</v>
       </c>
       <c r="I45" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3246,7 +3426,7 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -3275,7 +3455,7 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -3287,7 +3467,7 @@
         <v>225</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3304,7 +3484,7 @@
         <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -3333,7 +3513,7 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -3345,7 +3525,7 @@
         <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3362,7 +3542,7 @@
         <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="F50" t="s">
         <v>91</v>
@@ -3391,7 +3571,7 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -3420,7 +3600,7 @@
         <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -3449,7 +3629,7 @@
         <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -3461,7 +3641,7 @@
         <v>243</v>
       </c>
       <c r="I53" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3478,7 +3658,7 @@
         <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="F54" t="s">
         <v>91</v>
@@ -3507,7 +3687,7 @@
         <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -3536,7 +3716,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>
@@ -3548,7 +3728,7 @@
         <v>243</v>
       </c>
       <c r="I56" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="632">
   <si>
     <t>Doi</t>
   </si>
@@ -1810,6 +1810,708 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,   Tuantuan%Li%NULL%2,   Mingfeng%Han%NULL%4,   Xiuyong%Li%NULL%2,   Dong%Wu%NULL%2,   Yuanhong%Xu%NULL%2,   Yulin%Zhu%NULL%2,   Yan%Liu%NULL%2,   Xiaowu%Wang%wangxiaowu19880218@126.com%2,   Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,     Yeming%Wang%NULL%5,     Xingwang%Li%NULL%2,     Lili%Ren%NULL%2,     Jianping%Zhao%NULL%6,     Yi%Hu%NULL%5,     Li%Zhang%NULL%4,     Guohui%Fan%NULL%5,     Jiuyang%Xu%NULL%5,     Xiaoying%Gu%NULL%5,     Zhenshun%Cheng%NULL%3,     Ting%Yu%NULL%8,     Jiaan%Xia%NULL%2,     Yuan%Wei%NULL%6,     Wenjuan%Wu%NULL%2,     Xuelei%Xie%NULL%2,     Wen%Yin%NULL%2,     Hui%Li%NULL%7,     Min%Liu%NULL%3,     Yan%Xiao%NULL%4,     Hong%Gao%NULL%5,     Li%Guo%NULL%4,     Jungang%Xie%NULL%3,     Guangfa%Wang%NULL%2,     Rongmeng%Jiang%NULL%2,     Zhancheng%Gao%NULL%2,     Qi%Jin%NULL%4,     Jianwei%Wang%wangjw28@163.com%2,     Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,     Shuofeng%Yuan%NULL%1,     Kin-Hang%Kok%NULL%1,     Kelvin Kai-Wang%To%NULL%2,     Hin%Chu%NULL%1,     Jin%Yang%NULL%1,     Fanfan%Xing%NULL%1,     Jieling%Liu%NULL%1,     Cyril Chik-Yan%Yip%NULL%1,     Rosana Wing-Shan%Poon%NULL%1,     Hoi-Wah%Tsoi%NULL%1,     Simon Kam-Fai%Lo%NULL%1,     Kwok-Hung%Chan%NULL%2,     Vincent Kwok-Man%Poon%NULL%1,     Wan-Mui%Chan%NULL%1,     Jonathan Daniel%Ip%NULL%1,     Jian-Piao%Cai%NULL%1,     Vincent Chi-Chung%Cheng%NULL%1,     Honglin%Chen%NULL%1,     Christopher Kim-Ming%Hui%NULL%1,     Kwok-Yung%Yuen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,     Xuhua%Guan%NULL%1,     Peng%Wu%NULL%3,     Xiaoye%Wang%NULL%1,     Lei%Zhou%NULL%1,     Yeqing%Tong%NULL%1,     Ruiqi%Ren%NULL%1,     Kathy S.M.%Leung%NULL%1,     Eric H.Y.%Lau%NULL%1,     Jessica Y.%Wong%NULL%1,     Xuesen%Xing%NULL%1,     Nijuan%Xiang%NULL%1,     Yang%Wu%NULL%1,     Chao%Li%NULL%1,     Qi%Chen%NULL%1,     Dan%Li%NULL%2,     Tian%Liu%NULL%1,     Jing%Zhao%NULL%1,     Man%Liu%NULL%1,     Wenxiao%Tu%NULL%1,     Chuding%Chen%NULL%1,     Lianmei%Jin%NULL%1,     Rui%Yang%NULL%1,     Qi%Wang%NULL%1,     Suhua%Zhou%NULL%1,     Rui%Wang%NULL%1,     Hui%Liu%NULL%1,     Yinbo%Luo%NULL%1,     Yuan%Liu%NULL%1,     Ge%Shao%NULL%1,     Huan%Li%NULL%1,     Zhongfa%Tao%NULL%1,     Yang%Yang%NULL%2,     Zhiqiang%Deng%NULL%1,     Boxi%Liu%NULL%1,     Zhitao%Ma%NULL%1,     Yanping%Zhang%NULL%1,     Guoqing%Shi%NULL%1,     Tommy T.Y.%Lam%NULL%1,     Joseph T.%Wu%NULL%1,     George F.%Gao%NULL%1,     Benjamin J.%Cowling%NULL%1,     Bo%Yang%NULL%3,     Bo%Yang%NULL%0,     Gabriel M.%Leung%NULL%3,     Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,     Min%Zhou%NULL%2,     Xuan%Dong%NULL%1,     Jieming%Qu%NULL%3,     Fengyun%Gong%NULL%1,     Yang%Han%NULL%1,     Yang%Qiu%NULL%1,     Jingli%Wang%NULL%1,     Ying%Liu%NULL%5,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%3,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%1,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,     Nannan%Shi%NULL%2,     Nannan%Shi%NULL%0,     Fei%Shan%NULL%1,     Zhiyong%Zhang%NULL%1,     Jie%Shen%NULL%1,     Hongzhou%Lu%NULL%2,     Yun%Ling%NULL%2,     Yebin%Jiang%NULL%2,     Yebin%Jiang%NULL%0,     Yuxin%Shi%shiyuxin@shphc.org.cn%3,     Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
+  </si>
+  <si>
+    <t>Introduction: the mechanisms that are suggested as determinant in the vulnerability of patients with heart failure to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and which cause the respiratory syndrome labeled COVID-19 (Coronavirus Infectious Disease-19), has revealed controversial.
+ Objective: to gather information on the pathophysiological features of acute heart failure in the context of COVID-19. Method: concerning this topic, from September to November 2020 at the Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d in Santiago de Cuba, a narrative review was carried out.
+ The search was conducted checking the databases Pubmed, Infomed and SciELO, without date restriction, and in Spanish and English language.
+ Development: the mechanisms involved on the pathophysiological features of heart failure in patients with this infectious disease revealed uncertainty.
+ Myocardial damage is achievement of two aspects, the direct effect of viral respiratory infection on the myocyte, which is expressed as a local inflammatory response, and the heart participation as a target organ to the systemic and inappropriate inflammatory response, generated by a marked cytokines release.
+ The last aspect referred also causes endothelial damage that triggers thromboembolic and ischemic complications, systolic and diastolic dysfunction of the heart, and ultimately leads to multiorgan system failure.
+Conclusions: despite the advances in understanding the etiopathogenesis of this disease, the pathophysiological mechanisms that determine on the heart failure still require to be precisely clarified, although the influence of the inappropriate inflammatory response, induced by cytokines, it is recognized in the onset myocardial damage.
+Introducci\u00f3n: se revelan controversias respecto a los mecanismos que determinan la vulnerabilidad de los pacientes con insuficiencia cardiaca a la infecci\u00f3n por el virus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), que produce el s\u00edndrome respiratorio llamado Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: recopilar informaci\u00f3n sobre la fisiopatolog\u00eda de la insuficiencia cardiaca aguda en el contexto de la COVID-19.M\u00e9todo: en el Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d de Santiago de Cuba, entre septiembre y noviembre del 2020, se realiz\u00f3 una revisi\u00f3n narrativa sobre este tema.
+ La b\u00fasqueda se efectu\u00f3 consultando las bases de datos Pubmed, Infomed y SciELO, sin restricci\u00f3n de fecha, en los idiomas espa\u00f1ol e ingl\u00e9s.
+ Desarrollo: se manifiestan incertidumbre en los mecanismos implicados en la fisiopatolog\u00eda de la insuficiencia cardiaca de los pacientes con esta enfermedad infecciosa.
+ El da\u00f1o mioc\u00e1rdico se debe a los efectos directos de la infecci\u00f3n viral sobre el miocito, que se expresa como una respuesta inflamatoria local y a la participaci\u00f3n del coraz\u00f3n como \u00f3rgano diana de respuesta inflamatoria sist\u00e9mica e inapropiada generada por la marcada liberaci\u00f3n de citocinas.
+ Esta \u00faltima, adem\u00e1s, genera un da\u00f1o endotelial que desencadena complicaciones tromboemb\u00f3licas e isqu\u00e9micas, disfunci\u00f3n sistodiast\u00f3lica del coraz\u00f3n, y finalmente la falla multiorg\u00e1nica.
+ Conclusiones: a pesar de los avances en el conocimiento de la etiopatogenia de esta enfermedad, a\u00fan se requiere que se esclarezcan con precisi\u00f3n los mecanismos fisiopatol\u00f3gicos que determinan la presentaci\u00f3n de la insuficiencia cardiaca, si bien se reconoce la influencia de la respuesta inflamatoria inapropiada, inducida por citoquinas, en la presentaci\u00f3n del da\u00f1o mioc\u00e1rdico.
+Introdu\u00e7\u00e3o: revelam-se controv\u00e9rsias a respeito dos mecanismos que determinam a vulnerabilidade dos pacientes com insufici\u00eancia card\u00edaca \u00e0 infec\u00e7\u00e3o pelo v\u00edrus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), gerador da s\u00edndrome respirat\u00f3ria denominada Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: coletar informa\u00e7\u00f5es sobre a fisiopatologia da insufici\u00eancia card\u00edaca aguda no contexto da COVID-19.M\u00e9todo: na Policl\u00ednica Comunit\u00e1ria \u0022Ram\u00f3n L\u00f3pez Pe\u00f1a\u0022 de Santiago de Cuba, entre setembro e novembro de 2020, foi realizada uma revis\u00e3o narrativa sobre o tema.
+ A busca foi realizada por meio de consulta \u00e0s bases de dados Pubmed, Infomed e SciELO, sem restri\u00e7\u00e3o de datas, nos idiomas espanhol e ingl\u00eas.
+ Desenvolvimento: a incerteza se manifesta nos mecanismos envolvidos na fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com essa doen\u00e7a infecciosa.
+ O dano mioc\u00e1rdico se deve aos efeitos diretos da infec\u00e7\u00e3o viral no mi\u00f3cito, que se expressa como resposta inflamat\u00f3ria local, e ao envolvimento do cora\u00e7\u00e3o como \u00f3rg\u00e3o alvo da resposta inflamat\u00f3ria sist\u00eamica e inadequada gerada pela libera\u00e7\u00e3o acentuada de citocinas.
+ Esta \u00faltima tamb\u00e9m gera dano endotelial que desencadeia complica\u00e7\u00f5es tromboemb\u00f3licas e isqu\u00eamicas, disfun\u00e7\u00e3o card\u00edaca sistodiast\u00f3lica e, finalmente, fal\u00eancia de m\u00faltiplos \u00f3rg\u00e3os.
+ Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5, Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,     Yuan-Yuan%Fang%NULL%2,     Yan%Deng%NULL%2,     Wei%Liu%NULL%3,     Mei-Fang%Wang%NULL%1,     Jing-Ping%Ma%NULL%1,     Wei%Xiao%NULL%2,     Ying-Nan%Wang%NULL%1,     Min-Hua%Zhong%NULL%1,     Cheng-Hong%Li%NULL%1,     Guang-Cai%Li%NULL%1,     Hui-Guo%Liu%NULL%3,     Xiu-Yuan%Hao%NULL%6,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%7]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,   Yang%Yang%null%5,   Cong%Zhang%null%3,   Fengming%Huang%null%2,   Fuxiang%Wang%null%2,   Jing%Yuan%null%4,   Zhaoqin%Wang%null%4,   Jinxiu%Li%null%2,   Jianming%Li%null%2,   Cheng%Feng%null%2,   Zheng%Zhang%null%3,   Lifei%Wang%null%2,   Ling%Peng%null%2,   Li%Chen%null%4,   Yuhao%Qin%null%2,   Dandan%Zhao%null%2,   Shuguang%Tan%null%2,   Lu%Yin%null%3,   Jun%Xu%null%2,   Congzhao%Zhou%null%2,   Chengyu%Jiang%null%2,   Lei%Liu%null%9]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,     Ye-Ming%Wang%NULL%2,     Zhi-Qiang%Wu%NULL%2,     Zi-Chun%Xiang%NULL%2,     Li%Guo%NULL%0,     Teng%Xu%NULL%3,     Yong-Zhong%Jiang%NULL%2,     Yan%Xiong%NULL%2,     Yong-Jun%Li%NULL%2,     Xing-Wang%Li%NULL%2,     Hui%Li%NULL%0,     Guo-Hui%Fan%NULL%2,     Xiao-Ying%Gu%NULL%2,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Jiu-Yang%Xu%NULL%2,     Fan%Yang%NULL%2,     Xin-Ming%Wang%NULL%2,     Chao%Wu%NULL%2,     Lan%Chen%NULL%2,     Yi-Wei%Liu%NULL%2,     Bo%Liu%NULL%2,     Jian%Yang%NULL%2,     Xiao-Rui%Wang%NULL%2,     Jie%Dong%NULL%2,     Li%Li%NULL%3,     Chao-Lin%Huang%NULL%2,     Jian-Ping%Zhao%NULL%2,     Yi%Hu%NULL%0,     Zhen-Shun%Cheng%NULL%2,     Lin-Lin%Liu%NULL%2,     Zhao-Hui%Qian%NULL%2,     Chuan%Qin%NULL%2,     Qi%Jin%NULL%0,     Bin%Cao%NULL%0,     Jian-Wei%Wang%NULL%2,     Xiu-Yuan%Hao%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,     Dengju%Li%NULL%1,     Xiong%Wang%NULL%1,     Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of 140 patients infected with SARS\u2010CoV\u20102 in Wuhan, China</t>
+  </si>
+  <si>
+    <t>Background\n\n\n\nCoronavirus disease 2019 (COVID\u201019) caused by severe acute respiratory syndrome coronavirus 2 (SARS\u2010CoV\u20102) infection has been widely spread.
+ We aim to investigate the clinical characteristic and allergy status of patients infected with SARS\u2010CoV\u20102.\n\nMethods\n\n\n\nElectronic medical records including demographics, clinical manifestation, comorbidities, laboratory data, and radiological materials of 140 hospitalized COVID\u201019 patients, with confirmed result of SARS\u2010CoV\u20102 viral infection, were extracted and analyzed.
+\n\nResults\n\n\n\nAn approximately 1:1 ratio of male (50.7%) and female COVID\u201019 patients was found, with an overall median age of 57.0 years.
+ All patients were community\u2010acquired cases.
+ Fever (91.7%), cough (75.0%), fatigue (75.0%), and gastrointestinal symptoms (39.6%) were the most common clinical manifestations, whereas hypertension (30.0%) and diabetes mellitus (12.1%) were the most common comorbidities.
+ Drug hypersensitivity (11.4%) and urticaria (1.4%) were self\u2010reported by several patients.
+ Asthma or other allergic diseases were not reported by any of the patients.
+ Chronic obstructive pulmonary disease (COPD, 1.4%) patients and current smokers (1.4%) were rare.
+ Bilateral ground\u2010glass or patchy opacity (89.6%) was the most common sign of radiological finding.
+ Lymphopenia (75.4%) and eosinopenia (52.9%) were observed in most patients.
+ Blood eosinophil counts correlate positively with lymphocyte counts in severe (r = .
+486, P \u003C .
+001) and nonsevere (r = .
+469, P \u003C .
+001) patients after hospital admission.
+ Significantly higher levels of D\u2010dimer, C\u2010reactive protein, and procalcitonin were associated with severe patients compared to nonsevere patients (all P \u003C .
+001).
+\n\nConclusion\n\n\n\nDetailed clinical investigation of 140 hospitalized COVID\u201019 cases suggests eosinopenia together with lymphopenia may be a potential indicator for diagnosis.
+ Allergic diseases, asthma, and COPD are not risk factors for SARS\u2010CoV\u20102 infection.
+ Older age, high number of comorbidities, and more prominent laboratory abnormalities were associated with severe patients</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%4, Dong%Xiang%coreGivesNoEmail%4, Gao%Ya-dong%coreGivesNoEmail%4, Yan%You-qin%coreGivesNoEmail%4, Yang%Yi-bin%coreGivesNoEmail%4, Yuan%Ya-dong%coreGivesNoEmail%4, Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,     Xiao-Xin%Wu%NULL%1,     Xian-Gao%Jiang%NULL%1,     Kai-Jin%Xu%NULL%1,     Ling-Jun%Ying%NULL%1,     Chun-Lian%Ma%NULL%1,     Shi-Bo%Li%NULL%1,     Hua-Ying%Wang%NULL%1,     Sheng%Zhang%NULL%1,     Hai-Nv%Gao%NULL%1,     Ji-Fang%Sheng%NULL%1,     Hong-Liu%Cai%NULL%1,     Yun-Qing%Qiu%NULL%1,     Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,     Xiaojia%Wu%NULL%1,     Wenbing%Zeng%NULL%1,     Dajing%Guo%NULL%2,     Zheng%Fang%NULL%2,     Linli%Chen%NULL%2,     Huizhe%Huang%NULL%1,     Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,     Valerie%Wong%NULL%1,     Vivian Wan In%Wei%NULL%1,     Samuel Yeung Shan%Wong%NULL%1,     Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,     Xiaoyu%Han%NULL%1,     Nanchuan%Jiang%NULL%1,     Yukun%Cao%NULL%1,     Osamah%Alwalid%NULL%1,     Jin%Gu%NULL%1,     Yanqing%Fan%1024932023@qq.com%2,     Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,     Jing-Hui%Dong%NULL%1,     Wei-Min%An%NULL%1,     Xiao-Yan%Lv%15001008285@139.com%1,     Xiao-Ping%Yin%yinxiaoping78@sina.com%1,     Jian-Zeng%Zhang%NULL%1,     Li%Dong%NULL%1,     Xi%Ma%NULL%1,     Hong-Jie%Zhang%NULL%1,     Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,     Zhenlu%Yang%NULL%2,     Zhenlu%Yang%NULL%0,     Hongyan%Hou%NULL%2,     Hongyan%Hou%NULL%0,     Chenao%Zhan%NULL%1,     Chong%Chen%NULL%1,     Wenzhi%Lv%NULL%2,     Wenzhi%Lv%NULL%0,     Qian%Tao%NULL%2,     Qian%Tao%NULL%0,     Ziyong%Sun%NULL%0,     Ziyong%Sun%NULL%0,     Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,     Qiqi%Cao%NULL%1,     Le%Qin%NULL%1,     Xiaoyang%Wang%NULL%1,     Zenghui%Cheng%NULL%1,     Ashan%Pan%NULL%1,     Jianyi%Dai%NULL%1,     Qingfeng%Sun%NULL%1,     Fengquan%Zhao%NULL%1,     Jieming%Qu%NULL%0,     Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,     Nan%Hu%NULL%1,     Jing%Lou%NULL%1,     Kun%Chen%NULL%1,     Xuqin%Kang%NULL%1,     Zhenjun%Xiang%NULL%1,     Hui%Chen%NULL%1,     Dali%Wang%NULL%1,     Ning%Liu%NULL%1,     Dong%Liu%NULL%3,     Gang%Chen%NULL%1,     Yongliang%Zhang%NULL%1,     Dou%Li%NULL%1,     Jianren%Li%NULL%1,     Huixin%Lian%NULL%1,     Shengmei%Niu%NULL%1,     Luxi%Zhang%NULL%1,     Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,     Mengqi%Tu%NULL%1,     Shipei%Wang%NULL%1,     Sichao%Chen%NULL%1,     Wei%Zhou%NULL%1,     Danyang%Chen%NULL%1,     Lin%Zhou%NULL%1,     Min%Wang%NULL%1,     Yan%Zhao%NULL%1,     Wen%Zeng%NULL%1,     Qi%Huang%NULL%1,     Hai'bo%Xu%NULL%1,     Zeming%Liu%NULL%1,     Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,     Chengcheng%Yu%NULL%1,     Jing%Qu%NULL%1,     Lieguang%Zhang%NULL%1,     Songfeng%Jiang%NULL%1,     Deyang%Huang%NULL%1,     Bihua%Chen%NULL%1,     Zhiping%Zhang%NULL%1,     Wanhua%Guan%NULL%1,     Zhoukun%Ling%NULL%1,     Rui%Jiang%NULL%1,     Tianli%Hu%NULL%1,     Yan%Ding%NULL%1,     Lin%Lin%NULL%1,     Qingxin%Gan%NULL%1,     Liangping%Luo%tluolp@jnu.edu.cn%1,     Xiaoping%Tang%xtang@21cn.com%1,     Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,     Zhao-Wu%Tao%NULL%1,     Lei%Wang%NULL%1,     Ming-Li%Yuan%NULL%1,     Kui%Liu%NULL%3,     Ling%Zhou%NULL%2,     Shuang%Wei%NULL%2,     Yan%Deng%NULL%0,     Jing%Liu%NULL%1,     Hui-Guo%Liu%NULL%0,     Ming%Yang%NULL%2,     Yi%Hu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,     Jiong%Wu%NULL%1,     Faqi%Wu%NULL%1,     Dajing%Guo%NULL%0,     Linli%Chen%NULL%0,     Zheng%Fang%NULL%0,     Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,     Jun%Liu%NULL%1,     Xinguo%Zhao%NULL%1,     Chengyuan%Liu%NULL%1,     Wei%Wang%NULL%2,     Dawei%Wang%NULL%1,     Wei%Xu%NULL%1,     Chunyu%Zhang%NULL%1,     Jiong%Yu%NULL%1,     Bin%Jiang%NULL%1,     Hongcui%Cao%hccao@zju.edu.cn%1,     Lanjuan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,     Xiaorong%Hu%NULL%1,     Wenlin%Cheng%NULL%1,     Lei%Yu%NULL%1,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,     Qiang%Liu%liuqiang@irm-cams.ac.cn%3,     Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,     Kun%Yang%NULL%3,     Kun%Yang%NULL%0,     Wenxia%Wang%NULL%2,     Wenxia%Wang%NULL%0,     Lingyu%Jiang%NULL%2,     Lingyu%Jiang%NULL%0,     Jianxin%Song%songsingsjx@sina.com%2,     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,    Kun%Yang%NULL%10,    Kun%Yang%NULL%0,    Wenxia%Wang%NULL%10,    Wenxia%Wang%NULL%0,    Lingyu%Jiang%NULL%10,    Lingyu%Jiang%NULL%0,    Jianxin%Song%songsingsjx@sina.com%10,    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,     Meiwen%Tang%NULL%1,     Xiaobin%Zheng%NULL%1,     Ye%Liu%ly77219@163.com%1,     Xiaofeng%Li%zdwylxf@163.com%1,     Hong%Shan%shanhong@mail.sysu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,     Dong%Sun%NULL%1,     Yao%Liu%NULL%1,     Yanqing%Fan%NULL%0,     Lingyun%Zhao%NULL%1,     Xiaoming%Li%NULL%1,     Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,    Dong%Sun%NULL%1,    Yao%Liu%NULL%1,    Yanqing%Fan%NULL%1,    Lingyun%Zhao%NULL%1,    Xiaoming%Li%NULL%2,    Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,     SaiBin%Wang%NULL%2,     SaiBin%Wang%NULL%0,     YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,    SaiBin%Wang%NULL%2,    SaiBin%Wang%NULL%0,    YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,     Ci%Song%NULL%1,     Chuanjun%Xu%NULL%1,     Guangfu%Jin%NULL%1,     Yaling%Chen%NULL%1,     Xin%Xu%NULL%1,     Hongxia%Ma%NULL%1,     Wei%Chen%NULL%2,     Yuan%Lin%NULL%1,     Yishan%Zheng%NULL%1,     Jianming%Wang%NULL%1,     Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,     Yongxiang%Yi%ian0126@126.com%1,     Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,     Yao%Tian%NULL%2,     Yao%Tian%NULL%0,     Jing%Zhou%NULL%1,     Xuan%Ma%NULL%1,     Min%Yang%NULL%1,     ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,    Yao%Tian%NULL%2,    Yao%Tian%NULL%0,    Jing%Zhou%NULL%2,    Xuan%Ma%NULL%1,    Min%Yang%NULL%1,    ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,     James%Fielding%NULL%1,     Michaela%Diercke%NULL%1,     Christine%Campese%NULL%1,     Vincent%Enouf%NULL%1,     Alexandre%Gaymard%NULL%1,     Antonino%Bella%NULL%1,     Paola%Sognamiglio%NULL%1,     Maria José%Sierra Moros%NULL%1,     Antonio Nicolau%Riutort%NULL%1,     Yulia V.%Demina%NULL%1,     Romain%Mahieu%NULL%1,     Markku%Broas%NULL%1,     Malin%Bengnér%NULL%1,     Silke%Buda%NULL%1,     Julia%Schilling%NULL%1,     Laurent%Filleul%NULL%1,     Agnès%Lepoutre%NULL%1,     Christine%Saura%NULL%1,     Alexandra%Mailles%NULL%1,     Daniel%Levy-Bruhl%NULL%1,     Bruno%Coignard%NULL%1,     Sibylle%Bernard-Stoecklin%NULL%1,     Sylvie%Behillil%NULL%1,     Sylvie%van der Werf%NULL%1,     Martine%Valette%NULL%1,     Bruno%Lina%NULL%1,     Flavia%Riccardo%NULL%1,     Emanuele%Nicastri%NULL%1,     Inmaculada%Casas%NULL%1,     Amparo%Larrauri%NULL%1,     Magdalena%Salom Castell%NULL%1,     Francisco%Pozo%NULL%1,     Rinat A.%Maksyutov%NULL%1,     Charlotte%Martin%NULL%1,     Marc%Van Ranst%NULL%3,     Nathalie%Bossuyt%NULL%1,     Lotta%Siira%NULL%1,     Jussi%Sane%NULL%1,     Karin%Tegmark-Wisell%NULL%1,     Maria%Palmérus%NULL%1,     Eeva K.%Broberg%NULL%1,     Julien%Beauté%NULL%1,     Pernille%Jorgensen%NULL%1,     Nick%Bundle%NULL%1,     Dmitriy%Pereyaslov%NULL%1,     Cornelia%Adlhoch%NULL%1,     Jukka%Pukkila%NULL%1,     Richard%Pebody%NULL%1,     Sonja%Olsen%NULL%1,     Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,     Yong-hua%Gao%NULL%1,     Li-Li%lou%NULL%1,     Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,     Huaqiao%Li%NULL%1,     Songtao%Huang%NULL%1,     Wei%You%NULL%1,     Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%3,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%3,     Jie%Xiang%NULL%4,     Yeming%Wang%NULL%0,     Bin%Song%NULL%3,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%3,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%3,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%3,     Yi%Zhang%NULL%4,     Hua%Chen%NULL%3,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%29,    Ronghui%Du%NULL%12,    Guohui%Fan%NULL%18,    Ying%Liu%NULL%15,    Zhibo%Liu%NULL%12,    Jie%Xiang%NULL%18,    Yeming%Wang%NULL%18,    Bin%Song%NULL%12,    Xiaoying%Gu%NULL%18,    Lulu%Guan%NULL%12,    Yuan%Wei%NULL%21,    Hui%Li%NULL%22,    Xudong%Wu%NULL%12,    Jiuyang%Xu%NULL%18,    Shengjin%Tu%NULL%12,    Yi%Zhang%NULL%12,    Hua%Chen%NULL%12,    Bin%Cao%NULL%18]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,     Ying%Chen%NULL%1,     Ruzheng%Lin%NULL%1,     Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,     Tangkai%Qi%NULL%1,     Li%Liu%NULL%2,     Yun%Ling%NULL%0,     Zhiping%Qian%NULL%1,     Tao%Li%NULL%1,     Feng%Li%NULL%2,     Qingnian%Xu%NULL%1,     Yuyi%Zhang%NULL%1,     Shuibao%Xu%NULL%1,     Zhigang%Song%NULL%1,     Yigang%Zeng%NULL%1,     Yinzhong%Shen%NULL%1,     Yuxin%Shi%NULL%0,     Tongyu%Zhu%NULL%1,     Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,     Feifei%Yao%NULL%1,     Lijie%Wang%NULL%1,     Ling%Zheng%NULL%1,     Yongjun%Gao%NULL%1,     Jun%Ye%NULL%1,     Feng%Guo%NULL%1,     Hui%Zhao%NULL%1,     Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,     Bin%Quan%NULL%1,     Xiaoning%Li%NULL%1,     Guangjian%Gao%NULL%1,     Wenqiang%Zheng%NULL%1,     Jun%Zhang%NULL%3,     Zhiyun%Zhang%NULL%1,     Chunsheng%Liu%NULL%1,     Li%Li%NULL%0,     Chenglin%Wang%NULL%1,     Guihua%Zhang%NULL%1,     Jiajia%Li%NULL%1,     Yunhai%Dai%NULL%1,     Jianghua%Yang%yjhpath@163.com%1,     Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,    Bin%Quan%NULL%1,    Xiaoning%Li%NULL%2,    Guangjian%Gao%NULL%1,    Wenqiang%Zheng%NULL%1,    Jun%Zhang%NULL%3,    Zhiyun%Zhang%NULL%1,    Chunsheng%Liu%NULL%1,    Li%Li%NULL%3,    Chenglin%Wang%NULL%1,    Guihua%Zhang%NULL%1,    Jiajia%Li%NULL%1,    Yunhai%Dai%NULL%1,    Jianghua%Yang%yjhpath@163.com%1,    Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,     Kai%Xie%NULL%4,     Kai%Xie%NULL%0,     Hui%Lu%NULL%2,     Lei%Xu%bayinhexl@126.com%2,     Shusheng%Zhou%zhouss108@163.com%2,     Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,    Kai%Xie%NULL%2,    Kai%Xie%NULL%0,    Hui%Lu%NULL%1,    Lei%Xu%bayinhexl@126.com%1,    Shusheng%Zhou%zhouss108@163.com%1,    Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,     Yuanyuan%Xing%NULL%1,     Yu%Xiao%NULL%1,     Liping%Deng%NULL%1,     Qiu%Zhao%NULL%1,     Hongling%Wang%NULL%1,     Yong%Xiong%NULL%2,     Zhenshun%Cheng%NULL%0,     Shicheng%Gao%NULL%1,     Ke%Liang%NULL%1,     Mingqi%Luo%NULL%1,     Tielong%Chen%NULL%1,     Shihui%Song%NULL%1,     Zhiyong%Ma%NULL%1,     Xiaoping%Chen%NULL%1,     Ruiying%Zheng%NULL%1,     Qian%Cao%NULL%1,     Fan%Wang%fanndywang@foxmail.com%1,     Yongxi%Zhang%znact1936@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,     Bohan%Yang%NULL%2,     Qianwen%Li%NULL%2,     Lu%Wen%NULL%2,     Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,     Yingxia%Liu%NULL%1,     Lei%Liu%NULL%4,     Xianfeng%Wang%NULL%1,     Nijuan%Luo%NULL%1,     Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,    Yingxia%Liu%NULL%2,    Lei%Liu%NULL%17,    Xianfeng%Wang%NULL%1,    Nijuan%Luo%NULL%1,    Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,     N -B%Yang%NULL%1,     F%Ding%NULL%1,     A H Y%Ma%NULL%1,     Z -Y%Wang%NULL%2,     Y -F%Shen%NULL%1,     C -W%Shi%NULL%1,     X%Lian%NULL%1,     J -G%Chu%NULL%1,     L%Chen%chxmin@hotmail.com%1,     Z -Y%Wang%NULL%0,     D -W%Ren%NULL%1,     G -X%Li%NULL%1,     X -Q%Chen%chxmin@hotmail.com%1,     H -J%Shen%NULL%1,     X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,     Tuantuan%Li%NULL%2,     Mingfeng%Han%NULL%4,     Xiuyong%Li%NULL%2,     Dong%Wu%NULL%2,     Yuanhong%Xu%NULL%2,     Yulin%Zhu%NULL%2,     Yan%Liu%NULL%2,     Xiaowu%Wang%wangxiaowu19880218@126.com%2,     Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,    Tuantuan%Li%NULL%2,    Mingfeng%Han%NULL%4,    Xiuyong%Li%NULL%2,    Dong%Wu%NULL%2,    Yuanhong%Xu%NULL%2,    Yulin%Zhu%NULL%2,    Yan%Liu%NULL%2,    Xiaowu%Wang%wangxiaowu19880218@126.com%2,    Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,      Yeming%Wang%NULL%7,      Xingwang%Li%NULL%4,      Lili%Ren%NULL%3,      Jianping%Zhao%NULL%8,      Yi%Hu%NULL%8,      Li%Zhang%NULL%8,      Guohui%Fan%NULL%7,      Jiuyang%Xu%NULL%7,      Xiaoying%Gu%NULL%7,      Zhenshun%Cheng%NULL%5,      Ting%Yu%NULL%12,      Jiaan%Xia%NULL%4,      Yuan%Wei%NULL%10,      Wenjuan%Wu%NULL%3,      Xuelei%Xie%NULL%4,      Wen%Yin%NULL%7,      Hui%Li%NULL%8,      Min%Liu%NULL%3,      Yan%Xiao%NULL%4,      Hong%Gao%NULL%4,      Li%Guo%NULL%5,      Jungang%Xie%NULL%4,      Guangfa%Wang%NULL%3,      Rongmeng%Jiang%NULL%3,      Zhancheng%Gao%NULL%3,      Qi%Jin%NULL%4,      Jianwei%Wang%wangjw28@163.com%3,      Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,      Shuofeng%Yuan%NULL%2,      Kin-Hang%Kok%NULL%2,      Kelvin Kai-Wang%To%NULL%2,      Hin%Chu%NULL%2,      Jin%Yang%NULL%2,      Fanfan%Xing%NULL%2,      Jieling%Liu%NULL%2,      Cyril Chik-Yan%Yip%NULL%3,      Rosana Wing-Shan%Poon%NULL%3,      Hoi-Wah%Tsoi%NULL%2,      Simon Kam-Fai%Lo%NULL%2,      Kwok-Hung%Chan%NULL%4,      Vincent Kwok-Man%Poon%NULL%2,      Wan-Mui%Chan%NULL%3,      Jonathan Daniel%Ip%NULL%3,      Jian-Piao%Cai%NULL%3,      Vincent Chi-Chung%Cheng%NULL%3,      Honglin%Chen%NULL%3,      Christopher Kim-Ming%Hui%NULL%2,      Kwok-Yung%Yuen%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,      Xuhua%Guan%NULL%1,      Peng%Wu%NULL%1,      Xiaoye%Wang%NULL%1,      Lei%Zhou%NULL%1,      Yeqing%Tong%NULL%1,      Ruiqi%Ren%NULL%1,      Kathy S.M.%Leung%NULL%1,      Eric H.Y.%Lau%NULL%1,      Jessica Y.%Wong%NULL%1,      Xuesen%Xing%NULL%1,      Nijuan%Xiang%NULL%1,      Yang%Wu%NULL%1,      Chao%Li%NULL%1,      Qi%Chen%NULL%1,      Dan%Li%NULL%1,      Tian%Liu%NULL%1,      Jing%Zhao%NULL%1,      Man%Liu%NULL%1,      Wenxiao%Tu%NULL%1,      Chuding%Chen%NULL%1,      Lianmei%Jin%NULL%1,      Rui%Yang%NULL%1,      Qi%Wang%NULL%1,      Suhua%Zhou%NULL%1,      Rui%Wang%NULL%1,      Hui%Liu%NULL%1,      Yinbo%Luo%NULL%1,      Yuan%Liu%NULL%1,      Ge%Shao%NULL%1,      Huan%Li%NULL%1,      Zhongfa%Tao%NULL%1,      Yang%Yang%NULL%2,      Zhiqiang%Deng%NULL%1,      Boxi%Liu%NULL%1,      Zhitao%Ma%NULL%1,      Yanping%Zhang%NULL%1,      Guoqing%Shi%NULL%1,      Tommy T.Y.%Lam%NULL%1,      Joseph T.%Wu%NULL%1,      George F.%Gao%NULL%1,      Benjamin J.%Cowling%NULL%1,      Bo%Yang%NULL%2,      Bo%Yang%NULL%0,      Gabriel M.%Leung%NULL%3,      Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,      Min%Zhou%NULL%4,      Xuan%Dong%NULL%4,      Jieming%Qu%NULL%8,      Fengyun%Gong%NULL%4,      Yang%Han%NULL%3,      Yang%Qiu%NULL%3,      Jingli%Wang%NULL%4,      Ying%Liu%NULL%7,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%5,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%3,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,      Nannan%Shi%NULL%3,      Nannan%Shi%NULL%0,      Fei%Shan%NULL%2,      Zhiyong%Zhang%NULL%2,      Jie%Shen%NULL%1,      Hongzhou%Lu%NULL%5,      Yun%Ling%NULL%5,      Yebin%Jiang%NULL%2,      Yebin%Jiang%NULL%0,      Yuxin%Shi%shiyuxin@shphc.org.cn%4,      Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,  Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,      Yuan-Yuan%Fang%NULL%2,      Yan%Deng%NULL%3,      Wei%Liu%NULL%3,      Mei-Fang%Wang%NULL%2,      Jing-Ping%Ma%NULL%2,      Wei%Xiao%NULL%2,      Ying-Nan%Wang%NULL%2,      Min-Hua%Zhong%NULL%2,      Cheng-Hong%Li%NULL%2,      Guang-Cai%Li%NULL%2,      Hui-Guo%Liu%NULL%3,      Xiu-Yuan%Hao%NULL%6,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,    Yang%Yang%null%5,    Cong%Zhang%null%4,    Fengming%Huang%null%2,    Fuxiang%Wang%null%2,    Jing%Yuan%null%5,    Zhaoqin%Wang%null%4,    Jinxiu%Li%null%2,    Jianming%Li%null%2,    Cheng%Feng%null%2,    Zheng%Zhang%null%4,    Lifei%Wang%null%3,    Ling%Peng%null%2,    Li%Chen%null%4,    Yuhao%Qin%null%2,    Dandan%Zhao%null%2,    Shuguang%Tan%null%2,    Lu%Yin%null%4,    Jun%Xu%null%2,    Congzhao%Zhou%null%2,    Chengyu%Jiang%null%2,    Lei%Liu%null%14]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,      Ye-Ming%Wang%NULL%1,      Zhi-Qiang%Wu%NULL%1,      Zi-Chun%Xiang%NULL%1,      Li%Guo%NULL%0,      Teng%Xu%NULL%1,      Yong-Zhong%Jiang%NULL%1,      Yan%Xiong%NULL%1,      Yong-Jun%Li%NULL%1,      Xing-Wang%Li%NULL%1,      Hui%Li%NULL%0,      Guo-Hui%Fan%NULL%1,      Xiao-Ying%Gu%NULL%1,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Jiu-Yang%Xu%NULL%1,      Fan%Yang%NULL%1,      Xin-Ming%Wang%NULL%1,      Chao%Wu%NULL%3,      Lan%Chen%NULL%1,      Yi-Wei%Liu%NULL%1,      Bo%Liu%NULL%2,      Jian%Yang%NULL%1,      Xiao-Rui%Wang%NULL%1,      Jie%Dong%NULL%1,      Li%Li%NULL%5,      Chao-Lin%Huang%NULL%1,      Jian-Ping%Zhao%NULL%1,      Yi%Hu%NULL%0,      Zhen-Shun%Cheng%NULL%1,      Lin-Lin%Liu%NULL%1,      Zhao-Hui%Qian%NULL%1,      Chuan%Qin%NULL%1,      Qi%Jin%NULL%0,      Bin%Cao%NULL%0,      Jian-Wei%Wang%NULL%1,      Xiu-Yuan%Hao%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,      Dengju%Li%NULL%1,      Xiong%Wang%NULL%1,      Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,  Cao%Yi-yuan%coreGivesNoEmail%4,  Dong%Xiang%coreGivesNoEmail%4,  Gao%Ya-dong%coreGivesNoEmail%4,  Yan%You-qin%coreGivesNoEmail%4,  Yang%Yi-bin%coreGivesNoEmail%4,  Yuan%Ya-dong%coreGivesNoEmail%4,  Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,      Xiao-Xin%Wu%NULL%2,      Xian-Gao%Jiang%NULL%2,      Kai-Jin%Xu%NULL%2,      Ling-Jun%Ying%NULL%2,      Chun-Lian%Ma%NULL%2,      Shi-Bo%Li%NULL%2,      Hua-Ying%Wang%NULL%2,      Sheng%Zhang%NULL%2,      Hai-Nv%Gao%NULL%2,      Ji-Fang%Sheng%NULL%2,      Hong-Liu%Cai%NULL%2,      Yun-Qing%Qiu%NULL%2,      Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,      Xiaojia%Wu%NULL%1,      Wenbing%Zeng%NULL%1,      Dajing%Guo%NULL%3,      Zheng%Fang%NULL%3,      Linli%Chen%NULL%3,      Huizhe%Huang%NULL%1,      Chuanming%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,      Valerie%Wong%NULL%1,      Vivian Wan In%Wei%NULL%1,      Samuel Yeung Shan%Wong%NULL%1,      Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,      Xiaoyu%Han%NULL%1,      Nanchuan%Jiang%NULL%1,      Yukun%Cao%NULL%1,      Osamah%Alwalid%NULL%1,      Jin%Gu%NULL%1,      Yanqing%Fan%1024932023@qq.com%2,      Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,      Jing-Hui%Dong%NULL%2,      Wei-Min%An%NULL%2,      Xiao-Yan%Lv%15001008285@139.com%2,      Xiao-Ping%Yin%yinxiaoping78@sina.com%2,      Jian-Zeng%Zhang%NULL%2,      Li%Dong%NULL%2,      Xi%Ma%NULL%2,      Hong-Jie%Zhang%NULL%2,      Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,      Zhenlu%Yang%NULL%2,      Zhenlu%Yang%NULL%0,      Hongyan%Hou%NULL%2,      Hongyan%Hou%NULL%0,      Chenao%Zhan%NULL%1,      Chong%Chen%NULL%1,      Wenzhi%Lv%NULL%2,      Wenzhi%Lv%NULL%0,      Qian%Tao%NULL%2,      Qian%Tao%NULL%0,      Ziyong%Sun%NULL%0,      Ziyong%Sun%NULL%0,      Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,      Qiqi%Cao%NULL%3,      Le%Qin%NULL%3,      Xiaoyang%Wang%NULL%3,      Zenghui%Cheng%NULL%3,      Ashan%Pan%NULL%3,      Jianyi%Dai%NULL%3,      Qingfeng%Sun%NULL%3,      Fengquan%Zhao%NULL%3,      Jieming%Qu%NULL%0,      Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,      Nan%Hu%NULL%2,      Jing%Lou%NULL%2,      Kun%Chen%NULL%2,      Xuqin%Kang%NULL%2,      Zhenjun%Xiang%NULL%2,      Hui%Chen%NULL%4,      Dali%Wang%NULL%2,      Ning%Liu%NULL%2,      Dong%Liu%NULL%2,      Gang%Chen%NULL%2,      Yongliang%Zhang%NULL%2,      Dou%Li%NULL%2,      Jianren%Li%NULL%2,      Huixin%Lian%NULL%2,      Shengmei%Niu%NULL%2,      Luxi%Zhang%NULL%2,      Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,      Mengqi%Tu%NULL%2,      Shipei%Wang%NULL%2,      Sichao%Chen%NULL%2,      Wei%Zhou%NULL%2,      Danyang%Chen%NULL%2,      Lin%Zhou%NULL%2,      Min%Wang%NULL%2,      Yan%Zhao%NULL%4,      Wen%Zeng%NULL%2,      Qi%Huang%NULL%2,      Hai'bo%Xu%NULL%2,      Zeming%Liu%NULL%2,      Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,      Chengcheng%Yu%NULL%2,      Jing%Qu%NULL%2,      Lieguang%Zhang%NULL%2,      Songfeng%Jiang%NULL%2,      Deyang%Huang%NULL%2,      Bihua%Chen%NULL%2,      Zhiping%Zhang%NULL%2,      Wanhua%Guan%NULL%2,      Zhoukun%Ling%NULL%2,      Rui%Jiang%NULL%2,      Tianli%Hu%NULL%2,      Yan%Ding%NULL%2,      Lin%Lin%NULL%2,      Qingxin%Gan%NULL%2,      Liangping%Luo%tluolp@jnu.edu.cn%2,      Xiaoping%Tang%xtang@21cn.com%2,      Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,      Zhao-Wu%Tao%NULL%1,      Lei%Wang%NULL%2,      Ming-Li%Yuan%NULL%3,      Kui%Liu%NULL%3,      Ling%Zhou%NULL%1,      Shuang%Wei%NULL%1,      Yan%Deng%NULL%0,      Jing%Liu%NULL%3,      Hui-Guo%Liu%NULL%0,      Ming%Yang%NULL%1,      Yi%Hu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,      Jiong%Wu%NULL%2,      Faqi%Wu%NULL%2,      Dajing%Guo%NULL%0,      Linli%Chen%NULL%0,      Zheng%Fang%NULL%0,      Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,      Jun%Liu%NULL%2,      Xinguo%Zhao%NULL%1,      Chengyuan%Liu%NULL%1,      Wei%Wang%NULL%4,      Dawei%Wang%NULL%1,      Wei%Xu%NULL%2,      Chunyu%Zhang%NULL%1,      Jiong%Yu%NULL%1,      Bin%Jiang%NULL%1,      Hongcui%Cao%hccao@zju.edu.cn%1,      Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,      Xiaorong%Hu%NULL%1,      Wenlin%Cheng%NULL%4,      Lei%Yu%NULL%4,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,      Qiang%Liu%liuqiang@irm-cams.ac.cn%5,      Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,      Kun%Yang%NULL%2,      Kun%Yang%NULL%0,      Wenxia%Wang%NULL%2,      Wenxia%Wang%NULL%0,      Lingyu%Jiang%NULL%2,      Lingyu%Jiang%NULL%0,      Jianxin%Song%songsingsjx@sina.com%2,      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,     Kun%Yang%NULL%11,     Kun%Yang%NULL%0,     Wenxia%Wang%NULL%10,     Wenxia%Wang%NULL%0,     Lingyu%Jiang%NULL%10,     Lingyu%Jiang%NULL%0,     Jianxin%Song%songsingsjx@sina.com%10,     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,      Meiwen%Tang%NULL%1,      Xiaobin%Zheng%NULL%1,      Ye%Liu%ly77219@163.com%1,      Xiaofeng%Li%zdwylxf@163.com%1,      Hong%Shan%shanhong@mail.sysu.edu.cn%7]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,      Dong%Sun%NULL%1,      Yao%Liu%NULL%1,      Yanqing%Fan%NULL%0,      Lingyun%Zhao%NULL%1,      Xiaoming%Li%NULL%1,      Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,     Dong%Sun%NULL%1,     Yao%Liu%NULL%1,     Yanqing%Fan%NULL%1,     Lingyun%Zhao%NULL%1,     Xiaoming%Li%NULL%2,     Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,      SaiBin%Wang%NULL%2,      SaiBin%Wang%NULL%0,      YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,     SaiBin%Wang%NULL%2,     SaiBin%Wang%NULL%0,     YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,      Ci%Song%NULL%1,      Chuanjun%Xu%NULL%1,      Guangfu%Jin%NULL%1,      Yaling%Chen%NULL%1,      Xin%Xu%NULL%3,      Hongxia%Ma%NULL%1,      Wei%Chen%NULL%2,      Yuan%Lin%NULL%1,      Yishan%Zheng%NULL%1,      Jianming%Wang%NULL%3,      Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,      Yongxiang%Yi%ian0126@126.com%1,      Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,      Yao%Tian%NULL%2,      Yao%Tian%NULL%0,      Jing%Zhou%NULL%2,      Xuan%Ma%NULL%1,      Min%Yang%NULL%1,      ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,     Yao%Tian%NULL%2,     Yao%Tian%NULL%0,     Jing%Zhou%NULL%2,     Xuan%Ma%NULL%1,     Min%Yang%NULL%1,     ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,      James%Fielding%NULL%1,      Michaela%Diercke%NULL%1,      Christine%Campese%NULL%1,      Vincent%Enouf%NULL%1,      Alexandre%Gaymard%NULL%1,      Antonino%Bella%NULL%1,      Paola%Sognamiglio%NULL%1,      Maria José%Sierra Moros%NULL%1,      Antonio Nicolau%Riutort%NULL%1,      Yulia V.%Demina%NULL%1,      Romain%Mahieu%NULL%1,      Markku%Broas%NULL%1,      Malin%Bengnér%NULL%1,      Silke%Buda%NULL%1,      Julia%Schilling%NULL%1,      Laurent%Filleul%NULL%1,      Agnès%Lepoutre%NULL%1,      Christine%Saura%NULL%1,      Alexandra%Mailles%NULL%1,      Daniel%Levy-Bruhl%NULL%1,      Bruno%Coignard%NULL%1,      Sibylle%Bernard-Stoecklin%NULL%1,      Sylvie%Behillil%NULL%1,      Sylvie%van der Werf%NULL%1,      Martine%Valette%NULL%1,      Bruno%Lina%NULL%1,      Flavia%Riccardo%NULL%1,      Emanuele%Nicastri%NULL%3,      Inmaculada%Casas%NULL%1,      Amparo%Larrauri%NULL%1,      Magdalena%Salom Castell%NULL%1,      Francisco%Pozo%NULL%1,      Rinat A.%Maksyutov%NULL%1,      Charlotte%Martin%NULL%1,      Marc%Van Ranst%NULL%3,      Nathalie%Bossuyt%NULL%1,      Lotta%Siira%NULL%1,      Jussi%Sane%NULL%1,      Karin%Tegmark-Wisell%NULL%1,      Maria%Palmérus%NULL%1,      Eeva K.%Broberg%NULL%1,      Julien%Beauté%NULL%1,      Pernille%Jorgensen%NULL%1,      Nick%Bundle%NULL%1,      Dmitriy%Pereyaslov%NULL%1,      Cornelia%Adlhoch%NULL%1,      Jukka%Pukkila%NULL%1,      Richard%Pebody%NULL%1,      Sonja%Olsen%NULL%1,      Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,      Yong-hua%Gao%NULL%1,      Li-Li%lou%NULL%1,      Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,      Huaqiao%Li%NULL%1,      Songtao%Huang%NULL%1,      Wei%You%NULL%1,      Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%3,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%4,      Jie%Xiang%NULL%7,      Yeming%Wang%NULL%0,      Bin%Song%NULL%4,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%3,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%4,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%3,      Yi%Zhang%NULL%4,      Hua%Chen%NULL%4,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%29,     Ronghui%Du%NULL%12,     Guohui%Fan%NULL%18,     Ying%Liu%NULL%16,     Zhibo%Liu%NULL%12,     Jie%Xiang%NULL%18,     Yeming%Wang%NULL%18,     Bin%Song%NULL%12,     Xiaoying%Gu%NULL%18,     Lulu%Guan%NULL%12,     Yuan%Wei%NULL%21,     Hui%Li%NULL%22,     Xudong%Wu%NULL%12,     Jiuyang%Xu%NULL%18,     Shengjin%Tu%NULL%12,     Yi%Zhang%NULL%13,     Hua%Chen%NULL%12,     Bin%Cao%NULL%19]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,      Ying%Chen%NULL%1,      Ruzheng%Lin%NULL%1,      Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,      Tangkai%Qi%NULL%1,      Li%Liu%NULL%1,      Yun%Ling%NULL%0,      Zhiping%Qian%NULL%1,      Tao%Li%NULL%1,      Feng%Li%NULL%1,      Qingnian%Xu%NULL%1,      Yuyi%Zhang%NULL%1,      Shuibao%Xu%NULL%1,      Zhigang%Song%NULL%1,      Yigang%Zeng%NULL%1,      Yinzhong%Shen%NULL%1,      Yuxin%Shi%NULL%0,      Tongyu%Zhu%NULL%2,      Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,      Feifei%Yao%NULL%1,      Lijie%Wang%NULL%1,      Ling%Zheng%NULL%1,      Yongjun%Gao%NULL%1,      Jun%Ye%NULL%1,      Feng%Guo%NULL%1,      Hui%Zhao%NULL%1,      Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,      Bin%Quan%NULL%1,      Xiaoning%Li%NULL%2,      Guangjian%Gao%NULL%1,      Wenqiang%Zheng%NULL%1,      Jun%Zhang%NULL%1,      Zhiyun%Zhang%NULL%1,      Chunsheng%Liu%NULL%1,      Li%Li%NULL%0,      Chenglin%Wang%NULL%1,      Guihua%Zhang%NULL%1,      Jiajia%Li%NULL%1,      Yunhai%Dai%NULL%1,      Jianghua%Yang%yjhpath@163.com%1,      Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,     Bin%Quan%NULL%1,     Xiaoning%Li%NULL%1,     Guangjian%Gao%NULL%1,     Wenqiang%Zheng%NULL%1,     Jun%Zhang%NULL%5,     Zhiyun%Zhang%NULL%1,     Chunsheng%Liu%NULL%1,     Li%Li%NULL%3,     Chenglin%Wang%NULL%1,     Guihua%Zhang%NULL%1,     Jiajia%Li%NULL%1,     Yunhai%Dai%NULL%1,     Jianghua%Yang%yjhpath@163.com%1,     Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,      Kai%Xie%NULL%4,      Kai%Xie%NULL%0,      Hui%Lu%NULL%2,      Lei%Xu%bayinhexl@126.com%3,      Shusheng%Zhou%zhouss108@163.com%2,      Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,     Kai%Xie%NULL%2,     Kai%Xie%NULL%0,     Hui%Lu%NULL%1,     Lei%Xu%bayinhexl@126.com%1,     Shusheng%Zhou%zhouss108@163.com%1,     Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,      Yuanyuan%Xing%NULL%2,      Yu%Xiao%NULL%2,      Liping%Deng%NULL%3,      Qiu%Zhao%NULL%2,      Hongling%Wang%NULL%2,      Yong%Xiong%NULL%4,      Zhenshun%Cheng%NULL%0,      Shicheng%Gao%NULL%3,      Ke%Liang%NULL%3,      Mingqi%Luo%NULL%3,      Tielong%Chen%NULL%2,      Shihui%Song%NULL%3,      Zhiyong%Ma%NULL%3,      Xiaoping%Chen%NULL%3,      Ruiying%Zheng%NULL%2,      Qian%Cao%NULL%2,      Fan%Wang%fanndywang@foxmail.com%2,      Yongxi%Zhang%znact1936@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,      Bohan%Yang%NULL%2,      Qianwen%Li%NULL%2,      Lu%Wen%NULL%2,      Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,      Yingxia%Liu%NULL%1,      Lei%Liu%NULL%9,      Xianfeng%Wang%NULL%1,      Nijuan%Luo%NULL%1,      Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,     Yingxia%Liu%NULL%1,     Lei%Liu%NULL%14,     Xianfeng%Wang%NULL%1,     Nijuan%Luo%NULL%1,     Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,      N -B%Yang%NULL%1,      F%Ding%NULL%1,      A H Y%Ma%NULL%1,      Z -Y%Wang%NULL%2,      Y -F%Shen%NULL%1,      C -W%Shi%NULL%1,      X%Lian%NULL%1,      J -G%Chu%NULL%1,      L%Chen%chxmin@hotmail.com%1,      Z -Y%Wang%NULL%0,      D -W%Ren%NULL%1,      G -X%Li%NULL%1,      X -Q%Chen%chxmin@hotmail.com%1,      H -J%Shen%NULL%1,      X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,      Tuantuan%Li%NULL%1,      Mingfeng%Han%NULL%1,      Xiuyong%Li%NULL%1,      Dong%Wu%NULL%1,      Yuanhong%Xu%NULL%3,      Yulin%Zhu%NULL%1,      Yan%Liu%NULL%2,      Xiaowu%Wang%wangxiaowu19880218@126.com%1,      Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,     Tuantuan%Li%NULL%3,     Mingfeng%Han%NULL%6,     Xiuyong%Li%NULL%3,     Dong%Wu%NULL%3,     Yuanhong%Xu%NULL%3,     Yulin%Zhu%NULL%3,     Yan%Liu%NULL%3,     Xiaowu%Wang%wangxiaowu19880218@126.com%3,     Linding%Wang%wanglinding@ahmu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,       Yeming%Wang%NULL%7,       Xingwang%Li%NULL%4,       Lili%Ren%NULL%3,       Jianping%Zhao%NULL%8,       Yi%Hu%NULL%8,       Li%Zhang%NULL%8,       Guohui%Fan%NULL%7,       Jiuyang%Xu%NULL%7,       Xiaoying%Gu%NULL%7,       Zhenshun%Cheng%NULL%5,       Ting%Yu%NULL%12,       Jiaan%Xia%NULL%4,       Yuan%Wei%NULL%10,       Wenjuan%Wu%NULL%3,       Xuelei%Xie%NULL%4,       Wen%Yin%NULL%7,       Hui%Li%NULL%8,       Min%Liu%NULL%3,       Yan%Xiao%NULL%4,       Hong%Gao%NULL%4,       Li%Guo%NULL%5,       Jungang%Xie%NULL%4,       Guangfa%Wang%NULL%3,       Rongmeng%Jiang%NULL%3,       Zhancheng%Gao%NULL%3,       Qi%Jin%NULL%4,       Jianwei%Wang%wangjw28@163.com%3,       Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,       Shuofeng%Yuan%NULL%2,       Kin-Hang%Kok%NULL%2,       Kelvin Kai-Wang%To%NULL%2,       Hin%Chu%NULL%2,       Jin%Yang%NULL%2,       Fanfan%Xing%NULL%2,       Jieling%Liu%NULL%2,       Cyril Chik-Yan%Yip%NULL%3,       Rosana Wing-Shan%Poon%NULL%3,       Hoi-Wah%Tsoi%NULL%2,       Simon Kam-Fai%Lo%NULL%2,       Kwok-Hung%Chan%NULL%4,       Vincent Kwok-Man%Poon%NULL%2,       Wan-Mui%Chan%NULL%3,       Jonathan Daniel%Ip%NULL%3,       Jian-Piao%Cai%NULL%3,       Vincent Chi-Chung%Cheng%NULL%3,       Honglin%Chen%NULL%3,       Christopher Kim-Ming%Hui%NULL%2,       Kwok-Yung%Yuen%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,       Xuhua%Guan%NULL%1,       Peng%Wu%NULL%1,       Xiaoye%Wang%NULL%1,       Lei%Zhou%NULL%1,       Yeqing%Tong%NULL%1,       Ruiqi%Ren%NULL%1,       Kathy S.M.%Leung%NULL%1,       Eric H.Y.%Lau%NULL%1,       Jessica Y.%Wong%NULL%1,       Xuesen%Xing%NULL%1,       Nijuan%Xiang%NULL%1,       Yang%Wu%NULL%1,       Chao%Li%NULL%1,       Qi%Chen%NULL%1,       Dan%Li%NULL%1,       Tian%Liu%NULL%1,       Jing%Zhao%NULL%1,       Man%Liu%NULL%1,       Wenxiao%Tu%NULL%1,       Chuding%Chen%NULL%1,       Lianmei%Jin%NULL%1,       Rui%Yang%NULL%1,       Qi%Wang%NULL%1,       Suhua%Zhou%NULL%1,       Rui%Wang%NULL%1,       Hui%Liu%NULL%1,       Yinbo%Luo%NULL%1,       Yuan%Liu%NULL%1,       Ge%Shao%NULL%1,       Huan%Li%NULL%1,       Zhongfa%Tao%NULL%1,       Yang%Yang%NULL%2,       Zhiqiang%Deng%NULL%1,       Boxi%Liu%NULL%1,       Zhitao%Ma%NULL%1,       Yanping%Zhang%NULL%1,       Guoqing%Shi%NULL%1,       Tommy T.Y.%Lam%NULL%1,       Joseph T.%Wu%NULL%1,       George F.%Gao%NULL%1,       Benjamin J.%Cowling%NULL%1,       Bo%Yang%NULL%2,       Bo%Yang%NULL%0,       Gabriel M.%Leung%NULL%3,       Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,       Min%Zhou%NULL%4,       Xuan%Dong%NULL%4,       Jieming%Qu%NULL%8,       Fengyun%Gong%NULL%4,       Yang%Han%NULL%3,       Yang%Qiu%NULL%3,       Jingli%Wang%NULL%4,       Ying%Liu%NULL%7,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%5,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%3,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,       Nannan%Shi%NULL%3,       Nannan%Shi%NULL%0,       Fei%Shan%NULL%2,       Zhiyong%Zhang%NULL%2,       Jie%Shen%NULL%1,       Hongzhou%Lu%NULL%5,       Yun%Ling%NULL%5,       Yebin%Jiang%NULL%2,       Yebin%Jiang%NULL%0,       Yuxin%Shi%shiyuxin@shphc.org.cn%4,       Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,   Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,       Yuan-Yuan%Fang%NULL%2,       Yan%Deng%NULL%3,       Wei%Liu%NULL%3,       Mei-Fang%Wang%NULL%2,       Jing-Ping%Ma%NULL%2,       Wei%Xiao%NULL%2,       Ying-Nan%Wang%NULL%2,       Min-Hua%Zhong%NULL%2,       Cheng-Hong%Li%NULL%2,       Guang-Cai%Li%NULL%2,       Hui-Guo%Liu%NULL%3,       Xiu-Yuan%Hao%NULL%6,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,     Yang%Yang%null%5,     Cong%Zhang%null%4,     Fengming%Huang%null%2,     Fuxiang%Wang%null%2,     Jing%Yuan%null%4,     Zhaoqin%Wang%null%3,     Jinxiu%Li%null%2,     Jianming%Li%null%2,     Cheng%Feng%null%2,     Zheng%Zhang%null%4,     Lifei%Wang%null%3,     Ling%Peng%null%2,     Li%Chen%null%4,     Yuhao%Qin%null%2,     Dandan%Zhao%null%2,     Shuguang%Tan%null%2,     Lu%Yin%null%4,     Jun%Xu%null%2,     Congzhao%Zhou%null%2,     Chengyu%Jiang%null%2,     Lei%Liu%null%13]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,       Ye-Ming%Wang%NULL%1,       Zhi-Qiang%Wu%NULL%1,       Zi-Chun%Xiang%NULL%1,       Li%Guo%NULL%0,       Teng%Xu%NULL%1,       Yong-Zhong%Jiang%NULL%1,       Yan%Xiong%NULL%1,       Yong-Jun%Li%NULL%1,       Xing-Wang%Li%NULL%1,       Hui%Li%NULL%0,       Guo-Hui%Fan%NULL%1,       Xiao-Ying%Gu%NULL%1,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Jiu-Yang%Xu%NULL%1,       Fan%Yang%NULL%1,       Xin-Ming%Wang%NULL%1,       Chao%Wu%NULL%3,       Lan%Chen%NULL%1,       Yi-Wei%Liu%NULL%1,       Bo%Liu%NULL%2,       Jian%Yang%NULL%1,       Xiao-Rui%Wang%NULL%1,       Jie%Dong%NULL%1,       Li%Li%NULL%5,       Chao-Lin%Huang%NULL%1,       Jian-Ping%Zhao%NULL%1,       Yi%Hu%NULL%0,       Zhen-Shun%Cheng%NULL%1,       Lin-Lin%Liu%NULL%1,       Zhao-Hui%Qian%NULL%1,       Chuan%Qin%NULL%1,       Qi%Jin%NULL%0,       Bin%Cao%NULL%0,       Jian-Wei%Wang%NULL%1,       Xiu-Yuan%Hao%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,       Dengju%Li%NULL%1,       Xiong%Wang%NULL%1,       Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,   Cao%Yi-yuan%coreGivesNoEmail%4,   Dong%Xiang%coreGivesNoEmail%4,   Gao%Ya-dong%coreGivesNoEmail%4,   Yan%You-qin%coreGivesNoEmail%4,   Yang%Yi-bin%coreGivesNoEmail%4,   Yuan%Ya-dong%coreGivesNoEmail%4,   Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,       Xiao-Xin%Wu%NULL%2,       Xian-Gao%Jiang%NULL%2,       Kai-Jin%Xu%NULL%2,       Ling-Jun%Ying%NULL%2,       Chun-Lian%Ma%NULL%2,       Shi-Bo%Li%NULL%2,       Hua-Ying%Wang%NULL%2,       Sheng%Zhang%NULL%2,       Hai-Nv%Gao%NULL%2,       Ji-Fang%Sheng%NULL%2,       Hong-Liu%Cai%NULL%2,       Yun-Qing%Qiu%NULL%2,       Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,       Xiaojia%Wu%NULL%1,       Wenbing%Zeng%NULL%1,       Dajing%Guo%NULL%3,       Zheng%Fang%NULL%3,       Linli%Chen%NULL%3,       Huizhe%Huang%NULL%1,       Chuanming%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,       Valerie%Wong%NULL%1,       Vivian Wan In%Wei%NULL%1,       Samuel Yeung Shan%Wong%NULL%1,       Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,       Xiaoyu%Han%NULL%1,       Nanchuan%Jiang%NULL%1,       Yukun%Cao%NULL%1,       Osamah%Alwalid%NULL%1,       Jin%Gu%NULL%1,       Yanqing%Fan%1024932023@qq.com%2,       Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,       Jing-Hui%Dong%NULL%2,       Wei-Min%An%NULL%2,       Xiao-Yan%Lv%15001008285@139.com%2,       Xiao-Ping%Yin%yinxiaoping78@sina.com%2,       Jian-Zeng%Zhang%NULL%2,       Li%Dong%NULL%2,       Xi%Ma%NULL%2,       Hong-Jie%Zhang%NULL%2,       Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,       Zhenlu%Yang%NULL%2,       Zhenlu%Yang%NULL%0,       Hongyan%Hou%NULL%2,       Hongyan%Hou%NULL%0,       Chenao%Zhan%NULL%1,       Chong%Chen%NULL%1,       Wenzhi%Lv%NULL%2,       Wenzhi%Lv%NULL%0,       Qian%Tao%NULL%2,       Qian%Tao%NULL%0,       Ziyong%Sun%NULL%0,       Ziyong%Sun%NULL%0,       Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,       Qiqi%Cao%NULL%3,       Le%Qin%NULL%3,       Xiaoyang%Wang%NULL%3,       Zenghui%Cheng%NULL%3,       Ashan%Pan%NULL%3,       Jianyi%Dai%NULL%3,       Qingfeng%Sun%NULL%3,       Fengquan%Zhao%NULL%3,       Jieming%Qu%NULL%0,       Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,       Nan%Hu%NULL%2,       Jing%Lou%NULL%2,       Kun%Chen%NULL%2,       Xuqin%Kang%NULL%2,       Zhenjun%Xiang%NULL%2,       Hui%Chen%NULL%4,       Dali%Wang%NULL%2,       Ning%Liu%NULL%2,       Dong%Liu%NULL%2,       Gang%Chen%NULL%2,       Yongliang%Zhang%NULL%2,       Dou%Li%NULL%2,       Jianren%Li%NULL%2,       Huixin%Lian%NULL%2,       Shengmei%Niu%NULL%2,       Luxi%Zhang%NULL%2,       Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,       Mengqi%Tu%NULL%2,       Shipei%Wang%NULL%2,       Sichao%Chen%NULL%2,       Wei%Zhou%NULL%2,       Danyang%Chen%NULL%2,       Lin%Zhou%NULL%2,       Min%Wang%NULL%2,       Yan%Zhao%NULL%4,       Wen%Zeng%NULL%2,       Qi%Huang%NULL%2,       Hai'bo%Xu%NULL%2,       Zeming%Liu%NULL%2,       Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,       Chengcheng%Yu%NULL%2,       Jing%Qu%NULL%2,       Lieguang%Zhang%NULL%2,       Songfeng%Jiang%NULL%2,       Deyang%Huang%NULL%2,       Bihua%Chen%NULL%2,       Zhiping%Zhang%NULL%2,       Wanhua%Guan%NULL%2,       Zhoukun%Ling%NULL%2,       Rui%Jiang%NULL%2,       Tianli%Hu%NULL%2,       Yan%Ding%NULL%2,       Lin%Lin%NULL%2,       Qingxin%Gan%NULL%2,       Liangping%Luo%tluolp@jnu.edu.cn%2,       Xiaoping%Tang%xtang@21cn.com%2,       Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,       Zhao-Wu%Tao%NULL%1,       Lei%Wang%NULL%2,       Ming-Li%Yuan%NULL%3,       Kui%Liu%NULL%3,       Ling%Zhou%NULL%1,       Shuang%Wei%NULL%1,       Yan%Deng%NULL%0,       Jing%Liu%NULL%3,       Hui-Guo%Liu%NULL%0,       Ming%Yang%NULL%1,       Yi%Hu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,       Jiong%Wu%NULL%2,       Faqi%Wu%NULL%2,       Dajing%Guo%NULL%0,       Linli%Chen%NULL%0,       Zheng%Fang%NULL%0,       Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,       Jun%Liu%NULL%2,       Xinguo%Zhao%NULL%1,       Chengyuan%Liu%NULL%1,       Wei%Wang%NULL%4,       Dawei%Wang%NULL%1,       Wei%Xu%NULL%2,       Chunyu%Zhang%NULL%1,       Jiong%Yu%NULL%1,       Bin%Jiang%NULL%1,       Hongcui%Cao%hccao@zju.edu.cn%1,       Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,       Xiaorong%Hu%NULL%1,       Wenlin%Cheng%NULL%4,       Lei%Yu%NULL%4,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,       Qiang%Liu%liuqiang@irm-cams.ac.cn%5,       Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,       Kun%Yang%NULL%2,       Kun%Yang%NULL%0,       Wenxia%Wang%NULL%2,       Wenxia%Wang%NULL%0,       Lingyu%Jiang%NULL%2,       Lingyu%Jiang%NULL%0,       Jianxin%Song%songsingsjx@sina.com%2,       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,      Kun%Yang%NULL%11,      Kun%Yang%NULL%0,      Wenxia%Wang%NULL%10,      Wenxia%Wang%NULL%0,      Lingyu%Jiang%NULL%10,      Lingyu%Jiang%NULL%0,      Jianxin%Song%songsingsjx@sina.com%10,      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,       Meiwen%Tang%NULL%1,       Xiaobin%Zheng%NULL%1,       Ye%Liu%ly77219@163.com%1,       Xiaofeng%Li%zdwylxf@163.com%1,       Hong%Shan%shanhong@mail.sysu.edu.cn%7]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,       Dong%Sun%NULL%1,       Yao%Liu%NULL%1,       Yanqing%Fan%NULL%0,       Lingyun%Zhao%NULL%1,       Xiaoming%Li%NULL%1,       Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,      Dong%Sun%NULL%1,      Yao%Liu%NULL%1,      Yanqing%Fan%NULL%1,      Lingyun%Zhao%NULL%1,      Xiaoming%Li%NULL%2,      Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,       SaiBin%Wang%NULL%2,       SaiBin%Wang%NULL%0,       YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,      SaiBin%Wang%NULL%2,      SaiBin%Wang%NULL%0,      YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,       Ci%Song%NULL%1,       Chuanjun%Xu%NULL%1,       Guangfu%Jin%NULL%1,       Yaling%Chen%NULL%1,       Xin%Xu%NULL%3,       Hongxia%Ma%NULL%1,       Wei%Chen%NULL%2,       Yuan%Lin%NULL%1,       Yishan%Zheng%NULL%1,       Jianming%Wang%NULL%3,       Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,       Yongxiang%Yi%ian0126@126.com%1,       Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,       Yao%Tian%NULL%2,       Yao%Tian%NULL%0,       Jing%Zhou%NULL%2,       Xuan%Ma%NULL%1,       Min%Yang%NULL%1,       ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,      Yao%Tian%NULL%2,      Yao%Tian%NULL%0,      Jing%Zhou%NULL%2,      Xuan%Ma%NULL%1,      Min%Yang%NULL%1,      ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,       James%Fielding%NULL%1,       Michaela%Diercke%NULL%1,       Christine%Campese%NULL%1,       Vincent%Enouf%NULL%1,       Alexandre%Gaymard%NULL%1,       Antonino%Bella%NULL%1,       Paola%Sognamiglio%NULL%1,       Maria José%Sierra Moros%NULL%1,       Antonio Nicolau%Riutort%NULL%1,       Yulia V.%Demina%NULL%1,       Romain%Mahieu%NULL%1,       Markku%Broas%NULL%1,       Malin%Bengnér%NULL%1,       Silke%Buda%NULL%1,       Julia%Schilling%NULL%1,       Laurent%Filleul%NULL%1,       Agnès%Lepoutre%NULL%1,       Christine%Saura%NULL%1,       Alexandra%Mailles%NULL%1,       Daniel%Levy-Bruhl%NULL%1,       Bruno%Coignard%NULL%1,       Sibylle%Bernard-Stoecklin%NULL%1,       Sylvie%Behillil%NULL%1,       Sylvie%van der Werf%NULL%1,       Martine%Valette%NULL%1,       Bruno%Lina%NULL%1,       Flavia%Riccardo%NULL%1,       Emanuele%Nicastri%NULL%3,       Inmaculada%Casas%NULL%1,       Amparo%Larrauri%NULL%1,       Magdalena%Salom Castell%NULL%1,       Francisco%Pozo%NULL%1,       Rinat A.%Maksyutov%NULL%1,       Charlotte%Martin%NULL%1,       Marc%Van Ranst%NULL%3,       Nathalie%Bossuyt%NULL%1,       Lotta%Siira%NULL%1,       Jussi%Sane%NULL%1,       Karin%Tegmark-Wisell%NULL%1,       Maria%Palmérus%NULL%1,       Eeva K.%Broberg%NULL%1,       Julien%Beauté%NULL%1,       Pernille%Jorgensen%NULL%1,       Nick%Bundle%NULL%1,       Dmitriy%Pereyaslov%NULL%1,       Cornelia%Adlhoch%NULL%1,       Jukka%Pukkila%NULL%1,       Richard%Pebody%NULL%1,       Sonja%Olsen%NULL%1,       Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,       Yong-hua%Gao%NULL%1,       Li-Li%lou%NULL%1,       Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,       Huaqiao%Li%NULL%1,       Songtao%Huang%NULL%1,       Wei%You%NULL%1,       Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%3,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%4,       Jie%Xiang%NULL%7,       Yeming%Wang%NULL%0,       Bin%Song%NULL%4,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%3,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%4,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%3,       Yi%Zhang%NULL%4,       Hua%Chen%NULL%4,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%28,      Ronghui%Du%NULL%12,      Guohui%Fan%NULL%18,      Ying%Liu%NULL%16,      Zhibo%Liu%NULL%12,      Jie%Xiang%NULL%18,      Yeming%Wang%NULL%18,      Bin%Song%NULL%12,      Xiaoying%Gu%NULL%18,      Lulu%Guan%NULL%12,      Yuan%Wei%NULL%21,      Hui%Li%NULL%22,      Xudong%Wu%NULL%12,      Jiuyang%Xu%NULL%18,      Shengjin%Tu%NULL%12,      Yi%Zhang%NULL%13,      Hua%Chen%NULL%12,      Bin%Cao%NULL%19]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,       Ying%Chen%NULL%1,       Ruzheng%Lin%NULL%1,       Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,       Tangkai%Qi%NULL%1,       Li%Liu%NULL%1,       Yun%Ling%NULL%0,       Zhiping%Qian%NULL%1,       Tao%Li%NULL%1,       Feng%Li%NULL%1,       Qingnian%Xu%NULL%1,       Yuyi%Zhang%NULL%1,       Shuibao%Xu%NULL%1,       Zhigang%Song%NULL%1,       Yigang%Zeng%NULL%1,       Yinzhong%Shen%NULL%1,       Yuxin%Shi%NULL%0,       Tongyu%Zhu%NULL%2,       Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,       Feifei%Yao%NULL%1,       Lijie%Wang%NULL%1,       Ling%Zheng%NULL%1,       Yongjun%Gao%NULL%1,       Jun%Ye%NULL%1,       Feng%Guo%NULL%1,       Hui%Zhao%NULL%1,       Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,       Bin%Quan%NULL%1,       Xiaoning%Li%NULL%2,       Guangjian%Gao%NULL%1,       Wenqiang%Zheng%NULL%1,       Jun%Zhang%NULL%1,       Zhiyun%Zhang%NULL%1,       Chunsheng%Liu%NULL%1,       Li%Li%NULL%0,       Chenglin%Wang%NULL%1,       Guihua%Zhang%NULL%1,       Jiajia%Li%NULL%1,       Yunhai%Dai%NULL%1,       Jianghua%Yang%yjhpath@163.com%1,       Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,      Bin%Quan%NULL%1,      Xiaoning%Li%NULL%1,      Guangjian%Gao%NULL%1,      Wenqiang%Zheng%NULL%1,      Jun%Zhang%NULL%4,      Zhiyun%Zhang%NULL%1,      Chunsheng%Liu%NULL%1,      Li%Li%NULL%3,      Chenglin%Wang%NULL%1,      Guihua%Zhang%NULL%1,      Jiajia%Li%NULL%1,      Yunhai%Dai%NULL%1,      Jianghua%Yang%yjhpath@163.com%1,      Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,       Kai%Xie%NULL%4,       Kai%Xie%NULL%0,       Hui%Lu%NULL%2,       Lei%Xu%bayinhexl@126.com%3,       Shusheng%Zhou%zhouss108@163.com%2,       Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,      Kai%Xie%NULL%2,      Kai%Xie%NULL%0,      Hui%Lu%NULL%1,      Lei%Xu%bayinhexl@126.com%1,      Shusheng%Zhou%zhouss108@163.com%1,      Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,       Yuanyuan%Xing%NULL%2,       Yu%Xiao%NULL%2,       Liping%Deng%NULL%3,       Qiu%Zhao%NULL%2,       Hongling%Wang%NULL%2,       Yong%Xiong%NULL%4,       Zhenshun%Cheng%NULL%0,       Shicheng%Gao%NULL%3,       Ke%Liang%NULL%3,       Mingqi%Luo%NULL%3,       Tielong%Chen%NULL%2,       Shihui%Song%NULL%3,       Zhiyong%Ma%NULL%3,       Xiaoping%Chen%NULL%3,       Ruiying%Zheng%NULL%2,       Qian%Cao%NULL%2,       Fan%Wang%fanndywang@foxmail.com%2,       Yongxi%Zhang%znact1936@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,       Bohan%Yang%NULL%2,       Qianwen%Li%NULL%2,       Lu%Wen%NULL%2,       Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,       Yingxia%Liu%NULL%1,       Lei%Liu%NULL%9,       Xianfeng%Wang%NULL%1,       Nijuan%Luo%NULL%1,       Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,      Yingxia%Liu%NULL%1,      Lei%Liu%NULL%14,      Xianfeng%Wang%NULL%1,      Nijuan%Luo%NULL%1,      Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,       N -B%Yang%NULL%1,       F%Ding%NULL%1,       A H Y%Ma%NULL%1,       Z -Y%Wang%NULL%2,       Y -F%Shen%NULL%1,       C -W%Shi%NULL%1,       X%Lian%NULL%1,       J -G%Chu%NULL%1,       L%Chen%chxmin@hotmail.com%1,       Z -Y%Wang%NULL%0,       D -W%Ren%NULL%1,       G -X%Li%NULL%1,       X -Q%Chen%chxmin@hotmail.com%1,       H -J%Shen%NULL%1,       X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,       Tuantuan%Li%NULL%1,       Mingfeng%Han%NULL%1,       Xiuyong%Li%NULL%1,       Dong%Wu%NULL%1,       Yuanhong%Xu%NULL%3,       Yulin%Zhu%NULL%1,       Yan%Liu%NULL%2,       Xiaowu%Wang%wangxiaowu19880218@126.com%1,       Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,      Tuantuan%Li%NULL%3,      Mingfeng%Han%NULL%5,      Xiuyong%Li%NULL%3,      Dong%Wu%NULL%3,      Yuanhong%Xu%NULL%3,      Yulin%Zhu%NULL%3,      Yan%Liu%NULL%3,      Xiaowu%Wang%wangxiaowu19880218@126.com%3,      Linding%Wang%wanglinding@ahmu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,        Yeming%Wang%NULL%7,        Xingwang%Li%NULL%4,        Lili%Ren%NULL%3,        Jianping%Zhao%NULL%8,        Yi%Hu%NULL%8,        Li%Zhang%NULL%8,        Guohui%Fan%NULL%7,        Jiuyang%Xu%NULL%7,        Xiaoying%Gu%NULL%7,        Zhenshun%Cheng%NULL%5,        Ting%Yu%NULL%12,        Jiaan%Xia%NULL%4,        Yuan%Wei%NULL%10,        Wenjuan%Wu%NULL%3,        Xuelei%Xie%NULL%4,        Wen%Yin%NULL%7,        Hui%Li%NULL%8,        Min%Liu%NULL%3,        Yan%Xiao%NULL%4,        Hong%Gao%NULL%4,        Li%Guo%NULL%5,        Jungang%Xie%NULL%4,        Guangfa%Wang%NULL%3,        Rongmeng%Jiang%NULL%3,        Zhancheng%Gao%NULL%3,        Qi%Jin%NULL%4,        Jianwei%Wang%wangjw28@163.com%3,        Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,        Shuofeng%Yuan%NULL%2,        Kin-Hang%Kok%NULL%2,        Kelvin Kai-Wang%To%NULL%2,        Hin%Chu%NULL%2,        Jin%Yang%NULL%2,        Fanfan%Xing%NULL%2,        Jieling%Liu%NULL%2,        Cyril Chik-Yan%Yip%NULL%3,        Rosana Wing-Shan%Poon%NULL%3,        Hoi-Wah%Tsoi%NULL%2,        Simon Kam-Fai%Lo%NULL%2,        Kwok-Hung%Chan%NULL%4,        Vincent Kwok-Man%Poon%NULL%2,        Wan-Mui%Chan%NULL%3,        Jonathan Daniel%Ip%NULL%3,        Jian-Piao%Cai%NULL%3,        Vincent Chi-Chung%Cheng%NULL%3,        Honglin%Chen%NULL%3,        Christopher Kim-Ming%Hui%NULL%2,        Kwok-Yung%Yuen%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,        Xuhua%Guan%NULL%1,        Peng%Wu%NULL%1,        Xiaoye%Wang%NULL%1,        Lei%Zhou%NULL%1,        Yeqing%Tong%NULL%1,        Ruiqi%Ren%NULL%1,        Kathy S.M.%Leung%NULL%1,        Eric H.Y.%Lau%NULL%1,        Jessica Y.%Wong%NULL%1,        Xuesen%Xing%NULL%1,        Nijuan%Xiang%NULL%1,        Yang%Wu%NULL%1,        Chao%Li%NULL%1,        Qi%Chen%NULL%1,        Dan%Li%NULL%1,        Tian%Liu%NULL%1,        Jing%Zhao%NULL%1,        Man%Liu%NULL%1,        Wenxiao%Tu%NULL%1,        Chuding%Chen%NULL%1,        Lianmei%Jin%NULL%1,        Rui%Yang%NULL%1,        Qi%Wang%NULL%1,        Suhua%Zhou%NULL%1,        Rui%Wang%NULL%1,        Hui%Liu%NULL%1,        Yinbo%Luo%NULL%1,        Yuan%Liu%NULL%1,        Ge%Shao%NULL%1,        Huan%Li%NULL%1,        Zhongfa%Tao%NULL%1,        Yang%Yang%NULL%2,        Zhiqiang%Deng%NULL%1,        Boxi%Liu%NULL%1,        Zhitao%Ma%NULL%1,        Yanping%Zhang%NULL%1,        Guoqing%Shi%NULL%1,        Tommy T.Y.%Lam%NULL%1,        Joseph T.%Wu%NULL%1,        George F.%Gao%NULL%1,        Benjamin J.%Cowling%NULL%1,        Bo%Yang%NULL%2,        Bo%Yang%NULL%0,        Gabriel M.%Leung%NULL%3,        Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,        Min%Zhou%NULL%4,        Xuan%Dong%NULL%4,        Jieming%Qu%NULL%8,        Fengyun%Gong%NULL%4,        Yang%Han%NULL%3,        Yang%Qiu%NULL%3,        Jingli%Wang%NULL%4,        Ying%Liu%NULL%7,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%5,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%3,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,        Nannan%Shi%NULL%3,        Nannan%Shi%NULL%0,        Fei%Shan%NULL%2,        Zhiyong%Zhang%NULL%2,        Jie%Shen%NULL%1,        Hongzhou%Lu%NULL%5,        Yun%Ling%NULL%5,        Yebin%Jiang%NULL%2,        Yebin%Jiang%NULL%0,        Yuxin%Shi%shiyuxin@shphc.org.cn%4,        Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,    Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,        Yuan-Yuan%Fang%NULL%2,        Yan%Deng%NULL%3,        Wei%Liu%NULL%3,        Mei-Fang%Wang%NULL%2,        Jing-Ping%Ma%NULL%2,        Wei%Xiao%NULL%2,        Ying-Nan%Wang%NULL%2,        Min-Hua%Zhong%NULL%2,        Cheng-Hong%Li%NULL%2,        Guang-Cai%Li%NULL%2,        Hui-Guo%Liu%NULL%3,        Xiu-Yuan%Hao%NULL%6,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,      Yang%Yang%null%5,      Cong%Zhang%null%4,      Fengming%Huang%null%2,      Fuxiang%Wang%null%2,      Jing%Yuan%null%4,      Zhaoqin%Wang%null%3,      Jinxiu%Li%null%2,      Jianming%Li%null%2,      Cheng%Feng%null%2,      Zheng%Zhang%null%4,      Lifei%Wang%null%3,      Ling%Peng%null%2,      Li%Chen%null%4,      Yuhao%Qin%null%2,      Dandan%Zhao%null%2,      Shuguang%Tan%null%2,      Lu%Yin%null%4,      Jun%Xu%null%2,      Congzhao%Zhou%null%2,      Chengyu%Jiang%null%2,      Lei%Liu%null%13]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,        Ye-Ming%Wang%NULL%1,        Zhi-Qiang%Wu%NULL%1,        Zi-Chun%Xiang%NULL%1,        Li%Guo%NULL%0,        Teng%Xu%NULL%1,        Yong-Zhong%Jiang%NULL%1,        Yan%Xiong%NULL%1,        Yong-Jun%Li%NULL%1,        Xing-Wang%Li%NULL%1,        Hui%Li%NULL%0,        Guo-Hui%Fan%NULL%1,        Xiao-Ying%Gu%NULL%1,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Jiu-Yang%Xu%NULL%1,        Fan%Yang%NULL%1,        Xin-Ming%Wang%NULL%1,        Chao%Wu%NULL%3,        Lan%Chen%NULL%1,        Yi-Wei%Liu%NULL%1,        Bo%Liu%NULL%2,        Jian%Yang%NULL%1,        Xiao-Rui%Wang%NULL%1,        Jie%Dong%NULL%1,        Li%Li%NULL%5,        Chao-Lin%Huang%NULL%1,        Jian-Ping%Zhao%NULL%1,        Yi%Hu%NULL%0,        Zhen-Shun%Cheng%NULL%1,        Lin-Lin%Liu%NULL%1,        Zhao-Hui%Qian%NULL%1,        Chuan%Qin%NULL%1,        Qi%Jin%NULL%0,        Bin%Cao%NULL%0,        Jian-Wei%Wang%NULL%1,        Xiu-Yuan%Hao%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,        Dengju%Li%NULL%1,        Xiong%Wang%NULL%1,        Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,    Cao%Yi-yuan%coreGivesNoEmail%4,    Dong%Xiang%coreGivesNoEmail%4,    Gao%Ya-dong%coreGivesNoEmail%4,    Yan%You-qin%coreGivesNoEmail%4,    Yang%Yi-bin%coreGivesNoEmail%4,    Yuan%Ya-dong%coreGivesNoEmail%4,    Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,        Xiao-Xin%Wu%NULL%2,        Xian-Gao%Jiang%NULL%2,        Kai-Jin%Xu%NULL%2,        Ling-Jun%Ying%NULL%2,        Chun-Lian%Ma%NULL%2,        Shi-Bo%Li%NULL%2,        Hua-Ying%Wang%NULL%2,        Sheng%Zhang%NULL%2,        Hai-Nv%Gao%NULL%2,        Ji-Fang%Sheng%NULL%2,        Hong-Liu%Cai%NULL%2,        Yun-Qing%Qiu%NULL%2,        Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,        Xiaojia%Wu%NULL%1,        Wenbing%Zeng%NULL%1,        Dajing%Guo%NULL%3,        Zheng%Fang%NULL%3,        Linli%Chen%NULL%3,        Huizhe%Huang%NULL%1,        Chuanming%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,        Valerie%Wong%NULL%1,        Vivian Wan In%Wei%NULL%1,        Samuel Yeung Shan%Wong%NULL%1,        Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,        Xiaoyu%Han%NULL%1,        Nanchuan%Jiang%NULL%1,        Yukun%Cao%NULL%1,        Osamah%Alwalid%NULL%1,        Jin%Gu%NULL%1,        Yanqing%Fan%1024932023@qq.com%2,        Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,        Jing-Hui%Dong%NULL%2,        Wei-Min%An%NULL%2,        Xiao-Yan%Lv%15001008285@139.com%2,        Xiao-Ping%Yin%yinxiaoping78@sina.com%2,        Jian-Zeng%Zhang%NULL%2,        Li%Dong%NULL%2,        Xi%Ma%NULL%2,        Hong-Jie%Zhang%NULL%2,        Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,        Zhenlu%Yang%NULL%2,        Zhenlu%Yang%NULL%0,        Hongyan%Hou%NULL%2,        Hongyan%Hou%NULL%0,        Chenao%Zhan%NULL%1,        Chong%Chen%NULL%1,        Wenzhi%Lv%NULL%2,        Wenzhi%Lv%NULL%0,        Qian%Tao%NULL%2,        Qian%Tao%NULL%0,        Ziyong%Sun%NULL%0,        Ziyong%Sun%NULL%0,        Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,        Qiqi%Cao%NULL%3,        Le%Qin%NULL%3,        Xiaoyang%Wang%NULL%3,        Zenghui%Cheng%NULL%3,        Ashan%Pan%NULL%3,        Jianyi%Dai%NULL%3,        Qingfeng%Sun%NULL%3,        Fengquan%Zhao%NULL%3,        Jieming%Qu%NULL%0,        Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,        Nan%Hu%NULL%2,        Jing%Lou%NULL%2,        Kun%Chen%NULL%2,        Xuqin%Kang%NULL%2,        Zhenjun%Xiang%NULL%2,        Hui%Chen%NULL%4,        Dali%Wang%NULL%2,        Ning%Liu%NULL%2,        Dong%Liu%NULL%2,        Gang%Chen%NULL%2,        Yongliang%Zhang%NULL%2,        Dou%Li%NULL%2,        Jianren%Li%NULL%2,        Huixin%Lian%NULL%2,        Shengmei%Niu%NULL%2,        Luxi%Zhang%NULL%2,        Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,        Mengqi%Tu%NULL%2,        Shipei%Wang%NULL%2,        Sichao%Chen%NULL%2,        Wei%Zhou%NULL%2,        Danyang%Chen%NULL%2,        Lin%Zhou%NULL%2,        Min%Wang%NULL%2,        Yan%Zhao%NULL%4,        Wen%Zeng%NULL%2,        Qi%Huang%NULL%2,        Hai'bo%Xu%NULL%2,        Zeming%Liu%NULL%2,        Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,        Chengcheng%Yu%NULL%2,        Jing%Qu%NULL%2,        Lieguang%Zhang%NULL%2,        Songfeng%Jiang%NULL%2,        Deyang%Huang%NULL%2,        Bihua%Chen%NULL%2,        Zhiping%Zhang%NULL%2,        Wanhua%Guan%NULL%2,        Zhoukun%Ling%NULL%2,        Rui%Jiang%NULL%2,        Tianli%Hu%NULL%2,        Yan%Ding%NULL%2,        Lin%Lin%NULL%2,        Qingxin%Gan%NULL%2,        Liangping%Luo%tluolp@jnu.edu.cn%2,        Xiaoping%Tang%xtang@21cn.com%2,        Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,        Zhao-Wu%Tao%NULL%1,        Lei%Wang%NULL%2,        Ming-Li%Yuan%NULL%3,        Kui%Liu%NULL%3,        Ling%Zhou%NULL%1,        Shuang%Wei%NULL%1,        Yan%Deng%NULL%0,        Jing%Liu%NULL%3,        Hui-Guo%Liu%NULL%0,        Ming%Yang%NULL%1,        Yi%Hu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,        Jiong%Wu%NULL%2,        Faqi%Wu%NULL%2,        Dajing%Guo%NULL%0,        Linli%Chen%NULL%0,        Zheng%Fang%NULL%0,        Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,        Jun%Liu%NULL%2,        Xinguo%Zhao%NULL%1,        Chengyuan%Liu%NULL%1,        Wei%Wang%NULL%4,        Dawei%Wang%NULL%1,        Wei%Xu%NULL%2,        Chunyu%Zhang%NULL%1,        Jiong%Yu%NULL%1,        Bin%Jiang%NULL%1,        Hongcui%Cao%hccao@zju.edu.cn%1,        Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,        Xiaorong%Hu%NULL%1,        Wenlin%Cheng%NULL%4,        Lei%Yu%NULL%4,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,        Qiang%Liu%liuqiang@irm-cams.ac.cn%5,        Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,        Kun%Yang%NULL%2,        Kun%Yang%NULL%0,        Wenxia%Wang%NULL%2,        Wenxia%Wang%NULL%0,        Lingyu%Jiang%NULL%2,        Lingyu%Jiang%NULL%0,        Jianxin%Song%songsingsjx@sina.com%2,        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,       Kun%Yang%NULL%11,       Kun%Yang%NULL%0,       Wenxia%Wang%NULL%10,       Wenxia%Wang%NULL%0,       Lingyu%Jiang%NULL%10,       Lingyu%Jiang%NULL%0,       Jianxin%Song%songsingsjx@sina.com%10,       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,        Meiwen%Tang%NULL%1,        Xiaobin%Zheng%NULL%1,        Ye%Liu%ly77219@163.com%1,        Xiaofeng%Li%zdwylxf@163.com%1,        Hong%Shan%shanhong@mail.sysu.edu.cn%7]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,        Dong%Sun%NULL%1,        Yao%Liu%NULL%1,        Yanqing%Fan%NULL%0,        Lingyun%Zhao%NULL%1,        Xiaoming%Li%NULL%1,        Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,       Dong%Sun%NULL%1,       Yao%Liu%NULL%1,       Yanqing%Fan%NULL%1,       Lingyun%Zhao%NULL%1,       Xiaoming%Li%NULL%2,       Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,        SaiBin%Wang%NULL%2,        SaiBin%Wang%NULL%0,        YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,       SaiBin%Wang%NULL%2,       SaiBin%Wang%NULL%0,       YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,        Ci%Song%NULL%1,        Chuanjun%Xu%NULL%1,        Guangfu%Jin%NULL%1,        Yaling%Chen%NULL%1,        Xin%Xu%NULL%3,        Hongxia%Ma%NULL%1,        Wei%Chen%NULL%2,        Yuan%Lin%NULL%1,        Yishan%Zheng%NULL%1,        Jianming%Wang%NULL%3,        Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,        Yongxiang%Yi%ian0126@126.com%1,        Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,        Yao%Tian%NULL%2,        Yao%Tian%NULL%0,        Jing%Zhou%NULL%2,        Xuan%Ma%NULL%1,        Min%Yang%NULL%1,        ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,       Yao%Tian%NULL%2,       Yao%Tian%NULL%0,       Jing%Zhou%NULL%2,       Xuan%Ma%NULL%1,       Min%Yang%NULL%1,       ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,        James%Fielding%NULL%1,        Michaela%Diercke%NULL%1,        Christine%Campese%NULL%1,        Vincent%Enouf%NULL%1,        Alexandre%Gaymard%NULL%1,        Antonino%Bella%NULL%1,        Paola%Sognamiglio%NULL%1,        Maria José%Sierra Moros%NULL%1,        Antonio Nicolau%Riutort%NULL%1,        Yulia V.%Demina%NULL%1,        Romain%Mahieu%NULL%1,        Markku%Broas%NULL%1,        Malin%Bengnér%NULL%1,        Silke%Buda%NULL%1,        Julia%Schilling%NULL%1,        Laurent%Filleul%NULL%1,        Agnès%Lepoutre%NULL%1,        Christine%Saura%NULL%1,        Alexandra%Mailles%NULL%1,        Daniel%Levy-Bruhl%NULL%1,        Bruno%Coignard%NULL%1,        Sibylle%Bernard-Stoecklin%NULL%1,        Sylvie%Behillil%NULL%1,        Sylvie%van der Werf%NULL%1,        Martine%Valette%NULL%1,        Bruno%Lina%NULL%1,        Flavia%Riccardo%NULL%1,        Emanuele%Nicastri%NULL%3,        Inmaculada%Casas%NULL%1,        Amparo%Larrauri%NULL%1,        Magdalena%Salom Castell%NULL%1,        Francisco%Pozo%NULL%1,        Rinat A.%Maksyutov%NULL%1,        Charlotte%Martin%NULL%1,        Marc%Van Ranst%NULL%3,        Nathalie%Bossuyt%NULL%1,        Lotta%Siira%NULL%1,        Jussi%Sane%NULL%1,        Karin%Tegmark-Wisell%NULL%1,        Maria%Palmérus%NULL%1,        Eeva K.%Broberg%NULL%1,        Julien%Beauté%NULL%1,        Pernille%Jorgensen%NULL%1,        Nick%Bundle%NULL%1,        Dmitriy%Pereyaslov%NULL%1,        Cornelia%Adlhoch%NULL%1,        Jukka%Pukkila%NULL%1,        Richard%Pebody%NULL%1,        Sonja%Olsen%NULL%1,        Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,        Yong-hua%Gao%NULL%1,        Li-Li%lou%NULL%1,        Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,        Huaqiao%Li%NULL%1,        Songtao%Huang%NULL%1,        Wei%You%NULL%1,        Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%3,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%4,        Jie%Xiang%NULL%7,        Yeming%Wang%NULL%0,        Bin%Song%NULL%4,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%3,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%4,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%3,        Yi%Zhang%NULL%4,        Hua%Chen%NULL%4,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%28,       Ronghui%Du%NULL%12,       Guohui%Fan%NULL%18,       Ying%Liu%NULL%16,       Zhibo%Liu%NULL%12,       Jie%Xiang%NULL%18,       Yeming%Wang%NULL%18,       Bin%Song%NULL%12,       Xiaoying%Gu%NULL%18,       Lulu%Guan%NULL%12,       Yuan%Wei%NULL%21,       Hui%Li%NULL%22,       Xudong%Wu%NULL%12,       Jiuyang%Xu%NULL%18,       Shengjin%Tu%NULL%12,       Yi%Zhang%NULL%13,       Hua%Chen%NULL%12,       Bin%Cao%NULL%19]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,        Ying%Chen%NULL%1,        Ruzheng%Lin%NULL%1,        Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,        Tangkai%Qi%NULL%1,        Li%Liu%NULL%1,        Yun%Ling%NULL%0,        Zhiping%Qian%NULL%1,        Tao%Li%NULL%1,        Feng%Li%NULL%1,        Qingnian%Xu%NULL%1,        Yuyi%Zhang%NULL%1,        Shuibao%Xu%NULL%1,        Zhigang%Song%NULL%1,        Yigang%Zeng%NULL%1,        Yinzhong%Shen%NULL%1,        Yuxin%Shi%NULL%0,        Tongyu%Zhu%NULL%2,        Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,        Feifei%Yao%NULL%1,        Lijie%Wang%NULL%1,        Ling%Zheng%NULL%1,        Yongjun%Gao%NULL%1,        Jun%Ye%NULL%1,        Feng%Guo%NULL%1,        Hui%Zhao%NULL%1,        Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,        Bin%Quan%NULL%1,        Xiaoning%Li%NULL%2,        Guangjian%Gao%NULL%1,        Wenqiang%Zheng%NULL%1,        Jun%Zhang%NULL%1,        Zhiyun%Zhang%NULL%1,        Chunsheng%Liu%NULL%1,        Li%Li%NULL%0,        Chenglin%Wang%NULL%1,        Guihua%Zhang%NULL%1,        Jiajia%Li%NULL%1,        Yunhai%Dai%NULL%1,        Jianghua%Yang%yjhpath@163.com%1,        Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,       Bin%Quan%NULL%1,       Xiaoning%Li%NULL%1,       Guangjian%Gao%NULL%1,       Wenqiang%Zheng%NULL%1,       Jun%Zhang%NULL%4,       Zhiyun%Zhang%NULL%1,       Chunsheng%Liu%NULL%1,       Li%Li%NULL%3,       Chenglin%Wang%NULL%1,       Guihua%Zhang%NULL%1,       Jiajia%Li%NULL%1,       Yunhai%Dai%NULL%1,       Jianghua%Yang%yjhpath@163.com%1,       Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,        Kai%Xie%NULL%4,        Kai%Xie%NULL%0,        Hui%Lu%NULL%2,        Lei%Xu%bayinhexl@126.com%3,        Shusheng%Zhou%zhouss108@163.com%2,        Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,       Kai%Xie%NULL%2,       Kai%Xie%NULL%0,       Hui%Lu%NULL%1,       Lei%Xu%bayinhexl@126.com%1,       Shusheng%Zhou%zhouss108@163.com%1,       Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,        Yuanyuan%Xing%NULL%2,        Yu%Xiao%NULL%2,        Liping%Deng%NULL%3,        Qiu%Zhao%NULL%2,        Hongling%Wang%NULL%2,        Yong%Xiong%NULL%4,        Zhenshun%Cheng%NULL%0,        Shicheng%Gao%NULL%3,        Ke%Liang%NULL%3,        Mingqi%Luo%NULL%3,        Tielong%Chen%NULL%2,        Shihui%Song%NULL%3,        Zhiyong%Ma%NULL%3,        Xiaoping%Chen%NULL%3,        Ruiying%Zheng%NULL%2,        Qian%Cao%NULL%2,        Fan%Wang%fanndywang@foxmail.com%2,        Yongxi%Zhang%znact1936@126.com%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,        Bohan%Yang%NULL%2,        Qianwen%Li%NULL%2,        Lu%Wen%NULL%2,        Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,        Yingxia%Liu%NULL%1,        Lei%Liu%NULL%9,        Xianfeng%Wang%NULL%1,        Nijuan%Luo%NULL%1,        Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,       Yingxia%Liu%NULL%1,       Lei%Liu%NULL%14,       Xianfeng%Wang%NULL%1,       Nijuan%Luo%NULL%1,       Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,        N -B%Yang%NULL%1,        F%Ding%NULL%1,        A H Y%Ma%NULL%1,        Z -Y%Wang%NULL%2,        Y -F%Shen%NULL%1,        C -W%Shi%NULL%1,        X%Lian%NULL%1,        J -G%Chu%NULL%1,        L%Chen%chxmin@hotmail.com%1,        Z -Y%Wang%NULL%0,        D -W%Ren%NULL%1,        G -X%Li%NULL%1,        X -Q%Chen%chxmin@hotmail.com%1,        H -J%Shen%NULL%1,        X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,        Tuantuan%Li%NULL%1,        Mingfeng%Han%NULL%1,        Xiuyong%Li%NULL%1,        Dong%Wu%NULL%1,        Yuanhong%Xu%NULL%3,        Yulin%Zhu%NULL%1,        Yan%Liu%NULL%2,        Xiaowu%Wang%wangxiaowu19880218@126.com%1,        Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,       Tuantuan%Li%NULL%3,       Mingfeng%Han%NULL%5,       Xiuyong%Li%NULL%3,       Dong%Wu%NULL%3,       Yuanhong%Xu%NULL%3,       Yulin%Zhu%NULL%3,       Yan%Liu%NULL%3,       Xiaowu%Wang%wangxiaowu19880218@126.com%3,       Linding%Wang%wanglinding@ahmu.edu.cn%3]</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2852,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>578</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -2179,7 +2881,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>579</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -2208,7 +2910,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>580</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -2237,7 +2939,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>581</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -2266,7 +2968,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>582</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -2289,19 +2991,19 @@
         <v>43868</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>583</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>419</v>
       </c>
       <c r="H7" t="s">
         <v>69</v>
@@ -2324,7 +3026,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>584</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -2382,7 +3084,7 @@
         <v>362</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>585</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -2411,7 +3113,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>586</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -2440,7 +3142,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>587</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -2463,19 +3165,19 @@
         <v>43880</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>424</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>588</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>419</v>
       </c>
       <c r="H13" t="s">
         <v>69</v>
@@ -2498,7 +3200,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>367</v>
+        <v>589</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -2527,7 +3229,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>368</v>
+        <v>590</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -2556,7 +3258,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>369</v>
+        <v>591</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -2585,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>370</v>
+        <v>592</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -2614,7 +3316,7 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>371</v>
+        <v>593</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -2643,7 +3345,7 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>372</v>
+        <v>594</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -2672,7 +3374,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>595</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -2701,7 +3403,7 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -2730,7 +3432,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -2759,7 +3461,7 @@
         <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>376</v>
+        <v>598</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -2788,7 +3490,7 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>599</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -2817,7 +3519,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>379</v>
+        <v>600</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -2846,7 +3548,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>380</v>
+        <v>601</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -2875,7 +3577,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>381</v>
+        <v>602</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -2904,7 +3606,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>382</v>
+        <v>603</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -2933,7 +3635,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>383</v>
+        <v>604</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -2962,7 +3664,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>384</v>
+        <v>605</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -2991,7 +3693,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>385</v>
+        <v>606</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3020,7 +3722,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>386</v>
+        <v>607</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -3049,7 +3751,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>387</v>
+        <v>608</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -3078,7 +3780,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>388</v>
+        <v>609</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -3107,7 +3809,7 @@
         <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>389</v>
+        <v>610</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -3136,7 +3838,7 @@
         <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>390</v>
+        <v>611</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -3165,7 +3867,7 @@
         <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>391</v>
+        <v>612</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -3194,7 +3896,7 @@
         <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>392</v>
+        <v>613</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
@@ -3223,7 +3925,7 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>393</v>
+        <v>614</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -3252,7 +3954,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>394</v>
+        <v>615</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -3281,7 +3983,7 @@
         <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>395</v>
+        <v>616</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -3310,7 +4012,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>396</v>
+        <v>617</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -3339,7 +4041,7 @@
         <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>397</v>
+        <v>618</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -3368,7 +4070,7 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>398</v>
+        <v>619</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -3397,7 +4099,7 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>399</v>
+        <v>620</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -3426,7 +4128,7 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>400</v>
+        <v>621</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -3455,7 +4157,7 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>401</v>
+        <v>622</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -3484,7 +4186,7 @@
         <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>402</v>
+        <v>623</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -3513,7 +4215,7 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>403</v>
+        <v>624</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -3542,7 +4244,7 @@
         <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>404</v>
+        <v>625</v>
       </c>
       <c r="F50" t="s">
         <v>91</v>
@@ -3571,7 +4273,7 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>405</v>
+        <v>626</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -3600,7 +4302,7 @@
         <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>406</v>
+        <v>627</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -3629,7 +4331,7 @@
         <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>407</v>
+        <v>628</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -3658,7 +4360,7 @@
         <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>408</v>
+        <v>629</v>
       </c>
       <c r="F54" t="s">
         <v>91</v>
@@ -3687,7 +4389,7 @@
         <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>409</v>
+        <v>630</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -3716,7 +4418,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>410</v>
+        <v>631</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="745">
   <si>
     <t>Doi</t>
   </si>
@@ -2512,6 +2512,345 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,       Tuantuan%Li%NULL%3,       Mingfeng%Han%NULL%5,       Xiuyong%Li%NULL%3,       Dong%Wu%NULL%3,       Yuanhong%Xu%NULL%3,       Yulin%Zhu%NULL%3,       Yan%Liu%NULL%3,       Xiaowu%Wang%wangxiaowu19880218@126.com%3,       Linding%Wang%wanglinding@ahmu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,         Yeming%Wang%NULL%18,         Xingwang%Li%NULL%8,         Lili%Ren%NULL%7,         Jianping%Zhao%NULL%16,         Yi%Hu%NULL%16,         Li%Zhang%NULL%14,         Guohui%Fan%NULL%18,         Jiuyang%Xu%NULL%18,         Xiaoying%Gu%NULL%18,         Zhenshun%Cheng%NULL%11,         Ting%Yu%NULL%30,         Jiaan%Xia%NULL%8,         Yuan%Wei%NULL%23,         Wenjuan%Wu%NULL%7,         Xuelei%Xie%NULL%8,         Wen%Yin%NULL%11,         Hui%Li%NULL%20,         Min%Liu%NULL%7,         Yan%Xiao%NULL%8,         Hong%Gao%NULL%8,         Li%Guo%NULL%9,         Jungang%Xie%NULL%9,         Guangfa%Wang%NULL%7,         Rongmeng%Jiang%NULL%7,         Zhancheng%Gao%NULL%7,         Qi%Jin%NULL%8,         Jianwei%Wang%wangjw28@163.com%7,         Bin%Cao%caobin_ben@163.com%18]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,         Shuofeng%Yuan%NULL%2,         Kin-Hang%Kok%NULL%2,         Kelvin Kai-Wang%To%NULL%2,         Hin%Chu%NULL%2,         Jin%Yang%NULL%2,         Fanfan%Xing%NULL%2,         Jieling%Liu%NULL%2,         Cyril Chik-Yan%Yip%NULL%3,         Rosana Wing-Shan%Poon%NULL%3,         Hoi-Wah%Tsoi%NULL%2,         Simon Kam-Fai%Lo%NULL%2,         Kwok-Hung%Chan%NULL%3,         Vincent Kwok-Man%Poon%NULL%2,         Wan-Mui%Chan%NULL%3,         Jonathan Daniel%Ip%NULL%3,         Jian-Piao%Cai%NULL%3,         Vincent Chi-Chung%Cheng%NULL%3,         Honglin%Chen%NULL%3,         Christopher Kim-Ming%Hui%NULL%2,         Kwok-Yung%Yuen%NULL%10]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,         Xuhua%Guan%NULL%1,         Peng%Wu%NULL%1,         Xiaoye%Wang%NULL%1,         Lei%Zhou%NULL%1,         Yeqing%Tong%NULL%1,         Ruiqi%Ren%NULL%1,         Kathy S.M.%Leung%NULL%1,         Eric H.Y.%Lau%NULL%1,         Jessica Y.%Wong%NULL%1,         Xuesen%Xing%NULL%1,         Nijuan%Xiang%NULL%1,         Yang%Wu%NULL%1,         Chao%Li%NULL%1,         Qi%Chen%NULL%1,         Dan%Li%NULL%1,         Tian%Liu%NULL%1,         Jing%Zhao%NULL%1,         Man%Liu%NULL%1,         Wenxiao%Tu%NULL%1,         Chuding%Chen%NULL%1,         Lianmei%Jin%NULL%1,         Rui%Yang%NULL%1,         Qi%Wang%NULL%2,         Suhua%Zhou%NULL%1,         Rui%Wang%NULL%1,         Hui%Liu%NULL%1,         Yinbo%Luo%NULL%1,         Yuan%Liu%NULL%1,         Ge%Shao%NULL%1,         Huan%Li%NULL%4,         Zhongfa%Tao%NULL%1,         Yang%Yang%NULL%3,         Zhiqiang%Deng%NULL%1,         Boxi%Liu%NULL%1,         Zhitao%Ma%NULL%1,         Yanping%Zhang%NULL%1,         Guoqing%Shi%NULL%1,         Tommy T.Y.%Lam%NULL%1,         Joseph T.%Wu%NULL%1,         George F.%Gao%NULL%1,         Benjamin J.%Cowling%NULL%1,         Bo%Yang%NULL%5,         Bo%Yang%NULL%0,         Gabriel M.%Leung%NULL%1,         Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,         Min%Zhou%NULL%8,         Xuan%Dong%NULL%6,         Jieming%Qu%NULL%12,         Fengyun%Gong%NULL%6,         Yang%Han%NULL%5,         Yang%Qiu%NULL%5,         Jingli%Wang%NULL%6,         Ying%Liu%NULL%16,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%12,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%5,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,         Nannan%Shi%NULL%3,         Nannan%Shi%NULL%0,         Fei%Shan%NULL%2,         Zhiyong%Zhang%NULL%2,         Jie%Shen%NULL%1,         Hongzhou%Lu%NULL%8,         Yun%Ling%NULL%9,         Yebin%Jiang%NULL%2,         Yebin%Jiang%NULL%0,         Yuxin%Shi%shiyuxin@shphc.org.cn%5,         Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,     Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,         Yuan-Yuan%Fang%NULL%5,         Yan%Deng%NULL%5,         Wei%Liu%NULL%7,         Mei-Fang%Wang%NULL%2,         Jing-Ping%Ma%NULL%2,         Wei%Xiao%NULL%2,         Ying-Nan%Wang%NULL%2,         Min-Hua%Zhong%NULL%2,         Cheng-Hong%Li%NULL%2,         Guang-Cai%Li%NULL%2,         Hui-Guo%Liu%NULL%8,         Xiu-Yuan%Hao%NULL%6,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%15]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic and Clinical Characteristics of Novel Coronavirus Infections Involving 13 Patients Outside Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2, Minggui%Lin%xref no email%2, Lai%Wei%xref no email%2, Lixin%Xie%xref no email%2, Guangfa%Zhu%xref no email%2, Charles S.%Dela Cruz%xref no email%2, Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,       Yang%Yang%null%5,       Cong%Zhang%null%3,       Fengming%Huang%null%2,       Fuxiang%Wang%null%2,       Jing%Yuan%null%3,       Zhaoqin%Wang%null%3,       Jinxiu%Li%null%2,       Jianming%Li%null%2,       Cheng%Feng%null%2,       Zheng%Zhang%null%3,       Lifei%Wang%null%2,       Ling%Peng%null%2,       Li%Chen%null%4,       Yuhao%Qin%null%2,       Dandan%Zhao%null%2,       Shuguang%Tan%null%2,       Lu%Yin%null%3,       Jun%Xu%null%2,       Congzhao%Zhou%null%2,       Chengyu%Jiang%null%2,       Lei%Liu%null%10]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,         Ye-Ming%Wang%NULL%1,         Zhi-Qiang%Wu%NULL%1,         Zi-Chun%Xiang%NULL%1,         Li%Guo%NULL%0,         Teng%Xu%NULL%1,         Yong-Zhong%Jiang%NULL%1,         Yan%Xiong%NULL%5,         Yong-Jun%Li%NULL%1,         Xing-Wang%Li%NULL%1,         Hui%Li%NULL%0,         Guo-Hui%Fan%NULL%1,         Xiao-Ying%Gu%NULL%1,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Jiu-Yang%Xu%NULL%1,         Fan%Yang%NULL%4,         Xin-Ming%Wang%NULL%1,         Chao%Wu%NULL%3,         Lan%Chen%NULL%1,         Yi-Wei%Liu%NULL%1,         Bo%Liu%NULL%2,         Jian%Yang%NULL%1,         Xiao-Rui%Wang%NULL%1,         Jie%Dong%NULL%1,         Li%Li%NULL%5,         Chao-Lin%Huang%NULL%1,         Jian-Ping%Zhao%NULL%1,         Yi%Hu%NULL%0,         Zhen-Shun%Cheng%NULL%1,         Lin-Lin%Liu%NULL%1,         Zhao-Hui%Qian%NULL%1,         Chuan%Qin%NULL%1,         Qi%Jin%NULL%0,         Bin%Cao%NULL%0,         Jian-Wei%Wang%NULL%1,         Xiu-Yuan%Hao%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,         Dengju%Li%NULL%2,         Xiong%Wang%NULL%4,         Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,     Cao%Yi-yuan%coreGivesNoEmail%4,     Dong%Xiang%coreGivesNoEmail%4,     Gao%Ya-dong%coreGivesNoEmail%4,     Yan%You-qin%coreGivesNoEmail%4,     Yang%Yi-bin%coreGivesNoEmail%4,     Yuan%Ya-dong%coreGivesNoEmail%4,     Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,         Xiao-Xin%Wu%NULL%3,         Xian-Gao%Jiang%NULL%3,         Kai-Jin%Xu%NULL%3,         Ling-Jun%Ying%NULL%3,         Chun-Lian%Ma%NULL%3,         Shi-Bo%Li%NULL%3,         Hua-Ying%Wang%NULL%3,         Sheng%Zhang%NULL%3,         Hai-Nv%Gao%NULL%3,         Ji-Fang%Sheng%NULL%3,         Hong-Liu%Cai%NULL%3,         Yun-Qing%Qiu%NULL%3,         Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,         Xiaojia%Wu%NULL%1,         Wenbing%Zeng%NULL%1,         Dajing%Guo%NULL%4,         Zheng%Fang%NULL%4,         Linli%Chen%NULL%4,         Huizhe%Huang%NULL%1,         Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,         Valerie%Wong%NULL%1,         Vivian Wan In%Wei%NULL%1,         Samuel Yeung Shan%Wong%NULL%1,         Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,         Xiaoyu%Han%NULL%1,         Nanchuan%Jiang%NULL%1,         Yukun%Cao%NULL%1,         Osamah%Alwalid%NULL%1,         Jin%Gu%NULL%1,         Yanqing%Fan%1024932023@qq.com%2,         Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,         Jing-Hui%Dong%NULL%2,         Wei-Min%An%NULL%2,         Xiao-Yan%Lv%15001008285@139.com%2,         Xiao-Ping%Yin%yinxiaoping78@sina.com%2,         Jian-Zeng%Zhang%NULL%2,         Li%Dong%NULL%2,         Xi%Ma%NULL%2,         Hong-Jie%Zhang%NULL%2,         Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,         Zhenlu%Yang%NULL%2,         Zhenlu%Yang%NULL%0,         Hongyan%Hou%NULL%2,         Hongyan%Hou%NULL%0,         Chenao%Zhan%NULL%1,         Chong%Chen%NULL%1,         Wenzhi%Lv%NULL%2,         Wenzhi%Lv%NULL%0,         Qian%Tao%NULL%2,         Qian%Tao%NULL%0,         Ziyong%Sun%NULL%0,         Ziyong%Sun%NULL%0,         Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%5,         Qiqi%Cao%NULL%3,         Le%Qin%NULL%3,         Xiaoyang%Wang%NULL%3,         Zenghui%Cheng%NULL%3,         Ashan%Pan%NULL%3,         Jianyi%Dai%NULL%3,         Qingfeng%Sun%NULL%3,         Fengquan%Zhao%NULL%3,         Jieming%Qu%NULL%0,         Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,         Nan%Hu%NULL%2,         Jing%Lou%NULL%2,         Kun%Chen%NULL%2,         Xuqin%Kang%NULL%2,         Zhenjun%Xiang%NULL%2,         Hui%Chen%NULL%4,         Dali%Wang%NULL%2,         Ning%Liu%NULL%2,         Dong%Liu%NULL%2,         Gang%Chen%NULL%2,         Yongliang%Zhang%NULL%2,         Dou%Li%NULL%2,         Jianren%Li%NULL%2,         Huixin%Lian%NULL%2,         Shengmei%Niu%NULL%2,         Luxi%Zhang%NULL%2,         Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,         Mengqi%Tu%NULL%3,         Shipei%Wang%NULL%3,         Sichao%Chen%NULL%3,         Wei%Zhou%NULL%5,         Danyang%Chen%NULL%3,         Lin%Zhou%NULL%3,         Min%Wang%NULL%3,         Yan%Zhao%NULL%5,         Wen%Zeng%NULL%3,         Qi%Huang%NULL%3,         Hai'bo%Xu%NULL%3,         Zeming%Liu%NULL%3,         Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,         Chengcheng%Yu%NULL%2,         Jing%Qu%NULL%2,         Lieguang%Zhang%NULL%2,         Songfeng%Jiang%NULL%2,         Deyang%Huang%NULL%2,         Bihua%Chen%NULL%2,         Zhiping%Zhang%NULL%2,         Wanhua%Guan%NULL%2,         Zhoukun%Ling%NULL%2,         Rui%Jiang%NULL%2,         Tianli%Hu%NULL%2,         Yan%Ding%NULL%2,         Lin%Lin%NULL%2,         Qingxin%Gan%NULL%2,         Liangping%Luo%tluolp@jnu.edu.cn%2,         Xiaoping%Tang%xtang@21cn.com%2,         Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%9,         Zhao-Wu%Tao%NULL%3,         Lei%Wang%NULL%4,         Ming-Li%Yuan%NULL%5,         Kui%Liu%NULL%8,         Ling%Zhou%NULL%6,         Shuang%Wei%NULL%6,         Yan%Deng%NULL%0,         Jing%Liu%NULL%5,         Hui-Guo%Liu%NULL%0,         Ming%Yang%NULL%4,         Yi%Hu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,         Jiong%Wu%NULL%3,         Faqi%Wu%NULL%3,         Dajing%Guo%NULL%0,         Linli%Chen%NULL%0,         Zheng%Fang%NULL%0,         Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,         Jun%Liu%NULL%3,         Xinguo%Zhao%NULL%1,         Chengyuan%Liu%NULL%1,         Wei%Wang%NULL%6,         Dawei%Wang%NULL%1,         Wei%Xu%NULL%2,         Chunyu%Zhang%NULL%1,         Jiong%Yu%NULL%1,         Bin%Jiang%NULL%1,         Hongcui%Cao%hccao@zju.edu.cn%1,         Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,         Xiaorong%Hu%NULL%2,         Wenlin%Cheng%NULL%8,         Lei%Yu%NULL%8,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%8,         Qiang%Liu%liuqiang@irm-cams.ac.cn%10,         Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,         Kun%Yang%NULL%10,         Kun%Yang%NULL%0,         Wenxia%Wang%NULL%10,         Wenxia%Wang%NULL%0,         Lingyu%Jiang%NULL%10,         Lingyu%Jiang%NULL%0,         Jianxin%Song%songsingsjx@sina.com%10,         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,        Kun%Yang%NULL%3,        Kun%Yang%NULL%0,        Wenxia%Wang%NULL%2,        Wenxia%Wang%NULL%0,        Lingyu%Jiang%NULL%2,        Lingyu%Jiang%NULL%0,        Jianxin%Song%songsingsjx@sina.com%2,        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,         Meiwen%Tang%NULL%1,         Xiaobin%Zheng%NULL%1,         Ye%Liu%ly77219@163.com%1,         Xiaofeng%Li%zdwylxf@163.com%1,         Hong%Shan%shanhong@mail.sysu.edu.cn%14]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,         Dong%Sun%NULL%1,         Yao%Liu%NULL%1,         Yanqing%Fan%NULL%0,         Lingyun%Zhao%NULL%1,         Xiaoming%Li%NULL%1,         Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,        Dong%Sun%NULL%1,        Yao%Liu%NULL%1,        Yanqing%Fan%NULL%1,        Lingyun%Zhao%NULL%1,        Xiaoming%Li%NULL%2,        Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,         SaiBin%Wang%NULL%2,         SaiBin%Wang%NULL%0,         YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,        SaiBin%Wang%NULL%2,        SaiBin%Wang%NULL%0,        YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,         Ci%Song%NULL%1,         Chuanjun%Xu%NULL%1,         Guangfu%Jin%NULL%1,         Yaling%Chen%NULL%1,         Xin%Xu%NULL%4,         Hongxia%Ma%NULL%1,         Wei%Chen%NULL%3,         Yuan%Lin%NULL%1,         Yishan%Zheng%NULL%1,         Jianming%Wang%NULL%5,         Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,         Yongxiang%Yi%ian0126@126.com%1,         Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,         Yao%Tian%NULL%2,         Yao%Tian%NULL%0,         Jing%Zhou%NULL%2,         Xuan%Ma%NULL%1,         Min%Yang%NULL%1,         ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,        Yao%Tian%NULL%2,        Yao%Tian%NULL%0,        Jing%Zhou%NULL%2,        Xuan%Ma%NULL%1,        Min%Yang%NULL%1,        ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,         James%Fielding%NULL%1,         Michaela%Diercke%NULL%1,         Christine%Campese%NULL%1,         Vincent%Enouf%NULL%1,         Alexandre%Gaymard%NULL%1,         Antonino%Bella%NULL%1,         Paola%Sognamiglio%NULL%1,         Maria José%Sierra Moros%NULL%1,         Antonio Nicolau%Riutort%NULL%1,         Yulia V.%Demina%NULL%1,         Romain%Mahieu%NULL%1,         Markku%Broas%NULL%1,         Malin%Bengnér%NULL%1,         Silke%Buda%NULL%1,         Julia%Schilling%NULL%1,         Laurent%Filleul%NULL%1,         Agnès%Lepoutre%NULL%1,         Christine%Saura%NULL%1,         Alexandra%Mailles%NULL%1,         Daniel%Levy-Bruhl%NULL%1,         Bruno%Coignard%NULL%1,         Sibylle%Bernard-Stoecklin%NULL%1,         Sylvie%Behillil%NULL%1,         Sylvie%van der Werf%NULL%1,         Martine%Valette%NULL%1,         Bruno%Lina%NULL%1,         Flavia%Riccardo%NULL%1,         Emanuele%Nicastri%NULL%4,         Inmaculada%Casas%NULL%1,         Amparo%Larrauri%NULL%1,         Magdalena%Salom Castell%NULL%1,         Francisco%Pozo%NULL%1,         Rinat A.%Maksyutov%NULL%1,         Charlotte%Martin%NULL%1,         Marc%Van Ranst%NULL%3,         Nathalie%Bossuyt%NULL%1,         Lotta%Siira%NULL%1,         Jussi%Sane%NULL%1,         Karin%Tegmark-Wisell%NULL%1,         Maria%Palmérus%NULL%1,         Eeva K.%Broberg%NULL%1,         Julien%Beauté%NULL%2,         Pernille%Jorgensen%NULL%1,         Nick%Bundle%NULL%2,         Dmitriy%Pereyaslov%NULL%1,         Cornelia%Adlhoch%NULL%1,         Jukka%Pukkila%NULL%1,         Richard%Pebody%NULL%1,         Sonja%Olsen%NULL%1,         Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,         Yong-hua%Gao%NULL%1,         Li-Li%lou%NULL%1,         Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,         Huaqiao%Li%NULL%1,         Songtao%Huang%NULL%1,         Wei%You%NULL%1,         Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%10,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%11,         Jie%Xiang%NULL%18,         Yeming%Wang%NULL%0,         Bin%Song%NULL%11,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%10,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%11,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%10,         Yi%Zhang%NULL%11,         Hua%Chen%NULL%11,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%16,        Ronghui%Du%NULL%7,        Guohui%Fan%NULL%10,        Ying%Liu%NULL%9,        Zhibo%Liu%NULL%7,        Jie%Xiang%NULL%10,        Yeming%Wang%NULL%10,        Bin%Song%NULL%7,        Xiaoying%Gu%NULL%10,        Lulu%Guan%NULL%7,        Yuan%Wei%NULL%11,        Hui%Li%NULL%14,        Xudong%Wu%NULL%7,        Jiuyang%Xu%NULL%10,        Shengjin%Tu%NULL%7,        Yi%Zhang%NULL%8,        Hua%Chen%NULL%7,        Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,         Ying%Chen%NULL%1,         Ruzheng%Lin%NULL%1,         Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%5,         Tangkai%Qi%NULL%2,         Li%Liu%NULL%2,         Yun%Ling%NULL%0,         Zhiping%Qian%NULL%2,         Tao%Li%NULL%3,         Feng%Li%NULL%2,         Qingnian%Xu%NULL%2,         Yuyi%Zhang%NULL%2,         Shuibao%Xu%NULL%2,         Zhigang%Song%NULL%2,         Yigang%Zeng%NULL%2,         Yinzhong%Shen%NULL%2,         Yuxin%Shi%NULL%0,         Tongyu%Zhu%NULL%3,         Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,         Feifei%Yao%NULL%1,         Lijie%Wang%NULL%1,         Ling%Zheng%NULL%1,         Yongjun%Gao%NULL%1,         Jun%Ye%NULL%1,         Feng%Guo%NULL%1,         Hui%Zhao%NULL%1,         Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,         Bin%Quan%NULL%1,         Xiaoning%Li%NULL%2,         Guangjian%Gao%NULL%1,         Wenqiang%Zheng%NULL%1,         Jun%Zhang%NULL%1,         Zhiyun%Zhang%NULL%1,         Chunsheng%Liu%NULL%1,         Li%Li%NULL%0,         Chenglin%Wang%NULL%1,         Guihua%Zhang%NULL%1,         Jiajia%Li%NULL%1,         Yunhai%Dai%NULL%1,         Jianghua%Yang%yjhpath@163.com%1,         Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,        Bin%Quan%NULL%1,        Xiaoning%Li%NULL%2,        Guangjian%Gao%NULL%1,        Wenqiang%Zheng%NULL%1,        Jun%Zhang%NULL%5,        Zhiyun%Zhang%NULL%1,        Chunsheng%Liu%NULL%1,        Li%Li%NULL%4,        Chenglin%Wang%NULL%1,        Guihua%Zhang%NULL%1,        Jiajia%Li%NULL%1,        Yunhai%Dai%NULL%1,        Jianghua%Yang%yjhpath@163.com%1,        Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,         Kai%Xie%NULL%4,         Kai%Xie%NULL%0,         Hui%Lu%NULL%2,         Lei%Xu%bayinhexl@126.com%3,         Shusheng%Zhou%zhouss108@163.com%2,         Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,        Kai%Xie%NULL%2,        Kai%Xie%NULL%0,        Hui%Lu%NULL%1,        Lei%Xu%bayinhexl@126.com%1,        Shusheng%Zhou%zhouss108@163.com%1,        Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,         Yuanyuan%Xing%NULL%4,         Yu%Xiao%NULL%4,         Liping%Deng%NULL%5,         Qiu%Zhao%NULL%4,         Hongling%Wang%NULL%4,         Yong%Xiong%NULL%6,         Zhenshun%Cheng%NULL%0,         Shicheng%Gao%NULL%5,         Ke%Liang%NULL%5,         Mingqi%Luo%NULL%5,         Tielong%Chen%NULL%4,         Shihui%Song%NULL%5,         Zhiyong%Ma%NULL%5,         Xiaoping%Chen%NULL%5,         Ruiying%Zheng%NULL%4,         Qian%Cao%NULL%4,         Fan%Wang%fanndywang@foxmail.com%4,         Yongxi%Zhang%znact1936@126.com%7]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,         Bohan%Yang%NULL%4,         Qianwen%Li%NULL%4,         Lu%Wen%NULL%4,         Ruiguang%Zhang%zrg27@163.com%4]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,         Yingxia%Liu%NULL%1,         Lei%Liu%NULL%17,         Xianfeng%Wang%NULL%1,         Nijuan%Luo%NULL%1,         Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,        Yingxia%Liu%NULL%2,        Lei%Liu%NULL%9,        Xianfeng%Wang%NULL%1,        Nijuan%Luo%NULL%1,        Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,         N -B%Yang%NULL%2,         F%Ding%NULL%2,         A H Y%Ma%NULL%2,         Z -Y%Wang%NULL%4,         Y -F%Shen%NULL%2,         C -W%Shi%NULL%2,         X%Lian%NULL%2,         J -G%Chu%NULL%2,         L%Chen%chxmin@hotmail.com%2,         Z -Y%Wang%NULL%0,         D -W%Ren%NULL%2,         G -X%Li%NULL%2,         X -Q%Chen%chxmin@hotmail.com%2,         H -J%Shen%NULL%2,         X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,         Tuantuan%Li%NULL%2,         Mingfeng%Han%NULL%2,         Xiuyong%Li%NULL%2,         Dong%Wu%NULL%2,         Yuanhong%Xu%NULL%4,         Yulin%Zhu%NULL%2,         Yan%Liu%NULL%3,         Xiaowu%Wang%wangxiaowu19880218@126.com%2,         Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,        Tuantuan%Li%NULL%2,        Mingfeng%Han%NULL%6,        Xiuyong%Li%NULL%2,        Dong%Wu%NULL%2,        Yuanhong%Xu%NULL%2,        Yulin%Zhu%NULL%2,        Yan%Liu%NULL%2,        Xiaowu%Wang%wangxiaowu19880218@126.com%2,        Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,          Yeming%Wang%NULL%18,          Xingwang%Li%NULL%8,          Lili%Ren%NULL%7,          Jianping%Zhao%NULL%16,          Yi%Hu%NULL%16,          Li%Zhang%NULL%14,          Guohui%Fan%NULL%18,          Jiuyang%Xu%NULL%18,          Xiaoying%Gu%NULL%18,          Zhenshun%Cheng%NULL%11,          Ting%Yu%NULL%30,          Jiaan%Xia%NULL%8,          Yuan%Wei%NULL%23,          Wenjuan%Wu%NULL%7,          Xuelei%Xie%NULL%8,          Wen%Yin%NULL%11,          Hui%Li%NULL%20,          Min%Liu%NULL%7,          Yan%Xiao%NULL%8,          Hong%Gao%NULL%8,          Li%Guo%NULL%9,          Jungang%Xie%NULL%9,          Guangfa%Wang%NULL%7,          Rongmeng%Jiang%NULL%7,          Zhancheng%Gao%NULL%7,          Qi%Jin%NULL%8,          Jianwei%Wang%wangjw28@163.com%7,          Bin%Cao%caobin_ben@163.com%18]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,          Shuofeng%Yuan%NULL%2,          Kin-Hang%Kok%NULL%2,          Kelvin Kai-Wang%To%NULL%2,          Hin%Chu%NULL%2,          Jin%Yang%NULL%2,          Fanfan%Xing%NULL%2,          Jieling%Liu%NULL%2,          Cyril Chik-Yan%Yip%NULL%3,          Rosana Wing-Shan%Poon%NULL%3,          Hoi-Wah%Tsoi%NULL%2,          Simon Kam-Fai%Lo%NULL%2,          Kwok-Hung%Chan%NULL%3,          Vincent Kwok-Man%Poon%NULL%2,          Wan-Mui%Chan%NULL%3,          Jonathan Daniel%Ip%NULL%3,          Jian-Piao%Cai%NULL%3,          Vincent Chi-Chung%Cheng%NULL%3,          Honglin%Chen%NULL%3,          Christopher Kim-Ming%Hui%NULL%2,          Kwok-Yung%Yuen%NULL%10]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,          Xuhua%Guan%NULL%1,          Peng%Wu%NULL%1,          Xiaoye%Wang%NULL%1,          Lei%Zhou%NULL%1,          Yeqing%Tong%NULL%1,          Ruiqi%Ren%NULL%1,          Kathy S.M.%Leung%NULL%1,          Eric H.Y.%Lau%NULL%1,          Jessica Y.%Wong%NULL%1,          Xuesen%Xing%NULL%1,          Nijuan%Xiang%NULL%1,          Yang%Wu%NULL%1,          Chao%Li%NULL%1,          Qi%Chen%NULL%1,          Dan%Li%NULL%1,          Tian%Liu%NULL%1,          Jing%Zhao%NULL%1,          Man%Liu%NULL%1,          Wenxiao%Tu%NULL%1,          Chuding%Chen%NULL%1,          Lianmei%Jin%NULL%1,          Rui%Yang%NULL%1,          Qi%Wang%NULL%2,          Suhua%Zhou%NULL%1,          Rui%Wang%NULL%1,          Hui%Liu%NULL%1,          Yinbo%Luo%NULL%1,          Yuan%Liu%NULL%1,          Ge%Shao%NULL%1,          Huan%Li%NULL%4,          Zhongfa%Tao%NULL%1,          Yang%Yang%NULL%3,          Zhiqiang%Deng%NULL%1,          Boxi%Liu%NULL%1,          Zhitao%Ma%NULL%1,          Yanping%Zhang%NULL%1,          Guoqing%Shi%NULL%1,          Tommy T.Y.%Lam%NULL%1,          Joseph T.%Wu%NULL%1,          George F.%Gao%NULL%1,          Benjamin J.%Cowling%NULL%1,          Bo%Yang%NULL%5,          Bo%Yang%NULL%0,          Gabriel M.%Leung%NULL%1,          Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,          Min%Zhou%NULL%8,          Xuan%Dong%NULL%6,          Jieming%Qu%NULL%12,          Fengyun%Gong%NULL%6,          Yang%Han%NULL%5,          Yang%Qiu%NULL%5,          Jingli%Wang%NULL%6,          Ying%Liu%NULL%16,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%12,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%5,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,          Nannan%Shi%NULL%3,          Nannan%Shi%NULL%0,          Fei%Shan%NULL%2,          Zhiyong%Zhang%NULL%2,          Jie%Shen%NULL%1,          Hongzhou%Lu%NULL%8,          Yun%Ling%NULL%9,          Yebin%Jiang%NULL%2,          Yebin%Jiang%NULL%0,          Yuxin%Shi%shiyuxin@shphc.org.cn%5,          Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,      Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,          Yuan-Yuan%Fang%NULL%5,          Yan%Deng%NULL%5,          Wei%Liu%NULL%7,          Mei-Fang%Wang%NULL%2,          Jing-Ping%Ma%NULL%2,          Wei%Xiao%NULL%2,          Ying-Nan%Wang%NULL%2,          Min-Hua%Zhong%NULL%2,          Cheng-Hong%Li%NULL%2,          Guang-Cai%Li%NULL%2,          Hui-Guo%Liu%NULL%8,          Xiu-Yuan%Hao%NULL%6,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%15]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,  Minggui%Lin%xref no email%2,  Lai%Wei%xref no email%2,  Lixin%Xie%xref no email%2,  Guangfa%Zhu%xref no email%2,  Charles S.%Dela Cruz%xref no email%2,  Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%2,        Yang%Yang%null%5,        Cong%Zhang%null%3,        Fengming%Huang%null%2,        Fuxiang%Wang%null%2,        Jing%Yuan%null%3,        Zhaoqin%Wang%null%3,        Jinxiu%Li%null%2,        Jianming%Li%null%2,        Cheng%Feng%null%2,        Zheng%Zhang%null%3,        Lifei%Wang%null%2,        Ling%Peng%null%2,        Li%Chen%null%4,        Yuhao%Qin%null%2,        Dandan%Zhao%null%2,        Shuguang%Tan%null%2,        Lu%Yin%null%3,        Jun%Xu%null%2,        Congzhao%Zhou%null%2,        Chengyu%Jiang%null%2,        Lei%Liu%null%10]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,          Ye-Ming%Wang%NULL%1,          Zhi-Qiang%Wu%NULL%1,          Zi-Chun%Xiang%NULL%1,          Li%Guo%NULL%0,          Teng%Xu%NULL%1,          Yong-Zhong%Jiang%NULL%1,          Yan%Xiong%NULL%5,          Yong-Jun%Li%NULL%1,          Xing-Wang%Li%NULL%1,          Hui%Li%NULL%0,          Guo-Hui%Fan%NULL%1,          Xiao-Ying%Gu%NULL%1,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Jiu-Yang%Xu%NULL%1,          Fan%Yang%NULL%4,          Xin-Ming%Wang%NULL%1,          Chao%Wu%NULL%3,          Lan%Chen%NULL%1,          Yi-Wei%Liu%NULL%1,          Bo%Liu%NULL%2,          Jian%Yang%NULL%1,          Xiao-Rui%Wang%NULL%1,          Jie%Dong%NULL%1,          Li%Li%NULL%5,          Chao-Lin%Huang%NULL%1,          Jian-Ping%Zhao%NULL%1,          Yi%Hu%NULL%0,          Zhen-Shun%Cheng%NULL%1,          Lin-Lin%Liu%NULL%1,          Zhao-Hui%Qian%NULL%1,          Chuan%Qin%NULL%1,          Qi%Jin%NULL%0,          Bin%Cao%NULL%0,          Jian-Wei%Wang%NULL%1,          Xiu-Yuan%Hao%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,          Dengju%Li%NULL%2,          Xiong%Wang%NULL%4,          Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,      Cao%Yi-yuan%coreGivesNoEmail%4,      Dong%Xiang%coreGivesNoEmail%4,      Gao%Ya-dong%coreGivesNoEmail%4,      Yan%You-qin%coreGivesNoEmail%4,      Yang%Yi-bin%coreGivesNoEmail%4,      Yuan%Ya-dong%coreGivesNoEmail%4,      Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,          Xiao-Xin%Wu%NULL%3,          Xian-Gao%Jiang%NULL%3,          Kai-Jin%Xu%NULL%3,          Ling-Jun%Ying%NULL%3,          Chun-Lian%Ma%NULL%3,          Shi-Bo%Li%NULL%3,          Hua-Ying%Wang%NULL%3,          Sheng%Zhang%NULL%3,          Hai-Nv%Gao%NULL%3,          Ji-Fang%Sheng%NULL%3,          Hong-Liu%Cai%NULL%3,          Yun-Qing%Qiu%NULL%3,          Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,          Xiaojia%Wu%NULL%1,          Wenbing%Zeng%NULL%1,          Dajing%Guo%NULL%4,          Zheng%Fang%NULL%4,          Linli%Chen%NULL%4,          Huizhe%Huang%NULL%1,          Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,          Valerie%Wong%NULL%1,          Vivian Wan In%Wei%NULL%1,          Samuel Yeung Shan%Wong%NULL%1,          Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,          Xiaoyu%Han%NULL%1,          Nanchuan%Jiang%NULL%1,          Yukun%Cao%NULL%1,          Osamah%Alwalid%NULL%1,          Jin%Gu%NULL%1,          Yanqing%Fan%1024932023@qq.com%2,          Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,          Jing-Hui%Dong%NULL%2,          Wei-Min%An%NULL%2,          Xiao-Yan%Lv%15001008285@139.com%2,          Xiao-Ping%Yin%yinxiaoping78@sina.com%2,          Jian-Zeng%Zhang%NULL%2,          Li%Dong%NULL%2,          Xi%Ma%NULL%2,          Hong-Jie%Zhang%NULL%2,          Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,          Zhenlu%Yang%NULL%2,          Zhenlu%Yang%NULL%0,          Hongyan%Hou%NULL%2,          Hongyan%Hou%NULL%0,          Chenao%Zhan%NULL%1,          Chong%Chen%NULL%1,          Wenzhi%Lv%NULL%2,          Wenzhi%Lv%NULL%0,          Qian%Tao%NULL%2,          Qian%Tao%NULL%0,          Ziyong%Sun%NULL%0,          Ziyong%Sun%NULL%0,          Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,          Qiqi%Cao%NULL%3,          Le%Qin%NULL%3,          Xiaoyang%Wang%NULL%3,          Zenghui%Cheng%NULL%3,          Ashan%Pan%NULL%3,          Jianyi%Dai%NULL%3,          Qingfeng%Sun%NULL%3,          Fengquan%Zhao%NULL%3,          Jieming%Qu%NULL%0,          Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,          Nan%Hu%NULL%2,          Jing%Lou%NULL%2,          Kun%Chen%NULL%2,          Xuqin%Kang%NULL%2,          Zhenjun%Xiang%NULL%2,          Hui%Chen%NULL%4,          Dali%Wang%NULL%2,          Ning%Liu%NULL%2,          Dong%Liu%NULL%2,          Gang%Chen%NULL%2,          Yongliang%Zhang%NULL%2,          Dou%Li%NULL%2,          Jianren%Li%NULL%2,          Huixin%Lian%NULL%2,          Shengmei%Niu%NULL%2,          Luxi%Zhang%NULL%2,          Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,          Mengqi%Tu%NULL%3,          Shipei%Wang%NULL%3,          Sichao%Chen%NULL%3,          Wei%Zhou%NULL%5,          Danyang%Chen%NULL%3,          Lin%Zhou%NULL%3,          Min%Wang%NULL%3,          Yan%Zhao%NULL%5,          Wen%Zeng%NULL%3,          Qi%Huang%NULL%3,          Hai'bo%Xu%NULL%3,          Zeming%Liu%NULL%3,          Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,          Chengcheng%Yu%NULL%2,          Jing%Qu%NULL%2,          Lieguang%Zhang%NULL%2,          Songfeng%Jiang%NULL%2,          Deyang%Huang%NULL%2,          Bihua%Chen%NULL%2,          Zhiping%Zhang%NULL%2,          Wanhua%Guan%NULL%2,          Zhoukun%Ling%NULL%2,          Rui%Jiang%NULL%2,          Tianli%Hu%NULL%2,          Yan%Ding%NULL%2,          Lin%Lin%NULL%2,          Qingxin%Gan%NULL%2,          Liangping%Luo%tluolp@jnu.edu.cn%2,          Xiaoping%Tang%xtang@21cn.com%2,          Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,          Zhao-Wu%Tao%NULL%3,          Lei%Wang%NULL%4,          Ming-Li%Yuan%NULL%5,          Kui%Liu%NULL%8,          Ling%Zhou%NULL%6,          Shuang%Wei%NULL%6,          Yan%Deng%NULL%0,          Jing%Liu%NULL%5,          Hui-Guo%Liu%NULL%0,          Ming%Yang%NULL%4,          Yi%Hu%NULL%0,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,          Jiong%Wu%NULL%3,          Faqi%Wu%NULL%3,          Dajing%Guo%NULL%0,          Linli%Chen%NULL%0,          Zheng%Fang%NULL%0,          Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,          Jun%Liu%NULL%3,          Xinguo%Zhao%NULL%1,          Chengyuan%Liu%NULL%1,          Wei%Wang%NULL%6,          Dawei%Wang%NULL%1,          Wei%Xu%NULL%2,          Chunyu%Zhang%NULL%1,          Jiong%Yu%NULL%1,          Bin%Jiang%NULL%1,          Hongcui%Cao%hccao@zju.edu.cn%1,          Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,          Xiaorong%Hu%NULL%2,          Wenlin%Cheng%NULL%8,          Lei%Yu%NULL%8,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%8,          Qiang%Liu%liuqiang@irm-cams.ac.cn%10,          Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,          Kun%Yang%NULL%10,          Kun%Yang%NULL%0,          Wenxia%Wang%NULL%10,          Wenxia%Wang%NULL%0,          Lingyu%Jiang%NULL%10,          Lingyu%Jiang%NULL%0,          Jianxin%Song%songsingsjx@sina.com%10,          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,         Kun%Yang%NULL%3,         Kun%Yang%NULL%0,         Wenxia%Wang%NULL%2,         Wenxia%Wang%NULL%0,         Lingyu%Jiang%NULL%2,         Lingyu%Jiang%NULL%0,         Jianxin%Song%songsingsjx@sina.com%2,         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,          Meiwen%Tang%NULL%1,          Xiaobin%Zheng%NULL%1,          Ye%Liu%ly77219@163.com%1,          Xiaofeng%Li%zdwylxf@163.com%1,          Hong%Shan%shanhong@mail.sysu.edu.cn%14]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,          Dong%Sun%NULL%1,          Yao%Liu%NULL%1,          Yanqing%Fan%NULL%0,          Lingyun%Zhao%NULL%1,          Xiaoming%Li%NULL%1,          Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,         Dong%Sun%NULL%1,         Yao%Liu%NULL%1,         Yanqing%Fan%NULL%1,         Lingyun%Zhao%NULL%1,         Xiaoming%Li%NULL%2,         Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,          SaiBin%Wang%NULL%2,          SaiBin%Wang%NULL%0,          YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,         SaiBin%Wang%NULL%2,         SaiBin%Wang%NULL%0,         YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,          Ci%Song%NULL%1,          Chuanjun%Xu%NULL%1,          Guangfu%Jin%NULL%1,          Yaling%Chen%NULL%1,          Xin%Xu%NULL%4,          Hongxia%Ma%NULL%1,          Wei%Chen%NULL%3,          Yuan%Lin%NULL%1,          Yishan%Zheng%NULL%1,          Jianming%Wang%NULL%5,          Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,          Yongxiang%Yi%ian0126@126.com%1,          Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,          Yao%Tian%NULL%2,          Yao%Tian%NULL%0,          Jing%Zhou%NULL%2,          Xuan%Ma%NULL%1,          Min%Yang%NULL%1,          ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,         Yao%Tian%NULL%2,         Yao%Tian%NULL%0,         Jing%Zhou%NULL%2,         Xuan%Ma%NULL%1,         Min%Yang%NULL%1,         ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,          James%Fielding%NULL%1,          Michaela%Diercke%NULL%1,          Christine%Campese%NULL%1,          Vincent%Enouf%NULL%1,          Alexandre%Gaymard%NULL%1,          Antonino%Bella%NULL%1,          Paola%Sognamiglio%NULL%1,          Maria José%Sierra Moros%NULL%1,          Antonio Nicolau%Riutort%NULL%1,          Yulia V.%Demina%NULL%1,          Romain%Mahieu%NULL%1,          Markku%Broas%NULL%1,          Malin%Bengnér%NULL%1,          Silke%Buda%NULL%1,          Julia%Schilling%NULL%1,          Laurent%Filleul%NULL%1,          Agnès%Lepoutre%NULL%1,          Christine%Saura%NULL%1,          Alexandra%Mailles%NULL%1,          Daniel%Levy-Bruhl%NULL%1,          Bruno%Coignard%NULL%1,          Sibylle%Bernard-Stoecklin%NULL%1,          Sylvie%Behillil%NULL%1,          Sylvie%van der Werf%NULL%1,          Martine%Valette%NULL%1,          Bruno%Lina%NULL%1,          Flavia%Riccardo%NULL%1,          Emanuele%Nicastri%NULL%4,          Inmaculada%Casas%NULL%1,          Amparo%Larrauri%NULL%1,          Magdalena%Salom Castell%NULL%1,          Francisco%Pozo%NULL%1,          Rinat A.%Maksyutov%NULL%1,          Charlotte%Martin%NULL%1,          Marc%Van Ranst%NULL%3,          Nathalie%Bossuyt%NULL%1,          Lotta%Siira%NULL%1,          Jussi%Sane%NULL%1,          Karin%Tegmark-Wisell%NULL%1,          Maria%Palmérus%NULL%1,          Eeva K.%Broberg%NULL%1,          Julien%Beauté%NULL%2,          Pernille%Jorgensen%NULL%1,          Nick%Bundle%NULL%2,          Dmitriy%Pereyaslov%NULL%1,          Cornelia%Adlhoch%NULL%1,          Jukka%Pukkila%NULL%1,          Richard%Pebody%NULL%1,          Sonja%Olsen%NULL%1,          Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,          Yong-hua%Gao%NULL%1,          Li-Li%lou%NULL%1,          Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,          Huaqiao%Li%NULL%1,          Songtao%Huang%NULL%1,          Wei%You%NULL%1,          Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%10,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%11,          Jie%Xiang%NULL%18,          Yeming%Wang%NULL%0,          Bin%Song%NULL%11,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%10,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%11,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%10,          Yi%Zhang%NULL%11,          Hua%Chen%NULL%11,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%16,         Ronghui%Du%NULL%7,         Guohui%Fan%NULL%10,         Ying%Liu%NULL%9,         Zhibo%Liu%NULL%7,         Jie%Xiang%NULL%10,         Yeming%Wang%NULL%10,         Bin%Song%NULL%7,         Xiaoying%Gu%NULL%10,         Lulu%Guan%NULL%7,         Yuan%Wei%NULL%11,         Hui%Li%NULL%14,         Xudong%Wu%NULL%7,         Jiuyang%Xu%NULL%10,         Shengjin%Tu%NULL%7,         Yi%Zhang%NULL%8,         Hua%Chen%NULL%7,         Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,          Ying%Chen%NULL%1,          Ruzheng%Lin%NULL%1,          Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,          Tangkai%Qi%NULL%2,          Li%Liu%NULL%2,          Yun%Ling%NULL%0,          Zhiping%Qian%NULL%2,          Tao%Li%NULL%3,          Feng%Li%NULL%2,          Qingnian%Xu%NULL%2,          Yuyi%Zhang%NULL%2,          Shuibao%Xu%NULL%2,          Zhigang%Song%NULL%2,          Yigang%Zeng%NULL%2,          Yinzhong%Shen%NULL%2,          Yuxin%Shi%NULL%0,          Tongyu%Zhu%NULL%3,          Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,          Feifei%Yao%NULL%1,          Lijie%Wang%NULL%1,          Ling%Zheng%NULL%1,          Yongjun%Gao%NULL%1,          Jun%Ye%NULL%1,          Feng%Guo%NULL%1,          Hui%Zhao%NULL%1,          Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,          Bin%Quan%NULL%1,          Xiaoning%Li%NULL%2,          Guangjian%Gao%NULL%1,          Wenqiang%Zheng%NULL%1,          Jun%Zhang%NULL%1,          Zhiyun%Zhang%NULL%1,          Chunsheng%Liu%NULL%1,          Li%Li%NULL%0,          Chenglin%Wang%NULL%1,          Guihua%Zhang%NULL%1,          Jiajia%Li%NULL%1,          Yunhai%Dai%NULL%1,          Jianghua%Yang%yjhpath@163.com%1,          Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,         Bin%Quan%NULL%1,         Xiaoning%Li%NULL%2,         Guangjian%Gao%NULL%1,         Wenqiang%Zheng%NULL%1,         Jun%Zhang%NULL%5,         Zhiyun%Zhang%NULL%1,         Chunsheng%Liu%NULL%1,         Li%Li%NULL%4,         Chenglin%Wang%NULL%1,         Guihua%Zhang%NULL%1,         Jiajia%Li%NULL%1,         Yunhai%Dai%NULL%1,         Jianghua%Yang%yjhpath@163.com%1,         Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,          Kai%Xie%NULL%4,          Kai%Xie%NULL%0,          Hui%Lu%NULL%2,          Lei%Xu%bayinhexl@126.com%3,          Shusheng%Zhou%zhouss108@163.com%2,          Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,         Kai%Xie%NULL%2,         Kai%Xie%NULL%0,         Hui%Lu%NULL%1,         Lei%Xu%bayinhexl@126.com%1,         Shusheng%Zhou%zhouss108@163.com%1,         Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,          Yuanyuan%Xing%NULL%4,          Yu%Xiao%NULL%4,          Liping%Deng%NULL%5,          Qiu%Zhao%NULL%4,          Hongling%Wang%NULL%4,          Yong%Xiong%NULL%6,          Zhenshun%Cheng%NULL%0,          Shicheng%Gao%NULL%5,          Ke%Liang%NULL%5,          Mingqi%Luo%NULL%5,          Tielong%Chen%NULL%4,          Shihui%Song%NULL%5,          Zhiyong%Ma%NULL%5,          Xiaoping%Chen%NULL%5,          Ruiying%Zheng%NULL%4,          Qian%Cao%NULL%4,          Fan%Wang%fanndywang@foxmail.com%4,          Yongxi%Zhang%znact1936@126.com%7]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,          Bohan%Yang%NULL%4,          Qianwen%Li%NULL%4,          Lu%Wen%NULL%4,          Ruiguang%Zhang%zrg27@163.com%4]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,          Yingxia%Liu%NULL%1,          Lei%Liu%NULL%17,          Xianfeng%Wang%NULL%1,          Nijuan%Luo%NULL%1,          Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,         Yingxia%Liu%NULL%2,         Lei%Liu%NULL%9,         Xianfeng%Wang%NULL%1,         Nijuan%Luo%NULL%1,         Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,          N -B%Yang%NULL%2,          F%Ding%NULL%2,          A H Y%Ma%NULL%2,          Z -Y%Wang%NULL%4,          Y -F%Shen%NULL%2,          C -W%Shi%NULL%2,          X%Lian%NULL%2,          J -G%Chu%NULL%2,          L%Chen%chxmin@hotmail.com%2,          Z -Y%Wang%NULL%0,          D -W%Ren%NULL%2,          G -X%Li%NULL%2,          X -Q%Chen%chxmin@hotmail.com%2,          H -J%Shen%NULL%2,          X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,          Tuantuan%Li%NULL%2,          Mingfeng%Han%NULL%2,          Xiuyong%Li%NULL%2,          Dong%Wu%NULL%2,          Yuanhong%Xu%NULL%4,          Yulin%Zhu%NULL%2,          Yan%Liu%NULL%3,          Xiaowu%Wang%wangxiaowu19880218@126.com%2,          Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,         Tuantuan%Li%NULL%2,         Mingfeng%Han%NULL%6,         Xiuyong%Li%NULL%2,         Dong%Wu%NULL%2,         Yuanhong%Xu%NULL%2,         Yulin%Zhu%NULL%2,         Yan%Liu%NULL%2,         Xiaowu%Wang%wangxiaowu19880218@126.com%2,         Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +3191,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>690</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -2881,7 +3220,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>579</v>
+        <v>691</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -2910,7 +3249,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>580</v>
+        <v>692</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -2939,7 +3278,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>581</v>
+        <v>693</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -2968,7 +3307,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>582</v>
+        <v>694</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -2997,7 +3336,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>695</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -3026,7 +3365,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>584</v>
+        <v>696</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -3049,22 +3388,22 @@
         <v>43868</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>639</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>697</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>642</v>
       </c>
       <c r="I9" t="s">
         <v>70</v>
@@ -3084,7 +3423,7 @@
         <v>362</v>
       </c>
       <c r="E10" t="s">
-        <v>585</v>
+        <v>698</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -3113,7 +3452,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>586</v>
+        <v>699</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -3142,7 +3481,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>587</v>
+        <v>700</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -3171,7 +3510,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -3200,7 +3539,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>589</v>
+        <v>702</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -3229,7 +3568,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>590</v>
+        <v>703</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -3258,7 +3597,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>591</v>
+        <v>704</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -3287,7 +3626,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -3316,7 +3655,7 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>593</v>
+        <v>706</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -3345,7 +3684,7 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3374,7 +3713,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>595</v>
+        <v>708</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -3403,7 +3742,7 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>596</v>
+        <v>709</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -3432,7 +3771,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>597</v>
+        <v>710</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -3461,7 +3800,7 @@
         <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>598</v>
+        <v>711</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -3490,7 +3829,7 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>599</v>
+        <v>712</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -3519,7 +3858,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>600</v>
+        <v>713</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -3548,7 +3887,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>601</v>
+        <v>714</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -3577,7 +3916,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>602</v>
+        <v>715</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -3606,7 +3945,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>603</v>
+        <v>716</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -3635,7 +3974,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>604</v>
+        <v>717</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -3664,7 +4003,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>605</v>
+        <v>718</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -3693,7 +4032,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>606</v>
+        <v>719</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3722,7 +4061,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>607</v>
+        <v>720</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -3751,7 +4090,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>608</v>
+        <v>721</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -3780,7 +4119,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>609</v>
+        <v>722</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -3809,7 +4148,7 @@
         <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>610</v>
+        <v>723</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -3838,7 +4177,7 @@
         <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>611</v>
+        <v>724</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -3867,7 +4206,7 @@
         <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>612</v>
+        <v>725</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -3896,7 +4235,7 @@
         <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>613</v>
+        <v>726</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
@@ -3925,7 +4264,7 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>614</v>
+        <v>727</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -3954,7 +4293,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>615</v>
+        <v>728</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -3983,7 +4322,7 @@
         <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>616</v>
+        <v>729</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -4012,7 +4351,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>617</v>
+        <v>730</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -4041,7 +4380,7 @@
         <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>618</v>
+        <v>731</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -4070,7 +4409,7 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>619</v>
+        <v>732</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -4099,7 +4438,7 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>620</v>
+        <v>733</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -4128,7 +4467,7 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>621</v>
+        <v>734</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -4157,7 +4496,7 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>622</v>
+        <v>735</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -4186,7 +4525,7 @@
         <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>623</v>
+        <v>736</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -4215,7 +4554,7 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>624</v>
+        <v>737</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -4244,7 +4583,7 @@
         <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="F50" t="s">
         <v>91</v>
@@ -4273,7 +4612,7 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>626</v>
+        <v>739</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -4302,7 +4641,7 @@
         <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>627</v>
+        <v>740</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -4331,7 +4670,7 @@
         <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>628</v>
+        <v>741</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -4360,7 +4699,7 @@
         <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>629</v>
+        <v>742</v>
       </c>
       <c r="F54" t="s">
         <v>91</v>
@@ -4389,7 +4728,7 @@
         <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>630</v>
+        <v>743</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -4418,7 +4757,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>631</v>
+        <v>744</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="856">
   <si>
     <t>Doi</t>
   </si>
@@ -2851,6 +2851,349 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,         Tuantuan%Li%NULL%2,         Mingfeng%Han%NULL%6,         Xiuyong%Li%NULL%2,         Dong%Wu%NULL%2,         Yuanhong%Xu%NULL%2,         Yulin%Zhu%NULL%2,         Yan%Liu%NULL%2,         Xiaowu%Wang%wangxiaowu19880218@126.com%2,         Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,           Yeming%Wang%NULL%18,           Xingwang%Li%NULL%8,           Lili%Ren%NULL%7,           Jianping%Zhao%NULL%16,           Yi%Hu%NULL%16,           Li%Zhang%NULL%14,           Guohui%Fan%NULL%18,           Jiuyang%Xu%NULL%18,           Xiaoying%Gu%NULL%18,           Zhenshun%Cheng%NULL%11,           Ting%Yu%NULL%30,           Jiaan%Xia%NULL%8,           Yuan%Wei%NULL%23,           Wenjuan%Wu%NULL%7,           Xuelei%Xie%NULL%8,           Wen%Yin%NULL%11,           Hui%Li%NULL%20,           Min%Liu%NULL%7,           Yan%Xiao%NULL%8,           Hong%Gao%NULL%8,           Li%Guo%NULL%9,           Jungang%Xie%NULL%9,           Guangfa%Wang%NULL%7,           Rongmeng%Jiang%NULL%7,           Zhancheng%Gao%NULL%7,           Qi%Jin%NULL%8,           Jianwei%Wang%wangjw28@163.com%7,           Bin%Cao%caobin_ben@163.com%18]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,           Shuofeng%Yuan%NULL%2,           Kin-Hang%Kok%NULL%2,           Kelvin Kai-Wang%To%NULL%2,           Hin%Chu%NULL%2,           Jin%Yang%NULL%2,           Fanfan%Xing%NULL%2,           Jieling%Liu%NULL%2,           Cyril Chik-Yan%Yip%NULL%3,           Rosana Wing-Shan%Poon%NULL%3,           Hoi-Wah%Tsoi%NULL%2,           Simon Kam-Fai%Lo%NULL%2,           Kwok-Hung%Chan%NULL%3,           Vincent Kwok-Man%Poon%NULL%2,           Wan-Mui%Chan%NULL%3,           Jonathan Daniel%Ip%NULL%3,           Jian-Piao%Cai%NULL%3,           Vincent Chi-Chung%Cheng%NULL%3,           Honglin%Chen%NULL%3,           Christopher Kim-Ming%Hui%NULL%2,           Kwok-Yung%Yuen%NULL%10]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,           Xuhua%Guan%NULL%1,           Peng%Wu%NULL%1,           Xiaoye%Wang%NULL%1,           Lei%Zhou%NULL%1,           Yeqing%Tong%NULL%1,           Ruiqi%Ren%NULL%1,           Kathy S.M.%Leung%NULL%1,           Eric H.Y.%Lau%NULL%1,           Jessica Y.%Wong%NULL%1,           Xuesen%Xing%NULL%1,           Nijuan%Xiang%NULL%1,           Yang%Wu%NULL%1,           Chao%Li%NULL%1,           Qi%Chen%NULL%1,           Dan%Li%NULL%1,           Tian%Liu%NULL%1,           Jing%Zhao%NULL%1,           Man%Liu%NULL%1,           Wenxiao%Tu%NULL%1,           Chuding%Chen%NULL%1,           Lianmei%Jin%NULL%1,           Rui%Yang%NULL%1,           Qi%Wang%NULL%2,           Suhua%Zhou%NULL%1,           Rui%Wang%NULL%1,           Hui%Liu%NULL%1,           Yinbo%Luo%NULL%1,           Yuan%Liu%NULL%1,           Ge%Shao%NULL%1,           Huan%Li%NULL%4,           Zhongfa%Tao%NULL%1,           Yang%Yang%NULL%3,           Zhiqiang%Deng%NULL%1,           Boxi%Liu%NULL%1,           Zhitao%Ma%NULL%1,           Yanping%Zhang%NULL%1,           Guoqing%Shi%NULL%1,           Tommy T.Y.%Lam%NULL%1,           Joseph T.%Wu%NULL%1,           George F.%Gao%NULL%1,           Benjamin J.%Cowling%NULL%1,           Bo%Yang%NULL%5,           Bo%Yang%NULL%0,           Gabriel M.%Leung%NULL%1,           Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,           Min%Zhou%NULL%8,           Xuan%Dong%NULL%6,           Jieming%Qu%NULL%12,           Fengyun%Gong%NULL%6,           Yang%Han%NULL%5,           Yang%Qiu%NULL%5,           Jingli%Wang%NULL%6,           Ying%Liu%NULL%16,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%12,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%5,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,           Nannan%Shi%NULL%3,           Nannan%Shi%NULL%0,           Fei%Shan%NULL%2,           Zhiyong%Zhang%NULL%2,           Jie%Shen%NULL%1,           Hongzhou%Lu%NULL%8,           Yun%Ling%NULL%9,           Yebin%Jiang%NULL%2,           Yebin%Jiang%NULL%0,           Yuxin%Shi%shiyuxin@shphc.org.cn%5,           Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,       Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,           Yuan-Yuan%Fang%NULL%5,           Yan%Deng%NULL%5,           Wei%Liu%NULL%7,           Mei-Fang%Wang%NULL%2,           Jing-Ping%Ma%NULL%2,           Wei%Xiao%NULL%2,           Ying-Nan%Wang%NULL%2,           Min-Hua%Zhong%NULL%2,           Cheng-Hong%Li%NULL%2,           Guang-Cai%Li%NULL%2,           Hui-Guo%Liu%NULL%8,           Xiu-Yuan%Hao%NULL%6,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%15]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,   Minggui%Lin%xref no email%2,   Lai%Wei%xref no email%2,   Lixin%Xie%xref no email%2,   Guangfa%Zhu%xref no email%2,   Charles S.%Dela Cruz%xref no email%2,   Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,         Yang%Yang%null%5,         Cong%Zhang%null%3,         Fengming%Huang%null%2,         Fuxiang%Wang%null%2,         Jing%Yuan%null%3,         Zhaoqin%Wang%null%3,         Jinxiu%Li%null%2,         Jianming%Li%null%2,         Cheng%Feng%null%2,         Zheng%Zhang%null%3,         Lifei%Wang%null%2,         Ling%Peng%null%2,         Li%Chen%null%4,         Yuhao%Qin%null%2,         Dandan%Zhao%null%2,         Shuguang%Tan%null%2,         Lu%Yin%null%3,         Jun%Xu%null%2,         Congzhao%Zhou%null%2,         Chengyu%Jiang%null%2,         Lei%Liu%null%10]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,           Ye-Ming%Wang%NULL%1,           Zhi-Qiang%Wu%NULL%1,           Zi-Chun%Xiang%NULL%1,           Li%Guo%NULL%0,           Teng%Xu%NULL%1,           Yong-Zhong%Jiang%NULL%1,           Yan%Xiong%NULL%5,           Yong-Jun%Li%NULL%1,           Xing-Wang%Li%NULL%1,           Hui%Li%NULL%0,           Guo-Hui%Fan%NULL%1,           Xiao-Ying%Gu%NULL%1,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Jiu-Yang%Xu%NULL%1,           Fan%Yang%NULL%4,           Xin-Ming%Wang%NULL%1,           Chao%Wu%NULL%3,           Lan%Chen%NULL%1,           Yi-Wei%Liu%NULL%1,           Bo%Liu%NULL%2,           Jian%Yang%NULL%1,           Xiao-Rui%Wang%NULL%1,           Jie%Dong%NULL%1,           Li%Li%NULL%5,           Chao-Lin%Huang%NULL%1,           Jian-Ping%Zhao%NULL%1,           Yi%Hu%NULL%0,           Zhen-Shun%Cheng%NULL%1,           Lin-Lin%Liu%NULL%1,           Zhao-Hui%Qian%NULL%1,           Chuan%Qin%NULL%1,           Qi%Jin%NULL%0,           Bin%Cao%NULL%0,           Jian-Wei%Wang%NULL%1,           Xiu-Yuan%Hao%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,           Dengju%Li%NULL%2,           Xiong%Wang%NULL%4,           Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,       Cao%Yi-yuan%coreGivesNoEmail%4,       Dong%Xiang%coreGivesNoEmail%4,       Gao%Ya-dong%coreGivesNoEmail%4,       Yan%You-qin%coreGivesNoEmail%4,       Yang%Yi-bin%coreGivesNoEmail%4,       Yuan%Ya-dong%coreGivesNoEmail%4,       Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,           Xiao-Xin%Wu%NULL%3,           Xian-Gao%Jiang%NULL%3,           Kai-Jin%Xu%NULL%3,           Ling-Jun%Ying%NULL%3,           Chun-Lian%Ma%NULL%3,           Shi-Bo%Li%NULL%3,           Hua-Ying%Wang%NULL%3,           Sheng%Zhang%NULL%3,           Hai-Nv%Gao%NULL%3,           Ji-Fang%Sheng%NULL%3,           Hong-Liu%Cai%NULL%3,           Yun-Qing%Qiu%NULL%3,           Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,           Xiaojia%Wu%NULL%1,           Wenbing%Zeng%NULL%1,           Dajing%Guo%NULL%4,           Zheng%Fang%NULL%4,           Linli%Chen%NULL%4,           Huizhe%Huang%NULL%1,           Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,           Valerie%Wong%NULL%1,           Vivian Wan In%Wei%NULL%1,           Samuel Yeung Shan%Wong%NULL%1,           Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,           Xiaoyu%Han%NULL%1,           Nanchuan%Jiang%NULL%1,           Yukun%Cao%NULL%1,           Osamah%Alwalid%NULL%1,           Jin%Gu%NULL%1,           Yanqing%Fan%1024932023@qq.com%2,           Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,           Jing-Hui%Dong%NULL%2,           Wei-Min%An%NULL%2,           Xiao-Yan%Lv%15001008285@139.com%2,           Xiao-Ping%Yin%yinxiaoping78@sina.com%2,           Jian-Zeng%Zhang%NULL%2,           Li%Dong%NULL%2,           Xi%Ma%NULL%2,           Hong-Jie%Zhang%NULL%2,           Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,           Zhenlu%Yang%NULL%2,           Zhenlu%Yang%NULL%0,           Hongyan%Hou%NULL%2,           Hongyan%Hou%NULL%0,           Chenao%Zhan%NULL%1,           Chong%Chen%NULL%1,           Wenzhi%Lv%NULL%2,           Wenzhi%Lv%NULL%0,           Qian%Tao%NULL%2,           Qian%Tao%NULL%0,           Ziyong%Sun%NULL%0,           Ziyong%Sun%NULL%0,           Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,           Qiqi%Cao%NULL%3,           Le%Qin%NULL%3,           Xiaoyang%Wang%NULL%3,           Zenghui%Cheng%NULL%3,           Ashan%Pan%NULL%3,           Jianyi%Dai%NULL%3,           Qingfeng%Sun%NULL%3,           Fengquan%Zhao%NULL%3,           Jieming%Qu%NULL%0,           Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,           Nan%Hu%NULL%2,           Jing%Lou%NULL%2,           Kun%Chen%NULL%2,           Xuqin%Kang%NULL%2,           Zhenjun%Xiang%NULL%2,           Hui%Chen%NULL%4,           Dali%Wang%NULL%2,           Ning%Liu%NULL%2,           Dong%Liu%NULL%2,           Gang%Chen%NULL%2,           Yongliang%Zhang%NULL%2,           Dou%Li%NULL%2,           Jianren%Li%NULL%2,           Huixin%Lian%NULL%2,           Shengmei%Niu%NULL%2,           Luxi%Zhang%NULL%2,           Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,           Mengqi%Tu%NULL%3,           Shipei%Wang%NULL%3,           Sichao%Chen%NULL%3,           Wei%Zhou%NULL%5,           Danyang%Chen%NULL%3,           Lin%Zhou%NULL%3,           Min%Wang%NULL%3,           Yan%Zhao%NULL%5,           Wen%Zeng%NULL%3,           Qi%Huang%NULL%3,           Hai'bo%Xu%NULL%3,           Zeming%Liu%NULL%3,           Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,           Chengcheng%Yu%NULL%2,           Jing%Qu%NULL%2,           Lieguang%Zhang%NULL%2,           Songfeng%Jiang%NULL%2,           Deyang%Huang%NULL%2,           Bihua%Chen%NULL%2,           Zhiping%Zhang%NULL%2,           Wanhua%Guan%NULL%2,           Zhoukun%Ling%NULL%2,           Rui%Jiang%NULL%2,           Tianli%Hu%NULL%2,           Yan%Ding%NULL%2,           Lin%Lin%NULL%2,           Qingxin%Gan%NULL%2,           Liangping%Luo%tluolp@jnu.edu.cn%2,           Xiaoping%Tang%xtang@21cn.com%2,           Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,           Zhao-Wu%Tao%NULL%3,           Lei%Wang%NULL%4,           Ming-Li%Yuan%NULL%5,           Kui%Liu%NULL%8,           Ling%Zhou%NULL%6,           Shuang%Wei%NULL%6,           Yan%Deng%NULL%0,           Jing%Liu%NULL%5,           Hui-Guo%Liu%NULL%0,           Ming%Yang%NULL%4,           Yi%Hu%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,           Jiong%Wu%NULL%3,           Faqi%Wu%NULL%3,           Dajing%Guo%NULL%0,           Linli%Chen%NULL%0,           Zheng%Fang%NULL%0,           Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,           Jun%Liu%NULL%3,           Xinguo%Zhao%NULL%1,           Chengyuan%Liu%NULL%1,           Wei%Wang%NULL%6,           Dawei%Wang%NULL%1,           Wei%Xu%NULL%2,           Chunyu%Zhang%NULL%1,           Jiong%Yu%NULL%1,           Bin%Jiang%NULL%1,           Hongcui%Cao%hccao@zju.edu.cn%1,           Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,           Xiaorong%Hu%NULL%2,           Wenlin%Cheng%NULL%8,           Lei%Yu%NULL%8,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%8,           Qiang%Liu%liuqiang@irm-cams.ac.cn%10,           Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,           Kun%Yang%NULL%10,           Kun%Yang%NULL%0,           Wenxia%Wang%NULL%10,           Wenxia%Wang%NULL%0,           Lingyu%Jiang%NULL%10,           Lingyu%Jiang%NULL%0,           Jianxin%Song%songsingsjx@sina.com%10,           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,          Kun%Yang%NULL%3,          Kun%Yang%NULL%0,          Wenxia%Wang%NULL%2,          Wenxia%Wang%NULL%0,          Lingyu%Jiang%NULL%2,          Lingyu%Jiang%NULL%0,          Jianxin%Song%songsingsjx@sina.com%2,          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,           Meiwen%Tang%NULL%1,           Xiaobin%Zheng%NULL%1,           Ye%Liu%ly77219@163.com%1,           Xiaofeng%Li%zdwylxf@163.com%1,           Hong%Shan%shanhong@mail.sysu.edu.cn%14]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,           Dong%Sun%NULL%1,           Yao%Liu%NULL%1,           Yanqing%Fan%NULL%0,           Lingyun%Zhao%NULL%1,           Xiaoming%Li%NULL%1,           Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,          Dong%Sun%NULL%1,          Yao%Liu%NULL%1,          Yanqing%Fan%NULL%1,          Lingyun%Zhao%NULL%1,          Xiaoming%Li%NULL%2,          Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,           SaiBin%Wang%NULL%2,           SaiBin%Wang%NULL%0,           YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,          SaiBin%Wang%NULL%2,          SaiBin%Wang%NULL%0,          YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,           Ci%Song%NULL%1,           Chuanjun%Xu%NULL%1,           Guangfu%Jin%NULL%1,           Yaling%Chen%NULL%1,           Xin%Xu%NULL%4,           Hongxia%Ma%NULL%1,           Wei%Chen%NULL%3,           Yuan%Lin%NULL%1,           Yishan%Zheng%NULL%1,           Jianming%Wang%NULL%5,           Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,           Yongxiang%Yi%ian0126@126.com%1,           Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,           Yao%Tian%NULL%2,           Yao%Tian%NULL%0,           Jing%Zhou%NULL%2,           Xuan%Ma%NULL%1,           Min%Yang%NULL%1,           ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,          Yao%Tian%NULL%2,          Yao%Tian%NULL%0,          Jing%Zhou%NULL%2,          Xuan%Ma%NULL%1,          Min%Yang%NULL%1,          ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,           James%Fielding%NULL%1,           Michaela%Diercke%NULL%1,           Christine%Campese%NULL%1,           Vincent%Enouf%NULL%1,           Alexandre%Gaymard%NULL%1,           Antonino%Bella%NULL%1,           Paola%Sognamiglio%NULL%1,           Maria José%Sierra Moros%NULL%1,           Antonio Nicolau%Riutort%NULL%1,           Yulia V.%Demina%NULL%1,           Romain%Mahieu%NULL%1,           Markku%Broas%NULL%1,           Malin%Bengnér%NULL%1,           Silke%Buda%NULL%1,           Julia%Schilling%NULL%1,           Laurent%Filleul%NULL%1,           Agnès%Lepoutre%NULL%1,           Christine%Saura%NULL%1,           Alexandra%Mailles%NULL%1,           Daniel%Levy-Bruhl%NULL%1,           Bruno%Coignard%NULL%1,           Sibylle%Bernard-Stoecklin%NULL%1,           Sylvie%Behillil%NULL%1,           Sylvie%van der Werf%NULL%1,           Martine%Valette%NULL%1,           Bruno%Lina%NULL%1,           Flavia%Riccardo%NULL%1,           Emanuele%Nicastri%NULL%4,           Inmaculada%Casas%NULL%1,           Amparo%Larrauri%NULL%1,           Magdalena%Salom Castell%NULL%1,           Francisco%Pozo%NULL%1,           Rinat A.%Maksyutov%NULL%1,           Charlotte%Martin%NULL%1,           Marc%Van Ranst%NULL%3,           Nathalie%Bossuyt%NULL%1,           Lotta%Siira%NULL%1,           Jussi%Sane%NULL%1,           Karin%Tegmark-Wisell%NULL%1,           Maria%Palmérus%NULL%1,           Eeva K.%Broberg%NULL%1,           Julien%Beauté%NULL%2,           Pernille%Jorgensen%NULL%1,           Nick%Bundle%NULL%2,           Dmitriy%Pereyaslov%NULL%1,           Cornelia%Adlhoch%NULL%1,           Jukka%Pukkila%NULL%1,           Richard%Pebody%NULL%1,           Sonja%Olsen%NULL%1,           Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,           Yong-hua%Gao%NULL%1,           Li-Li%lou%NULL%1,           Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,           Huaqiao%Li%NULL%1,           Songtao%Huang%NULL%1,           Wei%You%NULL%1,           Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%10,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%11,           Jie%Xiang%NULL%18,           Yeming%Wang%NULL%0,           Bin%Song%NULL%11,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%10,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%11,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%10,           Yi%Zhang%NULL%11,           Hua%Chen%NULL%11,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%16,          Ronghui%Du%NULL%7,          Guohui%Fan%NULL%10,          Ying%Liu%NULL%9,          Zhibo%Liu%NULL%7,          Jie%Xiang%NULL%10,          Yeming%Wang%NULL%10,          Bin%Song%NULL%7,          Xiaoying%Gu%NULL%10,          Lulu%Guan%NULL%7,          Yuan%Wei%NULL%11,          Hui%Li%NULL%14,          Xudong%Wu%NULL%7,          Jiuyang%Xu%NULL%10,          Shengjin%Tu%NULL%7,          Yi%Zhang%NULL%8,          Hua%Chen%NULL%7,          Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,           Ying%Chen%NULL%1,           Ruzheng%Lin%NULL%1,           Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,           Tangkai%Qi%NULL%2,           Li%Liu%NULL%2,           Yun%Ling%NULL%0,           Zhiping%Qian%NULL%2,           Tao%Li%NULL%3,           Feng%Li%NULL%2,           Qingnian%Xu%NULL%2,           Yuyi%Zhang%NULL%2,           Shuibao%Xu%NULL%2,           Zhigang%Song%NULL%2,           Yigang%Zeng%NULL%2,           Yinzhong%Shen%NULL%2,           Yuxin%Shi%NULL%0,           Tongyu%Zhu%NULL%3,           Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,           Feifei%Yao%NULL%1,           Lijie%Wang%NULL%1,           Ling%Zheng%NULL%1,           Yongjun%Gao%NULL%1,           Jun%Ye%NULL%1,           Feng%Guo%NULL%1,           Hui%Zhao%NULL%1,           Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,           Bin%Quan%NULL%1,           Xiaoning%Li%NULL%2,           Guangjian%Gao%NULL%1,           Wenqiang%Zheng%NULL%1,           Jun%Zhang%NULL%1,           Zhiyun%Zhang%NULL%1,           Chunsheng%Liu%NULL%1,           Li%Li%NULL%0,           Chenglin%Wang%NULL%1,           Guihua%Zhang%NULL%1,           Jiajia%Li%NULL%1,           Yunhai%Dai%NULL%1,           Jianghua%Yang%yjhpath@163.com%1,           Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,          Bin%Quan%NULL%1,          Xiaoning%Li%NULL%2,          Guangjian%Gao%NULL%1,          Wenqiang%Zheng%NULL%1,          Jun%Zhang%NULL%5,          Zhiyun%Zhang%NULL%1,          Chunsheng%Liu%NULL%1,          Li%Li%NULL%4,          Chenglin%Wang%NULL%1,          Guihua%Zhang%NULL%1,          Jiajia%Li%NULL%1,          Yunhai%Dai%NULL%1,          Jianghua%Yang%yjhpath@163.com%1,          Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,           Kai%Xie%NULL%4,           Kai%Xie%NULL%0,           Hui%Lu%NULL%2,           Lei%Xu%bayinhexl@126.com%3,           Shusheng%Zhou%zhouss108@163.com%2,           Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,          Kai%Xie%NULL%2,          Kai%Xie%NULL%0,          Hui%Lu%NULL%1,          Lei%Xu%bayinhexl@126.com%1,          Shusheng%Zhou%zhouss108@163.com%1,          Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,           Yuanyuan%Xing%NULL%4,           Yu%Xiao%NULL%4,           Liping%Deng%NULL%5,           Qiu%Zhao%NULL%4,           Hongling%Wang%NULL%4,           Yong%Xiong%NULL%6,           Zhenshun%Cheng%NULL%0,           Shicheng%Gao%NULL%5,           Ke%Liang%NULL%5,           Mingqi%Luo%NULL%5,           Tielong%Chen%NULL%4,           Shihui%Song%NULL%5,           Zhiyong%Ma%NULL%5,           Xiaoping%Chen%NULL%5,           Ruiying%Zheng%NULL%4,           Qian%Cao%NULL%4,           Fan%Wang%fanndywang@foxmail.com%4,           Yongxi%Zhang%znact1936@126.com%7]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,           Bohan%Yang%NULL%4,           Qianwen%Li%NULL%4,           Lu%Wen%NULL%4,           Ruiguang%Zhang%zrg27@163.com%4]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,           Yingxia%Liu%NULL%1,           Lei%Liu%NULL%17,           Xianfeng%Wang%NULL%1,           Nijuan%Luo%NULL%1,           Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,          Yingxia%Liu%NULL%2,          Lei%Liu%NULL%9,          Xianfeng%Wang%NULL%1,          Nijuan%Luo%NULL%1,          Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,           N -B%Yang%NULL%2,           F%Ding%NULL%2,           A H Y%Ma%NULL%2,           Z -Y%Wang%NULL%4,           Y -F%Shen%NULL%2,           C -W%Shi%NULL%2,           X%Lian%NULL%2,           J -G%Chu%NULL%2,           L%Chen%chxmin@hotmail.com%2,           Z -Y%Wang%NULL%0,           D -W%Ren%NULL%2,           G -X%Li%NULL%2,           X -Q%Chen%chxmin@hotmail.com%2,           H -J%Shen%NULL%2,           X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,           Tuantuan%Li%NULL%2,           Mingfeng%Han%NULL%2,           Xiuyong%Li%NULL%2,           Dong%Wu%NULL%2,           Yuanhong%Xu%NULL%4,           Yulin%Zhu%NULL%2,           Yan%Liu%NULL%3,           Xiaowu%Wang%wangxiaowu19880218@126.com%2,           Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,          Tuantuan%Li%NULL%2,          Mingfeng%Han%NULL%6,          Xiuyong%Li%NULL%2,          Dong%Wu%NULL%2,          Yuanhong%Xu%NULL%2,          Yulin%Zhu%NULL%2,          Yan%Liu%NULL%2,          Xiaowu%Wang%wangxiaowu19880218@126.com%2,          Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,            Yeming%Wang%NULL%16,            Xingwang%Li%NULL%7,            Lili%Ren%NULL%6,            Jianping%Zhao%NULL%13,            Yi%Hu%NULL%14,            Li%Zhang%NULL%13,            Guohui%Fan%NULL%16,            Jiuyang%Xu%NULL%16,            Xiaoying%Gu%NULL%16,            Zhenshun%Cheng%NULL%9,            Ting%Yu%NULL%27,            Jiaan%Xia%NULL%7,            Yuan%Wei%NULL%21,            Wenjuan%Wu%NULL%6,            Xuelei%Xie%NULL%7,            Wen%Yin%NULL%10,            Hui%Li%NULL%18,            Min%Liu%NULL%6,            Yan%Xiao%NULL%7,            Hong%Gao%NULL%7,            Li%Guo%NULL%8,            Jungang%Xie%NULL%7,            Guangfa%Wang%NULL%6,            Rongmeng%Jiang%NULL%6,            Zhancheng%Gao%NULL%6,            Qi%Jin%NULL%7,            Jianwei%Wang%wangjw28@163.com%6,            Bin%Cao%caobin_ben@163.com%16]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,            Shuofeng%Yuan%NULL%2,            Kin-Hang%Kok%NULL%2,            Kelvin Kai-Wang%To%NULL%2,            Hin%Chu%NULL%2,            Jin%Yang%NULL%2,            Fanfan%Xing%NULL%2,            Jieling%Liu%NULL%2,            Cyril Chik-Yan%Yip%NULL%3,            Rosana Wing-Shan%Poon%NULL%3,            Hoi-Wah%Tsoi%NULL%2,            Simon Kam-Fai%Lo%NULL%2,            Kwok-Hung%Chan%NULL%3,            Vincent Kwok-Man%Poon%NULL%2,            Wan-Mui%Chan%NULL%3,            Jonathan Daniel%Ip%NULL%3,            Jian-Piao%Cai%NULL%3,            Vincent Chi-Chung%Cheng%NULL%3,            Honglin%Chen%NULL%3,            Christopher Kim-Ming%Hui%NULL%2,            Kwok-Yung%Yuen%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,            Xuhua%Guan%NULL%1,            Peng%Wu%NULL%1,            Xiaoye%Wang%NULL%1,            Lei%Zhou%NULL%1,            Yeqing%Tong%NULL%1,            Ruiqi%Ren%NULL%1,            Kathy S.M.%Leung%NULL%1,            Eric H.Y.%Lau%NULL%1,            Jessica Y.%Wong%NULL%1,            Xuesen%Xing%NULL%1,            Nijuan%Xiang%NULL%1,            Yang%Wu%NULL%1,            Chao%Li%NULL%1,            Qi%Chen%NULL%1,            Dan%Li%NULL%1,            Tian%Liu%NULL%1,            Jing%Zhao%NULL%1,            Man%Liu%NULL%1,            Wenxiao%Tu%NULL%1,            Chuding%Chen%NULL%1,            Lianmei%Jin%NULL%1,            Rui%Yang%NULL%1,            Qi%Wang%NULL%1,            Suhua%Zhou%NULL%1,            Rui%Wang%NULL%1,            Hui%Liu%NULL%1,            Yinbo%Luo%NULL%1,            Yuan%Liu%NULL%1,            Ge%Shao%NULL%1,            Huan%Li%NULL%3,            Zhongfa%Tao%NULL%1,            Yang%Yang%NULL%3,            Zhiqiang%Deng%NULL%1,            Boxi%Liu%NULL%1,            Zhitao%Ma%NULL%1,            Yanping%Zhang%NULL%1,            Guoqing%Shi%NULL%1,            Tommy T.Y.%Lam%NULL%1,            Joseph T.%Wu%NULL%1,            George F.%Gao%NULL%1,            Benjamin J.%Cowling%NULL%1,            Bo%Yang%NULL%4,            Bo%Yang%NULL%0,            Gabriel M.%Leung%NULL%1,            Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,            Min%Zhou%NULL%6,            Xuan%Dong%NULL%6,            Jieming%Qu%NULL%10,            Fengyun%Gong%NULL%6,            Yang%Han%NULL%5,            Yang%Qiu%NULL%5,            Jingli%Wang%NULL%6,            Ying%Liu%NULL%15,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%11,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%5,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,            Nannan%Shi%NULL%3,            Nannan%Shi%NULL%0,            Fei%Shan%NULL%2,            Zhiyong%Zhang%NULL%2,            Jie%Shen%NULL%1,            Hongzhou%Lu%NULL%6,            Yun%Ling%NULL%7,            Yebin%Jiang%NULL%2,            Yebin%Jiang%NULL%0,            Yuxin%Shi%shiyuxin@shphc.org.cn%5,            Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,        Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,            Yuan-Yuan%Fang%NULL%4,            Yan%Deng%NULL%4,            Wei%Liu%NULL%6,            Mei-Fang%Wang%NULL%2,            Jing-Ping%Ma%NULL%2,            Wei%Xiao%NULL%2,            Ying-Nan%Wang%NULL%2,            Min-Hua%Zhong%NULL%2,            Cheng-Hong%Li%NULL%2,            Guang-Cai%Li%NULL%2,            Hui-Guo%Liu%NULL%6,            Xiu-Yuan%Hao%NULL%6,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%11]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,    Minggui%Lin%xref no email%2,    Lai%Wei%xref no email%2,    Lixin%Xie%xref no email%2,    Guangfa%Zhu%xref no email%2,    Charles S.%Dela Cruz%xref no email%2,    Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The outbreak of the 2019-nCoV infection began in December 2019 in Wuhan, Hubei province, and rapidly spread to many provinces in China as well as other countries.
+ Here we report the epidemiological, clinical, laboratory, and radiological characteristics, as well as potential biomarkers for predicting disease severity in 2019-nCoV-infected patients in Shenzhen, China.
+ All 12 cases of the 2019-nCoV-infected patients developed pneumonia and half of them developed acute respiratory distress syndrome (ARDS).
+ The most common laboratory abnormalities were hypoalbuminemia, lymphopenia, decreased percentage of lymphocytes (LYM) and neutrophils (NEU), elevated C-reactive protein (CRP) and lactate dehydrogenase (LDH), and decreased CD8 count.
+ The viral load of 2019-nCoV detected from patient respiratory tracts was positively linked to lung disease severity.
+ ALB, LYM, LYM (%), LDH, NEU (%), and CRP were highly correlated to the acute lung injury.
+ Age, viral load, lung injury score, and blood biochemistry indexes, albumin (ALB), CRP, LDH, LYM (%), LYM, and NEU (%), may be predictors of disease severity.
+ Moreover, the Angiotensin II level in the plasma sample from 2019-nCoV infected patients was markedly elevated and linearly associated to viral load and lung injury.
+ Our results suggest a number of potential diagnosis biomarkers and angiotensin receptor blocker (ARB) drugs for potential repurposing treatment of 2019-nCoV infection.
+</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%0,  Yang%Yang%null%1,  Cong%Zhang%null%1,  Fengming%Huang%null%1,  Fuxiang%Wang%null%1,  Jing%Yuan%null%2,  Zhaoqin%Wang%null%1,  Jinxiu%Li%null%1,  Jianming%Li%null%1,  Cheng%Feng%null%1,  Zheng%Zhang%null%2,  Lifei%Wang%null%1,  Ling%Peng%null%1,  Li%Chen%null%1,  Yuhao%Qin%null%1,  Dandan%Zhao%null%1,  Shuguang%Tan%null%1,  Lu%Yin%null%1,  Jun%Xu%null%1,  Congzhao%Zhou%null%1,  Chengyu%Jiang%null%1,  Lei%Liu%null%2]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,            Ye-Ming%Wang%NULL%1,            Zhi-Qiang%Wu%NULL%1,            Zi-Chun%Xiang%NULL%1,            Li%Guo%NULL%0,            Teng%Xu%NULL%1,            Yong-Zhong%Jiang%NULL%1,            Yan%Xiong%NULL%4,            Yong-Jun%Li%NULL%1,            Xing-Wang%Li%NULL%1,            Hui%Li%NULL%0,            Guo-Hui%Fan%NULL%1,            Xiao-Ying%Gu%NULL%1,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Jiu-Yang%Xu%NULL%1,            Fan%Yang%NULL%3,            Xin-Ming%Wang%NULL%1,            Chao%Wu%NULL%3,            Lan%Chen%NULL%1,            Yi-Wei%Liu%NULL%1,            Bo%Liu%NULL%2,            Jian%Yang%NULL%1,            Xiao-Rui%Wang%NULL%1,            Jie%Dong%NULL%1,            Li%Li%NULL%5,            Chao-Lin%Huang%NULL%1,            Jian-Ping%Zhao%NULL%1,            Yi%Hu%NULL%0,            Zhen-Shun%Cheng%NULL%1,            Lin-Lin%Liu%NULL%1,            Zhao-Hui%Qian%NULL%1,            Chuan%Qin%NULL%1,            Qi%Jin%NULL%0,            Bin%Cao%NULL%0,            Jian-Wei%Wang%NULL%1,            Xiu-Yuan%Hao%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,            Dengju%Li%NULL%2,            Xiong%Wang%NULL%4,            Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,        Cao%Yi-yuan%coreGivesNoEmail%4,        Dong%Xiang%coreGivesNoEmail%4,        Gao%Ya-dong%coreGivesNoEmail%4,        Yan%You-qin%coreGivesNoEmail%4,        Yang%Yi-bin%coreGivesNoEmail%4,        Yuan%Ya-dong%coreGivesNoEmail%4,        Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,            Xiao-Xin%Wu%NULL%3,            Xian-Gao%Jiang%NULL%3,            Kai-Jin%Xu%NULL%3,            Ling-Jun%Ying%NULL%3,            Chun-Lian%Ma%NULL%3,            Shi-Bo%Li%NULL%3,            Hua-Ying%Wang%NULL%3,            Sheng%Zhang%NULL%3,            Hai-Nv%Gao%NULL%3,            Ji-Fang%Sheng%NULL%3,            Hong-Liu%Cai%NULL%3,            Yun-Qing%Qiu%NULL%3,            Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,            Xiaojia%Wu%NULL%1,            Wenbing%Zeng%NULL%1,            Dajing%Guo%NULL%4,            Zheng%Fang%NULL%4,            Linli%Chen%NULL%4,            Huizhe%Huang%NULL%1,            Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,            Valerie%Wong%NULL%1,            Vivian Wan In%Wei%NULL%1,            Samuel Yeung Shan%Wong%NULL%1,            Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,            Xiaoyu%Han%NULL%1,            Nanchuan%Jiang%NULL%1,            Yukun%Cao%NULL%1,            Osamah%Alwalid%NULL%1,            Jin%Gu%NULL%1,            Yanqing%Fan%1024932023@qq.com%2,            Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,            Jing-Hui%Dong%NULL%2,            Wei-Min%An%NULL%2,            Xiao-Yan%Lv%15001008285@139.com%2,            Xiao-Ping%Yin%yinxiaoping78@sina.com%2,            Jian-Zeng%Zhang%NULL%2,            Li%Dong%NULL%2,            Xi%Ma%NULL%2,            Hong-Jie%Zhang%NULL%2,            Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,            Zhenlu%Yang%NULL%2,            Zhenlu%Yang%NULL%0,            Hongyan%Hou%NULL%2,            Hongyan%Hou%NULL%0,            Chenao%Zhan%NULL%1,            Chong%Chen%NULL%1,            Wenzhi%Lv%NULL%2,            Wenzhi%Lv%NULL%0,            Qian%Tao%NULL%2,            Qian%Tao%NULL%0,            Ziyong%Sun%NULL%0,            Ziyong%Sun%NULL%0,            Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,            Qiqi%Cao%NULL%3,            Le%Qin%NULL%3,            Xiaoyang%Wang%NULL%3,            Zenghui%Cheng%NULL%3,            Ashan%Pan%NULL%3,            Jianyi%Dai%NULL%3,            Qingfeng%Sun%NULL%3,            Fengquan%Zhao%NULL%3,            Jieming%Qu%NULL%0,            Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,            Nan%Hu%NULL%2,            Jing%Lou%NULL%2,            Kun%Chen%NULL%2,            Xuqin%Kang%NULL%2,            Zhenjun%Xiang%NULL%2,            Hui%Chen%NULL%4,            Dali%Wang%NULL%2,            Ning%Liu%NULL%2,            Dong%Liu%NULL%2,            Gang%Chen%NULL%2,            Yongliang%Zhang%NULL%2,            Dou%Li%NULL%2,            Jianren%Li%NULL%2,            Huixin%Lian%NULL%2,            Shengmei%Niu%NULL%2,            Luxi%Zhang%NULL%2,            Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,            Mengqi%Tu%NULL%3,            Shipei%Wang%NULL%3,            Sichao%Chen%NULL%3,            Wei%Zhou%NULL%5,            Danyang%Chen%NULL%3,            Lin%Zhou%NULL%3,            Min%Wang%NULL%3,            Yan%Zhao%NULL%5,            Wen%Zeng%NULL%3,            Qi%Huang%NULL%3,            Hai'bo%Xu%NULL%3,            Zeming%Liu%NULL%3,            Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,            Chengcheng%Yu%NULL%2,            Jing%Qu%NULL%2,            Lieguang%Zhang%NULL%2,            Songfeng%Jiang%NULL%2,            Deyang%Huang%NULL%2,            Bihua%Chen%NULL%2,            Zhiping%Zhang%NULL%2,            Wanhua%Guan%NULL%2,            Zhoukun%Ling%NULL%2,            Rui%Jiang%NULL%2,            Tianli%Hu%NULL%2,            Yan%Ding%NULL%2,            Lin%Lin%NULL%2,            Qingxin%Gan%NULL%2,            Liangping%Luo%tluolp@jnu.edu.cn%2,            Xiaoping%Tang%xtang@21cn.com%2,            Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,            Zhao-Wu%Tao%NULL%2,            Lei%Wang%NULL%3,            Ming-Li%Yuan%NULL%4,            Kui%Liu%NULL%6,            Ling%Zhou%NULL%4,            Shuang%Wei%NULL%4,            Yan%Deng%NULL%0,            Jing%Liu%NULL%4,            Hui-Guo%Liu%NULL%0,            Ming%Yang%NULL%3,            Yi%Hu%NULL%0,            Pei-Fang%Wei%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,            Jiong%Wu%NULL%3,            Faqi%Wu%NULL%3,            Dajing%Guo%NULL%0,            Linli%Chen%NULL%0,            Zheng%Fang%NULL%0,            Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,            Jun%Liu%NULL%3,            Xinguo%Zhao%NULL%1,            Chengyuan%Liu%NULL%1,            Wei%Wang%NULL%6,            Dawei%Wang%NULL%1,            Wei%Xu%NULL%2,            Chunyu%Zhang%NULL%1,            Jiong%Yu%NULL%1,            Bin%Jiang%NULL%1,            Hongcui%Cao%hccao@zju.edu.cn%1,            Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,            Xiaorong%Hu%NULL%2,            Wenlin%Cheng%NULL%7,            Lei%Yu%NULL%7,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%7,            Qiang%Liu%liuqiang@irm-cams.ac.cn%9,            Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,            Kun%Yang%NULL%10,            Kun%Yang%NULL%0,            Wenxia%Wang%NULL%10,            Wenxia%Wang%NULL%0,            Lingyu%Jiang%NULL%10,            Lingyu%Jiang%NULL%0,            Jianxin%Song%songsingsjx@sina.com%10,            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,           Kun%Yang%NULL%3,           Kun%Yang%NULL%0,           Wenxia%Wang%NULL%2,           Wenxia%Wang%NULL%0,           Lingyu%Jiang%NULL%2,           Lingyu%Jiang%NULL%0,           Jianxin%Song%songsingsjx@sina.com%2,           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,            Meiwen%Tang%NULL%1,            Xiaobin%Zheng%NULL%1,            Ye%Liu%ly77219@163.com%1,            Xiaofeng%Li%zdwylxf@163.com%1,            Hong%Shan%shanhong@mail.sysu.edu.cn%13]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,            Dong%Sun%NULL%1,            Yao%Liu%NULL%1,            Yanqing%Fan%NULL%0,            Lingyun%Zhao%NULL%1,            Xiaoming%Li%NULL%1,            Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,           Dong%Sun%NULL%1,           Yao%Liu%NULL%1,           Yanqing%Fan%NULL%1,           Lingyun%Zhao%NULL%1,           Xiaoming%Li%NULL%2,           Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,            SaiBin%Wang%NULL%2,            SaiBin%Wang%NULL%0,            YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,           SaiBin%Wang%NULL%2,           SaiBin%Wang%NULL%0,           YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,            Ci%Song%NULL%1,            Chuanjun%Xu%NULL%1,            Guangfu%Jin%NULL%1,            Yaling%Chen%NULL%1,            Xin%Xu%NULL%4,            Hongxia%Ma%NULL%1,            Wei%Chen%NULL%3,            Yuan%Lin%NULL%1,            Yishan%Zheng%NULL%1,            Jianming%Wang%NULL%5,            Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,            Yongxiang%Yi%ian0126@126.com%1,            Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,            Yao%Tian%NULL%2,            Yao%Tian%NULL%0,            Jing%Zhou%NULL%2,            Xuan%Ma%NULL%1,            Min%Yang%NULL%1,            ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,           Yao%Tian%NULL%2,           Yao%Tian%NULL%0,           Jing%Zhou%NULL%2,           Xuan%Ma%NULL%1,           Min%Yang%NULL%1,           ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,            James%Fielding%NULL%1,            Michaela%Diercke%NULL%1,            Christine%Campese%NULL%1,            Vincent%Enouf%NULL%1,            Alexandre%Gaymard%NULL%1,            Antonino%Bella%NULL%1,            Paola%Sognamiglio%NULL%1,            Maria José%Sierra Moros%NULL%1,            Antonio Nicolau%Riutort%NULL%1,            Yulia V.%Demina%NULL%1,            Romain%Mahieu%NULL%1,            Markku%Broas%NULL%1,            Malin%Bengnér%NULL%1,            Silke%Buda%NULL%1,            Julia%Schilling%NULL%1,            Laurent%Filleul%NULL%1,            Agnès%Lepoutre%NULL%1,            Christine%Saura%NULL%1,            Alexandra%Mailles%NULL%1,            Daniel%Levy-Bruhl%NULL%1,            Bruno%Coignard%NULL%1,            Sibylle%Bernard-Stoecklin%NULL%1,            Sylvie%Behillil%NULL%1,            Sylvie%van der Werf%NULL%1,            Martine%Valette%NULL%1,            Bruno%Lina%NULL%1,            Flavia%Riccardo%NULL%1,            Emanuele%Nicastri%NULL%3,            Inmaculada%Casas%NULL%1,            Amparo%Larrauri%NULL%1,            Magdalena%Salom Castell%NULL%1,            Francisco%Pozo%NULL%1,            Rinat A.%Maksyutov%NULL%1,            Charlotte%Martin%NULL%1,            Marc%Van Ranst%NULL%3,            Nathalie%Bossuyt%NULL%1,            Lotta%Siira%NULL%1,            Jussi%Sane%NULL%1,            Karin%Tegmark-Wisell%NULL%1,            Maria%Palmérus%NULL%1,            Eeva K.%Broberg%NULL%1,            Julien%Beauté%NULL%1,            Pernille%Jorgensen%NULL%1,            Nick%Bundle%NULL%1,            Dmitriy%Pereyaslov%NULL%1,            Cornelia%Adlhoch%NULL%1,            Jukka%Pukkila%NULL%1,            Richard%Pebody%NULL%1,            Sonja%Olsen%NULL%1,            Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,            Yong-hua%Gao%NULL%1,            Li-Li%lou%NULL%1,            Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,            Huaqiao%Li%NULL%1,            Songtao%Huang%NULL%1,            Wei%You%NULL%1,            Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%9,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%10,            Jie%Xiang%NULL%16,            Yeming%Wang%NULL%0,            Bin%Song%NULL%10,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%9,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%10,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%9,            Yi%Zhang%NULL%10,            Hua%Chen%NULL%10,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%19,           Ronghui%Du%NULL%8,           Guohui%Fan%NULL%12,           Ying%Liu%NULL%10,           Zhibo%Liu%NULL%8,           Jie%Xiang%NULL%12,           Yeming%Wang%NULL%12,           Bin%Song%NULL%8,           Xiaoying%Gu%NULL%12,           Lulu%Guan%NULL%8,           Yuan%Wei%NULL%13,           Hui%Li%NULL%16,           Xudong%Wu%NULL%8,           Jiuyang%Xu%NULL%12,           Shengjin%Tu%NULL%8,           Yi%Zhang%NULL%9,           Hua%Chen%NULL%8,           Bin%Cao%NULL%13]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,            Ying%Chen%NULL%1,            Ruzheng%Lin%NULL%1,            Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,            Tangkai%Qi%NULL%2,            Li%Liu%NULL%2,            Yun%Ling%NULL%0,            Zhiping%Qian%NULL%2,            Tao%Li%NULL%3,            Feng%Li%NULL%2,            Qingnian%Xu%NULL%2,            Yuyi%Zhang%NULL%2,            Shuibao%Xu%NULL%2,            Zhigang%Song%NULL%2,            Yigang%Zeng%NULL%2,            Yinzhong%Shen%NULL%2,            Yuxin%Shi%NULL%0,            Tongyu%Zhu%NULL%3,            Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,            Feifei%Yao%NULL%1,            Lijie%Wang%NULL%1,            Ling%Zheng%NULL%1,            Yongjun%Gao%NULL%1,            Jun%Ye%NULL%1,            Feng%Guo%NULL%1,            Hui%Zhao%NULL%1,            Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,            Bin%Quan%NULL%1,            Xiaoning%Li%NULL%2,            Guangjian%Gao%NULL%1,            Wenqiang%Zheng%NULL%1,            Jun%Zhang%NULL%1,            Zhiyun%Zhang%NULL%1,            Chunsheng%Liu%NULL%1,            Li%Li%NULL%0,            Chenglin%Wang%NULL%1,            Guihua%Zhang%NULL%1,            Jiajia%Li%NULL%1,            Yunhai%Dai%NULL%1,            Jianghua%Yang%yjhpath@163.com%1,            Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,           Bin%Quan%NULL%1,           Xiaoning%Li%NULL%2,           Guangjian%Gao%NULL%1,           Wenqiang%Zheng%NULL%1,           Jun%Zhang%NULL%5,           Zhiyun%Zhang%NULL%1,           Chunsheng%Liu%NULL%1,           Li%Li%NULL%4,           Chenglin%Wang%NULL%1,           Guihua%Zhang%NULL%1,           Jiajia%Li%NULL%1,           Yunhai%Dai%NULL%1,           Jianghua%Yang%yjhpath@163.com%1,           Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,            Kai%Xie%NULL%4,            Kai%Xie%NULL%0,            Hui%Lu%NULL%2,            Lei%Xu%bayinhexl@126.com%3,            Shusheng%Zhou%zhouss108@163.com%2,            Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,           Kai%Xie%NULL%2,           Kai%Xie%NULL%0,           Hui%Lu%NULL%1,           Lei%Xu%bayinhexl@126.com%1,           Shusheng%Zhou%zhouss108@163.com%1,           Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,            Yuanyuan%Xing%NULL%3,            Yu%Xiao%NULL%3,            Liping%Deng%NULL%4,            Qiu%Zhao%NULL%3,            Hongling%Wang%NULL%3,            Yong%Xiong%NULL%5,            Zhenshun%Cheng%NULL%0,            Shicheng%Gao%NULL%4,            Ke%Liang%NULL%4,            Mingqi%Luo%NULL%4,            Tielong%Chen%NULL%3,            Shihui%Song%NULL%4,            Zhiyong%Ma%NULL%4,            Xiaoping%Chen%NULL%4,            Ruiying%Zheng%NULL%3,            Qian%Cao%NULL%3,            Fan%Wang%fanndywang@foxmail.com%3,            Yongxi%Zhang%znact1936@126.com%6]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,            Bohan%Yang%NULL%3,            Qianwen%Li%NULL%3,            Lu%Wen%NULL%3,            Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,            Yingxia%Liu%NULL%1,            Lei%Liu%NULL%16,            Xianfeng%Wang%NULL%1,            Nijuan%Luo%NULL%1,            Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,           Yingxia%Liu%NULL%2,           Lei%Liu%NULL%10,           Xianfeng%Wang%NULL%1,           Nijuan%Luo%NULL%1,           Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,            N -B%Yang%NULL%2,            F%Ding%NULL%2,            A H Y%Ma%NULL%2,            Z -Y%Wang%NULL%4,            Y -F%Shen%NULL%2,            C -W%Shi%NULL%2,            X%Lian%NULL%2,            J -G%Chu%NULL%2,            L%Chen%chxmin@hotmail.com%2,            Z -Y%Wang%NULL%0,            D -W%Ren%NULL%2,            G -X%Li%NULL%2,            X -Q%Chen%chxmin@hotmail.com%2,            H -J%Shen%NULL%2,            X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,            Tuantuan%Li%NULL%2,            Mingfeng%Han%NULL%2,            Xiuyong%Li%NULL%2,            Dong%Wu%NULL%2,            Yuanhong%Xu%NULL%4,            Yulin%Zhu%NULL%2,            Yan%Liu%NULL%3,            Xiaowu%Wang%wangxiaowu19880218@126.com%2,            Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,           Tuantuan%Li%NULL%2,           Mingfeng%Han%NULL%6,           Xiuyong%Li%NULL%2,           Dong%Wu%NULL%2,           Yuanhong%Xu%NULL%2,           Yulin%Zhu%NULL%2,           Yan%Liu%NULL%2,           Xiaowu%Wang%wangxiaowu19880218@126.com%2,           Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
   </si>
 </sst>
 </file>
@@ -3191,7 +3534,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>690</v>
+        <v>800</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -3220,7 +3563,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>691</v>
+        <v>801</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -3249,7 +3592,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>692</v>
+        <v>802</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -3278,7 +3621,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>693</v>
+        <v>803</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -3307,7 +3650,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>804</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -3336,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>695</v>
+        <v>805</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -3365,7 +3708,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>806</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -3394,7 +3737,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>697</v>
+        <v>807</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -3420,10 +3763,10 @@
         <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>698</v>
+        <v>809</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -3452,7 +3795,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>699</v>
+        <v>810</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -3481,7 +3824,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>700</v>
+        <v>811</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -3510,7 +3853,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>701</v>
+        <v>812</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -3539,7 +3882,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>702</v>
+        <v>813</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -3568,7 +3911,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>703</v>
+        <v>814</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -3597,7 +3940,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>704</v>
+        <v>815</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -3626,7 +3969,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>705</v>
+        <v>816</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -3655,7 +3998,7 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>706</v>
+        <v>817</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -3684,7 +4027,7 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>707</v>
+        <v>818</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -3713,7 +4056,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -3742,7 +4085,7 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>709</v>
+        <v>820</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -3771,7 +4114,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>710</v>
+        <v>821</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -3800,7 +4143,7 @@
         <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>711</v>
+        <v>822</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -3829,7 +4172,7 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>712</v>
+        <v>823</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -3858,7 +4201,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>713</v>
+        <v>824</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -3887,7 +4230,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>714</v>
+        <v>825</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -3916,7 +4259,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>715</v>
+        <v>826</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -3945,7 +4288,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>716</v>
+        <v>827</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -3974,7 +4317,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>717</v>
+        <v>828</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -4003,7 +4346,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>718</v>
+        <v>829</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -4032,7 +4375,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>719</v>
+        <v>830</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4061,7 +4404,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>720</v>
+        <v>831</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -4090,7 +4433,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>721</v>
+        <v>832</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -4119,7 +4462,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -4148,7 +4491,7 @@
         <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>723</v>
+        <v>834</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -4177,7 +4520,7 @@
         <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -4206,7 +4549,7 @@
         <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>725</v>
+        <v>836</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -4235,7 +4578,7 @@
         <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>726</v>
+        <v>837</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
@@ -4264,7 +4607,7 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>727</v>
+        <v>838</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -4293,7 +4636,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>728</v>
+        <v>839</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -4322,7 +4665,7 @@
         <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>729</v>
+        <v>840</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -4351,7 +4694,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>730</v>
+        <v>841</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -4380,7 +4723,7 @@
         <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>731</v>
+        <v>842</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -4409,7 +4752,7 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>732</v>
+        <v>843</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -4438,7 +4781,7 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>733</v>
+        <v>844</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -4467,7 +4810,7 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>734</v>
+        <v>845</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -4496,7 +4839,7 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>735</v>
+        <v>846</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -4525,7 +4868,7 @@
         <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>736</v>
+        <v>847</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -4554,7 +4897,7 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>737</v>
+        <v>848</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -4583,7 +4926,7 @@
         <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>738</v>
+        <v>849</v>
       </c>
       <c r="F50" t="s">
         <v>91</v>
@@ -4612,7 +4955,7 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>739</v>
+        <v>850</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -4641,7 +4984,7 @@
         <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>740</v>
+        <v>851</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -4670,7 +5013,7 @@
         <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>741</v>
+        <v>852</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -4699,7 +5042,7 @@
         <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>742</v>
+        <v>853</v>
       </c>
       <c r="F54" t="s">
         <v>91</v>
@@ -4728,7 +5071,7 @@
         <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>743</v>
+        <v>854</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -4757,7 +5100,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>744</v>
+        <v>855</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="967">
   <si>
     <t>Doi</t>
   </si>
@@ -3194,6 +3194,358 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,           Tuantuan%Li%NULL%2,           Mingfeng%Han%NULL%6,           Xiuyong%Li%NULL%2,           Dong%Wu%NULL%2,           Yuanhong%Xu%NULL%2,           Yulin%Zhu%NULL%2,           Yan%Liu%NULL%2,           Xiaowu%Wang%wangxiaowu19880218@126.com%2,           Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,             Yeming%Wang%NULL%16,             Xingwang%Li%NULL%7,             Lili%Ren%NULL%6,             Jianping%Zhao%NULL%13,             Yi%Hu%NULL%14,             Li%Zhang%NULL%13,             Guohui%Fan%NULL%16,             Jiuyang%Xu%NULL%16,             Xiaoying%Gu%NULL%16,             Zhenshun%Cheng%NULL%9,             Ting%Yu%NULL%27,             Jiaan%Xia%NULL%7,             Yuan%Wei%NULL%21,             Wenjuan%Wu%NULL%6,             Xuelei%Xie%NULL%7,             Wen%Yin%NULL%10,             Hui%Li%NULL%18,             Min%Liu%NULL%6,             Yan%Xiao%NULL%7,             Hong%Gao%NULL%7,             Li%Guo%NULL%8,             Jungang%Xie%NULL%7,             Guangfa%Wang%NULL%6,             Rongmeng%Jiang%NULL%6,             Zhancheng%Gao%NULL%6,             Qi%Jin%NULL%7,             Jianwei%Wang%wangjw28@163.com%6,             Bin%Cao%caobin_ben@163.com%16]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,             Shuofeng%Yuan%NULL%2,             Kin-Hang%Kok%NULL%2,             Kelvin Kai-Wang%To%NULL%2,             Hin%Chu%NULL%2,             Jin%Yang%NULL%2,             Fanfan%Xing%NULL%2,             Jieling%Liu%NULL%2,             Cyril Chik-Yan%Yip%NULL%3,             Rosana Wing-Shan%Poon%NULL%3,             Hoi-Wah%Tsoi%NULL%2,             Simon Kam-Fai%Lo%NULL%2,             Kwok-Hung%Chan%NULL%3,             Vincent Kwok-Man%Poon%NULL%2,             Wan-Mui%Chan%NULL%3,             Jonathan Daniel%Ip%NULL%3,             Jian-Piao%Cai%NULL%3,             Vincent Chi-Chung%Cheng%NULL%3,             Honglin%Chen%NULL%3,             Christopher Kim-Ming%Hui%NULL%2,             Kwok-Yung%Yuen%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,             Xuhua%Guan%NULL%1,             Peng%Wu%NULL%1,             Xiaoye%Wang%NULL%1,             Lei%Zhou%NULL%1,             Yeqing%Tong%NULL%1,             Ruiqi%Ren%NULL%1,             Kathy S.M.%Leung%NULL%1,             Eric H.Y.%Lau%NULL%1,             Jessica Y.%Wong%NULL%1,             Xuesen%Xing%NULL%1,             Nijuan%Xiang%NULL%1,             Yang%Wu%NULL%1,             Chao%Li%NULL%1,             Qi%Chen%NULL%1,             Dan%Li%NULL%1,             Tian%Liu%NULL%1,             Jing%Zhao%NULL%1,             Man%Liu%NULL%1,             Wenxiao%Tu%NULL%1,             Chuding%Chen%NULL%1,             Lianmei%Jin%NULL%1,             Rui%Yang%NULL%1,             Qi%Wang%NULL%1,             Suhua%Zhou%NULL%1,             Rui%Wang%NULL%1,             Hui%Liu%NULL%1,             Yinbo%Luo%NULL%1,             Yuan%Liu%NULL%1,             Ge%Shao%NULL%1,             Huan%Li%NULL%3,             Zhongfa%Tao%NULL%1,             Yang%Yang%NULL%3,             Zhiqiang%Deng%NULL%1,             Boxi%Liu%NULL%1,             Zhitao%Ma%NULL%1,             Yanping%Zhang%NULL%1,             Guoqing%Shi%NULL%1,             Tommy T.Y.%Lam%NULL%1,             Joseph T.%Wu%NULL%1,             George F.%Gao%NULL%1,             Benjamin J.%Cowling%NULL%1,             Bo%Yang%NULL%4,             Bo%Yang%NULL%0,             Gabriel M.%Leung%NULL%1,             Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,             Min%Zhou%NULL%6,             Xuan%Dong%NULL%6,             Jieming%Qu%NULL%10,             Fengyun%Gong%NULL%6,             Yang%Han%NULL%5,             Yang%Qiu%NULL%5,             Jingli%Wang%NULL%6,             Ying%Liu%NULL%15,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%11,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%5,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,             Nannan%Shi%NULL%3,             Nannan%Shi%NULL%0,             Fei%Shan%NULL%2,             Zhiyong%Zhang%NULL%2,             Jie%Shen%NULL%1,             Hongzhou%Lu%NULL%6,             Yun%Ling%NULL%7,             Yebin%Jiang%NULL%2,             Yebin%Jiang%NULL%0,             Yuxin%Shi%shiyuxin@shphc.org.cn%5,             Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,         Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,             Yuan-Yuan%Fang%NULL%4,             Yan%Deng%NULL%4,             Wei%Liu%NULL%6,             Mei-Fang%Wang%NULL%2,             Jing-Ping%Ma%NULL%2,             Wei%Xiao%NULL%2,             Ying-Nan%Wang%NULL%2,             Min-Hua%Zhong%NULL%2,             Cheng-Hong%Li%NULL%2,             Guang-Cai%Li%NULL%2,             Hui-Guo%Liu%NULL%6,             Xiu-Yuan%Hao%NULL%6,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%11]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,     Minggui%Lin%xref no email%2,     Lai%Wei%xref no email%2,     Lixin%Xie%xref no email%2,     Guangfa%Zhu%xref no email%2,     Charles S.%Dela Cruz%xref no email%2,     Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,   Yang%Yang%null%1,   Cong%Zhang%null%1,   Fengming%Huang%null%1,   Fuxiang%Wang%null%1,   Jing%Yuan%null%2,   Zhaoqin%Wang%null%2,   Jinxiu%Li%null%1,   Jianming%Li%null%1,   Cheng%Feng%null%1,   Zheng%Zhang%null%2,   Lifei%Wang%null%1,   Ling%Peng%null%1,   Li%Chen%null%1,   Yuhao%Qin%null%1,   Dandan%Zhao%null%1,   Shuguang%Tan%null%1,   Lu%Yin%null%1,   Jun%Xu%null%1,   Congzhao%Zhou%null%1,   Chengyu%Jiang%null%1,   Lei%Liu%null%3]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,             Ye-Ming%Wang%NULL%1,             Zhi-Qiang%Wu%NULL%1,             Zi-Chun%Xiang%NULL%1,             Li%Guo%NULL%0,             Teng%Xu%NULL%1,             Yong-Zhong%Jiang%NULL%1,             Yan%Xiong%NULL%4,             Yong-Jun%Li%NULL%1,             Xing-Wang%Li%NULL%1,             Hui%Li%NULL%0,             Guo-Hui%Fan%NULL%1,             Xiao-Ying%Gu%NULL%1,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Jiu-Yang%Xu%NULL%1,             Fan%Yang%NULL%3,             Xin-Ming%Wang%NULL%1,             Chao%Wu%NULL%3,             Lan%Chen%NULL%1,             Yi-Wei%Liu%NULL%1,             Bo%Liu%NULL%2,             Jian%Yang%NULL%1,             Xiao-Rui%Wang%NULL%1,             Jie%Dong%NULL%1,             Li%Li%NULL%5,             Chao-Lin%Huang%NULL%1,             Jian-Ping%Zhao%NULL%1,             Yi%Hu%NULL%0,             Zhen-Shun%Cheng%NULL%1,             Lin-Lin%Liu%NULL%1,             Zhao-Hui%Qian%NULL%1,             Chuan%Qin%NULL%1,             Qi%Jin%NULL%0,             Bin%Cao%NULL%0,             Jian-Wei%Wang%NULL%1,             Xiu-Yuan%Hao%NULL%0,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,             Dengju%Li%NULL%2,             Xiong%Wang%NULL%4,             Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,         Cao%Yi-yuan%coreGivesNoEmail%4,         Dong%Xiang%coreGivesNoEmail%4,         Gao%Ya-dong%coreGivesNoEmail%4,         Yan%You-qin%coreGivesNoEmail%4,         Yang%Yi-bin%coreGivesNoEmail%4,         Yuan%Ya-dong%coreGivesNoEmail%4,         Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,             Xiao-Xin%Wu%NULL%3,             Xian-Gao%Jiang%NULL%3,             Kai-Jin%Xu%NULL%3,             Ling-Jun%Ying%NULL%3,             Chun-Lian%Ma%NULL%3,             Shi-Bo%Li%NULL%3,             Hua-Ying%Wang%NULL%3,             Sheng%Zhang%NULL%3,             Hai-Nv%Gao%NULL%3,             Ji-Fang%Sheng%NULL%3,             Hong-Liu%Cai%NULL%3,             Yun-Qing%Qiu%NULL%3,             Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,             Xiaojia%Wu%NULL%1,             Wenbing%Zeng%NULL%1,             Dajing%Guo%NULL%4,             Zheng%Fang%NULL%4,             Linli%Chen%NULL%4,             Huizhe%Huang%NULL%1,             Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,             Valerie%Wong%NULL%1,             Vivian Wan In%Wei%NULL%1,             Samuel Yeung Shan%Wong%NULL%1,             Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,             Xiaoyu%Han%NULL%1,             Nanchuan%Jiang%NULL%1,             Yukun%Cao%NULL%1,             Osamah%Alwalid%NULL%1,             Jin%Gu%NULL%1,             Yanqing%Fan%1024932023@qq.com%2,             Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,             Jing-Hui%Dong%NULL%2,             Wei-Min%An%NULL%2,             Xiao-Yan%Lv%15001008285@139.com%2,             Xiao-Ping%Yin%yinxiaoping78@sina.com%2,             Jian-Zeng%Zhang%NULL%2,             Li%Dong%NULL%2,             Xi%Ma%NULL%2,             Hong-Jie%Zhang%NULL%2,             Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,             Zhenlu%Yang%NULL%2,             Zhenlu%Yang%NULL%0,             Hongyan%Hou%NULL%2,             Hongyan%Hou%NULL%0,             Chenao%Zhan%NULL%1,             Chong%Chen%NULL%1,             Wenzhi%Lv%NULL%2,             Wenzhi%Lv%NULL%0,             Qian%Tao%NULL%2,             Qian%Tao%NULL%0,             Ziyong%Sun%NULL%0,             Ziyong%Sun%NULL%0,             Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,             Qiqi%Cao%NULL%3,             Le%Qin%NULL%3,             Xiaoyang%Wang%NULL%3,             Zenghui%Cheng%NULL%3,             Ashan%Pan%NULL%3,             Jianyi%Dai%NULL%3,             Qingfeng%Sun%NULL%3,             Fengquan%Zhao%NULL%3,             Jieming%Qu%NULL%0,             Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,             Nan%Hu%NULL%2,             Jing%Lou%NULL%2,             Kun%Chen%NULL%2,             Xuqin%Kang%NULL%2,             Zhenjun%Xiang%NULL%2,             Hui%Chen%NULL%4,             Dali%Wang%NULL%2,             Ning%Liu%NULL%2,             Dong%Liu%NULL%2,             Gang%Chen%NULL%2,             Yongliang%Zhang%NULL%2,             Dou%Li%NULL%2,             Jianren%Li%NULL%2,             Huixin%Lian%NULL%2,             Shengmei%Niu%NULL%2,             Luxi%Zhang%NULL%2,             Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,             Mengqi%Tu%NULL%3,             Shipei%Wang%NULL%3,             Sichao%Chen%NULL%3,             Wei%Zhou%NULL%5,             Danyang%Chen%NULL%3,             Lin%Zhou%NULL%3,             Min%Wang%NULL%3,             Yan%Zhao%NULL%5,             Wen%Zeng%NULL%3,             Qi%Huang%NULL%3,             Hai'bo%Xu%NULL%3,             Zeming%Liu%NULL%3,             Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
+ We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
+Methods
+All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
+ This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
+ All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
+ We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
+ In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
+Findings
+The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
+ More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
+ Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
+ Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
+ In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
+Conclusion
+SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
+ Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
+ Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,             Chengcheng%Yu%NULL%2,             Jing%Qu%NULL%2,             Lieguang%Zhang%NULL%2,             Songfeng%Jiang%NULL%2,             Deyang%Huang%NULL%2,             Bihua%Chen%NULL%2,             Zhiping%Zhang%NULL%2,             Wanhua%Guan%NULL%2,             Zhoukun%Ling%NULL%2,             Rui%Jiang%NULL%2,             Tianli%Hu%NULL%2,             Yan%Ding%NULL%2,             Lin%Lin%NULL%2,             Qingxin%Gan%NULL%2,             Liangping%Luo%tluolp@jnu.edu.cn%2,             Xiaoping%Tang%xtang@21cn.com%2,             Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,             Zhao-Wu%Tao%NULL%2,             Lei%Wang%NULL%3,             Ming-Li%Yuan%NULL%4,             Kui%Liu%NULL%6,             Ling%Zhou%NULL%4,             Shuang%Wei%NULL%4,             Yan%Deng%NULL%0,             Jing%Liu%NULL%4,             Hui-Guo%Liu%NULL%0,             Ming%Yang%NULL%3,             Yi%Hu%NULL%0,             Pei-Fang%Wei%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,             Jiong%Wu%NULL%3,             Faqi%Wu%NULL%3,             Dajing%Guo%NULL%0,             Linli%Chen%NULL%0,             Zheng%Fang%NULL%0,             Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,             Jun%Liu%NULL%3,             Xinguo%Zhao%NULL%1,             Chengyuan%Liu%NULL%1,             Wei%Wang%NULL%6,             Dawei%Wang%NULL%1,             Wei%Xu%NULL%2,             Chunyu%Zhang%NULL%1,             Jiong%Yu%NULL%1,             Bin%Jiang%NULL%1,             Hongcui%Cao%hccao@zju.edu.cn%1,             Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,             Xiaorong%Hu%NULL%2,             Wenlin%Cheng%NULL%7,             Lei%Yu%NULL%7,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%7,             Qiang%Liu%liuqiang@irm-cams.ac.cn%9,             Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,             Kun%Yang%NULL%10,             Kun%Yang%NULL%0,             Wenxia%Wang%NULL%10,             Wenxia%Wang%NULL%0,             Lingyu%Jiang%NULL%10,             Lingyu%Jiang%NULL%0,             Jianxin%Song%songsingsjx@sina.com%10,             Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,            Kun%Yang%NULL%3,            Kun%Yang%NULL%0,            Wenxia%Wang%NULL%2,            Wenxia%Wang%NULL%0,            Lingyu%Jiang%NULL%2,            Lingyu%Jiang%NULL%0,            Jianxin%Song%songsingsjx@sina.com%2,            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,             Meiwen%Tang%NULL%1,             Xiaobin%Zheng%NULL%1,             Ye%Liu%ly77219@163.com%1,             Xiaofeng%Li%zdwylxf@163.com%1,             Hong%Shan%shanhong@mail.sysu.edu.cn%13]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,             Dong%Sun%NULL%1,             Yao%Liu%NULL%1,             Yanqing%Fan%NULL%0,             Lingyun%Zhao%NULL%1,             Xiaoming%Li%NULL%1,             Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,            Dong%Sun%NULL%1,            Yao%Liu%NULL%1,            Yanqing%Fan%NULL%1,            Lingyun%Zhao%NULL%1,            Xiaoming%Li%NULL%2,            Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,             SaiBin%Wang%NULL%2,             SaiBin%Wang%NULL%0,             YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,            SaiBin%Wang%NULL%2,            SaiBin%Wang%NULL%0,            YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,             Ci%Song%NULL%1,             Chuanjun%Xu%NULL%1,             Guangfu%Jin%NULL%1,             Yaling%Chen%NULL%1,             Xin%Xu%NULL%4,             Hongxia%Ma%NULL%1,             Wei%Chen%NULL%3,             Yuan%Lin%NULL%1,             Yishan%Zheng%NULL%1,             Jianming%Wang%NULL%5,             Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,             Yongxiang%Yi%ian0126@126.com%1,             Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,             Yao%Tian%NULL%2,             Yao%Tian%NULL%0,             Jing%Zhou%NULL%2,             Xuan%Ma%NULL%1,             Min%Yang%NULL%1,             ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,            Yao%Tian%NULL%2,            Yao%Tian%NULL%0,            Jing%Zhou%NULL%2,            Xuan%Ma%NULL%1,            Min%Yang%NULL%1,            ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,             James%Fielding%NULL%1,             Michaela%Diercke%NULL%1,             Christine%Campese%NULL%1,             Vincent%Enouf%NULL%1,             Alexandre%Gaymard%NULL%1,             Antonino%Bella%NULL%1,             Paola%Sognamiglio%NULL%1,             Maria José%Sierra Moros%NULL%1,             Antonio Nicolau%Riutort%NULL%1,             Yulia V.%Demina%NULL%1,             Romain%Mahieu%NULL%1,             Markku%Broas%NULL%1,             Malin%Bengnér%NULL%1,             Silke%Buda%NULL%1,             Julia%Schilling%NULL%1,             Laurent%Filleul%NULL%1,             Agnès%Lepoutre%NULL%1,             Christine%Saura%NULL%1,             Alexandra%Mailles%NULL%1,             Daniel%Levy-Bruhl%NULL%1,             Bruno%Coignard%NULL%1,             Sibylle%Bernard-Stoecklin%NULL%1,             Sylvie%Behillil%NULL%1,             Sylvie%van der Werf%NULL%1,             Martine%Valette%NULL%1,             Bruno%Lina%NULL%1,             Flavia%Riccardo%NULL%1,             Emanuele%Nicastri%NULL%3,             Inmaculada%Casas%NULL%1,             Amparo%Larrauri%NULL%1,             Magdalena%Salom Castell%NULL%1,             Francisco%Pozo%NULL%1,             Rinat A.%Maksyutov%NULL%1,             Charlotte%Martin%NULL%1,             Marc%Van Ranst%NULL%3,             Nathalie%Bossuyt%NULL%1,             Lotta%Siira%NULL%1,             Jussi%Sane%NULL%1,             Karin%Tegmark-Wisell%NULL%1,             Maria%Palmérus%NULL%1,             Eeva K.%Broberg%NULL%1,             Julien%Beauté%NULL%1,             Pernille%Jorgensen%NULL%1,             Nick%Bundle%NULL%1,             Dmitriy%Pereyaslov%NULL%1,             Cornelia%Adlhoch%NULL%1,             Jukka%Pukkila%NULL%1,             Richard%Pebody%NULL%1,             Sonja%Olsen%NULL%1,             Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,             Yong-hua%Gao%NULL%1,             Li-Li%lou%NULL%1,             Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,             Huaqiao%Li%NULL%1,             Songtao%Huang%NULL%1,             Wei%You%NULL%1,             Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%9,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%10,             Jie%Xiang%NULL%16,             Yeming%Wang%NULL%0,             Bin%Song%NULL%10,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%9,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%10,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%9,             Yi%Zhang%NULL%10,             Hua%Chen%NULL%10,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%16,            Ronghui%Du%NULL%7,            Guohui%Fan%NULL%10,            Ying%Liu%NULL%9,            Zhibo%Liu%NULL%7,            Jie%Xiang%NULL%10,            Yeming%Wang%NULL%10,            Bin%Song%NULL%7,            Xiaoying%Gu%NULL%10,            Lulu%Guan%NULL%7,            Yuan%Wei%NULL%11,            Hui%Li%NULL%14,            Xudong%Wu%NULL%7,            Jiuyang%Xu%NULL%10,            Shengjin%Tu%NULL%7,            Yi%Zhang%NULL%8,            Hua%Chen%NULL%7,            Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,             Ying%Chen%NULL%1,             Ruzheng%Lin%NULL%1,             Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,             Tangkai%Qi%NULL%2,             Li%Liu%NULL%2,             Yun%Ling%NULL%0,             Zhiping%Qian%NULL%2,             Tao%Li%NULL%3,             Feng%Li%NULL%2,             Qingnian%Xu%NULL%2,             Yuyi%Zhang%NULL%2,             Shuibao%Xu%NULL%2,             Zhigang%Song%NULL%2,             Yigang%Zeng%NULL%2,             Yinzhong%Shen%NULL%2,             Yuxin%Shi%NULL%0,             Tongyu%Zhu%NULL%3,             Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,             Feifei%Yao%NULL%1,             Lijie%Wang%NULL%1,             Ling%Zheng%NULL%1,             Yongjun%Gao%NULL%1,             Jun%Ye%NULL%1,             Feng%Guo%NULL%1,             Hui%Zhao%NULL%1,             Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,             Bin%Quan%NULL%1,             Xiaoning%Li%NULL%2,             Guangjian%Gao%NULL%1,             Wenqiang%Zheng%NULL%1,             Jun%Zhang%NULL%1,             Zhiyun%Zhang%NULL%1,             Chunsheng%Liu%NULL%1,             Li%Li%NULL%0,             Chenglin%Wang%NULL%1,             Guihua%Zhang%NULL%1,             Jiajia%Li%NULL%1,             Yunhai%Dai%NULL%1,             Jianghua%Yang%yjhpath@163.com%1,             Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,            Bin%Quan%NULL%1,            Xiaoning%Li%NULL%2,            Guangjian%Gao%NULL%1,            Wenqiang%Zheng%NULL%1,            Jun%Zhang%NULL%5,            Zhiyun%Zhang%NULL%1,            Chunsheng%Liu%NULL%1,            Li%Li%NULL%4,            Chenglin%Wang%NULL%1,            Guihua%Zhang%NULL%1,            Jiajia%Li%NULL%1,            Yunhai%Dai%NULL%1,            Jianghua%Yang%yjhpath@163.com%1,            Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,             Kai%Xie%NULL%4,             Kai%Xie%NULL%0,             Hui%Lu%NULL%2,             Lei%Xu%bayinhexl@126.com%3,             Shusheng%Zhou%zhouss108@163.com%2,             Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,            Kai%Xie%NULL%2,            Kai%Xie%NULL%0,            Hui%Lu%NULL%1,            Lei%Xu%bayinhexl@126.com%1,            Shusheng%Zhou%zhouss108@163.com%1,            Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,             Yuanyuan%Xing%NULL%3,             Yu%Xiao%NULL%3,             Liping%Deng%NULL%4,             Qiu%Zhao%NULL%3,             Hongling%Wang%NULL%3,             Yong%Xiong%NULL%5,             Zhenshun%Cheng%NULL%0,             Shicheng%Gao%NULL%4,             Ke%Liang%NULL%4,             Mingqi%Luo%NULL%4,             Tielong%Chen%NULL%3,             Shihui%Song%NULL%4,             Zhiyong%Ma%NULL%4,             Xiaoping%Chen%NULL%4,             Ruiying%Zheng%NULL%3,             Qian%Cao%NULL%3,             Fan%Wang%fanndywang@foxmail.com%3,             Yongxi%Zhang%znact1936@126.com%6]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,             Bohan%Yang%NULL%3,             Qianwen%Li%NULL%3,             Lu%Wen%NULL%3,             Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,             Yingxia%Liu%NULL%1,             Lei%Liu%NULL%15,             Xianfeng%Wang%NULL%1,             Nijuan%Luo%NULL%1,             Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,            Yingxia%Liu%NULL%2,            Lei%Liu%NULL%9,            Xianfeng%Wang%NULL%1,            Nijuan%Luo%NULL%1,            Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,             N -B%Yang%NULL%2,             F%Ding%NULL%2,             A H Y%Ma%NULL%2,             Z -Y%Wang%NULL%4,             Y -F%Shen%NULL%2,             C -W%Shi%NULL%2,             X%Lian%NULL%2,             J -G%Chu%NULL%2,             L%Chen%chxmin@hotmail.com%2,             Z -Y%Wang%NULL%0,             D -W%Ren%NULL%2,             G -X%Li%NULL%2,             X -Q%Chen%chxmin@hotmail.com%2,             H -J%Shen%NULL%2,             X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,             Tuantuan%Li%NULL%2,             Mingfeng%Han%NULL%2,             Xiuyong%Li%NULL%2,             Dong%Wu%NULL%2,             Yuanhong%Xu%NULL%4,             Yulin%Zhu%NULL%2,             Yan%Liu%NULL%3,             Xiaowu%Wang%wangxiaowu19880218@126.com%2,             Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,            Tuantuan%Li%NULL%2,            Mingfeng%Han%NULL%6,            Xiuyong%Li%NULL%2,            Dong%Wu%NULL%2,            Yuanhong%Xu%NULL%2,            Yulin%Zhu%NULL%2,            Yan%Liu%NULL%2,            Xiaowu%Wang%wangxiaowu19880218@126.com%2,            Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,              Yeming%Wang%NULL%16,              Xingwang%Li%NULL%7,              Lili%Ren%NULL%6,              Jianping%Zhao%NULL%13,              Yi%Hu%NULL%14,              Li%Zhang%NULL%13,              Guohui%Fan%NULL%16,              Jiuyang%Xu%NULL%16,              Xiaoying%Gu%NULL%16,              Zhenshun%Cheng%NULL%9,              Ting%Yu%NULL%27,              Jiaan%Xia%NULL%7,              Yuan%Wei%NULL%21,              Wenjuan%Wu%NULL%6,              Xuelei%Xie%NULL%7,              Wen%Yin%NULL%10,              Hui%Li%NULL%18,              Min%Liu%NULL%6,              Yan%Xiao%NULL%7,              Hong%Gao%NULL%7,              Li%Guo%NULL%8,              Jungang%Xie%NULL%7,              Guangfa%Wang%NULL%6,              Rongmeng%Jiang%NULL%6,              Zhancheng%Gao%NULL%6,              Qi%Jin%NULL%7,              Jianwei%Wang%wangjw28@163.com%6,              Bin%Cao%caobin_ben@163.com%16]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,              Shuofeng%Yuan%NULL%2,              Kin-Hang%Kok%NULL%2,              Kelvin Kai-Wang%To%NULL%2,              Hin%Chu%NULL%2,              Jin%Yang%NULL%2,              Fanfan%Xing%NULL%2,              Jieling%Liu%NULL%2,              Cyril Chik-Yan%Yip%NULL%3,              Rosana Wing-Shan%Poon%NULL%3,              Hoi-Wah%Tsoi%NULL%2,              Simon Kam-Fai%Lo%NULL%2,              Kwok-Hung%Chan%NULL%3,              Vincent Kwok-Man%Poon%NULL%2,              Wan-Mui%Chan%NULL%3,              Jonathan Daniel%Ip%NULL%3,              Jian-Piao%Cai%NULL%3,              Vincent Chi-Chung%Cheng%NULL%3,              Honglin%Chen%NULL%3,              Christopher Kim-Ming%Hui%NULL%2,              Kwok-Yung%Yuen%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,              Xuhua%Guan%NULL%1,              Peng%Wu%NULL%1,              Xiaoye%Wang%NULL%1,              Lei%Zhou%NULL%1,              Yeqing%Tong%NULL%1,              Ruiqi%Ren%NULL%1,              Kathy S.M.%Leung%NULL%1,              Eric H.Y.%Lau%NULL%1,              Jessica Y.%Wong%NULL%1,              Xuesen%Xing%NULL%1,              Nijuan%Xiang%NULL%1,              Yang%Wu%NULL%1,              Chao%Li%NULL%1,              Qi%Chen%NULL%1,              Dan%Li%NULL%1,              Tian%Liu%NULL%1,              Jing%Zhao%NULL%1,              Man%Liu%NULL%1,              Wenxiao%Tu%NULL%1,              Chuding%Chen%NULL%1,              Lianmei%Jin%NULL%1,              Rui%Yang%NULL%1,              Qi%Wang%NULL%1,              Suhua%Zhou%NULL%1,              Rui%Wang%NULL%1,              Hui%Liu%NULL%1,              Yinbo%Luo%NULL%1,              Yuan%Liu%NULL%1,              Ge%Shao%NULL%1,              Huan%Li%NULL%3,              Zhongfa%Tao%NULL%1,              Yang%Yang%NULL%3,              Zhiqiang%Deng%NULL%1,              Boxi%Liu%NULL%1,              Zhitao%Ma%NULL%1,              Yanping%Zhang%NULL%1,              Guoqing%Shi%NULL%1,              Tommy T.Y.%Lam%NULL%1,              Joseph T.%Wu%NULL%1,              George F.%Gao%NULL%1,              Benjamin J.%Cowling%NULL%1,              Bo%Yang%NULL%4,              Bo%Yang%NULL%0,              Gabriel M.%Leung%NULL%1,              Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,              Min%Zhou%NULL%6,              Xuan%Dong%NULL%6,              Jieming%Qu%NULL%10,              Fengyun%Gong%NULL%6,              Yang%Han%NULL%5,              Yang%Qiu%NULL%5,              Jingli%Wang%NULL%6,              Ying%Liu%NULL%15,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%11,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%5,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,              Nannan%Shi%NULL%3,              Nannan%Shi%NULL%0,              Fei%Shan%NULL%2,              Zhiyong%Zhang%NULL%2,              Jie%Shen%NULL%1,              Hongzhou%Lu%NULL%6,              Yun%Ling%NULL%7,              Yebin%Jiang%NULL%2,              Yebin%Jiang%NULL%0,              Yuxin%Shi%shiyuxin@shphc.org.cn%5,              Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%6,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%6,          Subert-Salas%Lizandra%coreGivesNoEmail%6]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,              Yuan-Yuan%Fang%NULL%4,              Yan%Deng%NULL%4,              Wei%Liu%NULL%6,              Mei-Fang%Wang%NULL%2,              Jing-Ping%Ma%NULL%2,              Wei%Xiao%NULL%2,              Ying-Nan%Wang%NULL%2,              Min-Hua%Zhong%NULL%2,              Cheng-Hong%Li%NULL%2,              Guang-Cai%Li%NULL%2,              Hui-Guo%Liu%NULL%6,              Xiu-Yuan%Hao%NULL%6,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%11]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,      Minggui%Lin%xref no email%2,      Lai%Wei%xref no email%2,      Lixin%Xie%xref no email%2,      Guangfa%Zhu%xref no email%2,      Charles S.%Dela Cruz%xref no email%2,      Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,    Yang%Yang%null%1,    Cong%Zhang%null%1,    Fengming%Huang%null%1,    Fuxiang%Wang%null%1,    Jing%Yuan%null%3,    Zhaoqin%Wang%null%2,    Jinxiu%Li%null%1,    Jianming%Li%null%1,    Cheng%Feng%null%1,    Zheng%Zhang%null%2,    Lifei%Wang%null%1,    Ling%Peng%null%1,    Li%Chen%null%1,    Yuhao%Qin%null%1,    Dandan%Zhao%null%1,    Shuguang%Tan%null%1,    Lu%Yin%null%1,    Jun%Xu%null%1,    Congzhao%Zhou%null%1,    Chengyu%Jiang%null%1,    Lei%Liu%null%3]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,              Ye-Ming%Wang%NULL%1,              Zhi-Qiang%Wu%NULL%1,              Zi-Chun%Xiang%NULL%1,              Li%Guo%NULL%0,              Teng%Xu%NULL%1,              Yong-Zhong%Jiang%NULL%1,              Yan%Xiong%NULL%4,              Yong-Jun%Li%NULL%1,              Xing-Wang%Li%NULL%1,              Hui%Li%NULL%0,              Guo-Hui%Fan%NULL%1,              Xiao-Ying%Gu%NULL%1,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Jiu-Yang%Xu%NULL%1,              Fan%Yang%NULL%3,              Xin-Ming%Wang%NULL%1,              Chao%Wu%NULL%3,              Lan%Chen%NULL%1,              Yi-Wei%Liu%NULL%1,              Bo%Liu%NULL%2,              Jian%Yang%NULL%1,              Xiao-Rui%Wang%NULL%1,              Jie%Dong%NULL%1,              Li%Li%NULL%5,              Chao-Lin%Huang%NULL%1,              Jian-Ping%Zhao%NULL%1,              Yi%Hu%NULL%0,              Zhen-Shun%Cheng%NULL%1,              Lin-Lin%Liu%NULL%1,              Zhao-Hui%Qian%NULL%1,              Chuan%Qin%NULL%1,              Qi%Jin%NULL%0,              Bin%Cao%NULL%0,              Jian-Wei%Wang%NULL%1,              Xiu-Yuan%Hao%NULL%0,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,              Dengju%Li%NULL%2,              Xiong%Wang%NULL%4,              Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,          Cao%Yi-yuan%coreGivesNoEmail%5,          Dong%Xiang%coreGivesNoEmail%5,          Gao%Ya-dong%coreGivesNoEmail%5,          Yan%You-qin%coreGivesNoEmail%5,          Yang%Yi-bin%coreGivesNoEmail%5,          Yuan%Ya-dong%coreGivesNoEmail%5,          Zhang%Jin-jin%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,              Xiao-Xin%Wu%NULL%3,              Xian-Gao%Jiang%NULL%3,              Kai-Jin%Xu%NULL%3,              Ling-Jun%Ying%NULL%3,              Chun-Lian%Ma%NULL%3,              Shi-Bo%Li%NULL%3,              Hua-Ying%Wang%NULL%3,              Sheng%Zhang%NULL%3,              Hai-Nv%Gao%NULL%3,              Ji-Fang%Sheng%NULL%3,              Hong-Liu%Cai%NULL%3,              Yun-Qing%Qiu%NULL%3,              Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,              Xiaojia%Wu%NULL%1,              Wenbing%Zeng%NULL%1,              Dajing%Guo%NULL%4,              Zheng%Fang%NULL%4,              Linli%Chen%NULL%4,              Huizhe%Huang%NULL%1,              Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,              Valerie%Wong%NULL%1,              Vivian Wan In%Wei%NULL%1,              Samuel Yeung Shan%Wong%NULL%1,              Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,              Xiaoyu%Han%NULL%1,              Nanchuan%Jiang%NULL%1,              Yukun%Cao%NULL%1,              Osamah%Alwalid%NULL%1,              Jin%Gu%NULL%1,              Yanqing%Fan%1024932023@qq.com%2,              Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,              Jing-Hui%Dong%NULL%2,              Wei-Min%An%NULL%2,              Xiao-Yan%Lv%15001008285@139.com%2,              Xiao-Ping%Yin%yinxiaoping78@sina.com%2,              Jian-Zeng%Zhang%NULL%2,              Li%Dong%NULL%2,              Xi%Ma%NULL%2,              Hong-Jie%Zhang%NULL%2,              Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,              Zhenlu%Yang%NULL%2,              Zhenlu%Yang%NULL%0,              Hongyan%Hou%NULL%2,              Hongyan%Hou%NULL%0,              Chenao%Zhan%NULL%1,              Chong%Chen%NULL%1,              Wenzhi%Lv%NULL%2,              Wenzhi%Lv%NULL%0,              Qian%Tao%NULL%2,              Qian%Tao%NULL%0,              Ziyong%Sun%NULL%0,              Ziyong%Sun%NULL%0,              Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,              Qiqi%Cao%NULL%3,              Le%Qin%NULL%3,              Xiaoyang%Wang%NULL%3,              Zenghui%Cheng%NULL%3,              Ashan%Pan%NULL%3,              Jianyi%Dai%NULL%3,              Qingfeng%Sun%NULL%3,              Fengquan%Zhao%NULL%3,              Jieming%Qu%NULL%0,              Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,              Nan%Hu%NULL%2,              Jing%Lou%NULL%2,              Kun%Chen%NULL%2,              Xuqin%Kang%NULL%2,              Zhenjun%Xiang%NULL%2,              Hui%Chen%NULL%4,              Dali%Wang%NULL%2,              Ning%Liu%NULL%2,              Dong%Liu%NULL%2,              Gang%Chen%NULL%2,              Yongliang%Zhang%NULL%2,              Dou%Li%NULL%2,              Jianren%Li%NULL%2,              Huixin%Lian%NULL%2,              Shengmei%Niu%NULL%2,              Luxi%Zhang%NULL%2,              Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,              Mengqi%Tu%NULL%3,              Shipei%Wang%NULL%3,              Sichao%Chen%NULL%3,              Wei%Zhou%NULL%5,              Danyang%Chen%NULL%3,              Lin%Zhou%NULL%3,              Min%Wang%NULL%3,              Yan%Zhao%NULL%5,              Wen%Zeng%NULL%3,              Qi%Huang%NULL%3,              Hai'bo%Xu%NULL%3,              Zeming%Liu%NULL%3,              Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,              Chengcheng%Yu%NULL%2,              Jing%Qu%NULL%2,              Lieguang%Zhang%NULL%2,              Songfeng%Jiang%NULL%2,              Deyang%Huang%NULL%2,              Bihua%Chen%NULL%2,              Zhiping%Zhang%NULL%2,              Wanhua%Guan%NULL%2,              Zhoukun%Ling%NULL%2,              Rui%Jiang%NULL%2,              Tianli%Hu%NULL%2,              Yan%Ding%NULL%2,              Lin%Lin%NULL%2,              Qingxin%Gan%NULL%2,              Liangping%Luo%tluolp@jnu.edu.cn%2,              Xiaoping%Tang%xtang@21cn.com%2,              Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,              Zhao-Wu%Tao%NULL%2,              Lei%Wang%NULL%3,              Ming-Li%Yuan%NULL%4,              Kui%Liu%NULL%6,              Ling%Zhou%NULL%4,              Shuang%Wei%NULL%4,              Yan%Deng%NULL%0,              Jing%Liu%NULL%4,              Hui-Guo%Liu%NULL%0,              Ming%Yang%NULL%3,              Yi%Hu%NULL%0,              Pei-Fang%Wei%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,              Jiong%Wu%NULL%3,              Faqi%Wu%NULL%3,              Dajing%Guo%NULL%0,              Linli%Chen%NULL%0,              Zheng%Fang%NULL%0,              Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,              Jun%Liu%NULL%3,              Xinguo%Zhao%NULL%1,              Chengyuan%Liu%NULL%1,              Wei%Wang%NULL%6,              Dawei%Wang%NULL%1,              Wei%Xu%NULL%2,              Chunyu%Zhang%NULL%1,              Jiong%Yu%NULL%1,              Bin%Jiang%NULL%1,              Hongcui%Cao%hccao@zju.edu.cn%1,              Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,              Xiaorong%Hu%NULL%2,              Wenlin%Cheng%NULL%7,              Lei%Yu%NULL%7,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%7,              Qiang%Liu%liuqiang@irm-cams.ac.cn%9,              Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,              Kun%Yang%NULL%10,              Kun%Yang%NULL%0,              Wenxia%Wang%NULL%10,              Wenxia%Wang%NULL%0,              Lingyu%Jiang%NULL%10,              Lingyu%Jiang%NULL%0,              Jianxin%Song%songsingsjx@sina.com%10,              Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,             Kun%Yang%NULL%3,             Kun%Yang%NULL%0,             Wenxia%Wang%NULL%2,             Wenxia%Wang%NULL%0,             Lingyu%Jiang%NULL%2,             Lingyu%Jiang%NULL%0,             Jianxin%Song%songsingsjx@sina.com%2,             Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,              Meiwen%Tang%NULL%1,              Xiaobin%Zheng%NULL%1,              Ye%Liu%ly77219@163.com%1,              Xiaofeng%Li%zdwylxf@163.com%1,              Hong%Shan%shanhong@mail.sysu.edu.cn%13]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,              Dong%Sun%NULL%1,              Yao%Liu%NULL%1,              Yanqing%Fan%NULL%0,              Lingyun%Zhao%NULL%1,              Xiaoming%Li%NULL%1,              Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,             Dong%Sun%NULL%1,             Yao%Liu%NULL%1,             Yanqing%Fan%NULL%1,             Lingyun%Zhao%NULL%1,             Xiaoming%Li%NULL%2,             Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,              SaiBin%Wang%NULL%2,              SaiBin%Wang%NULL%0,              YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,             SaiBin%Wang%NULL%2,             SaiBin%Wang%NULL%0,             YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,              Ci%Song%NULL%1,              Chuanjun%Xu%NULL%1,              Guangfu%Jin%NULL%1,              Yaling%Chen%NULL%1,              Xin%Xu%NULL%4,              Hongxia%Ma%NULL%1,              Wei%Chen%NULL%3,              Yuan%Lin%NULL%1,              Yishan%Zheng%NULL%1,              Jianming%Wang%NULL%5,              Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,              Yongxiang%Yi%ian0126@126.com%1,              Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,              Yao%Tian%NULL%2,              Yao%Tian%NULL%0,              Jing%Zhou%NULL%2,              Xuan%Ma%NULL%1,              Min%Yang%NULL%1,              ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,             Yao%Tian%NULL%2,             Yao%Tian%NULL%0,             Jing%Zhou%NULL%2,             Xuan%Ma%NULL%1,             Min%Yang%NULL%1,             ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,              James%Fielding%NULL%1,              Michaela%Diercke%NULL%1,              Christine%Campese%NULL%1,              Vincent%Enouf%NULL%1,              Alexandre%Gaymard%NULL%1,              Antonino%Bella%NULL%1,              Paola%Sognamiglio%NULL%1,              Maria José%Sierra Moros%NULL%1,              Antonio Nicolau%Riutort%NULL%1,              Yulia V.%Demina%NULL%1,              Romain%Mahieu%NULL%1,              Markku%Broas%NULL%1,              Malin%Bengnér%NULL%1,              Silke%Buda%NULL%1,              Julia%Schilling%NULL%1,              Laurent%Filleul%NULL%1,              Agnès%Lepoutre%NULL%1,              Christine%Saura%NULL%1,              Alexandra%Mailles%NULL%1,              Daniel%Levy-Bruhl%NULL%1,              Bruno%Coignard%NULL%1,              Sibylle%Bernard-Stoecklin%NULL%1,              Sylvie%Behillil%NULL%1,              Sylvie%van der Werf%NULL%1,              Martine%Valette%NULL%1,              Bruno%Lina%NULL%1,              Flavia%Riccardo%NULL%1,              Emanuele%Nicastri%NULL%3,              Inmaculada%Casas%NULL%1,              Amparo%Larrauri%NULL%1,              Magdalena%Salom Castell%NULL%1,              Francisco%Pozo%NULL%1,              Rinat A.%Maksyutov%NULL%1,              Charlotte%Martin%NULL%1,              Marc%Van Ranst%NULL%3,              Nathalie%Bossuyt%NULL%1,              Lotta%Siira%NULL%1,              Jussi%Sane%NULL%1,              Karin%Tegmark-Wisell%NULL%1,              Maria%Palmérus%NULL%1,              Eeva K.%Broberg%NULL%1,              Julien%Beauté%NULL%1,              Pernille%Jorgensen%NULL%1,              Nick%Bundle%NULL%1,              Dmitriy%Pereyaslov%NULL%1,              Cornelia%Adlhoch%NULL%1,              Jukka%Pukkila%NULL%1,              Richard%Pebody%NULL%1,              Sonja%Olsen%NULL%1,              Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,              Yong-hua%Gao%NULL%1,              Li-Li%lou%NULL%1,              Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,              Huaqiao%Li%NULL%1,              Songtao%Huang%NULL%1,              Wei%You%NULL%1,              Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%9,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%10,              Jie%Xiang%NULL%16,              Yeming%Wang%NULL%0,              Bin%Song%NULL%10,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%9,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%10,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%9,              Yi%Zhang%NULL%10,              Hua%Chen%NULL%10,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%16,             Ronghui%Du%NULL%7,             Guohui%Fan%NULL%10,             Ying%Liu%NULL%9,             Zhibo%Liu%NULL%7,             Jie%Xiang%NULL%10,             Yeming%Wang%NULL%10,             Bin%Song%NULL%7,             Xiaoying%Gu%NULL%10,             Lulu%Guan%NULL%7,             Yuan%Wei%NULL%11,             Hui%Li%NULL%14,             Xudong%Wu%NULL%7,             Jiuyang%Xu%NULL%10,             Shengjin%Tu%NULL%7,             Yi%Zhang%NULL%8,             Hua%Chen%NULL%7,             Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,              Ying%Chen%NULL%1,              Ruzheng%Lin%NULL%1,              Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,              Tangkai%Qi%NULL%2,              Li%Liu%NULL%2,              Yun%Ling%NULL%0,              Zhiping%Qian%NULL%2,              Tao%Li%NULL%3,              Feng%Li%NULL%2,              Qingnian%Xu%NULL%2,              Yuyi%Zhang%NULL%2,              Shuibao%Xu%NULL%2,              Zhigang%Song%NULL%2,              Yigang%Zeng%NULL%2,              Yinzhong%Shen%NULL%2,              Yuxin%Shi%NULL%0,              Tongyu%Zhu%NULL%3,              Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,              Feifei%Yao%NULL%1,              Lijie%Wang%NULL%1,              Ling%Zheng%NULL%1,              Yongjun%Gao%NULL%1,              Jun%Ye%NULL%1,              Feng%Guo%NULL%1,              Hui%Zhao%NULL%1,              Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,              Bin%Quan%NULL%1,              Xiaoning%Li%NULL%2,              Guangjian%Gao%NULL%1,              Wenqiang%Zheng%NULL%1,              Jun%Zhang%NULL%1,              Zhiyun%Zhang%NULL%1,              Chunsheng%Liu%NULL%1,              Li%Li%NULL%0,              Chenglin%Wang%NULL%1,              Guihua%Zhang%NULL%1,              Jiajia%Li%NULL%1,              Yunhai%Dai%NULL%1,              Jianghua%Yang%yjhpath@163.com%1,              Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,             Bin%Quan%NULL%1,             Xiaoning%Li%NULL%2,             Guangjian%Gao%NULL%1,             Wenqiang%Zheng%NULL%1,             Jun%Zhang%NULL%5,             Zhiyun%Zhang%NULL%1,             Chunsheng%Liu%NULL%1,             Li%Li%NULL%4,             Chenglin%Wang%NULL%1,             Guihua%Zhang%NULL%1,             Jiajia%Li%NULL%1,             Yunhai%Dai%NULL%1,             Jianghua%Yang%yjhpath@163.com%1,             Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,              Kai%Xie%NULL%4,              Kai%Xie%NULL%0,              Hui%Lu%NULL%2,              Lei%Xu%bayinhexl@126.com%3,              Shusheng%Zhou%zhouss108@163.com%2,              Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,             Kai%Xie%NULL%2,             Kai%Xie%NULL%0,             Hui%Lu%NULL%1,             Lei%Xu%bayinhexl@126.com%1,             Shusheng%Zhou%zhouss108@163.com%1,             Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,              Yuanyuan%Xing%NULL%3,              Yu%Xiao%NULL%3,              Liping%Deng%NULL%4,              Qiu%Zhao%NULL%3,              Hongling%Wang%NULL%3,              Yong%Xiong%NULL%5,              Zhenshun%Cheng%NULL%0,              Shicheng%Gao%NULL%4,              Ke%Liang%NULL%4,              Mingqi%Luo%NULL%4,              Tielong%Chen%NULL%3,              Shihui%Song%NULL%4,              Zhiyong%Ma%NULL%4,              Xiaoping%Chen%NULL%4,              Ruiying%Zheng%NULL%3,              Qian%Cao%NULL%3,              Fan%Wang%fanndywang@foxmail.com%3,              Yongxi%Zhang%znact1936@126.com%6]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,              Bohan%Yang%NULL%3,              Qianwen%Li%NULL%3,              Lu%Wen%NULL%3,              Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,              Yingxia%Liu%NULL%1,              Lei%Liu%NULL%15,              Xianfeng%Wang%NULL%1,              Nijuan%Luo%NULL%1,              Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,             Yingxia%Liu%NULL%2,             Lei%Liu%NULL%9,             Xianfeng%Wang%NULL%1,             Nijuan%Luo%NULL%1,             Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,              N -B%Yang%NULL%2,              F%Ding%NULL%2,              A H Y%Ma%NULL%2,              Z -Y%Wang%NULL%4,              Y -F%Shen%NULL%2,              C -W%Shi%NULL%2,              X%Lian%NULL%2,              J -G%Chu%NULL%2,              L%Chen%chxmin@hotmail.com%2,              Z -Y%Wang%NULL%0,              D -W%Ren%NULL%2,              G -X%Li%NULL%2,              X -Q%Chen%chxmin@hotmail.com%2,              H -J%Shen%NULL%2,              X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,              Tuantuan%Li%NULL%2,              Mingfeng%Han%NULL%2,              Xiuyong%Li%NULL%2,              Dong%Wu%NULL%2,              Yuanhong%Xu%NULL%4,              Yulin%Zhu%NULL%2,              Yan%Liu%NULL%3,              Xiaowu%Wang%wangxiaowu19880218@126.com%2,              Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,             Tuantuan%Li%NULL%2,             Mingfeng%Han%NULL%6,             Xiuyong%Li%NULL%2,             Dong%Wu%NULL%2,             Yuanhong%Xu%NULL%2,             Yulin%Zhu%NULL%2,             Yan%Liu%NULL%2,             Xiaowu%Wang%wangxiaowu19880218@126.com%2,             Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
   </si>
 </sst>
 </file>
@@ -3534,7 +3886,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>800</v>
+        <v>912</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -3563,7 +3915,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>801</v>
+        <v>913</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -3592,7 +3944,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>802</v>
+        <v>914</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -3621,7 +3973,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -3650,7 +4002,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>804</v>
+        <v>916</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -3679,7 +4031,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>805</v>
+        <v>917</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -3708,7 +4060,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -3737,7 +4089,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>807</v>
+        <v>919</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -3766,7 +4118,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>809</v>
+        <v>920</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -3795,7 +4147,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>810</v>
+        <v>921</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -3824,7 +4176,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>811</v>
+        <v>922</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -3853,7 +4205,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>812</v>
+        <v>923</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -3882,7 +4234,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>813</v>
+        <v>924</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -3911,7 +4263,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>814</v>
+        <v>925</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -3940,7 +4292,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>815</v>
+        <v>926</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -3969,7 +4321,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>816</v>
+        <v>927</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -3998,7 +4350,7 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>817</v>
+        <v>928</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -4027,7 +4379,7 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>818</v>
+        <v>929</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -4056,7 +4408,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>819</v>
+        <v>930</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -4085,7 +4437,7 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>820</v>
+        <v>931</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -4114,7 +4466,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>821</v>
+        <v>932</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -4140,10 +4492,10 @@
         <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>877</v>
       </c>
       <c r="E23" t="s">
-        <v>822</v>
+        <v>933</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -4172,7 +4524,7 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>823</v>
+        <v>934</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -4201,7 +4553,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>824</v>
+        <v>935</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -4230,7 +4582,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>825</v>
+        <v>936</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -4259,7 +4611,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>826</v>
+        <v>937</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -4288,7 +4640,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>827</v>
+        <v>938</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -4317,7 +4669,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>828</v>
+        <v>939</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -4346,7 +4698,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>829</v>
+        <v>940</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -4375,7 +4727,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>830</v>
+        <v>941</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4404,7 +4756,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>831</v>
+        <v>942</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -4433,7 +4785,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>832</v>
+        <v>943</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -4462,7 +4814,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -4491,7 +4843,7 @@
         <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>834</v>
+        <v>945</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -4520,7 +4872,7 @@
         <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>835</v>
+        <v>946</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -4549,7 +4901,7 @@
         <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>836</v>
+        <v>947</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -4578,7 +4930,7 @@
         <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>837</v>
+        <v>948</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
@@ -4607,7 +4959,7 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>838</v>
+        <v>949</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -4636,7 +4988,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>839</v>
+        <v>950</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -4665,7 +5017,7 @@
         <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -4694,7 +5046,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -4723,7 +5075,7 @@
         <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>842</v>
+        <v>953</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -4752,7 +5104,7 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>843</v>
+        <v>954</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -4781,7 +5133,7 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>844</v>
+        <v>955</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -4810,7 +5162,7 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>845</v>
+        <v>956</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -4839,7 +5191,7 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>846</v>
+        <v>957</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -4868,7 +5220,7 @@
         <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>847</v>
+        <v>958</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -4897,7 +5249,7 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>848</v>
+        <v>959</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -4926,7 +5278,7 @@
         <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>849</v>
+        <v>960</v>
       </c>
       <c r="F50" t="s">
         <v>91</v>
@@ -4955,7 +5307,7 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>850</v>
+        <v>961</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -4984,7 +5336,7 @@
         <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>851</v>
+        <v>962</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -5013,7 +5365,7 @@
         <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>852</v>
+        <v>963</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -5042,7 +5394,7 @@
         <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>853</v>
+        <v>964</v>
       </c>
       <c r="F54" t="s">
         <v>91</v>
@@ -5071,7 +5423,7 @@
         <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>854</v>
+        <v>965</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -5100,7 +5452,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>855</v>
+        <v>966</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="1022">
   <si>
     <t>Doi</t>
   </si>
@@ -3546,6 +3546,171 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,             Tuantuan%Li%NULL%2,             Mingfeng%Han%NULL%6,             Xiuyong%Li%NULL%2,             Dong%Wu%NULL%2,             Yuanhong%Xu%NULL%2,             Yulin%Zhu%NULL%2,             Yan%Liu%NULL%2,             Xiaowu%Wang%wangxiaowu19880218@126.com%2,             Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,               Yeming%Wang%NULL%16,               Xingwang%Li%NULL%7,               Lili%Ren%NULL%6,               Jianping%Zhao%NULL%13,               Yi%Hu%NULL%14,               Li%Zhang%NULL%13,               Guohui%Fan%NULL%16,               Jiuyang%Xu%NULL%16,               Xiaoying%Gu%NULL%16,               Zhenshun%Cheng%NULL%9,               Ting%Yu%NULL%27,               Jiaan%Xia%NULL%7,               Yuan%Wei%NULL%21,               Wenjuan%Wu%NULL%6,               Xuelei%Xie%NULL%7,               Wen%Yin%NULL%10,               Hui%Li%NULL%18,               Min%Liu%NULL%6,               Yan%Xiao%NULL%7,               Hong%Gao%NULL%7,               Li%Guo%NULL%8,               Jungang%Xie%NULL%7,               Guangfa%Wang%NULL%6,               Rongmeng%Jiang%NULL%6,               Zhancheng%Gao%NULL%6,               Qi%Jin%NULL%7,               Jianwei%Wang%wangjw28@163.com%6,               Bin%Cao%caobin_ben@163.com%16]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,               Shuofeng%Yuan%NULL%2,               Kin-Hang%Kok%NULL%2,               Kelvin Kai-Wang%To%NULL%2,               Hin%Chu%NULL%2,               Jin%Yang%NULL%2,               Fanfan%Xing%NULL%2,               Jieling%Liu%NULL%2,               Cyril Chik-Yan%Yip%NULL%3,               Rosana Wing-Shan%Poon%NULL%3,               Hoi-Wah%Tsoi%NULL%2,               Simon Kam-Fai%Lo%NULL%2,               Kwok-Hung%Chan%NULL%3,               Vincent Kwok-Man%Poon%NULL%2,               Wan-Mui%Chan%NULL%3,               Jonathan Daniel%Ip%NULL%3,               Jian-Piao%Cai%NULL%3,               Vincent Chi-Chung%Cheng%NULL%3,               Honglin%Chen%NULL%3,               Christopher Kim-Ming%Hui%NULL%2,               Kwok-Yung%Yuen%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,               Xuhua%Guan%NULL%1,               Peng%Wu%NULL%1,               Xiaoye%Wang%NULL%1,               Lei%Zhou%NULL%1,               Yeqing%Tong%NULL%1,               Ruiqi%Ren%NULL%1,               Kathy S.M.%Leung%NULL%1,               Eric H.Y.%Lau%NULL%1,               Jessica Y.%Wong%NULL%1,               Xuesen%Xing%NULL%1,               Nijuan%Xiang%NULL%1,               Yang%Wu%NULL%1,               Chao%Li%NULL%1,               Qi%Chen%NULL%1,               Dan%Li%NULL%1,               Tian%Liu%NULL%1,               Jing%Zhao%NULL%1,               Man%Liu%NULL%1,               Wenxiao%Tu%NULL%1,               Chuding%Chen%NULL%1,               Lianmei%Jin%NULL%1,               Rui%Yang%NULL%1,               Qi%Wang%NULL%1,               Suhua%Zhou%NULL%1,               Rui%Wang%NULL%1,               Hui%Liu%NULL%1,               Yinbo%Luo%NULL%1,               Yuan%Liu%NULL%1,               Ge%Shao%NULL%1,               Huan%Li%NULL%3,               Zhongfa%Tao%NULL%1,               Yang%Yang%NULL%3,               Zhiqiang%Deng%NULL%1,               Boxi%Liu%NULL%1,               Zhitao%Ma%NULL%1,               Yanping%Zhang%NULL%1,               Guoqing%Shi%NULL%1,               Tommy T.Y.%Lam%NULL%1,               Joseph T.%Wu%NULL%1,               George F.%Gao%NULL%1,               Benjamin J.%Cowling%NULL%1,               Bo%Yang%NULL%4,               Bo%Yang%NULL%0,               Gabriel M.%Leung%NULL%1,               Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,               Min%Zhou%NULL%6,               Xuan%Dong%NULL%6,               Jieming%Qu%NULL%10,               Fengyun%Gong%NULL%6,               Yang%Han%NULL%5,               Yang%Qiu%NULL%5,               Jingli%Wang%NULL%6,               Ying%Liu%NULL%15,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%11,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%5,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,               Nannan%Shi%NULL%3,               Nannan%Shi%NULL%0,               Fei%Shan%NULL%2,               Zhiyong%Zhang%NULL%2,               Jie%Shen%NULL%1,               Hongzhou%Lu%NULL%6,               Yun%Ling%NULL%7,               Yebin%Jiang%NULL%2,               Yebin%Jiang%NULL%0,               Yuxin%Shi%shiyuxin@shphc.org.cn%5,               Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,           Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,               Yuan-Yuan%Fang%NULL%4,               Yan%Deng%NULL%4,               Wei%Liu%NULL%6,               Mei-Fang%Wang%NULL%2,               Jing-Ping%Ma%NULL%2,               Wei%Xiao%NULL%2,               Ying-Nan%Wang%NULL%2,               Min-Hua%Zhong%NULL%2,               Cheng-Hong%Li%NULL%2,               Guang-Cai%Li%NULL%2,               Hui-Guo%Liu%NULL%6,               Xiu-Yuan%Hao%NULL%6,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%11]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,       Minggui%Lin%xref no email%2,       Lai%Wei%xref no email%2,       Lixin%Xie%xref no email%2,       Guangfa%Zhu%xref no email%2,       Charles S.%Dela Cruz%xref no email%2,       Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,     Yang%Yang%null%1,     Cong%Zhang%null%1,     Fengming%Huang%null%1,     Fuxiang%Wang%null%1,     Jing%Yuan%null%2,     Zhaoqin%Wang%null%1,     Jinxiu%Li%null%1,     Jianming%Li%null%1,     Cheng%Feng%null%1,     Zheng%Zhang%null%2,     Lifei%Wang%null%1,     Ling%Peng%null%1,     Li%Chen%null%1,     Yuhao%Qin%null%1,     Dandan%Zhao%null%1,     Shuguang%Tan%null%1,     Lu%Yin%null%1,     Jun%Xu%null%1,     Congzhao%Zhou%null%1,     Chengyu%Jiang%null%1,     Lei%Liu%null%2]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,               Ye-Ming%Wang%NULL%1,               Zhi-Qiang%Wu%NULL%1,               Zi-Chun%Xiang%NULL%1,               Li%Guo%NULL%0,               Teng%Xu%NULL%1,               Yong-Zhong%Jiang%NULL%1,               Yan%Xiong%NULL%4,               Yong-Jun%Li%NULL%1,               Xing-Wang%Li%NULL%1,               Hui%Li%NULL%0,               Guo-Hui%Fan%NULL%1,               Xiao-Ying%Gu%NULL%1,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Jiu-Yang%Xu%NULL%1,               Fan%Yang%NULL%3,               Xin-Ming%Wang%NULL%1,               Chao%Wu%NULL%3,               Lan%Chen%NULL%1,               Yi-Wei%Liu%NULL%1,               Bo%Liu%NULL%2,               Jian%Yang%NULL%1,               Xiao-Rui%Wang%NULL%1,               Jie%Dong%NULL%1,               Li%Li%NULL%5,               Chao-Lin%Huang%NULL%1,               Jian-Ping%Zhao%NULL%1,               Yi%Hu%NULL%0,               Zhen-Shun%Cheng%NULL%1,               Lin-Lin%Liu%NULL%1,               Zhao-Hui%Qian%NULL%1,               Chuan%Qin%NULL%1,               Qi%Jin%NULL%0,               Bin%Cao%NULL%0,               Jian-Wei%Wang%NULL%1,               Xiu-Yuan%Hao%NULL%0,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,               Dengju%Li%NULL%2,               Xiong%Wang%NULL%4,               Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,           Cao%Yi-yuan%coreGivesNoEmail%4,           Dong%Xiang%coreGivesNoEmail%4,           Gao%Ya-dong%coreGivesNoEmail%4,           Yan%You-qin%coreGivesNoEmail%4,           Yang%Yi-bin%coreGivesNoEmail%4,           Yuan%Ya-dong%coreGivesNoEmail%4,           Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,               Xiao-Xin%Wu%NULL%3,               Xian-Gao%Jiang%NULL%3,               Kai-Jin%Xu%NULL%3,               Ling-Jun%Ying%NULL%3,               Chun-Lian%Ma%NULL%3,               Shi-Bo%Li%NULL%3,               Hua-Ying%Wang%NULL%3,               Sheng%Zhang%NULL%3,               Hai-Nv%Gao%NULL%3,               Ji-Fang%Sheng%NULL%3,               Hong-Liu%Cai%NULL%3,               Yun-Qing%Qiu%NULL%3,               Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,               Xiaojia%Wu%NULL%1,               Wenbing%Zeng%NULL%1,               Dajing%Guo%NULL%4,               Zheng%Fang%NULL%4,               Linli%Chen%NULL%4,               Huizhe%Huang%NULL%1,               Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,               Valerie%Wong%NULL%1,               Vivian Wan In%Wei%NULL%1,               Samuel Yeung Shan%Wong%NULL%1,               Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,               Xiaoyu%Han%NULL%1,               Nanchuan%Jiang%NULL%1,               Yukun%Cao%NULL%1,               Osamah%Alwalid%NULL%1,               Jin%Gu%NULL%1,               Yanqing%Fan%1024932023@qq.com%2,               Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,               Jing-Hui%Dong%NULL%2,               Wei-Min%An%NULL%2,               Xiao-Yan%Lv%15001008285@139.com%2,               Xiao-Ping%Yin%yinxiaoping78@sina.com%2,               Jian-Zeng%Zhang%NULL%2,               Li%Dong%NULL%2,               Xi%Ma%NULL%2,               Hong-Jie%Zhang%NULL%2,               Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,               Zhenlu%Yang%NULL%2,               Zhenlu%Yang%NULL%0,               Hongyan%Hou%NULL%2,               Hongyan%Hou%NULL%0,               Chenao%Zhan%NULL%1,               Chong%Chen%NULL%1,               Wenzhi%Lv%NULL%2,               Wenzhi%Lv%NULL%0,               Qian%Tao%NULL%2,               Qian%Tao%NULL%0,               Ziyong%Sun%NULL%0,               Ziyong%Sun%NULL%0,               Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,               Qiqi%Cao%NULL%3,               Le%Qin%NULL%3,               Xiaoyang%Wang%NULL%3,               Zenghui%Cheng%NULL%3,               Ashan%Pan%NULL%3,               Jianyi%Dai%NULL%3,               Qingfeng%Sun%NULL%3,               Fengquan%Zhao%NULL%3,               Jieming%Qu%NULL%0,               Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,               Nan%Hu%NULL%2,               Jing%Lou%NULL%2,               Kun%Chen%NULL%2,               Xuqin%Kang%NULL%2,               Zhenjun%Xiang%NULL%2,               Hui%Chen%NULL%4,               Dali%Wang%NULL%2,               Ning%Liu%NULL%2,               Dong%Liu%NULL%2,               Gang%Chen%NULL%2,               Yongliang%Zhang%NULL%2,               Dou%Li%NULL%2,               Jianren%Li%NULL%2,               Huixin%Lian%NULL%2,               Shengmei%Niu%NULL%2,               Luxi%Zhang%NULL%2,               Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,               Mengqi%Tu%NULL%3,               Shipei%Wang%NULL%3,               Sichao%Chen%NULL%3,               Wei%Zhou%NULL%5,               Danyang%Chen%NULL%3,               Lin%Zhou%NULL%3,               Min%Wang%NULL%3,               Yan%Zhao%NULL%5,               Wen%Zeng%NULL%3,               Qi%Huang%NULL%3,               Hai'bo%Xu%NULL%3,               Zeming%Liu%NULL%3,               Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,               Chengcheng%Yu%NULL%2,               Jing%Qu%NULL%2,               Lieguang%Zhang%NULL%2,               Songfeng%Jiang%NULL%2,               Deyang%Huang%NULL%2,               Bihua%Chen%NULL%2,               Zhiping%Zhang%NULL%2,               Wanhua%Guan%NULL%2,               Zhoukun%Ling%NULL%2,               Rui%Jiang%NULL%2,               Tianli%Hu%NULL%2,               Yan%Ding%NULL%2,               Lin%Lin%NULL%2,               Qingxin%Gan%NULL%2,               Liangping%Luo%tluolp@jnu.edu.cn%2,               Xiaoping%Tang%xtang@21cn.com%2,               Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,               Zhao-Wu%Tao%NULL%2,               Lei%Wang%NULL%3,               Ming-Li%Yuan%NULL%4,               Kui%Liu%NULL%6,               Ling%Zhou%NULL%4,               Shuang%Wei%NULL%4,               Yan%Deng%NULL%0,               Jing%Liu%NULL%4,               Hui-Guo%Liu%NULL%0,               Ming%Yang%NULL%3,               Yi%Hu%NULL%0,               Pei-Fang%Wei%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,               Jiong%Wu%NULL%3,               Faqi%Wu%NULL%3,               Dajing%Guo%NULL%0,               Linli%Chen%NULL%0,               Zheng%Fang%NULL%0,               Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,               Jun%Liu%NULL%3,               Xinguo%Zhao%NULL%1,               Chengyuan%Liu%NULL%1,               Wei%Wang%NULL%6,               Dawei%Wang%NULL%1,               Wei%Xu%NULL%2,               Chunyu%Zhang%NULL%1,               Jiong%Yu%NULL%1,               Bin%Jiang%NULL%1,               Hongcui%Cao%hccao@zju.edu.cn%1,               Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,               Xiaorong%Hu%NULL%2,               Wenlin%Cheng%NULL%7,               Lei%Yu%NULL%7,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%7,               Qiang%Liu%liuqiang@irm-cams.ac.cn%9,               Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,               Kun%Yang%NULL%10,               Kun%Yang%NULL%0,               Wenxia%Wang%NULL%10,               Wenxia%Wang%NULL%0,               Lingyu%Jiang%NULL%10,               Lingyu%Jiang%NULL%0,               Jianxin%Song%songsingsjx@sina.com%10,               Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,              Kun%Yang%NULL%3,              Kun%Yang%NULL%0,              Wenxia%Wang%NULL%2,              Wenxia%Wang%NULL%0,              Lingyu%Jiang%NULL%2,              Lingyu%Jiang%NULL%0,              Jianxin%Song%songsingsjx@sina.com%2,              Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,               Meiwen%Tang%NULL%1,               Xiaobin%Zheng%NULL%1,               Ye%Liu%ly77219@163.com%1,               Xiaofeng%Li%zdwylxf@163.com%1,               Hong%Shan%shanhong@mail.sysu.edu.cn%13]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,               Dong%Sun%NULL%1,               Yao%Liu%NULL%1,               Yanqing%Fan%NULL%0,               Lingyun%Zhao%NULL%1,               Xiaoming%Li%NULL%1,               Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,              Dong%Sun%NULL%1,              Yao%Liu%NULL%1,              Yanqing%Fan%NULL%1,              Lingyun%Zhao%NULL%1,              Xiaoming%Li%NULL%2,              Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%2,               SaiBin%Wang%NULL%2,               SaiBin%Wang%NULL%0,               YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,              SaiBin%Wang%NULL%2,              SaiBin%Wang%NULL%0,              YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,               Ci%Song%NULL%1,               Chuanjun%Xu%NULL%1,               Guangfu%Jin%NULL%1,               Yaling%Chen%NULL%1,               Xin%Xu%NULL%4,               Hongxia%Ma%NULL%1,               Wei%Chen%NULL%3,               Yuan%Lin%NULL%1,               Yishan%Zheng%NULL%1,               Jianming%Wang%NULL%5,               Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,               Yongxiang%Yi%ian0126@126.com%1,               Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,               Yao%Tian%NULL%2,               Yao%Tian%NULL%0,               Jing%Zhou%NULL%2,               Xuan%Ma%NULL%1,               Min%Yang%NULL%1,               ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,              Yao%Tian%NULL%2,              Yao%Tian%NULL%0,              Jing%Zhou%NULL%2,              Xuan%Ma%NULL%1,              Min%Yang%NULL%1,              ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,               James%Fielding%NULL%1,               Michaela%Diercke%NULL%1,               Christine%Campese%NULL%1,               Vincent%Enouf%NULL%1,               Alexandre%Gaymard%NULL%1,               Antonino%Bella%NULL%1,               Paola%Sognamiglio%NULL%1,               Maria José%Sierra Moros%NULL%1,               Antonio Nicolau%Riutort%NULL%1,               Yulia V.%Demina%NULL%1,               Romain%Mahieu%NULL%1,               Markku%Broas%NULL%1,               Malin%Bengnér%NULL%1,               Silke%Buda%NULL%1,               Julia%Schilling%NULL%1,               Laurent%Filleul%NULL%1,               Agnès%Lepoutre%NULL%1,               Christine%Saura%NULL%1,               Alexandra%Mailles%NULL%1,               Daniel%Levy-Bruhl%NULL%1,               Bruno%Coignard%NULL%1,               Sibylle%Bernard-Stoecklin%NULL%1,               Sylvie%Behillil%NULL%1,               Sylvie%van der Werf%NULL%1,               Martine%Valette%NULL%1,               Bruno%Lina%NULL%1,               Flavia%Riccardo%NULL%1,               Emanuele%Nicastri%NULL%3,               Inmaculada%Casas%NULL%1,               Amparo%Larrauri%NULL%1,               Magdalena%Salom Castell%NULL%1,               Francisco%Pozo%NULL%1,               Rinat A.%Maksyutov%NULL%1,               Charlotte%Martin%NULL%1,               Marc%Van Ranst%NULL%3,               Nathalie%Bossuyt%NULL%1,               Lotta%Siira%NULL%1,               Jussi%Sane%NULL%1,               Karin%Tegmark-Wisell%NULL%1,               Maria%Palmérus%NULL%1,               Eeva K.%Broberg%NULL%1,               Julien%Beauté%NULL%1,               Pernille%Jorgensen%NULL%1,               Nick%Bundle%NULL%1,               Dmitriy%Pereyaslov%NULL%1,               Cornelia%Adlhoch%NULL%1,               Jukka%Pukkila%NULL%1,               Richard%Pebody%NULL%1,               Sonja%Olsen%NULL%1,               Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,               Yong-hua%Gao%NULL%1,               Li-Li%lou%NULL%1,               Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,               Huaqiao%Li%NULL%1,               Songtao%Huang%NULL%1,               Wei%You%NULL%1,               Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%9,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%10,               Jie%Xiang%NULL%16,               Yeming%Wang%NULL%0,               Bin%Song%NULL%10,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%9,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%10,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%9,               Yi%Zhang%NULL%10,               Hua%Chen%NULL%10,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%16,              Ronghui%Du%NULL%7,              Guohui%Fan%NULL%10,              Ying%Liu%NULL%9,              Zhibo%Liu%NULL%7,              Jie%Xiang%NULL%10,              Yeming%Wang%NULL%10,              Bin%Song%NULL%7,              Xiaoying%Gu%NULL%10,              Lulu%Guan%NULL%7,              Yuan%Wei%NULL%11,              Hui%Li%NULL%14,              Xudong%Wu%NULL%7,              Jiuyang%Xu%NULL%10,              Shengjin%Tu%NULL%7,              Yi%Zhang%NULL%8,              Hua%Chen%NULL%7,              Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,               Ying%Chen%NULL%1,               Ruzheng%Lin%NULL%1,               Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,               Tangkai%Qi%NULL%2,               Li%Liu%NULL%2,               Yun%Ling%NULL%0,               Zhiping%Qian%NULL%2,               Tao%Li%NULL%3,               Feng%Li%NULL%2,               Qingnian%Xu%NULL%2,               Yuyi%Zhang%NULL%2,               Shuibao%Xu%NULL%2,               Zhigang%Song%NULL%2,               Yigang%Zeng%NULL%2,               Yinzhong%Shen%NULL%2,               Yuxin%Shi%NULL%0,               Tongyu%Zhu%NULL%3,               Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,               Feifei%Yao%NULL%1,               Lijie%Wang%NULL%1,               Ling%Zheng%NULL%1,               Yongjun%Gao%NULL%1,               Jun%Ye%NULL%1,               Feng%Guo%NULL%1,               Hui%Zhao%NULL%1,               Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,               Bin%Quan%NULL%1,               Xiaoning%Li%NULL%2,               Guangjian%Gao%NULL%1,               Wenqiang%Zheng%NULL%1,               Jun%Zhang%NULL%1,               Zhiyun%Zhang%NULL%1,               Chunsheng%Liu%NULL%1,               Li%Li%NULL%0,               Chenglin%Wang%NULL%1,               Guihua%Zhang%NULL%1,               Jiajia%Li%NULL%1,               Yunhai%Dai%NULL%1,               Jianghua%Yang%yjhpath@163.com%1,               Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,              Bin%Quan%NULL%1,              Xiaoning%Li%NULL%2,              Guangjian%Gao%NULL%1,              Wenqiang%Zheng%NULL%1,              Jun%Zhang%NULL%5,              Zhiyun%Zhang%NULL%1,              Chunsheng%Liu%NULL%1,              Li%Li%NULL%4,              Chenglin%Wang%NULL%1,              Guihua%Zhang%NULL%1,              Jiajia%Li%NULL%1,              Yunhai%Dai%NULL%1,              Jianghua%Yang%yjhpath@163.com%1,              Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,               Kai%Xie%NULL%4,               Kai%Xie%NULL%0,               Hui%Lu%NULL%2,               Lei%Xu%bayinhexl@126.com%3,               Shusheng%Zhou%zhouss108@163.com%2,               Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,              Kai%Xie%NULL%2,              Kai%Xie%NULL%0,              Hui%Lu%NULL%1,              Lei%Xu%bayinhexl@126.com%1,              Shusheng%Zhou%zhouss108@163.com%1,              Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,               Yuanyuan%Xing%NULL%3,               Yu%Xiao%NULL%3,               Liping%Deng%NULL%4,               Qiu%Zhao%NULL%3,               Hongling%Wang%NULL%3,               Yong%Xiong%NULL%5,               Zhenshun%Cheng%NULL%0,               Shicheng%Gao%NULL%4,               Ke%Liang%NULL%4,               Mingqi%Luo%NULL%4,               Tielong%Chen%NULL%3,               Shihui%Song%NULL%4,               Zhiyong%Ma%NULL%4,               Xiaoping%Chen%NULL%4,               Ruiying%Zheng%NULL%3,               Qian%Cao%NULL%3,               Fan%Wang%fanndywang@foxmail.com%3,               Yongxi%Zhang%znact1936@126.com%6]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,               Bohan%Yang%NULL%3,               Qianwen%Li%NULL%3,               Lu%Wen%NULL%3,               Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,               Yingxia%Liu%NULL%1,               Lei%Liu%NULL%15,               Xianfeng%Wang%NULL%1,               Nijuan%Luo%NULL%1,               Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,              Yingxia%Liu%NULL%2,              Lei%Liu%NULL%9,              Xianfeng%Wang%NULL%1,              Nijuan%Luo%NULL%1,              Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,               N -B%Yang%NULL%2,               F%Ding%NULL%2,               A H Y%Ma%NULL%2,               Z -Y%Wang%NULL%4,               Y -F%Shen%NULL%2,               C -W%Shi%NULL%2,               X%Lian%NULL%2,               J -G%Chu%NULL%2,               L%Chen%chxmin@hotmail.com%2,               Z -Y%Wang%NULL%0,               D -W%Ren%NULL%2,               G -X%Li%NULL%2,               X -Q%Chen%chxmin@hotmail.com%2,               H -J%Shen%NULL%2,               X -M%Chen%chxmin@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,               Tuantuan%Li%NULL%2,               Mingfeng%Han%NULL%2,               Xiuyong%Li%NULL%2,               Dong%Wu%NULL%2,               Yuanhong%Xu%NULL%4,               Yulin%Zhu%NULL%2,               Yan%Liu%NULL%3,               Xiaowu%Wang%wangxiaowu19880218@126.com%2,               Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,              Tuantuan%Li%NULL%2,              Mingfeng%Han%NULL%6,              Xiuyong%Li%NULL%2,              Dong%Wu%NULL%2,              Yuanhong%Xu%NULL%2,              Yulin%Zhu%NULL%2,              Yan%Liu%NULL%2,              Xiaowu%Wang%wangxiaowu19880218@126.com%2,              Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
   </si>
 </sst>
 </file>
@@ -3886,7 +4051,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>912</v>
+        <v>967</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -3915,7 +4080,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>913</v>
+        <v>968</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -3944,7 +4109,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>914</v>
+        <v>969</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -3973,7 +4138,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>915</v>
+        <v>970</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -4002,7 +4167,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>916</v>
+        <v>971</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -4031,7 +4196,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>917</v>
+        <v>972</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -4060,7 +4225,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>918</v>
+        <v>973</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -4089,7 +4254,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>919</v>
+        <v>974</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -4118,7 +4283,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>920</v>
+        <v>975</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -4147,7 +4312,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>921</v>
+        <v>976</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -4176,7 +4341,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>922</v>
+        <v>977</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -4205,7 +4370,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>923</v>
+        <v>978</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -4234,7 +4399,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>924</v>
+        <v>979</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -4263,7 +4428,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>925</v>
+        <v>980</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -4292,7 +4457,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>926</v>
+        <v>981</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4321,7 +4486,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>927</v>
+        <v>982</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4350,7 +4515,7 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>928</v>
+        <v>983</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -4379,7 +4544,7 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>929</v>
+        <v>984</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -4408,7 +4573,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>930</v>
+        <v>985</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -4437,7 +4602,7 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>931</v>
+        <v>986</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -4466,7 +4631,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>932</v>
+        <v>987</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -4495,7 +4660,7 @@
         <v>877</v>
       </c>
       <c r="E23" t="s">
-        <v>933</v>
+        <v>988</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -4524,7 +4689,7 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>934</v>
+        <v>989</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -4553,7 +4718,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>935</v>
+        <v>990</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -4582,7 +4747,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>936</v>
+        <v>991</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -4611,7 +4776,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>937</v>
+        <v>992</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -4640,7 +4805,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>938</v>
+        <v>993</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -4669,7 +4834,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>939</v>
+        <v>994</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -4698,7 +4863,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>940</v>
+        <v>995</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -4727,7 +4892,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>941</v>
+        <v>996</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4756,7 +4921,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>942</v>
+        <v>997</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -4785,7 +4950,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>943</v>
+        <v>998</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -4814,7 +4979,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>944</v>
+        <v>999</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -4843,7 +5008,7 @@
         <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -4872,7 +5037,7 @@
         <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>946</v>
+        <v>1001</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -4901,7 +5066,7 @@
         <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>947</v>
+        <v>1002</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -4930,7 +5095,7 @@
         <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>948</v>
+        <v>1003</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
@@ -4959,7 +5124,7 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>949</v>
+        <v>1004</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -4988,7 +5153,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>950</v>
+        <v>1005</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -5017,7 +5182,7 @@
         <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>951</v>
+        <v>1006</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5046,7 +5211,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>952</v>
+        <v>1007</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -5075,7 +5240,7 @@
         <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>953</v>
+        <v>1008</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -5104,7 +5269,7 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>954</v>
+        <v>1009</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -5133,7 +5298,7 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>955</v>
+        <v>1010</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -5162,7 +5327,7 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>956</v>
+        <v>1011</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -5191,7 +5356,7 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>957</v>
+        <v>1012</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -5220,7 +5385,7 @@
         <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>958</v>
+        <v>1013</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -5249,7 +5414,7 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>959</v>
+        <v>1014</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -5278,7 +5443,7 @@
         <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>960</v>
+        <v>1015</v>
       </c>
       <c r="F50" t="s">
         <v>91</v>
@@ -5307,7 +5472,7 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>961</v>
+        <v>1016</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -5336,7 +5501,7 @@
         <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>962</v>
+        <v>1017</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -5365,7 +5530,7 @@
         <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>963</v>
+        <v>1018</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -5394,7 +5559,7 @@
         <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>964</v>
+        <v>1019</v>
       </c>
       <c r="F54" t="s">
         <v>91</v>
@@ -5423,7 +5588,7 @@
         <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>965</v>
+        <v>1020</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -5452,7 +5617,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>966</v>
+        <v>1021</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6323" uniqueCount="1089">
   <si>
     <t>Doi</t>
   </si>
@@ -3711,6 +3711,208 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,              Tuantuan%Li%NULL%2,              Mingfeng%Han%NULL%6,              Xiuyong%Li%NULL%2,              Dong%Wu%NULL%2,              Yuanhong%Xu%NULL%2,              Yulin%Zhu%NULL%2,              Yan%Liu%NULL%2,              Xiaowu%Wang%wangxiaowu19880218@126.com%2,              Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,                Yeming%Wang%NULL%16,                Xingwang%Li%NULL%7,                Lili%Ren%NULL%6,                Jianping%Zhao%NULL%13,                Yi%Hu%NULL%14,                Li%Zhang%NULL%13,                Guohui%Fan%NULL%16,                Jiuyang%Xu%NULL%16,                Xiaoying%Gu%NULL%16,                Zhenshun%Cheng%NULL%9,                Ting%Yu%NULL%27,                Jiaan%Xia%NULL%7,                Yuan%Wei%NULL%21,                Wenjuan%Wu%NULL%6,                Xuelei%Xie%NULL%7,                Wen%Yin%NULL%10,                Hui%Li%NULL%18,                Min%Liu%NULL%6,                Yan%Xiao%NULL%7,                Hong%Gao%NULL%7,                Li%Guo%NULL%8,                Jungang%Xie%NULL%7,                Guangfa%Wang%NULL%6,                Rongmeng%Jiang%NULL%6,                Zhancheng%Gao%NULL%6,                Qi%Jin%NULL%7,                Jianwei%Wang%wangjw28@163.com%6,                Bin%Cao%caobin_ben@163.com%16]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,                Shuofeng%Yuan%NULL%2,                Kin-Hang%Kok%NULL%2,                Kelvin Kai-Wang%To%NULL%2,                Hin%Chu%NULL%2,                Jin%Yang%NULL%2,                Fanfan%Xing%NULL%2,                Jieling%Liu%NULL%2,                Cyril Chik-Yan%Yip%NULL%3,                Rosana Wing-Shan%Poon%NULL%3,                Hoi-Wah%Tsoi%NULL%2,                Simon Kam-Fai%Lo%NULL%2,                Kwok-Hung%Chan%NULL%3,                Vincent Kwok-Man%Poon%NULL%2,                Wan-Mui%Chan%NULL%3,                Jonathan Daniel%Ip%NULL%3,                Jian-Piao%Cai%NULL%3,                Vincent Chi-Chung%Cheng%NULL%3,                Honglin%Chen%NULL%3,                Christopher Kim-Ming%Hui%NULL%2,                Kwok-Yung%Yuen%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,                Xuhua%Guan%NULL%1,                Peng%Wu%NULL%1,                Xiaoye%Wang%NULL%1,                Lei%Zhou%NULL%1,                Yeqing%Tong%NULL%1,                Ruiqi%Ren%NULL%1,                Kathy S.M.%Leung%NULL%1,                Eric H.Y.%Lau%NULL%1,                Jessica Y.%Wong%NULL%1,                Xuesen%Xing%NULL%1,                Nijuan%Xiang%NULL%1,                Yang%Wu%NULL%1,                Chao%Li%NULL%1,                Qi%Chen%NULL%1,                Dan%Li%NULL%1,                Tian%Liu%NULL%1,                Jing%Zhao%NULL%1,                Man%Liu%NULL%1,                Wenxiao%Tu%NULL%1,                Chuding%Chen%NULL%1,                Lianmei%Jin%NULL%1,                Rui%Yang%NULL%1,                Qi%Wang%NULL%1,                Suhua%Zhou%NULL%1,                Rui%Wang%NULL%1,                Hui%Liu%NULL%1,                Yinbo%Luo%NULL%1,                Yuan%Liu%NULL%1,                Ge%Shao%NULL%1,                Huan%Li%NULL%3,                Zhongfa%Tao%NULL%1,                Yang%Yang%NULL%3,                Zhiqiang%Deng%NULL%1,                Boxi%Liu%NULL%1,                Zhitao%Ma%NULL%1,                Yanping%Zhang%NULL%1,                Guoqing%Shi%NULL%1,                Tommy T.Y.%Lam%NULL%1,                Joseph T.%Wu%NULL%1,                George F.%Gao%NULL%1,                Benjamin J.%Cowling%NULL%1,                Bo%Yang%NULL%4,                Bo%Yang%NULL%0,                Gabriel M.%Leung%NULL%1,                Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,                Min%Zhou%NULL%6,                Xuan%Dong%NULL%6,                Jieming%Qu%NULL%10,                Fengyun%Gong%NULL%6,                Yang%Han%NULL%5,                Yang%Qiu%NULL%5,                Jingli%Wang%NULL%6,                Ying%Liu%NULL%15,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%11,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%5,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,                Nannan%Shi%NULL%3,                Nannan%Shi%NULL%0,                Fei%Shan%NULL%2,                Zhiyong%Zhang%NULL%2,                Jie%Shen%NULL%1,                Hongzhou%Lu%NULL%6,                Yun%Ling%NULL%7,                Yebin%Jiang%NULL%2,                Yebin%Jiang%NULL%0,                Yuxin%Shi%shiyuxin@shphc.org.cn%5,                Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,            Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,                Yuan-Yuan%Fang%NULL%4,                Yan%Deng%NULL%4,                Wei%Liu%NULL%6,                Mei-Fang%Wang%NULL%2,                Jing-Ping%Ma%NULL%2,                Wei%Xiao%NULL%2,                Ying-Nan%Wang%NULL%2,                Min-Hua%Zhong%NULL%2,                Cheng-Hong%Li%NULL%2,                Guang-Cai%Li%NULL%2,                Hui-Guo%Liu%NULL%6,                Xiu-Yuan%Hao%NULL%6,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%11]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,        Minggui%Lin%xref no email%2,        Lai%Wei%xref no email%2,        Lixin%Xie%xref no email%2,        Guangfa%Zhu%xref no email%2,        Charles S.%Dela Cruz%xref no email%2,        Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,      Yang%Yang%null%1,      Cong%Zhang%null%1,      Fengming%Huang%null%1,      Fuxiang%Wang%null%1,      Jing%Yuan%null%2,      Zhaoqin%Wang%null%1,      Jinxiu%Li%null%1,      Jianming%Li%null%1,      Cheng%Feng%null%1,      Zheng%Zhang%null%2,      Lifei%Wang%null%1,      Ling%Peng%null%1,      Li%Chen%null%1,      Yuhao%Qin%null%1,      Dandan%Zhao%null%1,      Shuguang%Tan%null%1,      Lu%Yin%null%1,      Jun%Xu%null%1,      Congzhao%Zhou%null%1,      Chengyu%Jiang%null%1,      Lei%Liu%null%2]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,                Ye-Ming%Wang%NULL%1,                Zhi-Qiang%Wu%NULL%1,                Zi-Chun%Xiang%NULL%1,                Li%Guo%NULL%0,                Teng%Xu%NULL%1,                Yong-Zhong%Jiang%NULL%1,                Yan%Xiong%NULL%4,                Yong-Jun%Li%NULL%1,                Xing-Wang%Li%NULL%1,                Hui%Li%NULL%0,                Guo-Hui%Fan%NULL%1,                Xiao-Ying%Gu%NULL%1,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Jiu-Yang%Xu%NULL%1,                Fan%Yang%NULL%3,                Xin-Ming%Wang%NULL%1,                Chao%Wu%NULL%3,                Lan%Chen%NULL%1,                Yi-Wei%Liu%NULL%1,                Bo%Liu%NULL%2,                Jian%Yang%NULL%1,                Xiao-Rui%Wang%NULL%1,                Jie%Dong%NULL%1,                Li%Li%NULL%5,                Chao-Lin%Huang%NULL%1,                Jian-Ping%Zhao%NULL%1,                Yi%Hu%NULL%0,                Zhen-Shun%Cheng%NULL%1,                Lin-Lin%Liu%NULL%1,                Zhao-Hui%Qian%NULL%1,                Chuan%Qin%NULL%1,                Qi%Jin%NULL%0,                Bin%Cao%NULL%0,                Jian-Wei%Wang%NULL%1,                Xiu-Yuan%Hao%NULL%0,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,                Dengju%Li%NULL%2,                Xiong%Wang%NULL%4,                Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,            Cao%Yi-yuan%coreGivesNoEmail%4,            Dong%Xiang%coreGivesNoEmail%4,            Gao%Ya-dong%coreGivesNoEmail%4,            Yan%You-qin%coreGivesNoEmail%4,            Yang%Yi-bin%coreGivesNoEmail%4,            Yuan%Ya-dong%coreGivesNoEmail%4,            Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,                Xiao-Xin%Wu%NULL%3,                Xian-Gao%Jiang%NULL%3,                Kai-Jin%Xu%NULL%3,                Ling-Jun%Ying%NULL%3,                Chun-Lian%Ma%NULL%3,                Shi-Bo%Li%NULL%3,                Hua-Ying%Wang%NULL%3,                Sheng%Zhang%NULL%3,                Hai-Nv%Gao%NULL%3,                Ji-Fang%Sheng%NULL%3,                Hong-Liu%Cai%NULL%3,                Yun-Qing%Qiu%NULL%3,                Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,                Xiaojia%Wu%NULL%1,                Wenbing%Zeng%NULL%1,                Dajing%Guo%NULL%4,                Zheng%Fang%NULL%4,                Linli%Chen%NULL%4,                Huizhe%Huang%NULL%1,                Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,                Valerie%Wong%NULL%1,                Vivian Wan In%Wei%NULL%1,                Samuel Yeung Shan%Wong%NULL%1,                Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,                Xiaoyu%Han%NULL%1,                Nanchuan%Jiang%NULL%1,                Yukun%Cao%NULL%1,                Osamah%Alwalid%NULL%1,                Jin%Gu%NULL%1,                Yanqing%Fan%1024932023@qq.com%2,                Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,                Jing-Hui%Dong%NULL%2,                Wei-Min%An%NULL%2,                Xiao-Yan%Lv%15001008285@139.com%2,                Xiao-Ping%Yin%yinxiaoping78@sina.com%2,                Jian-Zeng%Zhang%NULL%2,                Li%Dong%NULL%2,                Xi%Ma%NULL%2,                Hong-Jie%Zhang%NULL%2,                Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%2,                Zhenlu%Yang%NULL%2,                Zhenlu%Yang%NULL%0,                Hongyan%Hou%NULL%2,                Hongyan%Hou%NULL%0,                Chenao%Zhan%NULL%1,                Chong%Chen%NULL%1,                Wenzhi%Lv%NULL%2,                Wenzhi%Lv%NULL%0,                Qian%Tao%NULL%2,                Qian%Tao%NULL%0,                Ziyong%Sun%NULL%0,                Ziyong%Sun%NULL%0,                Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%5,                Qiqi%Cao%NULL%3,                Le%Qin%NULL%3,                Xiaoyang%Wang%NULL%3,                Zenghui%Cheng%NULL%3,                Ashan%Pan%NULL%3,                Jianyi%Dai%NULL%3,                Qingfeng%Sun%NULL%3,                Fengquan%Zhao%NULL%3,                Jieming%Qu%NULL%0,                Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,                Nan%Hu%NULL%2,                Jing%Lou%NULL%2,                Kun%Chen%NULL%2,                Xuqin%Kang%NULL%2,                Zhenjun%Xiang%NULL%2,                Hui%Chen%NULL%4,                Dali%Wang%NULL%2,                Ning%Liu%NULL%2,                Dong%Liu%NULL%2,                Gang%Chen%NULL%2,                Yongliang%Zhang%NULL%2,                Dou%Li%NULL%2,                Jianren%Li%NULL%2,                Huixin%Lian%NULL%2,                Shengmei%Niu%NULL%2,                Luxi%Zhang%NULL%2,                Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,                Mengqi%Tu%NULL%3,                Shipei%Wang%NULL%3,                Sichao%Chen%NULL%3,                Wei%Zhou%NULL%5,                Danyang%Chen%NULL%3,                Lin%Zhou%NULL%3,                Min%Wang%NULL%3,                Yan%Zhao%NULL%5,                Wen%Zeng%NULL%3,                Qi%Huang%NULL%3,                Hai'bo%Xu%NULL%3,                Zeming%Liu%NULL%3,                Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,                Chengcheng%Yu%NULL%2,                Jing%Qu%NULL%2,                Lieguang%Zhang%NULL%2,                Songfeng%Jiang%NULL%2,                Deyang%Huang%NULL%2,                Bihua%Chen%NULL%2,                Zhiping%Zhang%NULL%2,                Wanhua%Guan%NULL%2,                Zhoukun%Ling%NULL%2,                Rui%Jiang%NULL%2,                Tianli%Hu%NULL%2,                Yan%Ding%NULL%2,                Lin%Lin%NULL%2,                Qingxin%Gan%NULL%2,                Liangping%Luo%tluolp@jnu.edu.cn%2,                Xiaoping%Tang%xtang@21cn.com%2,                Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,                Zhao-Wu%Tao%NULL%2,                Lei%Wang%NULL%3,                Ming-Li%Yuan%NULL%4,                Kui%Liu%NULL%6,                Ling%Zhou%NULL%4,                Shuang%Wei%NULL%4,                Yan%Deng%NULL%0,                Jing%Liu%NULL%4,                Hui-Guo%Liu%NULL%0,                Ming%Yang%NULL%3,                Yi%Hu%NULL%0,                Pei-Fang%Wei%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,                Jiong%Wu%NULL%3,                Faqi%Wu%NULL%3,                Dajing%Guo%NULL%0,                Linli%Chen%NULL%0,                Zheng%Fang%NULL%0,                Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,                Jun%Liu%NULL%3,                Xinguo%Zhao%NULL%1,                Chengyuan%Liu%NULL%1,                Wei%Wang%NULL%6,                Dawei%Wang%NULL%1,                Wei%Xu%NULL%2,                Chunyu%Zhang%NULL%1,                Jiong%Yu%NULL%1,                Bin%Jiang%NULL%1,                Hongcui%Cao%hccao@zju.edu.cn%1,                Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,                Xiaorong%Hu%NULL%2,                Wenlin%Cheng%NULL%7,                Lei%Yu%NULL%7,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%7,                Qiang%Liu%liuqiang@irm-cams.ac.cn%9,                Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,                Kun%Yang%NULL%10,                Kun%Yang%NULL%0,                Wenxia%Wang%NULL%10,                Wenxia%Wang%NULL%0,                Lingyu%Jiang%NULL%10,                Lingyu%Jiang%NULL%0,                Jianxin%Song%songsingsjx@sina.com%10,                Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,               Kun%Yang%NULL%3,               Kun%Yang%NULL%0,               Wenxia%Wang%NULL%2,               Wenxia%Wang%NULL%0,               Lingyu%Jiang%NULL%2,               Lingyu%Jiang%NULL%0,               Jianxin%Song%songsingsjx@sina.com%2,               Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,                Meiwen%Tang%NULL%1,                Xiaobin%Zheng%NULL%1,                Ye%Liu%ly77219@163.com%1,                Xiaofeng%Li%zdwylxf@163.com%1,                Hong%Shan%shanhong@mail.sysu.edu.cn%13]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,                Dong%Sun%NULL%1,                Yao%Liu%NULL%1,                Yanqing%Fan%NULL%0,                Lingyun%Zhao%NULL%1,                Xiaoming%Li%NULL%1,                Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,               Dong%Sun%NULL%1,               Yao%Liu%NULL%1,               Yanqing%Fan%NULL%1,               Lingyun%Zhao%NULL%1,               Xiaoming%Li%NULL%2,               Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic Features and Clinical Course of Patients Infected With SARS-CoV-2 in Singapore"</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%1, Shirin%Kalimuddin%xref no email%1, Jenny G.%Low%xref no email%1, Seow Yen%Tan%xref no email%1, Jiashen%Loh%xref no email%1, Oon-Tek%Ng%xref no email%1, Kalisvar%Marimuthu%xref no email%1, Li Wei%Ang%xref no email%1, Tze Minn%Mak%xref no email%1, Sok Kiang%Lau%xref no email%1, Danielle E.%Anderson%xref no email%1, Kian Sing%Chan%xref no email%1, Thean Yen%Tan%xref no email%1, Tong Yong%Ng%xref no email%1, Lin%Cui%xref no email%1, Zubaidah%Said%xref no email%1, Lalitha%Kurupatham%xref no email%1, Mark I-Cheng%Chen%xref no email%1, Monica%Chan%xref no email%1, Shawn%Vasoo%xref no email%1, Lin-Fa%Wang%xref no email%1, Boon Huan%Tan%xref no email%1, Raymond Tzer Pin%Lin%xref no email%1, Vernon Jian Ming%Lee%xref no email%1, Yee-Sin%Leo%xref no email%1, David Chien%Lye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%0,               SaiBin%Wang%NULL%2,               SaiBin%Wang%NULL%0,               YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Coronavirus Disease 2019 (COVID-19): Role of Chest CT in Diagnosis and Management"</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1, Liming%Xia%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,                Yao%Tian%NULL%2,                Yao%Tian%NULL%0,                Jing%Zhou%NULL%2,                Xuan%Ma%NULL%1,                Min%Yang%NULL%1,                ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,               Yao%Tian%NULL%2,               Yao%Tian%NULL%0,               Jing%Zhou%NULL%2,               Xuan%Ma%NULL%1,               Min%Yang%NULL%1,               ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>"CT Features of Coronavirus Disease 2019 (COVID-19) Pneumonia in 62 Patients in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Shuchang%Zhou%xref no email%1, Yujin%Wang%xref no email%1, Tingting%Zhu%xref no email%1, Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,                Yong-hua%Gao%NULL%1,                Li-Li%lou%NULL%1,                Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,                Huaqiao%Li%NULL%1,                Songtao%Huang%NULL%1,                Wei%You%NULL%1,                Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%9,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%10,                Jie%Xiang%NULL%16,                Yeming%Wang%NULL%0,                Bin%Song%NULL%10,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%9,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%10,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%9,                Yi%Zhang%NULL%10,                Hua%Chen%NULL%10,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%16,               Ronghui%Du%NULL%7,               Guohui%Fan%NULL%10,               Ying%Liu%NULL%9,               Zhibo%Liu%NULL%7,               Jie%Xiang%NULL%10,               Yeming%Wang%NULL%10,               Bin%Song%NULL%7,               Xiaoying%Gu%NULL%10,               Lulu%Guan%NULL%7,               Yuan%Wei%NULL%11,               Hui%Li%NULL%14,               Xudong%Wu%NULL%7,               Jiuyang%Xu%NULL%10,               Shengjin%Tu%NULL%7,               Yi%Zhang%NULL%8,               Hua%Chen%NULL%7,               Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>"COVID-19, Australia: Epidemiology Report 6: Reporting week ending 1900 AEDT 7 March 2020"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"This is the sixth epidemiological report for coronavirus disease 2019 (COVID-19), reported in Australia as at 19:00 Australian Eastern Daylight Time [AEDT] 7 March 2020. It includes data on COVID-19 cases diagnosed in Australia, the international situation and a review of current evidence.
+</t>
+  </si>
+  <si>
+    <t>[Tracy%Tsang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,                Tangkai%Qi%NULL%2,                Li%Liu%NULL%2,                Yun%Ling%NULL%0,                Zhiping%Qian%NULL%2,                Tao%Li%NULL%3,                Feng%Li%NULL%2,                Qingnian%Xu%NULL%2,                Yuyi%Zhang%NULL%2,                Shuibao%Xu%NULL%2,                Zhigang%Song%NULL%2,                Yigang%Zeng%NULL%2,                Yinzhong%Shen%NULL%2,                Yuxin%Shi%NULL%0,                Tongyu%Zhu%NULL%3,                Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,                Feifei%Yao%NULL%1,                Lijie%Wang%NULL%1,                Ling%Zheng%NULL%1,                Yongjun%Gao%NULL%1,                Jun%Ye%NULL%1,                Feng%Guo%NULL%1,                Hui%Zhao%NULL%1,                Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,                Bin%Quan%NULL%1,                Xiaoning%Li%NULL%2,                Guangjian%Gao%NULL%1,                Wenqiang%Zheng%NULL%1,                Jun%Zhang%NULL%1,                Zhiyun%Zhang%NULL%1,                Chunsheng%Liu%NULL%1,                Li%Li%NULL%0,                Chenglin%Wang%NULL%1,                Guihua%Zhang%NULL%1,                Jiajia%Li%NULL%1,                Yunhai%Dai%NULL%1,                Jianghua%Yang%yjhpath@163.com%1,                Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,               Bin%Quan%NULL%1,               Xiaoning%Li%NULL%2,               Guangjian%Gao%NULL%1,               Wenqiang%Zheng%NULL%1,               Jun%Zhang%NULL%5,               Zhiyun%Zhang%NULL%1,               Chunsheng%Liu%NULL%1,               Li%Li%NULL%4,               Chenglin%Wang%NULL%1,               Guihua%Zhang%NULL%1,               Jiajia%Li%NULL%1,               Yunhai%Dai%NULL%1,               Jianghua%Yang%yjhpath@163.com%1,               Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%1, Yanping%Cai%xref no email%1, Jia\u2019an%Xia%xref no email%1, Xing%Zhou%xref no email%1, Sha%Xu%xref no email%1, Hanping%Huang%xref no email%1, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%1, Chunling%Du%xref no email%1, Yuye%Zhang%xref no email%1, Juan%Song%xref no email%1, Sijiao%Wang%xref no email%1, Yencheng%Chao%xref no email%1, Zeyong%Yang%xref no email%1, Jie%Xu%xref no email%1, Xin%Zhou%xref no email%1, Dechang%Chen%xref no email%1, Weining%Xiong%xref no email%1, Lei%Xu%xref no email%1, Feng%Zhou%xref no email%1, Jinjun%Jiang%xref no email%1, Chunxue%Bai%xref no email%1, Junhua%Zheng%xref no email%1, Yuanlin%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,               Kai%Xie%NULL%2,               Kai%Xie%NULL%0,               Hui%Lu%NULL%1,               Lei%Xu%bayinhexl@126.com%1,               Shusheng%Zhou%zhouss108@163.com%1,               Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>"Clinical Features and Chest CT Manifestations of Coronavirus Disease 2019 (COVID-19) in a Single-Center Study in Shanghai, China"</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0, Yong%Lu%xref no email%1, Qiqi%Cao%xref no email%1, Le%Qin%xref no email%1, Zilai%Pan%xref no email%1, Fuhua%Yan%xref no email%1, Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,                Bohan%Yang%NULL%3,                Qianwen%Li%NULL%3,                Lu%Wen%NULL%3,                Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,                Yingxia%Liu%NULL%1,                Lei%Liu%NULL%15,                Xianfeng%Wang%NULL%1,                Nijuan%Luo%NULL%1,                Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,               Yingxia%Liu%NULL%2,               Lei%Liu%NULL%9,               Xianfeng%Wang%NULL%1,               Nijuan%Luo%NULL%1,               Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Early Clinical and CT Manifestations of Coronavirus Disease 2019 (COVID-19) Pneumonia"</t>
+  </si>
+  <si>
+    <t>[Rui%Han%xref no email%1, Lu%Huang%xref no email%1, Hong%Jiang%xref no email%1, Jin%Dong%xref no email%1, Hongfen%Peng%xref no email%1, Dongyou%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,                Tuantuan%Li%NULL%2,                Mingfeng%Han%NULL%2,                Xiuyong%Li%NULL%2,                Dong%Wu%NULL%2,                Yuanhong%Xu%NULL%4,                Yulin%Zhu%NULL%2,                Yan%Liu%NULL%3,                Xiaowu%Wang%wangxiaowu19880218@126.com%2,                Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,               Tuantuan%Li%NULL%2,               Mingfeng%Han%NULL%6,               Xiuyong%Li%NULL%2,               Dong%Wu%NULL%2,               Yuanhong%Xu%NULL%2,               Yulin%Zhu%NULL%2,               Yan%Liu%NULL%2,               Xiaowu%Wang%wangxiaowu19880218@126.com%2,               Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
   </si>
 </sst>
 </file>
@@ -4051,7 +4253,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>967</v>
+        <v>1022</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -4080,7 +4282,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>968</v>
+        <v>1023</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -4109,7 +4311,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>969</v>
+        <v>1024</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -4138,7 +4340,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>970</v>
+        <v>1025</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -4167,7 +4369,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>971</v>
+        <v>1026</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -4196,7 +4398,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>972</v>
+        <v>1027</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -4225,7 +4427,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>973</v>
+        <v>1028</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -4254,7 +4456,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>974</v>
+        <v>1029</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -4283,7 +4485,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>975</v>
+        <v>1030</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -4312,7 +4514,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>976</v>
+        <v>1031</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -4341,7 +4543,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>977</v>
+        <v>1032</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -4370,7 +4572,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>978</v>
+        <v>1033</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -4399,7 +4601,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>979</v>
+        <v>1034</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -4428,7 +4630,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -4457,7 +4659,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>981</v>
+        <v>1036</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4486,7 +4688,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>982</v>
+        <v>1037</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4515,7 +4717,7 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>983</v>
+        <v>1038</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -4544,7 +4746,7 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>984</v>
+        <v>1039</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -4573,7 +4775,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>985</v>
+        <v>1040</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -4602,7 +4804,7 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>986</v>
+        <v>1041</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -4631,7 +4833,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>987</v>
+        <v>1042</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -4660,7 +4862,7 @@
         <v>877</v>
       </c>
       <c r="E23" t="s">
-        <v>988</v>
+        <v>1043</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -4689,7 +4891,7 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>989</v>
+        <v>1044</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -4718,7 +4920,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>990</v>
+        <v>1045</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -4747,7 +4949,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>991</v>
+        <v>1046</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -4776,7 +4978,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>992</v>
+        <v>1047</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -4805,7 +5007,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>993</v>
+        <v>1048</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -4834,7 +5036,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>994</v>
+        <v>1049</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -4863,7 +5065,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>995</v>
+        <v>1050</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -4892,7 +5094,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4921,7 +5123,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>997</v>
+        <v>1052</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -4944,22 +5146,22 @@
         <v>43893</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>1053</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>998</v>
+        <v>1054</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>1055</v>
       </c>
       <c r="I33" t="s">
         <v>70</v>
@@ -4979,7 +5181,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>999</v>
+        <v>1056</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -5002,22 +5204,22 @@
         <v>43983</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>1057</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>1000</v>
+        <v>1058</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>1055</v>
       </c>
       <c r="I35" t="s">
         <v>70</v>
@@ -5037,7 +5239,7 @@
         <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>1001</v>
+        <v>1059</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -5066,7 +5268,7 @@
         <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>1002</v>
+        <v>1060</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -5089,22 +5291,22 @@
         <v>43983</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>1061</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>1003</v>
+        <v>1062</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H38" t="s">
-        <v>194</v>
+        <v>1055</v>
       </c>
       <c r="I38" t="s">
         <v>70</v>
@@ -5124,7 +5326,7 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>1004</v>
+        <v>1063</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -5153,7 +5355,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>1005</v>
+        <v>1064</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -5182,7 +5384,7 @@
         <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>1006</v>
+        <v>1065</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5211,7 +5413,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1007</v>
+        <v>1066</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -5234,22 +5436,22 @@
         <v>43891</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>1067</v>
       </c>
       <c r="D43" t="s">
-        <v>208</v>
+        <v>1068</v>
       </c>
       <c r="E43" t="s">
-        <v>1008</v>
+        <v>1069</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H43" t="s">
-        <v>211</v>
+        <v>1070</v>
       </c>
       <c r="I43" t="s">
         <v>70</v>
@@ -5269,7 +5471,7 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>1009</v>
+        <v>1071</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -5298,7 +5500,7 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>1010</v>
+        <v>1072</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -5327,7 +5529,7 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>1011</v>
+        <v>1073</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -5356,7 +5558,7 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>1012</v>
+        <v>1074</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -5379,22 +5581,22 @@
         <v>43891</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>1075</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H48" t="s">
-        <v>230</v>
+        <v>1055</v>
       </c>
       <c r="I48" t="s">
         <v>70</v>
@@ -5414,7 +5616,7 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>1014</v>
+        <v>1077</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -5437,22 +5639,22 @@
         <v>44013</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>1078</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>1015</v>
+        <v>1079</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>1080</v>
       </c>
       <c r="I50" t="s">
         <v>70</v>
@@ -5472,7 +5674,7 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>1016</v>
+        <v>1081</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -5501,7 +5703,7 @@
         <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>1017</v>
+        <v>1082</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -5530,7 +5732,7 @@
         <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>1018</v>
+        <v>1083</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -5553,22 +5755,22 @@
         <v>44044</v>
       </c>
       <c r="C54" t="s">
-        <v>244</v>
+        <v>1084</v>
       </c>
       <c r="D54" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>1019</v>
+        <v>1085</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>1086</v>
       </c>
       <c r="I54" t="s">
         <v>70</v>
@@ -5588,7 +5790,7 @@
         <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>1020</v>
+        <v>1087</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -5617,7 +5819,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>1021</v>
+        <v>1088</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6323" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7107" uniqueCount="1197">
   <si>
     <t>Doi</t>
   </si>
@@ -3913,6 +3913,330 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,               Tuantuan%Li%NULL%2,               Mingfeng%Han%NULL%6,               Xiuyong%Li%NULL%2,               Dong%Wu%NULL%2,               Yuanhong%Xu%NULL%2,               Yulin%Zhu%NULL%2,               Yan%Liu%NULL%2,               Xiaowu%Wang%wangxiaowu19880218@126.com%2,               Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,                 Yeming%Wang%NULL%16,                 Xingwang%Li%NULL%7,                 Lili%Ren%NULL%6,                 Jianping%Zhao%NULL%13,                 Yi%Hu%NULL%14,                 Li%Zhang%NULL%13,                 Guohui%Fan%NULL%16,                 Jiuyang%Xu%NULL%16,                 Xiaoying%Gu%NULL%16,                 Zhenshun%Cheng%NULL%8,                 Ting%Yu%NULL%27,                 Jiaan%Xia%NULL%7,                 Yuan%Wei%NULL%21,                 Wenjuan%Wu%NULL%6,                 Xuelei%Xie%NULL%7,                 Wen%Yin%NULL%10,                 Hui%Li%NULL%18,                 Min%Liu%NULL%6,                 Yan%Xiao%NULL%7,                 Hong%Gao%NULL%7,                 Li%Guo%NULL%8,                 Jungang%Xie%NULL%7,                 Guangfa%Wang%NULL%6,                 Rongmeng%Jiang%NULL%6,                 Zhancheng%Gao%NULL%6,                 Qi%Jin%NULL%7,                 Jianwei%Wang%wangjw28@163.com%6,                 Bin%Cao%caobin_ben@163.com%16]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,                 Shuofeng%Yuan%NULL%2,                 Kin-Hang%Kok%NULL%2,                 Kelvin Kai-Wang%To%NULL%2,                 Hin%Chu%NULL%2,                 Jin%Yang%NULL%2,                 Fanfan%Xing%NULL%2,                 Jieling%Liu%NULL%2,                 Cyril Chik-Yan%Yip%NULL%3,                 Rosana Wing-Shan%Poon%NULL%3,                 Hoi-Wah%Tsoi%NULL%2,                 Simon Kam-Fai%Lo%NULL%2,                 Kwok-Hung%Chan%NULL%3,                 Vincent Kwok-Man%Poon%NULL%2,                 Wan-Mui%Chan%NULL%3,                 Jonathan Daniel%Ip%NULL%3,                 Jian-Piao%Cai%NULL%3,                 Vincent Chi-Chung%Cheng%NULL%3,                 Honglin%Chen%NULL%3,                 Christopher Kim-Ming%Hui%NULL%2,                 Kwok-Yung%Yuen%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,                 Xuhua%Guan%NULL%1,                 Peng%Wu%NULL%1,                 Xiaoye%Wang%NULL%1,                 Lei%Zhou%NULL%1,                 Yeqing%Tong%NULL%1,                 Ruiqi%Ren%NULL%1,                 Kathy S.M.%Leung%NULL%1,                 Eric H.Y.%Lau%NULL%1,                 Jessica Y.%Wong%NULL%1,                 Xuesen%Xing%NULL%1,                 Nijuan%Xiang%NULL%1,                 Yang%Wu%NULL%1,                 Chao%Li%NULL%1,                 Qi%Chen%NULL%1,                 Dan%Li%NULL%1,                 Tian%Liu%NULL%1,                 Jing%Zhao%NULL%1,                 Man%Liu%NULL%1,                 Wenxiao%Tu%NULL%1,                 Chuding%Chen%NULL%1,                 Lianmei%Jin%NULL%1,                 Rui%Yang%NULL%1,                 Qi%Wang%NULL%1,                 Suhua%Zhou%NULL%1,                 Rui%Wang%NULL%1,                 Hui%Liu%NULL%1,                 Yinbo%Luo%NULL%1,                 Yuan%Liu%NULL%1,                 Ge%Shao%NULL%1,                 Huan%Li%NULL%3,                 Zhongfa%Tao%NULL%1,                 Yang%Yang%NULL%3,                 Zhiqiang%Deng%NULL%1,                 Boxi%Liu%NULL%1,                 Zhitao%Ma%NULL%1,                 Yanping%Zhang%NULL%1,                 Guoqing%Shi%NULL%1,                 Tommy T.Y.%Lam%NULL%1,                 Joseph T.%Wu%NULL%1,                 George F.%Gao%NULL%1,                 Benjamin J.%Cowling%NULL%1,                 Bo%Yang%NULL%4,                 Bo%Yang%NULL%0,                 Gabriel M.%Leung%NULL%1,                 Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,                 Min%Zhou%NULL%6,                 Xuan%Dong%NULL%6,                 Jieming%Qu%NULL%10,                 Fengyun%Gong%NULL%6,                 Yang%Han%NULL%5,                 Yang%Qiu%NULL%5,                 Jingli%Wang%NULL%6,                 Ying%Liu%NULL%15,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%11,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%5,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,                 Nannan%Shi%NULL%3,                 Nannan%Shi%NULL%0,                 Fei%Shan%NULL%2,                 Zhiyong%Zhang%NULL%2,                 Jie%Shen%NULL%1,                 Hongzhou%Lu%NULL%6,                 Yun%Ling%NULL%7,                 Yebin%Jiang%NULL%2,                 Yebin%Jiang%NULL%0,                 Yuxin%Shi%shiyuxin@shphc.org.cn%5,                 Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,             Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,                 Yuan-Yuan%Fang%NULL%4,                 Yan%Deng%NULL%4,                 Wei%Liu%NULL%6,                 Mei-Fang%Wang%NULL%2,                 Jing-Ping%Ma%NULL%2,                 Wei%Xiao%NULL%2,                 Ying-Nan%Wang%NULL%2,                 Min-Hua%Zhong%NULL%2,                 Cheng-Hong%Li%NULL%2,                 Guang-Cai%Li%NULL%2,                 Hui-Guo%Liu%NULL%6,                 Xiu-Yuan%Hao%NULL%6,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%11]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,         Minggui%Lin%xref no email%2,         Lai%Wei%xref no email%2,         Lixin%Xie%xref no email%2,         Guangfa%Zhu%xref no email%2,         Charles S.%Dela Cruz%xref no email%2,         Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,       Yang%Yang%null%1,       Cong%Zhang%null%1,       Fengming%Huang%null%1,       Fuxiang%Wang%null%1,       Jing%Yuan%null%2,       Zhaoqin%Wang%null%1,       Jinxiu%Li%null%1,       Jianming%Li%null%1,       Cheng%Feng%null%1,       Zheng%Zhang%null%2,       Lifei%Wang%null%1,       Ling%Peng%null%1,       Li%Chen%null%1,       Yuhao%Qin%null%1,       Dandan%Zhao%null%1,       Shuguang%Tan%null%1,       Lu%Yin%null%1,       Jun%Xu%null%1,       Congzhao%Zhou%null%1,       Chengyu%Jiang%null%1,       Lei%Liu%null%2]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,                 Ye-Ming%Wang%NULL%1,                 Zhi-Qiang%Wu%NULL%1,                 Zi-Chun%Xiang%NULL%1,                 Li%Guo%NULL%0,                 Teng%Xu%NULL%1,                 Yong-Zhong%Jiang%NULL%1,                 Yan%Xiong%NULL%4,                 Yong-Jun%Li%NULL%1,                 Xing-Wang%Li%NULL%1,                 Hui%Li%NULL%0,                 Guo-Hui%Fan%NULL%1,                 Xiao-Ying%Gu%NULL%1,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Jiu-Yang%Xu%NULL%1,                 Fan%Yang%NULL%3,                 Xin-Ming%Wang%NULL%1,                 Chao%Wu%NULL%3,                 Lan%Chen%NULL%1,                 Yi-Wei%Liu%NULL%1,                 Bo%Liu%NULL%2,                 Jian%Yang%NULL%1,                 Xiao-Rui%Wang%NULL%1,                 Jie%Dong%NULL%1,                 Li%Li%NULL%5,                 Chao-Lin%Huang%NULL%1,                 Jian-Ping%Zhao%NULL%1,                 Yi%Hu%NULL%0,                 Zhen-Shun%Cheng%NULL%1,                 Lin-Lin%Liu%NULL%1,                 Zhao-Hui%Qian%NULL%1,                 Chuan%Qin%NULL%1,                 Qi%Jin%NULL%0,                 Bin%Cao%NULL%0,                 Jian-Wei%Wang%NULL%1,                 Xiu-Yuan%Hao%NULL%0,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,                 Dengju%Li%NULL%2,                 Xiong%Wang%NULL%4,                 Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,             Cao%Yi-yuan%coreGivesNoEmail%4,             Dong%Xiang%coreGivesNoEmail%4,             Gao%Ya-dong%coreGivesNoEmail%4,             Yan%You-qin%coreGivesNoEmail%4,             Yang%Yi-bin%coreGivesNoEmail%4,             Yuan%Ya-dong%coreGivesNoEmail%4,             Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,                 Xiao-Xin%Wu%NULL%3,                 Xian-Gao%Jiang%NULL%3,                 Kai-Jin%Xu%NULL%3,                 Ling-Jun%Ying%NULL%3,                 Chun-Lian%Ma%NULL%3,                 Shi-Bo%Li%NULL%3,                 Hua-Ying%Wang%NULL%3,                 Sheng%Zhang%NULL%3,                 Hai-Nv%Gao%NULL%3,                 Ji-Fang%Sheng%NULL%3,                 Hong-Liu%Cai%NULL%3,                 Yun-Qing%Qiu%NULL%3,                 Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,                 Xiaojia%Wu%NULL%1,                 Wenbing%Zeng%NULL%1,                 Dajing%Guo%NULL%4,                 Zheng%Fang%NULL%4,                 Linli%Chen%NULL%4,                 Huizhe%Huang%NULL%1,                 Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,                 Valerie%Wong%NULL%1,                 Vivian Wan In%Wei%NULL%1,                 Samuel Yeung Shan%Wong%NULL%1,                 Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,                 Xiaoyu%Han%NULL%1,                 Nanchuan%Jiang%NULL%1,                 Yukun%Cao%NULL%1,                 Osamah%Alwalid%NULL%1,                 Jin%Gu%NULL%1,                 Yanqing%Fan%1024932023@qq.com%2,                 Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,                 Jing-Hui%Dong%NULL%2,                 Wei-Min%An%NULL%2,                 Xiao-Yan%Lv%15001008285@139.com%2,                 Xiao-Ping%Yin%yinxiaoping78@sina.com%2,                 Jian-Zeng%Zhang%NULL%2,                 Li%Dong%NULL%2,                 Xi%Ma%NULL%2,                 Hong-Jie%Zhang%NULL%2,                 Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,                 Zhenlu%Yang%NULL%2,                 Zhenlu%Yang%NULL%0,                 Hongyan%Hou%NULL%2,                 Hongyan%Hou%NULL%0,                 Chenao%Zhan%NULL%1,                 Chong%Chen%NULL%1,                 Wenzhi%Lv%NULL%2,                 Wenzhi%Lv%NULL%0,                 Qian%Tao%NULL%2,                 Qian%Tao%NULL%0,                 Ziyong%Sun%NULL%0,                 Ziyong%Sun%NULL%0,                 Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%5,                 Qiqi%Cao%NULL%3,                 Le%Qin%NULL%3,                 Xiaoyang%Wang%NULL%3,                 Zenghui%Cheng%NULL%3,                 Ashan%Pan%NULL%3,                 Jianyi%Dai%NULL%3,                 Qingfeng%Sun%NULL%3,                 Fengquan%Zhao%NULL%3,                 Jieming%Qu%NULL%0,                 Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,                 Nan%Hu%NULL%2,                 Jing%Lou%NULL%2,                 Kun%Chen%NULL%2,                 Xuqin%Kang%NULL%2,                 Zhenjun%Xiang%NULL%2,                 Hui%Chen%NULL%4,                 Dali%Wang%NULL%2,                 Ning%Liu%NULL%2,                 Dong%Liu%NULL%2,                 Gang%Chen%NULL%2,                 Yongliang%Zhang%NULL%2,                 Dou%Li%NULL%2,                 Jianren%Li%NULL%2,                 Huixin%Lian%NULL%2,                 Shengmei%Niu%NULL%2,                 Luxi%Zhang%NULL%2,                 Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,                 Mengqi%Tu%NULL%3,                 Shipei%Wang%NULL%3,                 Sichao%Chen%NULL%3,                 Wei%Zhou%NULL%5,                 Danyang%Chen%NULL%3,                 Lin%Zhou%NULL%3,                 Min%Wang%NULL%3,                 Yan%Zhao%NULL%5,                 Wen%Zeng%NULL%3,                 Qi%Huang%NULL%3,                 Hai'bo%Xu%NULL%3,                 Zeming%Liu%NULL%3,                 Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,                 Chengcheng%Yu%NULL%2,                 Jing%Qu%NULL%2,                 Lieguang%Zhang%NULL%2,                 Songfeng%Jiang%NULL%2,                 Deyang%Huang%NULL%2,                 Bihua%Chen%NULL%2,                 Zhiping%Zhang%NULL%2,                 Wanhua%Guan%NULL%2,                 Zhoukun%Ling%NULL%2,                 Rui%Jiang%NULL%2,                 Tianli%Hu%NULL%2,                 Yan%Ding%NULL%2,                 Lin%Lin%NULL%2,                 Qingxin%Gan%NULL%2,                 Liangping%Luo%tluolp@jnu.edu.cn%2,                 Xiaoping%Tang%xtang@21cn.com%2,                 Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,                 Zhao-Wu%Tao%NULL%2,                 Lei%Wang%NULL%3,                 Ming-Li%Yuan%NULL%4,                 Kui%Liu%NULL%6,                 Ling%Zhou%NULL%4,                 Shuang%Wei%NULL%4,                 Yan%Deng%NULL%0,                 Jing%Liu%NULL%4,                 Hui-Guo%Liu%NULL%0,                 Ming%Yang%NULL%3,                 Yi%Hu%NULL%0,                 Pei-Fang%Wei%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,                 Jiong%Wu%NULL%3,                 Faqi%Wu%NULL%3,                 Dajing%Guo%NULL%0,                 Linli%Chen%NULL%0,                 Zheng%Fang%NULL%0,                 Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,                 Jun%Liu%NULL%3,                 Xinguo%Zhao%NULL%1,                 Chengyuan%Liu%NULL%1,                 Wei%Wang%NULL%6,                 Dawei%Wang%NULL%1,                 Wei%Xu%NULL%2,                 Chunyu%Zhang%NULL%1,                 Jiong%Yu%NULL%1,                 Bin%Jiang%NULL%1,                 Hongcui%Cao%hccao@zju.edu.cn%1,                 Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,                 Xiaorong%Hu%NULL%2,                 Wenlin%Cheng%NULL%7,                 Lei%Yu%NULL%7,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%7,                 Qiang%Liu%liuqiang@irm-cams.ac.cn%9,                 Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,                 Kun%Yang%NULL%10,                 Kun%Yang%NULL%0,                 Wenxia%Wang%NULL%10,                 Wenxia%Wang%NULL%0,                 Lingyu%Jiang%NULL%10,                 Lingyu%Jiang%NULL%0,                 Jianxin%Song%songsingsjx@sina.com%10,                 Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                Kun%Yang%NULL%3,                Kun%Yang%NULL%0,                Wenxia%Wang%NULL%2,                Wenxia%Wang%NULL%0,                Lingyu%Jiang%NULL%2,                Lingyu%Jiang%NULL%0,                Jianxin%Song%songsingsjx@sina.com%2,                Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,                 Meiwen%Tang%NULL%1,                 Xiaobin%Zheng%NULL%1,                 Ye%Liu%ly77219@163.com%1,                 Xiaofeng%Li%zdwylxf@163.com%1,                 Hong%Shan%shanhong@mail.sysu.edu.cn%13]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,                 Dong%Sun%NULL%1,                 Yao%Liu%NULL%1,                 Yanqing%Fan%NULL%0,                 Lingyun%Zhao%NULL%1,                 Xiaoming%Li%NULL%1,                 Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,                Dong%Sun%NULL%1,                Yao%Liu%NULL%1,                Yanqing%Fan%NULL%1,                Lingyun%Zhao%NULL%1,                Xiaoming%Li%NULL%2,                Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,  Sean Wei Xiang%Ong%xref no email%1,  Shirin%Kalimuddin%xref no email%1,  Jenny G.%Low%xref no email%1,  Seow Yen%Tan%xref no email%1,  Jiashen%Loh%xref no email%1,  Oon-Tek%Ng%xref no email%1,  Kalisvar%Marimuthu%xref no email%1,  Li Wei%Ang%xref no email%1,  Tze Minn%Mak%xref no email%1,  Sok Kiang%Lau%xref no email%1,  Danielle E.%Anderson%xref no email%1,  Kian Sing%Chan%xref no email%1,  Thean Yen%Tan%xref no email%1,  Tong Yong%Ng%xref no email%1,  Lin%Cui%xref no email%1,  Zubaidah%Said%xref no email%1,  Lalitha%Kurupatham%xref no email%1,  Mark I-Cheng%Chen%xref no email%1,  Monica%Chan%xref no email%1,  Shawn%Vasoo%xref no email%1,  Lin-Fa%Wang%xref no email%1,  Boon Huan%Tan%xref no email%1,  Raymond Tzer Pin%Lin%xref no email%1,  Vernon Jian Ming%Lee%xref no email%1,  Yee-Sin%Leo%xref no email%1,  David Chien%Lye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,                SaiBin%Wang%NULL%2,                SaiBin%Wang%NULL%0,                YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1,  Liming%Xia%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,                 Yao%Tian%NULL%2,                 Yao%Tian%NULL%0,                 Jing%Zhou%NULL%2,                 Xuan%Ma%NULL%1,                 Min%Yang%NULL%1,                 ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,                Yao%Tian%NULL%2,                Yao%Tian%NULL%0,                Jing%Zhou%NULL%2,                Xuan%Ma%NULL%1,                Min%Yang%NULL%1,                ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuchang%Zhou%xref no email%1,  Yujin%Wang%xref no email%1,  Tingting%Zhu%xref no email%1,  Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,                 Yong-hua%Gao%NULL%1,                 Li-Li%lou%NULL%1,                 Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,                 Huaqiao%Li%NULL%1,                 Songtao%Huang%NULL%1,                 Wei%You%NULL%1,                 Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%9,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%10,                 Jie%Xiang%NULL%16,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%10,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%9,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%10,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%9,                 Yi%Zhang%NULL%10,                 Hua%Chen%NULL%10,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%16,                Ronghui%Du%NULL%7,                Guohui%Fan%NULL%10,                Ying%Liu%NULL%9,                Zhibo%Liu%NULL%7,                Jie%Xiang%NULL%10,                Yeming%Wang%NULL%10,                Bin%Song%NULL%7,                Xiaoying%Gu%NULL%10,                Lulu%Guan%NULL%7,                Yuan%Wei%NULL%11,                Hui%Li%NULL%14,                Xudong%Wu%NULL%7,                Jiuyang%Xu%NULL%10,                Shengjin%Tu%NULL%7,                Yi%Zhang%NULL%8,                Hua%Chen%NULL%7,                Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,                 Tangkai%Qi%NULL%2,                 Li%Liu%NULL%2,                 Yun%Ling%NULL%0,                 Zhiping%Qian%NULL%2,                 Tao%Li%NULL%3,                 Feng%Li%NULL%2,                 Qingnian%Xu%NULL%2,                 Yuyi%Zhang%NULL%2,                 Shuibao%Xu%NULL%2,                 Zhigang%Song%NULL%2,                 Yigang%Zeng%NULL%2,                 Yinzhong%Shen%NULL%2,                 Yuxin%Shi%NULL%0,                 Tongyu%Zhu%NULL%3,                 Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,                 Feifei%Yao%NULL%1,                 Lijie%Wang%NULL%1,                 Ling%Zheng%NULL%1,                 Yongjun%Gao%NULL%1,                 Jun%Ye%NULL%1,                 Feng%Guo%NULL%1,                 Hui%Zhao%NULL%1,                 Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,                 Bin%Quan%NULL%1,                 Xiaoning%Li%NULL%2,                 Guangjian%Gao%NULL%1,                 Wenqiang%Zheng%NULL%1,                 Jun%Zhang%NULL%1,                 Zhiyun%Zhang%NULL%1,                 Chunsheng%Liu%NULL%1,                 Li%Li%NULL%0,                 Chenglin%Wang%NULL%1,                 Guihua%Zhang%NULL%1,                 Jiajia%Li%NULL%1,                 Yunhai%Dai%NULL%1,                 Jianghua%Yang%yjhpath@163.com%1,                 Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,                Bin%Quan%NULL%1,                Xiaoning%Li%NULL%2,                Guangjian%Gao%NULL%1,                Wenqiang%Zheng%NULL%1,                Jun%Zhang%NULL%5,                Zhiyun%Zhang%NULL%1,                Chunsheng%Liu%NULL%1,                Li%Li%NULL%4,                Chenglin%Wang%NULL%1,                Guihua%Zhang%NULL%1,                Jiajia%Li%NULL%1,                Yunhai%Dai%NULL%1,                Jianghua%Yang%yjhpath@163.com%1,                Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,  Xiaoyan%Chen%xref no email%1,  Yanping%Cai%xref no email%1,  Jia\u2019an%Xia%xref no email%1,  Xing%Zhou%xref no email%1,  Sha%Xu%xref no email%1,  Hanping%Huang%xref no email%1,  Li%Zhang%xref no email%1,  Xia%Zhou%xref no email%1,  Chunling%Du%xref no email%1,  Yuye%Zhang%xref no email%1,  Juan%Song%xref no email%1,  Sijiao%Wang%xref no email%1,  Yencheng%Chao%xref no email%1,  Zeyong%Yang%xref no email%1,  Jie%Xu%xref no email%1,  Xin%Zhou%xref no email%1,  Dechang%Chen%xref no email%1,  Weining%Xiong%xref no email%1,  Lei%Xu%xref no email%1,  Feng%Zhou%xref no email%1,  Jinjun%Jiang%xref no email%1,  Chunxue%Bai%xref no email%1,  Junhua%Zheng%xref no email%1,  Yuanlin%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%5,                Kai%Xie%NULL%2,                Kai%Xie%NULL%0,                Hui%Lu%NULL%1,                Lei%Xu%bayinhexl@126.com%1,                Shusheng%Zhou%zhouss108@163.com%1,                Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,  Yong%Lu%xref no email%1,  Qiqi%Cao%xref no email%1,  Le%Qin%xref no email%1,  Zilai%Pan%xref no email%1,  Fuhua%Yan%xref no email%1,  Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,                 Bohan%Yang%NULL%3,                 Qianwen%Li%NULL%3,                 Lu%Wen%NULL%3,                 Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,                 Yingxia%Liu%NULL%1,                 Lei%Liu%NULL%15,                 Xianfeng%Wang%NULL%1,                 Nijuan%Luo%NULL%1,                 Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,                Yingxia%Liu%NULL%2,                Lei%Liu%NULL%9,                Xianfeng%Wang%NULL%1,                Nijuan%Luo%NULL%1,                Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Han%xref no email%1,  Lu%Huang%xref no email%1,  Hong%Jiang%xref no email%1,  Jin%Dong%xref no email%1,  Hongfen%Peng%xref no email%1,  Dongyou%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,                 Tuantuan%Li%NULL%2,                 Mingfeng%Han%NULL%2,                 Xiuyong%Li%NULL%2,                 Dong%Wu%NULL%2,                 Yuanhong%Xu%NULL%4,                 Yulin%Zhu%NULL%2,                 Yan%Liu%NULL%3,                 Xiaowu%Wang%wangxiaowu19880218@126.com%2,                 Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                Tuantuan%Li%NULL%2,                Mingfeng%Han%NULL%6,                Xiuyong%Li%NULL%2,                Dong%Wu%NULL%2,                Yuanhong%Xu%NULL%2,                Yulin%Zhu%NULL%2,                Yan%Liu%NULL%2,                Xiaowu%Wang%wangxiaowu19880218@126.com%2,                Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,                  Yeming%Wang%NULL%16,                  Xingwang%Li%NULL%7,                  Lili%Ren%NULL%6,                  Jianping%Zhao%NULL%13,                  Yi%Hu%NULL%14,                  Li%Zhang%NULL%13,                  Guohui%Fan%NULL%16,                  Jiuyang%Xu%NULL%16,                  Xiaoying%Gu%NULL%16,                  Zhenshun%Cheng%NULL%8,                  Ting%Yu%NULL%27,                  Jiaan%Xia%NULL%7,                  Yuan%Wei%NULL%21,                  Wenjuan%Wu%NULL%6,                  Xuelei%Xie%NULL%7,                  Wen%Yin%NULL%10,                  Hui%Li%NULL%18,                  Min%Liu%NULL%6,                  Yan%Xiao%NULL%7,                  Hong%Gao%NULL%7,                  Li%Guo%NULL%8,                  Jungang%Xie%NULL%7,                  Guangfa%Wang%NULL%6,                  Rongmeng%Jiang%NULL%6,                  Zhancheng%Gao%NULL%6,                  Qi%Jin%NULL%7,                  Jianwei%Wang%wangjw28@163.com%6,                  Bin%Cao%caobin_ben@163.com%16]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,                  Shuofeng%Yuan%NULL%2,                  Kin-Hang%Kok%NULL%2,                  Kelvin Kai-Wang%To%NULL%2,                  Hin%Chu%NULL%2,                  Jin%Yang%NULL%2,                  Fanfan%Xing%NULL%2,                  Jieling%Liu%NULL%2,                  Cyril Chik-Yan%Yip%NULL%3,                  Rosana Wing-Shan%Poon%NULL%3,                  Hoi-Wah%Tsoi%NULL%2,                  Simon Kam-Fai%Lo%NULL%2,                  Kwok-Hung%Chan%NULL%3,                  Vincent Kwok-Man%Poon%NULL%2,                  Wan-Mui%Chan%NULL%3,                  Jonathan Daniel%Ip%NULL%3,                  Jian-Piao%Cai%NULL%3,                  Vincent Chi-Chung%Cheng%NULL%3,                  Honglin%Chen%NULL%3,                  Christopher Kim-Ming%Hui%NULL%2,                  Kwok-Yung%Yuen%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,                  Xuhua%Guan%NULL%1,                  Peng%Wu%NULL%1,                  Xiaoye%Wang%NULL%1,                  Lei%Zhou%NULL%1,                  Yeqing%Tong%NULL%1,                  Ruiqi%Ren%NULL%1,                  Kathy S.M.%Leung%NULL%1,                  Eric H.Y.%Lau%NULL%1,                  Jessica Y.%Wong%NULL%1,                  Xuesen%Xing%NULL%1,                  Nijuan%Xiang%NULL%1,                  Yang%Wu%NULL%1,                  Chao%Li%NULL%1,                  Qi%Chen%NULL%1,                  Dan%Li%NULL%1,                  Tian%Liu%NULL%1,                  Jing%Zhao%NULL%1,                  Man%Liu%NULL%1,                  Wenxiao%Tu%NULL%1,                  Chuding%Chen%NULL%1,                  Lianmei%Jin%NULL%1,                  Rui%Yang%NULL%1,                  Qi%Wang%NULL%1,                  Suhua%Zhou%NULL%1,                  Rui%Wang%NULL%1,                  Hui%Liu%NULL%1,                  Yinbo%Luo%NULL%1,                  Yuan%Liu%NULL%1,                  Ge%Shao%NULL%1,                  Huan%Li%NULL%3,                  Zhongfa%Tao%NULL%1,                  Yang%Yang%NULL%3,                  Zhiqiang%Deng%NULL%1,                  Boxi%Liu%NULL%1,                  Zhitao%Ma%NULL%1,                  Yanping%Zhang%NULL%1,                  Guoqing%Shi%NULL%1,                  Tommy T.Y.%Lam%NULL%1,                  Joseph T.%Wu%NULL%1,                  George F.%Gao%NULL%1,                  Benjamin J.%Cowling%NULL%1,                  Bo%Yang%NULL%4,                  Bo%Yang%NULL%0,                  Gabriel M.%Leung%NULL%1,                  Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,                  Min%Zhou%NULL%6,                  Xuan%Dong%NULL%6,                  Jieming%Qu%NULL%10,                  Fengyun%Gong%NULL%6,                  Yang%Han%NULL%5,                  Yang%Qiu%NULL%5,                  Jingli%Wang%NULL%6,                  Ying%Liu%NULL%15,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%11,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%5,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,                  Nannan%Shi%NULL%3,                  Nannan%Shi%NULL%0,                  Fei%Shan%NULL%2,                  Zhiyong%Zhang%NULL%2,                  Jie%Shen%NULL%1,                  Hongzhou%Lu%NULL%6,                  Yun%Ling%NULL%7,                  Yebin%Jiang%NULL%2,                  Yebin%Jiang%NULL%0,                  Yuxin%Shi%shiyuxin@shphc.org.cn%5,                  Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%5,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%5,              Subert-Salas%Lizandra%coreGivesNoEmail%5]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,                  Yuan-Yuan%Fang%NULL%4,                  Yan%Deng%NULL%4,                  Wei%Liu%NULL%6,                  Mei-Fang%Wang%NULL%2,                  Jing-Ping%Ma%NULL%2,                  Wei%Xiao%NULL%2,                  Ying-Nan%Wang%NULL%2,                  Min-Hua%Zhong%NULL%2,                  Cheng-Hong%Li%NULL%2,                  Guang-Cai%Li%NULL%2,                  Hui-Guo%Liu%NULL%6,                  Xiu-Yuan%Hao%NULL%6,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%11]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,          Minggui%Lin%xref no email%2,          Lai%Wei%xref no email%2,          Lixin%Xie%xref no email%2,          Guangfa%Zhu%xref no email%2,          Charles S.%Dela Cruz%xref no email%2,          Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,        Yang%Yang%null%1,        Cong%Zhang%null%1,        Fengming%Huang%null%1,        Fuxiang%Wang%null%1,        Jing%Yuan%null%2,        Zhaoqin%Wang%null%1,        Jinxiu%Li%null%1,        Jianming%Li%null%1,        Cheng%Feng%null%1,        Zheng%Zhang%null%2,        Lifei%Wang%null%1,        Ling%Peng%null%1,        Li%Chen%null%1,        Yuhao%Qin%null%1,        Dandan%Zhao%null%1,        Shuguang%Tan%null%1,        Lu%Yin%null%1,        Jun%Xu%null%1,        Congzhao%Zhou%null%1,        Chengyu%Jiang%null%1,        Lei%Liu%null%2]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,                  Ye-Ming%Wang%NULL%1,                  Zhi-Qiang%Wu%NULL%1,                  Zi-Chun%Xiang%NULL%1,                  Li%Guo%NULL%0,                  Teng%Xu%NULL%1,                  Yong-Zhong%Jiang%NULL%1,                  Yan%Xiong%NULL%4,                  Yong-Jun%Li%NULL%1,                  Xing-Wang%Li%NULL%1,                  Hui%Li%NULL%0,                  Guo-Hui%Fan%NULL%1,                  Xiao-Ying%Gu%NULL%1,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Jiu-Yang%Xu%NULL%1,                  Fan%Yang%NULL%3,                  Xin-Ming%Wang%NULL%1,                  Chao%Wu%NULL%3,                  Lan%Chen%NULL%1,                  Yi-Wei%Liu%NULL%1,                  Bo%Liu%NULL%2,                  Jian%Yang%NULL%1,                  Xiao-Rui%Wang%NULL%1,                  Jie%Dong%NULL%1,                  Li%Li%NULL%5,                  Chao-Lin%Huang%NULL%1,                  Jian-Ping%Zhao%NULL%1,                  Yi%Hu%NULL%0,                  Zhen-Shun%Cheng%NULL%1,                  Lin-Lin%Liu%NULL%1,                  Zhao-Hui%Qian%NULL%1,                  Chuan%Qin%NULL%1,                  Qi%Jin%NULL%0,                  Bin%Cao%NULL%0,                  Jian-Wei%Wang%NULL%1,                  Xiu-Yuan%Hao%NULL%0,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,                  Dengju%Li%NULL%2,                  Xiong%Wang%NULL%4,                  Ziyong%Sun%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,              Cao%Yi-yuan%coreGivesNoEmail%4,              Dong%Xiang%coreGivesNoEmail%4,              Gao%Ya-dong%coreGivesNoEmail%4,              Yan%You-qin%coreGivesNoEmail%4,              Yang%Yi-bin%coreGivesNoEmail%4,              Yuan%Ya-dong%coreGivesNoEmail%4,              Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,                  Xiao-Xin%Wu%NULL%3,                  Xian-Gao%Jiang%NULL%3,                  Kai-Jin%Xu%NULL%3,                  Ling-Jun%Ying%NULL%3,                  Chun-Lian%Ma%NULL%3,                  Shi-Bo%Li%NULL%3,                  Hua-Ying%Wang%NULL%3,                  Sheng%Zhang%NULL%3,                  Hai-Nv%Gao%NULL%3,                  Ji-Fang%Sheng%NULL%3,                  Hong-Liu%Cai%NULL%3,                  Yun-Qing%Qiu%NULL%3,                  Lan-Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,                  Xiaojia%Wu%NULL%1,                  Wenbing%Zeng%NULL%1,                  Dajing%Guo%NULL%4,                  Zheng%Fang%NULL%4,                  Linli%Chen%NULL%4,                  Huizhe%Huang%NULL%1,                  Chuanming%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,                  Valerie%Wong%NULL%1,                  Vivian Wan In%Wei%NULL%1,                  Samuel Yeung Shan%Wong%NULL%1,                  Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,                  Xiaoyu%Han%NULL%1,                  Nanchuan%Jiang%NULL%1,                  Yukun%Cao%NULL%1,                  Osamah%Alwalid%NULL%1,                  Jin%Gu%NULL%1,                  Yanqing%Fan%1024932023@qq.com%2,                  Chuansheng%Zheng%hqzcsxh@sina.com%3]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,                  Jing-Hui%Dong%NULL%2,                  Wei-Min%An%NULL%2,                  Xiao-Yan%Lv%15001008285@139.com%2,                  Xiao-Ping%Yin%yinxiaoping78@sina.com%2,                  Jian-Zeng%Zhang%NULL%2,                  Li%Dong%NULL%2,                  Xi%Ma%NULL%2,                  Hong-Jie%Zhang%NULL%2,                  Bu-Lang%Gao%browngao@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,                  Zhenlu%Yang%NULL%2,                  Zhenlu%Yang%NULL%0,                  Hongyan%Hou%NULL%2,                  Hongyan%Hou%NULL%0,                  Chenao%Zhan%NULL%1,                  Chong%Chen%NULL%1,                  Wenzhi%Lv%NULL%2,                  Wenzhi%Lv%NULL%0,                  Qian%Tao%NULL%2,                  Qian%Tao%NULL%0,                  Ziyong%Sun%NULL%0,                  Ziyong%Sun%NULL%0,                  Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,                  Qiqi%Cao%NULL%3,                  Le%Qin%NULL%3,                  Xiaoyang%Wang%NULL%3,                  Zenghui%Cheng%NULL%3,                  Ashan%Pan%NULL%3,                  Jianyi%Dai%NULL%3,                  Qingfeng%Sun%NULL%3,                  Fengquan%Zhao%NULL%3,                  Jieming%Qu%NULL%0,                  Fuhua%Yan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,                  Nan%Hu%NULL%2,                  Jing%Lou%NULL%2,                  Kun%Chen%NULL%2,                  Xuqin%Kang%NULL%2,                  Zhenjun%Xiang%NULL%2,                  Hui%Chen%NULL%4,                  Dali%Wang%NULL%2,                  Ning%Liu%NULL%2,                  Dong%Liu%NULL%2,                  Gang%Chen%NULL%2,                  Yongliang%Zhang%NULL%2,                  Dou%Li%NULL%2,                  Jianren%Li%NULL%2,                  Huixin%Lian%NULL%2,                  Shengmei%Niu%NULL%2,                  Luxi%Zhang%NULL%2,                  Jinjun%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,                  Mengqi%Tu%NULL%3,                  Shipei%Wang%NULL%3,                  Sichao%Chen%NULL%3,                  Wei%Zhou%NULL%5,                  Danyang%Chen%NULL%3,                  Lin%Zhou%NULL%3,                  Min%Wang%NULL%3,                  Yan%Zhao%NULL%5,                  Wen%Zeng%NULL%3,                  Qi%Huang%NULL%3,                  Hai'bo%Xu%NULL%3,                  Zeming%Liu%NULL%3,                  Liang%Guo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,                  Chengcheng%Yu%NULL%2,                  Jing%Qu%NULL%2,                  Lieguang%Zhang%NULL%2,                  Songfeng%Jiang%NULL%2,                  Deyang%Huang%NULL%2,                  Bihua%Chen%NULL%2,                  Zhiping%Zhang%NULL%2,                  Wanhua%Guan%NULL%2,                  Zhoukun%Ling%NULL%2,                  Rui%Jiang%NULL%2,                  Tianli%Hu%NULL%2,                  Yan%Ding%NULL%2,                  Lin%Lin%NULL%2,                  Qingxin%Gan%NULL%2,                  Liangping%Luo%tluolp@jnu.edu.cn%2,                  Xiaoping%Tang%xtang@21cn.com%2,                  Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,                  Zhao-Wu%Tao%NULL%2,                  Lei%Wang%NULL%3,                  Ming-Li%Yuan%NULL%4,                  Kui%Liu%NULL%6,                  Ling%Zhou%NULL%4,                  Shuang%Wei%NULL%4,                  Yan%Deng%NULL%0,                  Jing%Liu%NULL%4,                  Hui-Guo%Liu%NULL%0,                  Ming%Yang%NULL%3,                  Yi%Hu%NULL%0,                  Pei-Fang%Wei%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,                  Jiong%Wu%NULL%3,                  Faqi%Wu%NULL%3,                  Dajing%Guo%NULL%0,                  Linli%Chen%NULL%0,                  Zheng%Fang%NULL%0,                  Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,                  Jun%Liu%NULL%3,                  Xinguo%Zhao%NULL%1,                  Chengyuan%Liu%NULL%1,                  Wei%Wang%NULL%6,                  Dawei%Wang%NULL%1,                  Wei%Xu%NULL%2,                  Chunyu%Zhang%NULL%1,                  Jiong%Yu%NULL%1,                  Bin%Jiang%NULL%1,                  Hongcui%Cao%hccao@zju.edu.cn%1,                  Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,                  Xiaorong%Hu%NULL%2,                  Wenlin%Cheng%NULL%7,                  Lei%Yu%NULL%7,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%7,                  Qiang%Liu%liuqiang@irm-cams.ac.cn%9,                  Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%6,                  Kun%Yang%NULL%10,                  Kun%Yang%NULL%0,                  Wenxia%Wang%NULL%10,                  Wenxia%Wang%NULL%0,                  Lingyu%Jiang%NULL%10,                  Lingyu%Jiang%NULL%0,                  Jianxin%Song%songsingsjx@sina.com%10,                  Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                 Kun%Yang%NULL%3,                 Kun%Yang%NULL%0,                 Wenxia%Wang%NULL%2,                 Wenxia%Wang%NULL%0,                 Lingyu%Jiang%NULL%2,                 Lingyu%Jiang%NULL%0,                 Jianxin%Song%songsingsjx@sina.com%2,                 Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,                  Meiwen%Tang%NULL%1,                  Xiaobin%Zheng%NULL%1,                  Ye%Liu%ly77219@163.com%1,                  Xiaofeng%Li%zdwylxf@163.com%1,                  Hong%Shan%shanhong@mail.sysu.edu.cn%13]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%2,                  Dong%Sun%NULL%1,                  Yao%Liu%NULL%1,                  Yanqing%Fan%NULL%0,                  Lingyun%Zhao%NULL%1,                  Xiaoming%Li%NULL%1,                  Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0,                 Dong%Sun%NULL%1,                 Yao%Liu%NULL%1,                 Yanqing%Fan%NULL%1,                 Lingyun%Zhao%NULL%1,                 Xiaoming%Li%NULL%2,                 Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,   Sean Wei Xiang%Ong%xref no email%1,   Shirin%Kalimuddin%xref no email%1,   Jenny G.%Low%xref no email%1,   Seow Yen%Tan%xref no email%1,   Jiashen%Loh%xref no email%1,   Oon-Tek%Ng%xref no email%1,   Kalisvar%Marimuthu%xref no email%1,   Li Wei%Ang%xref no email%1,   Tze Minn%Mak%xref no email%1,   Sok Kiang%Lau%xref no email%1,   Danielle E.%Anderson%xref no email%1,   Kian Sing%Chan%xref no email%1,   Thean Yen%Tan%xref no email%1,   Tong Yong%Ng%xref no email%1,   Lin%Cui%xref no email%1,   Zubaidah%Said%xref no email%1,   Lalitha%Kurupatham%xref no email%1,   Mark I-Cheng%Chen%xref no email%1,   Monica%Chan%xref no email%1,   Shawn%Vasoo%xref no email%1,   Lin-Fa%Wang%xref no email%1,   Boon Huan%Tan%xref no email%1,   Raymond Tzer Pin%Lin%xref no email%1,   Vernon Jian Ming%Lee%xref no email%1,   Yee-Sin%Leo%xref no email%1,   David Chien%Lye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,                 SaiBin%Wang%NULL%2,                 SaiBin%Wang%NULL%0,                 YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1,   Liming%Xia%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%2,                  Yao%Tian%NULL%2,                  Yao%Tian%NULL%0,                  Jing%Zhou%NULL%2,                  Xuan%Ma%NULL%1,                  Min%Yang%NULL%1,                  ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0,                 Yao%Tian%NULL%2,                 Yao%Tian%NULL%0,                 Jing%Zhou%NULL%2,                 Xuan%Ma%NULL%1,                 Min%Yang%NULL%1,                 ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuchang%Zhou%xref no email%1,   Yujin%Wang%xref no email%1,   Tingting%Zhu%xref no email%1,   Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Wang%NULL%1,                  Yong-hua%Gao%NULL%1,                  Li-Li%lou%NULL%1,                  Guo-Jun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%1,                  Huaqiao%Li%NULL%1,                  Songtao%Huang%NULL%1,                  Wei%You%NULL%1,                  Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%19,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%9,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%10,                  Jie%Xiang%NULL%16,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%10,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%9,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%10,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%9,                  Yi%Zhang%NULL%10,                  Hua%Chen%NULL%10,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%16,                 Ronghui%Du%NULL%7,                 Guohui%Fan%NULL%10,                 Ying%Liu%NULL%9,                 Zhibo%Liu%NULL%7,                 Jie%Xiang%NULL%10,                 Yeming%Wang%NULL%10,                 Bin%Song%NULL%7,                 Xiaoying%Gu%NULL%10,                 Lulu%Guan%NULL%7,                 Yuan%Wei%NULL%11,                 Hui%Li%NULL%14,                 Xudong%Wu%NULL%7,                 Jiuyang%Xu%NULL%10,                 Shengjin%Tu%NULL%7,                 Yi%Zhang%NULL%8,                 Hua%Chen%NULL%7,                 Bin%Cao%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,                  Tangkai%Qi%NULL%2,                  Li%Liu%NULL%2,                  Yun%Ling%NULL%0,                  Zhiping%Qian%NULL%2,                  Tao%Li%NULL%3,                  Feng%Li%NULL%2,                  Qingnian%Xu%NULL%2,                  Yuyi%Zhang%NULL%2,                  Shuibao%Xu%NULL%2,                  Zhigang%Song%NULL%2,                  Yigang%Zeng%NULL%2,                  Yinzhong%Shen%NULL%2,                  Yuxin%Shi%NULL%0,                  Tongyu%Zhu%NULL%3,                  Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,                  Feifei%Yao%NULL%1,                  Lijie%Wang%NULL%1,                  Ling%Zheng%NULL%1,                  Yongjun%Gao%NULL%1,                  Jun%Ye%NULL%1,                  Feng%Guo%NULL%1,                  Hui%Zhao%NULL%1,                  Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%2,                  Bin%Quan%NULL%1,                  Xiaoning%Li%NULL%2,                  Guangjian%Gao%NULL%1,                  Wenqiang%Zheng%NULL%1,                  Jun%Zhang%NULL%1,                  Zhiyun%Zhang%NULL%1,                  Chunsheng%Liu%NULL%1,                  Li%Li%NULL%0,                  Chenglin%Wang%NULL%1,                  Guihua%Zhang%NULL%1,                  Jiajia%Li%NULL%1,                  Yunhai%Dai%NULL%1,                  Jianghua%Yang%yjhpath@163.com%1,                  Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%0,                 Bin%Quan%NULL%1,                 Xiaoning%Li%NULL%2,                 Guangjian%Gao%NULL%1,                 Wenqiang%Zheng%NULL%1,                 Jun%Zhang%NULL%5,                 Zhiyun%Zhang%NULL%1,                 Chunsheng%Liu%NULL%1,                 Li%Li%NULL%4,                 Chenglin%Wang%NULL%1,                 Guihua%Zhang%NULL%1,                 Jiajia%Li%NULL%1,                 Yunhai%Dai%NULL%1,                 Jianghua%Yang%yjhpath@163.com%1,                 Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,   Xiaoyan%Chen%xref no email%1,   Yanping%Cai%xref no email%1,   Jia\u2019an%Xia%xref no email%1,   Xing%Zhou%xref no email%1,   Sha%Xu%xref no email%1,   Hanping%Huang%xref no email%1,   Li%Zhang%xref no email%1,   Xia%Zhou%xref no email%1,   Chunling%Du%xref no email%1,   Yuye%Zhang%xref no email%1,   Juan%Song%xref no email%1,   Sijiao%Wang%xref no email%1,   Yencheng%Chao%xref no email%1,   Zeyong%Yang%xref no email%1,   Jie%Xu%xref no email%1,   Xin%Zhou%xref no email%1,   Dechang%Chen%xref no email%1,   Weining%Xiong%xref no email%1,   Lei%Xu%xref no email%1,   Feng%Zhou%xref no email%1,   Jinjun%Jiang%xref no email%1,   Chunxue%Bai%xref no email%1,   Junhua%Zheng%xref no email%1,   Yuanlin%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,                 Kai%Xie%NULL%2,                 Kai%Xie%NULL%0,                 Hui%Lu%NULL%1,                 Lei%Xu%bayinhexl@126.com%1,                 Shusheng%Zhou%zhouss108@163.com%1,                 Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,   Yong%Lu%xref no email%1,   Qiqi%Cao%xref no email%1,   Le%Qin%xref no email%1,   Zilai%Pan%xref no email%1,   Fuhua%Yan%xref no email%1,   Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,                  Bohan%Yang%NULL%3,                  Qianwen%Li%NULL%3,                  Lu%Wen%NULL%3,                  Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%2,                  Yingxia%Liu%NULL%1,                  Lei%Liu%NULL%15,                  Xianfeng%Wang%NULL%1,                  Nijuan%Luo%NULL%1,                  Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%0,                 Yingxia%Liu%NULL%2,                 Lei%Liu%NULL%9,                 Xianfeng%Wang%NULL%1,                 Nijuan%Luo%NULL%1,                 Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Han%xref no email%1,   Lu%Huang%xref no email%1,   Hong%Jiang%xref no email%1,   Jin%Dong%xref no email%1,   Hongfen%Peng%xref no email%1,   Dongyou%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%4,                  Tuantuan%Li%NULL%2,                  Mingfeng%Han%NULL%2,                  Xiuyong%Li%NULL%2,                  Dong%Wu%NULL%2,                  Yuanhong%Xu%NULL%4,                  Yulin%Zhu%NULL%2,                  Yan%Liu%NULL%3,                  Xiaowu%Wang%wangxiaowu19880218@126.com%2,                  Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                 Tuantuan%Li%NULL%2,                 Mingfeng%Han%NULL%6,                 Xiuyong%Li%NULL%2,                 Dong%Wu%NULL%2,                 Yuanhong%Xu%NULL%2,                 Yulin%Zhu%NULL%2,                 Yan%Liu%NULL%2,                 Xiaowu%Wang%wangxiaowu19880218@126.com%2,                 Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
   </si>
 </sst>
 </file>
@@ -4253,7 +4577,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>1022</v>
+        <v>1143</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -4282,7 +4606,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>1023</v>
+        <v>1144</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -4311,7 +4635,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>1024</v>
+        <v>1145</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -4340,7 +4664,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>1025</v>
+        <v>1146</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -4369,7 +4693,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>1026</v>
+        <v>1147</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -4398,7 +4722,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>1027</v>
+        <v>1148</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -4427,7 +4751,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>1028</v>
+        <v>1149</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -4456,7 +4780,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>1029</v>
+        <v>1150</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -4485,7 +4809,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>1030</v>
+        <v>1151</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -4514,7 +4838,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>1031</v>
+        <v>1152</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -4543,7 +4867,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>1032</v>
+        <v>1153</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -4572,7 +4896,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>1033</v>
+        <v>1154</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -4601,7 +4925,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>1034</v>
+        <v>1155</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -4630,7 +4954,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>1035</v>
+        <v>1156</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -4659,7 +4983,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>1036</v>
+        <v>1157</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4688,7 +5012,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>1037</v>
+        <v>1158</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4717,7 +5041,7 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>1038</v>
+        <v>1159</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -4746,7 +5070,7 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>1039</v>
+        <v>1160</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -4775,7 +5099,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>1040</v>
+        <v>1161</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -4804,7 +5128,7 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>1041</v>
+        <v>1162</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -4833,7 +5157,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>1042</v>
+        <v>1163</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -4862,7 +5186,7 @@
         <v>877</v>
       </c>
       <c r="E23" t="s">
-        <v>1043</v>
+        <v>1164</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -4891,7 +5215,7 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>1044</v>
+        <v>1165</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -4920,7 +5244,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>1045</v>
+        <v>1166</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -4949,7 +5273,7 @@
         <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>1046</v>
+        <v>1167</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -4978,7 +5302,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>1047</v>
+        <v>1168</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -5007,7 +5331,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>1048</v>
+        <v>1169</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -5036,7 +5360,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>1049</v>
+        <v>1170</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -5065,7 +5389,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>1050</v>
+        <v>1171</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -5094,7 +5418,7 @@
         <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>1051</v>
+        <v>1172</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5123,7 +5447,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1052</v>
+        <v>1173</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -5152,7 +5476,7 @@
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>1054</v>
+        <v>1174</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -5181,7 +5505,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>1056</v>
+        <v>1175</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -5210,7 +5534,7 @@
         <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>1058</v>
+        <v>1176</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
@@ -5239,7 +5563,7 @@
         <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>1059</v>
+        <v>1177</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -5268,7 +5592,7 @@
         <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>1060</v>
+        <v>1178</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -5297,7 +5621,7 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>1062</v>
+        <v>1179</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -5326,7 +5650,7 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>1063</v>
+        <v>1180</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -5355,7 +5679,7 @@
         <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>1064</v>
+        <v>1181</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -5384,7 +5708,7 @@
         <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>1065</v>
+        <v>1182</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5413,7 +5737,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1066</v>
+        <v>1183</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -5471,7 +5795,7 @@
         <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>1071</v>
+        <v>1184</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -5500,7 +5824,7 @@
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>1072</v>
+        <v>1185</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -5529,7 +5853,7 @@
         <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>1073</v>
+        <v>1186</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -5558,7 +5882,7 @@
         <v>222</v>
       </c>
       <c r="E47" t="s">
-        <v>1074</v>
+        <v>1187</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -5587,7 +5911,7 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>1076</v>
+        <v>1188</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -5616,7 +5940,7 @@
         <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>1077</v>
+        <v>1189</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -5645,7 +5969,7 @@
         <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>1079</v>
+        <v>1190</v>
       </c>
       <c r="F50" t="s">
         <v>48</v>
@@ -5674,7 +5998,7 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>1081</v>
+        <v>1191</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -5703,7 +6027,7 @@
         <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>1082</v>
+        <v>1192</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -5732,7 +6056,7 @@
         <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>1083</v>
+        <v>1193</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -5761,7 +6085,7 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>1085</v>
+        <v>1194</v>
       </c>
       <c r="F54" t="s">
         <v>52</v>
@@ -5790,7 +6114,7 @@
         <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>1087</v>
+        <v>1195</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -5819,7 +6143,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>1088</v>
+        <v>1196</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7107" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7499" uniqueCount="1239">
   <si>
     <t>Doi</t>
   </si>
@@ -4237,6 +4237,221 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%0,                 Tuantuan%Li%NULL%2,                 Mingfeng%Han%NULL%6,                 Xiuyong%Li%NULL%2,                 Dong%Wu%NULL%2,                 Yuanhong%Xu%NULL%2,                 Yulin%Zhu%NULL%2,                 Yan%Liu%NULL%2,                 Xiaowu%Wang%wangxiaowu19880218@126.com%2,                 Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%2, Xingwang%Li%NULL%1, Lili%Ren%NULL%0, Jianping%Zhao%NULL%1, Yi%Hu%NULL%3, Li%Zhang%NULL%0, Guohui%Fan%NULL%2, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%2, Zhenshun%Cheng%NULL%2, Ting%Yu%NULL%4, Jiaan%Xia%NULL%1, Yuan%Wei%NULL%3, Wenjuan%Wu%NULL%1, Xuelei%Xie%NULL%1, Wen%Yin%NULL%1, Hui%Li%NULL%3, Min%Liu%NULL%0, Yan%Xiao%NULL%2, Hong%Gao%NULL%2, Li%Guo%NULL%2, Jungang%Xie%NULL%1, Guangfa%Wang%NULL%1, Rongmeng%Jiang%NULL%1, Zhancheng%Gao%NULL%1, Qi%Jin%NULL%2, Jianwei%Wang%wangjw28@163.com%1, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%1, Xuan%Dong%NULL%1, Jieming%Qu%NULL%2, Fengyun%Gong%NULL%1, Yang%Han%NULL%1, Yang%Qiu%NULL%1, Jingli%Wang%NULL%1, Ying%Liu%NULL%2, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%2, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%1, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1, Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0, Minggui%Lin%xref no email%1, Lai%Wei%xref no email%1, Lixin%Xie%xref no email%1, Guangfa%Zhu%xref no email%1, Charles S.%Dela Cruz%xref no email%1, Lokesh%Sharma%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%0,  Yang%Yang%null%1,  Cong%Zhang%null%1,  Fengming%Huang%null%1,  Fuxiang%Wang%null%1,  Jing%Yuan%null%1,  Zhaoqin%Wang%null%1,  Jinxiu%Li%null%1,  Jianming%Li%null%1,  Cheng%Feng%null%1,  Zheng%Zhang%null%1,  Lifei%Wang%null%1,  Ling%Peng%null%1,  Li%Chen%null%1,  Yuhao%Qin%null%1,  Dandan%Zhao%null%1,  Shuguang%Tan%null%1,  Lu%Yin%null%1,  Jun%Xu%null%1,  Congzhao%Zhou%null%1,  Chengyu%Jiang%null%1,  Lei%Liu%null%1]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%1, Dong%Xiang%coreGivesNoEmail%1, Gao%Ya-dong%coreGivesNoEmail%1, Yan%You-qin%coreGivesNoEmail%1, Yang%Yi-bin%coreGivesNoEmail%1, Yuan%Ya-dong%coreGivesNoEmail%1, Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%0, Xiaojia%Wu%NULL%1, Wenbing%Zeng%NULL%1, Dajing%Guo%NULL%2, Zheng%Fang%NULL%2, Linli%Chen%NULL%2, Huizhe%Huang%NULL%1, Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>Clinical course and outcomes of critically ill patients with SARS-CoV-2 pneumonia in Wuhan, China: a single-centered, retrospective, observational study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+An ongoing outbreak of pneumonia associated with the severe acute respiratory coronavirus 2 (SARS-CoV-2) started in December, 2019, in Wuhan, China.
+ Information about critically ill patients with SARS-CoV-2 infection is scarce.
+ We aimed to describe the clinical course and outcomes of critically ill patients with SARS-CoV-2 pneumonia.
+Methods
+In this single-centered, retrospective, observational study, we enrolled 52 critically ill adult patients with SARS-CoV-2 pneumonia who were admitted to the intensive care unit (ICU) of Wuhan Jin Yin-tan hospital (Wuhan, China) between late December, 2019, and Jan 26, 2020. Demographic data, symptoms, laboratory values, comorbidities, treatments, and clinical outcomes were all collected.
+ Data were compared between survivors and non-survivors.
+ The primary outcome was 28-day mortality, as of Feb 9, 2020. Secondary outcomes included incidence of SARS-CoV-2-related acute respiratory distress syndrome (ARDS) and the proportion of patients requiring mechanical ventilation.
+Findings
+Of 710 patients with SARS-CoV-2 pneumonia, 52 critically ill adult patients were included.
+ The mean age of the 52 patients was 59·7 (SD 13·3) years, 35 (67%) were men, 21 (40%) had chronic illness, 51 (98%) had fever.
+ 32 (61·5%) patients had died at 28 days, and the median duration from admission to the intensive care unit (ICU) to death was 7 (IQR 3–11) days for non-survivors.
+ Compared with survivors, non-survivors were older (64·6 years [11·2] vs 51·9 years [12·9]), more likely to develop ARDS (26 [81%] patients vs 9 [45%] patients), and more likely to receive mechanical ventilation (30 [94%] patients vs 7 [35%] patients), either invasively or non-invasively.
+ Most patients had organ function damage, including 35 (67%) with ARDS, 15 (29%) with acute kidney injury, 12 (23%) with cardiac injury, 15 (29%) with liver dysfunction, and one (2%) with pneumothorax.
+ 37 (71%) patients required mechanical ventilation.
+ Hospital-acquired infection occurred in seven (13·5%) patients.
+Interpretation
+The mortality of critically ill patients with SARS-CoV-2 pneumonia is considerable.
+ The survival time of the non-survivors is likely to be within 1–2 weeks after ICU admission.
+ Older patients (&amp;gt;65 years) with comorbidities and ARDS are at increased risk of death.
+ The severity of SARS-CoV-2 pneumonia poses great strain on critical care resources in hospitals, especially if they are not adequately staffed or resourced.
+Funding
+None.
+</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%1, Jia'an%Xia%NULL%0, Hong%Liu%NULL%1, Yongran%Wu%NULL%1, Lu%Zhang%NULL%1, Zhui%Yu%NULL%1, Minghao%Fang%NULL%1, Ting%Yu%NULL%0, Yaxin%Wang%NULL%1, Shangwen%Pan%NULL%1, Xiaojing%Zou%NULL%1, Shiying%Yuan%NULL%1, You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0, Zhenlu%Yang%NULL%2, Zhenlu%Yang%NULL%0, Hongyan%Hou%NULL%2, Hongyan%Hou%NULL%0, Chenao%Zhan%NULL%1, Chong%Chen%NULL%1, Wenzhi%Lv%NULL%2, Wenzhi%Lv%NULL%0, Qian%Tao%NULL%2, Qian%Tao%NULL%0, Ziyong%Sun%NULL%0, Ziyong%Sun%NULL%0, Liming%Xia%xialiming2017@outlook.com%3]</t>
+  </si>
+  <si>
+    <t>_Core_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0, Qiqi%Cao%NULL%2, Le%Qin%NULL%2, Xiaoyang%Wang%NULL%1, Zenghui%Cheng%NULL%0, Ashan%Pan%NULL%1, Jianyi%Dai%NULL%1, Qingfeng%Sun%NULL%1, Fengquan%Zhao%NULL%1, Jieming%Qu%NULL%0, Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Zhao-Wu%Tao%NULL%1, Lei%Wang%NULL%0, Ming-Li%Yuan%NULL%1, Kui%Liu%NULL%0, Ling%Zhou%NULL%1, Shuang%Wei%NULL%1, Yan%Deng%NULL%0, Jing%Liu%NULL%0, Hui-Guo%Liu%NULL%0, Ming%Yang%NULL%1, Yi%Hu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0, Jun%Liu%NULL%2, Xinguo%Zhao%NULL%1, Chengyuan%Liu%NULL%1, Wei%Wang%NULL%1, Dawei%Wang%NULL%0, Wei%Xu%NULL%1, Chunyu%Zhang%NULL%1, Jiong%Yu%NULL%1, Bin%Jiang%NULL%1, Hongcui%Cao%hccao@zju.edu.cn%1, Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Relation Between Chest CT Findings and Clinical Conditions of Coronavirus Disease (COVID-19) Pneumonia: A Multicenter Study"</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1, Zheng%Zhong%xref no email%1, Xingzhi%Xie%xref no email%0, Qizhi%Yu%xref no email%1, Jun%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%0, Meiwen%Tang%NULL%1, Xiaobin%Zheng%NULL%1, Ye%Liu%ly77219@163.com%1, Xiaofeng%Li%zdwylxf@163.com%1, Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%0, Dong%Sun%NULL%1, Yao%Liu%NULL%1, Yanqing%Fan%NULL%0, Lingyun%Zhao%NULL%1, Xiaoming%Li%NULL%1, Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>The emergence and spread of 2019 novel coronavirus–infected pneumonia (COVID‐19) from Wuhan, China, it has spread globally.
+ We extracted the data on 14 patients with laboratory‐confirmed COVID‐19 from Jinhua Municipal Central hospital through 27 January 2020. We found that compared to pharyngeal swab specimens, nucleic acid detection of COVID‐19 in fecal specimens was equally accurate.
+ And we found that patients with a positive stool test did not experience gastrointestinal symptoms and had nothing to do with the severity of the lung infection.
+ These results may help to understand the clinical diagnosis and the changes in clinical parameters of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%0, Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December, 2019, a new coronavirus named 2019-nCoV causing severe acute respiratory disease has emerged in the region of Wuhan, China [1, 2].
+ The National Health Commission of People's Republic of China named pneumonia infected with 2019-nCoV as Novel Coronavirus Pneumonia (NCP).
+Evidence have pointing to the person-to-person transmission [3–5].
+ As of February 8, 2020, China has reported 34 673 confirmed and more than 27 657 suspected cases of NCP across 34 Chinese provinces or municipalities, with 106 fatalities.
+ Most of the studies focused on the epidemic situation in Wuhan, but few on provinces outside Wuhan.
+ Shaanxi is located in the northwest of Hubei Province and adjacent to it, with a population of 38.64 million.
+ Since the first case of NCP was confirmed in Shannxi by on January 23, 2020, 195 cases have been confirmed, but there is no relevant epidemiological study.
+ In order to better understand the epidemic law of new coronavirus in Shaanxi Province, and provide the basis for the future development of control measures.
+This article aims to report the epidemiological outcomes of 195 confirmed case infected with 2019-nCoV in Shaanxi, and to compare the clinical features between patients with or without a history of exposure in Wuhan.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%0, Yao%Tian%NULL%2, Yao%Tian%NULL%0, Jing%Zhou%NULL%0, Xuan%Ma%NULL%1, Min%Yang%NULL%1, ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuchang%Zhou%xref no email%0, Yujin%Wang%xref no email%1, Tingting%Zhu%xref no email%1, Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the WHO European Region, COVID-19 surveillance was implemented 27 January 2020. We detail the first European cases.
+ As at 21 February, nine European countries reported 47 cases.
+ Among 38 cases studied, 21 were linked to two clusters in Germany and France, 14 were infected in China.
+ Median case age was 42 years; 25 were male.
+ Late detection of the clusters’ index cases delayed isolation of further local cases.
+ As at 5 March, there were 4,250 cases.
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since an outbreak of 2019 novel coronavirus (COVID-19) in Wuhan and related regions in Hubei province, an increasing number of exported cases have been confirmed in other provinces in China and in multiple countries around the world with substantial morbidity and mortality [1–4].
+ The WHO has declared a public health emergency of international concern considering rapid increases in numbers of confirmed cases in China and additional countries.
+ As of February 22, 2020, a total of 12 938 patients had been confirmed outside of Wuhan and related regions in Hubei province of China [1].
+ However, there is limited information about COVID-19 outside of Wuhan [5], and no study has reported the time to RT-PCR conversion and radiological changes after treatment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The city of Wuhan, in Hubei province, China is the focus of global attention due to the coronavirus disease 2019 (COVID-19) outbreak [1].
+ Sichuan, as a province near Hubei, also has been involved.
+ As of February 12, 2020, 59 741 confirmed cases of COVID-19 have been reported in China, of which 451 cases have been identified in Sichuan province.
+ This disease is caused by infection of a new coronavirus named severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) by the World Health Organization (WHO).
+ According to the latest research, the novel coronavirus is 96% identical at the whole-genome level to a bat coronavirus, leading to speculation that this new coronavirus may originate from bats [2, 3].
+ Current epidemiological data indicate that person-to-person transmission of COVID-19 is occurring [4].
+</t>
+  </si>
+  <si>
+    <t>[Simin%Zhang%NULL%0, Huaqiao%Li%NULL%1, Songtao%Huang%NULL%1, Wei%You%NULL%1, Huaiqiang%Sun%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tracy%Tsang%xref no email%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Most of the COVID-19 cases are mild.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID‐19) caused by the severe acute respiratory syndrome coronavirus 2 has become an important public health issue in the world.
+ More than 118 000 cases were confirmed around the world.
+ The main clinical manifestations were respiratory symptoms and occasional gastrointestinal symptoms.
+ However, there is no unified standard for the diagnosis and treatment of COVID‐19. In the retrospective analysis, we report nine cases of COVID‐19, describe the history of contact, clinical manifestations, the course of diagnosis and clinical treatment before, during and after treatment.
+</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%1, Yanping%Cai%xref no email%1, Jia\u2019an%Xia%xref no email%1, Xing%Zhou%xref no email%1, Sha%Xu%xref no email%1, Hanping%Huang%xref no email%1, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%1, Chunling%Du%xref no email%1, Yuye%Zhang%xref no email%1, Juan%Song%xref no email%1, Sijiao%Wang%xref no email%1, Yencheng%Chao%xref no email%1, Zeyong%Yang%xref no email%1, Jie%Xu%xref no email%1, Xin%Zhou%xref no email%1, Dechang%Chen%xref no email%1, Weining%Xiong%xref no email%1, Lei%Xu%xref no email%2, Feng%Zhou%xref no email%1, Jinjun%Jiang%xref no email%1, Chunxue%Bai%xref no email%1, Junhua%Zheng%xref no email%1, Yuanlin%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With an increasing number of Coronavirus Disease 2019 (COVID‐19) cases outside of Hubei, emergency departments (EDs) and fever clinics are facing challenges posed by the large number of admissions of patients suspected to have COVID‐19. Therefore, it is of crucial importance to study the initial clinical features of patients, to better differentiate between infected and uninfected patients outside Hubei.
+ A total of 116 patients suspected of having COVID‐19 who presented to two emergency departments in Anhui for the first time between 24 January 2020 and 20 February 2020 were enrolled in the study.
+ The initial clinical data of these patients, such as epidemiological features, symptoms, laboratory results, and chest computed tomography (CT) findings were collected using a standard case report form on admission.
+ Thirty‐two patients were diagnosed with COVID‐19; the remaining 84 patients were referred to as negative cases.
+ The median age of the diagnosed patients was 46 years, but only 35 years for negative cases.
+ History of exposure to Wuhan or COVID‐19 patients in the previous 2 weeks was observed in 63% of the diagnosed and 44% of negative cases.
+ Median time from illness onset to ED admission was 5 days for all patients, diagnosed patients, and negative cases, respectively.
+ Fever was observed in 27 (84%) and 57 (68%) diagnosed and negative cases, respectively.
+ Nineteen (59%) diagnosed and 24 (29%) negative cases had lymphopenia on admission in ED.
+ A chest CT scan on admission revealed the presence of pneumonia in the majority of the diagnosed patients (30 out of 32, 94%) and in 56 (67%) negative cases.
+ Bilateral involvement and ground‐glass opacity (GGO) were present in 91% and 47% of the diagnosed patients.
+ Thirty‐two patients were diagnosed with COVID‐19; the remaining 84 patients were referred to as negative cases.
+ The median age of the diagnosed patients was 46 years, but only 35 years for negative cases.
+ History of exposure to Wuhan or COVID‐19 patients in the previous 2 weeks was observed in 63% of the diagnosed and 44% of negative cases.
+ Median time from illness onset to ED admission was 5 days for all patients, diagnosed patients, and negative cases, respectively.
+ Fever was observed in 27 (84%) and 57 (68%) diagnosed and negative cases, respectively.
+ Nineteen (59%) diagnosed and 24 (29%) negative cases had lymphopenia on admission in ED.
+ A chest CT scan on admission revealed the presence of pneumonia in the majority of the diagnosed patients (30 out of 32, 94%) and in 56 (67%) negative cases.
+ Bilateral involvement and GGO were present in 91% and 47% of the diagnosed patients.
+</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%2, Kai%Xie%NULL%0, Hui%Lu%NULL%1, Lei%Xu%bayinhexl@126.com%0, Shusheng%Zhou%zhouss108@163.com%1, Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0, Yong%Lu%xref no email%1, Qiqi%Cao%xref no email%0, Le%Qin%xref no email%0, Zilai%Pan%xref no email%1, Fuhua%Yan%xref no email%0, Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An epidemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has spread unexpectedly in Wuhan, Hubei Province, China, since December 2019. There are few reports about asymptomatic contacts of infected patients identified as positive for SARS-CoV-2 through screening.
+ We studied the epidemiological and clinical outcomes in 55 asymptomatic carriers who were laboratory confirmed to be positive for SARS-CoV-2 through nucleic acid testing of pharyngeal swab samples.
+ The asymptomatic carriers seldom occurred among young people (aged 18–29 years) who had close contact with infected family members.
+ In the majority of patients, the outcome was mild or ordinary 2019 novel coronavirus disease during hospitalization.
+</t>
+  </si>
+  <si>
+    <t>[Rui%Han%xref no email%0, Lu%Huang%xref no email%1, Hong%Jiang%xref no email%1, Jin%Dong%xref no email%1, Hongfen%Peng%xref no email%1, Dongyou%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The role of clinical laboratory data in the differential diagnosis of the severe forms of COVID‐19 has not been definitely established.
+ The aim of this study was to look for the warning index in severe COVID‐19 patients.
+ We investigated 43 adult patients with COVID‐19. The patients were classified into mild group (28 patients) and severe group (15 patients).
+ A comparison of the hematological parameters between the mild and severe groups showed significant differences in interleukin‐6 (IL‐6), d‐dimer (d‐D), glucose, thrombin time, fibrinogen, and C‐reactive protein (P &amp;lt; .
+05).
+ The optimal threshold and area under the receiver operator characteristic curve (ROC) of IL‐6 were 24.3 and 0.795 µg/L, respectively, while those of d‐D were 0.28 and 0.750 µg/L, respectively.
+ The area under the ROC curve of IL‐6 combined with d‐D was 0.840. The specificity of predicting the severity of COVID‐19 during IL‐6 and d‐D tandem testing was up to 93.3%, while the sensitivity of IL‐6 and d‐D by parallel test in the severe COVID‐19 was 96.4%.
+ IL‐6 and d‐D were closely related to the occurrence of severe COVID‐19 in the adult patients, and their combined detection had the highest specificity and sensitivity for early prediction of the severity of COVID‐19 patients, which has important clinical value.
+</t>
   </si>
 </sst>
 </file>
@@ -4577,7 +4792,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>1143</v>
+        <v>1197</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -4589,7 +4804,7 @@
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4606,7 +4821,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>1144</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -4618,7 +4833,7 @@
         <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4635,7 +4850,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>1145</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -4647,7 +4862,7 @@
         <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4664,7 +4879,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>1146</v>
+        <v>1200</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -4676,7 +4891,7 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4693,7 +4908,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>1147</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -4705,7 +4920,7 @@
         <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4722,7 +4937,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>1148</v>
+        <v>1201</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -4734,7 +4949,7 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4751,7 +4966,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>1149</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -4763,7 +4978,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4780,7 +4995,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>1150</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -4789,7 +5004,7 @@
         <v>641</v>
       </c>
       <c r="H9" t="s">
-        <v>642</v>
+        <v>1203</v>
       </c>
       <c r="I9" t="s">
         <v>70</v>
@@ -4809,7 +5024,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>1151</v>
+        <v>1204</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -4838,7 +5053,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>1152</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -4850,7 +5065,7 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4867,7 +5082,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>1153</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -4879,7 +5094,7 @@
         <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4896,7 +5111,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>1154</v>
+        <v>1205</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -4908,7 +5123,7 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4925,7 +5140,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>1155</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -4937,7 +5152,7 @@
         <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4954,7 +5169,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>1156</v>
+        <v>1206</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -4966,7 +5181,7 @@
         <v>115</v>
       </c>
       <c r="I15" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -4983,7 +5198,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>1157</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4995,7 +5210,7 @@
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5012,7 +5227,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>1158</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5024,7 +5239,7 @@
         <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5035,13 +5250,13 @@
         <v>43885</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>1207</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>1208</v>
       </c>
       <c r="E18" t="s">
-        <v>1159</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -5050,10 +5265,10 @@
         <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5064,13 +5279,13 @@
         <v>43886</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>1160</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -5079,10 +5294,10 @@
         <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5093,13 +5308,13 @@
         <v>44044</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>1161</v>
+        <v>1210</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -5108,10 +5323,10 @@
         <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5122,13 +5337,13 @@
         <v>43887</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>1162</v>
+        <v>1212</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -5140,7 +5355,7 @@
         <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5151,13 +5366,13 @@
         <v>43888</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>1163</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -5166,10 +5381,10 @@
         <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5180,13 +5395,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>877</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>1164</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -5195,10 +5410,10 @@
         <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5209,13 +5424,13 @@
         <v>43889</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>1165</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -5224,10 +5439,10 @@
         <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s">
-        <v>378</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5238,13 +5453,13 @@
         <v>43889</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>1166</v>
+        <v>1214</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -5253,10 +5468,10 @@
         <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5267,13 +5482,13 @@
         <v>43890</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>1167</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -5282,10 +5497,10 @@
         <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5296,13 +5511,13 @@
         <v>43890</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>1168</v>
+        <v>1215</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -5311,10 +5526,10 @@
         <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5325,13 +5540,13 @@
         <v>43892</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>1169</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -5340,10 +5555,10 @@
         <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>378</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5360,7 +5575,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>1170</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -5372,7 +5587,7 @@
         <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>378</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5383,22 +5598,22 @@
         <v>43952</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>1216</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>1171</v>
+        <v>1217</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
       <c r="H30" t="s">
-        <v>170</v>
+        <v>1055</v>
       </c>
       <c r="I30" t="s">
         <v>70</v>
@@ -5412,13 +5627,13 @@
         <v>43893</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>1172</v>
+        <v>1218</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5430,7 +5645,7 @@
         <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5447,7 +5662,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1173</v>
+        <v>1219</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -5459,7 +5674,7 @@
         <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5476,7 +5691,7 @@
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>1174</v>
+        <v>1054</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -5502,10 +5717,10 @@
         <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>1220</v>
       </c>
       <c r="E34" t="s">
-        <v>1175</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -5517,7 +5732,7 @@
         <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5534,7 +5749,7 @@
         <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>1176</v>
+        <v>1221</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
@@ -5557,13 +5772,13 @@
         <v>43894</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>1177</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -5572,10 +5787,10 @@
         <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>378</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5589,10 +5804,10 @@
         <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>1222</v>
       </c>
       <c r="E37" t="s">
-        <v>1178</v>
+        <v>1223</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -5604,7 +5819,7 @@
         <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5621,7 +5836,7 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>1179</v>
+        <v>1224</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -5644,13 +5859,13 @@
         <v>43891</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>1225</v>
       </c>
       <c r="E39" t="s">
-        <v>1180</v>
+        <v>192</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -5659,10 +5874,10 @@
         <v>68</v>
       </c>
       <c r="H39" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5673,13 +5888,13 @@
         <v>43891</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>200</v>
+        <v>1226</v>
       </c>
       <c r="E40" t="s">
-        <v>1181</v>
+        <v>197</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -5688,10 +5903,10 @@
         <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="I40" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5702,13 +5917,13 @@
         <v>43891</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>1227</v>
       </c>
       <c r="E41" t="s">
-        <v>1182</v>
+        <v>1228</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5717,10 +5932,10 @@
         <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="I41" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5737,7 +5952,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1183</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -5749,7 +5964,7 @@
         <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5766,7 +5981,7 @@
         <v>1068</v>
       </c>
       <c r="E43" t="s">
-        <v>1069</v>
+        <v>1229</v>
       </c>
       <c r="F43" t="s">
         <v>41</v>
@@ -5789,13 +6004,13 @@
         <v>43891</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>1184</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -5804,10 +6019,10 @@
         <v>68</v>
       </c>
       <c r="H44" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I44" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5818,13 +6033,13 @@
         <v>43891</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>1230</v>
       </c>
       <c r="E45" t="s">
-        <v>1185</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -5833,10 +6048,10 @@
         <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="I45" t="s">
-        <v>355</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5847,13 +6062,13 @@
         <v>43891</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>1186</v>
+        <v>219</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -5862,10 +6077,10 @@
         <v>68</v>
       </c>
       <c r="H46" t="s">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5879,10 +6094,10 @@
         <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>1231</v>
       </c>
       <c r="E47" t="s">
-        <v>1187</v>
+        <v>295</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -5894,7 +6109,7 @@
         <v>225</v>
       </c>
       <c r="I47" t="s">
-        <v>254</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5911,7 +6126,7 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>1188</v>
+        <v>1232</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -5937,10 +6152,10 @@
         <v>226</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>1233</v>
       </c>
       <c r="E49" t="s">
-        <v>1189</v>
+        <v>1234</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -5952,7 +6167,7 @@
         <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>254</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -5969,7 +6184,7 @@
         <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>1190</v>
+        <v>1235</v>
       </c>
       <c r="F50" t="s">
         <v>48</v>
@@ -5992,13 +6207,13 @@
         <v>43891</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>1191</v>
+        <v>233</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -6010,7 +6225,7 @@
         <v>69</v>
       </c>
       <c r="I51" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -6021,13 +6236,13 @@
         <v>43891</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>1192</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -6036,10 +6251,10 @@
         <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -6053,10 +6268,10 @@
         <v>239</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>1236</v>
       </c>
       <c r="E53" t="s">
-        <v>1193</v>
+        <v>300</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -6068,7 +6283,7 @@
         <v>243</v>
       </c>
       <c r="I53" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6085,7 +6300,7 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>1194</v>
+        <v>1237</v>
       </c>
       <c r="F54" t="s">
         <v>52</v>
@@ -6108,13 +6323,13 @@
         <v>43891</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>1195</v>
+        <v>246</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -6123,10 +6338,10 @@
         <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="I55" t="s">
-        <v>254</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6140,10 +6355,10 @@
         <v>248</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>1238</v>
       </c>
       <c r="E56" t="s">
-        <v>1196</v>
+        <v>250</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>
@@ -6155,7 +6370,7 @@
         <v>243</v>
       </c>
       <c r="I56" t="s">
-        <v>254</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7499" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7891" uniqueCount="1283">
   <si>
     <t>Doi</t>
   </si>
@@ -4452,6 +4452,138 @@
  The area under the ROC curve of IL‐6 combined with d‐D was 0.840. The specificity of predicting the severity of COVID‐19 during IL‐6 and d‐D tandem testing was up to 93.3%, while the sensitivity of IL‐6 and d‐D by parallel test in the severe COVID‐19 was 96.4%.
  IL‐6 and d‐D were closely related to the occurrence of severe COVID‐19 in the adult patients, and their combined detection had the highest specificity and sensitivity for early prediction of the severity of COVID‐19 patients, which has important clinical value.
 </t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,  Yeming%Wang%NULL%2,  Xingwang%Li%NULL%1,  Lili%Ren%NULL%1,  Jianping%Zhao%NULL%1,  Yi%Hu%NULL%3,  Li%Zhang%NULL%3,  Guohui%Fan%NULL%2,  Jiuyang%Xu%NULL%2,  Xiaoying%Gu%NULL%2,  Zhenshun%Cheng%NULL%2,  Ting%Yu%NULL%4,  Jiaan%Xia%NULL%1,  Yuan%Wei%NULL%3,  Wenjuan%Wu%NULL%1,  Xuelei%Xie%NULL%1,  Wen%Yin%NULL%1,  Hui%Li%NULL%3,  Min%Liu%NULL%1,  Yan%Xiao%NULL%2,  Hong%Gao%NULL%2,  Li%Guo%NULL%2,  Jungang%Xie%NULL%1,  Guangfa%Wang%NULL%1,  Rongmeng%Jiang%NULL%1,  Zhancheng%Gao%NULL%1,  Qi%Jin%NULL%2,  Jianwei%Wang%wangjw28@163.com%1,  Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,  Shuofeng%Yuan%NULL%1,  Kin-Hang%Kok%NULL%1,  Kelvin Kai-Wang%To%NULL%1,  Hin%Chu%NULL%1,  Jin%Yang%NULL%1,  Fanfan%Xing%NULL%1,  Jieling%Liu%NULL%1,  Cyril Chik-Yan%Yip%NULL%1,  Rosana Wing-Shan%Poon%NULL%1,  Hoi-Wah%Tsoi%NULL%1,  Simon Kam-Fai%Lo%NULL%1,  Kwok-Hung%Chan%NULL%1,  Vincent Kwok-Man%Poon%NULL%1,  Wan-Mui%Chan%NULL%1,  Jonathan Daniel%Ip%NULL%1,  Jian-Piao%Cai%NULL%1,  Vincent Chi-Chung%Cheng%NULL%1,  Honglin%Chen%NULL%1,  Christopher Kim-Ming%Hui%NULL%1,  Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,  Xuhua%Guan%NULL%1,  Peng%Wu%NULL%1,  Xiaoye%Wang%NULL%1,  Lei%Zhou%NULL%1,  Yeqing%Tong%NULL%1,  Ruiqi%Ren%NULL%1,  Kathy S.M.%Leung%NULL%1,  Eric H.Y.%Lau%NULL%1,  Jessica Y.%Wong%NULL%1,  Xuesen%Xing%NULL%1,  Nijuan%Xiang%NULL%1,  Yang%Wu%NULL%1,  Chao%Li%NULL%1,  Qi%Chen%NULL%1,  Dan%Li%NULL%1,  Tian%Liu%NULL%1,  Jing%Zhao%NULL%1,  Man%Liu%NULL%1,  Wenxiao%Tu%NULL%1,  Chuding%Chen%NULL%1,  Lianmei%Jin%NULL%1,  Rui%Yang%NULL%1,  Qi%Wang%NULL%1,  Suhua%Zhou%NULL%1,  Rui%Wang%NULL%1,  Hui%Liu%NULL%1,  Yinbo%Luo%NULL%1,  Yuan%Liu%NULL%1,  Ge%Shao%NULL%1,  Huan%Li%NULL%1,  Zhongfa%Tao%NULL%1,  Yang%Yang%NULL%1,  Zhiqiang%Deng%NULL%1,  Boxi%Liu%NULL%1,  Zhitao%Ma%NULL%1,  Yanping%Zhang%NULL%1,  Guoqing%Shi%NULL%1,  Tommy T.Y.%Lam%NULL%1,  Joseph T.%Wu%NULL%1,  George F.%Gao%NULL%1,  Benjamin J.%Cowling%NULL%1,  Bo%Yang%NULL%2,  Bo%Yang%NULL%0,  Gabriel M.%Leung%NULL%1,  Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,  Min%Zhou%NULL%1,  Xuan%Dong%NULL%1,  Jieming%Qu%NULL%2,  Fengyun%Gong%NULL%1,  Yang%Han%NULL%1,  Yang%Qiu%NULL%1,  Jingli%Wang%NULL%1,  Ying%Liu%NULL%2,  Yuan%Wei%NULL%0,  Jia'an%Xia%NULL%2,  Ting%Yu%NULL%0,  Xinxin%Zhang%NULL%1,  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,  Nannan%Shi%NULL%2,  Nannan%Shi%NULL%0,  Fei%Shan%NULL%1,  Zhiyong%Zhang%NULL%1,  Jie%Shen%NULL%1,  Hongzhou%Lu%NULL%2,  Yun%Ling%NULL%2,  Yebin%Jiang%NULL%2,  Yebin%Jiang%NULL%0,  Yuxin%Shi%shiyuxin@shphc.org.cn%3,  Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,  Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,  Yuan-Yuan%Fang%NULL%1,  Yan%Deng%NULL%2,  Wei%Liu%NULL%1,  Mei-Fang%Wang%NULL%1,  Jing-Ping%Ma%NULL%1,  Wei%Xiao%NULL%1,  Ying-Nan%Wang%NULL%1,  Min-Hua%Zhong%NULL%1,  Cheng-Hong%Li%NULL%1,  Guang-Cai%Li%NULL%1,  Hui-Guo%Liu%NULL%2,  Xiu-Yuan%Hao%NULL%4,  Xiu-Yuan%Hao%NULL%0,  Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,  Minggui%Lin%xref no email%1,  Lai%Wei%xref no email%1,  Lixin%Xie%xref no email%1,  Guangfa%Zhu%xref no email%1,  Charles S.%Dela Cruz%xref no email%1,  Lokesh%Sharma%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%2,   Yang%Yang%null%1,   Cong%Zhang%null%1,   Fengming%Huang%null%1,   Fuxiang%Wang%null%1,   Jing%Yuan%null%1,   Zhaoqin%Wang%null%2,   Jinxiu%Li%null%1,   Jianming%Li%null%1,   Cheng%Feng%null%1,   Zheng%Zhang%null%1,   Lifei%Wang%null%1,   Ling%Peng%null%1,   Li%Chen%null%1,   Yuhao%Qin%null%1,   Dandan%Zhao%null%1,   Shuguang%Tan%null%1,   Lu%Yin%null%1,   Jun%Xu%null%1,   Congzhao%Zhou%null%1,   Chengyu%Jiang%null%1,   Lei%Liu%null%2]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,  Ye-Ming%Wang%NULL%1,  Zhi-Qiang%Wu%NULL%1,  Zi-Chun%Xiang%NULL%1,  Li%Guo%NULL%0,  Teng%Xu%NULL%1,  Yong-Zhong%Jiang%NULL%1,  Yan%Xiong%NULL%1,  Yong-Jun%Li%NULL%1,  Xing-Wang%Li%NULL%1,  Hui%Li%NULL%0,  Guo-Hui%Fan%NULL%1,  Xiao-Ying%Gu%NULL%1,  Yan%Xiao%NULL%0,  Hong%Gao%NULL%0,  Jiu-Yang%Xu%NULL%1,  Fan%Yang%NULL%1,  Xin-Ming%Wang%NULL%1,  Chao%Wu%NULL%1,  Lan%Chen%NULL%1,  Yi-Wei%Liu%NULL%1,  Bo%Liu%NULL%1,  Jian%Yang%NULL%1,  Xiao-Rui%Wang%NULL%1,  Jie%Dong%NULL%1,  Li%Li%NULL%2,  Chao-Lin%Huang%NULL%1,  Jian-Ping%Zhao%NULL%1,  Yi%Hu%NULL%0,  Zhen-Shun%Cheng%NULL%1,  Lin-Lin%Liu%NULL%1,  Zhao-Hui%Qian%NULL%1,  Chuan%Qin%NULL%1,  Qi%Jin%NULL%0,  Bin%Cao%NULL%0,  Jian-Wei%Wang%NULL%1,  Xiu-Yuan%Hao%NULL%0,  Xiu-Yuan%Hao%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,  Dengju%Li%NULL%1,  Xiong%Wang%NULL%1,  Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,  Cao%Yi-yuan%coreGivesNoEmail%1,  Dong%Xiang%coreGivesNoEmail%1,  Gao%Ya-dong%coreGivesNoEmail%1,  Yan%You-qin%coreGivesNoEmail%1,  Yang%Yi-bin%coreGivesNoEmail%1,  Yuan%Ya-dong%coreGivesNoEmail%1,  Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,  Xiao-Xin%Wu%NULL%1,  Xian-Gao%Jiang%NULL%1,  Kai-Jin%Xu%NULL%1,  Ling-Jun%Ying%NULL%1,  Chun-Lian%Ma%NULL%1,  Shi-Bo%Li%NULL%1,  Hua-Ying%Wang%NULL%1,  Sheng%Zhang%NULL%1,  Hai-Nv%Gao%NULL%1,  Ji-Fang%Sheng%NULL%1,  Hong-Liu%Cai%NULL%1,  Yun-Qing%Qiu%NULL%1,  Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%kkokwok@cuhk.edu.hk%2,  Valerie%Wong%NULL%1,  Vivian Wan In%Wei%NULL%1,  Samuel Yeung Shan%Wong%NULL%1,  Julian Wei-Tze%Tang%julian.tang@uhl-tr.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,  Xiaoyu%Han%NULL%1,  Nanchuan%Jiang%NULL%1,  Yukun%Cao%NULL%1,  Osamah%Alwalid%NULL%1,  Jin%Gu%NULL%1,  Yanqing%Fan%1024932023@qq.com%2,  Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,  Yuan%Yu%NULL%1,  Jiqian%Xu%NULL%1,  Huaqing%Shu%NULL%1,  Jia'an%Xia%NULL%0,  Hong%Liu%NULL%1,  Yongran%Wu%NULL%1,  Lu%Zhang%NULL%1,  Zhui%Yu%NULL%1,  Minghao%Fang%NULL%1,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%1,  Shangwen%Pan%NULL%1,  Xiaojing%Zou%NULL%1,  Shiying%Yuan%NULL%1,  You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,  Zhenlu%Yang%NULL%2,  Zhenlu%Yang%NULL%0,  Hongyan%Hou%NULL%2,  Hongyan%Hou%NULL%0,  Chenao%Zhan%NULL%1,  Chong%Chen%NULL%1,  Wenzhi%Lv%NULL%2,  Wenzhi%Lv%NULL%0,  Qian%Tao%NULL%2,  Qian%Tao%NULL%0,  Ziyong%Sun%NULL%0,  Ziyong%Sun%NULL%0,  Liming%Xia%xialiming2017@outlook.com%3]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,  Qiqi%Cao%NULL%2,  Le%Qin%NULL%2,  Xiaoyang%Wang%NULL%1,  Zenghui%Cheng%NULL%1,  Ashan%Pan%NULL%1,  Jianyi%Dai%NULL%1,  Qingfeng%Sun%NULL%1,  Fengquan%Zhao%NULL%1,  Jieming%Qu%NULL%0,  Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,  Nan%Hu%NULL%1,  Jing%Lou%NULL%1,  Kun%Chen%NULL%1,  Xuqin%Kang%NULL%1,  Zhenjun%Xiang%NULL%1,  Hui%Chen%NULL%1,  Dali%Wang%NULL%1,  Ning%Liu%NULL%1,  Dong%Liu%NULL%1,  Gang%Chen%NULL%1,  Yongliang%Zhang%NULL%1,  Dou%Li%NULL%1,  Jianren%Li%NULL%1,  Huixin%Lian%NULL%1,  Shengmei%Niu%NULL%1,  Luxi%Zhang%NULL%1,  Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,  Chengcheng%Yu%NULL%1,  Jing%Qu%NULL%1,  Lieguang%Zhang%NULL%1,  Songfeng%Jiang%NULL%1,  Deyang%Huang%NULL%1,  Bihua%Chen%NULL%1,  Zhiping%Zhang%NULL%1,  Wanhua%Guan%NULL%1,  Zhoukun%Ling%NULL%1,  Rui%Jiang%NULL%1,  Tianli%Hu%NULL%1,  Yan%Ding%NULL%1,  Lin%Lin%NULL%1,  Qingxin%Gan%NULL%1,  Liangping%Luo%tluolp@jnu.edu.cn%1,  Xiaoping%Tang%xtang@21cn.com%1,  Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,  Zhao-Wu%Tao%NULL%1,  Lei%Wang%NULL%1,  Ming-Li%Yuan%NULL%1,  Kui%Liu%NULL%1,  Ling%Zhou%NULL%1,  Shuang%Wei%NULL%1,  Yan%Deng%NULL%0,  Jing%Liu%NULL%1,  Hui-Guo%Liu%NULL%0,  Ming%Yang%NULL%1,  Yi%Hu%NULL%0,  Pei-Fang%Wei%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,  Jun%Liu%NULL%2,  Xinguo%Zhao%NULL%1,  Chengyuan%Liu%NULL%1,  Wei%Wang%NULL%1,  Dawei%Wang%NULL%1,  Wei%Xu%NULL%1,  Chunyu%Zhang%NULL%1,  Jiong%Yu%NULL%1,  Bin%Jiang%NULL%1,  Hongcui%Cao%hccao@zju.edu.cn%1,  Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,  Xiaorong%Hu%NULL%1,  Wenlin%Cheng%NULL%1,  Lei%Yu%NULL%1,  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,  Qiang%Liu%liuqiang@irm-cams.ac.cn%2,  Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,  Kun%Yang%NULL%2,  Kun%Yang%NULL%0,  Wenxia%Wang%NULL%2,  Wenxia%Wang%NULL%0,  Lingyu%Jiang%NULL%2,  Lingyu%Jiang%NULL%0,  Jianxin%Song%songsingsjx@sina.com%2,  Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1,  Zheng%Zhong%xref no email%1,  Xingzhi%Xie%xref no email%1,  Qizhi%Yu%xref no email%1,  Jun%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,  Meiwen%Tang%NULL%1,  Xiaobin%Zheng%NULL%1,  Ye%Liu%ly77219@163.com%1,  Xiaofeng%Li%zdwylxf@163.com%1,  Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,  Dong%Sun%NULL%1,  Yao%Liu%NULL%1,  Yanqing%Fan%NULL%0,  Lingyun%Zhao%NULL%1,  Xiaoming%Li%NULL%1,  Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,  SaiBin%Wang%NULL%2,  SaiBin%Wang%NULL%0,  YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1,  Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,  Ci%Song%NULL%1,  Chuanjun%Xu%NULL%1,  Guangfu%Jin%NULL%1,  Yaling%Chen%NULL%1,  Xin%Xu%NULL%1,  Hongxia%Ma%NULL%1,  Wei%Chen%NULL%1,  Yuan%Lin%NULL%1,  Yishan%Zheng%NULL%1,  Jianming%Wang%NULL%1,  Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,  Yongxiang%Yi%ian0126@126.com%1,  Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,  Yao%Tian%NULL%2,  Yao%Tian%NULL%0,  Jing%Zhou%NULL%1,  Xuan%Ma%NULL%1,  Min%Yang%NULL%1,  ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,  James%Fielding%NULL%1,  Michaela%Diercke%NULL%1,  Christine%Campese%NULL%1,  Vincent%Enouf%NULL%1,  Alexandre%Gaymard%NULL%1,  Antonino%Bella%NULL%1,  Paola%Sognamiglio%NULL%1,  Maria José%Sierra Moros%NULL%1,  Antonio Nicolau%Riutort%NULL%1,  Yulia V.%Demina%NULL%1,  Romain%Mahieu%NULL%1,  Markku%Broas%NULL%1,  Malin%Bengnér%NULL%1,  Silke%Buda%NULL%1,  Julia%Schilling%NULL%1,  Laurent%Filleul%NULL%1,  Agnès%Lepoutre%NULL%1,  Christine%Saura%NULL%1,  Alexandra%Mailles%NULL%1,  Daniel%Levy-Bruhl%NULL%1,  Bruno%Coignard%NULL%1,  Sibylle%Bernard-Stoecklin%NULL%1,  Sylvie%Behillil%NULL%1,  Sylvie%van der Werf%NULL%1,  Martine%Valette%NULL%1,  Bruno%Lina%NULL%1,  Flavia%Riccardo%NULL%1,  Emanuele%Nicastri%NULL%1,  Inmaculada%Casas%NULL%1,  Amparo%Larrauri%NULL%1,  Magdalena%Salom Castell%NULL%1,  Francisco%Pozo%NULL%1,  Rinat A.%Maksyutov%NULL%1,  Charlotte%Martin%NULL%1,  Marc%Van Ranst%NULL%1,  Nathalie%Bossuyt%NULL%1,  Lotta%Siira%NULL%1,  Jussi%Sane%NULL%1,  Karin%Tegmark-Wisell%NULL%1,  Maria%Palmérus%NULL%1,  Eeva K.%Broberg%NULL%1,  Julien%Beauté%NULL%1,  Pernille%Jorgensen%NULL%1,  Nick%Bundle%NULL%1,  Dmitriy%Pereyaslov%NULL%1,  Cornelia%Adlhoch%NULL%1,  Jukka%Pukkila%NULL%1,  Richard%Pebody%NULL%1,  Sonja%Olsen%NULL%1,  Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%1,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%1,  Jie%Xiang%NULL%1,  Yeming%Wang%NULL%0,  Bin%Song%NULL%1,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%1,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%1,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%1,  Yi%Zhang%NULL%1,  Hua%Chen%NULL%1,  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,  Ying%Chen%NULL%1,  Ruzheng%Lin%NULL%1,  Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,  Tangkai%Qi%NULL%1,  Li%Liu%NULL%1,  Yun%Ling%NULL%0,  Zhiping%Qian%NULL%1,  Tao%Li%NULL%1,  Feng%Li%NULL%1,  Qingnian%Xu%NULL%1,  Yuyi%Zhang%NULL%1,  Shuibao%Xu%NULL%1,  Zhigang%Song%NULL%1,  Yigang%Zeng%NULL%1,  Yinzhong%Shen%NULL%1,  Yuxin%Shi%NULL%0,  Tongyu%Zhu%NULL%1,  Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%2,  Feifei%Yao%NULL%1,  Lijie%Wang%NULL%1,  Ling%Zheng%NULL%1,  Yongjun%Gao%NULL%1,  Jun%Ye%NULL%1,  Feng%Guo%NULL%1,  Hui%Zhao%NULL%1,  Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,  Bin%Quan%NULL%1,  Xiaoning%Li%NULL%1,  Guangjian%Gao%NULL%1,  Wenqiang%Zheng%NULL%1,  Jun%Zhang%NULL%1,  Zhiyun%Zhang%NULL%1,  Chunsheng%Liu%NULL%1,  Li%Li%NULL%0,  Chenglin%Wang%NULL%1,  Guihua%Zhang%NULL%1,  Jiajia%Li%NULL%1,  Yunhai%Dai%NULL%1,  Jianghua%Yang%yjhpath@163.com%1,  Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%10,  Xiaoyan%Chen%xref no email%1,  Yanping%Cai%xref no email%1,  Jia\u2019an%Xia%xref no email%1,  Xing%Zhou%xref no email%1,  Sha%Xu%xref no email%1,  Hanping%Huang%xref no email%1,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%1,  Chunling%Du%xref no email%1,  Yuye%Zhang%xref no email%1,  Juan%Song%xref no email%1,  Sijiao%Wang%xref no email%1,  Yencheng%Chao%xref no email%1,  Zeyong%Yang%xref no email%1,  Jie%Xu%xref no email%1,  Xin%Zhou%xref no email%1,  Dechang%Chen%xref no email%1,  Weining%Xiong%xref no email%1,  Lei%Xu%xref no email%2,  Feng%Zhou%xref no email%1,  Jinjun%Jiang%xref no email%1,  Chunxue%Bai%xref no email%1,  Junhua%Zheng%xref no email%1,  Yuanlin%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,  Kai%Xie%NULL%2,  Kai%Xie%NULL%0,  Hui%Lu%NULL%1,  Lei%Xu%bayinhexl@126.com%0,  Shusheng%Zhou%zhouss108@163.com%1,  Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,  Yong%Lu%xref no email%1,  Qiqi%Cao%xref no email%0,  Le%Qin%xref no email%0,  Zilai%Pan%xref no email%1,  Fuhua%Yan%xref no email%0,  Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,  Yuanyuan%Xing%NULL%1,  Yu%Xiao%NULL%1,  Liping%Deng%NULL%1,  Qiu%Zhao%NULL%1,  Hongling%Wang%NULL%1,  Yong%Xiong%NULL%1,  Zhenshun%Cheng%NULL%0,  Shicheng%Gao%NULL%1,  Ke%Liang%NULL%1,  Mingqi%Luo%NULL%1,  Tielong%Chen%NULL%1,  Shihui%Song%NULL%1,  Zhiyong%Ma%NULL%1,  Xiaoping%Chen%NULL%1,  Ruiying%Zheng%NULL%1,  Qian%Cao%NULL%1,  Fan%Wang%fanndywang@foxmail.com%1,  Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,  Bohan%Yang%NULL%1,  Qianwen%Li%NULL%1,  Lu%Wen%NULL%1,  Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,  Yingxia%Liu%NULL%0,  Lei%Liu%NULL%1,  Xianfeng%Wang%NULL%1,  Nijuan%Luo%NULL%1,  Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,  Tuantuan%Li%NULL%1,  Mingfeng%Han%NULL%1,  Xiuyong%Li%NULL%1,  Dong%Wu%NULL%1,  Yuanhong%Xu%NULL%1,  Yulin%Zhu%NULL%1,  Yan%Liu%NULL%1,  Xiaowu%Wang%wangxiaowu19880218@126.com%1,  Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -4792,7 +4924,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>1197</v>
+        <v>1239</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -4821,7 +4953,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>1240</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -4850,7 +4982,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>1241</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -4879,7 +5011,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>1200</v>
+        <v>1242</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -4908,7 +5040,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>1243</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -4937,7 +5069,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>1201</v>
+        <v>1244</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -4966,7 +5098,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>1245</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -4995,7 +5127,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>1202</v>
+        <v>1246</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -5007,7 +5139,7 @@
         <v>1203</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5024,7 +5156,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>1204</v>
+        <v>1247</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -5053,7 +5185,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>1248</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -5082,7 +5214,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>1249</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -5111,7 +5243,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -5140,7 +5272,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>1251</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -5169,7 +5301,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>1206</v>
+        <v>263</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -5198,7 +5330,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>1252</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -5227,7 +5359,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>1253</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5256,7 +5388,7 @@
         <v>1208</v>
       </c>
       <c r="E18" t="s">
-        <v>1209</v>
+        <v>1254</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -5285,7 +5417,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -5314,7 +5446,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>1210</v>
+        <v>1255</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -5343,7 +5475,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>1212</v>
+        <v>1256</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -5372,7 +5504,7 @@
         <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>1257</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -5401,7 +5533,7 @@
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -5430,7 +5562,7 @@
         <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>1258</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -5459,7 +5591,7 @@
         <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>1214</v>
+        <v>1259</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -5488,7 +5620,7 @@
         <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -5517,7 +5649,7 @@
         <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>1215</v>
+        <v>1260</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -5546,7 +5678,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>1261</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -5575,7 +5707,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>1262</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -5604,7 +5736,7 @@
         <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>1217</v>
+        <v>1263</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -5616,7 +5748,7 @@
         <v>1055</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5633,7 +5765,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>1218</v>
+        <v>1264</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5662,7 +5794,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1219</v>
+        <v>1265</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -5691,7 +5823,7 @@
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>1054</v>
+        <v>1120</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -5703,7 +5835,7 @@
         <v>1055</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5720,7 +5852,7 @@
         <v>1220</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>1266</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -5749,7 +5881,7 @@
         <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>1221</v>
+        <v>1267</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
@@ -5761,7 +5893,7 @@
         <v>1055</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5778,7 +5910,7 @@
         <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>1268</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -5807,7 +5939,7 @@
         <v>1222</v>
       </c>
       <c r="E37" t="s">
-        <v>1223</v>
+        <v>1269</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -5836,7 +5968,7 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>1224</v>
+        <v>1125</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -5848,7 +5980,7 @@
         <v>1055</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5865,7 +5997,7 @@
         <v>1225</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>1270</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -5894,7 +6026,7 @@
         <v>1226</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -5923,7 +6055,7 @@
         <v>1227</v>
       </c>
       <c r="E41" t="s">
-        <v>1228</v>
+        <v>288</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5952,7 +6084,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>1271</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -5981,7 +6113,7 @@
         <v>1068</v>
       </c>
       <c r="E43" t="s">
-        <v>1229</v>
+        <v>1069</v>
       </c>
       <c r="F43" t="s">
         <v>41</v>
@@ -5993,7 +6125,7 @@
         <v>1070</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -6010,7 +6142,7 @@
         <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>1272</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -6039,7 +6171,7 @@
         <v>1230</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>1273</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -6068,7 +6200,7 @@
         <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>1274</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -6097,7 +6229,7 @@
         <v>1231</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>1275</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -6126,7 +6258,7 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>1232</v>
+        <v>1276</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -6138,7 +6270,7 @@
         <v>1055</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -6155,7 +6287,7 @@
         <v>1233</v>
       </c>
       <c r="E49" t="s">
-        <v>1234</v>
+        <v>1277</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -6184,7 +6316,7 @@
         <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>1235</v>
+        <v>1278</v>
       </c>
       <c r="F50" t="s">
         <v>48</v>
@@ -6196,7 +6328,7 @@
         <v>1080</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6213,7 +6345,7 @@
         <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>233</v>
+        <v>1279</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -6242,7 +6374,7 @@
         <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>237</v>
+        <v>1280</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -6271,7 +6403,7 @@
         <v>1236</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>1281</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -6300,7 +6432,7 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>1237</v>
+        <v>1140</v>
       </c>
       <c r="F54" t="s">
         <v>52</v>
@@ -6312,7 +6444,7 @@
         <v>1086</v>
       </c>
       <c r="I54" t="s">
-        <v>70</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6329,7 +6461,7 @@
         <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -6358,7 +6490,7 @@
         <v>1238</v>
       </c>
       <c r="E56" t="s">
-        <v>250</v>
+        <v>1282</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7891" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8283" uniqueCount="1329">
   <si>
     <t>Doi</t>
   </si>
@@ -4584,6 +4584,144 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%3,  Tuantuan%Li%NULL%1,  Mingfeng%Han%NULL%1,  Xiuyong%Li%NULL%1,  Dong%Wu%NULL%1,  Yuanhong%Xu%NULL%1,  Yulin%Zhu%NULL%1,  Yan%Liu%NULL%1,  Xiaowu%Wang%wangxiaowu19880218@126.com%1,  Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,   Yeming%Wang%NULL%2,   Xingwang%Li%NULL%1,   Lili%Ren%NULL%1,   Jianping%Zhao%NULL%1,   Yi%Hu%NULL%3,   Li%Zhang%NULL%3,   Guohui%Fan%NULL%2,   Jiuyang%Xu%NULL%2,   Xiaoying%Gu%NULL%2,   Zhenshun%Cheng%NULL%2,   Ting%Yu%NULL%4,   Jiaan%Xia%NULL%1,   Yuan%Wei%NULL%3,   Wenjuan%Wu%NULL%1,   Xuelei%Xie%NULL%1,   Wen%Yin%NULL%1,   Hui%Li%NULL%3,   Min%Liu%NULL%1,   Yan%Xiao%NULL%2,   Hong%Gao%NULL%2,   Li%Guo%NULL%2,   Jungang%Xie%NULL%1,   Guangfa%Wang%NULL%1,   Rongmeng%Jiang%NULL%1,   Zhancheng%Gao%NULL%1,   Qi%Jin%NULL%2,   Jianwei%Wang%wangjw28@163.com%1,   Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,   Shuofeng%Yuan%NULL%1,   Kin-Hang%Kok%NULL%1,   Kelvin Kai-Wang%To%NULL%1,   Hin%Chu%NULL%1,   Jin%Yang%NULL%1,   Fanfan%Xing%NULL%1,   Jieling%Liu%NULL%1,   Cyril Chik-Yan%Yip%NULL%1,   Rosana Wing-Shan%Poon%NULL%1,   Hoi-Wah%Tsoi%NULL%1,   Simon Kam-Fai%Lo%NULL%1,   Kwok-Hung%Chan%NULL%1,   Vincent Kwok-Man%Poon%NULL%1,   Wan-Mui%Chan%NULL%1,   Jonathan Daniel%Ip%NULL%1,   Jian-Piao%Cai%NULL%1,   Vincent Chi-Chung%Cheng%NULL%1,   Honglin%Chen%NULL%1,   Christopher Kim-Ming%Hui%NULL%1,   Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,   Xuhua%Guan%NULL%1,   Peng%Wu%NULL%1,   Xiaoye%Wang%NULL%1,   Lei%Zhou%NULL%1,   Yeqing%Tong%NULL%1,   Ruiqi%Ren%NULL%1,   Kathy S.M.%Leung%NULL%1,   Eric H.Y.%Lau%NULL%1,   Jessica Y.%Wong%NULL%1,   Xuesen%Xing%NULL%1,   Nijuan%Xiang%NULL%1,   Yang%Wu%NULL%1,   Chao%Li%NULL%1,   Qi%Chen%NULL%1,   Dan%Li%NULL%1,   Tian%Liu%NULL%1,   Jing%Zhao%NULL%1,   Man%Liu%NULL%1,   Wenxiao%Tu%NULL%1,   Chuding%Chen%NULL%1,   Lianmei%Jin%NULL%1,   Rui%Yang%NULL%1,   Qi%Wang%NULL%1,   Suhua%Zhou%NULL%1,   Rui%Wang%NULL%1,   Hui%Liu%NULL%1,   Yinbo%Luo%NULL%1,   Yuan%Liu%NULL%1,   Ge%Shao%NULL%1,   Huan%Li%NULL%1,   Zhongfa%Tao%NULL%1,   Yang%Yang%NULL%1,   Zhiqiang%Deng%NULL%1,   Boxi%Liu%NULL%1,   Zhitao%Ma%NULL%1,   Yanping%Zhang%NULL%1,   Guoqing%Shi%NULL%1,   Tommy T.Y.%Lam%NULL%1,   Joseph T.%Wu%NULL%1,   George F.%Gao%NULL%1,   Benjamin J.%Cowling%NULL%1,   Bo%Yang%NULL%2,   Bo%Yang%NULL%0,   Gabriel M.%Leung%NULL%1,   Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,   Min%Zhou%NULL%1,   Xuan%Dong%NULL%1,   Jieming%Qu%NULL%2,   Fengyun%Gong%NULL%1,   Yang%Han%NULL%1,   Yang%Qiu%NULL%1,   Jingli%Wang%NULL%1,   Ying%Liu%NULL%2,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%2,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%1,   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,   Nannan%Shi%NULL%2,   Nannan%Shi%NULL%0,   Fei%Shan%NULL%1,   Zhiyong%Zhang%NULL%1,   Jie%Shen%NULL%1,   Hongzhou%Lu%NULL%2,   Yun%Ling%NULL%2,   Yebin%Jiang%NULL%2,   Yebin%Jiang%NULL%0,   Yuxin%Shi%shiyuxin@shphc.org.cn%3,   Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,   Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,   Yuan-Yuan%Fang%NULL%1,   Yan%Deng%NULL%2,   Wei%Liu%NULL%1,   Mei-Fang%Wang%NULL%1,   Jing-Ping%Ma%NULL%1,   Wei%Xiao%NULL%1,   Ying-Nan%Wang%NULL%1,   Min-Hua%Zhong%NULL%1,   Cheng-Hong%Li%NULL%1,   Guang-Cai%Li%NULL%1,   Hui-Guo%Liu%NULL%2,   Xiu-Yuan%Hao%NULL%4,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%2,   Minggui%Lin%xref no email%1,   Lai%Wei%xref no email%1,   Lixin%Xie%xref no email%1,   Guangfa%Zhu%xref no email%1,   Charles S.%Dela Cruz%xref no email%1,   Lokesh%Sharma%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,    Yang%Yang%null%1,    Cong%Zhang%null%1,    Fengming%Huang%null%1,    Fuxiang%Wang%null%1,    Jing%Yuan%null%2,    Zhaoqin%Wang%null%2,    Jinxiu%Li%null%1,    Jianming%Li%null%1,    Cheng%Feng%null%1,    Zheng%Zhang%null%1,    Lifei%Wang%null%1,    Ling%Peng%null%1,    Li%Chen%null%1,    Yuhao%Qin%null%1,    Dandan%Zhao%null%1,    Shuguang%Tan%null%1,    Lu%Yin%null%1,    Jun%Xu%null%1,    Congzhao%Zhou%null%1,    Chengyu%Jiang%null%1,    Lei%Liu%null%2]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,   Ye-Ming%Wang%NULL%1,   Zhi-Qiang%Wu%NULL%1,   Zi-Chun%Xiang%NULL%1,   Li%Guo%NULL%0,   Teng%Xu%NULL%1,   Yong-Zhong%Jiang%NULL%1,   Yan%Xiong%NULL%1,   Yong-Jun%Li%NULL%1,   Xing-Wang%Li%NULL%1,   Hui%Li%NULL%0,   Guo-Hui%Fan%NULL%1,   Xiao-Ying%Gu%NULL%1,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Jiu-Yang%Xu%NULL%1,   Fan%Yang%NULL%1,   Xin-Ming%Wang%NULL%1,   Chao%Wu%NULL%1,   Lan%Chen%NULL%1,   Yi-Wei%Liu%NULL%1,   Bo%Liu%NULL%1,   Jian%Yang%NULL%1,   Xiao-Rui%Wang%NULL%1,   Jie%Dong%NULL%1,   Li%Li%NULL%2,   Chao-Lin%Huang%NULL%1,   Jian-Ping%Zhao%NULL%1,   Yi%Hu%NULL%0,   Zhen-Shun%Cheng%NULL%1,   Lin-Lin%Liu%NULL%1,   Zhao-Hui%Qian%NULL%1,   Chuan%Qin%NULL%1,   Qi%Jin%NULL%0,   Bin%Cao%NULL%0,   Jian-Wei%Wang%NULL%1,   Xiu-Yuan%Hao%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,   Dengju%Li%NULL%1,   Xiong%Wang%NULL%1,   Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,   Cao%Yi-yuan%coreGivesNoEmail%1,   Dong%Xiang%coreGivesNoEmail%1,   Gao%Ya-dong%coreGivesNoEmail%1,   Yan%You-qin%coreGivesNoEmail%1,   Yang%Yi-bin%coreGivesNoEmail%1,   Yuan%Ya-dong%coreGivesNoEmail%1,   Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,   Xiao-Xin%Wu%NULL%1,   Xian-Gao%Jiang%NULL%1,   Kai-Jin%Xu%NULL%1,   Ling-Jun%Ying%NULL%1,   Chun-Lian%Ma%NULL%1,   Shi-Bo%Li%NULL%1,   Hua-Ying%Wang%NULL%1,   Sheng%Zhang%NULL%1,   Hai-Nv%Gao%NULL%1,   Ji-Fang%Sheng%NULL%1,   Hong-Liu%Cai%NULL%1,   Yun-Qing%Qiu%NULL%1,   Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,   Xiaojia%Wu%NULL%1,   Wenbing%Zeng%NULL%1,   Dajing%Guo%NULL%2,   Zheng%Fang%NULL%2,   Linli%Chen%NULL%2,   Huizhe%Huang%NULL%1,   Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,   Xiaoyu%Han%NULL%1,   Nanchuan%Jiang%NULL%1,   Yukun%Cao%NULL%1,   Osamah%Alwalid%NULL%1,   Jin%Gu%NULL%1,   Yanqing%Fan%1024932023@qq.com%2,   Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,   Yuan%Yu%NULL%1,   Jiqian%Xu%NULL%1,   Huaqing%Shu%NULL%1,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%1,   Yongran%Wu%NULL%1,   Lu%Zhang%NULL%1,   Zhui%Yu%NULL%1,   Minghao%Fang%NULL%1,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%1,   Shangwen%Pan%NULL%1,   Xiaojing%Zou%NULL%1,   Shiying%Yuan%NULL%1,   You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,   Jing-Hui%Dong%NULL%1,   Wei-Min%An%NULL%1,   Xiao-Yan%Lv%15001008285@139.com%1,   Xiao-Ping%Yin%yinxiaoping78@sina.com%1,   Jian-Zeng%Zhang%NULL%1,   Li%Dong%NULL%1,   Xi%Ma%NULL%1,   Hong-Jie%Zhang%NULL%1,   Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,   Zhenlu%Yang%NULL%2,   Zhenlu%Yang%NULL%0,   Hongyan%Hou%NULL%2,   Hongyan%Hou%NULL%0,   Chenao%Zhan%NULL%1,   Chong%Chen%NULL%1,   Wenzhi%Lv%NULL%2,   Wenzhi%Lv%NULL%0,   Qian%Tao%NULL%2,   Qian%Tao%NULL%0,   Ziyong%Sun%NULL%0,   Ziyong%Sun%NULL%0,   Liming%Xia%xialiming2017@outlook.com%3]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,   Qiqi%Cao%NULL%2,   Le%Qin%NULL%2,   Xiaoyang%Wang%NULL%1,   Zenghui%Cheng%NULL%1,   Ashan%Pan%NULL%1,   Jianyi%Dai%NULL%1,   Qingfeng%Sun%NULL%1,   Fengquan%Zhao%NULL%1,   Jieming%Qu%NULL%0,   Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,   Nan%Hu%NULL%1,   Jing%Lou%NULL%1,   Kun%Chen%NULL%1,   Xuqin%Kang%NULL%1,   Zhenjun%Xiang%NULL%1,   Hui%Chen%NULL%1,   Dali%Wang%NULL%1,   Ning%Liu%NULL%1,   Dong%Liu%NULL%1,   Gang%Chen%NULL%1,   Yongliang%Zhang%NULL%1,   Dou%Li%NULL%1,   Jianren%Li%NULL%1,   Huixin%Lian%NULL%1,   Shengmei%Niu%NULL%1,   Luxi%Zhang%NULL%1,   Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,   Mengqi%Tu%NULL%1,   Shipei%Wang%NULL%1,   Sichao%Chen%NULL%1,   Wei%Zhou%NULL%1,   Danyang%Chen%NULL%1,   Lin%Zhou%NULL%1,   Min%Wang%NULL%1,   Yan%Zhao%NULL%1,   Wen%Zeng%NULL%1,   Qi%Huang%NULL%1,   Hai'bo%Xu%NULL%1,   Zeming%Liu%NULL%1,   Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,   Zhao-Wu%Tao%NULL%1,   Lei%Wang%NULL%1,   Ming-Li%Yuan%NULL%1,   Kui%Liu%NULL%1,   Ling%Zhou%NULL%1,   Shuang%Wei%NULL%1,   Yan%Deng%NULL%0,   Jing%Liu%NULL%1,   Hui-Guo%Liu%NULL%0,   Ming%Yang%NULL%1,   Yi%Hu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,   Jiong%Wu%NULL%1,   Faqi%Wu%NULL%1,   Dajing%Guo%NULL%0,   Linli%Chen%NULL%0,   Zheng%Fang%NULL%0,   Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,   Jun%Liu%NULL%2,   Xinguo%Zhao%NULL%1,   Chengyuan%Liu%NULL%1,   Wei%Wang%NULL%1,   Dawei%Wang%NULL%1,   Wei%Xu%NULL%1,   Chunyu%Zhang%NULL%1,   Jiong%Yu%NULL%1,   Bin%Jiang%NULL%1,   Hongcui%Cao%hccao@zju.edu.cn%1,   Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,   Xiaorong%Hu%NULL%1,   Wenlin%Cheng%NULL%1,   Lei%Yu%NULL%1,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,   Qiang%Liu%liuqiang@irm-cams.ac.cn%2,   Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,   Kun%Yang%NULL%2,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%2,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%2,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%2,   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1,   Zheng%Zhong%xref no email%1,   Xingzhi%Xie%xref no email%1,   Qizhi%Yu%xref no email%1,   Jun%Liu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,   Meiwen%Tang%NULL%1,   Xiaobin%Zheng%NULL%1,   Ye%Liu%ly77219@163.com%1,   Xiaofeng%Li%zdwylxf@163.com%1,   Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,   Dong%Sun%NULL%1,   Yao%Liu%NULL%1,   Yanqing%Fan%NULL%0,   Lingyun%Zhao%NULL%1,   Xiaoming%Li%NULL%1,   Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,   SaiBin%Wang%NULL%2,   SaiBin%Wang%NULL%0,   YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1,   Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,   Ci%Song%NULL%1,   Chuanjun%Xu%NULL%1,   Guangfu%Jin%NULL%1,   Yaling%Chen%NULL%1,   Xin%Xu%NULL%1,   Hongxia%Ma%NULL%1,   Wei%Chen%NULL%1,   Yuan%Lin%NULL%1,   Yishan%Zheng%NULL%1,   Jianming%Wang%NULL%1,   Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,   Yongxiang%Yi%ian0126@126.com%1,   Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,   Yao%Tian%NULL%2,   Yao%Tian%NULL%0,   Jing%Zhou%NULL%1,   Xuan%Ma%NULL%1,   Min%Yang%NULL%1,   ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,   James%Fielding%NULL%1,   Michaela%Diercke%NULL%1,   Christine%Campese%NULL%1,   Vincent%Enouf%NULL%1,   Alexandre%Gaymard%NULL%1,   Antonino%Bella%NULL%1,   Paola%Sognamiglio%NULL%1,   Maria José%Sierra Moros%NULL%1,   Antonio Nicolau%Riutort%NULL%1,   Yulia V.%Demina%NULL%1,   Romain%Mahieu%NULL%1,   Markku%Broas%NULL%1,   Malin%Bengnér%NULL%1,   Silke%Buda%NULL%1,   Julia%Schilling%NULL%1,   Laurent%Filleul%NULL%1,   Agnès%Lepoutre%NULL%1,   Christine%Saura%NULL%1,   Alexandra%Mailles%NULL%1,   Daniel%Levy-Bruhl%NULL%1,   Bruno%Coignard%NULL%1,   Sibylle%Bernard-Stoecklin%NULL%1,   Sylvie%Behillil%NULL%1,   Sylvie%van der Werf%NULL%1,   Martine%Valette%NULL%1,   Bruno%Lina%NULL%1,   Flavia%Riccardo%NULL%1,   Emanuele%Nicastri%NULL%1,   Inmaculada%Casas%NULL%1,   Amparo%Larrauri%NULL%1,   Magdalena%Salom Castell%NULL%1,   Francisco%Pozo%NULL%1,   Rinat A.%Maksyutov%NULL%1,   Charlotte%Martin%NULL%1,   Marc%Van Ranst%NULL%1,   Nathalie%Bossuyt%NULL%1,   Lotta%Siira%NULL%1,   Jussi%Sane%NULL%1,   Karin%Tegmark-Wisell%NULL%1,   Maria%Palmérus%NULL%1,   Eeva K.%Broberg%NULL%1,   Julien%Beauté%NULL%1,   Pernille%Jorgensen%NULL%1,   Nick%Bundle%NULL%1,   Dmitriy%Pereyaslov%NULL%1,   Cornelia%Adlhoch%NULL%1,   Jukka%Pukkila%NULL%1,   Richard%Pebody%NULL%1,   Sonja%Olsen%NULL%1,   Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%1,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%1,   Jie%Xiang%NULL%1,   Yeming%Wang%NULL%0,   Bin%Song%NULL%1,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%1,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%1,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%1,   Yi%Zhang%NULL%1,   Hua%Chen%NULL%1,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,   Ying%Chen%NULL%1,   Ruzheng%Lin%NULL%1,   Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,   Tangkai%Qi%NULL%1,   Li%Liu%NULL%1,   Yun%Ling%NULL%0,   Zhiping%Qian%NULL%1,   Tao%Li%NULL%1,   Feng%Li%NULL%1,   Qingnian%Xu%NULL%1,   Yuyi%Zhang%NULL%1,   Shuibao%Xu%NULL%1,   Zhigang%Song%NULL%1,   Yigang%Zeng%NULL%1,   Yinzhong%Shen%NULL%1,   Yuxin%Shi%NULL%0,   Tongyu%Zhu%NULL%1,   Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,   Bin%Quan%NULL%1,   Xiaoning%Li%NULL%1,   Guangjian%Gao%NULL%1,   Wenqiang%Zheng%NULL%1,   Jun%Zhang%NULL%1,   Zhiyun%Zhang%NULL%1,   Chunsheng%Liu%NULL%1,   Li%Li%NULL%0,   Chenglin%Wang%NULL%1,   Guihua%Zhang%NULL%1,   Jiajia%Li%NULL%1,   Yunhai%Dai%NULL%1,   Jianghua%Yang%yjhpath@163.com%1,   Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,   Xiaoyan%Chen%xref no email%1,   Yanping%Cai%xref no email%1,   Jia\u2019an%Xia%xref no email%1,   Xing%Zhou%xref no email%1,   Sha%Xu%xref no email%1,   Hanping%Huang%xref no email%1,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%1,   Chunling%Du%xref no email%1,   Yuye%Zhang%xref no email%1,   Juan%Song%xref no email%1,   Sijiao%Wang%xref no email%1,   Yencheng%Chao%xref no email%1,   Zeyong%Yang%xref no email%1,   Jie%Xu%xref no email%1,   Xin%Zhou%xref no email%1,   Dechang%Chen%xref no email%1,   Weining%Xiong%xref no email%1,   Lei%Xu%xref no email%2,   Feng%Zhou%xref no email%1,   Jinjun%Jiang%xref no email%1,   Chunxue%Bai%xref no email%1,   Junhua%Zheng%xref no email%1,   Yuanlin%Song%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,   Kai%Xie%NULL%2,   Kai%Xie%NULL%0,   Hui%Lu%NULL%1,   Lei%Xu%bayinhexl@126.com%0,   Shusheng%Zhou%zhouss108@163.com%1,   Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,   Yong%Lu%xref no email%1,   Qiqi%Cao%xref no email%0,   Le%Qin%xref no email%0,   Zilai%Pan%xref no email%1,   Fuhua%Yan%xref no email%0,   Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,   Yuanyuan%Xing%NULL%1,   Yu%Xiao%NULL%1,   Liping%Deng%NULL%1,   Qiu%Zhao%NULL%1,   Hongling%Wang%NULL%1,   Yong%Xiong%NULL%1,   Zhenshun%Cheng%NULL%0,   Shicheng%Gao%NULL%1,   Ke%Liang%NULL%1,   Mingqi%Luo%NULL%1,   Tielong%Chen%NULL%1,   Shihui%Song%NULL%1,   Zhiyong%Ma%NULL%1,   Xiaoping%Chen%NULL%1,   Ruiying%Zheng%NULL%1,   Qian%Cao%NULL%1,   Fan%Wang%fanndywang@foxmail.com%1,   Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,   Bohan%Yang%NULL%1,   Qianwen%Li%NULL%1,   Lu%Wen%NULL%1,   Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,   Yingxia%Liu%NULL%2,   Lei%Liu%NULL%2,   Xianfeng%Wang%NULL%1,   Nijuan%Luo%NULL%1,   Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,   N -B%Yang%NULL%1,   F%Ding%NULL%1,   A H Y%Ma%NULL%1,   Z -Y%Wang%NULL%2,   Y -F%Shen%NULL%1,   C -W%Shi%NULL%1,   X%Lian%NULL%1,   J -G%Chu%NULL%1,   L%Chen%chxmin@hotmail.com%1,   Z -Y%Wang%NULL%0,   D -W%Ren%NULL%1,   G -X%Li%NULL%1,   X -Q%Chen%chxmin@hotmail.com%1,   H -J%Shen%NULL%1,   X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,   Tuantuan%Li%NULL%1,   Mingfeng%Han%NULL%1,   Xiuyong%Li%NULL%1,   Dong%Wu%NULL%1,   Yuanhong%Xu%NULL%1,   Yulin%Zhu%NULL%1,   Yan%Liu%NULL%1,   Xiaowu%Wang%wangxiaowu19880218@126.com%1,   Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -4924,7 +5062,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>1239</v>
+        <v>1283</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -4953,7 +5091,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>1240</v>
+        <v>1284</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -4982,7 +5120,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>1241</v>
+        <v>1285</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -5011,7 +5149,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>1242</v>
+        <v>1286</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -5040,7 +5178,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>1243</v>
+        <v>1287</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -5069,7 +5207,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>1244</v>
+        <v>1288</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -5098,7 +5236,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>1245</v>
+        <v>1289</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -5127,7 +5265,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>1246</v>
+        <v>1290</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -5156,7 +5294,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>1247</v>
+        <v>1291</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -5185,7 +5323,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>1248</v>
+        <v>1292</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -5214,7 +5352,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>1249</v>
+        <v>1293</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -5243,7 +5381,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>1250</v>
+        <v>1294</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -5272,7 +5410,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>1251</v>
+        <v>1295</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -5301,7 +5439,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>1296</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -5330,7 +5468,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>1252</v>
+        <v>313</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -5359,7 +5497,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>1253</v>
+        <v>1297</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5388,7 +5526,7 @@
         <v>1208</v>
       </c>
       <c r="E18" t="s">
-        <v>1254</v>
+        <v>1298</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -5417,7 +5555,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
+        <v>1299</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -5446,7 +5584,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>1255</v>
+        <v>1300</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -5475,7 +5613,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>1256</v>
+        <v>1301</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -5504,7 +5642,7 @@
         <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>1257</v>
+        <v>1302</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -5533,7 +5671,7 @@
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>1303</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -5562,7 +5700,7 @@
         <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>1258</v>
+        <v>320</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -5591,7 +5729,7 @@
         <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>1259</v>
+        <v>1304</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -5620,7 +5758,7 @@
         <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>1305</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -5649,7 +5787,7 @@
         <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>1260</v>
+        <v>1306</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -5678,7 +5816,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>1261</v>
+        <v>1307</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -5707,7 +5845,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>1262</v>
+        <v>1308</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -5736,7 +5874,7 @@
         <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>1263</v>
+        <v>1309</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -5765,7 +5903,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>1264</v>
+        <v>1310</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5794,7 +5932,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1265</v>
+        <v>1311</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -5823,7 +5961,7 @@
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>1120</v>
+        <v>1174</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -5852,7 +5990,7 @@
         <v>1220</v>
       </c>
       <c r="E34" t="s">
-        <v>1266</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -5881,7 +6019,7 @@
         <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>1267</v>
+        <v>1313</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
@@ -5910,7 +6048,7 @@
         <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>1268</v>
+        <v>1314</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -5939,7 +6077,7 @@
         <v>1222</v>
       </c>
       <c r="E37" t="s">
-        <v>1269</v>
+        <v>1315</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -5968,7 +6106,7 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>1125</v>
+        <v>1179</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -5997,7 +6135,7 @@
         <v>1225</v>
       </c>
       <c r="E39" t="s">
-        <v>1270</v>
+        <v>1316</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -6026,7 +6164,7 @@
         <v>1226</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -6055,7 +6193,7 @@
         <v>1227</v>
       </c>
       <c r="E41" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -6084,7 +6222,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1271</v>
+        <v>1317</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -6142,7 +6280,7 @@
         <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>1272</v>
+        <v>1318</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -6171,7 +6309,7 @@
         <v>1230</v>
       </c>
       <c r="E45" t="s">
-        <v>1273</v>
+        <v>1319</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -6200,7 +6338,7 @@
         <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>1274</v>
+        <v>342</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -6229,7 +6367,7 @@
         <v>1231</v>
       </c>
       <c r="E47" t="s">
-        <v>1275</v>
+        <v>1320</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -6258,7 +6396,7 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>1276</v>
+        <v>1321</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -6287,7 +6425,7 @@
         <v>1233</v>
       </c>
       <c r="E49" t="s">
-        <v>1277</v>
+        <v>1322</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -6316,7 +6454,7 @@
         <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>1278</v>
+        <v>1323</v>
       </c>
       <c r="F50" t="s">
         <v>48</v>
@@ -6345,7 +6483,7 @@
         <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>1279</v>
+        <v>1324</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -6374,7 +6512,7 @@
         <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>1280</v>
+        <v>1325</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -6403,7 +6541,7 @@
         <v>1236</v>
       </c>
       <c r="E53" t="s">
-        <v>1281</v>
+        <v>1326</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -6432,7 +6570,7 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>1140</v>
+        <v>1194</v>
       </c>
       <c r="F54" t="s">
         <v>52</v>
@@ -6461,7 +6599,7 @@
         <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>301</v>
+        <v>1327</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -6490,7 +6628,7 @@
         <v>1238</v>
       </c>
       <c r="E56" t="s">
-        <v>1282</v>
+        <v>1328</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8283" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10523" uniqueCount="1541">
   <si>
     <t>Doi</t>
   </si>
@@ -4722,6 +4722,642 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%3,   Tuantuan%Li%NULL%1,   Mingfeng%Han%NULL%1,   Xiuyong%Li%NULL%1,   Dong%Wu%NULL%1,   Yuanhong%Xu%NULL%1,   Yulin%Zhu%NULL%1,   Yan%Liu%NULL%1,   Xiaowu%Wang%wangxiaowu19880218@126.com%1,   Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,    Yeming%Wang%NULL%2,    Xingwang%Li%NULL%1,    Lili%Ren%NULL%1,    Jianping%Zhao%NULL%1,    Yi%Hu%NULL%3,    Li%Zhang%NULL%3,    Guohui%Fan%NULL%2,    Jiuyang%Xu%NULL%2,    Xiaoying%Gu%NULL%2,    Zhenshun%Cheng%NULL%2,    Ting%Yu%NULL%4,    Jiaan%Xia%NULL%1,    Yuan%Wei%NULL%3,    Wenjuan%Wu%NULL%1,    Xuelei%Xie%NULL%1,    Wen%Yin%NULL%1,    Hui%Li%NULL%3,    Min%Liu%NULL%1,    Yan%Xiao%NULL%2,    Hong%Gao%NULL%2,    Li%Guo%NULL%2,    Jungang%Xie%NULL%1,    Guangfa%Wang%NULL%1,    Rongmeng%Jiang%NULL%1,    Zhancheng%Gao%NULL%1,    Qi%Jin%NULL%2,    Jianwei%Wang%wangjw28@163.com%1,    Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,    Shuofeng%Yuan%NULL%1,    Kin-Hang%Kok%NULL%1,    Kelvin Kai-Wang%To%NULL%1,    Hin%Chu%NULL%1,    Jin%Yang%NULL%1,    Fanfan%Xing%NULL%1,    Jieling%Liu%NULL%1,    Cyril Chik-Yan%Yip%NULL%1,    Rosana Wing-Shan%Poon%NULL%1,    Hoi-Wah%Tsoi%NULL%1,    Simon Kam-Fai%Lo%NULL%1,    Kwok-Hung%Chan%NULL%1,    Vincent Kwok-Man%Poon%NULL%1,    Wan-Mui%Chan%NULL%1,    Jonathan Daniel%Ip%NULL%1,    Jian-Piao%Cai%NULL%1,    Vincent Chi-Chung%Cheng%NULL%1,    Honglin%Chen%NULL%1,    Christopher Kim-Ming%Hui%NULL%1,    Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,    Xuhua%Guan%NULL%1,    Peng%Wu%NULL%1,    Xiaoye%Wang%NULL%1,    Lei%Zhou%NULL%1,    Yeqing%Tong%NULL%1,    Ruiqi%Ren%NULL%1,    Kathy S.M.%Leung%NULL%1,    Eric H.Y.%Lau%NULL%1,    Jessica Y.%Wong%NULL%1,    Xuesen%Xing%NULL%1,    Nijuan%Xiang%NULL%1,    Yang%Wu%NULL%1,    Chao%Li%NULL%1,    Qi%Chen%NULL%1,    Dan%Li%NULL%1,    Tian%Liu%NULL%1,    Jing%Zhao%NULL%1,    Man%Liu%NULL%1,    Wenxiao%Tu%NULL%1,    Chuding%Chen%NULL%1,    Lianmei%Jin%NULL%1,    Rui%Yang%NULL%1,    Qi%Wang%NULL%1,    Suhua%Zhou%NULL%1,    Rui%Wang%NULL%1,    Hui%Liu%NULL%1,    Yinbo%Luo%NULL%1,    Yuan%Liu%NULL%1,    Ge%Shao%NULL%1,    Huan%Li%NULL%1,    Zhongfa%Tao%NULL%1,    Yang%Yang%NULL%1,    Zhiqiang%Deng%NULL%1,    Boxi%Liu%NULL%1,    Zhitao%Ma%NULL%1,    Yanping%Zhang%NULL%1,    Guoqing%Shi%NULL%1,    Tommy T.Y.%Lam%NULL%1,    Joseph T.%Wu%NULL%1,    George F.%Gao%NULL%1,    Benjamin J.%Cowling%NULL%1,    Bo%Yang%NULL%2,    Bo%Yang%NULL%0,    Gabriel M.%Leung%NULL%1,    Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,    Min%Zhou%NULL%2,    Xuan%Dong%NULL%1,    Jieming%Qu%NULL%4,    Fengyun%Gong%NULL%1,    Yang%Han%NULL%1,    Yang%Qiu%NULL%1,    Jingli%Wang%NULL%1,    Ying%Liu%NULL%2,    Yuan%Wei%NULL%0,    Jia'an%Xia%NULL%2,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%1,    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,    Nannan%Shi%NULL%2,    Nannan%Shi%NULL%0,    Fei%Shan%NULL%2,    Zhiyong%Zhang%NULL%1,    Jie%Shen%NULL%1,    Hongzhou%Lu%NULL%5,    Yun%Ling%NULL%5,    Yebin%Jiang%NULL%2,    Yebin%Jiang%NULL%0,    Yuxin%Shi%shiyuxin@shphc.org.cn%4,    Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,    Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,    Yuan-Yuan%Fang%NULL%1,    Yan%Deng%NULL%2,    Wei%Liu%NULL%1,    Mei-Fang%Wang%NULL%1,    Jing-Ping%Ma%NULL%1,    Wei%Xiao%NULL%1,    Ying-Nan%Wang%NULL%1,    Min-Hua%Zhong%NULL%1,    Cheng-Hong%Li%NULL%1,    Guang-Cai%Li%NULL%1,    Hui-Guo%Liu%NULL%2,    Xiu-Yuan%Hao%NULL%4,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[De%Chang%xref no email%0, Minggui%Lin%xref no email%2, Lai%Wei%xref no email%2, Lixin%Xie%xref no email%2, Guangfa%Zhu%xref no email%2, Charles S.%Dela Cruz%xref no email%2, Lokesh%Sharma%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,     Yang%Yang%null%1,     Cong%Zhang%null%1,     Fengming%Huang%null%1,     Fuxiang%Wang%null%1,     Jing%Yuan%null%1,     Zhaoqin%Wang%null%1,     Jinxiu%Li%null%1,     Jianming%Li%null%1,     Cheng%Feng%null%1,     Zheng%Zhang%null%1,     Lifei%Wang%null%1,     Ling%Peng%null%1,     Li%Chen%null%1,     Yuhao%Qin%null%1,     Dandan%Zhao%null%1,     Shuguang%Tan%null%1,     Lu%Yin%null%1,     Jun%Xu%null%1,     Congzhao%Zhou%null%1,     Chengyu%Jiang%null%1,     Lei%Liu%null%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,    Ye-Ming%Wang%NULL%1,    Zhi-Qiang%Wu%NULL%1,    Zi-Chun%Xiang%NULL%1,    Li%Guo%NULL%0,    Teng%Xu%NULL%1,    Yong-Zhong%Jiang%NULL%1,    Yan%Xiong%NULL%1,    Yong-Jun%Li%NULL%1,    Xing-Wang%Li%NULL%1,    Hui%Li%NULL%0,    Guo-Hui%Fan%NULL%1,    Xiao-Ying%Gu%NULL%1,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Jiu-Yang%Xu%NULL%1,    Fan%Yang%NULL%1,    Xin-Ming%Wang%NULL%1,    Chao%Wu%NULL%1,    Lan%Chen%NULL%1,    Yi-Wei%Liu%NULL%1,    Bo%Liu%NULL%1,    Jian%Yang%NULL%1,    Xiao-Rui%Wang%NULL%1,    Jie%Dong%NULL%1,    Li%Li%NULL%5,    Chao-Lin%Huang%NULL%1,    Jian-Ping%Zhao%NULL%1,    Yi%Hu%NULL%0,    Zhen-Shun%Cheng%NULL%1,    Lin-Lin%Liu%NULL%1,    Zhao-Hui%Qian%NULL%1,    Chuan%Qin%NULL%1,    Qi%Jin%NULL%0,    Bin%Cao%NULL%0,    Jian-Wei%Wang%NULL%1,    Xiu-Yuan%Hao%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,    Dengju%Li%NULL%1,    Xiong%Wang%NULL%1,    Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,    Cao%Yi-yuan%coreGivesNoEmail%1,    Dong%Xiang%coreGivesNoEmail%1,    Gao%Ya-dong%coreGivesNoEmail%1,    Yan%You-qin%coreGivesNoEmail%1,    Yang%Yi-bin%coreGivesNoEmail%1,    Yuan%Ya-dong%coreGivesNoEmail%1,    Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,    Yuan%Yu%NULL%1,    Jiqian%Xu%NULL%1,    Huaqing%Shu%NULL%1,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%1,    Yongran%Wu%NULL%1,    Lu%Zhang%NULL%1,    Zhui%Yu%NULL%1,    Minghao%Fang%NULL%1,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%1,    Shangwen%Pan%NULL%1,    Xiaojing%Zou%NULL%1,    Shiying%Yuan%NULL%1,    You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,    Zhenlu%Yang%NULL%2,    Zhenlu%Yang%NULL%0,    Hongyan%Hou%NULL%2,    Hongyan%Hou%NULL%0,    Chenao%Zhan%NULL%1,    Chong%Chen%NULL%1,    Wenzhi%Lv%NULL%2,    Wenzhi%Lv%NULL%0,    Qian%Tao%NULL%2,    Qian%Tao%NULL%0,    Ziyong%Sun%NULL%0,    Ziyong%Sun%NULL%0,    Liming%Xia%xialiming2017@outlook.com%3]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%7,    Qiqi%Cao%NULL%2,    Le%Qin%NULL%2,    Xiaoyang%Wang%NULL%1,    Zenghui%Cheng%NULL%1,    Ashan%Pan%NULL%1,    Jianyi%Dai%NULL%1,    Qingfeng%Sun%NULL%1,    Fengquan%Zhao%NULL%1,    Jieming%Qu%NULL%0,    Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,    Nan%Hu%NULL%1,    Jing%Lou%NULL%1,    Kun%Chen%NULL%1,    Xuqin%Kang%NULL%1,    Zhenjun%Xiang%NULL%1,    Hui%Chen%NULL%1,    Dali%Wang%NULL%1,    Ning%Liu%NULL%1,    Dong%Liu%NULL%1,    Gang%Chen%NULL%1,    Yongliang%Zhang%NULL%1,    Dou%Li%NULL%1,    Jianren%Li%NULL%1,    Huixin%Lian%NULL%1,    Shengmei%Niu%NULL%1,    Luxi%Zhang%NULL%1,    Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%9,    Zhao-Wu%Tao%NULL%1,    Lei%Wang%NULL%1,    Ming-Li%Yuan%NULL%1,    Kui%Liu%NULL%1,    Ling%Zhou%NULL%1,    Shuang%Wei%NULL%1,    Yan%Deng%NULL%0,    Jing%Liu%NULL%1,    Hui-Guo%Liu%NULL%0,    Ming%Yang%NULL%1,    Yi%Hu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,    Jun%Liu%NULL%3,    Xinguo%Zhao%NULL%1,    Chengyuan%Liu%NULL%1,    Wei%Wang%NULL%1,    Dawei%Wang%NULL%1,    Wei%Xu%NULL%2,    Chunyu%Zhang%NULL%1,    Jiong%Yu%NULL%1,    Bin%Jiang%NULL%1,    Hongcui%Cao%hccao@zju.edu.cn%1,    Lanjuan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,    Xiaorong%Hu%NULL%1,    Wenlin%Cheng%NULL%2,    Lei%Yu%NULL%2,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,    Qiang%Liu%liuqiang@irm-cams.ac.cn%3,    Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,    Kun%Yang%NULL%2,    Kun%Yang%NULL%0,    Wenxia%Wang%NULL%2,    Wenxia%Wang%NULL%0,    Lingyu%Jiang%NULL%2,    Lingyu%Jiang%NULL%0,    Jianxin%Song%songsingsjx@sina.com%2,    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%0, Zheng%Zhong%xref no email%1, Xingzhi%Xie%xref no email%0, Qizhi%Yu%xref no email%1, Jun%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Roentgen Ray Society</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,    Meiwen%Tang%NULL%1,    Xiaobin%Zheng%NULL%2,    Ye%Liu%ly77219@163.com%1,    Xiaofeng%Li%zdwylxf@163.com%1,    Hong%Shan%shanhong@mail.sysu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,    Dong%Sun%NULL%1,    Yao%Liu%NULL%1,    Yanqing%Fan%NULL%0,    Lingyun%Zhao%NULL%1,    Xiaoming%Li%NULL%1,    Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%6, Shirin%Kalimuddin%xref no email%6, Jenny G.%Low%xref no email%6, Seow Yen%Tan%xref no email%6, Jiashen%Loh%xref no email%6, Oon-Tek%Ng%xref no email%6, Kalisvar%Marimuthu%xref no email%6, Li Wei%Ang%xref no email%6, Tze Minn%Mak%xref no email%6, Sok Kiang%Lau%xref no email%6, Danielle E.%Anderson%xref no email%6, Kian Sing%Chan%xref no email%6, Thean Yen%Tan%xref no email%6, Tong Yong%Ng%xref no email%6, Lin%Cui%xref no email%6, Zubaidah%Said%xref no email%6, Lalitha%Kurupatham%xref no email%6, Mark I-Cheng%Chen%xref no email%6, Monica%Chan%xref no email%6, Shawn%Vasoo%xref no email%6, Lin-Fa%Wang%xref no email%6, Boon Huan%Tan%xref no email%6, Raymond Tzer Pin%Lin%xref no email%6, Vernon Jian Ming%Lee%xref no email%6, Yee-Sin%Leo%xref no email%6, David Chien%Lye%xref no email%6]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,    SaiBin%Wang%NULL%2,    SaiBin%Wang%NULL%0,    YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%0, Liming%Xia%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,    Ci%Song%NULL%1,    Chuanjun%Xu%NULL%1,    Guangfu%Jin%NULL%1,    Yaling%Chen%NULL%1,    Xin%Xu%NULL%1,    Hongxia%Ma%NULL%1,    Wei%Chen%NULL%1,    Yuan%Lin%NULL%1,    Yishan%Zheng%NULL%2,    Jianming%Wang%NULL%1,    Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,    Yongxiang%Yi%ian0126@126.com%1,    Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,    Yao%Tian%NULL%2,    Yao%Tian%NULL%0,    Jing%Zhou%NULL%1,    Xuan%Ma%NULL%1,    Min%Yang%NULL%1,    ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,    James%Fielding%NULL%1,    Michaela%Diercke%NULL%1,    Christine%Campese%NULL%1,    Vincent%Enouf%NULL%1,    Alexandre%Gaymard%NULL%1,    Antonino%Bella%NULL%1,    Paola%Sognamiglio%NULL%1,    Maria José%Sierra Moros%NULL%1,    Antonio Nicolau%Riutort%NULL%1,    Yulia V.%Demina%NULL%1,    Romain%Mahieu%NULL%1,    Markku%Broas%NULL%1,    Malin%Bengnér%NULL%1,    Silke%Buda%NULL%1,    Julia%Schilling%NULL%1,    Laurent%Filleul%NULL%1,    Agnès%Lepoutre%NULL%1,    Christine%Saura%NULL%1,    Alexandra%Mailles%NULL%1,    Daniel%Levy-Bruhl%NULL%1,    Bruno%Coignard%NULL%1,    Sibylle%Bernard-Stoecklin%NULL%1,    Sylvie%Behillil%NULL%1,    Sylvie%van der Werf%NULL%1,    Martine%Valette%NULL%1,    Bruno%Lina%NULL%1,    Flavia%Riccardo%NULL%1,    Emanuele%Nicastri%NULL%1,    Inmaculada%Casas%NULL%1,    Amparo%Larrauri%NULL%1,    Magdalena%Salom Castell%NULL%1,    Francisco%Pozo%NULL%1,    Rinat A.%Maksyutov%NULL%1,    Charlotte%Martin%NULL%1,    Marc%Van Ranst%NULL%1,    Nathalie%Bossuyt%NULL%1,    Lotta%Siira%NULL%1,    Jussi%Sane%NULL%1,    Karin%Tegmark-Wisell%NULL%1,    Maria%Palmérus%NULL%1,    Eeva K.%Broberg%NULL%1,    Julien%Beauté%NULL%1,    Pernille%Jorgensen%NULL%1,    Nick%Bundle%NULL%1,    Dmitriy%Pereyaslov%NULL%1,    Cornelia%Adlhoch%NULL%1,    Jukka%Pukkila%NULL%1,    Richard%Pebody%NULL%1,    Sonja%Olsen%NULL%1,    Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%1,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%1,    Jie%Xiang%NULL%1,    Yeming%Wang%NULL%0,    Bin%Song%NULL%1,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%1,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%1,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%1,    Yi%Zhang%NULL%1,    Hua%Chen%NULL%1,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Australian Government Department of Health</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%5,    Tangkai%Qi%NULL%1,    Li%Liu%NULL%2,    Yun%Ling%NULL%0,    Zhiping%Qian%NULL%2,    Tao%Li%NULL%3,    Feng%Li%NULL%3,    Qingnian%Xu%NULL%2,    Yuyi%Zhang%NULL%2,    Shuibao%Xu%NULL%1,    Zhigang%Song%NULL%2,    Yigang%Zeng%NULL%1,    Yinzhong%Shen%NULL%1,    Yuxin%Shi%NULL%0,    Tongyu%Zhu%NULL%2,    Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,    Bin%Quan%NULL%1,    Xiaoning%Li%NULL%1,    Guangjian%Gao%NULL%1,    Wenqiang%Zheng%NULL%1,    Jun%Zhang%NULL%1,    Zhiyun%Zhang%NULL%1,    Chunsheng%Liu%NULL%1,    Li%Li%NULL%0,    Chenglin%Wang%NULL%1,    Guihua%Zhang%NULL%1,    Jiajia%Li%NULL%1,    Yunhai%Dai%NULL%1,    Jianghua%Yang%yjhpath@163.com%1,    Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%9, Yanping%Cai%xref no email%9, Jia\u2019an%Xia%xref no email%9, Xing%Zhou%xref no email%9, Sha%Xu%xref no email%9, Hanping%Huang%xref no email%9, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%9, Chunling%Du%xref no email%9, Yuye%Zhang%xref no email%9, Juan%Song%xref no email%10, Sijiao%Wang%xref no email%9, Yencheng%Chao%xref no email%9, Zeyong%Yang%xref no email%9, Jie%Xu%xref no email%9, Xin%Zhou%xref no email%9, Dechang%Chen%xref no email%9, Weining%Xiong%xref no email%9, Lei%Xu%xref no email%9, Feng%Zhou%xref no email%9, Jinjun%Jiang%xref no email%9, Chunxue%Bai%xref no email%9, Junhua%Zheng%xref no email%9, Yuanlin%Song%xref no email%10]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,    Kai%Xie%NULL%2,    Kai%Xie%NULL%0,    Hui%Lu%NULL%1,    Lei%Xu%bayinhexl@126.com%0,    Shusheng%Zhou%zhouss108@163.com%1,    Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0, Yong%Lu%xref no email%3, Qiqi%Cao%xref no email%3, Le%Qin%xref no email%3, Zilai%Pan%xref no email%3, Fuhua%Yan%xref no email%3, Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,    Yuanyuan%Xing%NULL%1,    Yu%Xiao%NULL%1,    Liping%Deng%NULL%1,    Qiu%Zhao%NULL%1,    Hongling%Wang%NULL%1,    Yong%Xiong%NULL%1,    Zhenshun%Cheng%NULL%0,    Shicheng%Gao%NULL%1,    Ke%Liang%NULL%1,    Mingqi%Luo%NULL%1,    Tielong%Chen%NULL%1,    Shihui%Song%NULL%1,    Zhiyong%Ma%NULL%1,    Xiaoping%Chen%NULL%1,    Ruiying%Zheng%NULL%1,    Qian%Cao%NULL%1,    Fan%Wang%fanndywang@foxmail.com%1,    Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,    Yingxia%Liu%NULL%2,    Lei%Liu%NULL%2,    Xianfeng%Wang%NULL%1,    Nijuan%Luo%NULL%1,    Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,    Tuantuan%Li%NULL%1,    Mingfeng%Han%NULL%1,    Xiuyong%Li%NULL%1,    Dong%Wu%NULL%1,    Yuanhong%Xu%NULL%1,    Yulin%Zhu%NULL%1,    Yan%Liu%NULL%1,    Xiaowu%Wang%wangxiaowu19880218@126.com%1,    Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,     Yeming%Wang%NULL%2,     Xingwang%Li%NULL%1,     Lili%Ren%NULL%1,     Jianping%Zhao%NULL%1,     Yi%Hu%NULL%3,     Li%Zhang%NULL%2,     Guohui%Fan%NULL%2,     Jiuyang%Xu%NULL%2,     Xiaoying%Gu%NULL%2,     Zhenshun%Cheng%NULL%2,     Ting%Yu%NULL%4,     Jiaan%Xia%NULL%1,     Yuan%Wei%NULL%3,     Wenjuan%Wu%NULL%1,     Xuelei%Xie%NULL%1,     Wen%Yin%NULL%1,     Hui%Li%NULL%3,     Min%Liu%NULL%1,     Yan%Xiao%NULL%2,     Hong%Gao%NULL%2,     Li%Guo%NULL%2,     Jungang%Xie%NULL%1,     Guangfa%Wang%NULL%1,     Rongmeng%Jiang%NULL%1,     Zhancheng%Gao%NULL%1,     Qi%Jin%NULL%2,     Jianwei%Wang%wangjw28@163.com%1,     Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,     Shuofeng%Yuan%NULL%1,     Kin-Hang%Kok%NULL%1,     Kelvin Kai-Wang%To%NULL%1,     Hin%Chu%NULL%1,     Jin%Yang%NULL%1,     Fanfan%Xing%NULL%1,     Jieling%Liu%NULL%1,     Cyril Chik-Yan%Yip%NULL%1,     Rosana Wing-Shan%Poon%NULL%1,     Hoi-Wah%Tsoi%NULL%1,     Simon Kam-Fai%Lo%NULL%1,     Kwok-Hung%Chan%NULL%1,     Vincent Kwok-Man%Poon%NULL%1,     Wan-Mui%Chan%NULL%1,     Jonathan Daniel%Ip%NULL%1,     Jian-Piao%Cai%NULL%1,     Vincent Chi-Chung%Cheng%NULL%1,     Honglin%Chen%NULL%1,     Christopher Kim-Ming%Hui%NULL%1,     Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,     Xuhua%Guan%NULL%1,     Peng%Wu%NULL%1,     Xiaoye%Wang%NULL%1,     Lei%Zhou%NULL%1,     Yeqing%Tong%NULL%1,     Ruiqi%Ren%NULL%1,     Kathy S.M.%Leung%NULL%1,     Eric H.Y.%Lau%NULL%1,     Jessica Y.%Wong%NULL%1,     Xuesen%Xing%NULL%1,     Nijuan%Xiang%NULL%1,     Yang%Wu%NULL%1,     Chao%Li%NULL%1,     Qi%Chen%NULL%1,     Dan%Li%NULL%1,     Tian%Liu%NULL%1,     Jing%Zhao%NULL%1,     Man%Liu%NULL%1,     Wenxiao%Tu%NULL%1,     Chuding%Chen%NULL%1,     Lianmei%Jin%NULL%1,     Rui%Yang%NULL%1,     Qi%Wang%NULL%1,     Suhua%Zhou%NULL%1,     Rui%Wang%NULL%1,     Hui%Liu%NULL%1,     Yinbo%Luo%NULL%1,     Yuan%Liu%NULL%1,     Ge%Shao%NULL%1,     Huan%Li%NULL%1,     Zhongfa%Tao%NULL%1,     Yang%Yang%NULL%1,     Zhiqiang%Deng%NULL%1,     Boxi%Liu%NULL%1,     Zhitao%Ma%NULL%1,     Yanping%Zhang%NULL%1,     Guoqing%Shi%NULL%1,     Tommy T.Y.%Lam%NULL%1,     Joseph T.%Wu%NULL%1,     George F.%Gao%NULL%1,     Benjamin J.%Cowling%NULL%1,     Bo%Yang%NULL%2,     Bo%Yang%NULL%0,     Gabriel M.%Leung%NULL%1,     Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,     Min%Zhou%NULL%1,     Xuan%Dong%NULL%1,     Jieming%Qu%NULL%2,     Fengyun%Gong%NULL%1,     Yang%Han%NULL%1,     Yang%Qiu%NULL%1,     Jingli%Wang%NULL%1,     Ying%Liu%NULL%2,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%2,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%1,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,     Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,     Yuan-Yuan%Fang%NULL%1,     Yan%Deng%NULL%2,     Wei%Liu%NULL%1,     Mei-Fang%Wang%NULL%1,     Jing-Ping%Ma%NULL%1,     Wei%Xiao%NULL%1,     Ying-Nan%Wang%NULL%1,     Min-Hua%Zhong%NULL%1,     Cheng-Hong%Li%NULL%1,     Guang-Cai%Li%NULL%1,     Hui-Guo%Liu%NULL%2,     Xiu-Yuan%Hao%NULL%4,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,      Yang%Yang%null%1,      Cong%Zhang%null%1,      Fengming%Huang%null%1,      Fuxiang%Wang%null%1,      Jing%Yuan%null%1,      Zhaoqin%Wang%null%1,      Jinxiu%Li%null%1,      Jianming%Li%null%1,      Cheng%Feng%null%1,      Zheng%Zhang%null%1,      Lifei%Wang%null%1,      Ling%Peng%null%1,      Li%Chen%null%1,      Yuhao%Qin%null%1,      Dandan%Zhao%null%1,      Shuguang%Tan%null%1,      Lu%Yin%null%1,      Jun%Xu%null%1,      Congzhao%Zhou%null%1,      Chengyu%Jiang%null%1,      Lei%Liu%null%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,     Ye-Ming%Wang%NULL%1,     Zhi-Qiang%Wu%NULL%1,     Zi-Chun%Xiang%NULL%1,     Li%Guo%NULL%0,     Teng%Xu%NULL%1,     Yong-Zhong%Jiang%NULL%1,     Yan%Xiong%NULL%1,     Yong-Jun%Li%NULL%1,     Xing-Wang%Li%NULL%1,     Hui%Li%NULL%0,     Guo-Hui%Fan%NULL%1,     Xiao-Ying%Gu%NULL%1,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Jiu-Yang%Xu%NULL%1,     Fan%Yang%NULL%1,     Xin-Ming%Wang%NULL%1,     Chao%Wu%NULL%1,     Lan%Chen%NULL%1,     Yi-Wei%Liu%NULL%1,     Bo%Liu%NULL%1,     Jian%Yang%NULL%1,     Xiao-Rui%Wang%NULL%1,     Jie%Dong%NULL%1,     Li%Li%NULL%2,     Chao-Lin%Huang%NULL%1,     Jian-Ping%Zhao%NULL%1,     Yi%Hu%NULL%0,     Zhen-Shun%Cheng%NULL%1,     Lin-Lin%Liu%NULL%1,     Zhao-Hui%Qian%NULL%1,     Chuan%Qin%NULL%1,     Qi%Jin%NULL%0,     Bin%Cao%NULL%0,     Jian-Wei%Wang%NULL%1,     Xiu-Yuan%Hao%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,     Dengju%Li%NULL%1,     Xiong%Wang%NULL%1,     Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,     Cao%Yi-yuan%coreGivesNoEmail%1,     Dong%Xiang%coreGivesNoEmail%1,     Gao%Ya-dong%coreGivesNoEmail%1,     Yan%You-qin%coreGivesNoEmail%1,     Yang%Yi-bin%coreGivesNoEmail%1,     Yuan%Ya-dong%coreGivesNoEmail%1,     Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,     Yuan%Yu%NULL%1,     Jiqian%Xu%NULL%1,     Huaqing%Shu%NULL%1,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%1,     Yongran%Wu%NULL%1,     Lu%Zhang%NULL%1,     Zhui%Yu%NULL%1,     Minghao%Fang%NULL%1,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%1,     Shangwen%Pan%NULL%1,     Xiaojing%Zou%NULL%1,     Shiying%Yuan%NULL%1,     You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,     Zhenlu%Yang%NULL%2,     Zhenlu%Yang%NULL%0,     Hongyan%Hou%NULL%2,     Hongyan%Hou%NULL%0,     Chenao%Zhan%NULL%1,     Chong%Chen%NULL%1,     Wenzhi%Lv%NULL%2,     Wenzhi%Lv%NULL%0,     Qian%Tao%NULL%2,     Qian%Tao%NULL%0,     Ziyong%Sun%NULL%0,     Ziyong%Sun%NULL%0,     Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,     Nan%Hu%NULL%1,     Jing%Lou%NULL%1,     Kun%Chen%NULL%1,     Xuqin%Kang%NULL%1,     Zhenjun%Xiang%NULL%1,     Hui%Chen%NULL%1,     Dali%Wang%NULL%1,     Ning%Liu%NULL%1,     Dong%Liu%NULL%1,     Gang%Chen%NULL%1,     Yongliang%Zhang%NULL%1,     Dou%Li%NULL%1,     Jianren%Li%NULL%1,     Huixin%Lian%NULL%1,     Shengmei%Niu%NULL%1,     Luxi%Zhang%NULL%1,     Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,     Zhao-Wu%Tao%NULL%1,     Lei%Wang%NULL%1,     Ming-Li%Yuan%NULL%1,     Kui%Liu%NULL%1,     Ling%Zhou%NULL%1,     Shuang%Wei%NULL%1,     Yan%Deng%NULL%0,     Jing%Liu%NULL%1,     Hui-Guo%Liu%NULL%0,     Ming%Yang%NULL%1,     Yi%Hu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,     Jun%Liu%NULL%1,     Xinguo%Zhao%NULL%1,     Chengyuan%Liu%NULL%1,     Wei%Wang%NULL%1,     Dawei%Wang%NULL%1,     Wei%Xu%NULL%1,     Chunyu%Zhang%NULL%1,     Jiong%Yu%NULL%1,     Bin%Jiang%NULL%1,     Hongcui%Cao%hccao@zju.edu.cn%1,     Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,     Xiaorong%Hu%NULL%1,     Wenlin%Cheng%NULL%1,     Lei%Yu%NULL%1,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,     Qiang%Liu%liuqiang@irm-cams.ac.cn%2,     Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,     Kun%Yang%NULL%2,     Kun%Yang%NULL%0,     Wenxia%Wang%NULL%2,     Wenxia%Wang%NULL%0,     Lingyu%Jiang%NULL%2,     Lingyu%Jiang%NULL%0,     Jianxin%Song%songsingsjx@sina.com%2,     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1,  Zheng%Zhong%xref no email%1,  Xingzhi%Xie%xref no email%1,  Qizhi%Yu%xref no email%1,  Jun%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,     Meiwen%Tang%NULL%1,     Xiaobin%Zheng%NULL%1,     Ye%Liu%ly77219@163.com%1,     Xiaofeng%Li%zdwylxf@163.com%1,     Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,     Dong%Sun%NULL%1,     Yao%Liu%NULL%1,     Yanqing%Fan%NULL%0,     Lingyun%Zhao%NULL%1,     Xiaoming%Li%NULL%1,     Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,  Sean Wei Xiang%Ong%xref no email%6,  Shirin%Kalimuddin%xref no email%6,  Jenny G.%Low%xref no email%6,  Seow Yen%Tan%xref no email%6,  Jiashen%Loh%xref no email%6,  Oon-Tek%Ng%xref no email%6,  Kalisvar%Marimuthu%xref no email%6,  Li Wei%Ang%xref no email%6,  Tze Minn%Mak%xref no email%6,  Sok Kiang%Lau%xref no email%6,  Danielle E.%Anderson%xref no email%6,  Kian Sing%Chan%xref no email%6,  Thean Yen%Tan%xref no email%6,  Tong Yong%Ng%xref no email%6,  Lin%Cui%xref no email%6,  Zubaidah%Said%xref no email%6,  Lalitha%Kurupatham%xref no email%6,  Mark I-Cheng%Chen%xref no email%6,  Monica%Chan%xref no email%6,  Shawn%Vasoo%xref no email%6,  Lin-Fa%Wang%xref no email%6,  Boon Huan%Tan%xref no email%6,  Raymond Tzer Pin%Lin%xref no email%6,  Vernon Jian Ming%Lee%xref no email%6,  Yee-Sin%Leo%xref no email%6,  David Chien%Lye%xref no email%6]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,     SaiBin%Wang%NULL%2,     SaiBin%Wang%NULL%0,     YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,     Ci%Song%NULL%1,     Chuanjun%Xu%NULL%1,     Guangfu%Jin%NULL%1,     Yaling%Chen%NULL%1,     Xin%Xu%NULL%1,     Hongxia%Ma%NULL%1,     Wei%Chen%NULL%1,     Yuan%Lin%NULL%1,     Yishan%Zheng%NULL%1,     Jianming%Wang%NULL%1,     Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,     Yongxiang%Yi%ian0126@126.com%1,     Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,     Yao%Tian%NULL%2,     Yao%Tian%NULL%0,     Jing%Zhou%NULL%1,     Xuan%Ma%NULL%1,     Min%Yang%NULL%1,     ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,     James%Fielding%NULL%1,     Michaela%Diercke%NULL%1,     Christine%Campese%NULL%1,     Vincent%Enouf%NULL%1,     Alexandre%Gaymard%NULL%1,     Antonino%Bella%NULL%1,     Paola%Sognamiglio%NULL%1,     Maria José%Sierra Moros%NULL%1,     Antonio Nicolau%Riutort%NULL%1,     Yulia V.%Demina%NULL%1,     Romain%Mahieu%NULL%1,     Markku%Broas%NULL%1,     Malin%Bengnér%NULL%1,     Silke%Buda%NULL%1,     Julia%Schilling%NULL%1,     Laurent%Filleul%NULL%1,     Agnès%Lepoutre%NULL%1,     Christine%Saura%NULL%1,     Alexandra%Mailles%NULL%1,     Daniel%Levy-Bruhl%NULL%1,     Bruno%Coignard%NULL%1,     Sibylle%Bernard-Stoecklin%NULL%1,     Sylvie%Behillil%NULL%1,     Sylvie%van der Werf%NULL%1,     Martine%Valette%NULL%1,     Bruno%Lina%NULL%1,     Flavia%Riccardo%NULL%1,     Emanuele%Nicastri%NULL%1,     Inmaculada%Casas%NULL%1,     Amparo%Larrauri%NULL%1,     Magdalena%Salom Castell%NULL%1,     Francisco%Pozo%NULL%1,     Rinat A.%Maksyutov%NULL%1,     Charlotte%Martin%NULL%1,     Marc%Van Ranst%NULL%1,     Nathalie%Bossuyt%NULL%1,     Lotta%Siira%NULL%1,     Jussi%Sane%NULL%1,     Karin%Tegmark-Wisell%NULL%1,     Maria%Palmérus%NULL%1,     Eeva K.%Broberg%NULL%1,     Julien%Beauté%NULL%1,     Pernille%Jorgensen%NULL%1,     Nick%Bundle%NULL%1,     Dmitriy%Pereyaslov%NULL%1,     Cornelia%Adlhoch%NULL%1,     Jukka%Pukkila%NULL%1,     Richard%Pebody%NULL%1,     Sonja%Olsen%NULL%1,     Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%1,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%1,     Jie%Xiang%NULL%1,     Yeming%Wang%NULL%0,     Bin%Song%NULL%1,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%1,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%1,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%1,     Yi%Zhang%NULL%1,     Hua%Chen%NULL%1,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%5,     Tangkai%Qi%NULL%1,     Li%Liu%NULL%1,     Yun%Ling%NULL%0,     Zhiping%Qian%NULL%1,     Tao%Li%NULL%1,     Feng%Li%NULL%1,     Qingnian%Xu%NULL%1,     Yuyi%Zhang%NULL%1,     Shuibao%Xu%NULL%1,     Zhigang%Song%NULL%1,     Yigang%Zeng%NULL%1,     Yinzhong%Shen%NULL%1,     Yuxin%Shi%NULL%0,     Tongyu%Zhu%NULL%1,     Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,     Bin%Quan%NULL%1,     Xiaoning%Li%NULL%1,     Guangjian%Gao%NULL%1,     Wenqiang%Zheng%NULL%1,     Jun%Zhang%NULL%1,     Zhiyun%Zhang%NULL%1,     Chunsheng%Liu%NULL%1,     Li%Li%NULL%0,     Chenglin%Wang%NULL%1,     Guihua%Zhang%NULL%1,     Jiajia%Li%NULL%1,     Yunhai%Dai%NULL%1,     Jianghua%Yang%yjhpath@163.com%1,     Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,  Xiaoyan%Chen%xref no email%9,  Yanping%Cai%xref no email%9,  Jia\u2019an%Xia%xref no email%9,  Xing%Zhou%xref no email%9,  Sha%Xu%xref no email%9,  Hanping%Huang%xref no email%9,  Li%Zhang%xref no email%9,  Xia%Zhou%xref no email%9,  Chunling%Du%xref no email%9,  Yuye%Zhang%xref no email%9,  Juan%Song%xref no email%10,  Sijiao%Wang%xref no email%9,  Yencheng%Chao%xref no email%9,  Zeyong%Yang%xref no email%9,  Jie%Xu%xref no email%9,  Xin%Zhou%xref no email%9,  Dechang%Chen%xref no email%9,  Weining%Xiong%xref no email%9,  Lei%Xu%xref no email%9,  Feng%Zhou%xref no email%9,  Jinjun%Jiang%xref no email%9,  Chunxue%Bai%xref no email%9,  Junhua%Zheng%xref no email%9,  Yuanlin%Song%xref no email%10]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,     Kai%Xie%NULL%2,     Kai%Xie%NULL%0,     Hui%Lu%NULL%1,     Lei%Xu%bayinhexl@126.com%1,     Shusheng%Zhou%zhouss108@163.com%1,     Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,  Yong%Lu%xref no email%3,  Qiqi%Cao%xref no email%3,  Le%Qin%xref no email%3,  Zilai%Pan%xref no email%3,  Fuhua%Yan%xref no email%3,  Wenjie%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,     Yuanyuan%Xing%NULL%1,     Yu%Xiao%NULL%1,     Liping%Deng%NULL%1,     Qiu%Zhao%NULL%1,     Hongling%Wang%NULL%1,     Yong%Xiong%NULL%1,     Zhenshun%Cheng%NULL%0,     Shicheng%Gao%NULL%1,     Ke%Liang%NULL%1,     Mingqi%Luo%NULL%1,     Tielong%Chen%NULL%1,     Shihui%Song%NULL%1,     Zhiyong%Ma%NULL%1,     Xiaoping%Chen%NULL%1,     Ruiying%Zheng%NULL%1,     Qian%Cao%NULL%1,     Fan%Wang%fanndywang@foxmail.com%1,     Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,     Bohan%Yang%NULL%1,     Qianwen%Li%NULL%1,     Lu%Wen%NULL%1,     Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,     Yingxia%Liu%NULL%1,     Lei%Liu%NULL%1,     Xianfeng%Wang%NULL%1,     Nijuan%Luo%NULL%1,     Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,     Tuantuan%Li%NULL%1,     Mingfeng%Han%NULL%1,     Xiuyong%Li%NULL%1,     Dong%Wu%NULL%1,     Yuanhong%Xu%NULL%1,     Yulin%Zhu%NULL%1,     Yan%Liu%NULL%1,     Xiaowu%Wang%wangxiaowu19880218@126.com%1,     Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,      Yeming%Wang%NULL%2,      Xingwang%Li%NULL%1,      Lili%Ren%NULL%1,      Jianping%Zhao%NULL%1,      Yi%Hu%NULL%3,      Li%Zhang%NULL%2,      Guohui%Fan%NULL%2,      Jiuyang%Xu%NULL%2,      Xiaoying%Gu%NULL%2,      Zhenshun%Cheng%NULL%2,      Ting%Yu%NULL%4,      Jiaan%Xia%NULL%1,      Yuan%Wei%NULL%3,      Wenjuan%Wu%NULL%1,      Xuelei%Xie%NULL%1,      Wen%Yin%NULL%1,      Hui%Li%NULL%3,      Min%Liu%NULL%1,      Yan%Xiao%NULL%2,      Hong%Gao%NULL%2,      Li%Guo%NULL%2,      Jungang%Xie%NULL%1,      Guangfa%Wang%NULL%1,      Rongmeng%Jiang%NULL%1,      Zhancheng%Gao%NULL%1,      Qi%Jin%NULL%2,      Jianwei%Wang%wangjw28@163.com%1,      Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,      Shuofeng%Yuan%NULL%1,      Kin-Hang%Kok%NULL%1,      Kelvin Kai-Wang%To%NULL%1,      Hin%Chu%NULL%1,      Jin%Yang%NULL%1,      Fanfan%Xing%NULL%1,      Jieling%Liu%NULL%1,      Cyril Chik-Yan%Yip%NULL%1,      Rosana Wing-Shan%Poon%NULL%1,      Hoi-Wah%Tsoi%NULL%1,      Simon Kam-Fai%Lo%NULL%1,      Kwok-Hung%Chan%NULL%1,      Vincent Kwok-Man%Poon%NULL%1,      Wan-Mui%Chan%NULL%1,      Jonathan Daniel%Ip%NULL%1,      Jian-Piao%Cai%NULL%1,      Vincent Chi-Chung%Cheng%NULL%1,      Honglin%Chen%NULL%1,      Christopher Kim-Ming%Hui%NULL%1,      Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,      Xuhua%Guan%NULL%1,      Peng%Wu%NULL%1,      Xiaoye%Wang%NULL%1,      Lei%Zhou%NULL%1,      Yeqing%Tong%NULL%1,      Ruiqi%Ren%NULL%1,      Kathy S.M.%Leung%NULL%1,      Eric H.Y.%Lau%NULL%1,      Jessica Y.%Wong%NULL%1,      Xuesen%Xing%NULL%1,      Nijuan%Xiang%NULL%1,      Yang%Wu%NULL%1,      Chao%Li%NULL%1,      Qi%Chen%NULL%1,      Dan%Li%NULL%1,      Tian%Liu%NULL%1,      Jing%Zhao%NULL%1,      Man%Liu%NULL%1,      Wenxiao%Tu%NULL%1,      Chuding%Chen%NULL%1,      Lianmei%Jin%NULL%1,      Rui%Yang%NULL%1,      Qi%Wang%NULL%1,      Suhua%Zhou%NULL%1,      Rui%Wang%NULL%1,      Hui%Liu%NULL%1,      Yinbo%Luo%NULL%1,      Yuan%Liu%NULL%1,      Ge%Shao%NULL%1,      Huan%Li%NULL%1,      Zhongfa%Tao%NULL%1,      Yang%Yang%NULL%1,      Zhiqiang%Deng%NULL%1,      Boxi%Liu%NULL%1,      Zhitao%Ma%NULL%1,      Yanping%Zhang%NULL%1,      Guoqing%Shi%NULL%1,      Tommy T.Y.%Lam%NULL%1,      Joseph T.%Wu%NULL%1,      George F.%Gao%NULL%1,      Benjamin J.%Cowling%NULL%1,      Bo%Yang%NULL%2,      Bo%Yang%NULL%0,      Gabriel M.%Leung%NULL%1,      Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,      Min%Zhou%NULL%1,      Xuan%Dong%NULL%1,      Jieming%Qu%NULL%2,      Fengyun%Gong%NULL%1,      Yang%Han%NULL%1,      Yang%Qiu%NULL%1,      Jingli%Wang%NULL%1,      Ying%Liu%NULL%2,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%2,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%1,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,      Nannan%Shi%NULL%2,      Nannan%Shi%NULL%0,      Fei%Shan%NULL%1,      Zhiyong%Zhang%NULL%1,      Jie%Shen%NULL%1,      Hongzhou%Lu%NULL%2,      Yun%Ling%NULL%2,      Yebin%Jiang%NULL%2,      Yebin%Jiang%NULL%0,      Yuxin%Shi%shiyuxin@shphc.org.cn%3,      Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,      Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,      Yuan-Yuan%Fang%NULL%1,      Yan%Deng%NULL%2,      Wei%Liu%NULL%1,      Mei-Fang%Wang%NULL%1,      Jing-Ping%Ma%NULL%1,      Wei%Xiao%NULL%1,      Ying-Nan%Wang%NULL%1,      Min-Hua%Zhong%NULL%1,      Cheng-Hong%Li%NULL%1,      Guang-Cai%Li%NULL%1,      Hui-Guo%Liu%NULL%2,      Xiu-Yuan%Hao%NULL%4,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,       Yang%Yang%null%1,       Cong%Zhang%null%1,       Fengming%Huang%null%1,       Fuxiang%Wang%null%1,       Jing%Yuan%null%1,       Zhaoqin%Wang%null%1,       Jinxiu%Li%null%1,       Jianming%Li%null%1,       Cheng%Feng%null%1,       Zheng%Zhang%null%1,       Lifei%Wang%null%1,       Ling%Peng%null%1,       Li%Chen%null%1,       Yuhao%Qin%null%1,       Dandan%Zhao%null%1,       Shuguang%Tan%null%1,       Lu%Yin%null%1,       Jun%Xu%null%1,       Congzhao%Zhou%null%1,       Chengyu%Jiang%null%1,       Lei%Liu%null%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,      Ye-Ming%Wang%NULL%1,      Zhi-Qiang%Wu%NULL%1,      Zi-Chun%Xiang%NULL%1,      Li%Guo%NULL%0,      Teng%Xu%NULL%1,      Yong-Zhong%Jiang%NULL%1,      Yan%Xiong%NULL%1,      Yong-Jun%Li%NULL%1,      Xing-Wang%Li%NULL%1,      Hui%Li%NULL%0,      Guo-Hui%Fan%NULL%1,      Xiao-Ying%Gu%NULL%1,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Jiu-Yang%Xu%NULL%1,      Fan%Yang%NULL%1,      Xin-Ming%Wang%NULL%1,      Chao%Wu%NULL%1,      Lan%Chen%NULL%1,      Yi-Wei%Liu%NULL%1,      Bo%Liu%NULL%1,      Jian%Yang%NULL%1,      Xiao-Rui%Wang%NULL%1,      Jie%Dong%NULL%1,      Li%Li%NULL%2,      Chao-Lin%Huang%NULL%1,      Jian-Ping%Zhao%NULL%1,      Yi%Hu%NULL%0,      Zhen-Shun%Cheng%NULL%1,      Lin-Lin%Liu%NULL%1,      Zhao-Hui%Qian%NULL%1,      Chuan%Qin%NULL%1,      Qi%Jin%NULL%0,      Bin%Cao%NULL%0,      Jian-Wei%Wang%NULL%1,      Xiu-Yuan%Hao%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,      Cao%Yi-yuan%coreGivesNoEmail%1,      Dong%Xiang%coreGivesNoEmail%1,      Gao%Ya-dong%coreGivesNoEmail%1,      Yan%You-qin%coreGivesNoEmail%1,      Yang%Yi-bin%coreGivesNoEmail%1,      Yuan%Ya-dong%coreGivesNoEmail%1,      Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,      Xiao-Xin%Wu%NULL%1,      Xian-Gao%Jiang%NULL%1,      Kai-Jin%Xu%NULL%1,      Ling-Jun%Ying%NULL%1,      Chun-Lian%Ma%NULL%1,      Shi-Bo%Li%NULL%1,      Hua-Ying%Wang%NULL%1,      Sheng%Zhang%NULL%1,      Hai-Nv%Gao%NULL%1,      Ji-Fang%Sheng%NULL%1,      Hong-Liu%Cai%NULL%1,      Yun-Qing%Qiu%NULL%1,      Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,      Xiaojia%Wu%NULL%1,      Wenbing%Zeng%NULL%1,      Dajing%Guo%NULL%2,      Zheng%Fang%NULL%2,      Linli%Chen%NULL%2,      Huizhe%Huang%NULL%1,      Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,      Yuan%Yu%NULL%1,      Jiqian%Xu%NULL%1,      Huaqing%Shu%NULL%1,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%1,      Yongran%Wu%NULL%1,      Lu%Zhang%NULL%1,      Zhui%Yu%NULL%1,      Minghao%Fang%NULL%1,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%1,      Shangwen%Pan%NULL%1,      Xiaojing%Zou%NULL%1,      Shiying%Yuan%NULL%1,      You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,      Jing-Hui%Dong%NULL%1,      Wei-Min%An%NULL%1,      Xiao-Yan%Lv%15001008285@139.com%1,      Xiao-Ping%Yin%yinxiaoping78@sina.com%1,      Jian-Zeng%Zhang%NULL%1,      Li%Dong%NULL%1,      Xi%Ma%NULL%1,      Hong-Jie%Zhang%NULL%1,      Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,      Zhenlu%Yang%NULL%2,      Zhenlu%Yang%NULL%0,      Hongyan%Hou%NULL%2,      Hongyan%Hou%NULL%0,      Chenao%Zhan%NULL%1,      Chong%Chen%NULL%1,      Wenzhi%Lv%NULL%2,      Wenzhi%Lv%NULL%0,      Qian%Tao%NULL%2,      Qian%Tao%NULL%0,      Ziyong%Sun%NULL%0,      Ziyong%Sun%NULL%0,      Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,      Qiqi%Cao%NULL%1,      Le%Qin%NULL%1,      Xiaoyang%Wang%NULL%1,      Zenghui%Cheng%NULL%1,      Ashan%Pan%NULL%1,      Jianyi%Dai%NULL%1,      Qingfeng%Sun%NULL%1,      Fengquan%Zhao%NULL%1,      Jieming%Qu%NULL%0,      Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,      Nan%Hu%NULL%1,      Jing%Lou%NULL%1,      Kun%Chen%NULL%1,      Xuqin%Kang%NULL%1,      Zhenjun%Xiang%NULL%1,      Hui%Chen%NULL%1,      Dali%Wang%NULL%1,      Ning%Liu%NULL%1,      Dong%Liu%NULL%1,      Gang%Chen%NULL%1,      Yongliang%Zhang%NULL%1,      Dou%Li%NULL%1,      Jianren%Li%NULL%1,      Huixin%Lian%NULL%1,      Shengmei%Niu%NULL%1,      Luxi%Zhang%NULL%1,      Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,      Mengqi%Tu%NULL%1,      Shipei%Wang%NULL%1,      Sichao%Chen%NULL%1,      Wei%Zhou%NULL%1,      Danyang%Chen%NULL%1,      Lin%Zhou%NULL%1,      Min%Wang%NULL%1,      Yan%Zhao%NULL%1,      Wen%Zeng%NULL%1,      Qi%Huang%NULL%1,      Hai'bo%Xu%NULL%1,      Zeming%Liu%NULL%1,      Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,      Chengcheng%Yu%NULL%1,      Jing%Qu%NULL%1,      Lieguang%Zhang%NULL%1,      Songfeng%Jiang%NULL%1,      Deyang%Huang%NULL%1,      Bihua%Chen%NULL%1,      Zhiping%Zhang%NULL%1,      Wanhua%Guan%NULL%1,      Zhoukun%Ling%NULL%1,      Rui%Jiang%NULL%1,      Tianli%Hu%NULL%1,      Yan%Ding%NULL%1,      Lin%Lin%NULL%1,      Qingxin%Gan%NULL%1,      Liangping%Luo%tluolp@jnu.edu.cn%1,      Xiaoping%Tang%xtang@21cn.com%1,      Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,      Zhao-Wu%Tao%NULL%1,      Lei%Wang%NULL%1,      Ming-Li%Yuan%NULL%1,      Kui%Liu%NULL%1,      Ling%Zhou%NULL%1,      Shuang%Wei%NULL%1,      Yan%Deng%NULL%0,      Jing%Liu%NULL%1,      Hui-Guo%Liu%NULL%0,      Ming%Yang%NULL%1,      Yi%Hu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,      Jiong%Wu%NULL%1,      Faqi%Wu%NULL%1,      Dajing%Guo%NULL%0,      Linli%Chen%NULL%0,      Zheng%Fang%NULL%0,      Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,      Jun%Liu%NULL%1,      Xinguo%Zhao%NULL%1,      Chengyuan%Liu%NULL%1,      Wei%Wang%NULL%1,      Dawei%Wang%NULL%1,      Wei%Xu%NULL%1,      Chunyu%Zhang%NULL%1,      Jiong%Yu%NULL%1,      Bin%Jiang%NULL%1,      Hongcui%Cao%hccao@zju.edu.cn%1,      Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,      Xiaorong%Hu%NULL%1,      Wenlin%Cheng%NULL%1,      Lei%Yu%NULL%1,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,      Qiang%Liu%liuqiang@irm-cams.ac.cn%2,      Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,      Kun%Yang%NULL%2,      Kun%Yang%NULL%0,      Wenxia%Wang%NULL%2,      Wenxia%Wang%NULL%0,      Lingyu%Jiang%NULL%2,      Lingyu%Jiang%NULL%0,      Jianxin%Song%songsingsjx@sina.com%2,      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1,   Zheng%Zhong%xref no email%1,   Xingzhi%Xie%xref no email%1,   Qizhi%Yu%xref no email%1,   Jun%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,      Meiwen%Tang%NULL%1,      Xiaobin%Zheng%NULL%1,      Ye%Liu%ly77219@163.com%1,      Xiaofeng%Li%zdwylxf@163.com%1,      Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,      Dong%Sun%NULL%1,      Yao%Liu%NULL%1,      Yanqing%Fan%NULL%0,      Lingyun%Zhao%NULL%1,      Xiaoming%Li%NULL%1,      Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,   Sean Wei Xiang%Ong%xref no email%6,   Shirin%Kalimuddin%xref no email%6,   Jenny G.%Low%xref no email%6,   Seow Yen%Tan%xref no email%6,   Jiashen%Loh%xref no email%6,   Oon-Tek%Ng%xref no email%6,   Kalisvar%Marimuthu%xref no email%6,   Li Wei%Ang%xref no email%6,   Tze Minn%Mak%xref no email%6,   Sok Kiang%Lau%xref no email%6,   Danielle E.%Anderson%xref no email%6,   Kian Sing%Chan%xref no email%6,   Thean Yen%Tan%xref no email%6,   Tong Yong%Ng%xref no email%6,   Lin%Cui%xref no email%6,   Zubaidah%Said%xref no email%6,   Lalitha%Kurupatham%xref no email%6,   Mark I-Cheng%Chen%xref no email%6,   Monica%Chan%xref no email%6,   Shawn%Vasoo%xref no email%6,   Lin-Fa%Wang%xref no email%6,   Boon Huan%Tan%xref no email%6,   Raymond Tzer Pin%Lin%xref no email%6,   Vernon Jian Ming%Lee%xref no email%6,   Yee-Sin%Leo%xref no email%6,   David Chien%Lye%xref no email%6]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,      SaiBin%Wang%NULL%2,      SaiBin%Wang%NULL%0,      YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,      Ci%Song%NULL%1,      Chuanjun%Xu%NULL%1,      Guangfu%Jin%NULL%1,      Yaling%Chen%NULL%1,      Xin%Xu%NULL%1,      Hongxia%Ma%NULL%1,      Wei%Chen%NULL%1,      Yuan%Lin%NULL%1,      Yishan%Zheng%NULL%1,      Jianming%Wang%NULL%1,      Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,      Yongxiang%Yi%ian0126@126.com%1,      Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,      Yao%Tian%NULL%2,      Yao%Tian%NULL%0,      Jing%Zhou%NULL%1,      Xuan%Ma%NULL%1,      Min%Yang%NULL%1,      ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,      James%Fielding%NULL%1,      Michaela%Diercke%NULL%1,      Christine%Campese%NULL%1,      Vincent%Enouf%NULL%1,      Alexandre%Gaymard%NULL%1,      Antonino%Bella%NULL%1,      Paola%Sognamiglio%NULL%1,      Maria José%Sierra Moros%NULL%1,      Antonio Nicolau%Riutort%NULL%1,      Yulia V.%Demina%NULL%1,      Romain%Mahieu%NULL%1,      Markku%Broas%NULL%1,      Malin%Bengnér%NULL%1,      Silke%Buda%NULL%1,      Julia%Schilling%NULL%1,      Laurent%Filleul%NULL%1,      Agnès%Lepoutre%NULL%1,      Christine%Saura%NULL%1,      Alexandra%Mailles%NULL%1,      Daniel%Levy-Bruhl%NULL%1,      Bruno%Coignard%NULL%1,      Sibylle%Bernard-Stoecklin%NULL%1,      Sylvie%Behillil%NULL%1,      Sylvie%van der Werf%NULL%1,      Martine%Valette%NULL%1,      Bruno%Lina%NULL%1,      Flavia%Riccardo%NULL%1,      Emanuele%Nicastri%NULL%1,      Inmaculada%Casas%NULL%1,      Amparo%Larrauri%NULL%1,      Magdalena%Salom Castell%NULL%1,      Francisco%Pozo%NULL%1,      Rinat A.%Maksyutov%NULL%1,      Charlotte%Martin%NULL%1,      Marc%Van Ranst%NULL%1,      Nathalie%Bossuyt%NULL%1,      Lotta%Siira%NULL%1,      Jussi%Sane%NULL%1,      Karin%Tegmark-Wisell%NULL%1,      Maria%Palmérus%NULL%1,      Eeva K.%Broberg%NULL%1,      Julien%Beauté%NULL%1,      Pernille%Jorgensen%NULL%1,      Nick%Bundle%NULL%1,      Dmitriy%Pereyaslov%NULL%1,      Cornelia%Adlhoch%NULL%1,      Jukka%Pukkila%NULL%1,      Richard%Pebody%NULL%1,      Sonja%Olsen%NULL%1,      Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%1,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%1,      Jie%Xiang%NULL%1,      Yeming%Wang%NULL%0,      Bin%Song%NULL%1,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%1,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%1,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%1,      Yi%Zhang%NULL%1,      Hua%Chen%NULL%1,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%5,      Tangkai%Qi%NULL%1,      Li%Liu%NULL%1,      Yun%Ling%NULL%0,      Zhiping%Qian%NULL%1,      Tao%Li%NULL%1,      Feng%Li%NULL%1,      Qingnian%Xu%NULL%1,      Yuyi%Zhang%NULL%1,      Shuibao%Xu%NULL%1,      Zhigang%Song%NULL%1,      Yigang%Zeng%NULL%1,      Yinzhong%Shen%NULL%1,      Yuxin%Shi%NULL%0,      Tongyu%Zhu%NULL%1,      Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,      Bin%Quan%NULL%1,      Xiaoning%Li%NULL%1,      Guangjian%Gao%NULL%1,      Wenqiang%Zheng%NULL%1,      Jun%Zhang%NULL%1,      Zhiyun%Zhang%NULL%1,      Chunsheng%Liu%NULL%1,      Li%Li%NULL%0,      Chenglin%Wang%NULL%1,      Guihua%Zhang%NULL%1,      Jiajia%Li%NULL%1,      Yunhai%Dai%NULL%1,      Jianghua%Yang%yjhpath@163.com%1,      Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,   Xiaoyan%Chen%xref no email%9,   Yanping%Cai%xref no email%9,   Jia\u2019an%Xia%xref no email%9,   Xing%Zhou%xref no email%9,   Sha%Xu%xref no email%9,   Hanping%Huang%xref no email%9,   Li%Zhang%xref no email%9,   Xia%Zhou%xref no email%9,   Chunling%Du%xref no email%9,   Yuye%Zhang%xref no email%9,   Juan%Song%xref no email%10,   Sijiao%Wang%xref no email%9,   Yencheng%Chao%xref no email%9,   Zeyong%Yang%xref no email%9,   Jie%Xu%xref no email%9,   Xin%Zhou%xref no email%9,   Dechang%Chen%xref no email%9,   Weining%Xiong%xref no email%9,   Lei%Xu%xref no email%9,   Feng%Zhou%xref no email%9,   Jinjun%Jiang%xref no email%9,   Chunxue%Bai%xref no email%9,   Junhua%Zheng%xref no email%9,   Yuanlin%Song%xref no email%10]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,      Kai%Xie%NULL%2,      Kai%Xie%NULL%0,      Hui%Lu%NULL%1,      Lei%Xu%bayinhexl@126.com%1,      Shusheng%Zhou%zhouss108@163.com%1,      Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,   Yong%Lu%xref no email%3,   Qiqi%Cao%xref no email%3,   Le%Qin%xref no email%3,   Zilai%Pan%xref no email%3,   Fuhua%Yan%xref no email%3,   Wenjie%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,      Yuanyuan%Xing%NULL%1,      Yu%Xiao%NULL%1,      Liping%Deng%NULL%1,      Qiu%Zhao%NULL%1,      Hongling%Wang%NULL%1,      Yong%Xiong%NULL%1,      Zhenshun%Cheng%NULL%0,      Shicheng%Gao%NULL%1,      Ke%Liang%NULL%1,      Mingqi%Luo%NULL%1,      Tielong%Chen%NULL%1,      Shihui%Song%NULL%1,      Zhiyong%Ma%NULL%1,      Xiaoping%Chen%NULL%1,      Ruiying%Zheng%NULL%1,      Qian%Cao%NULL%1,      Fan%Wang%fanndywang@foxmail.com%1,      Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,      Bohan%Yang%NULL%1,      Qianwen%Li%NULL%1,      Lu%Wen%NULL%1,      Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,      Yingxia%Liu%NULL%1,      Lei%Liu%NULL%1,      Xianfeng%Wang%NULL%1,      Nijuan%Luo%NULL%1,      Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,      Tuantuan%Li%NULL%1,      Mingfeng%Han%NULL%1,      Xiuyong%Li%NULL%1,      Dong%Wu%NULL%1,      Yuanhong%Xu%NULL%1,      Yulin%Zhu%NULL%1,      Yan%Liu%NULL%1,      Xiaowu%Wang%wangxiaowu19880218@126.com%1,      Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,       Yeming%Wang%NULL%2,       Xingwang%Li%NULL%1,       Lili%Ren%NULL%1,       Jianping%Zhao%NULL%1,       Yi%Hu%NULL%3,       Li%Zhang%NULL%2,       Guohui%Fan%NULL%2,       Jiuyang%Xu%NULL%2,       Xiaoying%Gu%NULL%2,       Zhenshun%Cheng%NULL%2,       Ting%Yu%NULL%4,       Jiaan%Xia%NULL%1,       Yuan%Wei%NULL%3,       Wenjuan%Wu%NULL%1,       Xuelei%Xie%NULL%1,       Wen%Yin%NULL%1,       Hui%Li%NULL%3,       Min%Liu%NULL%1,       Yan%Xiao%NULL%2,       Hong%Gao%NULL%2,       Li%Guo%NULL%2,       Jungang%Xie%NULL%1,       Guangfa%Wang%NULL%1,       Rongmeng%Jiang%NULL%1,       Zhancheng%Gao%NULL%1,       Qi%Jin%NULL%2,       Jianwei%Wang%wangjw28@163.com%1,       Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,       Shuofeng%Yuan%NULL%1,       Kin-Hang%Kok%NULL%1,       Kelvin Kai-Wang%To%NULL%1,       Hin%Chu%NULL%1,       Jin%Yang%NULL%1,       Fanfan%Xing%NULL%1,       Jieling%Liu%NULL%1,       Cyril Chik-Yan%Yip%NULL%1,       Rosana Wing-Shan%Poon%NULL%1,       Hoi-Wah%Tsoi%NULL%1,       Simon Kam-Fai%Lo%NULL%1,       Kwok-Hung%Chan%NULL%1,       Vincent Kwok-Man%Poon%NULL%1,       Wan-Mui%Chan%NULL%1,       Jonathan Daniel%Ip%NULL%1,       Jian-Piao%Cai%NULL%1,       Vincent Chi-Chung%Cheng%NULL%1,       Honglin%Chen%NULL%1,       Christopher Kim-Ming%Hui%NULL%1,       Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,       Xuhua%Guan%NULL%1,       Peng%Wu%NULL%1,       Xiaoye%Wang%NULL%1,       Lei%Zhou%NULL%1,       Yeqing%Tong%NULL%1,       Ruiqi%Ren%NULL%1,       Kathy S.M.%Leung%NULL%1,       Eric H.Y.%Lau%NULL%1,       Jessica Y.%Wong%NULL%1,       Xuesen%Xing%NULL%1,       Nijuan%Xiang%NULL%1,       Yang%Wu%NULL%1,       Chao%Li%NULL%1,       Qi%Chen%NULL%1,       Dan%Li%NULL%1,       Tian%Liu%NULL%1,       Jing%Zhao%NULL%1,       Man%Liu%NULL%1,       Wenxiao%Tu%NULL%1,       Chuding%Chen%NULL%1,       Lianmei%Jin%NULL%1,       Rui%Yang%NULL%1,       Qi%Wang%NULL%1,       Suhua%Zhou%NULL%1,       Rui%Wang%NULL%1,       Hui%Liu%NULL%1,       Yinbo%Luo%NULL%1,       Yuan%Liu%NULL%1,       Ge%Shao%NULL%1,       Huan%Li%NULL%1,       Zhongfa%Tao%NULL%1,       Yang%Yang%NULL%1,       Zhiqiang%Deng%NULL%1,       Boxi%Liu%NULL%1,       Zhitao%Ma%NULL%1,       Yanping%Zhang%NULL%1,       Guoqing%Shi%NULL%1,       Tommy T.Y.%Lam%NULL%1,       Joseph T.%Wu%NULL%1,       George F.%Gao%NULL%1,       Benjamin J.%Cowling%NULL%1,       Bo%Yang%NULL%2,       Bo%Yang%NULL%0,       Gabriel M.%Leung%NULL%1,       Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,       Min%Zhou%NULL%1,       Xuan%Dong%NULL%1,       Jieming%Qu%NULL%2,       Fengyun%Gong%NULL%1,       Yang%Han%NULL%1,       Yang%Qiu%NULL%1,       Jingli%Wang%NULL%1,       Ying%Liu%NULL%2,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%2,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%1,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,       Nannan%Shi%NULL%2,       Nannan%Shi%NULL%0,       Fei%Shan%NULL%1,       Zhiyong%Zhang%NULL%1,       Jie%Shen%NULL%1,       Hongzhou%Lu%NULL%2,       Yun%Ling%NULL%2,       Yebin%Jiang%NULL%2,       Yebin%Jiang%NULL%0,       Yuxin%Shi%shiyuxin@shphc.org.cn%3,       Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,       Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,       Yuan-Yuan%Fang%NULL%1,       Yan%Deng%NULL%2,       Wei%Liu%NULL%1,       Mei-Fang%Wang%NULL%1,       Jing-Ping%Ma%NULL%1,       Wei%Xiao%NULL%1,       Ying-Nan%Wang%NULL%1,       Min-Hua%Zhong%NULL%1,       Cheng-Hong%Li%NULL%1,       Guang-Cai%Li%NULL%1,       Hui-Guo%Liu%NULL%2,       Xiu-Yuan%Hao%NULL%4,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,        Yang%Yang%null%1,        Cong%Zhang%null%1,        Fengming%Huang%null%1,        Fuxiang%Wang%null%1,        Jing%Yuan%null%1,        Zhaoqin%Wang%null%1,        Jinxiu%Li%null%1,        Jianming%Li%null%1,        Cheng%Feng%null%1,        Zheng%Zhang%null%1,        Lifei%Wang%null%1,        Ling%Peng%null%1,        Li%Chen%null%1,        Yuhao%Qin%null%1,        Dandan%Zhao%null%1,        Shuguang%Tan%null%1,        Lu%Yin%null%1,        Jun%Xu%null%1,        Congzhao%Zhou%null%1,        Chengyu%Jiang%null%1,        Lei%Liu%null%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,       Ye-Ming%Wang%NULL%1,       Zhi-Qiang%Wu%NULL%1,       Zi-Chun%Xiang%NULL%1,       Li%Guo%NULL%0,       Teng%Xu%NULL%1,       Yong-Zhong%Jiang%NULL%1,       Yan%Xiong%NULL%1,       Yong-Jun%Li%NULL%1,       Xing-Wang%Li%NULL%1,       Hui%Li%NULL%0,       Guo-Hui%Fan%NULL%1,       Xiao-Ying%Gu%NULL%1,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Jiu-Yang%Xu%NULL%1,       Fan%Yang%NULL%1,       Xin-Ming%Wang%NULL%1,       Chao%Wu%NULL%1,       Lan%Chen%NULL%1,       Yi-Wei%Liu%NULL%1,       Bo%Liu%NULL%1,       Jian%Yang%NULL%1,       Xiao-Rui%Wang%NULL%1,       Jie%Dong%NULL%1,       Li%Li%NULL%2,       Chao-Lin%Huang%NULL%1,       Jian-Ping%Zhao%NULL%1,       Yi%Hu%NULL%0,       Zhen-Shun%Cheng%NULL%1,       Lin-Lin%Liu%NULL%1,       Zhao-Hui%Qian%NULL%1,       Chuan%Qin%NULL%1,       Qi%Jin%NULL%0,       Bin%Cao%NULL%0,       Jian-Wei%Wang%NULL%1,       Xiu-Yuan%Hao%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,       Cao%Yi-yuan%coreGivesNoEmail%1,       Dong%Xiang%coreGivesNoEmail%1,       Gao%Ya-dong%coreGivesNoEmail%1,       Yan%You-qin%coreGivesNoEmail%1,       Yang%Yi-bin%coreGivesNoEmail%1,       Yuan%Ya-dong%coreGivesNoEmail%1,       Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,       Xiao-Xin%Wu%NULL%1,       Xian-Gao%Jiang%NULL%1,       Kai-Jin%Xu%NULL%1,       Ling-Jun%Ying%NULL%1,       Chun-Lian%Ma%NULL%1,       Shi-Bo%Li%NULL%1,       Hua-Ying%Wang%NULL%1,       Sheng%Zhang%NULL%1,       Hai-Nv%Gao%NULL%1,       Ji-Fang%Sheng%NULL%1,       Hong-Liu%Cai%NULL%1,       Yun-Qing%Qiu%NULL%1,       Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,       Xiaojia%Wu%NULL%1,       Wenbing%Zeng%NULL%1,       Dajing%Guo%NULL%2,       Zheng%Fang%NULL%2,       Linli%Chen%NULL%2,       Huizhe%Huang%NULL%1,       Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,       Yuan%Yu%NULL%1,       Jiqian%Xu%NULL%1,       Huaqing%Shu%NULL%1,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%1,       Yongran%Wu%NULL%1,       Lu%Zhang%NULL%1,       Zhui%Yu%NULL%1,       Minghao%Fang%NULL%1,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%1,       Shangwen%Pan%NULL%1,       Xiaojing%Zou%NULL%1,       Shiying%Yuan%NULL%1,       You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,       Jing-Hui%Dong%NULL%1,       Wei-Min%An%NULL%1,       Xiao-Yan%Lv%15001008285@139.com%1,       Xiao-Ping%Yin%yinxiaoping78@sina.com%1,       Jian-Zeng%Zhang%NULL%1,       Li%Dong%NULL%1,       Xi%Ma%NULL%1,       Hong-Jie%Zhang%NULL%1,       Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,       Zhenlu%Yang%NULL%2,       Zhenlu%Yang%NULL%0,       Hongyan%Hou%NULL%2,       Hongyan%Hou%NULL%0,       Chenao%Zhan%NULL%1,       Chong%Chen%NULL%1,       Wenzhi%Lv%NULL%2,       Wenzhi%Lv%NULL%0,       Qian%Tao%NULL%2,       Qian%Tao%NULL%0,       Ziyong%Sun%NULL%0,       Ziyong%Sun%NULL%0,       Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,       Qiqi%Cao%NULL%1,       Le%Qin%NULL%1,       Xiaoyang%Wang%NULL%1,       Zenghui%Cheng%NULL%1,       Ashan%Pan%NULL%1,       Jianyi%Dai%NULL%1,       Qingfeng%Sun%NULL%1,       Fengquan%Zhao%NULL%1,       Jieming%Qu%NULL%0,       Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,       Nan%Hu%NULL%1,       Jing%Lou%NULL%1,       Kun%Chen%NULL%1,       Xuqin%Kang%NULL%1,       Zhenjun%Xiang%NULL%1,       Hui%Chen%NULL%1,       Dali%Wang%NULL%1,       Ning%Liu%NULL%1,       Dong%Liu%NULL%1,       Gang%Chen%NULL%1,       Yongliang%Zhang%NULL%1,       Dou%Li%NULL%1,       Jianren%Li%NULL%1,       Huixin%Lian%NULL%1,       Shengmei%Niu%NULL%1,       Luxi%Zhang%NULL%1,       Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,       Mengqi%Tu%NULL%1,       Shipei%Wang%NULL%1,       Sichao%Chen%NULL%1,       Wei%Zhou%NULL%1,       Danyang%Chen%NULL%1,       Lin%Zhou%NULL%1,       Min%Wang%NULL%1,       Yan%Zhao%NULL%1,       Wen%Zeng%NULL%1,       Qi%Huang%NULL%1,       Hai'bo%Xu%NULL%1,       Zeming%Liu%NULL%1,       Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,       Chengcheng%Yu%NULL%1,       Jing%Qu%NULL%1,       Lieguang%Zhang%NULL%1,       Songfeng%Jiang%NULL%1,       Deyang%Huang%NULL%1,       Bihua%Chen%NULL%1,       Zhiping%Zhang%NULL%1,       Wanhua%Guan%NULL%1,       Zhoukun%Ling%NULL%1,       Rui%Jiang%NULL%1,       Tianli%Hu%NULL%1,       Yan%Ding%NULL%1,       Lin%Lin%NULL%1,       Qingxin%Gan%NULL%1,       Liangping%Luo%tluolp@jnu.edu.cn%1,       Xiaoping%Tang%xtang@21cn.com%1,       Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,       Zhao-Wu%Tao%NULL%1,       Lei%Wang%NULL%1,       Ming-Li%Yuan%NULL%1,       Kui%Liu%NULL%1,       Ling%Zhou%NULL%1,       Shuang%Wei%NULL%1,       Yan%Deng%NULL%0,       Jing%Liu%NULL%1,       Hui-Guo%Liu%NULL%0,       Ming%Yang%NULL%1,       Yi%Hu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,       Jiong%Wu%NULL%1,       Faqi%Wu%NULL%1,       Dajing%Guo%NULL%0,       Linli%Chen%NULL%0,       Zheng%Fang%NULL%0,       Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,       Jun%Liu%NULL%1,       Xinguo%Zhao%NULL%1,       Chengyuan%Liu%NULL%1,       Wei%Wang%NULL%1,       Dawei%Wang%NULL%1,       Wei%Xu%NULL%1,       Chunyu%Zhang%NULL%1,       Jiong%Yu%NULL%1,       Bin%Jiang%NULL%1,       Hongcui%Cao%hccao@zju.edu.cn%1,       Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,       Xiaorong%Hu%NULL%1,       Wenlin%Cheng%NULL%1,       Lei%Yu%NULL%1,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,       Qiang%Liu%liuqiang@irm-cams.ac.cn%2,       Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,       Kun%Yang%NULL%2,       Kun%Yang%NULL%0,       Wenxia%Wang%NULL%2,       Wenxia%Wang%NULL%0,       Lingyu%Jiang%NULL%2,       Lingyu%Jiang%NULL%0,       Jianxin%Song%songsingsjx@sina.com%2,       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1,    Zheng%Zhong%xref no email%1,    Xingzhi%Xie%xref no email%1,    Qizhi%Yu%xref no email%1,    Jun%Liu%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,       Meiwen%Tang%NULL%1,       Xiaobin%Zheng%NULL%1,       Ye%Liu%ly77219@163.com%1,       Xiaofeng%Li%zdwylxf@163.com%1,       Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,       Dong%Sun%NULL%1,       Yao%Liu%NULL%1,       Yanqing%Fan%NULL%0,       Lingyun%Zhao%NULL%1,       Xiaoming%Li%NULL%1,       Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,    Sean Wei Xiang%Ong%xref no email%6,    Shirin%Kalimuddin%xref no email%6,    Jenny G.%Low%xref no email%6,    Seow Yen%Tan%xref no email%6,    Jiashen%Loh%xref no email%6,    Oon-Tek%Ng%xref no email%6,    Kalisvar%Marimuthu%xref no email%6,    Li Wei%Ang%xref no email%6,    Tze Minn%Mak%xref no email%6,    Sok Kiang%Lau%xref no email%6,    Danielle E.%Anderson%xref no email%6,    Kian Sing%Chan%xref no email%6,    Thean Yen%Tan%xref no email%6,    Tong Yong%Ng%xref no email%6,    Lin%Cui%xref no email%6,    Zubaidah%Said%xref no email%6,    Lalitha%Kurupatham%xref no email%6,    Mark I-Cheng%Chen%xref no email%6,    Monica%Chan%xref no email%6,    Shawn%Vasoo%xref no email%6,    Lin-Fa%Wang%xref no email%6,    Boon Huan%Tan%xref no email%6,    Raymond Tzer Pin%Lin%xref no email%6,    Vernon Jian Ming%Lee%xref no email%6,    Yee-Sin%Leo%xref no email%6,    David Chien%Lye%xref no email%6]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,       SaiBin%Wang%NULL%2,       SaiBin%Wang%NULL%0,       YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1,    Liming%Xia%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,       Ci%Song%NULL%1,       Chuanjun%Xu%NULL%1,       Guangfu%Jin%NULL%1,       Yaling%Chen%NULL%1,       Xin%Xu%NULL%1,       Hongxia%Ma%NULL%1,       Wei%Chen%NULL%1,       Yuan%Lin%NULL%1,       Yishan%Zheng%NULL%1,       Jianming%Wang%NULL%1,       Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,       Yongxiang%Yi%ian0126@126.com%1,       Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,       Yao%Tian%NULL%2,       Yao%Tian%NULL%0,       Jing%Zhou%NULL%1,       Xuan%Ma%NULL%1,       Min%Yang%NULL%1,       ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuchang%Zhou%xref no email%1,    Yujin%Wang%xref no email%1,    Tingting%Zhu%xref no email%1,    Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,       James%Fielding%NULL%1,       Michaela%Diercke%NULL%1,       Christine%Campese%NULL%1,       Vincent%Enouf%NULL%1,       Alexandre%Gaymard%NULL%1,       Antonino%Bella%NULL%1,       Paola%Sognamiglio%NULL%1,       Maria José%Sierra Moros%NULL%1,       Antonio Nicolau%Riutort%NULL%1,       Yulia V.%Demina%NULL%1,       Romain%Mahieu%NULL%1,       Markku%Broas%NULL%1,       Malin%Bengnér%NULL%1,       Silke%Buda%NULL%1,       Julia%Schilling%NULL%1,       Laurent%Filleul%NULL%1,       Agnès%Lepoutre%NULL%1,       Christine%Saura%NULL%1,       Alexandra%Mailles%NULL%1,       Daniel%Levy-Bruhl%NULL%1,       Bruno%Coignard%NULL%1,       Sibylle%Bernard-Stoecklin%NULL%1,       Sylvie%Behillil%NULL%1,       Sylvie%van der Werf%NULL%1,       Martine%Valette%NULL%1,       Bruno%Lina%NULL%1,       Flavia%Riccardo%NULL%1,       Emanuele%Nicastri%NULL%1,       Inmaculada%Casas%NULL%1,       Amparo%Larrauri%NULL%1,       Magdalena%Salom Castell%NULL%1,       Francisco%Pozo%NULL%1,       Rinat A.%Maksyutov%NULL%1,       Charlotte%Martin%NULL%1,       Marc%Van Ranst%NULL%1,       Nathalie%Bossuyt%NULL%1,       Lotta%Siira%NULL%1,       Jussi%Sane%NULL%1,       Karin%Tegmark-Wisell%NULL%1,       Maria%Palmérus%NULL%1,       Eeva K.%Broberg%NULL%1,       Julien%Beauté%NULL%1,       Pernille%Jorgensen%NULL%1,       Nick%Bundle%NULL%1,       Dmitriy%Pereyaslov%NULL%1,       Cornelia%Adlhoch%NULL%1,       Jukka%Pukkila%NULL%1,       Richard%Pebody%NULL%1,       Sonja%Olsen%NULL%1,       Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%1,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%1,       Jie%Xiang%NULL%1,       Yeming%Wang%NULL%0,       Bin%Song%NULL%1,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%1,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%1,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%1,       Yi%Zhang%NULL%1,       Hua%Chen%NULL%1,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%5,       Tangkai%Qi%NULL%1,       Li%Liu%NULL%1,       Yun%Ling%NULL%0,       Zhiping%Qian%NULL%1,       Tao%Li%NULL%1,       Feng%Li%NULL%1,       Qingnian%Xu%NULL%1,       Yuyi%Zhang%NULL%1,       Shuibao%Xu%NULL%1,       Zhigang%Song%NULL%1,       Yigang%Zeng%NULL%1,       Yinzhong%Shen%NULL%1,       Yuxin%Shi%NULL%0,       Tongyu%Zhu%NULL%1,       Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,       Bin%Quan%NULL%1,       Xiaoning%Li%NULL%1,       Guangjian%Gao%NULL%1,       Wenqiang%Zheng%NULL%1,       Jun%Zhang%NULL%1,       Zhiyun%Zhang%NULL%1,       Chunsheng%Liu%NULL%1,       Li%Li%NULL%0,       Chenglin%Wang%NULL%1,       Guihua%Zhang%NULL%1,       Jiajia%Li%NULL%1,       Yunhai%Dai%NULL%1,       Jianghua%Yang%yjhpath@163.com%1,       Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,    Xiaoyan%Chen%xref no email%9,    Yanping%Cai%xref no email%9,    Jia\u2019an%Xia%xref no email%9,    Xing%Zhou%xref no email%9,    Sha%Xu%xref no email%9,    Hanping%Huang%xref no email%9,    Li%Zhang%xref no email%9,    Xia%Zhou%xref no email%9,    Chunling%Du%xref no email%9,    Yuye%Zhang%xref no email%9,    Juan%Song%xref no email%10,    Sijiao%Wang%xref no email%9,    Yencheng%Chao%xref no email%9,    Zeyong%Yang%xref no email%9,    Jie%Xu%xref no email%9,    Xin%Zhou%xref no email%9,    Dechang%Chen%xref no email%9,    Weining%Xiong%xref no email%10,    Lei%Xu%xref no email%9,    Feng%Zhou%xref no email%9,    Jinjun%Jiang%xref no email%9,    Chunxue%Bai%xref no email%9,    Junhua%Zheng%xref no email%9,    Yuanlin%Song%xref no email%10]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,       Kai%Xie%NULL%2,       Kai%Xie%NULL%0,       Hui%Lu%NULL%1,       Lei%Xu%bayinhexl@126.com%1,       Shusheng%Zhou%zhouss108@163.com%1,       Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,    Yong%Lu%xref no email%3,    Qiqi%Cao%xref no email%3,    Le%Qin%xref no email%3,    Zilai%Pan%xref no email%3,    Fuhua%Yan%xref no email%3,    Wenjie%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,       Yuanyuan%Xing%NULL%1,       Yu%Xiao%NULL%1,       Liping%Deng%NULL%1,       Qiu%Zhao%NULL%1,       Hongling%Wang%NULL%1,       Yong%Xiong%NULL%1,       Zhenshun%Cheng%NULL%0,       Shicheng%Gao%NULL%1,       Ke%Liang%NULL%1,       Mingqi%Luo%NULL%1,       Tielong%Chen%NULL%1,       Shihui%Song%NULL%1,       Zhiyong%Ma%NULL%1,       Xiaoping%Chen%NULL%1,       Ruiying%Zheng%NULL%1,       Qian%Cao%NULL%1,       Fan%Wang%fanndywang@foxmail.com%1,       Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,       Bohan%Yang%NULL%1,       Qianwen%Li%NULL%1,       Lu%Wen%NULL%1,       Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,       Yingxia%Liu%NULL%1,       Lei%Liu%NULL%1,       Xianfeng%Wang%NULL%1,       Nijuan%Luo%NULL%1,       Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Han%xref no email%1,    Lu%Huang%xref no email%1,    Hong%Jiang%xref no email%1,    Jin%Dong%xref no email%1,    Hongfen%Peng%xref no email%1,    Dongyou%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,       Tuantuan%Li%NULL%1,       Mingfeng%Han%NULL%1,       Xiuyong%Li%NULL%1,       Dong%Wu%NULL%1,       Yuanhong%Xu%NULL%1,       Yulin%Zhu%NULL%1,       Yan%Liu%NULL%1,       Xiaowu%Wang%wangxiaowu19880218@126.com%1,       Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,        Yeming%Wang%NULL%2,        Xingwang%Li%NULL%1,        Lili%Ren%NULL%1,        Jianping%Zhao%NULL%1,        Yi%Hu%NULL%3,        Li%Zhang%NULL%2,        Guohui%Fan%NULL%2,        Jiuyang%Xu%NULL%2,        Xiaoying%Gu%NULL%2,        Zhenshun%Cheng%NULL%2,        Ting%Yu%NULL%4,        Jiaan%Xia%NULL%1,        Yuan%Wei%NULL%3,        Wenjuan%Wu%NULL%1,        Xuelei%Xie%NULL%1,        Wen%Yin%NULL%1,        Hui%Li%NULL%3,        Min%Liu%NULL%1,        Yan%Xiao%NULL%2,        Hong%Gao%NULL%2,        Li%Guo%NULL%2,        Jungang%Xie%NULL%1,        Guangfa%Wang%NULL%1,        Rongmeng%Jiang%NULL%1,        Zhancheng%Gao%NULL%1,        Qi%Jin%NULL%2,        Jianwei%Wang%wangjw28@163.com%1,        Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,        Shuofeng%Yuan%NULL%1,        Kin-Hang%Kok%NULL%1,        Kelvin Kai-Wang%To%NULL%1,        Hin%Chu%NULL%1,        Jin%Yang%NULL%1,        Fanfan%Xing%NULL%1,        Jieling%Liu%NULL%1,        Cyril Chik-Yan%Yip%NULL%1,        Rosana Wing-Shan%Poon%NULL%1,        Hoi-Wah%Tsoi%NULL%1,        Simon Kam-Fai%Lo%NULL%1,        Kwok-Hung%Chan%NULL%1,        Vincent Kwok-Man%Poon%NULL%1,        Wan-Mui%Chan%NULL%1,        Jonathan Daniel%Ip%NULL%1,        Jian-Piao%Cai%NULL%1,        Vincent Chi-Chung%Cheng%NULL%1,        Honglin%Chen%NULL%1,        Christopher Kim-Ming%Hui%NULL%1,        Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,        Xuhua%Guan%NULL%1,        Peng%Wu%NULL%1,        Xiaoye%Wang%NULL%1,        Lei%Zhou%NULL%1,        Yeqing%Tong%NULL%1,        Ruiqi%Ren%NULL%1,        Kathy S.M.%Leung%NULL%1,        Eric H.Y.%Lau%NULL%1,        Jessica Y.%Wong%NULL%1,        Xuesen%Xing%NULL%1,        Nijuan%Xiang%NULL%1,        Yang%Wu%NULL%1,        Chao%Li%NULL%1,        Qi%Chen%NULL%1,        Dan%Li%NULL%1,        Tian%Liu%NULL%1,        Jing%Zhao%NULL%1,        Man%Liu%NULL%1,        Wenxiao%Tu%NULL%1,        Chuding%Chen%NULL%1,        Lianmei%Jin%NULL%1,        Rui%Yang%NULL%1,        Qi%Wang%NULL%1,        Suhua%Zhou%NULL%1,        Rui%Wang%NULL%1,        Hui%Liu%NULL%1,        Yinbo%Luo%NULL%1,        Yuan%Liu%NULL%1,        Ge%Shao%NULL%1,        Huan%Li%NULL%1,        Zhongfa%Tao%NULL%1,        Yang%Yang%NULL%1,        Zhiqiang%Deng%NULL%1,        Boxi%Liu%NULL%1,        Zhitao%Ma%NULL%1,        Yanping%Zhang%NULL%1,        Guoqing%Shi%NULL%1,        Tommy T.Y.%Lam%NULL%1,        Joseph T.%Wu%NULL%1,        George F.%Gao%NULL%1,        Benjamin J.%Cowling%NULL%1,        Bo%Yang%NULL%2,        Bo%Yang%NULL%0,        Gabriel M.%Leung%NULL%1,        Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,        Min%Zhou%NULL%1,        Xuan%Dong%NULL%1,        Jieming%Qu%NULL%2,        Fengyun%Gong%NULL%1,        Yang%Han%NULL%1,        Yang%Qiu%NULL%1,        Jingli%Wang%NULL%1,        Ying%Liu%NULL%2,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%2,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%1,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,        Nannan%Shi%NULL%2,        Nannan%Shi%NULL%0,        Fei%Shan%NULL%1,        Zhiyong%Zhang%NULL%1,        Jie%Shen%NULL%1,        Hongzhou%Lu%NULL%2,        Yun%Ling%NULL%2,        Yebin%Jiang%NULL%2,        Yebin%Jiang%NULL%0,        Yuxin%Shi%shiyuxin@shphc.org.cn%3,        Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,        Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,        Yuan-Yuan%Fang%NULL%1,        Yan%Deng%NULL%2,        Wei%Liu%NULL%1,        Mei-Fang%Wang%NULL%1,        Jing-Ping%Ma%NULL%1,        Wei%Xiao%NULL%1,        Ying-Nan%Wang%NULL%1,        Min-Hua%Zhong%NULL%1,        Cheng-Hong%Li%NULL%1,        Guang-Cai%Li%NULL%1,        Hui-Guo%Liu%NULL%2,        Xiu-Yuan%Hao%NULL%4,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,         Yang%Yang%null%1,         Cong%Zhang%null%1,         Fengming%Huang%null%1,         Fuxiang%Wang%null%1,         Jing%Yuan%null%1,         Zhaoqin%Wang%null%1,         Jinxiu%Li%null%1,         Jianming%Li%null%1,         Cheng%Feng%null%1,         Zheng%Zhang%null%1,         Lifei%Wang%null%1,         Ling%Peng%null%1,         Li%Chen%null%1,         Yuhao%Qin%null%1,         Dandan%Zhao%null%1,         Shuguang%Tan%null%1,         Lu%Yin%null%1,         Jun%Xu%null%1,         Congzhao%Zhou%null%1,         Chengyu%Jiang%null%1,         Lei%Liu%null%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,        Ye-Ming%Wang%NULL%1,        Zhi-Qiang%Wu%NULL%1,        Zi-Chun%Xiang%NULL%1,        Li%Guo%NULL%0,        Teng%Xu%NULL%1,        Yong-Zhong%Jiang%NULL%1,        Yan%Xiong%NULL%1,        Yong-Jun%Li%NULL%1,        Xing-Wang%Li%NULL%1,        Hui%Li%NULL%0,        Guo-Hui%Fan%NULL%1,        Xiao-Ying%Gu%NULL%1,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Jiu-Yang%Xu%NULL%1,        Fan%Yang%NULL%1,        Xin-Ming%Wang%NULL%1,        Chao%Wu%NULL%1,        Lan%Chen%NULL%1,        Yi-Wei%Liu%NULL%1,        Bo%Liu%NULL%1,        Jian%Yang%NULL%1,        Xiao-Rui%Wang%NULL%1,        Jie%Dong%NULL%1,        Li%Li%NULL%2,        Chao-Lin%Huang%NULL%1,        Jian-Ping%Zhao%NULL%1,        Yi%Hu%NULL%0,        Zhen-Shun%Cheng%NULL%1,        Lin-Lin%Liu%NULL%1,        Zhao-Hui%Qian%NULL%1,        Chuan%Qin%NULL%1,        Qi%Jin%NULL%0,        Bin%Cao%NULL%0,        Jian-Wei%Wang%NULL%1,        Xiu-Yuan%Hao%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,        Cao%Yi-yuan%coreGivesNoEmail%1,        Dong%Xiang%coreGivesNoEmail%1,        Gao%Ya-dong%coreGivesNoEmail%1,        Yan%You-qin%coreGivesNoEmail%1,        Yang%Yi-bin%coreGivesNoEmail%1,        Yuan%Ya-dong%coreGivesNoEmail%1,        Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,        Xiao-Xin%Wu%NULL%1,        Xian-Gao%Jiang%NULL%1,        Kai-Jin%Xu%NULL%1,        Ling-Jun%Ying%NULL%1,        Chun-Lian%Ma%NULL%1,        Shi-Bo%Li%NULL%1,        Hua-Ying%Wang%NULL%1,        Sheng%Zhang%NULL%1,        Hai-Nv%Gao%NULL%1,        Ji-Fang%Sheng%NULL%1,        Hong-Liu%Cai%NULL%1,        Yun-Qing%Qiu%NULL%1,        Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,        Xiaojia%Wu%NULL%1,        Wenbing%Zeng%NULL%1,        Dajing%Guo%NULL%2,        Zheng%Fang%NULL%2,        Linli%Chen%NULL%2,        Huizhe%Huang%NULL%1,        Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,        Yuan%Yu%NULL%1,        Jiqian%Xu%NULL%1,        Huaqing%Shu%NULL%1,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%1,        Yongran%Wu%NULL%1,        Lu%Zhang%NULL%1,        Zhui%Yu%NULL%1,        Minghao%Fang%NULL%1,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%1,        Shangwen%Pan%NULL%1,        Xiaojing%Zou%NULL%1,        Shiying%Yuan%NULL%1,        You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,        Jing-Hui%Dong%NULL%1,        Wei-Min%An%NULL%1,        Xiao-Yan%Lv%15001008285@139.com%1,        Xiao-Ping%Yin%yinxiaoping78@sina.com%1,        Jian-Zeng%Zhang%NULL%1,        Li%Dong%NULL%1,        Xi%Ma%NULL%1,        Hong-Jie%Zhang%NULL%1,        Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,        Zhenlu%Yang%NULL%2,        Zhenlu%Yang%NULL%0,        Hongyan%Hou%NULL%2,        Hongyan%Hou%NULL%0,        Chenao%Zhan%NULL%1,        Chong%Chen%NULL%1,        Wenzhi%Lv%NULL%2,        Wenzhi%Lv%NULL%0,        Qian%Tao%NULL%2,        Qian%Tao%NULL%0,        Ziyong%Sun%NULL%0,        Ziyong%Sun%NULL%0,        Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,        Qiqi%Cao%NULL%1,        Le%Qin%NULL%1,        Xiaoyang%Wang%NULL%1,        Zenghui%Cheng%NULL%1,        Ashan%Pan%NULL%1,        Jianyi%Dai%NULL%1,        Qingfeng%Sun%NULL%1,        Fengquan%Zhao%NULL%1,        Jieming%Qu%NULL%0,        Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,        Nan%Hu%NULL%1,        Jing%Lou%NULL%1,        Kun%Chen%NULL%1,        Xuqin%Kang%NULL%1,        Zhenjun%Xiang%NULL%1,        Hui%Chen%NULL%1,        Dali%Wang%NULL%1,        Ning%Liu%NULL%1,        Dong%Liu%NULL%1,        Gang%Chen%NULL%1,        Yongliang%Zhang%NULL%1,        Dou%Li%NULL%1,        Jianren%Li%NULL%1,        Huixin%Lian%NULL%1,        Shengmei%Niu%NULL%1,        Luxi%Zhang%NULL%1,        Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,        Mengqi%Tu%NULL%1,        Shipei%Wang%NULL%1,        Sichao%Chen%NULL%1,        Wei%Zhou%NULL%1,        Danyang%Chen%NULL%1,        Lin%Zhou%NULL%1,        Min%Wang%NULL%1,        Yan%Zhao%NULL%1,        Wen%Zeng%NULL%1,        Qi%Huang%NULL%1,        Hai'bo%Xu%NULL%1,        Zeming%Liu%NULL%1,        Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,        Chengcheng%Yu%NULL%1,        Jing%Qu%NULL%1,        Lieguang%Zhang%NULL%1,        Songfeng%Jiang%NULL%1,        Deyang%Huang%NULL%1,        Bihua%Chen%NULL%1,        Zhiping%Zhang%NULL%1,        Wanhua%Guan%NULL%1,        Zhoukun%Ling%NULL%1,        Rui%Jiang%NULL%1,        Tianli%Hu%NULL%1,        Yan%Ding%NULL%1,        Lin%Lin%NULL%1,        Qingxin%Gan%NULL%1,        Liangping%Luo%tluolp@jnu.edu.cn%1,        Xiaoping%Tang%xtang@21cn.com%1,        Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,        Zhao-Wu%Tao%NULL%1,        Lei%Wang%NULL%1,        Ming-Li%Yuan%NULL%1,        Kui%Liu%NULL%1,        Ling%Zhou%NULL%1,        Shuang%Wei%NULL%1,        Yan%Deng%NULL%0,        Jing%Liu%NULL%1,        Hui-Guo%Liu%NULL%0,        Ming%Yang%NULL%1,        Yi%Hu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,        Jiong%Wu%NULL%1,        Faqi%Wu%NULL%1,        Dajing%Guo%NULL%0,        Linli%Chen%NULL%0,        Zheng%Fang%NULL%0,        Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,        Jun%Liu%NULL%1,        Xinguo%Zhao%NULL%1,        Chengyuan%Liu%NULL%1,        Wei%Wang%NULL%1,        Dawei%Wang%NULL%1,        Wei%Xu%NULL%1,        Chunyu%Zhang%NULL%1,        Jiong%Yu%NULL%1,        Bin%Jiang%NULL%1,        Hongcui%Cao%hccao@zju.edu.cn%1,        Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,        Xiaorong%Hu%NULL%1,        Wenlin%Cheng%NULL%1,        Lei%Yu%NULL%1,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,        Qiang%Liu%liuqiang@irm-cams.ac.cn%2,        Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,        Kun%Yang%NULL%2,        Kun%Yang%NULL%0,        Wenxia%Wang%NULL%2,        Wenxia%Wang%NULL%0,        Lingyu%Jiang%NULL%2,        Lingyu%Jiang%NULL%0,        Jianxin%Song%songsingsjx@sina.com%2,        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1,     Zheng%Zhong%xref no email%1,     Xingzhi%Xie%xref no email%1,     Qizhi%Yu%xref no email%1,     Jun%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,        Meiwen%Tang%NULL%1,        Xiaobin%Zheng%NULL%1,        Ye%Liu%ly77219@163.com%1,        Xiaofeng%Li%zdwylxf@163.com%1,        Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,        Dong%Sun%NULL%1,        Yao%Liu%NULL%1,        Yanqing%Fan%NULL%0,        Lingyun%Zhao%NULL%1,        Xiaoming%Li%NULL%1,        Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,     Sean Wei Xiang%Ong%xref no email%6,     Shirin%Kalimuddin%xref no email%6,     Jenny G.%Low%xref no email%6,     Seow Yen%Tan%xref no email%6,     Jiashen%Loh%xref no email%6,     Oon-Tek%Ng%xref no email%6,     Kalisvar%Marimuthu%xref no email%6,     Li Wei%Ang%xref no email%6,     Tze Minn%Mak%xref no email%6,     Sok Kiang%Lau%xref no email%6,     Danielle E.%Anderson%xref no email%6,     Kian Sing%Chan%xref no email%6,     Thean Yen%Tan%xref no email%6,     Tong Yong%Ng%xref no email%6,     Lin%Cui%xref no email%6,     Zubaidah%Said%xref no email%6,     Lalitha%Kurupatham%xref no email%6,     Mark I-Cheng%Chen%xref no email%6,     Monica%Chan%xref no email%6,     Shawn%Vasoo%xref no email%6,     Lin-Fa%Wang%xref no email%6,     Boon Huan%Tan%xref no email%6,     Raymond Tzer Pin%Lin%xref no email%6,     Vernon Jian Ming%Lee%xref no email%6,     Yee-Sin%Leo%xref no email%6,     David Chien%Lye%xref no email%6]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,        SaiBin%Wang%NULL%2,        SaiBin%Wang%NULL%0,        YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1,     Liming%Xia%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,        Ci%Song%NULL%1,        Chuanjun%Xu%NULL%1,        Guangfu%Jin%NULL%1,        Yaling%Chen%NULL%1,        Xin%Xu%NULL%1,        Hongxia%Ma%NULL%1,        Wei%Chen%NULL%1,        Yuan%Lin%NULL%1,        Yishan%Zheng%NULL%1,        Jianming%Wang%NULL%1,        Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,        Yongxiang%Yi%ian0126@126.com%1,        Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,        Yao%Tian%NULL%2,        Yao%Tian%NULL%0,        Jing%Zhou%NULL%1,        Xuan%Ma%NULL%1,        Min%Yang%NULL%1,        ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuchang%Zhou%xref no email%1,     Yujin%Wang%xref no email%1,     Tingting%Zhu%xref no email%1,     Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,        James%Fielding%NULL%1,        Michaela%Diercke%NULL%1,        Christine%Campese%NULL%1,        Vincent%Enouf%NULL%1,        Alexandre%Gaymard%NULL%1,        Antonino%Bella%NULL%1,        Paola%Sognamiglio%NULL%1,        Maria José%Sierra Moros%NULL%1,        Antonio Nicolau%Riutort%NULL%1,        Yulia V.%Demina%NULL%1,        Romain%Mahieu%NULL%1,        Markku%Broas%NULL%1,        Malin%Bengnér%NULL%1,        Silke%Buda%NULL%1,        Julia%Schilling%NULL%1,        Laurent%Filleul%NULL%1,        Agnès%Lepoutre%NULL%1,        Christine%Saura%NULL%1,        Alexandra%Mailles%NULL%1,        Daniel%Levy-Bruhl%NULL%1,        Bruno%Coignard%NULL%1,        Sibylle%Bernard-Stoecklin%NULL%1,        Sylvie%Behillil%NULL%1,        Sylvie%van der Werf%NULL%1,        Martine%Valette%NULL%1,        Bruno%Lina%NULL%1,        Flavia%Riccardo%NULL%1,        Emanuele%Nicastri%NULL%1,        Inmaculada%Casas%NULL%1,        Amparo%Larrauri%NULL%1,        Magdalena%Salom Castell%NULL%1,        Francisco%Pozo%NULL%1,        Rinat A.%Maksyutov%NULL%1,        Charlotte%Martin%NULL%1,        Marc%Van Ranst%NULL%1,        Nathalie%Bossuyt%NULL%1,        Lotta%Siira%NULL%1,        Jussi%Sane%NULL%1,        Karin%Tegmark-Wisell%NULL%1,        Maria%Palmérus%NULL%1,        Eeva K.%Broberg%NULL%1,        Julien%Beauté%NULL%1,        Pernille%Jorgensen%NULL%1,        Nick%Bundle%NULL%1,        Dmitriy%Pereyaslov%NULL%1,        Cornelia%Adlhoch%NULL%1,        Jukka%Pukkila%NULL%1,        Richard%Pebody%NULL%1,        Sonja%Olsen%NULL%1,        Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%1,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%1,        Jie%Xiang%NULL%1,        Yeming%Wang%NULL%0,        Bin%Song%NULL%1,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%1,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%1,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%1,        Yi%Zhang%NULL%1,        Hua%Chen%NULL%1,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%5,        Tangkai%Qi%NULL%1,        Li%Liu%NULL%1,        Yun%Ling%NULL%0,        Zhiping%Qian%NULL%1,        Tao%Li%NULL%1,        Feng%Li%NULL%1,        Qingnian%Xu%NULL%1,        Yuyi%Zhang%NULL%1,        Shuibao%Xu%NULL%1,        Zhigang%Song%NULL%1,        Yigang%Zeng%NULL%1,        Yinzhong%Shen%NULL%1,        Yuxin%Shi%NULL%0,        Tongyu%Zhu%NULL%1,        Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,        Bin%Quan%NULL%1,        Xiaoning%Li%NULL%1,        Guangjian%Gao%NULL%1,        Wenqiang%Zheng%NULL%1,        Jun%Zhang%NULL%1,        Zhiyun%Zhang%NULL%1,        Chunsheng%Liu%NULL%1,        Li%Li%NULL%0,        Chenglin%Wang%NULL%1,        Guihua%Zhang%NULL%1,        Jiajia%Li%NULL%1,        Yunhai%Dai%NULL%1,        Jianghua%Yang%yjhpath@163.com%1,        Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,     Xiaoyan%Chen%xref no email%9,     Yanping%Cai%xref no email%9,     Jia\u2019an%Xia%xref no email%9,     Xing%Zhou%xref no email%9,     Sha%Xu%xref no email%9,     Hanping%Huang%xref no email%9,     Li%Zhang%xref no email%9,     Xia%Zhou%xref no email%9,     Chunling%Du%xref no email%9,     Yuye%Zhang%xref no email%9,     Juan%Song%xref no email%10,     Sijiao%Wang%xref no email%9,     Yencheng%Chao%xref no email%9,     Zeyong%Yang%xref no email%9,     Jie%Xu%xref no email%9,     Xin%Zhou%xref no email%9,     Dechang%Chen%xref no email%9,     Weining%Xiong%xref no email%9,     Lei%Xu%xref no email%9,     Feng%Zhou%xref no email%9,     Jinjun%Jiang%xref no email%9,     Chunxue%Bai%xref no email%9,     Junhua%Zheng%xref no email%9,     Yuanlin%Song%xref no email%10]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,        Kai%Xie%NULL%2,        Kai%Xie%NULL%0,        Hui%Lu%NULL%1,        Lei%Xu%bayinhexl@126.com%1,        Shusheng%Zhou%zhouss108@163.com%1,        Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,     Yong%Lu%xref no email%3,     Qiqi%Cao%xref no email%3,     Le%Qin%xref no email%3,     Zilai%Pan%xref no email%3,     Fuhua%Yan%xref no email%3,     Wenjie%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,        Yuanyuan%Xing%NULL%1,        Yu%Xiao%NULL%1,        Liping%Deng%NULL%1,        Qiu%Zhao%NULL%1,        Hongling%Wang%NULL%1,        Yong%Xiong%NULL%1,        Zhenshun%Cheng%NULL%0,        Shicheng%Gao%NULL%1,        Ke%Liang%NULL%1,        Mingqi%Luo%NULL%1,        Tielong%Chen%NULL%1,        Shihui%Song%NULL%1,        Zhiyong%Ma%NULL%1,        Xiaoping%Chen%NULL%1,        Ruiying%Zheng%NULL%1,        Qian%Cao%NULL%1,        Fan%Wang%fanndywang@foxmail.com%1,        Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,        Bohan%Yang%NULL%1,        Qianwen%Li%NULL%1,        Lu%Wen%NULL%1,        Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,        Yingxia%Liu%NULL%1,        Lei%Liu%NULL%1,        Xianfeng%Wang%NULL%1,        Nijuan%Luo%NULL%1,        Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Han%xref no email%1,     Lu%Huang%xref no email%1,     Hong%Jiang%xref no email%1,     Jin%Dong%xref no email%1,     Hongfen%Peng%xref no email%1,     Dongyou%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,        Tuantuan%Li%NULL%1,        Mingfeng%Han%NULL%1,        Xiuyong%Li%NULL%1,        Dong%Wu%NULL%1,        Yuanhong%Xu%NULL%1,        Yulin%Zhu%NULL%1,        Yan%Liu%NULL%1,        Xiaowu%Wang%wangxiaowu19880218@126.com%1,        Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -5047,6 +5683,9 @@
       <c r="I1" t="s">
         <v>62</v>
       </c>
+      <c r="J1" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5062,7 +5701,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>1283</v>
+        <v>1496</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -5075,6 +5714,9 @@
       </c>
       <c r="I2" t="s">
         <v>1198</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5091,7 +5733,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>1284</v>
+        <v>1497</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -5104,6 +5746,9 @@
       </c>
       <c r="I3" t="s">
         <v>1198</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5120,7 +5765,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>1285</v>
+        <v>1498</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -5133,6 +5778,9 @@
       </c>
       <c r="I4" t="s">
         <v>1199</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5149,7 +5797,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>1286</v>
+        <v>1499</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -5162,6 +5810,9 @@
       </c>
       <c r="I5" t="s">
         <v>1198</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5178,7 +5829,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>1287</v>
+        <v>1500</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -5191,6 +5842,9 @@
       </c>
       <c r="I6" t="s">
         <v>1199</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5207,7 +5861,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>1288</v>
+        <v>1501</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -5220,6 +5874,9 @@
       </c>
       <c r="I7" t="s">
         <v>1199</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5236,7 +5893,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>1289</v>
+        <v>1502</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -5249,6 +5906,9 @@
       </c>
       <c r="I8" t="s">
         <v>1199</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5265,7 +5925,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>1290</v>
+        <v>863</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -5274,10 +5934,13 @@
         <v>641</v>
       </c>
       <c r="H9" t="s">
-        <v>1203</v>
+        <v>1338</v>
       </c>
       <c r="I9" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5294,7 +5957,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>1291</v>
+        <v>1503</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -5306,6 +5969,9 @@
         <v>179</v>
       </c>
       <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5323,7 +5989,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>1292</v>
+        <v>1504</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -5336,6 +6002,9 @@
       </c>
       <c r="I11" t="s">
         <v>1199</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -5352,7 +6021,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>1293</v>
+        <v>587</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -5365,6 +6034,9 @@
       </c>
       <c r="I12" t="s">
         <v>1198</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -5381,7 +6053,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>1294</v>
+        <v>1505</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -5394,6 +6066,9 @@
       </c>
       <c r="I13" t="s">
         <v>1199</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -5410,7 +6085,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>1295</v>
+        <v>1506</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -5423,6 +6098,9 @@
       </c>
       <c r="I14" t="s">
         <v>1199</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -5439,7 +6117,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>1296</v>
+        <v>1507</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -5452,6 +6130,9 @@
       </c>
       <c r="I15" t="s">
         <v>1199</v>
+      </c>
+      <c r="J15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -5468,7 +6149,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>313</v>
+        <v>591</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -5481,6 +6162,9 @@
       </c>
       <c r="I16" t="s">
         <v>1198</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5497,7 +6181,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>1297</v>
+        <v>592</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5510,6 +6194,9 @@
       </c>
       <c r="I17" t="s">
         <v>1198</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5526,7 +6213,7 @@
         <v>1208</v>
       </c>
       <c r="E18" t="s">
-        <v>1298</v>
+        <v>1508</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -5539,6 +6226,9 @@
       </c>
       <c r="I18" t="s">
         <v>1198</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5555,7 +6245,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>1299</v>
+        <v>1509</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -5568,6 +6258,9 @@
       </c>
       <c r="I19" t="s">
         <v>1198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5584,7 +6277,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>1300</v>
+        <v>1510</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -5597,6 +6290,9 @@
       </c>
       <c r="I20" t="s">
         <v>1211</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5613,7 +6309,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>1301</v>
+        <v>1511</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -5626,6 +6322,9 @@
       </c>
       <c r="I21" t="s">
         <v>1198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5642,7 +6341,7 @@
         <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>1302</v>
+        <v>1512</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -5655,6 +6354,9 @@
       </c>
       <c r="I22" t="s">
         <v>1198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5671,7 +6373,7 @@
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>1303</v>
+        <v>1513</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -5684,6 +6386,9 @@
       </c>
       <c r="I23" t="s">
         <v>1198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5700,7 +6405,7 @@
         <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>320</v>
+        <v>1514</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -5713,6 +6418,9 @@
       </c>
       <c r="I24" t="s">
         <v>1213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5729,7 +6437,7 @@
         <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>1304</v>
+        <v>1515</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -5742,6 +6450,9 @@
       </c>
       <c r="I25" t="s">
         <v>1199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5758,7 +6469,7 @@
         <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>1305</v>
+        <v>1516</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -5771,6 +6482,9 @@
       </c>
       <c r="I26" t="s">
         <v>1199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5787,7 +6501,7 @@
         <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>1306</v>
+        <v>1517</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -5800,6 +6514,9 @@
       </c>
       <c r="I27" t="s">
         <v>1199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5816,7 +6533,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>1307</v>
+        <v>1518</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -5829,6 +6546,9 @@
       </c>
       <c r="I28" t="s">
         <v>1213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5845,7 +6565,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>1308</v>
+        <v>1519</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -5858,6 +6578,9 @@
       </c>
       <c r="I29" t="s">
         <v>1213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5874,7 +6597,7 @@
         <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>1309</v>
+        <v>1520</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -5883,10 +6606,13 @@
         <v>641</v>
       </c>
       <c r="H30" t="s">
-        <v>1055</v>
+        <v>1338</v>
       </c>
       <c r="I30" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5903,7 +6629,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>1310</v>
+        <v>1521</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5916,6 +6642,9 @@
       </c>
       <c r="I31" t="s">
         <v>1198</v>
+      </c>
+      <c r="J31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5932,7 +6661,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1311</v>
+        <v>1522</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -5945,6 +6674,9 @@
       </c>
       <c r="I32" t="s">
         <v>1199</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5961,7 +6693,7 @@
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>1174</v>
+        <v>1523</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -5970,10 +6702,13 @@
         <v>641</v>
       </c>
       <c r="H33" t="s">
-        <v>1055</v>
+        <v>1357</v>
       </c>
       <c r="I33" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5990,7 +6725,7 @@
         <v>1220</v>
       </c>
       <c r="E34" t="s">
-        <v>1312</v>
+        <v>1524</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -6003,6 +6738,9 @@
       </c>
       <c r="I34" t="s">
         <v>1199</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -6019,7 +6757,7 @@
         <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>1313</v>
+        <v>1525</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
@@ -6028,10 +6766,13 @@
         <v>641</v>
       </c>
       <c r="H35" t="s">
-        <v>1055</v>
+        <v>1338</v>
       </c>
       <c r="I35" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -6048,7 +6789,7 @@
         <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>1314</v>
+        <v>1526</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -6061,6 +6802,9 @@
       </c>
       <c r="I36" t="s">
         <v>1213</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -6077,7 +6821,7 @@
         <v>1222</v>
       </c>
       <c r="E37" t="s">
-        <v>1315</v>
+        <v>1527</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -6090,6 +6834,9 @@
       </c>
       <c r="I37" t="s">
         <v>1199</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -6106,7 +6853,7 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>1179</v>
+        <v>1528</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -6115,10 +6862,13 @@
         <v>641</v>
       </c>
       <c r="H38" t="s">
-        <v>1055</v>
+        <v>1362</v>
       </c>
       <c r="I38" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -6135,7 +6885,7 @@
         <v>1225</v>
       </c>
       <c r="E39" t="s">
-        <v>1316</v>
+        <v>1529</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -6148,6 +6898,9 @@
       </c>
       <c r="I39" t="s">
         <v>1199</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -6164,7 +6917,7 @@
         <v>1226</v>
       </c>
       <c r="E40" t="s">
-        <v>336</v>
+        <v>614</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -6177,6 +6930,9 @@
       </c>
       <c r="I40" t="s">
         <v>1199</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -6193,7 +6949,7 @@
         <v>1227</v>
       </c>
       <c r="E41" t="s">
-        <v>337</v>
+        <v>615</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -6206,6 +6962,9 @@
       </c>
       <c r="I41" t="s">
         <v>1199</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -6222,7 +6981,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1317</v>
+        <v>1530</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -6235,6 +6994,9 @@
       </c>
       <c r="I42" t="s">
         <v>1198</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -6263,7 +7025,10 @@
         <v>1070</v>
       </c>
       <c r="I43" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -6280,7 +7045,7 @@
         <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>1318</v>
+        <v>618</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -6293,6 +7058,9 @@
       </c>
       <c r="I44" t="s">
         <v>1198</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -6309,7 +7077,7 @@
         <v>1230</v>
       </c>
       <c r="E45" t="s">
-        <v>1319</v>
+        <v>1531</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -6322,6 +7090,9 @@
       </c>
       <c r="I45" t="s">
         <v>1198</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -6338,7 +7109,7 @@
         <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>342</v>
+        <v>620</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -6351,6 +7122,9 @@
       </c>
       <c r="I46" t="s">
         <v>1199</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -6367,7 +7141,7 @@
         <v>1231</v>
       </c>
       <c r="E47" t="s">
-        <v>1320</v>
+        <v>1532</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -6380,6 +7154,9 @@
       </c>
       <c r="I47" t="s">
         <v>1211</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -6396,7 +7173,7 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>1321</v>
+        <v>1533</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -6405,10 +7182,13 @@
         <v>641</v>
       </c>
       <c r="H48" t="s">
-        <v>1055</v>
+        <v>1357</v>
       </c>
       <c r="I48" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -6425,7 +7205,7 @@
         <v>1233</v>
       </c>
       <c r="E49" t="s">
-        <v>1322</v>
+        <v>1534</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -6438,6 +7218,9 @@
       </c>
       <c r="I49" t="s">
         <v>1211</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -6454,7 +7237,7 @@
         <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>1323</v>
+        <v>1535</v>
       </c>
       <c r="F50" t="s">
         <v>48</v>
@@ -6463,10 +7246,13 @@
         <v>641</v>
       </c>
       <c r="H50" t="s">
-        <v>1080</v>
+        <v>1357</v>
       </c>
       <c r="I50" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6483,7 +7269,7 @@
         <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>1324</v>
+        <v>1536</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -6496,6 +7282,9 @@
       </c>
       <c r="I51" t="s">
         <v>1199</v>
+      </c>
+      <c r="J51" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -6512,7 +7301,7 @@
         <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>1325</v>
+        <v>1537</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -6525,6 +7314,9 @@
       </c>
       <c r="I52" t="s">
         <v>1199</v>
+      </c>
+      <c r="J52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -6541,7 +7333,7 @@
         <v>1236</v>
       </c>
       <c r="E53" t="s">
-        <v>1326</v>
+        <v>1538</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -6554,6 +7346,9 @@
       </c>
       <c r="I53" t="s">
         <v>1199</v>
+      </c>
+      <c r="J53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6570,7 +7365,7 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>1194</v>
+        <v>1539</v>
       </c>
       <c r="F54" t="s">
         <v>52</v>
@@ -6582,7 +7377,10 @@
         <v>1086</v>
       </c>
       <c r="I54" t="s">
-        <v>1199</v>
+        <v>70</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6599,7 +7397,7 @@
         <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>1327</v>
+        <v>629</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -6612,6 +7410,9 @@
       </c>
       <c r="I55" t="s">
         <v>1199</v>
+      </c>
+      <c r="J55" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6628,7 +7429,7 @@
         <v>1238</v>
       </c>
       <c r="E56" t="s">
-        <v>1328</v>
+        <v>1540</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>
@@ -6641,6 +7442,9 @@
       </c>
       <c r="I56" t="s">
         <v>1211</v>
+      </c>
+      <c r="J56" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/3.xlsx
+++ b/Covid_19_Dataset_and_References/References/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10523" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11419" uniqueCount="1637">
   <si>
     <t>Doi</t>
   </si>
@@ -5358,6 +5358,294 @@
   </si>
   <si>
     <t>[Yong%Gao%NULL%3,        Tuantuan%Li%NULL%1,        Mingfeng%Han%NULL%1,        Xiuyong%Li%NULL%1,        Dong%Wu%NULL%1,        Yuanhong%Xu%NULL%1,        Yulin%Zhu%NULL%1,        Yan%Liu%NULL%1,        Xiaowu%Wang%wangxiaowu19880218@126.com%1,        Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,         Yeming%Wang%NULL%2,         Xingwang%Li%NULL%1,         Lili%Ren%NULL%1,         Jianping%Zhao%NULL%1,         Yi%Hu%NULL%3,         Li%Zhang%NULL%2,         Guohui%Fan%NULL%2,         Jiuyang%Xu%NULL%2,         Xiaoying%Gu%NULL%2,         Zhenshun%Cheng%NULL%2,         Ting%Yu%NULL%4,         Jiaan%Xia%NULL%1,         Yuan%Wei%NULL%3,         Wenjuan%Wu%NULL%1,         Xuelei%Xie%NULL%1,         Wen%Yin%NULL%1,         Hui%Li%NULL%3,         Min%Liu%NULL%1,         Yan%Xiao%NULL%2,         Hong%Gao%NULL%2,         Li%Guo%NULL%2,         Jungang%Xie%NULL%1,         Guangfa%Wang%NULL%1,         Rongmeng%Jiang%NULL%1,         Zhancheng%Gao%NULL%1,         Qi%Jin%NULL%2,         Jianwei%Wang%wangjw28@163.com%1,         Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,         Shuofeng%Yuan%NULL%1,         Kin-Hang%Kok%NULL%1,         Kelvin Kai-Wang%To%NULL%1,         Hin%Chu%NULL%1,         Jin%Yang%NULL%1,         Fanfan%Xing%NULL%1,         Jieling%Liu%NULL%1,         Cyril Chik-Yan%Yip%NULL%1,         Rosana Wing-Shan%Poon%NULL%1,         Hoi-Wah%Tsoi%NULL%1,         Simon Kam-Fai%Lo%NULL%1,         Kwok-Hung%Chan%NULL%1,         Vincent Kwok-Man%Poon%NULL%1,         Wan-Mui%Chan%NULL%1,         Jonathan Daniel%Ip%NULL%1,         Jian-Piao%Cai%NULL%1,         Vincent Chi-Chung%Cheng%NULL%1,         Honglin%Chen%NULL%1,         Christopher Kim-Ming%Hui%NULL%1,         Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,         Xuhua%Guan%NULL%1,         Peng%Wu%NULL%1,         Xiaoye%Wang%NULL%1,         Lei%Zhou%NULL%1,         Yeqing%Tong%NULL%1,         Ruiqi%Ren%NULL%1,         Kathy S.M.%Leung%NULL%1,         Eric H.Y.%Lau%NULL%1,         Jessica Y.%Wong%NULL%1,         Xuesen%Xing%NULL%1,         Nijuan%Xiang%NULL%1,         Yang%Wu%NULL%1,         Chao%Li%NULL%1,         Qi%Chen%NULL%1,         Dan%Li%NULL%1,         Tian%Liu%NULL%1,         Jing%Zhao%NULL%1,         Man%Liu%NULL%1,         Wenxiao%Tu%NULL%1,         Chuding%Chen%NULL%1,         Lianmei%Jin%NULL%1,         Rui%Yang%NULL%1,         Qi%Wang%NULL%1,         Suhua%Zhou%NULL%1,         Rui%Wang%NULL%1,         Hui%Liu%NULL%1,         Yinbo%Luo%NULL%1,         Yuan%Liu%NULL%1,         Ge%Shao%NULL%1,         Huan%Li%NULL%1,         Zhongfa%Tao%NULL%1,         Yang%Yang%NULL%1,         Zhiqiang%Deng%NULL%1,         Boxi%Liu%NULL%1,         Zhitao%Ma%NULL%1,         Yanping%Zhang%NULL%1,         Guoqing%Shi%NULL%1,         Tommy T.Y.%Lam%NULL%1,         Joseph T.%Wu%NULL%1,         George F.%Gao%NULL%1,         Benjamin J.%Cowling%NULL%1,         Bo%Yang%NULL%2,         Bo%Yang%NULL%0,         Gabriel M.%Leung%NULL%1,         Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,         Min%Zhou%NULL%1,         Xuan%Dong%NULL%1,         Jieming%Qu%NULL%2,         Fengyun%Gong%NULL%1,         Yang%Han%NULL%1,         Yang%Qiu%NULL%1,         Jingli%Wang%NULL%1,         Ying%Liu%NULL%2,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%2,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%1,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,         Nannan%Shi%NULL%2,         Nannan%Shi%NULL%0,         Fei%Shan%NULL%1,         Zhiyong%Zhang%NULL%1,         Jie%Shen%NULL%1,         Hongzhou%Lu%NULL%2,         Yun%Ling%NULL%2,         Yebin%Jiang%NULL%2,         Yebin%Jiang%NULL%0,         Yuxin%Shi%shiyuxin@shphc.org.cn%3,         Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,         Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,         Yuan-Yuan%Fang%NULL%1,         Yan%Deng%NULL%2,         Wei%Liu%NULL%1,         Mei-Fang%Wang%NULL%1,         Jing-Ping%Ma%NULL%1,         Wei%Xiao%NULL%1,         Ying-Nan%Wang%NULL%1,         Min-Hua%Zhong%NULL%1,         Cheng-Hong%Li%NULL%1,         Guang-Cai%Li%NULL%1,         Hui-Guo%Liu%NULL%2,         Xiu-Yuan%Hao%NULL%4,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%2,          Yang%Yang%null%1,          Cong%Zhang%null%1,          Fengming%Huang%null%1,          Fuxiang%Wang%null%1,          Jing%Yuan%null%1,          Zhaoqin%Wang%null%1,          Jinxiu%Li%null%1,          Jianming%Li%null%1,          Cheng%Feng%null%1,          Zheng%Zhang%null%1,          Lifei%Wang%null%1,          Ling%Peng%null%1,          Li%Chen%null%1,          Yuhao%Qin%null%1,          Dandan%Zhao%null%1,          Shuguang%Tan%null%1,          Lu%Yin%null%1,          Jun%Xu%null%1,          Congzhao%Zhou%null%1,          Chengyu%Jiang%null%1,          Lei%Liu%null%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,         Ye-Ming%Wang%NULL%1,         Zhi-Qiang%Wu%NULL%1,         Zi-Chun%Xiang%NULL%1,         Li%Guo%NULL%0,         Teng%Xu%NULL%1,         Yong-Zhong%Jiang%NULL%1,         Yan%Xiong%NULL%1,         Yong-Jun%Li%NULL%1,         Xing-Wang%Li%NULL%1,         Hui%Li%NULL%0,         Guo-Hui%Fan%NULL%1,         Xiao-Ying%Gu%NULL%1,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Jiu-Yang%Xu%NULL%1,         Fan%Yang%NULL%1,         Xin-Ming%Wang%NULL%1,         Chao%Wu%NULL%1,         Lan%Chen%NULL%1,         Yi-Wei%Liu%NULL%1,         Bo%Liu%NULL%1,         Jian%Yang%NULL%1,         Xiao-Rui%Wang%NULL%1,         Jie%Dong%NULL%1,         Li%Li%NULL%2,         Chao-Lin%Huang%NULL%1,         Jian-Ping%Zhao%NULL%1,         Yi%Hu%NULL%0,         Zhen-Shun%Cheng%NULL%1,         Lin-Lin%Liu%NULL%1,         Zhao-Hui%Qian%NULL%1,         Chuan%Qin%NULL%1,         Qi%Jin%NULL%0,         Bin%Cao%NULL%0,         Jian-Wei%Wang%NULL%1,         Xiu-Yuan%Hao%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,         Dengju%Li%NULL%1,         Xiong%Wang%NULL%1,         Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,         Cao%Yi-yuan%coreGivesNoEmail%1,         Dong%Xiang%coreGivesNoEmail%1,         Gao%Ya-dong%coreGivesNoEmail%1,         Yan%You-qin%coreGivesNoEmail%1,         Yang%Yi-bin%coreGivesNoEmail%1,         Yuan%Ya-dong%coreGivesNoEmail%1,         Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,         Xiao-Xin%Wu%NULL%1,         Xian-Gao%Jiang%NULL%1,         Kai-Jin%Xu%NULL%1,         Ling-Jun%Ying%NULL%1,         Chun-Lian%Ma%NULL%1,         Shi-Bo%Li%NULL%1,         Hua-Ying%Wang%NULL%1,         Sheng%Zhang%NULL%1,         Hai-Nv%Gao%NULL%1,         Ji-Fang%Sheng%NULL%1,         Hong-Liu%Cai%NULL%1,         Yun-Qing%Qiu%NULL%1,         Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,         Xiaojia%Wu%NULL%1,         Wenbing%Zeng%NULL%1,         Dajing%Guo%NULL%2,         Zheng%Fang%NULL%2,         Linli%Chen%NULL%2,         Huizhe%Huang%NULL%1,         Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,         Xiaoyu%Han%NULL%1,         Nanchuan%Jiang%NULL%1,         Yukun%Cao%NULL%1,         Osamah%Alwalid%NULL%1,         Jin%Gu%NULL%1,         Yanqing%Fan%1024932023@qq.com%2,         Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,         Yuan%Yu%NULL%1,         Jiqian%Xu%NULL%1,         Huaqing%Shu%NULL%1,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%1,         Yongran%Wu%NULL%1,         Lu%Zhang%NULL%1,         Zhui%Yu%NULL%1,         Minghao%Fang%NULL%1,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%1,         Shangwen%Pan%NULL%1,         Xiaojing%Zou%NULL%1,         Shiying%Yuan%NULL%1,         You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,         Jing-Hui%Dong%NULL%1,         Wei-Min%An%NULL%1,         Xiao-Yan%Lv%15001008285@139.com%1,         Xiao-Ping%Yin%yinxiaoping78@sina.com%1,         Jian-Zeng%Zhang%NULL%1,         Li%Dong%NULL%1,         Xi%Ma%NULL%1,         Hong-Jie%Zhang%NULL%1,         Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,         Zhenlu%Yang%NULL%2,         Zhenlu%Yang%NULL%0,         Hongyan%Hou%NULL%2,         Hongyan%Hou%NULL%0,         Chenao%Zhan%NULL%1,         Chong%Chen%NULL%1,         Wenzhi%Lv%NULL%2,         Wenzhi%Lv%NULL%0,         Qian%Tao%NULL%2,         Qian%Tao%NULL%0,         Ziyong%Sun%NULL%0,         Ziyong%Sun%NULL%0,         Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,         Qiqi%Cao%NULL%1,         Le%Qin%NULL%1,         Xiaoyang%Wang%NULL%1,         Zenghui%Cheng%NULL%1,         Ashan%Pan%NULL%1,         Jianyi%Dai%NULL%1,         Qingfeng%Sun%NULL%1,         Fengquan%Zhao%NULL%1,         Jieming%Qu%NULL%0,         Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,         Nan%Hu%NULL%1,         Jing%Lou%NULL%1,         Kun%Chen%NULL%1,         Xuqin%Kang%NULL%1,         Zhenjun%Xiang%NULL%1,         Hui%Chen%NULL%1,         Dali%Wang%NULL%1,         Ning%Liu%NULL%1,         Dong%Liu%NULL%1,         Gang%Chen%NULL%1,         Yongliang%Zhang%NULL%1,         Dou%Li%NULL%1,         Jianren%Li%NULL%1,         Huixin%Lian%NULL%1,         Shengmei%Niu%NULL%1,         Luxi%Zhang%NULL%1,         Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,         Mengqi%Tu%NULL%1,         Shipei%Wang%NULL%1,         Sichao%Chen%NULL%1,         Wei%Zhou%NULL%1,         Danyang%Chen%NULL%1,         Lin%Zhou%NULL%1,         Min%Wang%NULL%1,         Yan%Zhao%NULL%1,         Wen%Zeng%NULL%1,         Qi%Huang%NULL%1,         Hai'bo%Xu%NULL%1,         Zeming%Liu%NULL%1,         Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,         Chengcheng%Yu%NULL%1,         Jing%Qu%NULL%1,         Lieguang%Zhang%NULL%1,         Songfeng%Jiang%NULL%1,         Deyang%Huang%NULL%1,         Bihua%Chen%NULL%1,         Zhiping%Zhang%NULL%1,         Wanhua%Guan%NULL%1,         Zhoukun%Ling%NULL%1,         Rui%Jiang%NULL%1,         Tianli%Hu%NULL%1,         Yan%Ding%NULL%1,         Lin%Lin%NULL%1,         Qingxin%Gan%NULL%1,         Liangping%Luo%tluolp@jnu.edu.cn%1,         Xiaoping%Tang%xtang@21cn.com%1,         Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,         Zhao-Wu%Tao%NULL%1,         Lei%Wang%NULL%1,         Ming-Li%Yuan%NULL%1,         Kui%Liu%NULL%1,         Ling%Zhou%NULL%1,         Shuang%Wei%NULL%1,         Yan%Deng%NULL%0,         Jing%Liu%NULL%1,         Hui-Guo%Liu%NULL%0,         Ming%Yang%NULL%1,         Yi%Hu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,         Jiong%Wu%NULL%1,         Faqi%Wu%NULL%1,         Dajing%Guo%NULL%0,         Linli%Chen%NULL%0,         Zheng%Fang%NULL%0,         Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,         Jun%Liu%NULL%1,         Xinguo%Zhao%NULL%1,         Chengyuan%Liu%NULL%1,         Wei%Wang%NULL%1,         Dawei%Wang%NULL%1,         Wei%Xu%NULL%1,         Chunyu%Zhang%NULL%1,         Jiong%Yu%NULL%1,         Bin%Jiang%NULL%1,         Hongcui%Cao%hccao@zju.edu.cn%1,         Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,         Xiaorong%Hu%NULL%1,         Wenlin%Cheng%NULL%1,         Lei%Yu%NULL%1,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,         Qiang%Liu%liuqiang@irm-cams.ac.cn%2,         Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,         Kun%Yang%NULL%2,         Kun%Yang%NULL%0,         Wenxia%Wang%NULL%2,         Wenxia%Wang%NULL%0,         Lingyu%Jiang%NULL%2,         Lingyu%Jiang%NULL%0,         Jianxin%Song%songsingsjx@sina.com%2,         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1,      Zheng%Zhong%xref no email%1,      Xingzhi%Xie%xref no email%1,      Qizhi%Yu%xref no email%1,      Jun%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,         Meiwen%Tang%NULL%1,         Xiaobin%Zheng%NULL%1,         Ye%Liu%ly77219@163.com%1,         Xiaofeng%Li%zdwylxf@163.com%1,         Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,         Dong%Sun%NULL%1,         Yao%Liu%NULL%1,         Yanqing%Fan%NULL%0,         Lingyun%Zhao%NULL%1,         Xiaoming%Li%NULL%1,         Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,      Sean Wei Xiang%Ong%xref no email%6,      Shirin%Kalimuddin%xref no email%6,      Jenny G.%Low%xref no email%6,      Seow Yen%Tan%xref no email%6,      Jiashen%Loh%xref no email%6,      Oon-Tek%Ng%xref no email%6,      Kalisvar%Marimuthu%xref no email%6,      Li Wei%Ang%xref no email%6,      Tze Minn%Mak%xref no email%6,      Sok Kiang%Lau%xref no email%6,      Danielle E.%Anderson%xref no email%6,      Kian Sing%Chan%xref no email%6,      Thean Yen%Tan%xref no email%6,      Tong Yong%Ng%xref no email%6,      Lin%Cui%xref no email%6,      Zubaidah%Said%xref no email%6,      Lalitha%Kurupatham%xref no email%6,      Mark I-Cheng%Chen%xref no email%6,      Monica%Chan%xref no email%6,      Shawn%Vasoo%xref no email%6,      Lin-Fa%Wang%xref no email%6,      Boon Huan%Tan%xref no email%6,      Raymond Tzer Pin%Lin%xref no email%6,      Vernon Jian Ming%Lee%xref no email%6,      Yee-Sin%Leo%xref no email%6,      David Chien%Lye%xref no email%6]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,         SaiBin%Wang%NULL%2,         SaiBin%Wang%NULL%0,         YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1,      Liming%Xia%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,         Ci%Song%NULL%1,         Chuanjun%Xu%NULL%1,         Guangfu%Jin%NULL%1,         Yaling%Chen%NULL%1,         Xin%Xu%NULL%1,         Hongxia%Ma%NULL%1,         Wei%Chen%NULL%1,         Yuan%Lin%NULL%1,         Yishan%Zheng%NULL%1,         Jianming%Wang%NULL%1,         Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,         Yongxiang%Yi%ian0126@126.com%1,         Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,         Yao%Tian%NULL%2,         Yao%Tian%NULL%0,         Jing%Zhou%NULL%1,         Xuan%Ma%NULL%1,         Min%Yang%NULL%1,         ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuchang%Zhou%xref no email%1,      Yujin%Wang%xref no email%1,      Tingting%Zhu%xref no email%1,      Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,         James%Fielding%NULL%1,         Michaela%Diercke%NULL%1,         Christine%Campese%NULL%1,         Vincent%Enouf%NULL%1,         Alexandre%Gaymard%NULL%1,         Antonino%Bella%NULL%1,         Paola%Sognamiglio%NULL%1,         Maria José%Sierra Moros%NULL%1,         Antonio Nicolau%Riutort%NULL%1,         Yulia V.%Demina%NULL%1,         Romain%Mahieu%NULL%1,         Markku%Broas%NULL%1,         Malin%Bengnér%NULL%1,         Silke%Buda%NULL%1,         Julia%Schilling%NULL%1,         Laurent%Filleul%NULL%1,         Agnès%Lepoutre%NULL%1,         Christine%Saura%NULL%1,         Alexandra%Mailles%NULL%1,         Daniel%Levy-Bruhl%NULL%1,         Bruno%Coignard%NULL%1,         Sibylle%Bernard-Stoecklin%NULL%1,         Sylvie%Behillil%NULL%1,         Sylvie%van der Werf%NULL%1,         Martine%Valette%NULL%1,         Bruno%Lina%NULL%1,         Flavia%Riccardo%NULL%1,         Emanuele%Nicastri%NULL%1,         Inmaculada%Casas%NULL%1,         Amparo%Larrauri%NULL%1,         Magdalena%Salom Castell%NULL%1,         Francisco%Pozo%NULL%1,         Rinat A.%Maksyutov%NULL%1,         Charlotte%Martin%NULL%1,         Marc%Van Ranst%NULL%1,         Nathalie%Bossuyt%NULL%1,         Lotta%Siira%NULL%1,         Jussi%Sane%NULL%1,         Karin%Tegmark-Wisell%NULL%1,         Maria%Palmérus%NULL%1,         Eeva K.%Broberg%NULL%1,         Julien%Beauté%NULL%1,         Pernille%Jorgensen%NULL%1,         Nick%Bundle%NULL%1,         Dmitriy%Pereyaslov%NULL%1,         Cornelia%Adlhoch%NULL%1,         Jukka%Pukkila%NULL%1,         Richard%Pebody%NULL%1,         Sonja%Olsen%NULL%1,         Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%1,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%1,         Jie%Xiang%NULL%1,         Yeming%Wang%NULL%0,         Bin%Song%NULL%1,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%1,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%1,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%1,         Yi%Zhang%NULL%1,         Hua%Chen%NULL%1,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,         Tangkai%Qi%NULL%1,         Li%Liu%NULL%1,         Yun%Ling%NULL%0,         Zhiping%Qian%NULL%1,         Tao%Li%NULL%1,         Feng%Li%NULL%1,         Qingnian%Xu%NULL%1,         Yuyi%Zhang%NULL%1,         Shuibao%Xu%NULL%1,         Zhigang%Song%NULL%1,         Yigang%Zeng%NULL%1,         Yinzhong%Shen%NULL%1,         Yuxin%Shi%NULL%0,         Tongyu%Zhu%NULL%1,         Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,         Bin%Quan%NULL%1,         Xiaoning%Li%NULL%1,         Guangjian%Gao%NULL%1,         Wenqiang%Zheng%NULL%1,         Jun%Zhang%NULL%1,         Zhiyun%Zhang%NULL%1,         Chunsheng%Liu%NULL%1,         Li%Li%NULL%0,         Chenglin%Wang%NULL%1,         Guihua%Zhang%NULL%1,         Jiajia%Li%NULL%1,         Yunhai%Dai%NULL%1,         Jianghua%Yang%yjhpath@163.com%1,         Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,      Xiaoyan%Chen%xref no email%9,      Yanping%Cai%xref no email%9,      Jia\u2019an%Xia%xref no email%9,      Xing%Zhou%xref no email%9,      Sha%Xu%xref no email%9,      Hanping%Huang%xref no email%9,      Li%Zhang%xref no email%9,      Xia%Zhou%xref no email%9,      Chunling%Du%xref no email%9,      Yuye%Zhang%xref no email%9,      Juan%Song%xref no email%10,      Sijiao%Wang%xref no email%9,      Yencheng%Chao%xref no email%9,      Zeyong%Yang%xref no email%9,      Jie%Xu%xref no email%9,      Xin%Zhou%xref no email%9,      Dechang%Chen%xref no email%9,      Weining%Xiong%xref no email%9,      Lei%Xu%xref no email%9,      Feng%Zhou%xref no email%9,      Jinjun%Jiang%xref no email%9,      Chunxue%Bai%xref no email%9,      Junhua%Zheng%xref no email%9,      Yuanlin%Song%xref no email%10]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,         Kai%Xie%NULL%2,         Kai%Xie%NULL%0,         Hui%Lu%NULL%1,         Lei%Xu%bayinhexl@126.com%1,         Shusheng%Zhou%zhouss108@163.com%1,         Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,      Yong%Lu%xref no email%3,      Qiqi%Cao%xref no email%3,      Le%Qin%xref no email%3,      Zilai%Pan%xref no email%3,      Fuhua%Yan%xref no email%3,      Wenjie%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,         Yuanyuan%Xing%NULL%1,         Yu%Xiao%NULL%1,         Liping%Deng%NULL%1,         Qiu%Zhao%NULL%1,         Hongling%Wang%NULL%1,         Yong%Xiong%NULL%1,         Zhenshun%Cheng%NULL%0,         Shicheng%Gao%NULL%1,         Ke%Liang%NULL%1,         Mingqi%Luo%NULL%1,         Tielong%Chen%NULL%1,         Shihui%Song%NULL%1,         Zhiyong%Ma%NULL%1,         Xiaoping%Chen%NULL%1,         Ruiying%Zheng%NULL%1,         Qian%Cao%NULL%1,         Fan%Wang%fanndywang@foxmail.com%1,         Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,         Bohan%Yang%NULL%1,         Qianwen%Li%NULL%1,         Lu%Wen%NULL%1,         Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,         Yingxia%Liu%NULL%1,         Lei%Liu%NULL%1,         Xianfeng%Wang%NULL%1,         Nijuan%Luo%NULL%1,         Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Han%xref no email%1,      Lu%Huang%xref no email%1,      Hong%Jiang%xref no email%1,      Jin%Dong%xref no email%1,      Hongfen%Peng%xref no email%1,      Dongyou%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,         N -B%Yang%NULL%1,         F%Ding%NULL%1,         A H Y%Ma%NULL%1,         Z -Y%Wang%NULL%2,         Y -F%Shen%NULL%1,         C -W%Shi%NULL%1,         X%Lian%NULL%1,         J -G%Chu%NULL%1,         L%Chen%chxmin@hotmail.com%1,         Z -Y%Wang%NULL%0,         D -W%Ren%NULL%1,         G -X%Li%NULL%1,         X -Q%Chen%chxmin@hotmail.com%1,         H -J%Shen%NULL%1,         X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,         Tuantuan%Li%NULL%1,         Mingfeng%Han%NULL%1,         Xiuyong%Li%NULL%1,         Dong%Wu%NULL%1,         Yuanhong%Xu%NULL%1,         Yulin%Zhu%NULL%1,         Yan%Liu%NULL%1,         Xiaowu%Wang%wangxiaowu19880218@126.com%1,         Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%14,          Yeming%Wang%NULL%2,          Xingwang%Li%NULL%1,          Lili%Ren%NULL%1,          Jianping%Zhao%NULL%1,          Yi%Hu%NULL%3,          Li%Zhang%NULL%2,          Guohui%Fan%NULL%2,          Jiuyang%Xu%NULL%2,          Xiaoying%Gu%NULL%2,          Zhenshun%Cheng%NULL%2,          Ting%Yu%NULL%4,          Jiaan%Xia%NULL%1,          Yuan%Wei%NULL%3,          Wenjuan%Wu%NULL%1,          Xuelei%Xie%NULL%1,          Wen%Yin%NULL%1,          Hui%Li%NULL%3,          Min%Liu%NULL%1,          Yan%Xiao%NULL%2,          Hong%Gao%NULL%2,          Li%Guo%NULL%2,          Jungang%Xie%NULL%1,          Guangfa%Wang%NULL%1,          Rongmeng%Jiang%NULL%1,          Zhancheng%Gao%NULL%1,          Qi%Jin%NULL%2,          Jianwei%Wang%wangjw28@163.com%1,          Bin%Cao%caobin_ben@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Jasper Fuk-Woo%Chan%NULL%3,          Shuofeng%Yuan%NULL%1,          Kin-Hang%Kok%NULL%1,          Kelvin Kai-Wang%To%NULL%1,          Hin%Chu%NULL%1,          Jin%Yang%NULL%1,          Fanfan%Xing%NULL%1,          Jieling%Liu%NULL%1,          Cyril Chik-Yan%Yip%NULL%1,          Rosana Wing-Shan%Poon%NULL%1,          Hoi-Wah%Tsoi%NULL%1,          Simon Kam-Fai%Lo%NULL%1,          Kwok-Hung%Chan%NULL%1,          Vincent Kwok-Man%Poon%NULL%1,          Wan-Mui%Chan%NULL%1,          Jonathan Daniel%Ip%NULL%1,          Jian-Piao%Cai%NULL%1,          Vincent Chi-Chung%Cheng%NULL%1,          Honglin%Chen%NULL%1,          Christopher Kim-Ming%Hui%NULL%1,          Kwok-Yung%Yuen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qun%Li%NULL%2,          Xuhua%Guan%NULL%1,          Peng%Wu%NULL%1,          Xiaoye%Wang%NULL%1,          Lei%Zhou%NULL%1,          Yeqing%Tong%NULL%1,          Ruiqi%Ren%NULL%1,          Kathy S.M.%Leung%NULL%1,          Eric H.Y.%Lau%NULL%1,          Jessica Y.%Wong%NULL%1,          Xuesen%Xing%NULL%1,          Nijuan%Xiang%NULL%1,          Yang%Wu%NULL%1,          Chao%Li%NULL%1,          Qi%Chen%NULL%1,          Dan%Li%NULL%1,          Tian%Liu%NULL%1,          Jing%Zhao%NULL%1,          Man%Liu%NULL%1,          Wenxiao%Tu%NULL%1,          Chuding%Chen%NULL%1,          Lianmei%Jin%NULL%1,          Rui%Yang%NULL%1,          Qi%Wang%NULL%1,          Suhua%Zhou%NULL%1,          Rui%Wang%NULL%1,          Hui%Liu%NULL%1,          Yinbo%Luo%NULL%1,          Yuan%Liu%NULL%1,          Ge%Shao%NULL%1,          Huan%Li%NULL%1,          Zhongfa%Tao%NULL%1,          Yang%Yang%NULL%1,          Zhiqiang%Deng%NULL%1,          Boxi%Liu%NULL%1,          Zhitao%Ma%NULL%1,          Yanping%Zhang%NULL%1,          Guoqing%Shi%NULL%1,          Tommy T.Y.%Lam%NULL%1,          Joseph T.%Wu%NULL%1,          George F.%Gao%NULL%1,          Benjamin J.%Cowling%NULL%1,          Bo%Yang%NULL%2,          Bo%Yang%NULL%0,          Gabriel M.%Leung%NULL%1,          Zijian%Feng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%9,          Min%Zhou%NULL%1,          Xuan%Dong%NULL%1,          Jieming%Qu%NULL%2,          Fengyun%Gong%NULL%1,          Yang%Han%NULL%1,          Yang%Qiu%NULL%1,          Jingli%Wang%NULL%1,          Ying%Liu%NULL%2,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%2,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%1,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengxiang%Song%NULL%2,          Nannan%Shi%NULL%2,          Nannan%Shi%NULL%0,          Fei%Shan%NULL%1,          Zhiyong%Zhang%NULL%1,          Jie%Shen%NULL%1,          Hongzhou%Lu%NULL%2,          Yun%Ling%NULL%2,          Yebin%Jiang%NULL%2,          Yebin%Jiang%NULL%0,          Yuxin%Shi%shiyuxin@shphc.org.cn%3,          Yuxin%Shi%shiyuxin@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%11,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,          Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%6,          Yuan-Yuan%Fang%NULL%1,          Yan%Deng%NULL%2,          Wei%Liu%NULL%1,          Mei-Fang%Wang%NULL%1,          Jing-Ping%Ma%NULL%1,          Wei%Xiao%NULL%1,          Ying-Nan%Wang%NULL%1,          Min-Hua%Zhong%NULL%1,          Cheng-Hong%Li%NULL%1,          Guang-Cai%Li%NULL%1,          Hui-Guo%Liu%NULL%2,          Xiu-Yuan%Hao%NULL%4,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%4]</t>
+  </si>
+  <si>
+    <t>[ Yingxia%Liu%null%1,           Yang%Yang%null%1,           Cong%Zhang%null%1,           Fengming%Huang%null%1,           Fuxiang%Wang%null%1,           Jing%Yuan%null%1,           Zhaoqin%Wang%null%1,           Jinxiu%Li%null%1,           Jianming%Li%null%1,           Cheng%Feng%null%1,           Zheng%Zhang%null%1,           Lifei%Wang%null%1,           Ling%Peng%null%1,           Li%Chen%null%1,           Yuhao%Qin%null%1,           Dandan%Zhao%null%1,           Shuguang%Tan%null%1,           Lu%Yin%null%1,           Jun%Xu%null%1,           Congzhao%Zhou%null%1,           Chengyu%Jiang%null%1,           Lei%Liu%null%1]</t>
+  </si>
+  <si>
+    <t>[Li-Li%Ren%NULL%3,          Ye-Ming%Wang%NULL%1,          Zhi-Qiang%Wu%NULL%1,          Zi-Chun%Xiang%NULL%1,          Li%Guo%NULL%0,          Teng%Xu%NULL%1,          Yong-Zhong%Jiang%NULL%1,          Yan%Xiong%NULL%1,          Yong-Jun%Li%NULL%1,          Xing-Wang%Li%NULL%1,          Hui%Li%NULL%0,          Guo-Hui%Fan%NULL%1,          Xiao-Ying%Gu%NULL%1,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Jiu-Yang%Xu%NULL%1,          Fan%Yang%NULL%1,          Xin-Ming%Wang%NULL%1,          Chao%Wu%NULL%1,          Lan%Chen%NULL%1,          Yi-Wei%Liu%NULL%1,          Bo%Liu%NULL%1,          Jian%Yang%NULL%1,          Xiao-Rui%Wang%NULL%1,          Jie%Dong%NULL%1,          Li%Li%NULL%2,          Chao-Lin%Huang%NULL%1,          Jian-Ping%Zhao%NULL%1,          Yi%Hu%NULL%0,          Zhen-Shun%Cheng%NULL%1,          Lin-Lin%Liu%NULL%1,          Zhao-Hui%Qian%NULL%1,          Chuan%Qin%NULL%1,          Qi%Jin%NULL%0,          Bin%Cao%NULL%0,          Jian-Wei%Wang%NULL%1,          Xiu-Yuan%Hao%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%4,          Dengju%Li%NULL%1,          Xiong%Wang%NULL%1,          Ziyong%Sun%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,          Cao%Yi-yuan%coreGivesNoEmail%1,          Dong%Xiang%coreGivesNoEmail%1,          Gao%Ya-dong%coreGivesNoEmail%1,          Yan%You-qin%coreGivesNoEmail%1,          Yang%Yi-bin%coreGivesNoEmail%1,          Yuan%Ya-dong%coreGivesNoEmail%1,          Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%7,          Xiao-Xin%Wu%NULL%1,          Xian-Gao%Jiang%NULL%1,          Kai-Jin%Xu%NULL%1,          Ling-Jun%Ying%NULL%1,          Chun-Lian%Ma%NULL%1,          Shi-Bo%Li%NULL%1,          Hua-Ying%Wang%NULL%1,          Sheng%Zhang%NULL%1,          Hai-Nv%Gao%NULL%1,          Ji-Fang%Sheng%NULL%1,          Hong-Liu%Cai%NULL%1,          Yun-Qing%Qiu%NULL%1,          Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiong%Wu%NULL%1,          Xiaojia%Wu%NULL%1,          Wenbing%Zeng%NULL%1,          Dajing%Guo%NULL%2,          Zheng%Fang%NULL%2,          Linli%Chen%NULL%2,          Huizhe%Huang%NULL%1,          Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Heshui%Shi%NULL%2,          Xiaoyu%Han%NULL%1,          Nanchuan%Jiang%NULL%1,          Yukun%Cao%NULL%1,          Osamah%Alwalid%NULL%1,          Jin%Gu%NULL%1,          Yanqing%Fan%1024932023@qq.com%2,          Chuansheng%Zheng%hqzcsxh@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%16,          Yuan%Yu%NULL%1,          Jiqian%Xu%NULL%1,          Huaqing%Shu%NULL%1,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%1,          Yongran%Wu%NULL%1,          Lu%Zhang%NULL%1,          Zhui%Yu%NULL%1,          Minghao%Fang%NULL%1,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%1,          Shangwen%Pan%NULL%1,          Xiaojing%Zou%NULL%1,          Shiying%Yuan%NULL%1,          You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%2,          Jing-Hui%Dong%NULL%1,          Wei-Min%An%NULL%1,          Xiao-Yan%Lv%15001008285@139.com%1,          Xiao-Ping%Yin%yinxiaoping78@sina.com%1,          Jian-Zeng%Zhang%NULL%1,          Li%Dong%NULL%1,          Xi%Ma%NULL%1,          Hong-Jie%Zhang%NULL%1,          Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%3,          Zhenlu%Yang%NULL%2,          Zhenlu%Yang%NULL%0,          Hongyan%Hou%NULL%2,          Hongyan%Hou%NULL%0,          Chenao%Zhan%NULL%1,          Chong%Chen%NULL%1,          Wenzhi%Lv%NULL%2,          Wenzhi%Lv%NULL%0,          Qian%Tao%NULL%2,          Qian%Tao%NULL%0,          Ziyong%Sun%NULL%0,          Ziyong%Sun%NULL%0,          Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%4,          Qiqi%Cao%NULL%1,          Le%Qin%NULL%1,          Xiaoyang%Wang%NULL%1,          Zenghui%Cheng%NULL%1,          Ashan%Pan%NULL%1,          Jianyi%Dai%NULL%1,          Qingfeng%Sun%NULL%1,          Fengquan%Zhao%NULL%1,          Jieming%Qu%NULL%0,          Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%2,          Nan%Hu%NULL%1,          Jing%Lou%NULL%1,          Kun%Chen%NULL%1,          Xuqin%Kang%NULL%1,          Zhenjun%Xiang%NULL%1,          Hui%Chen%NULL%1,          Dali%Wang%NULL%1,          Ning%Liu%NULL%1,          Dong%Liu%NULL%1,          Gang%Chen%NULL%1,          Yongliang%Zhang%NULL%1,          Dou%Li%NULL%1,          Jianren%Li%NULL%1,          Huixin%Lian%NULL%1,          Shengmei%Niu%NULL%1,          Luxi%Zhang%NULL%1,          Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%3,          Mengqi%Tu%NULL%1,          Shipei%Wang%NULL%1,          Sichao%Chen%NULL%1,          Wei%Zhou%NULL%1,          Danyang%Chen%NULL%1,          Lin%Zhou%NULL%1,          Min%Wang%NULL%1,          Yan%Zhao%NULL%1,          Wen%Zeng%NULL%1,          Qi%Huang%NULL%1,          Hai'bo%Xu%NULL%1,          Zeming%Liu%NULL%1,          Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%4,          Chengcheng%Yu%NULL%1,          Jing%Qu%NULL%1,          Lieguang%Zhang%NULL%1,          Songfeng%Jiang%NULL%1,          Deyang%Huang%NULL%1,          Bihua%Chen%NULL%1,          Zhiping%Zhang%NULL%1,          Wanhua%Guan%NULL%1,          Zhoukun%Ling%NULL%1,          Rui%Jiang%NULL%1,          Tianli%Hu%NULL%1,          Yan%Ding%NULL%1,          Lin%Lin%NULL%1,          Qingxin%Gan%NULL%1,          Liangping%Luo%tluolp@jnu.edu.cn%1,          Xiaoping%Tang%xtang@21cn.com%1,          Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%8,          Zhao-Wu%Tao%NULL%1,          Lei%Wang%NULL%1,          Ming-Li%Yuan%NULL%1,          Kui%Liu%NULL%1,          Ling%Zhou%NULL%1,          Shuang%Wei%NULL%1,          Yan%Deng%NULL%0,          Jing%Liu%NULL%1,          Hui-Guo%Liu%NULL%0,          Ming%Yang%NULL%1,          Yi%Hu%NULL%0,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%3,          Jiong%Wu%NULL%1,          Faqi%Wu%NULL%1,          Dajing%Guo%NULL%0,          Linli%Chen%NULL%0,          Zheng%Fang%NULL%0,          Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%2,          Jun%Liu%NULL%1,          Xinguo%Zhao%NULL%1,          Chengyuan%Liu%NULL%1,          Wei%Wang%NULL%1,          Dawei%Wang%NULL%1,          Wei%Xu%NULL%1,          Chunyu%Zhang%NULL%1,          Jiong%Yu%NULL%1,          Bin%Jiang%NULL%1,          Hongcui%Cao%hccao@zju.edu.cn%1,          Lanjuan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%12,          Xiaorong%Hu%NULL%1,          Wenlin%Cheng%NULL%1,          Lei%Yu%NULL%1,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,          Qiang%Liu%liuqiang@irm-cams.ac.cn%2,          Qiang%Liu%liuqiang@irm-cams.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%5,          Kun%Yang%NULL%2,          Kun%Yang%NULL%0,          Wenxia%Wang%NULL%2,          Wenxia%Wang%NULL%0,          Lingyu%Jiang%NULL%2,          Lingyu%Jiang%NULL%0,          Jianxin%Song%songsingsjx@sina.com%2,          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhao%xref no email%1,       Zheng%Zhong%xref no email%1,       Xingzhi%Xie%xref no email%1,       Qizhi%Yu%xref no email%1,       Jun%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Xiao%NULL%1,          Meiwen%Tang%NULL%1,          Xiaobin%Zheng%NULL%1,          Ye%Liu%ly77219@163.com%1,          Xiaofeng%Li%zdwylxf@163.com%1,          Hong%Shan%shanhong@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Xiong%NULL%1,          Dong%Sun%NULL%1,          Yao%Liu%NULL%1,          Yanqing%Fan%NULL%0,          Lingyun%Zhao%NULL%1,          Xiaoming%Li%NULL%1,          Wenzhen%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,       Sean Wei Xiang%Ong%xref no email%6,       Shirin%Kalimuddin%xref no email%6,       Jenny G.%Low%xref no email%6,       Seow Yen%Tan%xref no email%6,       Jiashen%Loh%xref no email%6,       Oon-Tek%Ng%xref no email%6,       Kalisvar%Marimuthu%xref no email%6,       Li Wei%Ang%xref no email%6,       Tze Minn%Mak%xref no email%6,       Sok Kiang%Lau%xref no email%6,       Danielle E.%Anderson%xref no email%6,       Kian Sing%Chan%xref no email%6,       Thean Yen%Tan%xref no email%6,       Tong Yong%Ng%xref no email%6,       Lin%Cui%xref no email%6,       Zubaidah%Said%xref no email%6,       Lalitha%Kurupatham%xref no email%6,       Mark I-Cheng%Chen%xref no email%6,       Monica%Chan%xref no email%6,       Shawn%Vasoo%xref no email%6,       Lin-Fa%Wang%xref no email%6,       Boon Huan%Tan%xref no email%6,       Raymond Tzer Pin%Lin%xref no email%6,       Vernon Jian Ming%Lee%xref no email%6,       Yee-Sin%Leo%xref no email%6,       David Chien%Lye%xref no email%6]</t>
+  </si>
+  <si>
+    <t>[JingCheng%Zhang%zjc1983@126.com%1,          SaiBin%Wang%NULL%2,          SaiBin%Wang%NULL%0,          YaDong%Xue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Li%xref no email%1,       Liming%Xia%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%2,          Ci%Song%NULL%1,          Chuanjun%Xu%NULL%1,          Guangfu%Jin%NULL%1,          Yaling%Chen%NULL%1,          Xin%Xu%NULL%1,          Hongxia%Ma%NULL%1,          Wei%Chen%NULL%1,          Yuan%Lin%NULL%1,          Yishan%Zheng%NULL%1,          Jianming%Wang%NULL%1,          Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,          Yongxiang%Yi%ian0126@126.com%1,          Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Yao%NULL%1,          Yao%Tian%NULL%2,          Yao%Tian%NULL%0,          Jing%Zhou%NULL%1,          Xuan%Ma%NULL%1,          Min%Yang%NULL%1,          ShengYu%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuchang%Zhou%xref no email%1,       Yujin%Wang%xref no email%1,       Tingting%Zhu%xref no email%1,       Liming%Xia%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Spiteri%NULL%1,          James%Fielding%NULL%1,          Michaela%Diercke%NULL%1,          Christine%Campese%NULL%1,          Vincent%Enouf%NULL%1,          Alexandre%Gaymard%NULL%1,          Antonino%Bella%NULL%1,          Paola%Sognamiglio%NULL%1,          Maria José%Sierra Moros%NULL%1,          Antonio Nicolau%Riutort%NULL%1,          Yulia V.%Demina%NULL%1,          Romain%Mahieu%NULL%1,          Markku%Broas%NULL%1,          Malin%Bengnér%NULL%1,          Silke%Buda%NULL%1,          Julia%Schilling%NULL%1,          Laurent%Filleul%NULL%1,          Agnès%Lepoutre%NULL%1,          Christine%Saura%NULL%1,          Alexandra%Mailles%NULL%1,          Daniel%Levy-Bruhl%NULL%1,          Bruno%Coignard%NULL%1,          Sibylle%Bernard-Stoecklin%NULL%1,          Sylvie%Behillil%NULL%1,          Sylvie%van der Werf%NULL%1,          Martine%Valette%NULL%1,          Bruno%Lina%NULL%1,          Flavia%Riccardo%NULL%1,          Emanuele%Nicastri%NULL%1,          Inmaculada%Casas%NULL%1,          Amparo%Larrauri%NULL%1,          Magdalena%Salom Castell%NULL%1,          Francisco%Pozo%NULL%1,          Rinat A.%Maksyutov%NULL%1,          Charlotte%Martin%NULL%1,          Marc%Van Ranst%NULL%1,          Nathalie%Bossuyt%NULL%1,          Lotta%Siira%NULL%1,          Jussi%Sane%NULL%1,          Karin%Tegmark-Wisell%NULL%1,          Maria%Palmérus%NULL%1,          Eeva K.%Broberg%NULL%1,          Julien%Beauté%NULL%1,          Pernille%Jorgensen%NULL%1,          Nick%Bundle%NULL%1,          Dmitriy%Pereyaslov%NULL%1,          Cornelia%Adlhoch%NULL%1,          Jukka%Pukkila%NULL%1,          Richard%Pebody%NULL%1,          Sonja%Olsen%NULL%1,          Bruno Christian%Ciancio%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%18,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%1,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%1,          Jie%Xiang%NULL%1,          Yeming%Wang%NULL%0,          Bin%Song%NULL%1,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%1,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%1,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%1,          Yi%Zhang%NULL%1,          Hua%Chen%NULL%1,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%4,          Tangkai%Qi%NULL%1,          Li%Liu%NULL%1,          Yun%Ling%NULL%0,          Zhiping%Qian%NULL%1,          Tao%Li%NULL%1,          Feng%Li%NULL%1,          Qingnian%Xu%NULL%1,          Yuyi%Zhang%NULL%1,          Shuibao%Xu%NULL%1,          Zhigang%Song%NULL%1,          Yigang%Zeng%NULL%1,          Yinzhong%Shen%NULL%1,          Yuxin%Shi%NULL%0,          Tongyu%Zhu%NULL%1,          Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Chen%NULL%1,          Bin%Quan%NULL%1,          Xiaoning%Li%NULL%1,          Guangjian%Gao%NULL%1,          Wenqiang%Zheng%NULL%1,          Jun%Zhang%NULL%1,          Zhiyun%Zhang%NULL%1,          Chunsheng%Liu%NULL%1,          Li%Li%NULL%0,          Chenglin%Wang%NULL%1,          Guihua%Zhang%NULL%1,          Jiajia%Li%NULL%1,          Yunhai%Dai%NULL%1,          Jianghua%Yang%yjhpath@163.com%1,          Wenzheng%Han%11418166@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%9,       Xiaoyan%Chen%xref no email%9,       Yanping%Cai%xref no email%9,       Jia\u2019an%Xia%xref no email%9,       Xing%Zhou%xref no email%9,       Sha%Xu%xref no email%9,       Hanping%Huang%xref no email%9,       Li%Zhang%xref no email%9,       Xia%Zhou%xref no email%9,       Chunling%Du%xref no email%9,       Yuye%Zhang%xref no email%9,       Juan%Song%xref no email%10,       Sijiao%Wang%xref no email%9,       Yencheng%Chao%xref no email%9,       Zeyong%Yang%xref no email%9,       Jie%Xu%xref no email%9,       Xin%Zhou%xref no email%9,       Dechang%Chen%xref no email%9,       Weining%Xiong%xref no email%9,       Lei%Xu%xref no email%9,       Feng%Zhou%xref no email%9,       Jinjun%Jiang%xref no email%9,       Chunxue%Bai%xref no email%9,       Junhua%Zheng%xref no email%9,       Yuanlin%Song%xref no email%10]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%4,          Kai%Xie%NULL%2,          Kai%Xie%NULL%0,          Hui%Lu%NULL%1,          Lei%Xu%bayinhexl@126.com%1,          Shusheng%Zhou%zhouss108@163.com%1,          Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%3,       Yong%Lu%xref no email%3,       Qiqi%Cao%xref no email%3,       Le%Qin%xref no email%3,       Zilai%Pan%xref no email%3,       Fuhua%Yan%xref no email%3,       Wenjie%Yang%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,          Yuanyuan%Xing%NULL%1,          Yu%Xiao%NULL%1,          Liping%Deng%NULL%1,          Qiu%Zhao%NULL%1,          Hongling%Wang%NULL%1,          Yong%Xiong%NULL%1,          Zhenshun%Cheng%NULL%0,          Shicheng%Gao%NULL%1,          Ke%Liang%NULL%1,          Mingqi%Luo%NULL%1,          Tielong%Chen%NULL%1,          Shihui%Song%NULL%1,          Zhiyong%Ma%NULL%1,          Xiaoping%Chen%NULL%1,          Ruiying%Zheng%NULL%1,          Qian%Cao%NULL%1,          Fan%Wang%fanndywang@foxmail.com%1,          Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%6,          Bohan%Yang%NULL%1,          Qianwen%Li%NULL%1,          Lu%Wen%NULL%1,          Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yanrong%Wang%123rong@sohu.com%1,          Yingxia%Liu%NULL%1,          Lei%Liu%NULL%1,          Xianfeng%Wang%NULL%1,          Nijuan%Luo%NULL%1,          Ling%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Han%xref no email%1,       Lu%Huang%xref no email%1,       Hong%Jiang%xref no email%1,       Jin%Dong%xref no email%1,       Hongfen%Peng%xref no email%1,       Dongyou%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,          N -B%Yang%NULL%1,          F%Ding%NULL%1,          A H Y%Ma%NULL%1,          Z -Y%Wang%NULL%2,          Y -F%Shen%NULL%1,          C -W%Shi%NULL%1,          X%Lian%NULL%1,          J -G%Chu%NULL%1,          L%Chen%chxmin@hotmail.com%1,          Z -Y%Wang%NULL%0,          D -W%Ren%NULL%1,          G -X%Li%NULL%1,          X -Q%Chen%chxmin@hotmail.com%1,          H -J%Shen%NULL%1,          X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%3,          Tuantuan%Li%NULL%1,          Mingfeng%Han%NULL%1,          Xiuyong%Li%NULL%1,          Dong%Wu%NULL%1,          Yuanhong%Xu%NULL%1,          Yulin%Zhu%NULL%1,          Yan%Liu%NULL%1,          Xiaowu%Wang%wangxiaowu19880218@126.com%1,          Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -5701,7 +5989,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>1496</v>
+        <v>1589</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -5733,7 +6021,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>1497</v>
+        <v>1590</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -5765,7 +6053,7 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>1498</v>
+        <v>1591</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
@@ -5797,7 +6085,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>1499</v>
+        <v>1592</v>
       </c>
       <c r="F5" t="s">
         <v>82</v>
@@ -5829,7 +6117,7 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>1500</v>
+        <v>1593</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -5861,7 +6149,7 @@
         <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>1501</v>
+        <v>1594</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -5893,7 +6181,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>1502</v>
+        <v>1595</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -5925,7 +6213,7 @@
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>863</v>
+        <v>974</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -5957,7 +6245,7 @@
         <v>808</v>
       </c>
       <c r="E10" t="s">
-        <v>1503</v>
+        <v>1596</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -5989,7 +6277,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>1504</v>
+        <v>1597</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -6021,7 +6309,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>587</v>
+        <v>1598</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
@@ -6053,7 +6341,7 @@
         <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>1505</v>
+        <v>1599</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -6085,7 +6373,7 @@
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>1506</v>
+        <v>1600</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -6117,7 +6405,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>1507</v>
+        <v>1601</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -6149,7 +6437,7 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>591</v>
+        <v>704</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -6181,7 +6469,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>592</v>
+        <v>1602</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -6213,7 +6501,7 @@
         <v>1208</v>
       </c>
       <c r="E18" t="s">
-        <v>1508</v>
+        <v>1603</v>
       </c>
       <c r="F18" t="s">
         <v>267</v>
@@ -6245,7 +6533,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>1509</v>
+        <v>1604</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -6277,7 +6565,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>1510</v>
+        <v>1605</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -6309,7 +6597,7 @@
         <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>1511</v>
+        <v>1606</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -6341,7 +6629,7 @@
         <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>1512</v>
+        <v>1607</v>
       </c>
       <c r="F22" t="s">
         <v>140</v>
@@ -6373,7 +6661,7 @@
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>1513</v>
+        <v>1608</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -6405,7 +6693,7 @@
         <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>1514</v>
+        <v>1609</v>
       </c>
       <c r="F24" t="s">
         <v>148</v>
@@ -6437,7 +6725,7 @@
         <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>1515</v>
+        <v>1610</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -6469,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>1516</v>
+        <v>1611</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -6501,7 +6789,7 @@
         <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>1517</v>
+        <v>1612</v>
       </c>
       <c r="F27" t="s">
         <v>160</v>
@@ -6533,7 +6821,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>1518</v>
+        <v>1613</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -6565,7 +6853,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>1519</v>
+        <v>1614</v>
       </c>
       <c r="F29" t="s">
         <v>166</v>
@@ -6597,7 +6885,7 @@
         <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>1520</v>
+        <v>1615</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -6629,7 +6917,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>1521</v>
+        <v>1616</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -6661,7 +6949,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1522</v>
+        <v>1617</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -6693,7 +6981,7 @@
         <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>1523</v>
+        <v>1618</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -6725,7 +7013,7 @@
         <v>1220</v>
       </c>
       <c r="E34" t="s">
-        <v>1524</v>
+        <v>1619</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -6757,7 +7045,7 @@
         <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>1525</v>
+        <v>1620</v>
       </c>
       <c r="F35" t="s">
         <v>33</v>
@@ -6789,7 +7077,7 @@
         <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>1526</v>
+        <v>1621</v>
       </c>
       <c r="F36" t="s">
         <v>183</v>
@@ -6821,7 +7109,7 @@
         <v>1222</v>
       </c>
       <c r="E37" t="s">
-        <v>1527</v>
+        <v>1622</v>
       </c>
       <c r="F37" t="s">
         <v>188</v>
@@ -6853,7 +7141,7 @@
         <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>1528</v>
+        <v>1623</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -6885,7 +7173,7 @@
         <v>1225</v>
       </c>
       <c r="E39" t="s">
-        <v>1529</v>
+        <v>1624</v>
       </c>
       <c r="F39" t="s">
         <v>193</v>
@@ -6917,7 +7205,7 @@
         <v>1226</v>
       </c>
       <c r="E40" t="s">
-        <v>614</v>
+        <v>727</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -6949,7 +7237,7 @@
         <v>1227</v>
       </c>
       <c r="E41" t="s">
-        <v>615</v>
+        <v>728</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -6981,7 +7269,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1530</v>
+        <v>1625</v>
       </c>
       <c r="F42" t="s">
         <v>206</v>
@@ -7045,7 +7333,7 @@
         <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>618</v>
+        <v>731</v>
       </c>
       <c r="F44" t="s">
         <v>210</v>
@@ -7077,7 +7365,7 @@
         <v>1230</v>
       </c>
       <c r="E45" t="s">
-        <v>1531</v>
+        <v>1626</v>
       </c>
       <c r="F45" t="s">
         <v>215</v>
@@ -7109,7 +7397,7 @@
         <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>620</v>
+        <v>733</v>
       </c>
       <c r="F46" t="s">
         <v>220</v>
@@ -7141,7 +7429,7 @@
         <v>1231</v>
       </c>
       <c r="E47" t="s">
-        <v>1532</v>
+        <v>1627</v>
       </c>
       <c r="F47" t="s">
         <v>224</v>
@@ -7173,7 +7461,7 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>1533</v>
+        <v>1628</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -7205,7 +7493,7 @@
         <v>1233</v>
       </c>
       <c r="E49" t="s">
-        <v>1534</v>
+        <v>1629</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -7237,7 +7525,7 @@
         <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>1535</v>
+        <v>1630</v>
       </c>
       <c r="F50" t="s">
         <v>48</v>
@@ -7269,7 +7557,7 @@
         <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>1536</v>
+        <v>1631</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -7301,7 +7589,7 @@
         <v>236</v>
       </c>
       <c r="E52" t="s">
-        <v>1537</v>
+        <v>1632</v>
       </c>
       <c r="F52" t="s">
         <v>238</v>
@@ -7333,7 +7621,7 @@
         <v>1236</v>
       </c>
       <c r="E53" t="s">
-        <v>1538</v>
+        <v>1633</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -7365,7 +7653,7 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>1539</v>
+        <v>1634</v>
       </c>
       <c r="F54" t="s">
         <v>52</v>
@@ -7397,7 +7685,7 @@
         <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>629</v>
+        <v>1635</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -7429,7 +7717,7 @@
         <v>1238</v>
       </c>
       <c r="E56" t="s">
-        <v>1540</v>
+        <v>1636</v>
       </c>
       <c r="F56" t="s">
         <v>251</v>
